--- a/Excel/monster.怪物.xlsx
+++ b/Excel/monster.怪物.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5165CCE7-CD93-4B27-8A32-59D25574A3F6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C419901-C45E-4FBA-A1A2-735B84D57D51}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="怪物" sheetId="26" r:id="rId2"/>
     <sheet name="波次表" sheetId="27" r:id="rId3"/>
-    <sheet name="关卡" sheetId="30" r:id="rId4"/>
-    <sheet name="怪物属性" sheetId="28" r:id="rId5"/>
+    <sheet name="怪物属性" sheetId="28" r:id="rId4"/>
+    <sheet name="关卡" sheetId="30" r:id="rId5"/>
     <sheet name="关卡规划" sheetId="29" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -24,84 +24,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>作者</author>
-  </authors>
-  <commentList>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{7429B382-384A-4D2B-9B54-A38D696A90F6}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1. 普通
-2. 精英
-3. BOSS</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>作者</author>
-  </authors>
-  <commentList>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{CB77680D-1137-44EB-8873-10720798FD8B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1. 普通怪
-2. 精英怪
-3. BOSS</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="133">
   <si>
     <t>sheet名</t>
   </si>
@@ -225,22 +149,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>attr.lv</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>attr.type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>预设</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -265,10 +173,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>attrType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>lv</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -361,10 +265,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>怪物类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>等级</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -449,271 +349,211 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>pathFile</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径文件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>node[1].name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>node[1].monId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pauseTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂停时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点1名字</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点1怪物ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>node[2].name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>node[2].monId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点2名字</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点2怪物ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>node[3].name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>node[3].monId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点3名字</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点3怪物ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>node[4].name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点4名字</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>node[4].monId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点4怪物ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>node[5].name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点5名字</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>node[5].monId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点5怪物ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>node[6].name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>node[6].monId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点6名字</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点6怪物ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>node[7].name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点7名字</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>node[7].monId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点7怪物ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>batchId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>波次ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>path1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>node[8].name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点8名字</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>node[8].monId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点8怪物ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>node[9].name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点9名字</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>node[9].monId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点9怪物ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>node[10].name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点10名字</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>node[10].monId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点10怪物ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>levelId</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>b[1].pathFile</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>b[1].mon[1].nodeName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>b[1].mon[1].Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>pathFile</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>string:&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>路径文件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>node[1].name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>node[1].monId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>node[1].hpFac</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>node[1].dmgFac</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>pauseTime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂停时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>节点1名字</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>节点1怪物ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>节点1血量系数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>节点1伤害系数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>node[2].name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>node[2].monId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>node[2].hpFac</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>node[2].dmgFac</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>节点2名字</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>节点2怪物ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>节点2血量系数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>节点2伤害系数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>node[3].name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>node[3].monId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>node[3].hpFac</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>node[3].dmgFac</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>节点3名字</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>节点3怪物ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>节点3血量系数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>节点3伤害系数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>node[4].name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>节点4名字</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>node[4].monId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>节点4怪物ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>node[4].hpFac</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>节点4血量系数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>node[4].dmgFac</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>节点4伤害系数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>node[5].name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>节点5名字</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>node[5].monId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>节点5怪物ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>node[5].hpFac</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>节点5血量系数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>node[5].dmgFac</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>节点5伤害系数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>node[6].name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>node[6].monId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>node[6].hpFac</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>node[6].dmgFac</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>节点6名字</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>节点6怪物ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>节点6血量系数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>节点6伤害系数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>node[7].name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>节点7名字</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>node[7].monId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>节点7怪物ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>node[7].hpFac</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>节点7血量系数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>node[7].dmgFac</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>节点7伤害系数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>batchId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>波次ID</t>
+    <t>bc[1].id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bc[1].hpFac</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bc[1].atkFac</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -721,7 +561,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -803,21 +643,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="8">
@@ -930,7 +755,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -946,9 +771,6 @@
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="12">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="12" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1334,7 +1156,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:G15"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1373,13 +1195,13 @@
         <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -1390,16 +1212,16 @@
         <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>30</v>
@@ -1463,71 +1285,66 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C4C9D73-B832-4A9D-87A8-827BB53C2F30}">
-  <dimension ref="A1:AK4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C4C9D73-B832-4A9D-87A8-827BB53C2F30}">
+  <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="6" width="12.375" customWidth="1"/>
-    <col min="8" max="8" width="12.75" customWidth="1"/>
-    <col min="9" max="9" width="12.375" customWidth="1"/>
-    <col min="10" max="10" width="14.125" customWidth="1"/>
-    <col min="11" max="11" width="16.875" customWidth="1"/>
-    <col min="12" max="12" width="17.625" customWidth="1"/>
-    <col min="13" max="13" width="16.125" customWidth="1"/>
-    <col min="14" max="14" width="14.125" customWidth="1"/>
-    <col min="15" max="15" width="16.875" customWidth="1"/>
-    <col min="16" max="16" width="17.625" customWidth="1"/>
-    <col min="17" max="17" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="12.75" customWidth="1"/>
+    <col min="5" max="5" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="14.125" customWidth="1"/>
+    <col min="7" max="7" width="16.875" customWidth="1"/>
+    <col min="8" max="8" width="14.125" customWidth="1"/>
+    <col min="9" max="9" width="16.875" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="17.875" customWidth="1"/>
+    <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="13" max="13" width="17.875" customWidth="1"/>
+    <col min="14" max="14" width="16" customWidth="1"/>
+    <col min="15" max="15" width="17.875" customWidth="1"/>
+    <col min="16" max="16" width="16" customWidth="1"/>
+    <col min="17" max="17" width="17.875" customWidth="1"/>
     <col min="18" max="18" width="16" customWidth="1"/>
     <col min="19" max="19" width="17.875" customWidth="1"/>
-    <col min="20" max="20" width="20.25" customWidth="1"/>
-    <col min="21" max="21" width="18.125" customWidth="1"/>
-    <col min="22" max="22" width="16" customWidth="1"/>
-    <col min="23" max="23" width="17.875" customWidth="1"/>
-    <col min="24" max="24" width="20.25" customWidth="1"/>
-    <col min="25" max="25" width="18.125" customWidth="1"/>
-    <col min="26" max="26" width="16" customWidth="1"/>
-    <col min="27" max="27" width="17.875" customWidth="1"/>
-    <col min="28" max="28" width="20.25" customWidth="1"/>
-    <col min="29" max="29" width="18.125" customWidth="1"/>
-    <col min="30" max="30" width="16" customWidth="1"/>
-    <col min="31" max="31" width="17.875" customWidth="1"/>
-    <col min="32" max="32" width="20.25" customWidth="1"/>
-    <col min="33" max="33" width="18.125" customWidth="1"/>
-    <col min="34" max="34" width="16" customWidth="1"/>
-    <col min="35" max="35" width="17.875" customWidth="1"/>
-    <col min="36" max="36" width="20.25" customWidth="1"/>
-    <col min="37" max="37" width="18.125" customWidth="1"/>
+    <col min="20" max="20" width="16.75" customWidth="1"/>
+    <col min="21" max="21" width="17.375" customWidth="1"/>
+    <col min="22" max="22" width="17.5" customWidth="1"/>
+    <col min="23" max="23" width="17.375" customWidth="1"/>
+    <col min="24" max="24" width="18.375" customWidth="1"/>
+    <col min="25" max="25" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>31</v>
+        <v>114</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="G1" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>94</v>
@@ -1536,16 +1353,16 @@
         <v>95</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="N1" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>105</v>
       </c>
       <c r="P1" s="6" t="s">
         <v>106</v>
@@ -1554,348 +1371,435 @@
         <v>107</v>
       </c>
       <c r="R1" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="S1" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="S1" s="6" t="s">
-        <v>113</v>
-      </c>
       <c r="T1" s="6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="U1" s="6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="W1" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X1" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Y1" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB1" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC1" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="AD1" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="AE1" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="AF1" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="AG1" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="AH1" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="AI1" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="AJ1" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="AK1" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>23</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
       </c>
+      <c r="C2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
       <c r="E2" t="s">
         <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="G2" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K2" t="s">
         <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
       </c>
       <c r="P2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="S2" t="s">
         <v>23</v>
       </c>
       <c r="T2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="U2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V2" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="W2" t="s">
         <v>23</v>
       </c>
       <c r="X2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="Y2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37" ht="15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="E3" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="J3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="P3" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="R3" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="S3" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="T3" s="2" t="s">
         <v>118</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AJ3" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="AK3" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
         <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC607366-3147-4BB3-871A-6FBF72A30BDC}">
-  <dimension ref="A1:J1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF36D8AE-75A8-46BF-880B-B77EF97ECDB9}">
+  <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
-    <col min="3" max="3" width="23.625" customWidth="1"/>
-    <col min="4" max="4" width="13.25" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
-    <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="13.75" customWidth="1"/>
-    <col min="8" max="8" width="13.875" customWidth="1"/>
-    <col min="9" max="9" width="21.375" customWidth="1"/>
-    <col min="10" max="10" width="12.75" customWidth="1"/>
+    <col min="4" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="24" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J1" t="s">
-        <v>90</v>
+    <row r="1" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V2" t="s">
+        <v>24</v>
+      </c>
+      <c r="W2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1905,253 +1809,43 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF36D8AE-75A8-46BF-880B-B77EF97ECDB9}">
-  <dimension ref="A1:Y3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC607366-3147-4BB3-871A-6FBF72A30BDC}">
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="25" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="12.25" customWidth="1"/>
+    <col min="5" max="5" width="14.375" customWidth="1"/>
+    <col min="6" max="6" width="13.25" customWidth="1"/>
+    <col min="7" max="7" width="13.125" customWidth="1"/>
+    <col min="8" max="8" width="23" customWidth="1"/>
+    <col min="9" max="9" width="13.75" customWidth="1"/>
+    <col min="10" max="10" width="13.875" customWidth="1"/>
+    <col min="11" max="11" width="21.375" customWidth="1"/>
+    <col min="12" max="12" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S2" t="s">
-        <v>24</v>
-      </c>
-      <c r="T2" t="s">
-        <v>24</v>
-      </c>
-      <c r="U2" t="s">
-        <v>24</v>
-      </c>
-      <c r="V2" t="s">
-        <v>24</v>
-      </c>
-      <c r="W2" t="s">
-        <v>24</v>
-      </c>
-      <c r="X2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>86</v>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Excel/monster.怪物.xlsx
+++ b/Excel/monster.怪物.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C419901-C45E-4FBA-A1A2-735B84D57D51}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A8899F-B984-4E54-B8DC-C3FC77971963}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="怪物" sheetId="26" r:id="rId2"/>
-    <sheet name="波次表" sheetId="27" r:id="rId3"/>
-    <sheet name="怪物属性" sheetId="28" r:id="rId4"/>
-    <sheet name="关卡" sheetId="30" r:id="rId5"/>
+    <sheet name="波次" sheetId="27" r:id="rId3"/>
+    <sheet name="关卡" sheetId="30" r:id="rId4"/>
+    <sheet name="怪物属性" sheetId="28" r:id="rId5"/>
     <sheet name="关卡规划" sheetId="29" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -24,8 +24,46 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{4363ED02-0BF8-4FF4-A528-4C515DD9BC13}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1. 普通怪
+2. 巡航怪
+3. 自杀队</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="215">
   <si>
     <t>sheet名</t>
   </si>
@@ -109,10 +147,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>monId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>stayTime</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -121,10 +155,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>float:&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -481,10 +511,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>batchId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>波次ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -541,10 +567,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>levelId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>bc[1].id</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -553,7 +575,410 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>bc[1].atkFac</t>
+    <t>plane101</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>plane102</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>node1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>node2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>node3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>path3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>node4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>node5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>node6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>node7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>node8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>path4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>path5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>attrLv</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bc[2].id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bc[2].hpFac</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bc[3].id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bc[3].hpFac</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:e&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>float:e&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性等级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bc[1].dmgFac</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bc[2].dmgFac</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bc[3].dmgFac</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>波次ID1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量修正1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害修正1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>波次ID2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量修正2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害修正2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>波次ID3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量修正3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害修正3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xl[1].id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xl[1].entryT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xl[1].hpFac</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xl[1].dmgFac</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xl[2].id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xl[2].entryT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xl[2].hpFac</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xl[2].dmgFac</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xl[3].id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xl[3].entryT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xl[3].hpFac</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xl[3].dmgFac</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>巡逻波次ID1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>巡逻入场时间1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>巡逻血量系数1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>巡逻伤害系数1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>巡逻波次ID2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>巡逻入场时间2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>巡逻血量系数2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>巡逻伤害系数2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>巡逻波次ID3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>巡逻入场时间3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>巡逻血量系数3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>巡逻伤害系数3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rowId</t>
+  </si>
+  <si>
+    <t>行ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rowId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>波次</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物属性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster.json</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>monWave.json</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>evel.json</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>onAttr.json</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>id,rowId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,lv</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端配置怪物的表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务端配置怪物的表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端配置关卡中，一个波次的表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务端配置关卡中，一个波次的表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端配置关卡的表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务端配置关卡的表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>客户端配置怪物属性的表，每个I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>D，N个等级</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务端配置怪物属性的表，每个ID，N个等级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:e&lt;&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -561,7 +986,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -643,6 +1068,21 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1065,10 +1505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1106,43 +1546,175 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
+      <c r="A2" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>198</v>
+      </c>
       <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
+      <c r="D2" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="G2" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G3" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>199</v>
+      </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
+      <c r="D4" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="G4" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>195</v>
+      </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
+      <c r="C5" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G5" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="G6" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="G7" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="G8" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="G9" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1153,129 +1725,118 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2831914-6C97-4A3E-B7CA-07564CCE33F3}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="10.875" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
+    <col min="2" max="4" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="10.875" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>100001</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>10</v>
-      </c>
+      <c r="B5" s="3">
+        <v>100002</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1285,522 +1846,922 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C4C9D73-B832-4A9D-87A8-827BB53C2F30}">
-  <dimension ref="A1:Y4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C4C9D73-B832-4A9D-87A8-827BB53C2F30}">
+  <dimension ref="A1:Z7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="9.125" customWidth="1"/>
+    <col min="5" max="5" width="12.75" customWidth="1"/>
+    <col min="6" max="6" width="12.375" customWidth="1"/>
+    <col min="7" max="7" width="14.125" customWidth="1"/>
+    <col min="8" max="8" width="16.875" customWidth="1"/>
+    <col min="9" max="9" width="15.625" customWidth="1"/>
+    <col min="10" max="10" width="16.875" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+    <col min="12" max="12" width="17.875" customWidth="1"/>
+    <col min="13" max="13" width="16" customWidth="1"/>
+    <col min="14" max="14" width="17.875" customWidth="1"/>
+    <col min="15" max="15" width="16" customWidth="1"/>
+    <col min="16" max="16" width="17.875" customWidth="1"/>
+    <col min="17" max="17" width="16" customWidth="1"/>
+    <col min="18" max="18" width="17.875" customWidth="1"/>
+    <col min="19" max="19" width="16" customWidth="1"/>
+    <col min="20" max="20" width="17.875" customWidth="1"/>
+    <col min="21" max="21" width="16.75" customWidth="1"/>
+    <col min="22" max="22" width="17.375" customWidth="1"/>
+    <col min="23" max="23" width="17.5" customWidth="1"/>
+    <col min="24" max="24" width="17.375" customWidth="1"/>
+    <col min="25" max="25" width="18.375" customWidth="1"/>
+    <col min="26" max="26" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H2" t="s">
+        <v>214</v>
+      </c>
+      <c r="I2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J2" t="s">
+        <v>214</v>
+      </c>
+      <c r="K2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L2" t="s">
+        <v>214</v>
+      </c>
+      <c r="M2" t="s">
+        <v>151</v>
+      </c>
+      <c r="N2" t="s">
+        <v>214</v>
+      </c>
+      <c r="O2" t="s">
+        <v>151</v>
+      </c>
+      <c r="P2" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>151</v>
+      </c>
+      <c r="R2" t="s">
+        <v>214</v>
+      </c>
+      <c r="S2" t="s">
+        <v>151</v>
+      </c>
+      <c r="T2" t="s">
+        <v>214</v>
+      </c>
+      <c r="U2" t="s">
+        <v>151</v>
+      </c>
+      <c r="V2" t="s">
+        <v>214</v>
+      </c>
+      <c r="W2" t="s">
+        <v>151</v>
+      </c>
+      <c r="X2" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1001</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>500</v>
+      </c>
+      <c r="F4" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H4" s="3">
+        <v>100001</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="J4" s="3">
+        <v>100001</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="L4" s="3">
+        <v>100002</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+    </row>
+    <row r="5" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1002</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F5" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H5" s="3">
+        <v>100001</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="J5" s="3">
+        <v>100001</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="L5" s="3">
+        <v>100001</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="N5" s="3">
+        <v>100001</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="P5" s="3">
+        <v>100001</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="R5" s="3">
+        <v>100001</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="T5" s="3">
+        <v>100002</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="V5" s="3">
+        <v>100002</v>
+      </c>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+    </row>
+    <row r="6" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1003</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F6" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H6" s="3">
+        <v>100001</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="J6" s="3">
+        <v>100001</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="L6" s="3">
+        <v>100002</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+    </row>
+    <row r="7" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1004</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H7" s="3">
+        <v>100001</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="J7" s="3">
+        <v>100001</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="L7" s="3">
+        <v>100001</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="N7" s="3">
+        <v>100001</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="P7" s="3">
+        <v>100001</v>
+      </c>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC607366-3147-4BB3-871A-6FBF72A30BDC}">
+  <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:Y4"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="12.75" customWidth="1"/>
-    <col min="5" max="5" width="12.375" customWidth="1"/>
-    <col min="6" max="6" width="14.125" customWidth="1"/>
-    <col min="7" max="7" width="16.875" customWidth="1"/>
-    <col min="8" max="8" width="14.125" customWidth="1"/>
-    <col min="9" max="9" width="16.875" customWidth="1"/>
-    <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="17.875" customWidth="1"/>
-    <col min="12" max="12" width="16" customWidth="1"/>
-    <col min="13" max="13" width="17.875" customWidth="1"/>
-    <col min="14" max="14" width="16" customWidth="1"/>
-    <col min="15" max="15" width="17.875" customWidth="1"/>
-    <col min="16" max="16" width="16" customWidth="1"/>
-    <col min="17" max="17" width="17.875" customWidth="1"/>
-    <col min="18" max="18" width="16" customWidth="1"/>
-    <col min="19" max="19" width="17.875" customWidth="1"/>
-    <col min="20" max="20" width="16.75" customWidth="1"/>
-    <col min="21" max="21" width="17.375" customWidth="1"/>
-    <col min="22" max="22" width="17.5" customWidth="1"/>
-    <col min="23" max="23" width="17.375" customWidth="1"/>
-    <col min="24" max="24" width="18.375" customWidth="1"/>
-    <col min="25" max="25" width="17" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:25" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>82</v>
-      </c>
-      <c r="K2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" t="s">
-        <v>82</v>
-      </c>
-      <c r="M2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" t="s">
-        <v>82</v>
-      </c>
-      <c r="O2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" t="s">
-        <v>82</v>
-      </c>
-      <c r="S2" t="s">
-        <v>23</v>
-      </c>
-      <c r="T2" t="s">
-        <v>29</v>
-      </c>
-      <c r="U2" t="s">
-        <v>23</v>
-      </c>
-      <c r="V2" t="s">
-        <v>29</v>
-      </c>
-      <c r="W2" t="s">
-        <v>23</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF36D8AE-75A8-46BF-880B-B77EF97ECDB9}">
-  <dimension ref="A1:X3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="24" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="9.875" customWidth="1"/>
+    <col min="4" max="4" width="12.25" customWidth="1"/>
+    <col min="5" max="5" width="14.375" customWidth="1"/>
+    <col min="6" max="6" width="14.625" customWidth="1"/>
+    <col min="7" max="7" width="13.125" customWidth="1"/>
+    <col min="8" max="8" width="13.5" customWidth="1"/>
+    <col min="9" max="9" width="13.75" customWidth="1"/>
+    <col min="10" max="10" width="13.875" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="12" width="13.5" customWidth="1"/>
+    <col min="13" max="13" width="11.75" customWidth="1"/>
+    <col min="14" max="14" width="14" customWidth="1"/>
+    <col min="15" max="15" width="13.25" customWidth="1"/>
+    <col min="16" max="16" width="15.25" customWidth="1"/>
+    <col min="17" max="17" width="14" customWidth="1"/>
+    <col min="18" max="18" width="13.375" customWidth="1"/>
+    <col min="19" max="19" width="13" customWidth="1"/>
+    <col min="20" max="20" width="15.625" customWidth="1"/>
+    <col min="21" max="21" width="15.875" customWidth="1"/>
+    <col min="22" max="22" width="18.375" customWidth="1"/>
+    <col min="23" max="23" width="14.625" customWidth="1"/>
+    <col min="24" max="24" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>49</v>
+        <v>155</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>53</v>
+        <v>146</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>54</v>
+        <v>156</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>55</v>
+        <v>147</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>56</v>
+        <v>148</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>38</v>
+        <v>168</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>39</v>
+        <v>169</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>40</v>
+        <v>170</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>41</v>
+        <v>171</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>42</v>
+        <v>172</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>43</v>
+        <v>173</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="U1" s="6" t="s">
-        <v>45</v>
+        <v>175</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>46</v>
+        <v>176</v>
       </c>
       <c r="W1" s="6" t="s">
-        <v>47</v>
+        <v>177</v>
       </c>
       <c r="X1" s="6" t="s">
-        <v>48</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>149</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>151</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>152</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>151</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>152</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>151</v>
       </c>
       <c r="K2" t="s">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>152</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>151</v>
       </c>
       <c r="N2" t="s">
-        <v>24</v>
+        <v>214</v>
       </c>
       <c r="O2" t="s">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="P2" t="s">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>151</v>
       </c>
       <c r="R2" t="s">
-        <v>24</v>
+        <v>214</v>
       </c>
       <c r="S2" t="s">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="T2" t="s">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="U2" t="s">
-        <v>24</v>
+        <v>151</v>
       </c>
       <c r="V2" t="s">
-        <v>24</v>
+        <v>214</v>
       </c>
       <c r="W2" t="s">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="X2" t="s">
-        <v>24</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>59</v>
+        <v>192</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>153</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>60</v>
+        <v>154</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>61</v>
+        <v>158</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>62</v>
+        <v>159</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>63</v>
+        <v>160</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>64</v>
+        <v>161</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>65</v>
+        <v>162</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>66</v>
+        <v>163</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>67</v>
+        <v>164</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>68</v>
+        <v>165</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>69</v>
+        <v>166</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>70</v>
+        <v>179</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>71</v>
+        <v>180</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>72</v>
+        <v>181</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>73</v>
+        <v>182</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>74</v>
+        <v>183</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>75</v>
+        <v>184</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>76</v>
+        <v>185</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>77</v>
+        <v>186</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>73</v>
+        <v>187</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>79</v>
+        <v>189</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>80</v>
-      </c>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1001</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1001</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1001</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1002</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+    </row>
+    <row r="5" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1002</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1001</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1002</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+    </row>
+    <row r="6" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1003</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1002</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3">
+        <v>1004</v>
+      </c>
+      <c r="N6" s="3">
+        <v>7000</v>
+      </c>
+      <c r="O6" s="3">
+        <v>1</v>
+      </c>
+      <c r="P6" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>1004</v>
+      </c>
+      <c r="R6" s="3">
+        <v>15000</v>
+      </c>
+      <c r="S6" s="3">
+        <v>1</v>
+      </c>
+      <c r="T6" s="3">
+        <v>1</v>
+      </c>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1809,43 +2770,1126 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC607366-3147-4BB3-871A-6FBF72A30BDC}">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF36D8AE-75A8-46BF-880B-B77EF97ECDB9}">
+  <dimension ref="A1:X23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="12.25" customWidth="1"/>
-    <col min="5" max="5" width="14.375" customWidth="1"/>
-    <col min="6" max="6" width="13.25" customWidth="1"/>
-    <col min="7" max="7" width="13.125" customWidth="1"/>
-    <col min="8" max="8" width="23" customWidth="1"/>
-    <col min="9" max="9" width="13.75" customWidth="1"/>
-    <col min="10" max="10" width="13.875" customWidth="1"/>
-    <col min="11" max="11" width="21.375" customWidth="1"/>
-    <col min="12" max="12" width="12.75" customWidth="1"/>
+    <col min="2" max="2" width="10.875" customWidth="1"/>
+    <col min="4" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="24" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F1" t="s">
-        <v>132</v>
-      </c>
+    <row r="1" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H2" t="s">
+        <v>214</v>
+      </c>
+      <c r="I2" t="s">
+        <v>152</v>
+      </c>
+      <c r="J2" t="s">
+        <v>214</v>
+      </c>
+      <c r="K2" t="s">
+        <v>152</v>
+      </c>
+      <c r="L2" t="s">
+        <v>214</v>
+      </c>
+      <c r="M2" t="s">
+        <v>152</v>
+      </c>
+      <c r="N2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O2" t="s">
+        <v>152</v>
+      </c>
+      <c r="P2" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>152</v>
+      </c>
+      <c r="R2" t="s">
+        <v>152</v>
+      </c>
+      <c r="S2" t="s">
+        <v>152</v>
+      </c>
+      <c r="T2" t="s">
+        <v>152</v>
+      </c>
+      <c r="U2" t="s">
+        <v>152</v>
+      </c>
+      <c r="V2" t="s">
+        <v>152</v>
+      </c>
+      <c r="W2" t="s">
+        <v>152</v>
+      </c>
+      <c r="X2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>100001</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>200</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>100</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+    </row>
+    <row r="5" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>100001</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>300</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>150</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+    </row>
+    <row r="6" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>100001</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>5</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>500</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>250</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+    </row>
+    <row r="7" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <v>100001</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>8</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>800</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>400</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+    </row>
+    <row r="8" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>100001</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>13</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+    </row>
+    <row r="9" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <v>100001</v>
+      </c>
+      <c r="C9" s="3">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>21</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1.05</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+    </row>
+    <row r="10" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
+        <v>100001</v>
+      </c>
+      <c r="C10" s="3">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>34</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+    </row>
+    <row r="11" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3">
+        <v>100001</v>
+      </c>
+      <c r="C11" s="3">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>55</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3">
+        <v>2.75</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3">
+        <v>100001</v>
+      </c>
+      <c r="C12" s="3">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>89</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>8.9</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3">
+        <v>4.45</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+    </row>
+    <row r="13" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3">
+        <v>100001</v>
+      </c>
+      <c r="C13" s="3">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>144</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>14.4</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3">
+        <v>7.2</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+    </row>
+    <row r="14" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3">
+        <v>100002</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>10</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>200</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>100</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+    </row>
+    <row r="15" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3">
+        <v>100002</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>15</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>300</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>150</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+    </row>
+    <row r="16" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3">
+        <v>100002</v>
+      </c>
+      <c r="C16" s="3">
+        <v>3</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>25</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>500</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>250</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3">
+        <v>100002</v>
+      </c>
+      <c r="C17" s="3">
+        <v>4</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>40</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>800</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>400</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+    </row>
+    <row r="18" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3">
+        <v>100002</v>
+      </c>
+      <c r="C18" s="3">
+        <v>5</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
+        <v>65</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+    </row>
+    <row r="19" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3">
+        <v>100002</v>
+      </c>
+      <c r="C19" s="3">
+        <v>6</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3">
+        <v>105</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1</v>
+      </c>
+      <c r="I19" s="3">
+        <v>1.05</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3">
+        <v>100002</v>
+      </c>
+      <c r="C20" s="3">
+        <v>7</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3">
+        <v>170</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+    </row>
+    <row r="21" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3">
+        <v>100002</v>
+      </c>
+      <c r="C21" s="3">
+        <v>8</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3">
+        <v>275</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1</v>
+      </c>
+      <c r="I21" s="3">
+        <v>2.75</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+    </row>
+    <row r="22" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>19</v>
+      </c>
+      <c r="B22" s="3">
+        <v>100002</v>
+      </c>
+      <c r="C22" s="3">
+        <v>9</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3">
+        <v>445</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3">
+        <v>8.9</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1</v>
+      </c>
+      <c r="I22" s="3">
+        <v>4.45</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+    </row>
+    <row r="23" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3">
+        <v>100002</v>
+      </c>
+      <c r="C23" s="3">
+        <v>10</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3">
+        <v>720</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3">
+        <v>14.4</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1</v>
+      </c>
+      <c r="I23" s="3">
+        <v>7.2</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Excel/monster.怪物.xlsx
+++ b/Excel/monster.怪物.xlsx
@@ -3,17 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A8899F-B984-4E54-B8DC-C3FC77971963}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B611DF36-2B40-439C-B69F-D89AA324E1B6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="怪物" sheetId="26" r:id="rId2"/>
     <sheet name="波次" sheetId="27" r:id="rId3"/>
     <sheet name="关卡" sheetId="30" r:id="rId4"/>
-    <sheet name="怪物属性" sheetId="28" r:id="rId5"/>
-    <sheet name="关卡规划" sheetId="29" r:id="rId6"/>
+    <sheet name="关卡属性" sheetId="31" r:id="rId5"/>
+    <sheet name="怪物属性" sheetId="28" r:id="rId6"/>
+    <sheet name="关卡规划" sheetId="29" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -58,12 +59,204 @@
         </r>
       </text>
     </comment>
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{5D7244F3-BB9B-4853-9B5D-5420560FE32A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+path动画暂定的时间点</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{2416A8C8-C8BB-4ABC-8133-676AB10B53AC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+暂停的时间</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{E853EB66-B05A-4979-8A7E-ED9876F62A3E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+拼的path下的节点名</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{079D0A68-73B5-488C-B06B-702AFDBB3BDA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+怪物表的ID</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{3F164368-7E4C-4EBF-A94E-68414B6AA6EF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+一波飞机离开后，或者所有敌机被打掉后，过多长时间出下一波</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{5EAB83CD-287E-428D-9E8F-AF14210FA9BC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+一波飞机离开后，或者所有敌机被打掉后，过多长时间出下一波</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{21515B22-9EB8-4A8C-B856-1DF74B29F940}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+一波飞机离开后，或者所有敌机被打掉后，过多长时间出下一波</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="200">
   <si>
     <t>sheet名</t>
   </si>
@@ -515,10 +708,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>path1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>node[8].name</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -571,10 +760,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>bc[1].hpFac</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>plane101</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -583,54 +768,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>node1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>node2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>node3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>path3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>node4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>node5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>node6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>node7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>node8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>path4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>boss</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>path5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>type</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -639,30 +780,14 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>attrLv</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>bc[2].id</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>bc[2].hpFac</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>bc[3].id</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>bc[3].hpFac</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>string:&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>int:&lt;&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -683,54 +808,18 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>bc[1].dmgFac</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bc[2].dmgFac</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bc[3].dmgFac</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>波次ID1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>血量修正1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害修正1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>波次ID2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>血量修正2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害修正2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>波次ID3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>血量修正3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害修正3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>xl[1].id</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -739,14 +828,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>xl[1].hpFac</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>xl[1].dmgFac</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>xl[2].id</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -755,14 +836,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>xl[2].hpFac</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>xl[2].dmgFac</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>xl[3].id</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -771,14 +844,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>xl[3].hpFac</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>xl[3].dmgFac</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>巡逻波次ID1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -787,14 +852,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>巡逻血量系数1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>巡逻伤害系数1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>巡逻波次ID2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -803,14 +860,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>巡逻血量系数2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>巡逻伤害系数2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>巡逻波次ID3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -819,19 +868,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>巡逻血量系数3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>巡逻伤害系数3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>rowId</t>
-  </si>
-  <si>
-    <t>行ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>rowId</t>
@@ -979,6 +1016,148 @@
   </si>
   <si>
     <t>int:e&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>attrLevel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第几关</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡属性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>evelAttr.json</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端配置怪物属性等级的表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>离开时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bc[1].leaveTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>float:e&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bc[2].leaveTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bc[3].leaveTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ath</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Path3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Path4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Path5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>plane</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>plane1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>plane2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>plane3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>plane4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>plane5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>plane6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>plane7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>plane8</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1505,10 +1684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1545,176 +1724,197 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>202</v>
+        <v>163</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>203</v>
+        <v>164</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>206</v>
+        <v>167</v>
       </c>
       <c r="G2" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>191</v>
+        <v>153</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>191</v>
+        <v>153</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>207</v>
+        <v>168</v>
       </c>
       <c r="G3" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>195</v>
+        <v>156</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>199</v>
+        <v>160</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="4" t="s">
-        <v>204</v>
+        <v>165</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>203</v>
+        <v>164</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>208</v>
+        <v>169</v>
       </c>
       <c r="G4" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>195</v>
+        <v>156</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
-        <v>199</v>
+        <v>160</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>191</v>
+        <v>153</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>191</v>
+        <v>153</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>209</v>
+        <v>170</v>
       </c>
       <c r="G5" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>196</v>
+        <v>157</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>200</v>
+        <v>161</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="4" t="s">
-        <v>204</v>
+        <v>165</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>203</v>
+        <v>7</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="G6" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>196</v>
+        <v>157</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="4" t="s">
-        <v>200</v>
+        <v>161</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>191</v>
+        <v>7</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>211</v>
+        <v>172</v>
       </c>
       <c r="G7" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>197</v>
+        <v>158</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="4" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>203</v>
+        <v>164</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c r="G8" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>197</v>
+        <v>158</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="4" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="G9" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
+    <row r="10" spans="1:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G10" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1728,7 +1928,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1764,7 +1964,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
@@ -1782,7 +1982,7 @@
         <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -1816,7 +2016,7 @@
         <v>100001</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -1831,7 +2031,7 @@
         <v>100002</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -1849,7 +2049,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C4C9D73-B832-4A9D-87A8-827BB53C2F30}">
   <dimension ref="A1:Z7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1890,7 +2092,7 @@
         <v>79</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>84</v>
@@ -1941,22 +2143,22 @@
         <v>110</v>
       </c>
       <c r="U1" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W1" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X1" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Y1" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Z1" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
@@ -1973,70 +2175,70 @@
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>214</v>
+        <v>135</v>
       </c>
       <c r="F2" t="s">
-        <v>214</v>
+        <v>135</v>
       </c>
       <c r="G2" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="H2" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="I2" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="J2" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="K2" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="L2" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="M2" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="N2" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="O2" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="P2" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="Q2" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="R2" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="S2" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="T2" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="U2" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="V2" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="W2" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="X2" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="Y2" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="Z2" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15" x14ac:dyDescent="0.2">
@@ -2050,7 +2252,7 @@
         <v>81</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>85</v>
@@ -2101,22 +2303,22 @@
         <v>111</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
@@ -2126,32 +2328,32 @@
       <c r="B4" s="3">
         <v>1001</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>113</v>
+      <c r="C4" s="4" t="s">
+        <v>187</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
       </c>
       <c r="E4" s="3">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="F4" s="3">
-        <v>5000</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>130</v>
+        <v>5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>191</v>
       </c>
       <c r="H4" s="3">
         <v>100001</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>131</v>
+      <c r="I4" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="J4" s="3">
         <v>100001</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>132</v>
+      <c r="K4" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="L4" s="3">
         <v>100002</v>
@@ -2178,62 +2380,62 @@
       <c r="B5" s="3">
         <v>1002</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>133</v>
+      <c r="C5" s="4" t="s">
+        <v>188</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
       </c>
       <c r="E5" s="3">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="F5" s="3">
-        <v>10000</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>130</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>192</v>
       </c>
       <c r="H5" s="3">
         <v>100001</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>131</v>
+      <c r="I5" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="J5" s="3">
         <v>100001</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>132</v>
+      <c r="K5" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="L5" s="3">
         <v>100001</v>
       </c>
-      <c r="M5" s="3" t="s">
-        <v>134</v>
+      <c r="M5" s="4" t="s">
+        <v>195</v>
       </c>
       <c r="N5" s="3">
         <v>100001</v>
       </c>
-      <c r="O5" s="3" t="s">
-        <v>135</v>
+      <c r="O5" s="4" t="s">
+        <v>196</v>
       </c>
       <c r="P5" s="3">
         <v>100001</v>
       </c>
-      <c r="Q5" s="3" t="s">
-        <v>136</v>
+      <c r="Q5" s="4" t="s">
+        <v>197</v>
       </c>
       <c r="R5" s="3">
         <v>100001</v>
       </c>
-      <c r="S5" s="3" t="s">
-        <v>137</v>
+      <c r="S5" s="4" t="s">
+        <v>198</v>
       </c>
       <c r="T5" s="3">
         <v>100002</v>
       </c>
-      <c r="U5" s="3" t="s">
-        <v>138</v>
+      <c r="U5" s="4" t="s">
+        <v>199</v>
       </c>
       <c r="V5" s="3">
         <v>100002</v>
@@ -2250,32 +2452,32 @@
       <c r="B6" s="3">
         <v>1003</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>139</v>
+      <c r="C6" s="4" t="s">
+        <v>189</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
       </c>
       <c r="E6" s="3">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F6" s="3">
-        <v>10000</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>130</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>192</v>
       </c>
       <c r="H6" s="3">
         <v>100001</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>131</v>
+      <c r="I6" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="J6" s="3">
         <v>100001</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="L6" s="3">
         <v>100002</v>
@@ -2302,40 +2504,40 @@
       <c r="B7" s="3">
         <v>1004</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>141</v>
+      <c r="C7" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="D7" s="3">
         <v>2</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="3" t="s">
-        <v>130</v>
+      <c r="G7" s="4" t="s">
+        <v>192</v>
       </c>
       <c r="H7" s="3">
         <v>100001</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>131</v>
+      <c r="I7" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="J7" s="3">
         <v>100001</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>132</v>
+      <c r="K7" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="L7" s="3">
         <v>100001</v>
       </c>
-      <c r="M7" s="3" t="s">
-        <v>134</v>
+      <c r="M7" s="4" t="s">
+        <v>195</v>
       </c>
       <c r="N7" s="3">
         <v>100001</v>
       </c>
-      <c r="O7" s="3" t="s">
-        <v>135</v>
+      <c r="O7" s="4" t="s">
+        <v>196</v>
       </c>
       <c r="P7" s="3">
         <v>100001</v>
@@ -2354,43 +2556,482 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC607366-3147-4BB3-871A-6FBF72A30BDC}">
-  <dimension ref="A1:X6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC607366-3147-4BB3-871A-6FBF72A30BDC}">
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="9.875" customWidth="1"/>
-    <col min="4" max="4" width="12.25" customWidth="1"/>
-    <col min="5" max="5" width="14.375" customWidth="1"/>
-    <col min="6" max="6" width="14.625" customWidth="1"/>
-    <col min="7" max="7" width="13.125" customWidth="1"/>
-    <col min="8" max="8" width="13.5" customWidth="1"/>
-    <col min="9" max="9" width="13.75" customWidth="1"/>
-    <col min="10" max="10" width="13.875" customWidth="1"/>
-    <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="13.5" customWidth="1"/>
-    <col min="13" max="13" width="11.75" customWidth="1"/>
-    <col min="14" max="14" width="14" customWidth="1"/>
-    <col min="15" max="15" width="13.25" customWidth="1"/>
-    <col min="16" max="16" width="15.25" customWidth="1"/>
-    <col min="17" max="17" width="14" customWidth="1"/>
-    <col min="18" max="18" width="13.375" customWidth="1"/>
-    <col min="19" max="19" width="13" customWidth="1"/>
-    <col min="20" max="20" width="15.625" customWidth="1"/>
-    <col min="21" max="21" width="15.875" customWidth="1"/>
-    <col min="22" max="22" width="18.375" customWidth="1"/>
-    <col min="23" max="23" width="14.625" customWidth="1"/>
-    <col min="24" max="24" width="14.75" customWidth="1"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="5" max="5" width="17.125" customWidth="1"/>
+    <col min="6" max="6" width="13.875" customWidth="1"/>
+    <col min="7" max="7" width="18.875" customWidth="1"/>
+    <col min="8" max="8" width="11.75" customWidth="1"/>
+    <col min="9" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="13.375" customWidth="1"/>
+    <col min="12" max="12" width="15.875" customWidth="1"/>
+    <col min="13" max="13" width="18.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" t="s">
+        <v>184</v>
+      </c>
+      <c r="H2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K2" t="s">
+        <v>135</v>
+      </c>
+      <c r="L2" t="s">
+        <v>134</v>
+      </c>
+      <c r="M2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1001</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1001</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1002</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1001</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1002</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3">
+        <v>2</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1002</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3">
+        <v>1004</v>
+      </c>
+      <c r="I6" s="3">
+        <v>7</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1004</v>
+      </c>
+      <c r="K6" s="3">
+        <v>15</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8096D4F-BFDB-4940-9B24-DC72F9251001}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>20</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <v>50</v>
+      </c>
+      <c r="C9" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
+        <v>100</v>
+      </c>
+      <c r="C10" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3">
+        <v>200</v>
+      </c>
+      <c r="C11" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3">
+        <v>300</v>
+      </c>
+      <c r="C12" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3">
+        <v>400</v>
+      </c>
+      <c r="C13" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3">
+        <v>500</v>
+      </c>
+      <c r="C14" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C15" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C16" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C17" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C18" s="3">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF36D8AE-75A8-46BF-880B-B77EF97ECDB9}">
+  <dimension ref="A1:X33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10.875" customWidth="1"/>
+    <col min="4" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="24" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15" x14ac:dyDescent="0.2">
@@ -2401,218 +3042,218 @@
         <v>7</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>144</v>
+        <v>35</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>126</v>
+        <v>49</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>127</v>
+        <v>50</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>155</v>
+        <v>47</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>145</v>
+        <v>48</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>146</v>
+        <v>51</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>156</v>
+        <v>52</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>147</v>
+        <v>53</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>148</v>
+        <v>54</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>157</v>
+        <v>55</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>167</v>
+        <v>56</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>168</v>
+        <v>36</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>169</v>
+        <v>37</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>170</v>
+        <v>38</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>171</v>
+        <v>39</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>172</v>
+        <v>40</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>173</v>
+        <v>41</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>174</v>
+        <v>42</v>
       </c>
       <c r="U1" s="6" t="s">
-        <v>175</v>
+        <v>43</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>176</v>
+        <v>44</v>
       </c>
       <c r="W1" s="6" t="s">
-        <v>177</v>
+        <v>45</v>
       </c>
       <c r="X1" s="6" t="s">
-        <v>178</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>150</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="E2" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="F2" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="G2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="H2" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="I2" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="J2" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="K2" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="L2" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="M2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="N2" t="s">
-        <v>214</v>
+        <v>135</v>
       </c>
       <c r="O2" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="P2" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="Q2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="R2" t="s">
-        <v>214</v>
+        <v>135</v>
       </c>
       <c r="S2" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="T2" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="U2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="V2" t="s">
-        <v>214</v>
+        <v>135</v>
       </c>
       <c r="W2" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="X2" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>192</v>
+        <v>57</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>153</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>154</v>
+        <v>58</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>158</v>
+        <v>59</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>159</v>
+        <v>60</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>160</v>
+        <v>61</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>161</v>
+        <v>62</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>162</v>
+        <v>63</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>163</v>
+        <v>64</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>164</v>
+        <v>65</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>165</v>
+        <v>66</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>166</v>
+        <v>67</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>179</v>
+        <v>68</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>180</v>
+        <v>69</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>181</v>
+        <v>70</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>182</v>
+        <v>71</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>183</v>
+        <v>72</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>184</v>
+        <v>73</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>185</v>
+        <v>74</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>186</v>
+        <v>75</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>187</v>
+        <v>71</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>188</v>
+        <v>76</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>190</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
@@ -2620,38 +3261,32 @@
         <v>1</v>
       </c>
       <c r="B4" s="3">
-        <v>1001</v>
+        <v>100001</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>1001</v>
+        <v>1</v>
       </c>
       <c r="E4" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="3">
-        <v>1001</v>
+        <v>200</v>
       </c>
       <c r="H4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="3">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3">
-        <v>1002</v>
-      </c>
-      <c r="K4" s="3">
-        <v>1</v>
-      </c>
-      <c r="L4" s="3">
-        <v>1</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -2670,28 +3305,28 @@
         <v>2</v>
       </c>
       <c r="B5" s="3">
-        <v>1002</v>
+        <v>100001</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>1001</v>
+        <v>1</v>
       </c>
       <c r="E5" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="3">
-        <v>1002</v>
+        <v>300</v>
       </c>
       <c r="H5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="3">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -2714,391 +3349,6 @@
         <v>3</v>
       </c>
       <c r="B6" s="3">
-        <v>1003</v>
-      </c>
-      <c r="C6" s="3">
-        <v>3</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1002</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3">
-        <v>1004</v>
-      </c>
-      <c r="N6" s="3">
-        <v>7000</v>
-      </c>
-      <c r="O6" s="3">
-        <v>1</v>
-      </c>
-      <c r="P6" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>1004</v>
-      </c>
-      <c r="R6" s="3">
-        <v>15000</v>
-      </c>
-      <c r="S6" s="3">
-        <v>1</v>
-      </c>
-      <c r="T6" s="3">
-        <v>1</v>
-      </c>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF36D8AE-75A8-46BF-880B-B77EF97ECDB9}">
-  <dimension ref="A1:X23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="10.875" customWidth="1"/>
-    <col min="4" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="24" width="15.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F2" t="s">
-        <v>214</v>
-      </c>
-      <c r="G2" t="s">
-        <v>152</v>
-      </c>
-      <c r="H2" t="s">
-        <v>214</v>
-      </c>
-      <c r="I2" t="s">
-        <v>152</v>
-      </c>
-      <c r="J2" t="s">
-        <v>214</v>
-      </c>
-      <c r="K2" t="s">
-        <v>152</v>
-      </c>
-      <c r="L2" t="s">
-        <v>214</v>
-      </c>
-      <c r="M2" t="s">
-        <v>152</v>
-      </c>
-      <c r="N2" t="s">
-        <v>152</v>
-      </c>
-      <c r="O2" t="s">
-        <v>152</v>
-      </c>
-      <c r="P2" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>152</v>
-      </c>
-      <c r="R2" t="s">
-        <v>152</v>
-      </c>
-      <c r="S2" t="s">
-        <v>152</v>
-      </c>
-      <c r="T2" t="s">
-        <v>152</v>
-      </c>
-      <c r="U2" t="s">
-        <v>152</v>
-      </c>
-      <c r="V2" t="s">
-        <v>152</v>
-      </c>
-      <c r="W2" t="s">
-        <v>152</v>
-      </c>
-      <c r="X2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3">
-        <v>100001</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3">
-        <v>2</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3">
-        <v>200</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3">
-        <v>100</v>
-      </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-    </row>
-    <row r="5" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3">
-        <v>100001</v>
-      </c>
-      <c r="C5" s="3">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3">
-        <v>3</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3">
-        <v>300</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3">
-        <v>150</v>
-      </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-    </row>
-    <row r="6" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3">
         <v>100001</v>
       </c>
       <c r="C6" s="3">
@@ -3451,28 +3701,28 @@
         <v>11</v>
       </c>
       <c r="B14" s="3">
-        <v>100002</v>
+        <v>100001</v>
       </c>
       <c r="C14" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
       </c>
       <c r="E14" s="3">
-        <v>10</v>
+        <v>233</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="3">
-        <v>200</v>
+        <v>23.3</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="3">
-        <v>100</v>
+        <v>11.65</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -3495,28 +3745,28 @@
         <v>12</v>
       </c>
       <c r="B15" s="3">
-        <v>100002</v>
+        <v>100001</v>
       </c>
       <c r="C15" s="3">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D15" s="3">
         <v>1</v>
       </c>
       <c r="E15" s="3">
-        <v>15</v>
+        <v>377</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="3">
-        <v>300</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="3">
-        <v>150</v>
+        <v>18.850000000000001</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -3539,28 +3789,28 @@
         <v>13</v>
       </c>
       <c r="B16" s="3">
-        <v>100002</v>
+        <v>100001</v>
       </c>
       <c r="C16" s="3">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
       </c>
       <c r="E16" s="3">
-        <v>25</v>
+        <v>610</v>
       </c>
       <c r="F16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="3">
-        <v>500</v>
+        <v>61</v>
       </c>
       <c r="H16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="3">
-        <v>250</v>
+        <v>30.5</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -3583,28 +3833,28 @@
         <v>14</v>
       </c>
       <c r="B17" s="3">
-        <v>100002</v>
+        <v>100001</v>
       </c>
       <c r="C17" s="3">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D17" s="3">
         <v>1</v>
       </c>
       <c r="E17" s="3">
-        <v>40</v>
+        <v>987</v>
       </c>
       <c r="F17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="3">
-        <v>800</v>
+        <v>98.7</v>
       </c>
       <c r="H17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="3">
-        <v>400</v>
+        <v>49.35</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -3627,28 +3877,28 @@
         <v>15</v>
       </c>
       <c r="B18" s="3">
-        <v>100002</v>
+        <v>100001</v>
       </c>
       <c r="C18" s="3">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D18" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" s="3">
-        <v>65</v>
+        <v>1.6</v>
       </c>
       <c r="F18" s="3">
         <v>1</v>
       </c>
       <c r="G18" s="3">
-        <v>1.3</v>
+        <v>159.69999999999999</v>
       </c>
       <c r="H18" s="3">
         <v>1</v>
       </c>
       <c r="I18" s="3">
-        <v>0.65</v>
+        <v>79.849999999999994</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -3674,25 +3924,25 @@
         <v>100002</v>
       </c>
       <c r="C19" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
       </c>
       <c r="E19" s="3">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="F19" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" s="3">
-        <v>2.1</v>
+        <v>200</v>
       </c>
       <c r="H19" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="3">
-        <v>1.05</v>
+        <v>100</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -3718,25 +3968,25 @@
         <v>100002</v>
       </c>
       <c r="C20" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
       </c>
       <c r="E20" s="3">
-        <v>170</v>
+        <v>15</v>
       </c>
       <c r="F20" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>3.4</v>
+        <v>300</v>
       </c>
       <c r="H20" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>1.7</v>
+        <v>150</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -3762,25 +4012,25 @@
         <v>100002</v>
       </c>
       <c r="C21" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D21" s="3">
         <v>1</v>
       </c>
       <c r="E21" s="3">
-        <v>275</v>
+        <v>25</v>
       </c>
       <c r="F21" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" s="3">
-        <v>5.5</v>
+        <v>500</v>
       </c>
       <c r="H21" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" s="3">
-        <v>2.75</v>
+        <v>250</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -3806,25 +4056,25 @@
         <v>100002</v>
       </c>
       <c r="C22" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D22" s="3">
         <v>1</v>
       </c>
       <c r="E22" s="3">
-        <v>445</v>
+        <v>40</v>
       </c>
       <c r="F22" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>8.9</v>
+        <v>800</v>
       </c>
       <c r="H22" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>4.45</v>
+        <v>400</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -3850,25 +4100,25 @@
         <v>100002</v>
       </c>
       <c r="C23" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D23" s="3">
         <v>1</v>
       </c>
       <c r="E23" s="3">
-        <v>720</v>
+        <v>65</v>
       </c>
       <c r="F23" s="3">
         <v>1</v>
       </c>
       <c r="G23" s="3">
-        <v>14.4</v>
+        <v>1.3</v>
       </c>
       <c r="H23" s="3">
         <v>1</v>
       </c>
       <c r="I23" s="3">
-        <v>7.2</v>
+        <v>0.65</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -3886,6 +4136,446 @@
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
     </row>
+    <row r="24" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>21</v>
+      </c>
+      <c r="B24" s="3">
+        <v>100002</v>
+      </c>
+      <c r="C24" s="3">
+        <v>6</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3">
+        <v>105</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="H24" s="3">
+        <v>1</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1.05</v>
+      </c>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+    </row>
+    <row r="25" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>22</v>
+      </c>
+      <c r="B25" s="3">
+        <v>100002</v>
+      </c>
+      <c r="C25" s="3">
+        <v>7</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3">
+        <v>170</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="H25" s="3">
+        <v>1</v>
+      </c>
+      <c r="I25" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+    </row>
+    <row r="26" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>23</v>
+      </c>
+      <c r="B26" s="3">
+        <v>100002</v>
+      </c>
+      <c r="C26" s="3">
+        <v>8</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3">
+        <v>275</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="H26" s="3">
+        <v>1</v>
+      </c>
+      <c r="I26" s="3">
+        <v>2.75</v>
+      </c>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+    </row>
+    <row r="27" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>24</v>
+      </c>
+      <c r="B27" s="3">
+        <v>100002</v>
+      </c>
+      <c r="C27" s="3">
+        <v>9</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3">
+        <v>445</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3">
+        <v>8.9</v>
+      </c>
+      <c r="H27" s="3">
+        <v>1</v>
+      </c>
+      <c r="I27" s="3">
+        <v>4.45</v>
+      </c>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+    </row>
+    <row r="28" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>25</v>
+      </c>
+      <c r="B28" s="3">
+        <v>100002</v>
+      </c>
+      <c r="C28" s="3">
+        <v>10</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3">
+        <v>720</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3">
+        <v>14.4</v>
+      </c>
+      <c r="H28" s="3">
+        <v>1</v>
+      </c>
+      <c r="I28" s="3">
+        <v>7.2</v>
+      </c>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+    </row>
+    <row r="29" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>26</v>
+      </c>
+      <c r="B29" s="3">
+        <v>100002</v>
+      </c>
+      <c r="C29" s="3">
+        <v>11</v>
+      </c>
+      <c r="D29" s="3">
+        <v>2</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3">
+        <v>23.3</v>
+      </c>
+      <c r="H29" s="3">
+        <v>1</v>
+      </c>
+      <c r="I29" s="3">
+        <v>11.65</v>
+      </c>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+    </row>
+    <row r="30" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>27</v>
+      </c>
+      <c r="B30" s="3">
+        <v>100002</v>
+      </c>
+      <c r="C30" s="3">
+        <v>12</v>
+      </c>
+      <c r="D30" s="3">
+        <v>2</v>
+      </c>
+      <c r="E30" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="H30" s="3">
+        <v>1</v>
+      </c>
+      <c r="I30" s="3">
+        <v>18.850000000000001</v>
+      </c>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+    </row>
+    <row r="31" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>28</v>
+      </c>
+      <c r="B31" s="3">
+        <v>100002</v>
+      </c>
+      <c r="C31" s="3">
+        <v>13</v>
+      </c>
+      <c r="D31" s="3">
+        <v>2</v>
+      </c>
+      <c r="E31" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3">
+        <v>61</v>
+      </c>
+      <c r="H31" s="3">
+        <v>1</v>
+      </c>
+      <c r="I31" s="3">
+        <v>30.5</v>
+      </c>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+    </row>
+    <row r="32" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>29</v>
+      </c>
+      <c r="B32" s="3">
+        <v>100002</v>
+      </c>
+      <c r="C32" s="3">
+        <v>14</v>
+      </c>
+      <c r="D32" s="3">
+        <v>2</v>
+      </c>
+      <c r="E32" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3">
+        <v>98.7</v>
+      </c>
+      <c r="H32" s="3">
+        <v>1</v>
+      </c>
+      <c r="I32" s="3">
+        <v>49.35</v>
+      </c>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+    </row>
+    <row r="33" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>30</v>
+      </c>
+      <c r="B33" s="3">
+        <v>100002</v>
+      </c>
+      <c r="C33" s="3">
+        <v>15</v>
+      </c>
+      <c r="D33" s="3">
+        <v>2</v>
+      </c>
+      <c r="E33" s="3">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3">
+        <v>159.69999999999999</v>
+      </c>
+      <c r="H33" s="3">
+        <v>1</v>
+      </c>
+      <c r="I33" s="3">
+        <v>79.849999999999994</v>
+      </c>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3893,7 +4583,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF6B5F60-2516-465C-86D6-D932958CCAA8}">
   <dimension ref="A1:B5"/>
   <sheetViews>

--- a/Excel/monster.怪物.xlsx
+++ b/Excel/monster.怪物.xlsx
@@ -3,18 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B611DF36-2B40-439C-B69F-D89AA324E1B6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9788BA1B-CDB2-4805-A366-352790B6CB1F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="怪物" sheetId="26" r:id="rId2"/>
     <sheet name="波次" sheetId="27" r:id="rId3"/>
-    <sheet name="关卡" sheetId="30" r:id="rId4"/>
-    <sheet name="关卡属性" sheetId="31" r:id="rId5"/>
-    <sheet name="怪物属性" sheetId="28" r:id="rId6"/>
-    <sheet name="关卡规划" sheetId="29" r:id="rId7"/>
+    <sheet name="波次规划" sheetId="32" r:id="rId4"/>
+    <sheet name="关卡" sheetId="30" r:id="rId5"/>
+    <sheet name="关卡属性" sheetId="31" r:id="rId6"/>
+    <sheet name="怪物属性" sheetId="28" r:id="rId7"/>
+    <sheet name="关卡规划" sheetId="29" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -256,647 +257,647 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="220">
   <si>
     <t>sheet名</t>
   </si>
   <si>
     <t>导出客户端文件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>导出服务端文件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>主键</t>
   </si>
   <si>
     <t>是否导出</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>屏蔽字段</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>表注释</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>prefab</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>skill[1]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>skill[2]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>skill[3]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>关卡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1~5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>主题</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>打怪掉钱，提升输出</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>6~10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>11~15</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>有堡垒怪，BOSS血量提升，验证单体输出僚机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>很多成群结队出现的怪，验证AOE护卫舰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>16~20</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>stayTime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>int:&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>怪物ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>停留时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>spawnAction</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>string:&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>出生动作</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>预设</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>技能1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>skill_id:e&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>技能2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>技能3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>rowId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>lv</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>attr.dmgInc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>attr.dmgDec</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>attr.crit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>attr.deCrit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>attr.block</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>attr.dash</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>attr.critHit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>attr.critRat</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>attr.deCritRat</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>attr.blockRat</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>attr.dashRat</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>attr.atk.w</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>attr.atk.v</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>attr.hp.w</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>attr.hp.v</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>attr.def.w</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>attr.def.v</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>attr.shield.w</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>attr.shield.v</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>attr.shieldRg.w</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>attr.shieldRg.v</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>行ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>耐久.权重</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>耐久.值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>攻击.权重</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>攻击.值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>防御.权重</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>防御.值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>护盾.权重</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>护盾.值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>护盾回复.权重</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>护盾回复.值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>增伤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>减伤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>暴击率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>抗暴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>格挡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>冲击</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>爆伤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>抗暴率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>格挡率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>冲击率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>pathFile</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>string:&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>路径文件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>node[1].name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>node[1].monId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>pauseTime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>暂停时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>节点1名字</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>节点1怪物ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>node[2].name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>node[2].monId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>节点2名字</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>节点2怪物ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>node[3].name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>node[3].monId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>节点3名字</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>节点3怪物ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>node[4].name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>节点4名字</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>node[4].monId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>节点4怪物ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>node[5].name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>节点5名字</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>node[5].monId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>节点5怪物ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>node[6].name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>node[6].monId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>节点6名字</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>节点6怪物ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>node[7].name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>节点7名字</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>node[7].monId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>节点7怪物ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>波次ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>node[8].name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>节点8名字</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>node[8].monId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>节点8怪物ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>node[9].name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>节点9名字</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>node[9].monId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>节点9怪物ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>node[10].name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>节点10名字</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>node[10].monId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>节点10怪物ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>bc[1].id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>plane101</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>plane102</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>boss</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>路径类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>bc[2].id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>bc[3].id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>int:&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>string:e&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>float:e&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>关卡ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>属性等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>波次ID1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>波次ID2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>波次ID3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>xl[1].id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>xl[1].entryT</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>xl[2].id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>xl[2].entryT</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>xl[3].id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>xl[3].entryT</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>巡逻波次ID1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>巡逻入场时间1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>巡逻波次ID2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>巡逻入场时间2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>巡逻波次ID3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>巡逻入场时间3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>rowId</t>
   </si>
   <si>
     <t>rowId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>怪物</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>波次</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>关卡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>怪物属性</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>monster.json</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>monWave.json</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -912,7 +913,7 @@
       </rPr>
       <t>evel.json</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -928,15 +929,15 @@
       </rPr>
       <t>onAttr.json</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>id,rowId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -952,7 +953,7 @@
       </rPr>
       <t>d</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -968,31 +969,31 @@
       </rPr>
       <t>,lv</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>客户端配置怪物的表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>服务端配置怪物的表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>客户端配置关卡中，一个波次的表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>服务端配置关卡中，一个波次的表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>客户端配置关卡的表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>服务端配置关卡的表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1008,31 +1009,31 @@
       </rPr>
       <t>D，N个等级</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>服务端配置怪物属性的表，每个ID，N个等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>int:e&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>level</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>attrLevel</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>第几关</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>关卡属性</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1048,31 +1049,31 @@
       </rPr>
       <t>evelAttr.json</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>客户端配置怪物属性等级的表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>离开时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>bc[1].leaveTime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>float:e&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>bc[2].leaveTime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>bc[3].leaveTime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1098,19 +1099,19 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Path3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Path4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Path5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1126,46 +1127,313 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>plane1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>plane2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>plane3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>plane4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>plane5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>plane6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>plane7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>plane8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ath1</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ath2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ath3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ath4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ath5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ath6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ath7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ath8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ath9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>从上方下来一只怪</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>从上方下来二只怪</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>从上方下来三只怪</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>从上方下来四只怪</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>从上方下来五只怪</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>从两侧来2只怪</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>从两侧来4只怪</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>从两侧来6只怪</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>从两侧来6只怪，而后从上方来1只怪</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1345,51 +1613,54 @@
   </borders>
   <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyFont="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyFont="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="4" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="12">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="12">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="12" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1917,7 +2188,7 @@
       <c r="A12" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2039,7 +2310,7 @@
       <c r="G5" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2049,12 +2320,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C4C9D73-B832-4A9D-87A8-827BB53C2F30}">
   <dimension ref="A1:Z7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="9.25" customWidth="1"/>
     <col min="3" max="3" width="10.625" customWidth="1"/>
     <col min="4" max="4" width="9.125" customWidth="1"/>
     <col min="5" max="5" width="12.75" customWidth="1"/>
@@ -2554,7 +2826,7 @@
       <c r="Z7" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -2562,6 +2834,224 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7056BE70-FAE8-44E4-8778-2DE2116AB99A}">
+  <dimension ref="A1:L19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8:H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="71.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="L16">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC607366-3147-4BB3-871A-6FBF72A30BDC}">
   <dimension ref="A1:M6"/>
   <sheetViews>
@@ -2794,14 +3284,14 @@
       <c r="M6" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8096D4F-BFDB-4940-9B24-DC72F9251001}">
   <dimension ref="A1:C18"/>
   <sheetViews>
@@ -3013,13 +3503,13 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF36D8AE-75A8-46BF-880B-B77EF97ECDB9}">
   <dimension ref="A1:X33"/>
   <sheetViews>
@@ -4577,13 +5067,13 @@
       <c r="X33" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF6B5F60-2516-465C-86D6-D932958CCAA8}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -4634,7 +5124,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Excel/monster.怪物.xlsx
+++ b/Excel/monster.怪物.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9788BA1B-CDB2-4805-A366-352790B6CB1F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4533BE-8256-4110-ACDE-A00EBD621BB7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -257,647 +257,647 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="218">
   <si>
     <t>sheet名</t>
   </si>
   <si>
     <t>导出客户端文件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>导出服务端文件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>主键</t>
   </si>
   <si>
     <t>是否导出</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>屏蔽字段</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>表注释</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>prefab</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>skill[1]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>skill[2]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>skill[3]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>关卡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1~5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>主题</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>打怪掉钱，提升输出</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>6~10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>11~15</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>有堡垒怪，BOSS血量提升，验证单体输出僚机</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>很多成群结队出现的怪，验证AOE护卫舰</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>16~20</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>stayTime</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>int:&lt;&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>怪物ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>停留时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>spawnAction</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>string:&lt;&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>出生动作</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>预设</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>技能1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>skill_id:e&lt;&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>技能2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>技能3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>rowId</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>lv</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>attr.dmgInc</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>attr.dmgDec</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>attr.crit</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>attr.deCrit</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>attr.block</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>attr.dash</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>attr.critHit</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>attr.critRat</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>attr.deCritRat</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>attr.blockRat</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>attr.dashRat</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>attr.atk.w</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>attr.atk.v</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>attr.hp.w</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>attr.hp.v</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>attr.def.w</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>attr.def.v</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>attr.shield.w</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>attr.shield.v</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>attr.shieldRg.w</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>attr.shieldRg.v</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>行ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>等级</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>耐久.权重</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>耐久.值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>攻击.权重</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>攻击.值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>防御.权重</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>防御.值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>护盾.权重</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>护盾.值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>护盾回复.权重</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>护盾回复.值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>增伤</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>减伤</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>暴击率</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>抗暴</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>格挡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>冲击</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>爆伤</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>抗暴率</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>格挡率</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>冲击率</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>pathFile</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>string:&lt;&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>路径文件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>node[1].name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>node[1].monId</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>pauseTime</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>暂停时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>节点1名字</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>节点1怪物ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>node[2].name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>node[2].monId</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>节点2名字</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>节点2怪物ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>node[3].name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>node[3].monId</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>节点3名字</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>节点3怪物ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>node[4].name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>节点4名字</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>node[4].monId</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>节点4怪物ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>node[5].name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>节点5名字</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>node[5].monId</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>节点5怪物ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>node[6].name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>node[6].monId</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>节点6名字</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>节点6怪物ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>node[7].name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>节点7名字</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>node[7].monId</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>节点7怪物ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>波次ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>node[8].name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>节点8名字</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>node[8].monId</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>节点8怪物ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>node[9].name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>节点9名字</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>node[9].monId</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>节点9怪物ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>node[10].name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>节点10名字</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>node[10].monId</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>节点10怪物ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>bc[1].id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>plane101</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>plane102</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>boss</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>type</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>路径类型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>bc[2].id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>bc[3].id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>int:&lt;&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>string:e&lt;&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>float:e&lt;&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>关卡ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>属性等级</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>波次ID1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>波次ID2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>波次ID3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>xl[1].id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>xl[1].entryT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>xl[2].id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>xl[2].entryT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>xl[3].id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>xl[3].entryT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>巡逻波次ID1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>巡逻入场时间1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>巡逻波次ID2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>巡逻入场时间2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>巡逻波次ID3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>巡逻入场时间3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>rowId</t>
   </si>
   <si>
     <t>rowId</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>怪物</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>波次</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>关卡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>怪物属性</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>monster.json</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>monWave.json</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -913,7 +913,7 @@
       </rPr>
       <t>evel.json</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -929,15 +929,15 @@
       </rPr>
       <t>onAttr.json</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>id,rowId</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -953,7 +953,7 @@
       </rPr>
       <t>d</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -969,31 +969,31 @@
       </rPr>
       <t>,lv</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>客户端配置怪物的表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>服务端配置怪物的表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>客户端配置关卡中，一个波次的表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>服务端配置关卡中，一个波次的表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>客户端配置关卡的表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>服务端配置关卡的表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1009,31 +1009,31 @@
       </rPr>
       <t>D，N个等级</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>服务端配置怪物属性的表，每个ID，N个等级</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>int:e&lt;&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>level</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>attrLevel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>第几关</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>关卡属性</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1049,31 +1049,31 @@
       </rPr>
       <t>evelAttr.json</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>客户端配置怪物属性等级的表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>离开时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>bc[1].leaveTime</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>float:e&lt;&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>bc[2].leaveTime</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>bc[3].leaveTime</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1099,19 +1099,19 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Path3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Path4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Path5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1127,47 +1127,47 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>plane1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>plane2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>plane3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>plane4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>plane5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>plane6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>plane7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>plane8</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>desc</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>描述</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1183,7 +1183,7 @@
       </rPr>
       <t>ath1</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1336,104 +1336,47 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>p</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ath8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>p</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ath9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
     <t>从上方下来一只怪</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>从上方下来二只怪</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>从上方下来三只怪</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>从上方下来四只怪</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>从上方下来五只怪</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>从两侧来2只怪</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>从两侧来4只怪</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>从两侧来6只怪</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>从两侧来6只怪，而后从上方来1只怪</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>从两侧来6只怪，而后从上方来2只怪</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>path8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1613,54 +1556,54 @@
   </borders>
   <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyFont="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyFont="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="4">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="4" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="12">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="12">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="12" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="12" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2188,7 +2131,7 @@
       <c r="A12" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2310,7 +2253,7 @@
       <c r="G5" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2826,7 +2769,7 @@
       <c r="Z7" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -2835,10 +2778,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7056BE70-FAE8-44E4-8778-2DE2116AB99A}">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:H8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2900,7 +2843,7 @@
         <v>202</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -2912,7 +2855,7 @@
         <v>203</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -2924,7 +2867,7 @@
         <v>204</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -2936,7 +2879,7 @@
         <v>205</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -2948,7 +2891,7 @@
         <v>206</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -2960,7 +2903,7 @@
         <v>207</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -2972,7 +2915,7 @@
         <v>208</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -2981,23 +2924,17 @@
         <v>8</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
-      <c r="B12" s="3">
-        <v>9</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>219</v>
-      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
@@ -3016,15 +2953,15 @@
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
+      <c r="L15">
+        <v>90</v>
+      </c>
     </row>
     <row r="16" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="L16">
-        <v>90</v>
-      </c>
     </row>
     <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
@@ -3038,14 +2975,8 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3284,7 +3215,7 @@
       <c r="M6" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -3503,7 +3434,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5067,7 +4998,7 @@
       <c r="X33" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5124,7 +5055,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Excel/monster.怪物.xlsx
+++ b/Excel/monster.怪物.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4533BE-8256-4110-ACDE-A00EBD621BB7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F990D913-8BA8-4A3A-BD69-F87B6F074F5D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="怪物" sheetId="26" r:id="rId2"/>
     <sheet name="波次" sheetId="27" r:id="rId3"/>
-    <sheet name="波次规划" sheetId="32" r:id="rId4"/>
+    <sheet name="波次规划" sheetId="32" state="hidden" r:id="rId4"/>
     <sheet name="关卡" sheetId="30" r:id="rId5"/>
     <sheet name="关卡属性" sheetId="31" r:id="rId6"/>
     <sheet name="怪物属性" sheetId="28" r:id="rId7"/>
@@ -32,7 +32,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{4363ED02-0BF8-4FF4-A528-4C515DD9BC13}">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{4363ED02-0BF8-4FF4-A528-4C515DD9BC13}">
       <text>
         <r>
           <rPr>
@@ -56,11 +56,12 @@
           <t xml:space="preserve">
 1. 普通怪
 2. 巡航怪
-3. 自杀队</t>
+3. 自杀队
+4. BOSS</t>
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{5D7244F3-BB9B-4853-9B5D-5420560FE32A}">
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{5D7244F3-BB9B-4853-9B5D-5420560FE32A}">
       <text>
         <r>
           <rPr>
@@ -86,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{2416A8C8-C8BB-4ABC-8133-676AB10B53AC}">
+    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{2416A8C8-C8BB-4ABC-8133-676AB10B53AC}">
       <text>
         <r>
           <rPr>
@@ -112,7 +113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{E853EB66-B05A-4979-8A7E-ED9876F62A3E}">
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{E853EB66-B05A-4979-8A7E-ED9876F62A3E}">
       <text>
         <r>
           <rPr>
@@ -138,7 +139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{079D0A68-73B5-488C-B06B-702AFDBB3BDA}">
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{079D0A68-73B5-488C-B06B-702AFDBB3BDA}">
       <text>
         <r>
           <rPr>
@@ -257,7 +258,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="242">
   <si>
     <t>sheet名</t>
   </si>
@@ -766,10 +767,6 @@
   </si>
   <si>
     <t>plane102</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1077,17 +1074,7 @@
   </si>
   <si>
     <r>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ath</t>
+      <t>plane</t>
     </r>
     <r>
       <rPr>
@@ -1102,34 +1089,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Path3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Path4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Path5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>plane</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>plane1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1143,22 +1102,6 @@
   </si>
   <si>
     <t>plane4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>plane5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>plane6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>plane7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>plane8</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1369,6 +1312,388 @@
   </si>
   <si>
     <t>path8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#note</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OSS自上而下</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2个小怪自上而下</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个小怪自上而下</t>
+  </si>
+  <si>
+    <t>4个小怪自上而下</t>
+  </si>
+  <si>
+    <r>
+      <t>plane</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5个小怪自上而下</t>
+  </si>
+  <si>
+    <r>
+      <t>plane</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>OSS</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>精英怪</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>plane10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2个小怪从2边出来</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4个小怪从</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2边出来</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>plane</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3对小怪2边出，1对精英上面出</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>plane</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>plane</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>plane</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>plane5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>plane6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>plane7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>plane8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clip1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Clip2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Clip3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Clip4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Clip5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Clip6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Clip7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Clip8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1940,20 +2265,20 @@
     </row>
     <row r="2" spans="1:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>164</v>
-      </c>
       <c r="F2" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G2" s="3" t="b">
         <v>1</v>
@@ -1961,20 +2286,20 @@
     </row>
     <row r="3" spans="1:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G3" s="3" t="b">
         <v>1</v>
@@ -1982,20 +2307,20 @@
     </row>
     <row r="4" spans="1:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G4" s="3" t="b">
         <v>1</v>
@@ -2003,20 +2328,20 @@
     </row>
     <row r="5" spans="1:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G5" s="3" t="b">
         <v>1</v>
@@ -2024,20 +2349,20 @@
     </row>
     <row r="6" spans="1:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G6" s="3" t="b">
         <v>1</v>
@@ -2045,20 +2370,20 @@
     </row>
     <row r="7" spans="1:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G7" s="3" t="b">
         <v>1</v>
@@ -2066,20 +2391,20 @@
     </row>
     <row r="8" spans="1:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G8" s="3" t="b">
         <v>1</v>
@@ -2087,20 +2412,20 @@
     </row>
     <row r="9" spans="1:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G9" s="3" t="b">
         <v>1</v>
@@ -2108,10 +2433,10 @@
     </row>
     <row r="10" spans="1:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>180</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
@@ -2121,7 +2446,7 @@
         <v>34</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G10" s="3" t="b">
         <v>1</v>
@@ -2139,55 +2464,58 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2831914-6C97-4A3E-B7CA-07564CCE33F3}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="4" width="10.625" customWidth="1"/>
-    <col min="5" max="5" width="10.875" customWidth="1"/>
-    <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="15.625" customWidth="1"/>
+    <col min="3" max="5" width="10.625" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
+    <col min="8" max="8" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" t="s">
         <v>133</v>
-      </c>
-      <c r="B2" t="s">
-        <v>27</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
         <v>31</v>
@@ -2196,61 +2524,89 @@
         <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C4" s="3">
         <v>100001</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C5" s="3">
         <v>100002</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C6" s="3">
+        <v>100003</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2261,42 +2617,43 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C4C9D73-B832-4A9D-87A8-827BB53C2F30}">
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:AA12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="9.25" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="9.125" customWidth="1"/>
-    <col min="5" max="5" width="12.75" customWidth="1"/>
-    <col min="6" max="6" width="12.375" customWidth="1"/>
-    <col min="7" max="7" width="14.125" customWidth="1"/>
-    <col min="8" max="8" width="16.875" customWidth="1"/>
-    <col min="9" max="9" width="15.625" customWidth="1"/>
-    <col min="10" max="10" width="16.875" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
-    <col min="12" max="12" width="17.875" customWidth="1"/>
-    <col min="13" max="13" width="16" customWidth="1"/>
-    <col min="14" max="14" width="17.875" customWidth="1"/>
-    <col min="15" max="15" width="16" customWidth="1"/>
-    <col min="16" max="16" width="17.875" customWidth="1"/>
-    <col min="17" max="17" width="16" customWidth="1"/>
-    <col min="18" max="18" width="17.875" customWidth="1"/>
-    <col min="19" max="19" width="16" customWidth="1"/>
-    <col min="20" max="20" width="17.875" customWidth="1"/>
-    <col min="21" max="21" width="16.75" customWidth="1"/>
-    <col min="22" max="22" width="17.375" customWidth="1"/>
-    <col min="23" max="23" width="17.5" customWidth="1"/>
-    <col min="24" max="24" width="17.375" customWidth="1"/>
-    <col min="25" max="25" width="18.375" customWidth="1"/>
-    <col min="26" max="26" width="17" customWidth="1"/>
+    <col min="3" max="3" width="31.25" customWidth="1"/>
+    <col min="4" max="4" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="9.125" customWidth="1"/>
+    <col min="6" max="6" width="12.75" customWidth="1"/>
+    <col min="7" max="7" width="12.375" customWidth="1"/>
+    <col min="8" max="8" width="14.125" customWidth="1"/>
+    <col min="9" max="9" width="16.875" customWidth="1"/>
+    <col min="10" max="10" width="15.625" customWidth="1"/>
+    <col min="11" max="11" width="16.875" customWidth="1"/>
+    <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="13" max="13" width="17.875" customWidth="1"/>
+    <col min="14" max="14" width="16" customWidth="1"/>
+    <col min="15" max="15" width="17.875" customWidth="1"/>
+    <col min="16" max="16" width="16" customWidth="1"/>
+    <col min="17" max="17" width="17.875" customWidth="1"/>
+    <col min="18" max="18" width="16" customWidth="1"/>
+    <col min="19" max="19" width="17.875" customWidth="1"/>
+    <col min="20" max="20" width="16" customWidth="1"/>
+    <col min="21" max="21" width="17.875" customWidth="1"/>
+    <col min="22" max="22" width="16.75" customWidth="1"/>
+    <col min="23" max="23" width="17.375" customWidth="1"/>
+    <col min="24" max="24" width="17.5" customWidth="1"/>
+    <col min="25" max="25" width="17.375" customWidth="1"/>
+    <col min="26" max="26" width="18.375" customWidth="1"/>
+    <col min="27" max="27" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>34</v>
       </c>
@@ -2304,79 +2661,82 @@
         <v>7</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>129</v>
-      </c>
       <c r="E1" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AA1" s="6" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -2384,79 +2744,82 @@
         <v>27</v>
       </c>
       <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
         <v>80</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
-        <v>135</v>
-      </c>
       <c r="F2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G2" t="s">
         <v>134</v>
       </c>
       <c r="H2" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
       <c r="I2" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="J2" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
       <c r="K2" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="L2" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
       <c r="M2" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="N2" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
       <c r="O2" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="P2" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
       <c r="Q2" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="R2" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
       <c r="S2" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="T2" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
       <c r="U2" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="V2" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
       <c r="W2" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="X2" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
       <c r="Y2" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="Z2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>57</v>
       </c>
@@ -2464,79 +2827,82 @@
         <v>112</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="E3" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -2544,35 +2910,29 @@
         <v>1001</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1</v>
+        <v>211</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="E4" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F4" s="3">
-        <v>5</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="H4" s="3">
-        <v>100001</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="J4" s="3">
-        <v>100001</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="L4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>60</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="I4" s="3">
         <v>100002</v>
       </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -2587,8 +2947,9 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
-    </row>
-    <row r="5" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AA4" s="3"/>
+    </row>
+    <row r="5" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -2596,71 +2957,50 @@
         <v>1002</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>30</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="I5" s="3">
+        <v>100001</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="F5" s="3">
-        <v>10</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="H5" s="3">
+      <c r="K5" s="3">
         <v>100001</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="J5" s="3">
-        <v>100001</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="L5" s="3">
-        <v>100001</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="N5" s="3">
-        <v>100001</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="P5" s="3">
-        <v>100001</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="R5" s="3">
-        <v>100001</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="T5" s="3">
-        <v>100002</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="V5" s="3">
-        <v>100002</v>
-      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
-    </row>
-    <row r="6" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AA5" s="3"/>
+    </row>
+    <row r="6" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -2668,36 +3008,38 @@
         <v>1003</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1</v>
+        <v>213</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
       </c>
       <c r="F6" s="3">
-        <v>10</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>30</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="I6" s="3">
         <v>100001</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="J6" s="3">
+      <c r="J6" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="K6" s="3">
         <v>100001</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="L6" s="3">
-        <v>100002</v>
-      </c>
-      <c r="M6" s="3"/>
+      <c r="L6" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="M6" s="3">
+        <v>100001</v>
+      </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
@@ -2711,8 +3053,9 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
-    </row>
-    <row r="7" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="AA6" s="3"/>
+    </row>
+    <row r="7" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -2720,43 +3063,45 @@
         <v>1004</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>30</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="I7" s="3">
+        <v>100001</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="K7" s="3">
+        <v>100001</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="M7" s="3">
+        <v>100001</v>
+      </c>
+      <c r="N7" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D7" s="3">
-        <v>2</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="H7" s="3">
+      <c r="O7" s="3">
         <v>100001</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="J7" s="3">
-        <v>100001</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="L7" s="3">
-        <v>100001</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="N7" s="3">
-        <v>100001</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="P7" s="3">
-        <v>100001</v>
-      </c>
+      <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
@@ -2767,6 +3112,284 @@
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+    </row>
+    <row r="8" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1005</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>30</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="I8" s="3">
+        <v>100001</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="K8" s="3">
+        <v>100001</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="M8" s="3">
+        <v>100001</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="O8" s="3">
+        <v>100001</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>100001</v>
+      </c>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+    </row>
+    <row r="9" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1006</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1.33</v>
+      </c>
+      <c r="G9" s="3">
+        <v>30</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="I9" s="3">
+        <v>100003</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="K9" s="3">
+        <v>100003</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+    </row>
+    <row r="10" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1007</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>30</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="I10" s="3">
+        <v>100001</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="K10" s="3">
+        <v>100001</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="M10" s="3">
+        <v>100001</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="O10" s="3">
+        <v>100001</v>
+      </c>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+    </row>
+    <row r="11" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1008</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1.17</v>
+      </c>
+      <c r="G11" s="3">
+        <v>30</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="I11" s="3">
+        <v>100001</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K11" s="3">
+        <v>100001</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="M11" s="3">
+        <v>100001</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="O11" s="3">
+        <v>100001</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>100001</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="S11" s="3">
+        <v>100001</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="U11" s="3">
+        <v>100003</v>
+      </c>
+      <c r="V11" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="W11" s="3">
+        <v>100003</v>
+      </c>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2780,7 +3403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7056BE70-FAE8-44E4-8778-2DE2116AB99A}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -2801,7 +3424,7 @@
         <v>79</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -2829,7 +3452,7 @@
         <v>81</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -2840,10 +3463,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -2852,10 +3475,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -2864,10 +3487,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -2876,10 +3499,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -2888,10 +3511,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -2900,10 +3523,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -2912,10 +3535,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -2924,10 +3547,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -2984,10 +3607,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC607366-3147-4BB3-871A-6FBF72A30BDC}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3014,37 +3637,37 @@
         <v>125</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>186</v>
-      </c>
       <c r="H1" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>145</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -3052,81 +3675,81 @@
         <v>27</v>
       </c>
       <c r="B2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G2" t="s">
+        <v>183</v>
+      </c>
+      <c r="H2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I2" t="s">
         <v>134</v>
       </c>
-      <c r="C2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="J2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K2" t="s">
         <v>134</v>
       </c>
-      <c r="E2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="L2" t="s">
+        <v>133</v>
+      </c>
+      <c r="M2" t="s">
         <v>134</v>
-      </c>
-      <c r="G2" t="s">
-        <v>184</v>
-      </c>
-      <c r="H2" t="s">
-        <v>134</v>
-      </c>
-      <c r="I2" t="s">
-        <v>135</v>
-      </c>
-      <c r="J2" t="s">
-        <v>134</v>
-      </c>
-      <c r="K2" t="s">
-        <v>135</v>
-      </c>
-      <c r="L2" t="s">
-        <v>134</v>
-      </c>
-      <c r="M2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -3134,19 +3757,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="3">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="C4" s="3">
         <v>2</v>
       </c>
       <c r="D4" s="3">
-        <v>1001</v>
+        <v>1005</v>
       </c>
       <c r="E4" s="3">
         <v>2</v>
       </c>
       <c r="F4" s="3">
-        <v>1002</v>
+        <v>1006</v>
       </c>
       <c r="G4" s="3">
         <v>2</v>
@@ -3163,7 +3786,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
@@ -3174,7 +3797,9 @@
       <c r="E5" s="3">
         <v>2</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="3">
+        <v>1002</v>
+      </c>
       <c r="G5" s="3">
         <v>2</v>
       </c>
@@ -3190,29 +3815,79 @@
         <v>3</v>
       </c>
       <c r="B6" s="3">
-        <v>1002</v>
+        <v>1007</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3">
-        <v>1004</v>
-      </c>
-      <c r="I6" s="3">
-        <v>7</v>
-      </c>
-      <c r="J6" s="3">
-        <v>1004</v>
-      </c>
-      <c r="K6" s="3">
-        <v>15</v>
-      </c>
+      <c r="D6" s="3">
+        <v>1008</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1002</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1004</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1007</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1003</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1001</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -3240,10 +3915,10 @@
         <v>34</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>176</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3262,10 +3937,10 @@
         <v>57</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -3540,67 +4215,67 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="S2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="V2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="W2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="15" x14ac:dyDescent="0.2">

--- a/Excel/monster.怪物.xlsx
+++ b/Excel/monster.怪物.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F990D913-8BA8-4A3A-BD69-F87B6F074F5D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AC82CE-E8D7-4DF1-A4F3-C218A3AE8E7C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -13,9 +13,10 @@
     <sheet name="波次" sheetId="27" r:id="rId3"/>
     <sheet name="波次规划" sheetId="32" state="hidden" r:id="rId4"/>
     <sheet name="关卡" sheetId="30" r:id="rId5"/>
-    <sheet name="关卡属性" sheetId="31" r:id="rId6"/>
-    <sheet name="怪物属性" sheetId="28" r:id="rId7"/>
-    <sheet name="关卡规划" sheetId="29" r:id="rId8"/>
+    <sheet name="章节表" sheetId="33" r:id="rId6"/>
+    <sheet name="关卡属性" sheetId="31" r:id="rId7"/>
+    <sheet name="怪物属性" sheetId="28" r:id="rId8"/>
+    <sheet name="关卡规划" sheetId="29" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -175,7 +176,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{3F164368-7E4C-4EBF-A94E-68414B6AA6EF}">
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{3F164368-7E4C-4EBF-A94E-68414B6AA6EF}">
       <text>
         <r>
           <rPr>
@@ -201,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{5EAB83CD-287E-428D-9E8F-AF14210FA9BC}">
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{5EAB83CD-287E-428D-9E8F-AF14210FA9BC}">
       <text>
         <r>
           <rPr>
@@ -227,7 +228,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{21515B22-9EB8-4A8C-B856-1DF74B29F940}">
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{21515B22-9EB8-4A8C-B856-1DF74B29F940}">
       <text>
         <r>
           <rPr>
@@ -258,7 +259,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="259">
   <si>
     <t>sheet名</t>
   </si>
@@ -1694,6 +1695,73 @@
       </rPr>
       <t/>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>chaId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>chaName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>章节ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>章节名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>火星环游</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>level.json</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>help_col</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助列</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>levels</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>chaId,help_col,id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rowId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rowId,help_col</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rowId,chaId,help_col</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>离开地球</t>
+  </si>
+  <si>
+    <t>章节表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>chaId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端章节表</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1910,7 +1978,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -1930,6 +1998,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="12" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="4" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -2223,10 +2294,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2235,7 +2306,7 @@
     <col min="2" max="2" width="27.125" customWidth="1"/>
     <col min="3" max="3" width="32.625" customWidth="1"/>
     <col min="4" max="4" width="29.375" customWidth="1"/>
-    <col min="5" max="5" width="29.5" customWidth="1"/>
+    <col min="5" max="5" width="39.625" customWidth="1"/>
     <col min="6" max="6" width="79.625" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
@@ -2335,7 +2406,7 @@
         <v>159</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>152</v>
+        <v>252</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>152</v>
@@ -2349,20 +2420,20 @@
     </row>
     <row r="6" spans="1:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>156</v>
+        <v>256</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>160</v>
+        <v>247</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="4" t="s">
-        <v>164</v>
+        <v>257</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>7</v>
+        <v>257</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>170</v>
+        <v>258</v>
       </c>
       <c r="G6" s="3" t="b">
         <v>1</v>
@@ -2372,18 +2443,18 @@
       <c r="A7" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>160</v>
       </c>
+      <c r="C7" s="3"/>
       <c r="D7" s="4" t="s">
-        <v>164</v>
+        <v>251</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>7</v>
+        <v>254</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G7" s="3" t="b">
         <v>1</v>
@@ -2391,20 +2462,20 @@
     </row>
     <row r="8" spans="1:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C8" s="3"/>
+        <v>156</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4" t="s">
+        <v>160</v>
+      </c>
       <c r="D8" s="4" t="s">
-        <v>165</v>
+        <v>34</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G8" s="3" t="b">
         <v>1</v>
@@ -2414,18 +2485,18 @@
       <c r="A9" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>161</v>
       </c>
+      <c r="C9" s="3"/>
       <c r="D9" s="4" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G9" s="3" t="b">
         <v>1</v>
@@ -2433,27 +2504,48 @@
     </row>
     <row r="10" spans="1:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="G10" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="G10" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
+      <c r="G11" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2467,7 +2559,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2619,7 +2711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C4C9D73-B832-4A9D-87A8-827BB53C2F30}">
   <dimension ref="A1:AA12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -3607,280 +3699,351 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC607366-3147-4BB3-871A-6FBF72A30BDC}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="13.125" customWidth="1"/>
-    <col min="5" max="5" width="17.125" customWidth="1"/>
-    <col min="6" max="6" width="13.875" customWidth="1"/>
-    <col min="7" max="7" width="18.875" customWidth="1"/>
-    <col min="8" max="8" width="11.75" customWidth="1"/>
-    <col min="9" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="13.375" customWidth="1"/>
-    <col min="12" max="12" width="15.875" customWidth="1"/>
-    <col min="13" max="13" width="18.375" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="12.25" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="13.125" customWidth="1"/>
+    <col min="8" max="8" width="17.125" customWidth="1"/>
+    <col min="9" max="9" width="13.875" customWidth="1"/>
+    <col min="10" max="10" width="18.875" customWidth="1"/>
+    <col min="11" max="11" width="11.75" customWidth="1"/>
+    <col min="12" max="13" width="14" customWidth="1"/>
+    <col min="14" max="14" width="13.375" customWidth="1"/>
+    <col min="15" max="15" width="15.875" customWidth="1"/>
+    <col min="16" max="16" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
         <v>133</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>183</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>133</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>183</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>133</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>183</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>133</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>134</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>133</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>134</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>133</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
         <v>1003</v>
       </c>
-      <c r="C4" s="3">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="F4" s="3">
+        <v>2</v>
+      </c>
+      <c r="G4" s="3">
         <v>1005</v>
       </c>
-      <c r="E4" s="3">
-        <v>2</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="H4" s="3">
+        <v>2</v>
+      </c>
+      <c r="I4" s="3">
         <v>1006</v>
       </c>
-      <c r="G4" s="3">
-        <v>2</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="J4" s="3">
+        <v>2</v>
+      </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3">
         <v>1004</v>
       </c>
-      <c r="C5" s="3">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="F5" s="3">
+        <v>2</v>
+      </c>
+      <c r="G5" s="3">
         <v>1002</v>
       </c>
-      <c r="E5" s="3">
-        <v>2</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="H5" s="3">
+        <v>2</v>
+      </c>
+      <c r="I5" s="3">
         <v>1002</v>
       </c>
-      <c r="G5" s="3">
-        <v>2</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="J5" s="3">
+        <v>2</v>
+      </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3">
         <v>1007</v>
       </c>
-      <c r="C6" s="3">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="F6" s="3">
+        <v>2</v>
+      </c>
+      <c r="G6" s="3">
         <v>1008</v>
       </c>
-      <c r="E6" s="3">
-        <v>2</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="H6" s="3">
+        <v>2</v>
+      </c>
+      <c r="I6" s="3">
         <v>1002</v>
       </c>
-      <c r="G6" s="3">
-        <v>2</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="J6" s="3">
+        <v>2</v>
+      </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+    </row>
+    <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
       <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D7" s="3">
+        <v>4</v>
+      </c>
+      <c r="E7" s="3">
         <v>1004</v>
       </c>
-      <c r="C7" s="3">
-        <v>2</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="F7" s="3">
+        <v>2</v>
+      </c>
+      <c r="G7" s="3">
         <v>1007</v>
       </c>
-      <c r="E7" s="3">
-        <v>2</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="H7" s="3">
+        <v>2</v>
+      </c>
+      <c r="I7" s="3">
         <v>1003</v>
       </c>
-      <c r="G7" s="3">
-        <v>2</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="J7" s="3">
+        <v>2</v>
+      </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
       <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D8" s="3">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3">
         <v>1001</v>
       </c>
-      <c r="C8" s="3">
+      <c r="F8" s="3">
         <v>3</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -3888,6 +4051,919 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D9" s="3">
+        <v>6</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1003</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1005</v>
+      </c>
+      <c r="H9" s="3">
+        <v>2</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1006</v>
+      </c>
+      <c r="J9" s="3">
+        <v>2</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D10" s="3">
+        <v>7</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1004</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1002</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1002</v>
+      </c>
+      <c r="J10" s="3">
+        <v>2</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D11" s="3">
+        <v>8</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1007</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1008</v>
+      </c>
+      <c r="H11" s="3">
+        <v>2</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1002</v>
+      </c>
+      <c r="J11" s="3">
+        <v>2</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D12" s="3">
+        <v>9</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1004</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1007</v>
+      </c>
+      <c r="H12" s="3">
+        <v>2</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1003</v>
+      </c>
+      <c r="J12" s="3">
+        <v>2</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D13" s="3">
+        <v>10</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1001</v>
+      </c>
+      <c r="F13" s="3">
+        <v>3</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1003</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1005</v>
+      </c>
+      <c r="H14" s="3">
+        <v>2</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1006</v>
+      </c>
+      <c r="J14" s="3">
+        <v>2</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D15" s="3">
+        <v>2</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1004</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1002</v>
+      </c>
+      <c r="H15" s="3">
+        <v>2</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1002</v>
+      </c>
+      <c r="J15" s="3">
+        <v>2</v>
+      </c>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D16" s="3">
+        <v>3</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1007</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1008</v>
+      </c>
+      <c r="H16" s="3">
+        <v>2</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1002</v>
+      </c>
+      <c r="J16" s="3">
+        <v>2</v>
+      </c>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D17" s="3">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1004</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1007</v>
+      </c>
+      <c r="H17" s="3">
+        <v>2</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1003</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D18" s="3">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1001</v>
+      </c>
+      <c r="F18" s="3">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3">
+        <v>2</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D19" s="3">
+        <v>6</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1003</v>
+      </c>
+      <c r="F19" s="3">
+        <v>2</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1005</v>
+      </c>
+      <c r="H19" s="3">
+        <v>2</v>
+      </c>
+      <c r="I19" s="3">
+        <v>1006</v>
+      </c>
+      <c r="J19" s="3">
+        <v>2</v>
+      </c>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3">
+        <v>2</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D20" s="3">
+        <v>7</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1004</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1002</v>
+      </c>
+      <c r="H20" s="3">
+        <v>2</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1002</v>
+      </c>
+      <c r="J20" s="3">
+        <v>2</v>
+      </c>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3">
+        <v>2</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D21" s="3">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1007</v>
+      </c>
+      <c r="F21" s="3">
+        <v>2</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1008</v>
+      </c>
+      <c r="H21" s="3">
+        <v>2</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1002</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2</v>
+      </c>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>19</v>
+      </c>
+      <c r="B22" s="3">
+        <v>2</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D22" s="3">
+        <v>9</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1004</v>
+      </c>
+      <c r="F22" s="3">
+        <v>2</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1007</v>
+      </c>
+      <c r="H22" s="3">
+        <v>2</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1003</v>
+      </c>
+      <c r="J22" s="3">
+        <v>2</v>
+      </c>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3">
+        <v>2</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D23" s="3">
+        <v>10</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1001</v>
+      </c>
+      <c r="F23" s="3">
+        <v>3</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>21</v>
+      </c>
+      <c r="B24" s="3">
+        <v>3</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1003</v>
+      </c>
+      <c r="F24" s="3">
+        <v>2</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1005</v>
+      </c>
+      <c r="H24" s="3">
+        <v>2</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1006</v>
+      </c>
+      <c r="J24" s="3">
+        <v>2</v>
+      </c>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>22</v>
+      </c>
+      <c r="B25" s="3">
+        <v>3</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D25" s="3">
+        <v>2</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1004</v>
+      </c>
+      <c r="F25" s="3">
+        <v>2</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1002</v>
+      </c>
+      <c r="H25" s="3">
+        <v>2</v>
+      </c>
+      <c r="I25" s="3">
+        <v>1002</v>
+      </c>
+      <c r="J25" s="3">
+        <v>2</v>
+      </c>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>23</v>
+      </c>
+      <c r="B26" s="3">
+        <v>3</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D26" s="3">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1007</v>
+      </c>
+      <c r="F26" s="3">
+        <v>2</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1008</v>
+      </c>
+      <c r="H26" s="3">
+        <v>2</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1002</v>
+      </c>
+      <c r="J26" s="3">
+        <v>2</v>
+      </c>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>24</v>
+      </c>
+      <c r="B27" s="3">
+        <v>3</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D27" s="3">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1004</v>
+      </c>
+      <c r="F27" s="3">
+        <v>2</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1007</v>
+      </c>
+      <c r="H27" s="3">
+        <v>2</v>
+      </c>
+      <c r="I27" s="3">
+        <v>1003</v>
+      </c>
+      <c r="J27" s="3">
+        <v>2</v>
+      </c>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>25</v>
+      </c>
+      <c r="B28" s="3">
+        <v>3</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D28" s="3">
+        <v>5</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1001</v>
+      </c>
+      <c r="F28" s="3">
+        <v>3</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>26</v>
+      </c>
+      <c r="B29" s="3">
+        <v>3</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D29" s="3">
+        <v>6</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1003</v>
+      </c>
+      <c r="F29" s="3">
+        <v>2</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1005</v>
+      </c>
+      <c r="H29" s="3">
+        <v>2</v>
+      </c>
+      <c r="I29" s="3">
+        <v>1006</v>
+      </c>
+      <c r="J29" s="3">
+        <v>2</v>
+      </c>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>27</v>
+      </c>
+      <c r="B30" s="3">
+        <v>3</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D30" s="3">
+        <v>7</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1004</v>
+      </c>
+      <c r="F30" s="3">
+        <v>2</v>
+      </c>
+      <c r="G30" s="3">
+        <v>1002</v>
+      </c>
+      <c r="H30" s="3">
+        <v>2</v>
+      </c>
+      <c r="I30" s="3">
+        <v>1002</v>
+      </c>
+      <c r="J30" s="3">
+        <v>2</v>
+      </c>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>28</v>
+      </c>
+      <c r="B31" s="3">
+        <v>3</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D31" s="3">
+        <v>8</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1007</v>
+      </c>
+      <c r="F31" s="3">
+        <v>2</v>
+      </c>
+      <c r="G31" s="3">
+        <v>1008</v>
+      </c>
+      <c r="H31" s="3">
+        <v>2</v>
+      </c>
+      <c r="I31" s="3">
+        <v>1002</v>
+      </c>
+      <c r="J31" s="3">
+        <v>2</v>
+      </c>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>29</v>
+      </c>
+      <c r="B32" s="3">
+        <v>3</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D32" s="3">
+        <v>9</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1004</v>
+      </c>
+      <c r="F32" s="3">
+        <v>2</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1007</v>
+      </c>
+      <c r="H32" s="3">
+        <v>2</v>
+      </c>
+      <c r="I32" s="3">
+        <v>1003</v>
+      </c>
+      <c r="J32" s="3">
+        <v>2</v>
+      </c>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>30</v>
+      </c>
+      <c r="B33" s="3">
+        <v>3</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D33" s="3">
+        <v>10</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1001</v>
+      </c>
+      <c r="F33" s="3">
+        <v>3</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -3898,6 +4974,71 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01EEC457-8628-4279-8767-1817C387A82E}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8096D4F-BFDB-4940-9B24-DC72F9251001}">
   <dimension ref="A1:C18"/>
   <sheetViews>
@@ -4115,7 +5256,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF36D8AE-75A8-46BF-880B-B77EF97ECDB9}">
   <dimension ref="A1:X33"/>
   <sheetViews>
@@ -5679,7 +6820,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF6B5F60-2516-465C-86D6-D932958CCAA8}">
   <dimension ref="A1:B5"/>
   <sheetViews>

--- a/Excel/monster.怪物.xlsx
+++ b/Excel/monster.怪物.xlsx
@@ -3,20 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AC82CE-E8D7-4DF1-A4F3-C218A3AE8E7C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFD9512-3A38-425B-878F-BC9138F1E269}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="怪物" sheetId="26" r:id="rId2"/>
     <sheet name="波次" sheetId="27" r:id="rId3"/>
     <sheet name="波次规划" sheetId="32" state="hidden" r:id="rId4"/>
-    <sheet name="关卡" sheetId="30" r:id="rId5"/>
-    <sheet name="章节表" sheetId="33" r:id="rId6"/>
-    <sheet name="关卡属性" sheetId="31" r:id="rId7"/>
-    <sheet name="怪物属性" sheetId="28" r:id="rId8"/>
-    <sheet name="关卡规划" sheetId="29" r:id="rId9"/>
+    <sheet name="怪物属性" sheetId="28" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -170,96 +166,8 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>作者</author>
-  </authors>
-  <commentList>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{3F164368-7E4C-4EBF-A94E-68414B6AA6EF}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-一波飞机离开后，或者所有敌机被打掉后，过多长时间出下一波</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{5EAB83CD-287E-428D-9E8F-AF14210FA9BC}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-一波飞机离开后，或者所有敌机被打掉后，过多长时间出下一波</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{21515B22-9EB8-4A8C-B856-1DF74B29F940}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-一波飞机离开后，或者所有敌机被打掉后，过多长时间出下一波</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="199">
   <si>
     <t>sheet名</t>
   </si>
@@ -307,42 +215,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>关卡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1~5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>主题</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>打怪掉钱，提升输出</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>6~10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>11~15</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>有堡垒怪，BOSS血量提升，验证单体输出僚机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>很多成群结队出现的怪，验证AOE护卫舰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>16~20</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>stayTime</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -759,10 +631,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>bc[1].id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>plane101</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -779,14 +647,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>bc[2].id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bc[3].id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>int:&lt;&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -799,74 +659,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>关卡ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>波次ID1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>波次ID2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>波次ID3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>xl[1].id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>xl[1].entryT</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>xl[2].id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>xl[2].entryT</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>xl[3].id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>xl[3].entryT</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>巡逻波次ID1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>巡逻入场时间1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>巡逻波次ID2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>巡逻入场时间2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>巡逻波次ID3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>巡逻入场时间3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>rowId</t>
   </si>
   <si>
@@ -882,10 +674,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>关卡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>怪物属性</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -895,22 +683,6 @@
   </si>
   <si>
     <t>monWave.json</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>l</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>evel.json</t>
-    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -986,14 +758,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>客户端配置关卡的表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务端配置关卡的表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>客户端配置怪物属性的表，每个I</t>
     </r>
@@ -1018,62 +782,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>level</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>attrLevel</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>第几关</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡属性</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>l</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>evelAttr.json</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户端配置怪物属性等级的表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>离开时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bc[1].leaveTime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>float:e&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bc[2].leaveTime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bc[3].leaveTime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>plane</t>
     </r>
@@ -1698,70 +1406,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>chaId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>chaName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>章节ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>章节名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>火星环游</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>level.json</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>help_col</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>辅助列</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>levels</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>chaId,help_col,id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>rowId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>rowId,help_col</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>rowId,chaId,help_col</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>离开地球</t>
-  </si>
-  <si>
-    <t>章节表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>chaId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户端章节表</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1978,7 +1623,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -1992,15 +1637,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="12">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="12" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="4" applyFont="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -2294,10 +1935,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2336,20 +1977,20 @@
     </row>
     <row r="2" spans="1:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="G2" s="3" t="b">
         <v>1</v>
@@ -2357,20 +1998,20 @@
     </row>
     <row r="3" spans="1:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="G3" s="3" t="b">
         <v>1</v>
@@ -2378,20 +2019,20 @@
     </row>
     <row r="4" spans="1:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="4" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="G4" s="3" t="b">
         <v>1</v>
@@ -2399,20 +2040,20 @@
     </row>
     <row r="5" spans="1:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>252</v>
+        <v>198</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="G5" s="3" t="b">
         <v>1</v>
@@ -2420,20 +2061,20 @@
     </row>
     <row r="6" spans="1:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>256</v>
+        <v>127</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>247</v>
+        <v>130</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="4" t="s">
-        <v>257</v>
+        <v>134</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>257</v>
+        <v>132</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>258</v>
+        <v>139</v>
       </c>
       <c r="G6" s="3" t="b">
         <v>1</v>
@@ -2441,111 +2082,27 @@
     </row>
     <row r="7" spans="1:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C7" s="3"/>
+        <v>127</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4" t="s">
+        <v>130</v>
+      </c>
       <c r="D7" s="4" t="s">
-        <v>251</v>
+        <v>124</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>254</v>
+        <v>124</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="G7" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="G8" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="G9" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="G10" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="G11" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2571,79 +2128,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="A1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>26</v>
+      <c r="H1" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -2651,13 +2208,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>219</v>
+        <v>175</v>
       </c>
       <c r="C4" s="3">
         <v>100001</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -2669,13 +2226,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>220</v>
+        <v>176</v>
       </c>
       <c r="C5" s="3">
         <v>100002</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -2687,13 +2244,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>221</v>
+        <v>177</v>
       </c>
       <c r="C6" s="3">
         <v>100003</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>222</v>
+        <v>178</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -2709,10 +2266,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C4C9D73-B832-4A9D-87A8-827BB53C2F30}">
-  <dimension ref="A1:AA12"/>
+  <dimension ref="A1:AA11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2746,252 +2303,252 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="K1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="K1" s="6" t="s">
+      <c r="N1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="L1" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="M1" s="6" t="s">
+      <c r="P1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q1" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="R1" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="O1" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="R1" s="6" t="s">
+      <c r="T1" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="V1" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="S1" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="T1" s="6" t="s">
+      <c r="W1" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="X1" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="Y1" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="V1" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>123</v>
+      <c r="Z1" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="G2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="H2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="I2" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="J2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="K2" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="L2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="M2" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="N2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="O2" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="P2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="Q2" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="R2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="S2" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="T2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="U2" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="V2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="W2" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="X2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="Y2" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="Z2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="AA2" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>210</v>
+        <v>166</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="K3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J3" s="2" t="s">
+      <c r="N3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L3" s="2" t="s">
+      <c r="P3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="N3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="S3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="W3" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="V3" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="Z3" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
@@ -3002,10 +2559,10 @@
         <v>1001</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>211</v>
+        <v>167</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>234</v>
+        <v>190</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -3017,7 +2574,7 @@
         <v>60</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>186</v>
+        <v>142</v>
       </c>
       <c r="I4" s="3">
         <v>100002</v>
@@ -3049,10 +2606,10 @@
         <v>1002</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>212</v>
+        <v>168</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>235</v>
+        <v>191</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
@@ -3064,13 +2621,13 @@
         <v>30</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="I5" s="3">
         <v>100001</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="K5" s="3">
         <v>100001</v>
@@ -3100,10 +2657,10 @@
         <v>1003</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>213</v>
+        <v>169</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>236</v>
+        <v>192</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
@@ -3115,19 +2672,19 @@
         <v>30</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="I6" s="3">
         <v>100001</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="K6" s="3">
         <v>100001</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>215</v>
+        <v>171</v>
       </c>
       <c r="M6" s="3">
         <v>100001</v>
@@ -3155,10 +2712,10 @@
         <v>1004</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>214</v>
+        <v>170</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>237</v>
+        <v>193</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -3170,25 +2727,25 @@
         <v>30</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="I7" s="3">
         <v>100001</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="K7" s="3">
         <v>100001</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="M7" s="3">
         <v>100001</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
       <c r="O7" s="3">
         <v>100001</v>
@@ -3214,10 +2771,10 @@
         <v>1005</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>216</v>
+        <v>172</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>238</v>
+        <v>194</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
@@ -3229,31 +2786,31 @@
         <v>30</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="I8" s="3">
         <v>100001</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="K8" s="3">
         <v>100001</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="M8" s="3">
         <v>100001</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
       <c r="O8" s="3">
         <v>100001</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>217</v>
+        <v>173</v>
       </c>
       <c r="Q8" s="3">
         <v>100001</v>
@@ -3277,10 +2834,10 @@
         <v>1006</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>223</v>
+        <v>179</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>239</v>
+        <v>195</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
@@ -3292,13 +2849,13 @@
         <v>30</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="I9" s="3">
         <v>100003</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="K9" s="3">
         <v>100003</v>
@@ -3328,10 +2885,10 @@
         <v>1007</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>224</v>
+        <v>180</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>240</v>
+        <v>196</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
@@ -3343,25 +2900,25 @@
         <v>30</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="I10" s="3">
         <v>100001</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="K10" s="3">
         <v>100001</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>215</v>
+        <v>171</v>
       </c>
       <c r="M10" s="3">
         <v>100001</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>225</v>
+        <v>181</v>
       </c>
       <c r="O10" s="3">
         <v>100001</v>
@@ -3387,10 +2944,10 @@
         <v>1008</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>226</v>
+        <v>182</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>241</v>
+        <v>197</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
@@ -3402,49 +2959,49 @@
         <v>30</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="I11" s="3">
         <v>100001</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>227</v>
+        <v>183</v>
       </c>
       <c r="K11" s="3">
         <v>100001</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>228</v>
+        <v>184</v>
       </c>
       <c r="M11" s="3">
         <v>100001</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>229</v>
+        <v>185</v>
       </c>
       <c r="O11" s="3">
         <v>100001</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
       <c r="Q11" s="3">
         <v>100001</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>231</v>
+        <v>187</v>
       </c>
       <c r="S11" s="3">
         <v>100001</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>232</v>
+        <v>188</v>
       </c>
       <c r="U11" s="3">
         <v>100003</v>
       </c>
       <c r="V11" s="4" t="s">
-        <v>233</v>
+        <v>189</v>
       </c>
       <c r="W11" s="3">
         <v>100003</v>
@@ -3453,35 +3010,6 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -3506,45 +3034,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>191</v>
+      <c r="C1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>192</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -3555,10 +3083,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>193</v>
+        <v>149</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>200</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -3567,10 +3095,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>194</v>
+        <v>150</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>201</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -3579,10 +3107,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>195</v>
+        <v>151</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -3591,10 +3119,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>196</v>
+        <v>152</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -3603,10 +3131,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>197</v>
+        <v>153</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -3615,10 +3143,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>198</v>
+        <v>154</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -3627,10 +3155,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>206</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -3639,10 +3167,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>208</v>
+        <v>164</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>207</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -3698,1570 +3226,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC607366-3147-4BB3-871A-6FBF72A30BDC}">
-  <dimension ref="A1:P33"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="12.25" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="13.125" customWidth="1"/>
-    <col min="8" max="8" width="17.125" customWidth="1"/>
-    <col min="9" max="9" width="13.875" customWidth="1"/>
-    <col min="10" max="10" width="18.875" customWidth="1"/>
-    <col min="11" max="11" width="11.75" customWidth="1"/>
-    <col min="12" max="13" width="14" customWidth="1"/>
-    <col min="14" max="14" width="13.375" customWidth="1"/>
-    <col min="15" max="15" width="15.875" customWidth="1"/>
-    <col min="16" max="16" width="18.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F2" t="s">
-        <v>183</v>
-      </c>
-      <c r="G2" t="s">
-        <v>133</v>
-      </c>
-      <c r="H2" t="s">
-        <v>183</v>
-      </c>
-      <c r="I2" t="s">
-        <v>133</v>
-      </c>
-      <c r="J2" t="s">
-        <v>183</v>
-      </c>
-      <c r="K2" t="s">
-        <v>133</v>
-      </c>
-      <c r="L2" t="s">
-        <v>134</v>
-      </c>
-      <c r="M2" t="s">
-        <v>133</v>
-      </c>
-      <c r="N2" t="s">
-        <v>134</v>
-      </c>
-      <c r="O2" t="s">
-        <v>133</v>
-      </c>
-      <c r="P2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1003</v>
-      </c>
-      <c r="F4" s="3">
-        <v>2</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1005</v>
-      </c>
-      <c r="H4" s="3">
-        <v>2</v>
-      </c>
-      <c r="I4" s="3">
-        <v>1006</v>
-      </c>
-      <c r="J4" s="3">
-        <v>2</v>
-      </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-    </row>
-    <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D5" s="3">
-        <v>2</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1004</v>
-      </c>
-      <c r="F5" s="3">
-        <v>2</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1002</v>
-      </c>
-      <c r="H5" s="3">
-        <v>2</v>
-      </c>
-      <c r="I5" s="3">
-        <v>1002</v>
-      </c>
-      <c r="J5" s="3">
-        <v>2</v>
-      </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-    </row>
-    <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D6" s="3">
-        <v>3</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1007</v>
-      </c>
-      <c r="F6" s="3">
-        <v>2</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1008</v>
-      </c>
-      <c r="H6" s="3">
-        <v>2</v>
-      </c>
-      <c r="I6" s="3">
-        <v>1002</v>
-      </c>
-      <c r="J6" s="3">
-        <v>2</v>
-      </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-    </row>
-    <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D7" s="3">
-        <v>4</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1004</v>
-      </c>
-      <c r="F7" s="3">
-        <v>2</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1007</v>
-      </c>
-      <c r="H7" s="3">
-        <v>2</v>
-      </c>
-      <c r="I7" s="3">
-        <v>1003</v>
-      </c>
-      <c r="J7" s="3">
-        <v>2</v>
-      </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-    </row>
-    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D8" s="3">
-        <v>5</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1001</v>
-      </c>
-      <c r="F8" s="3">
-        <v>3</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-    </row>
-    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D9" s="3">
-        <v>6</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1003</v>
-      </c>
-      <c r="F9" s="3">
-        <v>2</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1005</v>
-      </c>
-      <c r="H9" s="3">
-        <v>2</v>
-      </c>
-      <c r="I9" s="3">
-        <v>1006</v>
-      </c>
-      <c r="J9" s="3">
-        <v>2</v>
-      </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-    </row>
-    <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D10" s="3">
-        <v>7</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1004</v>
-      </c>
-      <c r="F10" s="3">
-        <v>2</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1002</v>
-      </c>
-      <c r="H10" s="3">
-        <v>2</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1002</v>
-      </c>
-      <c r="J10" s="3">
-        <v>2</v>
-      </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-    </row>
-    <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3">
-        <v>1</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D11" s="3">
-        <v>8</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1007</v>
-      </c>
-      <c r="F11" s="3">
-        <v>2</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1008</v>
-      </c>
-      <c r="H11" s="3">
-        <v>2</v>
-      </c>
-      <c r="I11" s="3">
-        <v>1002</v>
-      </c>
-      <c r="J11" s="3">
-        <v>2</v>
-      </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>9</v>
-      </c>
-      <c r="B12" s="3">
-        <v>1</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D12" s="3">
-        <v>9</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1004</v>
-      </c>
-      <c r="F12" s="3">
-        <v>2</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1007</v>
-      </c>
-      <c r="H12" s="3">
-        <v>2</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1003</v>
-      </c>
-      <c r="J12" s="3">
-        <v>2</v>
-      </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-    </row>
-    <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>10</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D13" s="3">
-        <v>10</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1001</v>
-      </c>
-      <c r="F13" s="3">
-        <v>3</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-    </row>
-    <row r="14" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>11</v>
-      </c>
-      <c r="B14" s="3">
-        <v>2</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D14" s="3">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1003</v>
-      </c>
-      <c r="F14" s="3">
-        <v>2</v>
-      </c>
-      <c r="G14" s="3">
-        <v>1005</v>
-      </c>
-      <c r="H14" s="3">
-        <v>2</v>
-      </c>
-      <c r="I14" s="3">
-        <v>1006</v>
-      </c>
-      <c r="J14" s="3">
-        <v>2</v>
-      </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-    </row>
-    <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>12</v>
-      </c>
-      <c r="B15" s="3">
-        <v>2</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D15" s="3">
-        <v>2</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1004</v>
-      </c>
-      <c r="F15" s="3">
-        <v>2</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1002</v>
-      </c>
-      <c r="H15" s="3">
-        <v>2</v>
-      </c>
-      <c r="I15" s="3">
-        <v>1002</v>
-      </c>
-      <c r="J15" s="3">
-        <v>2</v>
-      </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-    </row>
-    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>13</v>
-      </c>
-      <c r="B16" s="3">
-        <v>2</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D16" s="3">
-        <v>3</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1007</v>
-      </c>
-      <c r="F16" s="3">
-        <v>2</v>
-      </c>
-      <c r="G16" s="3">
-        <v>1008</v>
-      </c>
-      <c r="H16" s="3">
-        <v>2</v>
-      </c>
-      <c r="I16" s="3">
-        <v>1002</v>
-      </c>
-      <c r="J16" s="3">
-        <v>2</v>
-      </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>14</v>
-      </c>
-      <c r="B17" s="3">
-        <v>2</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D17" s="3">
-        <v>4</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1004</v>
-      </c>
-      <c r="F17" s="3">
-        <v>2</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1007</v>
-      </c>
-      <c r="H17" s="3">
-        <v>2</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1003</v>
-      </c>
-      <c r="J17" s="3">
-        <v>2</v>
-      </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-    </row>
-    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>15</v>
-      </c>
-      <c r="B18" s="3">
-        <v>2</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D18" s="3">
-        <v>5</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1001</v>
-      </c>
-      <c r="F18" s="3">
-        <v>3</v>
-      </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-    </row>
-    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>16</v>
-      </c>
-      <c r="B19" s="3">
-        <v>2</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D19" s="3">
-        <v>6</v>
-      </c>
-      <c r="E19" s="3">
-        <v>1003</v>
-      </c>
-      <c r="F19" s="3">
-        <v>2</v>
-      </c>
-      <c r="G19" s="3">
-        <v>1005</v>
-      </c>
-      <c r="H19" s="3">
-        <v>2</v>
-      </c>
-      <c r="I19" s="3">
-        <v>1006</v>
-      </c>
-      <c r="J19" s="3">
-        <v>2</v>
-      </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>17</v>
-      </c>
-      <c r="B20" s="3">
-        <v>2</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D20" s="3">
-        <v>7</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1004</v>
-      </c>
-      <c r="F20" s="3">
-        <v>2</v>
-      </c>
-      <c r="G20" s="3">
-        <v>1002</v>
-      </c>
-      <c r="H20" s="3">
-        <v>2</v>
-      </c>
-      <c r="I20" s="3">
-        <v>1002</v>
-      </c>
-      <c r="J20" s="3">
-        <v>2</v>
-      </c>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-    </row>
-    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>18</v>
-      </c>
-      <c r="B21" s="3">
-        <v>2</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D21" s="3">
-        <v>8</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1007</v>
-      </c>
-      <c r="F21" s="3">
-        <v>2</v>
-      </c>
-      <c r="G21" s="3">
-        <v>1008</v>
-      </c>
-      <c r="H21" s="3">
-        <v>2</v>
-      </c>
-      <c r="I21" s="3">
-        <v>1002</v>
-      </c>
-      <c r="J21" s="3">
-        <v>2</v>
-      </c>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-    </row>
-    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>19</v>
-      </c>
-      <c r="B22" s="3">
-        <v>2</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D22" s="3">
-        <v>9</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1004</v>
-      </c>
-      <c r="F22" s="3">
-        <v>2</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1007</v>
-      </c>
-      <c r="H22" s="3">
-        <v>2</v>
-      </c>
-      <c r="I22" s="3">
-        <v>1003</v>
-      </c>
-      <c r="J22" s="3">
-        <v>2</v>
-      </c>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-    </row>
-    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>20</v>
-      </c>
-      <c r="B23" s="3">
-        <v>2</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D23" s="3">
-        <v>10</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1001</v>
-      </c>
-      <c r="F23" s="3">
-        <v>3</v>
-      </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-    </row>
-    <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>21</v>
-      </c>
-      <c r="B24" s="3">
-        <v>3</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D24" s="3">
-        <v>1</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1003</v>
-      </c>
-      <c r="F24" s="3">
-        <v>2</v>
-      </c>
-      <c r="G24" s="3">
-        <v>1005</v>
-      </c>
-      <c r="H24" s="3">
-        <v>2</v>
-      </c>
-      <c r="I24" s="3">
-        <v>1006</v>
-      </c>
-      <c r="J24" s="3">
-        <v>2</v>
-      </c>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-    </row>
-    <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>22</v>
-      </c>
-      <c r="B25" s="3">
-        <v>3</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D25" s="3">
-        <v>2</v>
-      </c>
-      <c r="E25" s="3">
-        <v>1004</v>
-      </c>
-      <c r="F25" s="3">
-        <v>2</v>
-      </c>
-      <c r="G25" s="3">
-        <v>1002</v>
-      </c>
-      <c r="H25" s="3">
-        <v>2</v>
-      </c>
-      <c r="I25" s="3">
-        <v>1002</v>
-      </c>
-      <c r="J25" s="3">
-        <v>2</v>
-      </c>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-    </row>
-    <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>23</v>
-      </c>
-      <c r="B26" s="3">
-        <v>3</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D26" s="3">
-        <v>3</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1007</v>
-      </c>
-      <c r="F26" s="3">
-        <v>2</v>
-      </c>
-      <c r="G26" s="3">
-        <v>1008</v>
-      </c>
-      <c r="H26" s="3">
-        <v>2</v>
-      </c>
-      <c r="I26" s="3">
-        <v>1002</v>
-      </c>
-      <c r="J26" s="3">
-        <v>2</v>
-      </c>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-    </row>
-    <row r="27" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>24</v>
-      </c>
-      <c r="B27" s="3">
-        <v>3</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D27" s="3">
-        <v>4</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1004</v>
-      </c>
-      <c r="F27" s="3">
-        <v>2</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1007</v>
-      </c>
-      <c r="H27" s="3">
-        <v>2</v>
-      </c>
-      <c r="I27" s="3">
-        <v>1003</v>
-      </c>
-      <c r="J27" s="3">
-        <v>2</v>
-      </c>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-    </row>
-    <row r="28" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>25</v>
-      </c>
-      <c r="B28" s="3">
-        <v>3</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D28" s="3">
-        <v>5</v>
-      </c>
-      <c r="E28" s="3">
-        <v>1001</v>
-      </c>
-      <c r="F28" s="3">
-        <v>3</v>
-      </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-    </row>
-    <row r="29" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>26</v>
-      </c>
-      <c r="B29" s="3">
-        <v>3</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D29" s="3">
-        <v>6</v>
-      </c>
-      <c r="E29" s="3">
-        <v>1003</v>
-      </c>
-      <c r="F29" s="3">
-        <v>2</v>
-      </c>
-      <c r="G29" s="3">
-        <v>1005</v>
-      </c>
-      <c r="H29" s="3">
-        <v>2</v>
-      </c>
-      <c r="I29" s="3">
-        <v>1006</v>
-      </c>
-      <c r="J29" s="3">
-        <v>2</v>
-      </c>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-    </row>
-    <row r="30" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
-        <v>27</v>
-      </c>
-      <c r="B30" s="3">
-        <v>3</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D30" s="3">
-        <v>7</v>
-      </c>
-      <c r="E30" s="3">
-        <v>1004</v>
-      </c>
-      <c r="F30" s="3">
-        <v>2</v>
-      </c>
-      <c r="G30" s="3">
-        <v>1002</v>
-      </c>
-      <c r="H30" s="3">
-        <v>2</v>
-      </c>
-      <c r="I30" s="3">
-        <v>1002</v>
-      </c>
-      <c r="J30" s="3">
-        <v>2</v>
-      </c>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-    </row>
-    <row r="31" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
-        <v>28</v>
-      </c>
-      <c r="B31" s="3">
-        <v>3</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D31" s="3">
-        <v>8</v>
-      </c>
-      <c r="E31" s="3">
-        <v>1007</v>
-      </c>
-      <c r="F31" s="3">
-        <v>2</v>
-      </c>
-      <c r="G31" s="3">
-        <v>1008</v>
-      </c>
-      <c r="H31" s="3">
-        <v>2</v>
-      </c>
-      <c r="I31" s="3">
-        <v>1002</v>
-      </c>
-      <c r="J31" s="3">
-        <v>2</v>
-      </c>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-    </row>
-    <row r="32" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
-        <v>29</v>
-      </c>
-      <c r="B32" s="3">
-        <v>3</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D32" s="3">
-        <v>9</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1004</v>
-      </c>
-      <c r="F32" s="3">
-        <v>2</v>
-      </c>
-      <c r="G32" s="3">
-        <v>1007</v>
-      </c>
-      <c r="H32" s="3">
-        <v>2</v>
-      </c>
-      <c r="I32" s="3">
-        <v>1003</v>
-      </c>
-      <c r="J32" s="3">
-        <v>2</v>
-      </c>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-    </row>
-    <row r="33" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
-        <v>30</v>
-      </c>
-      <c r="B33" s="3">
-        <v>3</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D33" s="3">
-        <v>10</v>
-      </c>
-      <c r="E33" s="3">
-        <v>1001</v>
-      </c>
-      <c r="F33" s="3">
-        <v>3</v>
-      </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01EEC457-8628-4279-8767-1817C387A82E}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="13.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8096D4F-BFDB-4940-9B24-DC72F9251001}">
-  <dimension ref="A1:C18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF36D8AE-75A8-46BF-880B-B77EF97ECDB9}">
+  <dimension ref="A1:X48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3">
-        <v>15</v>
-      </c>
-      <c r="C7" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3">
-        <v>20</v>
-      </c>
-      <c r="C8" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3">
-        <v>50</v>
-      </c>
-      <c r="C9" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3">
-        <v>100</v>
-      </c>
-      <c r="C10" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3">
-        <v>200</v>
-      </c>
-      <c r="C11" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>9</v>
-      </c>
-      <c r="B12" s="3">
-        <v>300</v>
-      </c>
-      <c r="C12" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>10</v>
-      </c>
-      <c r="B13" s="3">
-        <v>400</v>
-      </c>
-      <c r="C13" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>11</v>
-      </c>
-      <c r="B14" s="3">
-        <v>500</v>
-      </c>
-      <c r="C14" s="3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>12</v>
-      </c>
-      <c r="B15" s="3">
-        <v>1000</v>
-      </c>
-      <c r="C15" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>13</v>
-      </c>
-      <c r="B16" s="3">
-        <v>2000</v>
-      </c>
-      <c r="C16" s="3">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>14</v>
-      </c>
-      <c r="B17" s="3">
-        <v>5000</v>
-      </c>
-      <c r="C17" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>15</v>
-      </c>
-      <c r="B18" s="3">
-        <v>10000</v>
-      </c>
-      <c r="C18" s="3">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF36D8AE-75A8-46BF-880B-B77EF97ECDB9}">
-  <dimension ref="A1:X33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5272,225 +3241,225 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="V1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="N1" s="6" t="s">
+      <c r="W1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="X1" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="E2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="F2" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="G2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="H2" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="I2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="J2" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="K2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="L2" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="M2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="N2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="O2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="P2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="Q2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="R2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="S2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="T2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="U2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="V2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="W2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="X2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="U3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="V3" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
@@ -5504,7 +3473,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="3">
         <v>2</v>
@@ -5513,7 +3482,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="3">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="H4" s="3">
         <v>0</v>
@@ -5548,7 +3517,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="3">
         <v>3</v>
@@ -5557,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="3">
-        <v>300</v>
+        <v>2</v>
       </c>
       <c r="H5" s="3">
         <v>0</v>
@@ -5592,7 +3561,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="3">
         <v>5</v>
@@ -5601,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="3">
-        <v>500</v>
+        <v>3</v>
       </c>
       <c r="H6" s="3">
         <v>0</v>
@@ -5636,7 +3605,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="3">
         <v>8</v>
@@ -5645,7 +3614,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="3">
-        <v>800</v>
+        <v>5</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
@@ -5680,16 +3649,16 @@
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="3">
         <v>13</v>
       </c>
       <c r="F8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>1.3</v>
+        <v>10</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
@@ -5724,16 +3693,17 @@
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="3">
         <v>21</v>
       </c>
       <c r="F9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>2.1</v>
+        <f>G7+G8</f>
+        <v>15</v>
       </c>
       <c r="H9" s="3">
         <v>1</v>
@@ -5768,16 +3738,17 @@
         <v>7</v>
       </c>
       <c r="D10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="3">
         <v>34</v>
       </c>
       <c r="F10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>3.4</v>
+        <f t="shared" ref="G10:G18" si="0">G8+G9</f>
+        <v>25</v>
       </c>
       <c r="H10" s="3">
         <v>1</v>
@@ -5812,16 +3783,17 @@
         <v>8</v>
       </c>
       <c r="D11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="3">
         <v>55</v>
       </c>
       <c r="F11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="3">
-        <v>5.5</v>
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
       <c r="H11" s="3">
         <v>1</v>
@@ -5856,16 +3828,17 @@
         <v>9</v>
       </c>
       <c r="D12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="3">
         <v>89</v>
       </c>
       <c r="F12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="3">
-        <v>8.9</v>
+        <f t="shared" si="0"/>
+        <v>65</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
@@ -5900,16 +3873,17 @@
         <v>10</v>
       </c>
       <c r="D13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="3">
         <v>144</v>
       </c>
       <c r="F13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="3">
-        <v>14.4</v>
+        <f t="shared" si="0"/>
+        <v>105</v>
       </c>
       <c r="H13" s="3">
         <v>1</v>
@@ -5944,16 +3918,17 @@
         <v>11</v>
       </c>
       <c r="D14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
         <v>233</v>
       </c>
       <c r="F14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>23.3</v>
+        <f t="shared" si="0"/>
+        <v>170</v>
       </c>
       <c r="H14" s="3">
         <v>1</v>
@@ -5988,16 +3963,17 @@
         <v>12</v>
       </c>
       <c r="D15" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="3">
         <v>377</v>
       </c>
       <c r="F15" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="3">
-        <v>37.700000000000003</v>
+        <f t="shared" si="0"/>
+        <v>275</v>
       </c>
       <c r="H15" s="3">
         <v>1</v>
@@ -6032,16 +4008,17 @@
         <v>13</v>
       </c>
       <c r="D16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="3">
         <v>610</v>
       </c>
       <c r="F16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="3">
-        <v>61</v>
+        <f t="shared" si="0"/>
+        <v>445</v>
       </c>
       <c r="H16" s="3">
         <v>1</v>
@@ -6076,16 +4053,17 @@
         <v>14</v>
       </c>
       <c r="D17" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" s="3">
         <v>987</v>
       </c>
       <c r="F17" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" s="3">
-        <v>98.7</v>
+        <f t="shared" si="0"/>
+        <v>720</v>
       </c>
       <c r="H17" s="3">
         <v>1</v>
@@ -6120,16 +4098,17 @@
         <v>15</v>
       </c>
       <c r="D18" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E18" s="3">
-        <v>1.6</v>
+        <v>1597</v>
       </c>
       <c r="F18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>159.69999999999999</v>
+        <f t="shared" si="0"/>
+        <v>1165</v>
       </c>
       <c r="H18" s="3">
         <v>1</v>
@@ -6167,13 +4146,13 @@
         <v>1</v>
       </c>
       <c r="E19" s="3">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F19" s="3">
         <v>0</v>
       </c>
       <c r="G19" s="3">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="H19" s="3">
         <v>0</v>
@@ -6211,13 +4190,13 @@
         <v>1</v>
       </c>
       <c r="E20" s="3">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>300</v>
+        <v>4</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -6255,13 +4234,13 @@
         <v>1</v>
       </c>
       <c r="E21" s="3">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
       </c>
       <c r="G21" s="3">
-        <v>500</v>
+        <v>6</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
@@ -6299,13 +4278,13 @@
         <v>1</v>
       </c>
       <c r="E22" s="3">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>800</v>
+        <v>10</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -6343,13 +4322,13 @@
         <v>1</v>
       </c>
       <c r="E23" s="3">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="F23" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
-        <v>1.3</v>
+        <v>20</v>
       </c>
       <c r="H23" s="3">
         <v>1</v>
@@ -6387,13 +4366,13 @@
         <v>1</v>
       </c>
       <c r="E24" s="3">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="F24" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>2.1</v>
+        <v>30</v>
       </c>
       <c r="H24" s="3">
         <v>1</v>
@@ -6431,13 +4410,13 @@
         <v>1</v>
       </c>
       <c r="E25" s="3">
-        <v>170</v>
+        <v>68</v>
       </c>
       <c r="F25" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" s="3">
-        <v>3.4</v>
+        <v>50</v>
       </c>
       <c r="H25" s="3">
         <v>1</v>
@@ -6475,13 +4454,13 @@
         <v>1</v>
       </c>
       <c r="E26" s="3">
-        <v>275</v>
+        <v>110</v>
       </c>
       <c r="F26" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>5.5</v>
+        <v>80</v>
       </c>
       <c r="H26" s="3">
         <v>1</v>
@@ -6519,13 +4498,13 @@
         <v>1</v>
       </c>
       <c r="E27" s="3">
-        <v>445</v>
+        <v>178</v>
       </c>
       <c r="F27" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>8.9</v>
+        <v>130</v>
       </c>
       <c r="H27" s="3">
         <v>1</v>
@@ -6563,13 +4542,13 @@
         <v>1</v>
       </c>
       <c r="E28" s="3">
-        <v>720</v>
+        <v>288</v>
       </c>
       <c r="F28" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" s="3">
-        <v>14.4</v>
+        <v>210</v>
       </c>
       <c r="H28" s="3">
         <v>1</v>
@@ -6607,13 +4586,13 @@
         <v>2</v>
       </c>
       <c r="E29" s="3">
-        <v>1.2</v>
+        <v>466</v>
       </c>
       <c r="F29" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>23.3</v>
+        <v>340</v>
       </c>
       <c r="H29" s="3">
         <v>1</v>
@@ -6651,13 +4630,13 @@
         <v>2</v>
       </c>
       <c r="E30" s="3">
-        <v>2.1</v>
+        <v>754</v>
       </c>
       <c r="F30" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" s="3">
-        <v>37.700000000000003</v>
+        <v>550</v>
       </c>
       <c r="H30" s="3">
         <v>1</v>
@@ -6695,13 +4674,13 @@
         <v>2</v>
       </c>
       <c r="E31" s="3">
-        <v>3.3</v>
+        <v>1220</v>
       </c>
       <c r="F31" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" s="3">
-        <v>61</v>
+        <v>890</v>
       </c>
       <c r="H31" s="3">
         <v>1</v>
@@ -6739,13 +4718,13 @@
         <v>2</v>
       </c>
       <c r="E32" s="3">
-        <v>5.4</v>
+        <v>1974</v>
       </c>
       <c r="F32" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>98.7</v>
+        <v>1440</v>
       </c>
       <c r="H32" s="3">
         <v>1</v>
@@ -6783,13 +4762,13 @@
         <v>2</v>
       </c>
       <c r="E33" s="3">
-        <v>8.6999999999999993</v>
+        <v>3194</v>
       </c>
       <c r="F33" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
-        <v>159.69999999999999</v>
+        <v>2330</v>
       </c>
       <c r="H33" s="3">
         <v>1</v>
@@ -6813,65 +4792,684 @@
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
     </row>
+    <row r="34" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>31</v>
+      </c>
+      <c r="B34" s="3">
+        <v>100003</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
+      <c r="E34" s="3">
+        <f>E4*10</f>
+        <v>20</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3">
+        <v>2</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0</v>
+      </c>
+      <c r="I34" s="3">
+        <v>100</v>
+      </c>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+    </row>
+    <row r="35" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>32</v>
+      </c>
+      <c r="B35" s="3">
+        <v>100003</v>
+      </c>
+      <c r="C35" s="3">
+        <v>2</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1</v>
+      </c>
+      <c r="E35" s="3">
+        <f t="shared" ref="E35:E48" si="1">E5*10</f>
+        <v>30</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
+        <v>4</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
+        <v>150</v>
+      </c>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+    </row>
+    <row r="36" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>33</v>
+      </c>
+      <c r="B36" s="3">
+        <v>100003</v>
+      </c>
+      <c r="C36" s="3">
+        <v>3</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1</v>
+      </c>
+      <c r="E36" s="3">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0</v>
+      </c>
+      <c r="G36" s="3">
+        <v>6</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0</v>
+      </c>
+      <c r="I36" s="3">
+        <v>250</v>
+      </c>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+    </row>
+    <row r="37" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>34</v>
+      </c>
+      <c r="B37" s="3">
+        <v>100003</v>
+      </c>
+      <c r="C37" s="3">
+        <v>4</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1</v>
+      </c>
+      <c r="E37" s="3">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0</v>
+      </c>
+      <c r="G37" s="3">
+        <v>10</v>
+      </c>
+      <c r="H37" s="3">
+        <v>0</v>
+      </c>
+      <c r="I37" s="3">
+        <v>400</v>
+      </c>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+    </row>
+    <row r="38" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>35</v>
+      </c>
+      <c r="B38" s="3">
+        <v>100003</v>
+      </c>
+      <c r="C38" s="3">
+        <v>5</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1</v>
+      </c>
+      <c r="E38" s="3">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="F38" s="3">
+        <v>0</v>
+      </c>
+      <c r="G38" s="3">
+        <v>20</v>
+      </c>
+      <c r="H38" s="3">
+        <v>1</v>
+      </c>
+      <c r="I38" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+    </row>
+    <row r="39" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>36</v>
+      </c>
+      <c r="B39" s="3">
+        <v>100003</v>
+      </c>
+      <c r="C39" s="3">
+        <v>6</v>
+      </c>
+      <c r="D39" s="3">
+        <v>1</v>
+      </c>
+      <c r="E39" s="3">
+        <f t="shared" si="1"/>
+        <v>210</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0</v>
+      </c>
+      <c r="G39" s="3">
+        <v>30</v>
+      </c>
+      <c r="H39" s="3">
+        <v>1</v>
+      </c>
+      <c r="I39" s="3">
+        <v>1.05</v>
+      </c>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>37</v>
+      </c>
+      <c r="B40" s="3">
+        <v>100003</v>
+      </c>
+      <c r="C40" s="3">
+        <v>7</v>
+      </c>
+      <c r="D40" s="3">
+        <v>1</v>
+      </c>
+      <c r="E40" s="3">
+        <f t="shared" si="1"/>
+        <v>340</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0</v>
+      </c>
+      <c r="G40" s="3">
+        <v>50</v>
+      </c>
+      <c r="H40" s="3">
+        <v>1</v>
+      </c>
+      <c r="I40" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>38</v>
+      </c>
+      <c r="B41" s="3">
+        <v>100003</v>
+      </c>
+      <c r="C41" s="3">
+        <v>8</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1</v>
+      </c>
+      <c r="E41" s="3">
+        <f t="shared" si="1"/>
+        <v>550</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>80</v>
+      </c>
+      <c r="H41" s="3">
+        <v>1</v>
+      </c>
+      <c r="I41" s="3">
+        <v>2.75</v>
+      </c>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+    </row>
+    <row r="42" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <v>39</v>
+      </c>
+      <c r="B42" s="3">
+        <v>100003</v>
+      </c>
+      <c r="C42" s="3">
+        <v>9</v>
+      </c>
+      <c r="D42" s="3">
+        <v>1</v>
+      </c>
+      <c r="E42" s="3">
+        <f t="shared" si="1"/>
+        <v>890</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>130</v>
+      </c>
+      <c r="H42" s="3">
+        <v>1</v>
+      </c>
+      <c r="I42" s="3">
+        <v>4.45</v>
+      </c>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+    </row>
+    <row r="43" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <v>40</v>
+      </c>
+      <c r="B43" s="3">
+        <v>100003</v>
+      </c>
+      <c r="C43" s="3">
+        <v>10</v>
+      </c>
+      <c r="D43" s="3">
+        <v>1</v>
+      </c>
+      <c r="E43" s="3">
+        <f t="shared" si="1"/>
+        <v>1440</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>210</v>
+      </c>
+      <c r="H43" s="3">
+        <v>1</v>
+      </c>
+      <c r="I43" s="3">
+        <v>7.2</v>
+      </c>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+    </row>
+    <row r="44" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <v>41</v>
+      </c>
+      <c r="B44" s="3">
+        <v>100003</v>
+      </c>
+      <c r="C44" s="3">
+        <v>11</v>
+      </c>
+      <c r="D44" s="3">
+        <v>2</v>
+      </c>
+      <c r="E44" s="3">
+        <f t="shared" si="1"/>
+        <v>2330</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>340</v>
+      </c>
+      <c r="H44" s="3">
+        <v>1</v>
+      </c>
+      <c r="I44" s="3">
+        <v>11.65</v>
+      </c>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+    </row>
+    <row r="45" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>42</v>
+      </c>
+      <c r="B45" s="3">
+        <v>100003</v>
+      </c>
+      <c r="C45" s="3">
+        <v>12</v>
+      </c>
+      <c r="D45" s="3">
+        <v>2</v>
+      </c>
+      <c r="E45" s="3">
+        <f t="shared" si="1"/>
+        <v>3770</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>550</v>
+      </c>
+      <c r="H45" s="3">
+        <v>1</v>
+      </c>
+      <c r="I45" s="3">
+        <v>18.850000000000001</v>
+      </c>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
+    </row>
+    <row r="46" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <v>43</v>
+      </c>
+      <c r="B46" s="3">
+        <v>100003</v>
+      </c>
+      <c r="C46" s="3">
+        <v>13</v>
+      </c>
+      <c r="D46" s="3">
+        <v>2</v>
+      </c>
+      <c r="E46" s="3">
+        <f t="shared" si="1"/>
+        <v>6100</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
+        <v>890</v>
+      </c>
+      <c r="H46" s="3">
+        <v>1</v>
+      </c>
+      <c r="I46" s="3">
+        <v>30.5</v>
+      </c>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+    </row>
+    <row r="47" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>44</v>
+      </c>
+      <c r="B47" s="3">
+        <v>100003</v>
+      </c>
+      <c r="C47" s="3">
+        <v>14</v>
+      </c>
+      <c r="D47" s="3">
+        <v>2</v>
+      </c>
+      <c r="E47" s="3">
+        <f t="shared" si="1"/>
+        <v>9870</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>1440</v>
+      </c>
+      <c r="H47" s="3">
+        <v>1</v>
+      </c>
+      <c r="I47" s="3">
+        <v>49.35</v>
+      </c>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
+    </row>
+    <row r="48" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>45</v>
+      </c>
+      <c r="B48" s="3">
+        <v>100003</v>
+      </c>
+      <c r="C48" s="3">
+        <v>15</v>
+      </c>
+      <c r="D48" s="3">
+        <v>2</v>
+      </c>
+      <c r="E48" s="3">
+        <f t="shared" si="1"/>
+        <v>15970</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>2330</v>
+      </c>
+      <c r="H48" s="3">
+        <v>1</v>
+      </c>
+      <c r="I48" s="3">
+        <v>79.849999999999994</v>
+      </c>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF6B5F60-2516-465C-86D6-D932958CCAA8}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="51.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Excel/monster.怪物.xlsx
+++ b/Excel/monster.怪物.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFD9512-3A38-425B-878F-BC9138F1E269}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C943F0-C552-427C-8F3D-A1CFD28AD19C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -167,7 +167,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="212">
   <si>
     <t>sheet名</t>
   </si>
@@ -1407,6 +1407,58 @@
   </si>
   <si>
     <t>rowId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币掉落min权重</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币掉落max权重</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币掉落min值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币掉落max值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dropId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dropProb</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dropMin.w</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dropMin.v</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dropMax.w</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dropMax.v</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落概率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落组ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>float:&lt;&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1937,7 +1989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -2115,8 +2167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2831914-6C97-4A3E-B7CA-07564CCE33F3}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3227,20 +3279,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF36D8AE-75A8-46BF-880B-B77EF97ECDB9}">
-  <dimension ref="A1:X48"/>
+  <dimension ref="A1:AD48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="10.875" customWidth="1"/>
-    <col min="4" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="24" width="15.625" customWidth="1"/>
+    <col min="4" max="5" width="16" customWidth="1"/>
+    <col min="6" max="9" width="17.625" customWidth="1"/>
+    <col min="10" max="11" width="11.5" customWidth="1"/>
+    <col min="12" max="30" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>25</v>
       </c>
@@ -3251,70 +3305,88 @@
         <v>26</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -3325,22 +3397,22 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>122</v>
+        <v>211</v>
       </c>
       <c r="F2" t="s">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>122</v>
+        <v>211</v>
       </c>
       <c r="H2" t="s">
-        <v>141</v>
+        <v>211</v>
       </c>
       <c r="I2" t="s">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
         <v>141</v>
@@ -3355,19 +3427,19 @@
         <v>122</v>
       </c>
       <c r="N2" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="O2" t="s">
         <v>122</v>
       </c>
       <c r="P2" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="Q2" t="s">
         <v>122</v>
       </c>
       <c r="R2" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="S2" t="s">
         <v>122</v>
@@ -3387,8 +3459,26 @@
       <c r="X2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+      <c r="Y2" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>48</v>
       </c>
@@ -3399,70 +3489,88 @@
         <v>49</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -3476,26 +3584,38 @@
         <v>0</v>
       </c>
       <c r="E4" s="3">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
       </c>
       <c r="G4" s="3">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="H4" s="3">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>2</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
+        <v>1</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3">
         <v>100</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
@@ -3505,8 +3625,14 @@
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
-    </row>
-    <row r="5" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+    </row>
+    <row r="5" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -3520,26 +3646,38 @@
         <v>0</v>
       </c>
       <c r="E5" s="3">
+        <v>500</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
         <v>3</v>
       </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3">
-        <v>2</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3">
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
+        <v>2</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
         <v>150</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
@@ -3549,8 +3687,14 @@
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
-    </row>
-    <row r="6" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+    </row>
+    <row r="6" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -3561,29 +3705,41 @@
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="3">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
         <v>5</v>
       </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="H6" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>5</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
         <v>3</v>
       </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3">
+      <c r="N6" s="3">
+        <v>0</v>
+      </c>
+      <c r="O6" s="3">
         <v>250</v>
       </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
@@ -3593,8 +3749,14 @@
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
-    </row>
-    <row r="7" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+    </row>
+    <row r="7" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -3605,29 +3767,41 @@
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="3">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>20</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
         <v>8</v>
       </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
         <v>5</v>
       </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
         <v>400</v>
       </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
@@ -3637,8 +3811,14 @@
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
-    </row>
-    <row r="8" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+    </row>
+    <row r="8" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -3649,29 +3829,41 @@
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="3">
+        <v>50</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>100</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>13</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
         <v>10</v>
       </c>
-      <c r="H8" s="3">
-        <v>1</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="N8" s="3">
+        <v>1</v>
+      </c>
+      <c r="O8" s="3">
         <v>0.65</v>
       </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
@@ -3681,8 +3873,14 @@
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
-    </row>
-    <row r="9" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+    </row>
+    <row r="9" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -3693,30 +3891,42 @@
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="3">
+        <v>200</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>300</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
         <v>21</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <f>G7+G8</f>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <f>M7+M8</f>
         <v>15</v>
       </c>
-      <c r="H9" s="3">
-        <v>1</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="N9" s="3">
+        <v>1</v>
+      </c>
+      <c r="O9" s="3">
         <v>1.05</v>
       </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
@@ -3726,8 +3936,14 @@
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
-    </row>
-    <row r="10" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+    </row>
+    <row r="10" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -3738,30 +3954,42 @@
         <v>7</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="3">
+        <v>500</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>700</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
         <v>34</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <f t="shared" ref="G10:G18" si="0">G8+G9</f>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <f t="shared" ref="M10:M18" si="0">M8+M9</f>
         <v>25</v>
       </c>
-      <c r="H10" s="3">
-        <v>1</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="N10" s="3">
+        <v>1</v>
+      </c>
+      <c r="O10" s="3">
         <v>1.7</v>
       </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
@@ -3771,8 +3999,14 @@
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
-    </row>
-    <row r="11" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+    </row>
+    <row r="11" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -3783,30 +4017,42 @@
         <v>8</v>
       </c>
       <c r="D11" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
         <v>55</v>
       </c>
-      <c r="F11" s="3">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3">
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="H11" s="3">
-        <v>1</v>
-      </c>
-      <c r="I11" s="3">
+      <c r="N11" s="3">
+        <v>1</v>
+      </c>
+      <c r="O11" s="3">
         <v>2.75</v>
       </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
@@ -3816,8 +4062,14 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -3828,30 +4080,42 @@
         <v>9</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E12" s="3">
+        <v>2</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2</v>
+      </c>
+      <c r="G12" s="3">
+        <v>3</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
         <v>89</v>
       </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="H12" s="3">
-        <v>1</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="N12" s="3">
+        <v>1</v>
+      </c>
+      <c r="O12" s="3">
         <v>4.45</v>
       </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
@@ -3861,8 +4125,14 @@
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
-    </row>
-    <row r="13" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+    </row>
+    <row r="13" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -3873,30 +4143,42 @@
         <v>10</v>
       </c>
       <c r="D13" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E13" s="3">
+        <v>5</v>
+      </c>
+      <c r="F13" s="3">
+        <v>2</v>
+      </c>
+      <c r="G13" s="3">
+        <v>6</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
         <v>144</v>
       </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="H13" s="3">
-        <v>1</v>
-      </c>
-      <c r="I13" s="3">
+      <c r="N13" s="3">
+        <v>1</v>
+      </c>
+      <c r="O13" s="3">
         <v>7.2</v>
       </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
@@ -3906,8 +4188,14 @@
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
-    </row>
-    <row r="14" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+    </row>
+    <row r="14" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -3918,30 +4206,42 @@
         <v>11</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E14" s="3">
+        <v>10</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2</v>
+      </c>
+      <c r="G14" s="3">
+        <v>15</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>233</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <f t="shared" si="0"/>
         <v>170</v>
       </c>
-      <c r="H14" s="3">
-        <v>1</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="N14" s="3">
+        <v>1</v>
+      </c>
+      <c r="O14" s="3">
         <v>11.65</v>
       </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
@@ -3951,8 +4251,14 @@
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
-    </row>
-    <row r="15" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+    </row>
+    <row r="15" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -3963,30 +4269,42 @@
         <v>12</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E15" s="3">
+        <v>20</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2</v>
+      </c>
+      <c r="G15" s="3">
+        <v>30</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
         <v>377</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
         <f t="shared" si="0"/>
         <v>275</v>
       </c>
-      <c r="H15" s="3">
-        <v>1</v>
-      </c>
-      <c r="I15" s="3">
+      <c r="N15" s="3">
+        <v>1</v>
+      </c>
+      <c r="O15" s="3">
         <v>18.850000000000001</v>
       </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
@@ -3996,8 +4314,14 @@
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
-    </row>
-    <row r="16" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+    </row>
+    <row r="16" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -4008,30 +4332,42 @@
         <v>13</v>
       </c>
       <c r="D16" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E16" s="3">
+        <v>50</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2</v>
+      </c>
+      <c r="G16" s="3">
+        <v>60</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3">
         <v>610</v>
       </c>
-      <c r="F16" s="3">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3">
+      <c r="L16" s="3">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3">
         <f t="shared" si="0"/>
         <v>445</v>
       </c>
-      <c r="H16" s="3">
-        <v>1</v>
-      </c>
-      <c r="I16" s="3">
+      <c r="N16" s="3">
+        <v>1</v>
+      </c>
+      <c r="O16" s="3">
         <v>30.5</v>
       </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
@@ -4041,8 +4377,14 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -4053,30 +4395,42 @@
         <v>14</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2</v>
+      </c>
+      <c r="G17" s="3">
+        <v>200</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>987</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
         <f t="shared" si="0"/>
         <v>720</v>
       </c>
-      <c r="H17" s="3">
-        <v>1</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="N17" s="3">
+        <v>1</v>
+      </c>
+      <c r="O17" s="3">
         <v>49.35</v>
       </c>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
@@ -4086,8 +4440,14 @@
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
-    </row>
-    <row r="18" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+    </row>
+    <row r="18" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -4098,30 +4458,42 @@
         <v>15</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E18" s="3">
+        <v>200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2</v>
+      </c>
+      <c r="G18" s="3">
+        <v>500</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>1597</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <f t="shared" si="0"/>
         <v>1165</v>
       </c>
-      <c r="H18" s="3">
-        <v>1</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="N18" s="3">
+        <v>1</v>
+      </c>
+      <c r="O18" s="3">
         <v>79.849999999999994</v>
       </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
@@ -4131,8 +4503,14 @@
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
-    </row>
-    <row r="19" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+    </row>
+    <row r="19" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -4143,29 +4521,41 @@
         <v>1</v>
       </c>
       <c r="D19" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" s="3">
+        <v>300</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>600</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="I19" s="3">
+        <v>1</v>
+      </c>
+      <c r="J19" s="3">
+        <v>1</v>
+      </c>
+      <c r="K19" s="3">
         <v>4</v>
       </c>
-      <c r="F19" s="3">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3">
-        <v>2</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="I19" s="3">
+      <c r="L19" s="3">
+        <v>0</v>
+      </c>
+      <c r="M19" s="3">
+        <v>2</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0</v>
+      </c>
+      <c r="O19" s="3">
         <v>100</v>
       </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
@@ -4175,8 +4565,14 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -4190,26 +4586,38 @@
         <v>1</v>
       </c>
       <c r="E20" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3">
+        <v>3</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1</v>
+      </c>
+      <c r="K20" s="3">
         <v>6</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>4</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>150</v>
       </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
@@ -4219,8 +4627,14 @@
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
-    </row>
-    <row r="21" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+    </row>
+    <row r="21" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -4234,26 +4648,38 @@
         <v>1</v>
       </c>
       <c r="E21" s="3">
+        <v>6</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3">
+        <v>15</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1</v>
+      </c>
+      <c r="K21" s="3">
         <v>10</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>6</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>250</v>
       </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
@@ -4263,8 +4689,14 @@
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
-    </row>
-    <row r="22" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+    </row>
+    <row r="22" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -4278,26 +4710,38 @@
         <v>1</v>
       </c>
       <c r="E22" s="3">
+        <v>30</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3">
+        <v>60</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1</v>
+      </c>
+      <c r="K22" s="3">
         <v>16</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>10</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>400</v>
       </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
@@ -4307,8 +4751,14 @@
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
-    </row>
-    <row r="23" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+    </row>
+    <row r="23" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -4322,26 +4772,38 @@
         <v>1</v>
       </c>
       <c r="E23" s="3">
+        <v>150</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3">
+        <v>300</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1</v>
+      </c>
+      <c r="K23" s="3">
         <v>26</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>20</v>
       </c>
-      <c r="H23" s="3">
-        <v>1</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="N23" s="3">
+        <v>1</v>
+      </c>
+      <c r="O23" s="3">
         <v>0.65</v>
       </c>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
@@ -4351,8 +4813,14 @@
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
-    </row>
-    <row r="24" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+    </row>
+    <row r="24" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -4366,26 +4834,38 @@
         <v>1</v>
       </c>
       <c r="E24" s="3">
+        <v>600</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3">
+        <v>900</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1</v>
+      </c>
+      <c r="J24" s="3">
+        <v>1</v>
+      </c>
+      <c r="K24" s="3">
         <v>42</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>30</v>
       </c>
-      <c r="H24" s="3">
-        <v>1</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="N24" s="3">
+        <v>1</v>
+      </c>
+      <c r="O24" s="3">
         <v>1.05</v>
       </c>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
@@ -4395,8 +4875,14 @@
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
-    </row>
-    <row r="25" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+    </row>
+    <row r="25" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -4407,29 +4893,41 @@
         <v>7</v>
       </c>
       <c r="D25" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="F25" s="3">
+        <v>2</v>
+      </c>
+      <c r="G25" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="I25" s="3">
+        <v>1</v>
+      </c>
+      <c r="J25" s="3">
+        <v>1</v>
+      </c>
+      <c r="K25" s="3">
         <v>68</v>
       </c>
-      <c r="F25" s="3">
-        <v>0</v>
-      </c>
-      <c r="G25" s="3">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
         <v>50</v>
       </c>
-      <c r="H25" s="3">
-        <v>1</v>
-      </c>
-      <c r="I25" s="3">
+      <c r="N25" s="3">
+        <v>1</v>
+      </c>
+      <c r="O25" s="3">
         <v>1.7</v>
       </c>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
@@ -4439,8 +4937,14 @@
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
-    </row>
-    <row r="26" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+    </row>
+    <row r="26" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>23</v>
       </c>
@@ -4451,29 +4955,41 @@
         <v>8</v>
       </c>
       <c r="D26" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26" s="3">
+        <v>3</v>
+      </c>
+      <c r="F26" s="3">
+        <v>2</v>
+      </c>
+      <c r="G26" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1</v>
+      </c>
+      <c r="K26" s="3">
         <v>110</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>80</v>
       </c>
-      <c r="H26" s="3">
-        <v>1</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="N26" s="3">
+        <v>1</v>
+      </c>
+      <c r="O26" s="3">
         <v>2.75</v>
       </c>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
@@ -4483,8 +4999,14 @@
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
-    </row>
-    <row r="27" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+    </row>
+    <row r="27" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>24</v>
       </c>
@@ -4495,29 +5017,41 @@
         <v>9</v>
       </c>
       <c r="D27" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27" s="3">
+        <v>6</v>
+      </c>
+      <c r="F27" s="3">
+        <v>2</v>
+      </c>
+      <c r="G27" s="3">
+        <v>9</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="I27" s="3">
+        <v>1</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1</v>
+      </c>
+      <c r="K27" s="3">
         <v>178</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>130</v>
       </c>
-      <c r="H27" s="3">
-        <v>1</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="N27" s="3">
+        <v>1</v>
+      </c>
+      <c r="O27" s="3">
         <v>4.45</v>
       </c>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
@@ -4527,8 +5061,14 @@
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
-    </row>
-    <row r="28" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+    </row>
+    <row r="28" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>25</v>
       </c>
@@ -4539,29 +5079,41 @@
         <v>10</v>
       </c>
       <c r="D28" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" s="3">
+        <v>15</v>
+      </c>
+      <c r="F28" s="3">
+        <v>2</v>
+      </c>
+      <c r="G28" s="3">
+        <v>18</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="I28" s="3">
+        <v>1</v>
+      </c>
+      <c r="J28" s="3">
+        <v>1</v>
+      </c>
+      <c r="K28" s="3">
         <v>288</v>
       </c>
-      <c r="F28" s="3">
-        <v>0</v>
-      </c>
-      <c r="G28" s="3">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
         <v>210</v>
       </c>
-      <c r="H28" s="3">
-        <v>1</v>
-      </c>
-      <c r="I28" s="3">
+      <c r="N28" s="3">
+        <v>1</v>
+      </c>
+      <c r="O28" s="3">
         <v>7.2</v>
       </c>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
@@ -4571,8 +5123,14 @@
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
-    </row>
-    <row r="29" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+    </row>
+    <row r="29" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>26</v>
       </c>
@@ -4586,26 +5144,38 @@
         <v>2</v>
       </c>
       <c r="E29" s="3">
+        <v>30</v>
+      </c>
+      <c r="F29" s="3">
+        <v>2</v>
+      </c>
+      <c r="G29" s="3">
+        <v>45</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="I29" s="3">
+        <v>1</v>
+      </c>
+      <c r="J29" s="3">
+        <v>2</v>
+      </c>
+      <c r="K29" s="3">
         <v>466</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>340</v>
       </c>
-      <c r="H29" s="3">
-        <v>1</v>
-      </c>
-      <c r="I29" s="3">
+      <c r="N29" s="3">
+        <v>1</v>
+      </c>
+      <c r="O29" s="3">
         <v>11.65</v>
       </c>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
@@ -4615,8 +5185,14 @@
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
-    </row>
-    <row r="30" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+    </row>
+    <row r="30" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>27</v>
       </c>
@@ -4630,26 +5206,38 @@
         <v>2</v>
       </c>
       <c r="E30" s="3">
+        <v>60</v>
+      </c>
+      <c r="F30" s="3">
+        <v>2</v>
+      </c>
+      <c r="G30" s="3">
+        <v>90</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="I30" s="3">
+        <v>1</v>
+      </c>
+      <c r="J30" s="3">
+        <v>2</v>
+      </c>
+      <c r="K30" s="3">
         <v>754</v>
       </c>
-      <c r="F30" s="3">
-        <v>0</v>
-      </c>
-      <c r="G30" s="3">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
         <v>550</v>
       </c>
-      <c r="H30" s="3">
-        <v>1</v>
-      </c>
-      <c r="I30" s="3">
+      <c r="N30" s="3">
+        <v>1</v>
+      </c>
+      <c r="O30" s="3">
         <v>18.850000000000001</v>
       </c>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
@@ -4659,8 +5247,14 @@
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
-    </row>
-    <row r="31" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3"/>
+    </row>
+    <row r="31" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>28</v>
       </c>
@@ -4674,26 +5268,38 @@
         <v>2</v>
       </c>
       <c r="E31" s="3">
+        <v>150</v>
+      </c>
+      <c r="F31" s="3">
+        <v>2</v>
+      </c>
+      <c r="G31" s="3">
+        <v>180</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="I31" s="3">
+        <v>1</v>
+      </c>
+      <c r="J31" s="3">
+        <v>2</v>
+      </c>
+      <c r="K31" s="3">
         <v>1220</v>
       </c>
-      <c r="F31" s="3">
-        <v>0</v>
-      </c>
-      <c r="G31" s="3">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
         <v>890</v>
       </c>
-      <c r="H31" s="3">
-        <v>1</v>
-      </c>
-      <c r="I31" s="3">
+      <c r="N31" s="3">
+        <v>1</v>
+      </c>
+      <c r="O31" s="3">
         <v>30.5</v>
       </c>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
@@ -4703,8 +5309,14 @@
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
-    </row>
-    <row r="32" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
+    </row>
+    <row r="32" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>29</v>
       </c>
@@ -4718,26 +5330,38 @@
         <v>2</v>
       </c>
       <c r="E32" s="3">
+        <v>300</v>
+      </c>
+      <c r="F32" s="3">
+        <v>2</v>
+      </c>
+      <c r="G32" s="3">
+        <v>600</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="I32" s="3">
+        <v>1</v>
+      </c>
+      <c r="J32" s="3">
+        <v>2</v>
+      </c>
+      <c r="K32" s="3">
         <v>1974</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>1440</v>
       </c>
-      <c r="H32" s="3">
-        <v>1</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="N32" s="3">
+        <v>1</v>
+      </c>
+      <c r="O32" s="3">
         <v>49.35</v>
       </c>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
@@ -4747,8 +5371,14 @@
       <c r="V32" s="3"/>
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
-    </row>
-    <row r="33" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="3"/>
+      <c r="AC32" s="3"/>
+      <c r="AD32" s="3"/>
+    </row>
+    <row r="33" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>30</v>
       </c>
@@ -4762,26 +5392,38 @@
         <v>2</v>
       </c>
       <c r="E33" s="3">
+        <v>600</v>
+      </c>
+      <c r="F33" s="3">
+        <v>3</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="I33" s="3">
+        <v>1</v>
+      </c>
+      <c r="J33" s="3">
+        <v>2</v>
+      </c>
+      <c r="K33" s="3">
         <v>3194</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>2330</v>
       </c>
-      <c r="H33" s="3">
-        <v>1</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="N33" s="3">
+        <v>1</v>
+      </c>
+      <c r="O33" s="3">
         <v>79.849999999999994</v>
       </c>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
@@ -4791,8 +5433,14 @@
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
-    </row>
-    <row r="34" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="3"/>
+    </row>
+    <row r="34" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>31</v>
       </c>
@@ -4806,27 +5454,39 @@
         <v>1</v>
       </c>
       <c r="E34" s="3">
-        <f>E4*10</f>
+        <v>1</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" s="3">
+        <v>2</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="I34" s="3">
+        <v>1</v>
+      </c>
+      <c r="J34" s="3">
+        <v>1</v>
+      </c>
+      <c r="K34" s="3">
+        <f>K4*10</f>
         <v>20</v>
       </c>
-      <c r="F34" s="3">
-        <v>0</v>
-      </c>
-      <c r="G34" s="3">
-        <v>2</v>
-      </c>
-      <c r="H34" s="3">
-        <v>0</v>
-      </c>
-      <c r="I34" s="3">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>2</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
         <v>100</v>
       </c>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
@@ -4836,8 +5496,14 @@
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
-    </row>
-    <row r="35" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="3"/>
+    </row>
+    <row r="35" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>32</v>
       </c>
@@ -4851,27 +5517,39 @@
         <v>1</v>
       </c>
       <c r="E35" s="3">
-        <f t="shared" ref="E35:E48" si="1">E5*10</f>
+        <v>5</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1</v>
+      </c>
+      <c r="G35" s="3">
+        <v>10</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="I35" s="3">
+        <v>1</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1</v>
+      </c>
+      <c r="K35" s="3">
+        <f t="shared" ref="K35:K48" si="1">K5*10</f>
         <v>30</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>4</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>150</v>
       </c>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
@@ -4881,8 +5559,14 @@
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
-    </row>
-    <row r="36" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="3"/>
+      <c r="AC35" s="3"/>
+      <c r="AD35" s="3"/>
+    </row>
+    <row r="36" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>33</v>
       </c>
@@ -4896,27 +5580,39 @@
         <v>1</v>
       </c>
       <c r="E36" s="3">
+        <v>20</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3">
+        <v>50</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="I36" s="3">
+        <v>1</v>
+      </c>
+      <c r="J36" s="3">
+        <v>1</v>
+      </c>
+      <c r="K36" s="3">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="F36" s="3">
-        <v>0</v>
-      </c>
-      <c r="G36" s="3">
+      <c r="L36" s="3">
+        <v>0</v>
+      </c>
+      <c r="M36" s="3">
         <v>6</v>
       </c>
-      <c r="H36" s="3">
-        <v>0</v>
-      </c>
-      <c r="I36" s="3">
+      <c r="N36" s="3">
+        <v>0</v>
+      </c>
+      <c r="O36" s="3">
         <v>250</v>
       </c>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
@@ -4926,8 +5622,14 @@
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
-    </row>
-    <row r="37" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="3"/>
+      <c r="AB36" s="3"/>
+      <c r="AC36" s="3"/>
+      <c r="AD36" s="3"/>
+    </row>
+    <row r="37" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>34</v>
       </c>
@@ -4941,27 +5643,39 @@
         <v>1</v>
       </c>
       <c r="E37" s="3">
+        <v>100</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+      <c r="G37" s="3">
+        <v>200</v>
+      </c>
+      <c r="H37" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="I37" s="3">
+        <v>1</v>
+      </c>
+      <c r="J37" s="3">
+        <v>1</v>
+      </c>
+      <c r="K37" s="3">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="F37" s="3">
-        <v>0</v>
-      </c>
-      <c r="G37" s="3">
+      <c r="L37" s="3">
+        <v>0</v>
+      </c>
+      <c r="M37" s="3">
         <v>10</v>
       </c>
-      <c r="H37" s="3">
-        <v>0</v>
-      </c>
-      <c r="I37" s="3">
+      <c r="N37" s="3">
+        <v>0</v>
+      </c>
+      <c r="O37" s="3">
         <v>400</v>
       </c>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
@@ -4971,8 +5685,14 @@
       <c r="V37" s="3"/>
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
-    </row>
-    <row r="38" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+      <c r="AA37" s="3"/>
+      <c r="AB37" s="3"/>
+      <c r="AC37" s="3"/>
+      <c r="AD37" s="3"/>
+    </row>
+    <row r="38" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>35</v>
       </c>
@@ -4986,27 +5706,39 @@
         <v>1</v>
       </c>
       <c r="E38" s="3">
+        <v>500</v>
+      </c>
+      <c r="F38" s="3">
+        <v>2</v>
+      </c>
+      <c r="G38" s="3">
+        <v>1</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="I38" s="3">
+        <v>1</v>
+      </c>
+      <c r="J38" s="3">
+        <v>1</v>
+      </c>
+      <c r="K38" s="3">
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="F38" s="3">
-        <v>0</v>
-      </c>
-      <c r="G38" s="3">
+      <c r="L38" s="3">
+        <v>0</v>
+      </c>
+      <c r="M38" s="3">
         <v>20</v>
       </c>
-      <c r="H38" s="3">
-        <v>1</v>
-      </c>
-      <c r="I38" s="3">
+      <c r="N38" s="3">
+        <v>1</v>
+      </c>
+      <c r="O38" s="3">
         <v>0.65</v>
       </c>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
@@ -5016,8 +5748,14 @@
       <c r="V38" s="3"/>
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
-    </row>
-    <row r="39" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
+      <c r="AA38" s="3"/>
+      <c r="AB38" s="3"/>
+      <c r="AC38" s="3"/>
+      <c r="AD38" s="3"/>
+    </row>
+    <row r="39" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>36</v>
       </c>
@@ -5028,30 +5766,42 @@
         <v>6</v>
       </c>
       <c r="D39" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E39" s="3">
+        <v>2</v>
+      </c>
+      <c r="F39" s="3">
+        <v>2</v>
+      </c>
+      <c r="G39" s="3">
+        <v>3</v>
+      </c>
+      <c r="H39" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="I39" s="3">
+        <v>1</v>
+      </c>
+      <c r="J39" s="3">
+        <v>1</v>
+      </c>
+      <c r="K39" s="3">
         <f t="shared" si="1"/>
         <v>210</v>
       </c>
-      <c r="F39" s="3">
-        <v>0</v>
-      </c>
-      <c r="G39" s="3">
+      <c r="L39" s="3">
+        <v>0</v>
+      </c>
+      <c r="M39" s="3">
         <v>30</v>
       </c>
-      <c r="H39" s="3">
-        <v>1</v>
-      </c>
-      <c r="I39" s="3">
+      <c r="N39" s="3">
+        <v>1</v>
+      </c>
+      <c r="O39" s="3">
         <v>1.05</v>
       </c>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
@@ -5061,8 +5811,14 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>37</v>
       </c>
@@ -5073,30 +5829,42 @@
         <v>7</v>
       </c>
       <c r="D40" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E40" s="3">
+        <v>5</v>
+      </c>
+      <c r="F40" s="3">
+        <v>2</v>
+      </c>
+      <c r="G40" s="3">
+        <v>7</v>
+      </c>
+      <c r="H40" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="I40" s="3">
+        <v>1</v>
+      </c>
+      <c r="J40" s="3">
+        <v>1</v>
+      </c>
+      <c r="K40" s="3">
         <f t="shared" si="1"/>
         <v>340</v>
       </c>
-      <c r="F40" s="3">
-        <v>0</v>
-      </c>
-      <c r="G40" s="3">
+      <c r="L40" s="3">
+        <v>0</v>
+      </c>
+      <c r="M40" s="3">
         <v>50</v>
       </c>
-      <c r="H40" s="3">
-        <v>1</v>
-      </c>
-      <c r="I40" s="3">
+      <c r="N40" s="3">
+        <v>1</v>
+      </c>
+      <c r="O40" s="3">
         <v>1.7</v>
       </c>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
@@ -5106,8 +5874,14 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>38</v>
       </c>
@@ -5118,30 +5892,42 @@
         <v>8</v>
       </c>
       <c r="D41" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E41" s="3">
+        <v>10</v>
+      </c>
+      <c r="F41" s="3">
+        <v>2</v>
+      </c>
+      <c r="G41" s="3">
+        <v>15</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="I41" s="3">
+        <v>1</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1</v>
+      </c>
+      <c r="K41" s="3">
         <f t="shared" si="1"/>
         <v>550</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>80</v>
       </c>
-      <c r="H41" s="3">
-        <v>1</v>
-      </c>
-      <c r="I41" s="3">
+      <c r="N41" s="3">
+        <v>1</v>
+      </c>
+      <c r="O41" s="3">
         <v>2.75</v>
       </c>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="3"/>
@@ -5151,8 +5937,14 @@
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
       <c r="X41" s="3"/>
-    </row>
-    <row r="42" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3"/>
+      <c r="AA41" s="3"/>
+      <c r="AB41" s="3"/>
+      <c r="AC41" s="3"/>
+      <c r="AD41" s="3"/>
+    </row>
+    <row r="42" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>39</v>
       </c>
@@ -5163,30 +5955,42 @@
         <v>9</v>
       </c>
       <c r="D42" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42" s="3">
+        <v>20</v>
+      </c>
+      <c r="F42" s="3">
+        <v>2</v>
+      </c>
+      <c r="G42" s="3">
+        <v>30</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="I42" s="3">
+        <v>1</v>
+      </c>
+      <c r="J42" s="3">
+        <v>1</v>
+      </c>
+      <c r="K42" s="3">
         <f t="shared" si="1"/>
         <v>890</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>130</v>
       </c>
-      <c r="H42" s="3">
-        <v>1</v>
-      </c>
-      <c r="I42" s="3">
+      <c r="N42" s="3">
+        <v>1</v>
+      </c>
+      <c r="O42" s="3">
         <v>4.45</v>
       </c>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
@@ -5196,8 +6000,14 @@
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
-    </row>
-    <row r="43" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3"/>
+      <c r="AA42" s="3"/>
+      <c r="AB42" s="3"/>
+      <c r="AC42" s="3"/>
+      <c r="AD42" s="3"/>
+    </row>
+    <row r="43" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>40</v>
       </c>
@@ -5208,30 +6018,42 @@
         <v>10</v>
       </c>
       <c r="D43" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E43" s="3">
+        <v>50</v>
+      </c>
+      <c r="F43" s="3">
+        <v>2</v>
+      </c>
+      <c r="G43" s="3">
+        <v>60</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="I43" s="3">
+        <v>1</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1</v>
+      </c>
+      <c r="K43" s="3">
         <f t="shared" si="1"/>
         <v>1440</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
         <v>210</v>
       </c>
-      <c r="H43" s="3">
-        <v>1</v>
-      </c>
-      <c r="I43" s="3">
+      <c r="N43" s="3">
+        <v>1</v>
+      </c>
+      <c r="O43" s="3">
         <v>7.2</v>
       </c>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
@@ -5241,8 +6063,14 @@
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
       <c r="X43" s="3"/>
-    </row>
-    <row r="44" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3"/>
+      <c r="AA43" s="3"/>
+      <c r="AB43" s="3"/>
+      <c r="AC43" s="3"/>
+      <c r="AD43" s="3"/>
+    </row>
+    <row r="44" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>41</v>
       </c>
@@ -5256,27 +6084,39 @@
         <v>2</v>
       </c>
       <c r="E44" s="3">
+        <v>100</v>
+      </c>
+      <c r="F44" s="3">
+        <v>2</v>
+      </c>
+      <c r="G44" s="3">
+        <v>150</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="I44" s="3">
+        <v>1</v>
+      </c>
+      <c r="J44" s="3">
+        <v>2</v>
+      </c>
+      <c r="K44" s="3">
         <f t="shared" si="1"/>
         <v>2330</v>
       </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
         <v>340</v>
       </c>
-      <c r="H44" s="3">
-        <v>1</v>
-      </c>
-      <c r="I44" s="3">
+      <c r="N44" s="3">
+        <v>1</v>
+      </c>
+      <c r="O44" s="3">
         <v>11.65</v>
       </c>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="3"/>
@@ -5286,8 +6126,14 @@
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
-    </row>
-    <row r="45" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="3"/>
+      <c r="AA44" s="3"/>
+      <c r="AB44" s="3"/>
+      <c r="AC44" s="3"/>
+      <c r="AD44" s="3"/>
+    </row>
+    <row r="45" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>42</v>
       </c>
@@ -5301,27 +6147,39 @@
         <v>2</v>
       </c>
       <c r="E45" s="3">
+        <v>200</v>
+      </c>
+      <c r="F45" s="3">
+        <v>2</v>
+      </c>
+      <c r="G45" s="3">
+        <v>300</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="I45" s="3">
+        <v>1</v>
+      </c>
+      <c r="J45" s="3">
+        <v>2</v>
+      </c>
+      <c r="K45" s="3">
         <f t="shared" si="1"/>
         <v>3770</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>550</v>
       </c>
-      <c r="H45" s="3">
-        <v>1</v>
-      </c>
-      <c r="I45" s="3">
+      <c r="N45" s="3">
+        <v>1</v>
+      </c>
+      <c r="O45" s="3">
         <v>18.850000000000001</v>
       </c>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
@@ -5331,8 +6189,14 @@
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
       <c r="X45" s="3"/>
-    </row>
-    <row r="46" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="3"/>
+      <c r="AA45" s="3"/>
+      <c r="AB45" s="3"/>
+      <c r="AC45" s="3"/>
+      <c r="AD45" s="3"/>
+    </row>
+    <row r="46" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>43</v>
       </c>
@@ -5346,27 +6210,39 @@
         <v>2</v>
       </c>
       <c r="E46" s="3">
+        <v>500</v>
+      </c>
+      <c r="F46" s="3">
+        <v>2</v>
+      </c>
+      <c r="G46" s="3">
+        <v>600</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="I46" s="3">
+        <v>1</v>
+      </c>
+      <c r="J46" s="3">
+        <v>2</v>
+      </c>
+      <c r="K46" s="3">
         <f t="shared" si="1"/>
         <v>6100</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
-      <c r="G46" s="3">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
         <v>890</v>
       </c>
-      <c r="H46" s="3">
-        <v>1</v>
-      </c>
-      <c r="I46" s="3">
+      <c r="N46" s="3">
+        <v>1</v>
+      </c>
+      <c r="O46" s="3">
         <v>30.5</v>
       </c>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
@@ -5376,8 +6252,14 @@
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
-    </row>
-    <row r="47" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="3"/>
+      <c r="AA46" s="3"/>
+      <c r="AB46" s="3"/>
+      <c r="AC46" s="3"/>
+      <c r="AD46" s="3"/>
+    </row>
+    <row r="47" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>44</v>
       </c>
@@ -5388,30 +6270,42 @@
         <v>14</v>
       </c>
       <c r="D47" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E47" s="3">
+        <v>1</v>
+      </c>
+      <c r="F47" s="3">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3">
+        <v>2</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="I47" s="3">
+        <v>1</v>
+      </c>
+      <c r="J47" s="3">
+        <v>2</v>
+      </c>
+      <c r="K47" s="3">
         <f t="shared" si="1"/>
         <v>9870</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
         <v>1440</v>
       </c>
-      <c r="H47" s="3">
-        <v>1</v>
-      </c>
-      <c r="I47" s="3">
+      <c r="N47" s="3">
+        <v>1</v>
+      </c>
+      <c r="O47" s="3">
         <v>49.35</v>
       </c>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
       <c r="R47" s="3"/>
@@ -5421,8 +6315,14 @@
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
-    </row>
-    <row r="48" spans="1:24" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="3"/>
+      <c r="AA47" s="3"/>
+      <c r="AB47" s="3"/>
+      <c r="AC47" s="3"/>
+      <c r="AD47" s="3"/>
+    </row>
+    <row r="48" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>45</v>
       </c>
@@ -5433,30 +6333,42 @@
         <v>15</v>
       </c>
       <c r="D48" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E48" s="3">
+        <v>2</v>
+      </c>
+      <c r="F48" s="3">
+        <v>3</v>
+      </c>
+      <c r="G48" s="3">
+        <v>5</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="I48" s="3">
+        <v>1</v>
+      </c>
+      <c r="J48" s="3">
+        <v>2</v>
+      </c>
+      <c r="K48" s="3">
         <f t="shared" si="1"/>
         <v>15970</v>
       </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
         <v>2330</v>
       </c>
-      <c r="H48" s="3">
-        <v>1</v>
-      </c>
-      <c r="I48" s="3">
+      <c r="N48" s="3">
+        <v>1</v>
+      </c>
+      <c r="O48" s="3">
         <v>79.849999999999994</v>
       </c>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
@@ -5466,6 +6378,12 @@
       <c r="V48" s="3"/>
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="3"/>
+      <c r="AA48" s="3"/>
+      <c r="AB48" s="3"/>
+      <c r="AC48" s="3"/>
+      <c r="AD48" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Excel/monster.怪物.xlsx
+++ b/Excel/monster.怪物.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C943F0-C552-427C-8F3D-A1CFD28AD19C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9EA2FE-2997-48C5-B693-100D6E04AA21}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -2167,7 +2167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2831914-6C97-4A3E-B7CA-07564CCE33F3}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -2320,8 +2320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C4C9D73-B832-4A9D-87A8-827BB53C2F30}">
   <dimension ref="A1:AA11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2629,7 +2629,7 @@
         <v>142</v>
       </c>
       <c r="I4" s="3">
-        <v>100002</v>
+        <v>100003</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -2904,13 +2904,13 @@
         <v>143</v>
       </c>
       <c r="I9" s="3">
-        <v>100003</v>
+        <v>100002</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>144</v>
       </c>
       <c r="K9" s="3">
-        <v>100003</v>
+        <v>100002</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -3050,13 +3050,13 @@
         <v>188</v>
       </c>
       <c r="U11" s="3">
-        <v>100003</v>
+        <v>100002</v>
       </c>
       <c r="V11" s="4" t="s">
         <v>189</v>
       </c>
       <c r="W11" s="3">
-        <v>100003</v>
+        <v>100002</v>
       </c>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>

--- a/Excel/monster.怪物.xlsx
+++ b/Excel/monster.怪物.xlsx
@@ -3,16 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9EA2FE-2997-48C5-B693-100D6E04AA21}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3166C4-9247-417D-A719-F6CAF1BB7E21}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
-    <sheet name="怪物" sheetId="26" r:id="rId2"/>
-    <sheet name="波次" sheetId="27" r:id="rId3"/>
-    <sheet name="波次规划" sheetId="32" state="hidden" r:id="rId4"/>
-    <sheet name="怪物属性" sheetId="28" r:id="rId5"/>
+    <sheet name="调数值波次" sheetId="27" r:id="rId2"/>
+    <sheet name="波次" sheetId="33" r:id="rId3"/>
+    <sheet name="怪物" sheetId="26" r:id="rId4"/>
+    <sheet name="波次规划" sheetId="32" state="hidden" r:id="rId5"/>
+    <sheet name="怪物属性" sheetId="28" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -166,8 +167,151 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{5862E57E-B590-40AA-B377-8D630085B736}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1. 普通怪
+2. 巡航怪
+3. 自杀队
+4. BOSS</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{D0C636D9-ACA2-4525-BA66-C2D2CAD3C7EC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+path动画暂定的时间点</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{47D09F06-24D7-4B10-B9F3-08B319E85F02}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+暂停的时间</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{283A1158-9DEF-4DA7-884B-BFD08A192286}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+拼的path下的节点名</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{338B2CAF-64AD-461C-B0A9-49D3338F4100}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+怪物表的ID</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="216">
   <si>
     <t>sheet名</t>
   </si>
@@ -667,10 +811,6 @@
   </si>
   <si>
     <t>怪物</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>波次</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1101,22 +1241,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>OSS</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>精英怪</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1189,38 +1313,6 @@
         <charset val="134"/>
       </rPr>
       <t>2</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>plane</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>plane</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1459,6 +1551,50 @@
   </si>
   <si>
     <t>float:&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>精英怪</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>组合精英</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Clip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>散花怪</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>调数值波次</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1989,8 +2125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2032,17 +2168,17 @@
         <v>125</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>132</v>
-      </c>
       <c r="F2" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G2" s="3" t="b">
         <v>1</v>
@@ -2054,7 +2190,7 @@
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>123</v>
@@ -2063,7 +2199,7 @@
         <v>123</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G3" s="3" t="b">
         <v>1</v>
@@ -2071,20 +2207,20 @@
     </row>
     <row r="4" spans="1:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>126</v>
+        <v>215</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G4" s="3" t="b">
         <v>1</v>
@@ -2092,20 +2228,20 @@
     </row>
     <row r="5" spans="1:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>126</v>
+        <v>215</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>123</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G5" s="3" t="b">
         <v>1</v>
@@ -2113,20 +2249,20 @@
     </row>
     <row r="6" spans="1:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G6" s="3" t="b">
         <v>1</v>
@@ -2134,11 +2270,11 @@
     </row>
     <row r="7" spans="1:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>124</v>
@@ -2147,7 +2283,7 @@
         <v>124</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G7" s="3" t="b">
         <v>1</v>
@@ -2164,164 +2300,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2831914-6C97-4A3E-B7CA-07564CCE33F3}">
-  <dimension ref="A1:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C4C9D73-B832-4A9D-87A8-827BB53C2F30}">
+  <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="5" width="10.625" customWidth="1"/>
-    <col min="6" max="6" width="10.875" customWidth="1"/>
-    <col min="7" max="7" width="11.5" customWidth="1"/>
-    <col min="8" max="8" width="15.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C4" s="3">
-        <v>100001</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C5" s="3">
-        <v>100002</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C6" s="3">
-        <v>100003</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C4C9D73-B832-4A9D-87A8-827BB53C2F30}">
-  <dimension ref="A1:AA11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W11" sqref="W11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2362,7 +2345,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>70</v>
@@ -2463,61 +2446,61 @@
         <v>121</v>
       </c>
       <c r="I2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J2" t="s">
         <v>121</v>
       </c>
       <c r="K2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L2" t="s">
         <v>121</v>
       </c>
       <c r="M2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N2" t="s">
         <v>121</v>
       </c>
       <c r="O2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P2" t="s">
         <v>121</v>
       </c>
       <c r="Q2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R2" t="s">
         <v>121</v>
       </c>
       <c r="S2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="T2" t="s">
         <v>121</v>
       </c>
       <c r="U2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="V2" t="s">
         <v>121</v>
       </c>
       <c r="W2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X2" t="s">
         <v>121</v>
       </c>
       <c r="Y2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z2" t="s">
         <v>121</v>
       </c>
       <c r="AA2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="15" x14ac:dyDescent="0.2">
@@ -2528,7 +2511,7 @@
         <v>103</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>72</v>
@@ -2610,11 +2593,11 @@
       <c r="B4" s="3">
         <v>1001</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>190</v>
+      <c r="C4" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -2626,10 +2609,10 @@
         <v>60</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I4" s="3">
-        <v>100003</v>
+        <v>100001</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -2657,11 +2640,11 @@
       <c r="B5" s="3">
         <v>1002</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>191</v>
+      <c r="C5" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
@@ -2670,20 +2653,16 @@
         <v>1</v>
       </c>
       <c r="G5" s="3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I5" s="3">
-        <v>100001</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="K5" s="3">
-        <v>100001</v>
-      </c>
+        <v>100002</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -2709,10 +2688,10 @@
         <v>1003</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>169</v>
+        <v>212</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
@@ -2721,26 +2700,22 @@
         <v>1</v>
       </c>
       <c r="G6" s="3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I6" s="3">
-        <v>100001</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>144</v>
+        <v>100002</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>181</v>
       </c>
       <c r="K6" s="3">
-        <v>100001</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="M6" s="3">
-        <v>100001</v>
-      </c>
+        <v>100002</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
@@ -2764,7 +2739,7 @@
         <v>1004</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>170</v>
+        <v>214</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>193</v>
@@ -2773,31 +2748,601 @@
         <v>1</v>
       </c>
       <c r="F7" s="3">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="G7" s="3">
         <v>30</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I7" s="3">
         <v>100001</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>144</v>
+      <c r="J7" s="4" t="s">
+        <v>181</v>
       </c>
       <c r="K7" s="3">
         <v>100001</v>
       </c>
-      <c r="L7" s="3" t="s">
-        <v>145</v>
+      <c r="L7" s="4" t="s">
+        <v>170</v>
       </c>
       <c r="M7" s="3">
         <v>100001</v>
       </c>
+      <c r="N7" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="O7" s="3">
+        <v>100001</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>100001</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="S7" s="3">
+        <v>100001</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="U7" s="3">
+        <v>100002</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="W7" s="3">
+        <v>100002</v>
+      </c>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+    </row>
+    <row r="8" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1005</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>60</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="I8" s="3">
+        <v>100003</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3533D82-F7C1-4426-8069-7FF1D31AC5C8}">
+  <dimension ref="A1:AA11"/>
+  <sheetViews>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:W11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9.25" customWidth="1"/>
+    <col min="3" max="3" width="31.25" customWidth="1"/>
+    <col min="4" max="4" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="9.125" customWidth="1"/>
+    <col min="6" max="6" width="12.75" customWidth="1"/>
+    <col min="7" max="7" width="12.375" customWidth="1"/>
+    <col min="8" max="8" width="14.125" customWidth="1"/>
+    <col min="9" max="9" width="16.875" customWidth="1"/>
+    <col min="10" max="10" width="15.625" customWidth="1"/>
+    <col min="11" max="11" width="16.875" customWidth="1"/>
+    <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="13" max="13" width="17.875" customWidth="1"/>
+    <col min="14" max="14" width="16" customWidth="1"/>
+    <col min="15" max="15" width="17.875" customWidth="1"/>
+    <col min="16" max="16" width="16" customWidth="1"/>
+    <col min="17" max="17" width="17.875" customWidth="1"/>
+    <col min="18" max="18" width="16" customWidth="1"/>
+    <col min="19" max="19" width="17.875" customWidth="1"/>
+    <col min="20" max="20" width="16" customWidth="1"/>
+    <col min="21" max="21" width="17.875" customWidth="1"/>
+    <col min="22" max="22" width="16.75" customWidth="1"/>
+    <col min="23" max="23" width="17.375" customWidth="1"/>
+    <col min="24" max="24" width="17.5" customWidth="1"/>
+    <col min="25" max="25" width="17.375" customWidth="1"/>
+    <col min="26" max="26" width="18.375" customWidth="1"/>
+    <col min="27" max="27" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J2" t="s">
+        <v>121</v>
+      </c>
+      <c r="K2" t="s">
+        <v>140</v>
+      </c>
+      <c r="L2" t="s">
+        <v>121</v>
+      </c>
+      <c r="M2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N2" t="s">
+        <v>121</v>
+      </c>
+      <c r="O2" t="s">
+        <v>140</v>
+      </c>
+      <c r="P2" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>140</v>
+      </c>
+      <c r="R2" t="s">
+        <v>121</v>
+      </c>
+      <c r="S2" t="s">
+        <v>140</v>
+      </c>
+      <c r="T2" t="s">
+        <v>121</v>
+      </c>
+      <c r="U2" t="s">
+        <v>140</v>
+      </c>
+      <c r="V2" t="s">
+        <v>121</v>
+      </c>
+      <c r="W2" t="s">
+        <v>140</v>
+      </c>
+      <c r="X2" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1001</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>60</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="I4" s="3">
+        <v>100003</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+    </row>
+    <row r="5" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1002</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>30</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="I5" s="3">
+        <v>100001</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="K5" s="3">
+        <v>100001</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+    </row>
+    <row r="6" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1003</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>30</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="I6" s="3">
+        <v>100001</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="K6" s="3">
+        <v>100001</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="M6" s="3">
+        <v>100001</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+    </row>
+    <row r="7" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1004</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>30</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="I7" s="3">
+        <v>100001</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="K7" s="3">
+        <v>100001</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="M7" s="3">
+        <v>100001</v>
+      </c>
       <c r="N7" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O7" s="3">
         <v>100001</v>
@@ -2823,10 +3368,10 @@
         <v>1005</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
@@ -2838,31 +3383,31 @@
         <v>30</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I8" s="3">
         <v>100001</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K8" s="3">
         <v>100001</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M8" s="3">
         <v>100001</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O8" s="3">
         <v>100001</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q8" s="3">
         <v>100001</v>
@@ -2886,10 +3431,10 @@
         <v>1006</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
@@ -2901,13 +3446,13 @@
         <v>30</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I9" s="3">
         <v>100002</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K9" s="3">
         <v>100002</v>
@@ -2937,10 +3482,10 @@
         <v>1007</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
@@ -2952,25 +3497,25 @@
         <v>30</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I10" s="3">
         <v>100001</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K10" s="3">
         <v>100001</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M10" s="3">
         <v>100001</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O10" s="3">
         <v>100001</v>
@@ -2996,10 +3541,10 @@
         <v>1008</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
@@ -3011,49 +3556,49 @@
         <v>30</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I11" s="3">
         <v>100001</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K11" s="3">
         <v>100001</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="M11" s="3">
         <v>100001</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="O11" s="3">
         <v>100001</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="Q11" s="3">
         <v>100001</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="S11" s="3">
         <v>100001</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="U11" s="3">
         <v>100002</v>
       </c>
       <c r="V11" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="W11" s="3">
         <v>100002</v>
@@ -3072,6 +3617,169 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2831914-6C97-4A3E-B7CA-07564CCE33F3}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="5" width="10.625" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
+    <col min="8" max="8" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="3">
+        <v>100001</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="3">
+        <v>10001</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="3">
+        <v>100002</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="3">
+        <v>10002</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" s="3">
+        <v>100003</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E6" s="3">
+        <v>20001</v>
+      </c>
+      <c r="F6" s="3">
+        <v>20002</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7056BE70-FAE8-44E4-8778-2DE2116AB99A}">
   <dimension ref="A1:L18"/>
   <sheetViews>
@@ -3096,7 +3804,7 @@
         <v>70</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -3124,7 +3832,7 @@
         <v>72</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -3135,10 +3843,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -3147,10 +3855,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -3159,10 +3867,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -3171,10 +3879,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -3183,10 +3891,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -3195,10 +3903,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -3207,10 +3915,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -3219,10 +3927,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -3277,12 +3985,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF36D8AE-75A8-46BF-880B-B77EF97ECDB9}">
   <dimension ref="A1:AD48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3305,22 +4013,22 @@
         <v>26</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>40</v>
@@ -3400,46 +4108,46 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K2" t="s">
         <v>122</v>
       </c>
       <c r="L2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M2" t="s">
         <v>122</v>
       </c>
       <c r="N2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O2" t="s">
         <v>122</v>
       </c>
       <c r="P2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q2" t="s">
         <v>122</v>
       </c>
       <c r="R2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="S2" t="s">
         <v>122</v>
@@ -3489,22 +4197,22 @@
         <v>49</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>50</v>
@@ -5469,11 +6177,10 @@
         <v>1</v>
       </c>
       <c r="J34" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" s="3">
-        <f>K4*10</f>
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L34" s="3">
         <v>0</v>
@@ -5532,11 +6239,10 @@
         <v>1</v>
       </c>
       <c r="J35" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" s="3">
-        <f t="shared" ref="K35:K48" si="1">K5*10</f>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L35" s="3">
         <v>0</v>
@@ -5595,11 +6301,10 @@
         <v>1</v>
       </c>
       <c r="J36" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" s="3">
-        <f t="shared" si="1"/>
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="L36" s="3">
         <v>0</v>
@@ -5658,11 +6363,10 @@
         <v>1</v>
       </c>
       <c r="J37" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" s="3">
-        <f t="shared" si="1"/>
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="L37" s="3">
         <v>0</v>
@@ -5721,11 +6425,10 @@
         <v>1</v>
       </c>
       <c r="J38" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" s="3">
-        <f t="shared" si="1"/>
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="L38" s="3">
         <v>0</v>
@@ -5784,11 +6487,10 @@
         <v>1</v>
       </c>
       <c r="J39" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="3">
-        <f t="shared" si="1"/>
-        <v>210</v>
+        <v>30</v>
       </c>
       <c r="L39" s="3">
         <v>0</v>
@@ -5847,11 +6549,10 @@
         <v>1</v>
       </c>
       <c r="J40" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" s="3">
-        <f t="shared" si="1"/>
-        <v>340</v>
+        <v>35</v>
       </c>
       <c r="L40" s="3">
         <v>0</v>
@@ -5910,11 +6611,10 @@
         <v>1</v>
       </c>
       <c r="J41" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
-        <f t="shared" si="1"/>
-        <v>550</v>
+        <v>40</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
@@ -5973,11 +6673,10 @@
         <v>1</v>
       </c>
       <c r="J42" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" s="3">
-        <f t="shared" si="1"/>
-        <v>890</v>
+        <v>45</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -6036,11 +6735,10 @@
         <v>1</v>
       </c>
       <c r="J43" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3">
-        <f t="shared" si="1"/>
-        <v>1440</v>
+        <v>50</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -6099,11 +6797,10 @@
         <v>1</v>
       </c>
       <c r="J44" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K44" s="3">
-        <f t="shared" si="1"/>
-        <v>2330</v>
+        <v>55</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -6162,11 +6859,10 @@
         <v>1</v>
       </c>
       <c r="J45" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
-        <f t="shared" si="1"/>
-        <v>3770</v>
+        <v>60</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -6225,11 +6921,10 @@
         <v>1</v>
       </c>
       <c r="J46" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K46" s="3">
-        <f t="shared" si="1"/>
-        <v>6100</v>
+        <v>65</v>
       </c>
       <c r="L46" s="3">
         <v>0</v>
@@ -6288,11 +6983,10 @@
         <v>1</v>
       </c>
       <c r="J47" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K47" s="3">
-        <f t="shared" si="1"/>
-        <v>9870</v>
+        <v>70</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -6351,11 +7045,10 @@
         <v>1</v>
       </c>
       <c r="J48" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K48" s="3">
-        <f t="shared" si="1"/>
-        <v>15970</v>
+        <v>75</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>

--- a/Excel/monster.怪物.xlsx
+++ b/Excel/monster.怪物.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3166C4-9247-417D-A719-F6CAF1BB7E21}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9ABC06-EC58-438D-8CF7-004E6CFFC50F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -2125,7 +2125,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -3620,8 +3620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2831914-6C97-4A3E-B7CA-07564CCE33F3}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3720,7 +3720,7 @@
       <c r="C4" s="3">
         <v>100001</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>116</v>
       </c>
       <c r="E4" s="3">
@@ -3764,10 +3764,10 @@
         <v>176</v>
       </c>
       <c r="E6" s="3">
+        <v>20002</v>
+      </c>
+      <c r="F6" s="3">
         <v>20001</v>
-      </c>
-      <c r="F6" s="3">
-        <v>20002</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>

--- a/Excel/monster.怪物.xlsx
+++ b/Excel/monster.怪物.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9ABC06-EC58-438D-8CF7-004E6CFFC50F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9193E9-55BD-4541-BC7A-5B6ADA71E8FA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -3620,7 +3620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2831914-6C97-4A3E-B7CA-07564CCE33F3}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -3989,8 +3989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF36D8AE-75A8-46BF-880B-B77EF97ECDB9}">
   <dimension ref="A1:AD48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4310,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="3">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="L4" s="3">
         <v>0</v>
@@ -4322,7 +4322,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="3">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="L5" s="3">
         <v>0</v>
@@ -4384,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="3">
-        <v>150</v>
+        <v>2</v>
       </c>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
@@ -4434,7 +4434,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="3">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="L6" s="3">
         <v>0</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="3">
-        <v>250</v>
+        <v>3</v>
       </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
@@ -4496,7 +4496,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="3">
-        <v>8</v>
+        <v>800</v>
       </c>
       <c r="L7" s="3">
         <v>0</v>
@@ -4508,7 +4508,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="3">
-        <v>400</v>
+        <v>5</v>
       </c>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
@@ -4555,10 +4555,10 @@
         <v>1</v>
       </c>
       <c r="J8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="3">
-        <v>13</v>
+        <v>1.3</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -4567,10 +4567,10 @@
         <v>10</v>
       </c>
       <c r="N8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="3">
-        <v>0.65</v>
+        <v>10</v>
       </c>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
@@ -4617,10 +4617,10 @@
         <v>1</v>
       </c>
       <c r="J9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="3">
-        <v>21</v>
+        <v>2.1</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
@@ -4630,10 +4630,11 @@
         <v>15</v>
       </c>
       <c r="N9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" s="3">
-        <v>1.05</v>
+        <f>O7+O8</f>
+        <v>15</v>
       </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
@@ -4680,23 +4681,24 @@
         <v>1</v>
       </c>
       <c r="J10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="3">
-        <v>34</v>
+        <v>3.4</v>
       </c>
       <c r="L10" s="3">
         <v>0</v>
       </c>
       <c r="M10" s="3">
-        <f t="shared" ref="M10:M18" si="0">M8+M9</f>
+        <f t="shared" ref="M10:O18" si="0">M8+M9</f>
         <v>25</v>
       </c>
       <c r="N10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="3">
-        <v>1.7</v>
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
@@ -4743,10 +4745,10 @@
         <v>1</v>
       </c>
       <c r="J11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="3">
-        <v>55</v>
+        <v>5.5</v>
       </c>
       <c r="L11" s="3">
         <v>0</v>
@@ -4756,10 +4758,11 @@
         <v>40</v>
       </c>
       <c r="N11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="3">
-        <v>2.75</v>
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
@@ -4806,10 +4809,10 @@
         <v>1</v>
       </c>
       <c r="J12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="3">
-        <v>89</v>
+        <v>8.9</v>
       </c>
       <c r="L12" s="3">
         <v>0</v>
@@ -4819,10 +4822,11 @@
         <v>65</v>
       </c>
       <c r="N12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="3">
-        <v>4.45</v>
+        <f t="shared" si="0"/>
+        <v>65</v>
       </c>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
@@ -4869,10 +4873,10 @@
         <v>1</v>
       </c>
       <c r="J13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="3">
-        <v>144</v>
+        <v>14.4</v>
       </c>
       <c r="L13" s="3">
         <v>0</v>
@@ -4882,10 +4886,11 @@
         <v>105</v>
       </c>
       <c r="N13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="3">
-        <v>7.2</v>
+        <f t="shared" si="0"/>
+        <v>105</v>
       </c>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
@@ -4932,10 +4937,10 @@
         <v>1</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="3">
-        <v>233</v>
+        <v>23.3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -4945,10 +4950,11 @@
         <v>170</v>
       </c>
       <c r="N14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" s="3">
-        <v>11.65</v>
+        <f t="shared" si="0"/>
+        <v>170</v>
       </c>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
@@ -4995,10 +5001,10 @@
         <v>1</v>
       </c>
       <c r="J15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="3">
-        <v>377</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -5008,10 +5014,11 @@
         <v>275</v>
       </c>
       <c r="N15" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="3">
-        <v>18.850000000000001</v>
+        <f t="shared" si="0"/>
+        <v>275</v>
       </c>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
@@ -5058,10 +5065,10 @@
         <v>1</v>
       </c>
       <c r="J16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="3">
-        <v>610</v>
+        <v>61</v>
       </c>
       <c r="L16" s="3">
         <v>0</v>
@@ -5071,10 +5078,11 @@
         <v>445</v>
       </c>
       <c r="N16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="3">
-        <v>30.5</v>
+        <f t="shared" si="0"/>
+        <v>445</v>
       </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
@@ -5121,10 +5129,10 @@
         <v>1</v>
       </c>
       <c r="J17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="3">
-        <v>987</v>
+        <v>98.7</v>
       </c>
       <c r="L17" s="3">
         <v>0</v>
@@ -5134,10 +5142,11 @@
         <v>720</v>
       </c>
       <c r="N17" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" s="3">
-        <v>49.35</v>
+        <f t="shared" si="0"/>
+        <v>720</v>
       </c>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
@@ -5184,10 +5193,10 @@
         <v>1</v>
       </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="3">
-        <v>1597</v>
+        <v>159.69999999999999</v>
       </c>
       <c r="L18" s="3">
         <v>0</v>
@@ -5197,10 +5206,11 @@
         <v>1165</v>
       </c>
       <c r="N18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" s="3">
-        <v>79.849999999999994</v>
+        <f t="shared" si="0"/>
+        <v>1165</v>
       </c>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
@@ -5247,10 +5257,10 @@
         <v>1</v>
       </c>
       <c r="J19" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="3">
-        <v>4</v>
+        <v>400</v>
       </c>
       <c r="L19" s="3">
         <v>0</v>
@@ -5262,7 +5272,7 @@
         <v>0</v>
       </c>
       <c r="O19" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
@@ -5309,10 +5319,10 @@
         <v>1</v>
       </c>
       <c r="J20" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>6</v>
+        <v>600</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
@@ -5324,7 +5334,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
-        <v>150</v>
+        <v>2</v>
       </c>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
@@ -5374,7 +5384,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L21" s="3">
         <v>0</v>
@@ -5386,7 +5396,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="3">
-        <v>250</v>
+        <v>3</v>
       </c>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
@@ -5436,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="K22" s="3">
-        <v>16</v>
+        <v>1.6</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -5448,7 +5458,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="3">
-        <v>400</v>
+        <v>5</v>
       </c>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
@@ -5498,7 +5508,7 @@
         <v>1</v>
       </c>
       <c r="K23" s="3">
-        <v>26</v>
+        <v>2.6</v>
       </c>
       <c r="L23" s="3">
         <v>0</v>
@@ -5507,10 +5517,10 @@
         <v>20</v>
       </c>
       <c r="N23" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" s="3">
-        <v>0.65</v>
+        <v>10</v>
       </c>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
@@ -5560,7 +5570,7 @@
         <v>1</v>
       </c>
       <c r="K24" s="3">
-        <v>42</v>
+        <v>4.2</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -5569,10 +5579,11 @@
         <v>30</v>
       </c>
       <c r="N24" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" s="3">
-        <v>1.05</v>
+        <f>O22+O23</f>
+        <v>15</v>
       </c>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
@@ -5622,7 +5633,7 @@
         <v>1</v>
       </c>
       <c r="K25" s="3">
-        <v>68</v>
+        <v>6.8</v>
       </c>
       <c r="L25" s="3">
         <v>0</v>
@@ -5631,10 +5642,11 @@
         <v>50</v>
       </c>
       <c r="N25" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" s="3">
-        <v>1.7</v>
+        <f t="shared" ref="O25" si="1">O23+O24</f>
+        <v>25</v>
       </c>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
@@ -5684,7 +5696,7 @@
         <v>1</v>
       </c>
       <c r="K26" s="3">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="L26" s="3">
         <v>0</v>
@@ -5693,10 +5705,11 @@
         <v>80</v>
       </c>
       <c r="N26" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" s="3">
-        <v>2.75</v>
+        <f t="shared" ref="O26" si="2">O24+O25</f>
+        <v>40</v>
       </c>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
@@ -5746,7 +5759,7 @@
         <v>1</v>
       </c>
       <c r="K27" s="3">
-        <v>178</v>
+        <v>17.8</v>
       </c>
       <c r="L27" s="3">
         <v>0</v>
@@ -5755,10 +5768,11 @@
         <v>130</v>
       </c>
       <c r="N27" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" s="3">
-        <v>4.45</v>
+        <f t="shared" ref="O27" si="3">O25+O26</f>
+        <v>65</v>
       </c>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
@@ -5808,7 +5822,7 @@
         <v>1</v>
       </c>
       <c r="K28" s="3">
-        <v>288</v>
+        <v>28.8</v>
       </c>
       <c r="L28" s="3">
         <v>0</v>
@@ -5817,10 +5831,11 @@
         <v>210</v>
       </c>
       <c r="N28" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" s="3">
-        <v>7.2</v>
+        <f t="shared" ref="O28" si="4">O26+O27</f>
+        <v>105</v>
       </c>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
@@ -5867,10 +5882,10 @@
         <v>1</v>
       </c>
       <c r="J29" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K29" s="3">
-        <v>466</v>
+        <v>46.6</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -5879,10 +5894,11 @@
         <v>340</v>
       </c>
       <c r="N29" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29" s="3">
-        <v>11.65</v>
+        <f t="shared" ref="O29" si="5">O27+O28</f>
+        <v>170</v>
       </c>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
@@ -5929,10 +5945,10 @@
         <v>1</v>
       </c>
       <c r="J30" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K30" s="3">
-        <v>754</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="L30" s="3">
         <v>0</v>
@@ -5941,10 +5957,11 @@
         <v>550</v>
       </c>
       <c r="N30" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30" s="3">
-        <v>18.850000000000001</v>
+        <f t="shared" ref="O30" si="6">O28+O29</f>
+        <v>275</v>
       </c>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
@@ -5991,10 +6008,10 @@
         <v>1</v>
       </c>
       <c r="J31" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K31" s="3">
-        <v>1220</v>
+        <v>122</v>
       </c>
       <c r="L31" s="3">
         <v>0</v>
@@ -6003,10 +6020,11 @@
         <v>890</v>
       </c>
       <c r="N31" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31" s="3">
-        <v>30.5</v>
+        <f t="shared" ref="O31" si="7">O29+O30</f>
+        <v>445</v>
       </c>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
@@ -6053,10 +6071,10 @@
         <v>1</v>
       </c>
       <c r="J32" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K32" s="3">
-        <v>1974</v>
+        <v>197.4</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
@@ -6065,10 +6083,11 @@
         <v>1440</v>
       </c>
       <c r="N32" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
-        <v>49.35</v>
+        <f t="shared" ref="O32" si="8">O30+O31</f>
+        <v>720</v>
       </c>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
@@ -6115,10 +6134,10 @@
         <v>1</v>
       </c>
       <c r="J33" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K33" s="3">
-        <v>3194</v>
+        <v>319.39999999999998</v>
       </c>
       <c r="L33" s="3">
         <v>0</v>
@@ -6127,10 +6146,11 @@
         <v>2330</v>
       </c>
       <c r="N33" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33" s="3">
-        <v>79.849999999999994</v>
+        <f t="shared" ref="O33" si="9">O31+O32</f>
+        <v>1165</v>
       </c>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
@@ -6180,7 +6200,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="3">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="L34" s="3">
         <v>0</v>
@@ -6192,7 +6212,7 @@
         <v>0</v>
       </c>
       <c r="O34" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
@@ -6239,10 +6259,10 @@
         <v>1</v>
       </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L35" s="3">
         <v>0</v>
@@ -6254,7 +6274,7 @@
         <v>0</v>
       </c>
       <c r="O35" s="3">
-        <v>150</v>
+        <v>2</v>
       </c>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
@@ -6301,10 +6321,10 @@
         <v>1</v>
       </c>
       <c r="J36" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" s="3">
-        <v>15</v>
+        <v>1.5</v>
       </c>
       <c r="L36" s="3">
         <v>0</v>
@@ -6316,7 +6336,7 @@
         <v>0</v>
       </c>
       <c r="O36" s="3">
-        <v>250</v>
+        <v>3</v>
       </c>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
@@ -6363,10 +6383,10 @@
         <v>1</v>
       </c>
       <c r="J37" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="3">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="L37" s="3">
         <v>0</v>
@@ -6378,7 +6398,7 @@
         <v>0</v>
       </c>
       <c r="O37" s="3">
-        <v>400</v>
+        <v>5</v>
       </c>
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
@@ -6425,10 +6445,10 @@
         <v>1</v>
       </c>
       <c r="J38" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="3">
-        <v>25</v>
+        <v>2.5</v>
       </c>
       <c r="L38" s="3">
         <v>0</v>
@@ -6437,10 +6457,10 @@
         <v>20</v>
       </c>
       <c r="N38" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O38" s="3">
-        <v>0.65</v>
+        <v>10</v>
       </c>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
@@ -6487,10 +6507,10 @@
         <v>1</v>
       </c>
       <c r="J39" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="3">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="L39" s="3">
         <v>0</v>
@@ -6499,10 +6519,11 @@
         <v>30</v>
       </c>
       <c r="N39" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O39" s="3">
-        <v>1.05</v>
+        <f>O37+O38</f>
+        <v>15</v>
       </c>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
@@ -6549,10 +6570,10 @@
         <v>1</v>
       </c>
       <c r="J40" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" s="3">
-        <v>35</v>
+        <v>3.5</v>
       </c>
       <c r="L40" s="3">
         <v>0</v>
@@ -6561,10 +6582,11 @@
         <v>50</v>
       </c>
       <c r="N40" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O40" s="3">
-        <v>1.7</v>
+        <f t="shared" ref="O40" si="10">O38+O39</f>
+        <v>25</v>
       </c>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
@@ -6611,10 +6633,10 @@
         <v>1</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" s="3">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
@@ -6623,10 +6645,11 @@
         <v>80</v>
       </c>
       <c r="N41" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>2.75</v>
+        <f t="shared" ref="O41" si="11">O39+O40</f>
+        <v>40</v>
       </c>
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
@@ -6673,10 +6696,10 @@
         <v>1</v>
       </c>
       <c r="J42" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="3">
-        <v>45</v>
+        <v>4.5</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -6685,10 +6708,11 @@
         <v>130</v>
       </c>
       <c r="N42" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O42" s="3">
-        <v>4.45</v>
+        <f t="shared" ref="O42" si="12">O40+O41</f>
+        <v>65</v>
       </c>
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
@@ -6735,10 +6759,10 @@
         <v>1</v>
       </c>
       <c r="J43" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" s="3">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -6747,10 +6771,11 @@
         <v>210</v>
       </c>
       <c r="N43" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
-        <v>7.2</v>
+        <f t="shared" ref="O43" si="13">O41+O42</f>
+        <v>105</v>
       </c>
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
@@ -6797,10 +6822,10 @@
         <v>1</v>
       </c>
       <c r="J44" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="3">
-        <v>55</v>
+        <v>5.5</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -6809,10 +6834,11 @@
         <v>340</v>
       </c>
       <c r="N44" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O44" s="3">
-        <v>11.65</v>
+        <f t="shared" ref="O44" si="14">O42+O43</f>
+        <v>170</v>
       </c>
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
@@ -6859,10 +6885,10 @@
         <v>1</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" s="3">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -6871,10 +6897,11 @@
         <v>550</v>
       </c>
       <c r="N45" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>18.850000000000001</v>
+        <f t="shared" ref="O45" si="15">O43+O44</f>
+        <v>275</v>
       </c>
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
@@ -6921,10 +6948,10 @@
         <v>1</v>
       </c>
       <c r="J46" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" s="3">
-        <v>65</v>
+        <v>6.5</v>
       </c>
       <c r="L46" s="3">
         <v>0</v>
@@ -6933,10 +6960,11 @@
         <v>890</v>
       </c>
       <c r="N46" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O46" s="3">
-        <v>30.5</v>
+        <f t="shared" ref="O46" si="16">O44+O45</f>
+        <v>445</v>
       </c>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
@@ -6983,10 +7011,10 @@
         <v>1</v>
       </c>
       <c r="J47" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" s="3">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -6995,10 +7023,11 @@
         <v>1440</v>
       </c>
       <c r="N47" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O47" s="3">
-        <v>49.35</v>
+        <f t="shared" ref="O47" si="17">O45+O46</f>
+        <v>720</v>
       </c>
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
@@ -7045,10 +7074,10 @@
         <v>1</v>
       </c>
       <c r="J48" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" s="3">
-        <v>75</v>
+        <v>7.5</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -7057,10 +7086,11 @@
         <v>2330</v>
       </c>
       <c r="N48" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O48" s="3">
-        <v>79.849999999999994</v>
+        <f t="shared" ref="O48" si="18">O46+O47</f>
+        <v>1165</v>
       </c>
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>

--- a/Excel/monster.怪物.xlsx
+++ b/Excel/monster.怪物.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9134B4-CE10-43AB-8620-FAE79723ACF9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57C46E8-2390-4C6A-93A9-09F282D17C92}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -2436,7 +2436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C4C9D73-B832-4A9D-87A8-827BB53C2F30}">
   <dimension ref="A1:AA11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -4357,8 +4357,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF36D8AE-75A8-46BF-880B-B77EF97ECDB9}">
   <dimension ref="A1:AD237"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:J237"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D184" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="L206" sqref="L206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4678,7 +4681,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="3">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="L4" s="3">
         <v>0</v>
@@ -4740,7 +4743,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="3">
-        <v>420</v>
+        <v>42</v>
       </c>
       <c r="L5" s="3">
         <v>0</v>
@@ -4802,7 +4805,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="3">
-        <v>1155</v>
+        <v>132</v>
       </c>
       <c r="L6" s="3">
         <v>0</v>
@@ -4864,7 +4867,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="3">
-        <v>1433</v>
+        <v>1023</v>
       </c>
       <c r="L7" s="3">
         <v>0</v>
@@ -4926,7 +4929,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>2602</v>
+        <v>1405</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -4988,7 +4991,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="3">
-        <v>3622</v>
+        <v>3187</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
@@ -5050,7 +5053,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="3">
-        <v>4567</v>
+        <v>4202</v>
       </c>
       <c r="L10" s="3">
         <v>0</v>
@@ -5112,7 +5115,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="3">
-        <v>6577</v>
+        <v>6314</v>
       </c>
       <c r="L11" s="3">
         <v>0</v>
@@ -7096,7 +7099,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="3">
-        <v>450</v>
+        <v>45</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -7158,7 +7161,7 @@
         <v>0</v>
       </c>
       <c r="K44" s="3">
-        <v>630</v>
+        <v>63</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -7220,7 +7223,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>1732</v>
+        <v>198</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -7282,7 +7285,7 @@
         <v>0</v>
       </c>
       <c r="K46" s="3">
-        <v>2149</v>
+        <v>1535</v>
       </c>
       <c r="L46" s="3">
         <v>0</v>
@@ -7344,7 +7347,7 @@
         <v>0</v>
       </c>
       <c r="K47" s="3">
-        <v>3903</v>
+        <v>2108</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -7406,7 +7409,7 @@
         <v>0</v>
       </c>
       <c r="K48" s="3">
-        <v>5433</v>
+        <v>4781</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -7468,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="K49" s="3">
-        <v>6851</v>
+        <v>6303</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -7530,7 +7533,7 @@
         <v>0</v>
       </c>
       <c r="K50" s="3">
-        <v>9866</v>
+        <v>9471</v>
       </c>
       <c r="L50" s="3">
         <v>0</v>
@@ -9514,7 +9517,7 @@
         <v>0</v>
       </c>
       <c r="K82" s="3">
-        <v>900</v>
+        <v>90</v>
       </c>
       <c r="L82" s="3">
         <v>0</v>
@@ -9576,7 +9579,7 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
-        <v>1260</v>
+        <v>126</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -9638,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="K84" s="3">
-        <v>3465</v>
+        <v>396</v>
       </c>
       <c r="L84" s="3">
         <v>0</v>
@@ -9700,7 +9703,7 @@
         <v>0</v>
       </c>
       <c r="K85" s="3">
-        <v>4299</v>
+        <v>3071</v>
       </c>
       <c r="L85" s="3">
         <v>0</v>
@@ -9762,7 +9765,7 @@
         <v>0</v>
       </c>
       <c r="K86" s="3">
-        <v>7807</v>
+        <v>4216</v>
       </c>
       <c r="L86" s="3">
         <v>0</v>
@@ -9824,7 +9827,7 @@
         <v>0</v>
       </c>
       <c r="K87" s="3">
-        <v>10867</v>
+        <v>9563</v>
       </c>
       <c r="L87" s="3">
         <v>0</v>
@@ -9886,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="K88" s="3">
-        <v>13702</v>
+        <v>12606</v>
       </c>
       <c r="L88" s="3">
         <v>0</v>
@@ -9948,7 +9951,7 @@
         <v>0</v>
       </c>
       <c r="K89" s="3">
-        <v>19732</v>
+        <v>18943</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
@@ -11932,7 +11935,7 @@
         <v>0</v>
       </c>
       <c r="K121" s="3">
-        <v>1200</v>
+        <v>120</v>
       </c>
       <c r="L121" s="3">
         <v>0</v>
@@ -11994,7 +11997,7 @@
         <v>0</v>
       </c>
       <c r="K122" s="3">
-        <v>1680</v>
+        <v>168</v>
       </c>
       <c r="L122" s="3">
         <v>0</v>
@@ -12056,7 +12059,7 @@
         <v>0</v>
       </c>
       <c r="K123" s="3">
-        <v>4620</v>
+        <v>528</v>
       </c>
       <c r="L123" s="3">
         <v>0</v>
@@ -12118,7 +12121,7 @@
         <v>0</v>
       </c>
       <c r="K124" s="3">
-        <v>5733</v>
+        <v>4095</v>
       </c>
       <c r="L124" s="3">
         <v>0</v>
@@ -12180,7 +12183,7 @@
         <v>0</v>
       </c>
       <c r="K125" s="3">
-        <v>10410</v>
+        <v>5621</v>
       </c>
       <c r="L125" s="3">
         <v>0</v>
@@ -12242,7 +12245,7 @@
         <v>0</v>
       </c>
       <c r="K126" s="3">
-        <v>14490</v>
+        <v>12751</v>
       </c>
       <c r="L126" s="3">
         <v>0</v>
@@ -12304,7 +12307,7 @@
         <v>0</v>
       </c>
       <c r="K127" s="3">
-        <v>18270</v>
+        <v>16808</v>
       </c>
       <c r="L127" s="3">
         <v>0</v>
@@ -12366,7 +12369,7 @@
         <v>0</v>
       </c>
       <c r="K128" s="3">
-        <v>26310</v>
+        <v>25257</v>
       </c>
       <c r="L128" s="3">
         <v>0</v>
@@ -14350,7 +14353,7 @@
         <v>0</v>
       </c>
       <c r="K160" s="3">
-        <v>6000</v>
+        <v>300</v>
       </c>
       <c r="L160" s="3">
         <v>0</v>
@@ -14412,7 +14415,7 @@
         <v>0</v>
       </c>
       <c r="K161" s="3">
-        <v>8400</v>
+        <v>420</v>
       </c>
       <c r="L161" s="3">
         <v>0</v>
@@ -14474,7 +14477,7 @@
         <v>0</v>
       </c>
       <c r="K162" s="3">
-        <v>23100</v>
+        <v>1320</v>
       </c>
       <c r="L162" s="3">
         <v>0</v>
@@ -14536,7 +14539,7 @@
         <v>0</v>
       </c>
       <c r="K163" s="3">
-        <v>28665</v>
+        <v>10237</v>
       </c>
       <c r="L163" s="3">
         <v>0</v>
@@ -14598,7 +14601,7 @@
         <v>0</v>
       </c>
       <c r="K164" s="3">
-        <v>52050</v>
+        <v>14053</v>
       </c>
       <c r="L164" s="3">
         <v>0</v>
@@ -14660,7 +14663,7 @@
         <v>0</v>
       </c>
       <c r="K165" s="3">
-        <v>72450</v>
+        <v>31878</v>
       </c>
       <c r="L165" s="3">
         <v>0</v>
@@ -14722,7 +14725,7 @@
         <v>0</v>
       </c>
       <c r="K166" s="3">
-        <v>91350</v>
+        <v>42021</v>
       </c>
       <c r="L166" s="3">
         <v>0</v>
@@ -14784,7 +14787,7 @@
         <v>0</v>
       </c>
       <c r="K167" s="3">
-        <v>131550</v>
+        <v>63144</v>
       </c>
       <c r="L167" s="3">
         <v>0</v>
@@ -14846,7 +14849,7 @@
         <v>0</v>
       </c>
       <c r="K168" s="3">
-        <v>154650</v>
+        <v>77325</v>
       </c>
       <c r="L168" s="3">
         <v>0</v>
@@ -14908,7 +14911,7 @@
         <v>0</v>
       </c>
       <c r="K169" s="3">
-        <v>192300</v>
+        <v>96150</v>
       </c>
       <c r="L169" s="3">
         <v>0</v>
@@ -14970,7 +14973,7 @@
         <v>0</v>
       </c>
       <c r="K170" s="3">
-        <v>230400</v>
+        <v>115200</v>
       </c>
       <c r="L170" s="3">
         <v>0</v>
@@ -15032,7 +15035,7 @@
         <v>0</v>
       </c>
       <c r="K171" s="3">
-        <v>315300</v>
+        <v>157650</v>
       </c>
       <c r="L171" s="3">
         <v>0</v>
@@ -16768,7 +16771,7 @@
         <v>0</v>
       </c>
       <c r="K199" s="3">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="L199" s="3">
         <v>0</v>
@@ -16830,7 +16833,7 @@
         <v>0</v>
       </c>
       <c r="K200" s="3">
-        <v>4200</v>
+        <v>840</v>
       </c>
       <c r="L200" s="3">
         <v>0</v>
@@ -16892,7 +16895,7 @@
         <v>0</v>
       </c>
       <c r="K201" s="3">
-        <v>11550</v>
+        <v>2640</v>
       </c>
       <c r="L201" s="3">
         <v>0</v>
@@ -16954,7 +16957,7 @@
         <v>0</v>
       </c>
       <c r="K202" s="3">
-        <v>14332</v>
+        <v>20475</v>
       </c>
       <c r="L202" s="3">
         <v>0</v>
@@ -17016,7 +17019,7 @@
         <v>0</v>
       </c>
       <c r="K203" s="3">
-        <v>26025</v>
+        <v>28107</v>
       </c>
       <c r="L203" s="3">
         <v>0</v>
@@ -17078,7 +17081,7 @@
         <v>0</v>
       </c>
       <c r="K204" s="3">
-        <v>36225</v>
+        <v>63756</v>
       </c>
       <c r="L204" s="3">
         <v>0</v>
@@ -17140,7 +17143,7 @@
         <v>0</v>
       </c>
       <c r="K205" s="3">
-        <v>45675</v>
+        <v>84042</v>
       </c>
       <c r="L205" s="3">
         <v>0</v>
@@ -17202,7 +17205,7 @@
         <v>0</v>
       </c>
       <c r="K206" s="3">
-        <v>65775</v>
+        <v>126288</v>
       </c>
       <c r="L206" s="3">
         <v>0</v>
@@ -17264,7 +17267,7 @@
         <v>0</v>
       </c>
       <c r="K207" s="3">
-        <v>77325</v>
+        <v>154650</v>
       </c>
       <c r="L207" s="3">
         <v>0</v>
@@ -17326,7 +17329,7 @@
         <v>0</v>
       </c>
       <c r="K208" s="3">
-        <v>96150</v>
+        <v>192300</v>
       </c>
       <c r="L208" s="3">
         <v>0</v>
@@ -17388,7 +17391,7 @@
         <v>0</v>
       </c>
       <c r="K209" s="3">
-        <v>115200</v>
+        <v>230400</v>
       </c>
       <c r="L209" s="3">
         <v>0</v>
@@ -17450,7 +17453,7 @@
         <v>0</v>
       </c>
       <c r="K210" s="3">
-        <v>157650</v>
+        <v>315300</v>
       </c>
       <c r="L210" s="3">
         <v>0</v>

--- a/Excel/monster.怪物.xlsx
+++ b/Excel/monster.怪物.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57C46E8-2390-4C6A-93A9-09F282D17C92}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242FF84E-FF8B-41EB-AE89-F372912DD071}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -311,7 +311,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="235">
   <si>
     <t>sheet名</t>
   </si>
@@ -772,14 +772,6 @@
   </si>
   <si>
     <t>节点10怪物ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>plane101</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>plane102</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1237,22 +1229,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>plane10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>2个小怪从2边出来</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1578,51 +1554,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>plane104</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>plane105</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>plane106</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
     <t>小怪第一波1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1728,6 +1659,22 @@
   </si>
   <si>
     <t>Clip2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>mon"&amp;</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2298,20 +2245,20 @@
     </row>
     <row r="2" spans="1:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G2" s="3" t="b">
         <v>1</v>
@@ -2319,20 +2266,20 @@
     </row>
     <row r="3" spans="1:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G3" s="3" t="b">
         <v>1</v>
@@ -2340,20 +2287,20 @@
     </row>
     <row r="4" spans="1:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G4" s="3" t="b">
         <v>1</v>
@@ -2361,20 +2308,20 @@
     </row>
     <row r="5" spans="1:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G5" s="3" t="b">
         <v>1</v>
@@ -2382,20 +2329,20 @@
     </row>
     <row r="6" spans="1:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G6" s="3" t="b">
         <v>1</v>
@@ -2403,20 +2350,20 @@
     </row>
     <row r="7" spans="1:7" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G7" s="3" t="b">
         <v>1</v>
@@ -2437,7 +2384,746 @@
   <dimension ref="A1:AA11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9.25" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="4" max="4" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="9.125" customWidth="1"/>
+    <col min="6" max="6" width="12.75" customWidth="1"/>
+    <col min="7" max="7" width="12.375" customWidth="1"/>
+    <col min="8" max="8" width="14.125" customWidth="1"/>
+    <col min="9" max="9" width="16.875" customWidth="1"/>
+    <col min="10" max="10" width="15.625" customWidth="1"/>
+    <col min="11" max="11" width="16.875" customWidth="1"/>
+    <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="13" max="13" width="17.875" customWidth="1"/>
+    <col min="14" max="14" width="16" customWidth="1"/>
+    <col min="15" max="15" width="17.875" customWidth="1"/>
+    <col min="16" max="16" width="16" customWidth="1"/>
+    <col min="17" max="17" width="17.875" customWidth="1"/>
+    <col min="18" max="18" width="16" customWidth="1"/>
+    <col min="19" max="19" width="17.875" customWidth="1"/>
+    <col min="20" max="20" width="16" customWidth="1"/>
+    <col min="21" max="21" width="17.875" customWidth="1"/>
+    <col min="22" max="22" width="16.75" customWidth="1"/>
+    <col min="23" max="23" width="17.375" customWidth="1"/>
+    <col min="24" max="24" width="17.5" customWidth="1"/>
+    <col min="25" max="25" width="17.375" customWidth="1"/>
+    <col min="26" max="26" width="18.375" customWidth="1"/>
+    <col min="27" max="27" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J2" t="s">
+        <v>119</v>
+      </c>
+      <c r="K2" t="s">
+        <v>138</v>
+      </c>
+      <c r="L2" t="s">
+        <v>119</v>
+      </c>
+      <c r="M2" t="s">
+        <v>138</v>
+      </c>
+      <c r="N2" t="s">
+        <v>119</v>
+      </c>
+      <c r="O2" t="s">
+        <v>138</v>
+      </c>
+      <c r="P2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>138</v>
+      </c>
+      <c r="R2" t="s">
+        <v>119</v>
+      </c>
+      <c r="S2" t="s">
+        <v>138</v>
+      </c>
+      <c r="T2" t="s">
+        <v>119</v>
+      </c>
+      <c r="U2" t="s">
+        <v>138</v>
+      </c>
+      <c r="V2" t="s">
+        <v>119</v>
+      </c>
+      <c r="W2" t="s">
+        <v>138</v>
+      </c>
+      <c r="X2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1001</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="I4" s="3">
+        <v>100001</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K4" s="3">
+        <v>100001</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="M4" s="3">
+        <v>100001</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="O4" s="3">
+        <v>100001</v>
+      </c>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+    </row>
+    <row r="5" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1002</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="I5" s="3">
+        <v>100001</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="K5" s="3">
+        <v>100001</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="M5" s="3">
+        <v>100001</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="O5" s="3">
+        <v>100001</v>
+      </c>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+    </row>
+    <row r="6" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1003</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1.17</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="I6" s="3">
+        <v>100001</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="K6" s="3">
+        <v>100001</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="M6" s="3">
+        <v>100001</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="O6" s="3">
+        <v>100001</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>100001</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="S6" s="3">
+        <v>100001</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="U6" s="3">
+        <v>110001</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="W6" s="3">
+        <v>110001</v>
+      </c>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+    </row>
+    <row r="7" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1004</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="I7" s="3">
+        <v>100002</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="K7" s="3">
+        <v>100002</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="M7" s="3">
+        <v>100002</v>
+      </c>
+      <c r="N7" s="4"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+    </row>
+    <row r="8" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1005</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="I8" s="3">
+        <v>100002</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="K8" s="3">
+        <v>100002</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="M8" s="3">
+        <v>100002</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="O8" s="3">
+        <v>100002</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>100002</v>
+      </c>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+    </row>
+    <row r="9" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1006</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="I9" s="3">
+        <v>110002</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="K9" s="3">
+        <v>110002</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+    </row>
+    <row r="10" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1007</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="I10" s="3">
+        <v>130001</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="K10" s="3">
+        <v>130001</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+    </row>
+    <row r="11" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1008</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E11" s="3">
+        <v>4</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="I11" s="3">
+        <v>140001</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3533D82-F7C1-4426-8069-7FF1D31AC5C8}">
+  <dimension ref="A1:AA11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2478,13 +3164,13 @@
         <v>7</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>70</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>75</v>
@@ -2564,76 +3250,76 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="R2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="S2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="T2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="U2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="V2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="W2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="X2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Y2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Z2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AA2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="15" x14ac:dyDescent="0.2">
@@ -2644,13 +3330,13 @@
         <v>103</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>72</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>76</v>
@@ -2727,749 +3413,10 @@
         <v>1001</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>217</v>
+        <v>164</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="I4" s="3">
-        <v>100001</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="K4" s="3">
-        <v>100001</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="M4" s="3">
-        <v>100001</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="O4" s="3">
-        <v>100001</v>
-      </c>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-    </row>
-    <row r="5" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1002</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="I5" s="3">
-        <v>100001</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="K5" s="3">
-        <v>100001</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="M5" s="3">
-        <v>100001</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="O5" s="3">
-        <v>100001</v>
-      </c>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-    </row>
-    <row r="6" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1003</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1.17</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="I6" s="3">
-        <v>100001</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="K6" s="3">
-        <v>100001</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="M6" s="3">
-        <v>100001</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="O6" s="3">
-        <v>100001</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>100001</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="S6" s="3">
-        <v>100001</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="U6" s="3">
-        <v>110001</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="W6" s="3">
-        <v>110001</v>
-      </c>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-    </row>
-    <row r="7" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1004</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="I7" s="3">
-        <v>100002</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="K7" s="3">
-        <v>100002</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="M7" s="3">
-        <v>100002</v>
-      </c>
-      <c r="N7" s="4"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-    </row>
-    <row r="8" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1005</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="I8" s="3">
-        <v>100002</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="K8" s="3">
-        <v>100002</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="M8" s="3">
-        <v>100002</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="O8" s="3">
-        <v>100002</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>100002</v>
-      </c>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-    </row>
-    <row r="9" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1006</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="I9" s="3">
-        <v>110002</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="K9" s="3">
-        <v>110002</v>
-      </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
-    </row>
-    <row r="10" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3">
-        <v>1007</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="E10" s="3">
-        <v>4</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="I10" s="3">
-        <v>130001</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="K10" s="3">
-        <v>130001</v>
-      </c>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
-    </row>
-    <row r="11" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3">
-        <v>1008</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E11" s="3">
-        <v>4</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="I11" s="3">
-        <v>140001</v>
-      </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3533D82-F7C1-4426-8069-7FF1D31AC5C8}">
-  <dimension ref="A1:AA11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="9.25" customWidth="1"/>
-    <col min="3" max="3" width="31.25" customWidth="1"/>
-    <col min="4" max="4" width="10.625" customWidth="1"/>
-    <col min="5" max="5" width="9.125" customWidth="1"/>
-    <col min="6" max="6" width="12.75" customWidth="1"/>
-    <col min="7" max="7" width="12.375" customWidth="1"/>
-    <col min="8" max="8" width="14.125" customWidth="1"/>
-    <col min="9" max="9" width="16.875" customWidth="1"/>
-    <col min="10" max="10" width="15.625" customWidth="1"/>
-    <col min="11" max="11" width="16.875" customWidth="1"/>
-    <col min="12" max="12" width="16" customWidth="1"/>
-    <col min="13" max="13" width="17.875" customWidth="1"/>
-    <col min="14" max="14" width="16" customWidth="1"/>
-    <col min="15" max="15" width="17.875" customWidth="1"/>
-    <col min="16" max="16" width="16" customWidth="1"/>
-    <col min="17" max="17" width="17.875" customWidth="1"/>
-    <col min="18" max="18" width="16" customWidth="1"/>
-    <col min="19" max="19" width="17.875" customWidth="1"/>
-    <col min="20" max="20" width="16" customWidth="1"/>
-    <col min="21" max="21" width="17.875" customWidth="1"/>
-    <col min="22" max="22" width="16.75" customWidth="1"/>
-    <col min="23" max="23" width="17.375" customWidth="1"/>
-    <col min="24" max="24" width="17.5" customWidth="1"/>
-    <col min="25" max="25" width="17.375" customWidth="1"/>
-    <col min="26" max="26" width="18.375" customWidth="1"/>
-    <col min="27" max="27" width="17" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:27" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G2" t="s">
-        <v>122</v>
-      </c>
-      <c r="H2" t="s">
-        <v>121</v>
-      </c>
-      <c r="I2" t="s">
-        <v>140</v>
-      </c>
-      <c r="J2" t="s">
-        <v>121</v>
-      </c>
-      <c r="K2" t="s">
-        <v>140</v>
-      </c>
-      <c r="L2" t="s">
-        <v>121</v>
-      </c>
-      <c r="M2" t="s">
-        <v>140</v>
-      </c>
-      <c r="N2" t="s">
-        <v>121</v>
-      </c>
-      <c r="O2" t="s">
-        <v>140</v>
-      </c>
-      <c r="P2" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>140</v>
-      </c>
-      <c r="R2" t="s">
-        <v>121</v>
-      </c>
-      <c r="S2" t="s">
-        <v>140</v>
-      </c>
-      <c r="T2" t="s">
-        <v>121</v>
-      </c>
-      <c r="U2" t="s">
-        <v>140</v>
-      </c>
-      <c r="V2" t="s">
-        <v>121</v>
-      </c>
-      <c r="W2" t="s">
-        <v>140</v>
-      </c>
-      <c r="X2" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1001</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -3481,7 +3428,7 @@
         <v>60</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I4" s="3">
         <v>100003</v>
@@ -3513,10 +3460,10 @@
         <v>1002</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
@@ -3528,13 +3475,13 @@
         <v>30</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I5" s="3">
         <v>100001</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K5" s="3">
         <v>100001</v>
@@ -3564,10 +3511,10 @@
         <v>1003</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
@@ -3579,19 +3526,19 @@
         <v>30</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I6" s="3">
         <v>100001</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K6" s="3">
         <v>100001</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M6" s="3">
         <v>100001</v>
@@ -3619,10 +3566,10 @@
         <v>1004</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -3634,25 +3581,25 @@
         <v>30</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I7" s="3">
         <v>100001</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K7" s="3">
         <v>100001</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M7" s="3">
         <v>100001</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O7" s="3">
         <v>100001</v>
@@ -3678,10 +3625,10 @@
         <v>1005</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
@@ -3693,31 +3640,31 @@
         <v>30</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I8" s="3">
         <v>100001</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K8" s="3">
         <v>100001</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M8" s="3">
         <v>100001</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O8" s="3">
         <v>100001</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="Q8" s="3">
         <v>100001</v>
@@ -3741,10 +3688,10 @@
         <v>1006</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
@@ -3756,13 +3703,13 @@
         <v>30</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I9" s="3">
         <v>100002</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K9" s="3">
         <v>100002</v>
@@ -3792,10 +3739,10 @@
         <v>1007</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
@@ -3807,25 +3754,25 @@
         <v>30</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I10" s="3">
         <v>100001</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K10" s="3">
         <v>100001</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M10" s="3">
         <v>100001</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O10" s="3">
         <v>100001</v>
@@ -3851,10 +3798,10 @@
         <v>1008</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
@@ -3866,49 +3813,49 @@
         <v>30</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I11" s="3">
         <v>100001</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="K11" s="3">
         <v>100001</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M11" s="3">
         <v>100001</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O11" s="3">
         <v>100001</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Q11" s="3">
         <v>100001</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="S11" s="3">
         <v>100001</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="U11" s="3">
         <v>100002</v>
       </c>
       <c r="V11" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="W11" s="3">
         <v>100002</v>
@@ -3931,12 +3878,14 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="5" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="10.625" customWidth="1"/>
     <col min="6" max="6" width="10.875" customWidth="1"/>
     <col min="7" max="7" width="11.5" customWidth="1"/>
     <col min="8" max="8" width="15.625" customWidth="1"/>
@@ -3947,7 +3896,7 @@
         <v>25</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>7</v>
@@ -3970,10 +3919,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -3991,7 +3940,7 @@
         <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -3999,7 +3948,7 @@
         <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
@@ -4020,18 +3969,19 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C4" s="3">
         <v>100001</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>116</v>
+      <c r="D4" s="4" t="str">
+        <f>"mon"&amp;C4</f>
+        <v>mon100001</v>
       </c>
       <c r="E4" s="3">
         <v>10001</v>
@@ -4040,18 +3990,19 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C5" s="3">
         <v>110001</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>117</v>
+      <c r="D5" s="4" t="str">
+        <f t="shared" ref="D5:D9" si="0">"mon"&amp;C5</f>
+        <v>mon110001</v>
       </c>
       <c r="E5" s="3">
         <v>10001</v>
@@ -4060,18 +4011,19 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C6" s="3">
         <v>100002</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>174</v>
+      <c r="D6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>mon100002</v>
       </c>
       <c r="E6" s="3">
         <v>10001</v>
@@ -4080,18 +4032,19 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C7" s="3">
         <v>110002</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>214</v>
+      <c r="D7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>mon110002</v>
       </c>
       <c r="E7" s="3">
         <v>10001</v>
@@ -4100,18 +4053,19 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C8" s="3">
         <v>130001</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>215</v>
+      <c r="D8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>mon130001</v>
       </c>
       <c r="E8" s="3">
         <v>10001</v>
@@ -4120,18 +4074,19 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C9" s="3">
         <v>140001</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>216</v>
+      <c r="D9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>mon140001</v>
       </c>
       <c r="E9" s="3">
         <v>10001</v>
@@ -4172,7 +4127,7 @@
         <v>70</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -4200,7 +4155,7 @@
         <v>72</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -4211,10 +4166,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -4223,10 +4178,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -4235,10 +4190,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -4247,10 +4202,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -4259,10 +4214,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -4271,10 +4226,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -4283,10 +4238,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -4295,10 +4250,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -4358,10 +4313,10 @@
   <dimension ref="A1:AD237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D184" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D189" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L206" sqref="L206"/>
+      <selection pane="bottomRight" activeCell="H208" sqref="H208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4384,22 +4339,22 @@
         <v>26</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>202</v>
-      </c>
       <c r="H1" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>40</v>
@@ -4476,85 +4431,85 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="R2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="S2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="T2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="U2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="V2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="W2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="X2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Y2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Z2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AA2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AB2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AC2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AD2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="15" x14ac:dyDescent="0.2">
@@ -4568,22 +4523,22 @@
         <v>49</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>50</v>
@@ -4663,16 +4618,16 @@
         <v>0</v>
       </c>
       <c r="E4" s="3">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
       </c>
       <c r="G4" s="3">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="H4" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I4" s="3">
         <v>1</v>
@@ -4725,16 +4680,16 @@
         <v>0</v>
       </c>
       <c r="E5" s="3">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
       </c>
       <c r="G5" s="3">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="H5" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I5" s="3">
         <v>1</v>
@@ -4787,16 +4742,16 @@
         <v>0</v>
       </c>
       <c r="E6" s="3">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F6" s="3">
         <v>0</v>
       </c>
       <c r="G6" s="3">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="H6" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I6" s="3">
         <v>1</v>
@@ -4849,16 +4804,16 @@
         <v>0</v>
       </c>
       <c r="E7" s="3">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F7" s="3">
         <v>0</v>
       </c>
       <c r="G7" s="3">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="H7" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I7" s="3">
         <v>1</v>
@@ -4911,16 +4866,16 @@
         <v>0</v>
       </c>
       <c r="E8" s="3">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>200</v>
+        <v>156</v>
       </c>
       <c r="H8" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3">
         <v>1</v>
@@ -4973,16 +4928,16 @@
         <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="H9" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3">
         <v>1</v>
@@ -5035,16 +4990,16 @@
         <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H10" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
         <v>1</v>
@@ -5097,16 +5052,16 @@
         <v>0</v>
       </c>
       <c r="E11" s="3">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="F11" s="3">
         <v>0</v>
       </c>
       <c r="G11" s="3">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="H11" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I11" s="3">
         <v>1</v>
@@ -5159,16 +5114,16 @@
         <v>0</v>
       </c>
       <c r="E12" s="3">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
       </c>
       <c r="G12" s="3">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="H12" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I12" s="3">
         <v>1</v>
@@ -5221,16 +5176,16 @@
         <v>0</v>
       </c>
       <c r="E13" s="3">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="F13" s="3">
         <v>0</v>
       </c>
       <c r="G13" s="3">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="H13" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I13" s="3">
         <v>1</v>
@@ -5283,16 +5238,16 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="H14" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
         <v>1</v>
@@ -5345,16 +5300,16 @@
         <v>0</v>
       </c>
       <c r="E15" s="3">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
       </c>
       <c r="G15" s="3">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="H15" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I15" s="3">
         <v>1</v>
@@ -5407,16 +5362,16 @@
         <v>0</v>
       </c>
       <c r="E16" s="3">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
       </c>
       <c r="G16" s="3">
-        <v>200</v>
+        <v>420</v>
       </c>
       <c r="H16" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I16" s="3">
         <v>1</v>
@@ -5469,16 +5424,16 @@
         <v>0</v>
       </c>
       <c r="E17" s="3">
-        <v>100</v>
+        <v>320</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
       </c>
       <c r="G17" s="3">
-        <v>200</v>
+        <v>480</v>
       </c>
       <c r="H17" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I17" s="3">
         <v>1</v>
@@ -5531,16 +5486,16 @@
         <v>0</v>
       </c>
       <c r="E18" s="3">
-        <v>100</v>
+        <v>360</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>200</v>
+        <v>540</v>
       </c>
       <c r="H18" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3">
         <v>1</v>
@@ -5593,16 +5548,16 @@
         <v>0</v>
       </c>
       <c r="E19" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F19" s="3">
         <v>0</v>
       </c>
       <c r="G19" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="H19" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I19" s="3">
         <v>1</v>
@@ -5655,16 +5610,16 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="H20" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>1</v>
@@ -5717,16 +5672,16 @@
         <v>0</v>
       </c>
       <c r="E21" s="3">
-        <v>100</v>
+        <v>720</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
       </c>
       <c r="G21" s="3">
-        <v>200</v>
+        <v>1080</v>
       </c>
       <c r="H21" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I21" s="3">
         <v>1</v>
@@ -5779,16 +5734,16 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>880</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>200</v>
+        <v>1320</v>
       </c>
       <c r="H22" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3">
         <v>1</v>
@@ -5841,16 +5796,16 @@
         <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
       </c>
       <c r="G23" s="3">
-        <v>200</v>
+        <v>1800</v>
       </c>
       <c r="H23" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
         <v>1</v>
@@ -5903,16 +5858,16 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>100</v>
+        <v>1440</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>200</v>
+        <v>2160</v>
       </c>
       <c r="H24" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
         <v>1</v>
@@ -5965,16 +5920,16 @@
         <v>0</v>
       </c>
       <c r="E25" s="3">
-        <v>100</v>
+        <v>1840</v>
       </c>
       <c r="F25" s="3">
         <v>0</v>
       </c>
       <c r="G25" s="3">
-        <v>200</v>
+        <v>2760</v>
       </c>
       <c r="H25" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I25" s="3">
         <v>1</v>
@@ -6027,16 +5982,16 @@
         <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>100</v>
+        <v>2200</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>200</v>
+        <v>3300</v>
       </c>
       <c r="H26" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
         <v>1</v>
@@ -6089,16 +6044,16 @@
         <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>100</v>
+        <v>2800</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>200</v>
+        <v>4200</v>
       </c>
       <c r="H27" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
         <v>1</v>
@@ -6151,16 +6106,16 @@
         <v>0</v>
       </c>
       <c r="E28" s="3">
-        <v>100</v>
+        <v>3400</v>
       </c>
       <c r="F28" s="3">
         <v>0</v>
       </c>
       <c r="G28" s="3">
-        <v>200</v>
+        <v>5100</v>
       </c>
       <c r="H28" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I28" s="3">
         <v>1</v>
@@ -6213,16 +6168,16 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>100</v>
+        <v>3800</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>200</v>
+        <v>5700</v>
       </c>
       <c r="H29" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I29" s="3">
         <v>1</v>
@@ -6275,16 +6230,16 @@
         <v>0</v>
       </c>
       <c r="E30" s="3">
-        <v>100</v>
+        <v>4200</v>
       </c>
       <c r="F30" s="3">
         <v>0</v>
       </c>
       <c r="G30" s="3">
-        <v>200</v>
+        <v>6300</v>
       </c>
       <c r="H30" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I30" s="3">
         <v>1</v>
@@ -6337,16 +6292,16 @@
         <v>0</v>
       </c>
       <c r="E31" s="3">
-        <v>100</v>
+        <v>4800</v>
       </c>
       <c r="F31" s="3">
         <v>0</v>
       </c>
       <c r="G31" s="3">
-        <v>200</v>
+        <v>7200</v>
       </c>
       <c r="H31" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I31" s="3">
         <v>1</v>
@@ -6399,16 +6354,16 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>100</v>
+        <v>5600</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>200</v>
+        <v>8400</v>
       </c>
       <c r="H32" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>1</v>
@@ -6461,16 +6416,16 @@
         <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>100</v>
+        <v>6400</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
       </c>
       <c r="G33" s="3">
-        <v>200</v>
+        <v>9600</v>
       </c>
       <c r="H33" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
         <v>1</v>
@@ -6523,16 +6478,16 @@
         <v>0</v>
       </c>
       <c r="E34" s="3">
-        <v>100</v>
+        <v>7200</v>
       </c>
       <c r="F34" s="3">
         <v>0</v>
       </c>
       <c r="G34" s="3">
-        <v>200</v>
+        <v>10800</v>
       </c>
       <c r="H34" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I34" s="3">
         <v>1</v>
@@ -6585,16 +6540,16 @@
         <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>100</v>
+        <v>8000</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
       </c>
       <c r="G35" s="3">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="H35" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3">
         <v>1</v>
@@ -6647,16 +6602,16 @@
         <v>0</v>
       </c>
       <c r="E36" s="3">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="F36" s="3">
         <v>0</v>
       </c>
       <c r="G36" s="3">
-        <v>200</v>
+        <v>15000</v>
       </c>
       <c r="H36" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I36" s="3">
         <v>1</v>
@@ -6709,16 +6664,16 @@
         <v>0</v>
       </c>
       <c r="E37" s="3">
-        <v>100</v>
+        <v>12000</v>
       </c>
       <c r="F37" s="3">
         <v>0</v>
       </c>
       <c r="G37" s="3">
-        <v>200</v>
+        <v>18000</v>
       </c>
       <c r="H37" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I37" s="3">
         <v>1</v>
@@ -6771,16 +6726,16 @@
         <v>0</v>
       </c>
       <c r="E38" s="3">
-        <v>100</v>
+        <v>16000</v>
       </c>
       <c r="F38" s="3">
         <v>0</v>
       </c>
       <c r="G38" s="3">
-        <v>200</v>
+        <v>24000</v>
       </c>
       <c r="H38" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I38" s="3">
         <v>1</v>
@@ -6833,16 +6788,16 @@
         <v>0</v>
       </c>
       <c r="E39" s="3">
-        <v>100</v>
+        <v>20000</v>
       </c>
       <c r="F39" s="3">
         <v>0</v>
       </c>
       <c r="G39" s="3">
-        <v>200</v>
+        <v>30000</v>
       </c>
       <c r="H39" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I39" s="3">
         <v>1</v>
@@ -6895,16 +6850,16 @@
         <v>0</v>
       </c>
       <c r="E40" s="3">
-        <v>100</v>
+        <v>24000</v>
       </c>
       <c r="F40" s="3">
         <v>0</v>
       </c>
       <c r="G40" s="3">
-        <v>200</v>
+        <v>36000</v>
       </c>
       <c r="H40" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I40" s="3">
         <v>1</v>
@@ -6957,16 +6912,16 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>28000</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>200</v>
+        <v>42000</v>
       </c>
       <c r="H41" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
         <v>1</v>
@@ -7019,16 +6974,16 @@
         <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>100</v>
+        <v>32000</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>200</v>
+        <v>48000</v>
       </c>
       <c r="H42" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I42" s="3">
         <v>1</v>
@@ -7081,16 +7036,16 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="H43" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I43" s="3">
         <v>1</v>
@@ -7143,16 +7098,16 @@
         <v>0</v>
       </c>
       <c r="E44" s="3">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
       </c>
       <c r="G44" s="3">
-        <v>200</v>
+        <v>136</v>
       </c>
       <c r="H44" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I44" s="3">
         <v>1</v>
@@ -7205,16 +7160,16 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="H45" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
         <v>1</v>
@@ -7267,16 +7222,16 @@
         <v>0</v>
       </c>
       <c r="E46" s="3">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
       </c>
       <c r="G46" s="3">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="H46" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I46" s="3">
         <v>1</v>
@@ -7329,16 +7284,16 @@
         <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>100</v>
+        <v>156</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
       </c>
       <c r="G47" s="3">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="H47" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I47" s="3">
         <v>1</v>
@@ -7391,16 +7346,16 @@
         <v>0</v>
       </c>
       <c r="E48" s="3">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
       </c>
       <c r="G48" s="3">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="H48" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I48" s="3">
         <v>1</v>
@@ -7453,16 +7408,16 @@
         <v>0</v>
       </c>
       <c r="E49" s="3">
-        <v>100</v>
+        <v>198</v>
       </c>
       <c r="F49" s="3">
         <v>0</v>
       </c>
       <c r="G49" s="3">
-        <v>200</v>
+        <v>298</v>
       </c>
       <c r="H49" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I49" s="3">
         <v>1</v>
@@ -7515,16 +7470,16 @@
         <v>0</v>
       </c>
       <c r="E50" s="3">
-        <v>100</v>
+        <v>216</v>
       </c>
       <c r="F50" s="3">
         <v>0</v>
       </c>
       <c r="G50" s="3">
-        <v>200</v>
+        <v>324</v>
       </c>
       <c r="H50" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I50" s="3">
         <v>1</v>
@@ -7577,16 +7532,16 @@
         <v>0</v>
       </c>
       <c r="E51" s="3">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="F51" s="3">
         <v>0</v>
       </c>
       <c r="G51" s="3">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="H51" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I51" s="3">
         <v>1</v>
@@ -7639,16 +7594,16 @@
         <v>0</v>
       </c>
       <c r="E52" s="3">
-        <v>100</v>
+        <v>270</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
       </c>
       <c r="G52" s="3">
-        <v>200</v>
+        <v>406</v>
       </c>
       <c r="H52" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I52" s="3">
         <v>1</v>
@@ -7701,16 +7656,16 @@
         <v>0</v>
       </c>
       <c r="E53" s="3">
-        <v>100</v>
+        <v>330</v>
       </c>
       <c r="F53" s="3">
         <v>0</v>
       </c>
       <c r="G53" s="3">
-        <v>200</v>
+        <v>496</v>
       </c>
       <c r="H53" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I53" s="3">
         <v>1</v>
@@ -7763,16 +7718,16 @@
         <v>0</v>
       </c>
       <c r="E54" s="3">
-        <v>100</v>
+        <v>360</v>
       </c>
       <c r="F54" s="3">
         <v>0</v>
       </c>
       <c r="G54" s="3">
-        <v>200</v>
+        <v>540</v>
       </c>
       <c r="H54" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I54" s="3">
         <v>1</v>
@@ -7825,16 +7780,16 @@
         <v>0</v>
       </c>
       <c r="E55" s="3">
-        <v>100</v>
+        <v>420</v>
       </c>
       <c r="F55" s="3">
         <v>0</v>
       </c>
       <c r="G55" s="3">
-        <v>200</v>
+        <v>630</v>
       </c>
       <c r="H55" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I55" s="3">
         <v>1</v>
@@ -7887,16 +7842,16 @@
         <v>0</v>
       </c>
       <c r="E56" s="3">
-        <v>100</v>
+        <v>480</v>
       </c>
       <c r="F56" s="3">
         <v>0</v>
       </c>
       <c r="G56" s="3">
-        <v>200</v>
+        <v>720</v>
       </c>
       <c r="H56" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I56" s="3">
         <v>1</v>
@@ -7949,16 +7904,16 @@
         <v>0</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>540</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
       </c>
       <c r="G57" s="3">
-        <v>200</v>
+        <v>810</v>
       </c>
       <c r="H57" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I57" s="3">
         <v>1</v>
@@ -8011,16 +7966,16 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="H58" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>1</v>
@@ -8073,16 +8028,16 @@
         <v>0</v>
       </c>
       <c r="E59" s="3">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
       </c>
       <c r="G59" s="3">
-        <v>200</v>
+        <v>1350</v>
       </c>
       <c r="H59" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I59" s="3">
         <v>1</v>
@@ -8135,16 +8090,16 @@
         <v>0</v>
       </c>
       <c r="E60" s="3">
-        <v>100</v>
+        <v>1080</v>
       </c>
       <c r="F60" s="3">
         <v>0</v>
       </c>
       <c r="G60" s="3">
-        <v>200</v>
+        <v>1620</v>
       </c>
       <c r="H60" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I60" s="3">
         <v>1</v>
@@ -8197,16 +8152,16 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>100</v>
+        <v>1320</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>200</v>
+        <v>1980</v>
       </c>
       <c r="H61" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
         <v>1</v>
@@ -8259,16 +8214,16 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>100</v>
+        <v>1800</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>200</v>
+        <v>2700</v>
       </c>
       <c r="H62" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I62" s="3">
         <v>1</v>
@@ -8321,16 +8276,16 @@
         <v>0</v>
       </c>
       <c r="E63" s="3">
-        <v>100</v>
+        <v>2160</v>
       </c>
       <c r="F63" s="3">
         <v>0</v>
       </c>
       <c r="G63" s="3">
-        <v>200</v>
+        <v>3240</v>
       </c>
       <c r="H63" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I63" s="3">
         <v>1</v>
@@ -8383,16 +8338,16 @@
         <v>0</v>
       </c>
       <c r="E64" s="3">
-        <v>100</v>
+        <v>2760</v>
       </c>
       <c r="F64" s="3">
         <v>0</v>
       </c>
       <c r="G64" s="3">
-        <v>200</v>
+        <v>4140</v>
       </c>
       <c r="H64" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I64" s="3">
         <v>1</v>
@@ -8445,16 +8400,16 @@
         <v>0</v>
       </c>
       <c r="E65" s="3">
-        <v>100</v>
+        <v>3300</v>
       </c>
       <c r="F65" s="3">
         <v>0</v>
       </c>
       <c r="G65" s="3">
-        <v>200</v>
+        <v>4950</v>
       </c>
       <c r="H65" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I65" s="3">
         <v>1</v>
@@ -8507,16 +8462,16 @@
         <v>0</v>
       </c>
       <c r="E66" s="3">
-        <v>100</v>
+        <v>4200</v>
       </c>
       <c r="F66" s="3">
         <v>0</v>
       </c>
       <c r="G66" s="3">
-        <v>200</v>
+        <v>6300</v>
       </c>
       <c r="H66" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I66" s="3">
         <v>1</v>
@@ -8569,16 +8524,16 @@
         <v>0</v>
       </c>
       <c r="E67" s="3">
-        <v>100</v>
+        <v>5100</v>
       </c>
       <c r="F67" s="3">
         <v>0</v>
       </c>
       <c r="G67" s="3">
-        <v>200</v>
+        <v>7650</v>
       </c>
       <c r="H67" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I67" s="3">
         <v>1</v>
@@ -8631,16 +8586,16 @@
         <v>0</v>
       </c>
       <c r="E68" s="3">
-        <v>100</v>
+        <v>5700</v>
       </c>
       <c r="F68" s="3">
         <v>0</v>
       </c>
       <c r="G68" s="3">
-        <v>200</v>
+        <v>8550</v>
       </c>
       <c r="H68" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I68" s="3">
         <v>1</v>
@@ -8693,16 +8648,16 @@
         <v>0</v>
       </c>
       <c r="E69" s="3">
-        <v>100</v>
+        <v>6300</v>
       </c>
       <c r="F69" s="3">
         <v>0</v>
       </c>
       <c r="G69" s="3">
-        <v>200</v>
+        <v>9450</v>
       </c>
       <c r="H69" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I69" s="3">
         <v>1</v>
@@ -8755,16 +8710,16 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>100</v>
+        <v>7200</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>200</v>
+        <v>10800</v>
       </c>
       <c r="H70" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
         <v>1</v>
@@ -8817,16 +8772,16 @@
         <v>0</v>
       </c>
       <c r="E71" s="3">
-        <v>100</v>
+        <v>8400</v>
       </c>
       <c r="F71" s="3">
         <v>0</v>
       </c>
       <c r="G71" s="3">
-        <v>200</v>
+        <v>12600</v>
       </c>
       <c r="H71" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I71" s="3">
         <v>1</v>
@@ -8879,16 +8834,16 @@
         <v>0</v>
       </c>
       <c r="E72" s="3">
-        <v>100</v>
+        <v>9600</v>
       </c>
       <c r="F72" s="3">
         <v>0</v>
       </c>
       <c r="G72" s="3">
-        <v>200</v>
+        <v>14400</v>
       </c>
       <c r="H72" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I72" s="3">
         <v>1</v>
@@ -8941,16 +8896,16 @@
         <v>0</v>
       </c>
       <c r="E73" s="3">
-        <v>100</v>
+        <v>10800</v>
       </c>
       <c r="F73" s="3">
         <v>0</v>
       </c>
       <c r="G73" s="3">
-        <v>200</v>
+        <v>16200</v>
       </c>
       <c r="H73" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I73" s="3">
         <v>1</v>
@@ -9003,16 +8958,16 @@
         <v>0</v>
       </c>
       <c r="E74" s="3">
-        <v>100</v>
+        <v>12000</v>
       </c>
       <c r="F74" s="3">
         <v>0</v>
       </c>
       <c r="G74" s="3">
-        <v>200</v>
+        <v>18000</v>
       </c>
       <c r="H74" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I74" s="3">
         <v>1</v>
@@ -9065,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="E75" s="3">
-        <v>100</v>
+        <v>15000</v>
       </c>
       <c r="F75" s="3">
         <v>0</v>
       </c>
       <c r="G75" s="3">
-        <v>200</v>
+        <v>22500</v>
       </c>
       <c r="H75" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I75" s="3">
         <v>1</v>
@@ -9127,16 +9082,16 @@
         <v>0</v>
       </c>
       <c r="E76" s="3">
-        <v>100</v>
+        <v>18000</v>
       </c>
       <c r="F76" s="3">
         <v>0</v>
       </c>
       <c r="G76" s="3">
-        <v>200</v>
+        <v>27000</v>
       </c>
       <c r="H76" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I76" s="3">
         <v>1</v>
@@ -9189,16 +9144,16 @@
         <v>0</v>
       </c>
       <c r="E77" s="3">
-        <v>100</v>
+        <v>24000</v>
       </c>
       <c r="F77" s="3">
         <v>0</v>
       </c>
       <c r="G77" s="3">
-        <v>200</v>
+        <v>36000</v>
       </c>
       <c r="H77" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I77" s="3">
         <v>1</v>
@@ -9251,16 +9206,16 @@
         <v>0</v>
       </c>
       <c r="E78" s="3">
-        <v>100</v>
+        <v>30000</v>
       </c>
       <c r="F78" s="3">
         <v>0</v>
       </c>
       <c r="G78" s="3">
-        <v>200</v>
+        <v>45000</v>
       </c>
       <c r="H78" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I78" s="3">
         <v>1</v>
@@ -9313,16 +9268,16 @@
         <v>0</v>
       </c>
       <c r="E79" s="3">
-        <v>100</v>
+        <v>36000</v>
       </c>
       <c r="F79" s="3">
         <v>0</v>
       </c>
       <c r="G79" s="3">
-        <v>200</v>
+        <v>54000</v>
       </c>
       <c r="H79" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I79" s="3">
         <v>1</v>
@@ -9375,16 +9330,16 @@
         <v>0</v>
       </c>
       <c r="E80" s="3">
-        <v>100</v>
+        <v>42000</v>
       </c>
       <c r="F80" s="3">
         <v>0</v>
       </c>
       <c r="G80" s="3">
-        <v>200</v>
+        <v>63000</v>
       </c>
       <c r="H80" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I80" s="3">
         <v>1</v>
@@ -9437,16 +9392,16 @@
         <v>0</v>
       </c>
       <c r="E81" s="3">
-        <v>100</v>
+        <v>48000</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
       </c>
       <c r="G81" s="3">
-        <v>200</v>
+        <v>72000</v>
       </c>
       <c r="H81" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I81" s="3">
         <v>1</v>
@@ -9499,16 +9454,16 @@
         <v>0</v>
       </c>
       <c r="E82" s="3">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="F82" s="3">
         <v>0</v>
       </c>
       <c r="G82" s="3">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="H82" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I82" s="3">
         <v>1</v>
@@ -9561,16 +9516,16 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
       </c>
       <c r="G83" s="3">
-        <v>200</v>
+        <v>284</v>
       </c>
       <c r="H83" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I83" s="3">
         <v>1</v>
@@ -9623,16 +9578,16 @@
         <v>0</v>
       </c>
       <c r="E84" s="3">
-        <v>100</v>
+        <v>253</v>
       </c>
       <c r="F84" s="3">
         <v>0</v>
       </c>
       <c r="G84" s="3">
-        <v>200</v>
+        <v>379</v>
       </c>
       <c r="H84" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I84" s="3">
         <v>1</v>
@@ -9685,16 +9640,16 @@
         <v>0</v>
       </c>
       <c r="E85" s="3">
-        <v>100</v>
+        <v>290</v>
       </c>
       <c r="F85" s="3">
         <v>0</v>
       </c>
       <c r="G85" s="3">
-        <v>200</v>
+        <v>436</v>
       </c>
       <c r="H85" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I85" s="3">
         <v>1</v>
@@ -9747,16 +9702,16 @@
         <v>0</v>
       </c>
       <c r="E86" s="3">
-        <v>100</v>
+        <v>329</v>
       </c>
       <c r="F86" s="3">
         <v>0</v>
       </c>
       <c r="G86" s="3">
-        <v>200</v>
+        <v>493</v>
       </c>
       <c r="H86" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I86" s="3">
         <v>1</v>
@@ -9809,16 +9764,16 @@
         <v>0</v>
       </c>
       <c r="E87" s="3">
-        <v>100</v>
+        <v>379</v>
       </c>
       <c r="F87" s="3">
         <v>0</v>
       </c>
       <c r="G87" s="3">
-        <v>200</v>
+        <v>569</v>
       </c>
       <c r="H87" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I87" s="3">
         <v>1</v>
@@ -9871,16 +9826,16 @@
         <v>0</v>
       </c>
       <c r="E88" s="3">
-        <v>100</v>
+        <v>417</v>
       </c>
       <c r="F88" s="3">
         <v>0</v>
       </c>
       <c r="G88" s="3">
-        <v>200</v>
+        <v>625</v>
       </c>
       <c r="H88" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I88" s="3">
         <v>1</v>
@@ -9933,16 +9888,16 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>100</v>
+        <v>454</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>200</v>
+        <v>682</v>
       </c>
       <c r="H89" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I89" s="3">
         <v>1</v>
@@ -9995,16 +9950,16 @@
         <v>0</v>
       </c>
       <c r="E90" s="3">
-        <v>100</v>
+        <v>506</v>
       </c>
       <c r="F90" s="3">
         <v>0</v>
       </c>
       <c r="G90" s="3">
-        <v>200</v>
+        <v>758</v>
       </c>
       <c r="H90" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I90" s="3">
         <v>1</v>
@@ -10057,16 +10012,16 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>100</v>
+        <v>569</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
       <c r="G91" s="3">
-        <v>200</v>
+        <v>853</v>
       </c>
       <c r="H91" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I91" s="3">
         <v>1</v>
@@ -10119,16 +10074,16 @@
         <v>0</v>
       </c>
       <c r="E92" s="3">
-        <v>100</v>
+        <v>694</v>
       </c>
       <c r="F92" s="3">
         <v>0</v>
       </c>
       <c r="G92" s="3">
-        <v>200</v>
+        <v>1042</v>
       </c>
       <c r="H92" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I92" s="3">
         <v>1</v>
@@ -10181,16 +10136,16 @@
         <v>0</v>
       </c>
       <c r="E93" s="3">
-        <v>100</v>
+        <v>758</v>
       </c>
       <c r="F93" s="3">
         <v>0</v>
       </c>
       <c r="G93" s="3">
-        <v>200</v>
+        <v>1136</v>
       </c>
       <c r="H93" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I93" s="3">
         <v>1</v>
@@ -10243,16 +10198,16 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>100</v>
+        <v>884</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>200</v>
+        <v>1326</v>
       </c>
       <c r="H94" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I94" s="3">
         <v>1</v>
@@ -10305,16 +10260,16 @@
         <v>0</v>
       </c>
       <c r="E95" s="3">
-        <v>100</v>
+        <v>1010</v>
       </c>
       <c r="F95" s="3">
         <v>0</v>
       </c>
       <c r="G95" s="3">
-        <v>200</v>
+        <v>1516</v>
       </c>
       <c r="H95" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I95" s="3">
         <v>1</v>
@@ -10367,16 +10322,16 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>100</v>
+        <v>1137</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>200</v>
+        <v>1705</v>
       </c>
       <c r="H96" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I96" s="3">
         <v>1</v>
@@ -10429,16 +10384,16 @@
         <v>0</v>
       </c>
       <c r="E97" s="3">
-        <v>100</v>
+        <v>1263</v>
       </c>
       <c r="F97" s="3">
         <v>0</v>
       </c>
       <c r="G97" s="3">
-        <v>200</v>
+        <v>1895</v>
       </c>
       <c r="H97" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I97" s="3">
         <v>1</v>
@@ -10491,16 +10446,16 @@
         <v>0</v>
       </c>
       <c r="E98" s="3">
-        <v>100</v>
+        <v>1894</v>
       </c>
       <c r="F98" s="3">
         <v>0</v>
       </c>
       <c r="G98" s="3">
-        <v>200</v>
+        <v>2842</v>
       </c>
       <c r="H98" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I98" s="3">
         <v>1</v>
@@ -10553,16 +10508,16 @@
         <v>0</v>
       </c>
       <c r="E99" s="3">
-        <v>100</v>
+        <v>2274</v>
       </c>
       <c r="F99" s="3">
         <v>0</v>
       </c>
       <c r="G99" s="3">
-        <v>200</v>
+        <v>3410</v>
       </c>
       <c r="H99" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I99" s="3">
         <v>1</v>
@@ -10615,16 +10570,16 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>100</v>
+        <v>2779</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>200</v>
+        <v>4169</v>
       </c>
       <c r="H100" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I100" s="3">
         <v>1</v>
@@ -10677,16 +10632,16 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
-        <v>100</v>
+        <v>3790</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>200</v>
+        <v>5684</v>
       </c>
       <c r="H101" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I101" s="3">
         <v>1</v>
@@ -10739,16 +10694,16 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>100</v>
+        <v>4547</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>200</v>
+        <v>6821</v>
       </c>
       <c r="H102" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I102" s="3">
         <v>1</v>
@@ -10801,16 +10756,16 @@
         <v>0</v>
       </c>
       <c r="E103" s="3">
-        <v>100</v>
+        <v>5810</v>
       </c>
       <c r="F103" s="3">
         <v>0</v>
       </c>
       <c r="G103" s="3">
-        <v>200</v>
+        <v>8716</v>
       </c>
       <c r="H103" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I103" s="3">
         <v>1</v>
@@ -10863,16 +10818,16 @@
         <v>0</v>
       </c>
       <c r="E104" s="3">
-        <v>100</v>
+        <v>6947</v>
       </c>
       <c r="F104" s="3">
         <v>0</v>
       </c>
       <c r="G104" s="3">
-        <v>200</v>
+        <v>10421</v>
       </c>
       <c r="H104" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I104" s="3">
         <v>1</v>
@@ -10925,16 +10880,16 @@
         <v>0</v>
       </c>
       <c r="E105" s="3">
-        <v>100</v>
+        <v>8842</v>
       </c>
       <c r="F105" s="3">
         <v>0</v>
       </c>
       <c r="G105" s="3">
-        <v>200</v>
+        <v>13264</v>
       </c>
       <c r="H105" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I105" s="3">
         <v>1</v>
@@ -10987,16 +10942,16 @@
         <v>0</v>
       </c>
       <c r="E106" s="3">
-        <v>100</v>
+        <v>10737</v>
       </c>
       <c r="F106" s="3">
         <v>0</v>
       </c>
       <c r="G106" s="3">
-        <v>200</v>
+        <v>16105</v>
       </c>
       <c r="H106" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I106" s="3">
         <v>1</v>
@@ -11049,16 +11004,16 @@
         <v>0</v>
       </c>
       <c r="E107" s="3">
-        <v>100</v>
+        <v>12000</v>
       </c>
       <c r="F107" s="3">
         <v>0</v>
       </c>
       <c r="G107" s="3">
-        <v>200</v>
+        <v>18000</v>
       </c>
       <c r="H107" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I107" s="3">
         <v>1</v>
@@ -11111,16 +11066,16 @@
         <v>0</v>
       </c>
       <c r="E108" s="3">
-        <v>100</v>
+        <v>13263</v>
       </c>
       <c r="F108" s="3">
         <v>0</v>
       </c>
       <c r="G108" s="3">
-        <v>200</v>
+        <v>19895</v>
       </c>
       <c r="H108" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I108" s="3">
         <v>1</v>
@@ -11173,16 +11128,16 @@
         <v>0</v>
       </c>
       <c r="E109" s="3">
-        <v>100</v>
+        <v>15158</v>
       </c>
       <c r="F109" s="3">
         <v>0</v>
       </c>
       <c r="G109" s="3">
-        <v>200</v>
+        <v>22736</v>
       </c>
       <c r="H109" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I109" s="3">
         <v>1</v>
@@ -11235,16 +11190,16 @@
         <v>0</v>
       </c>
       <c r="E110" s="3">
-        <v>100</v>
+        <v>17684</v>
       </c>
       <c r="F110" s="3">
         <v>0</v>
       </c>
       <c r="G110" s="3">
-        <v>200</v>
+        <v>26526</v>
       </c>
       <c r="H110" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I110" s="3">
         <v>1</v>
@@ -11297,16 +11252,16 @@
         <v>0</v>
       </c>
       <c r="E111" s="3">
-        <v>100</v>
+        <v>20210</v>
       </c>
       <c r="F111" s="3">
         <v>0</v>
       </c>
       <c r="G111" s="3">
-        <v>200</v>
+        <v>30316</v>
       </c>
       <c r="H111" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I111" s="3">
         <v>1</v>
@@ -11359,16 +11314,16 @@
         <v>0</v>
       </c>
       <c r="E112" s="3">
-        <v>100</v>
+        <v>22737</v>
       </c>
       <c r="F112" s="3">
         <v>0</v>
       </c>
       <c r="G112" s="3">
-        <v>200</v>
+        <v>34105</v>
       </c>
       <c r="H112" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I112" s="3">
         <v>1</v>
@@ -11421,16 +11376,16 @@
         <v>0</v>
       </c>
       <c r="E113" s="3">
-        <v>100</v>
+        <v>25263</v>
       </c>
       <c r="F113" s="3">
         <v>0</v>
       </c>
       <c r="G113" s="3">
-        <v>200</v>
+        <v>37895</v>
       </c>
       <c r="H113" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I113" s="3">
         <v>1</v>
@@ -11483,16 +11438,16 @@
         <v>0</v>
       </c>
       <c r="E114" s="3">
-        <v>100</v>
+        <v>31579</v>
       </c>
       <c r="F114" s="3">
         <v>0</v>
       </c>
       <c r="G114" s="3">
-        <v>200</v>
+        <v>47369</v>
       </c>
       <c r="H114" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I114" s="3">
         <v>1</v>
@@ -11545,16 +11500,16 @@
         <v>0</v>
       </c>
       <c r="E115" s="3">
-        <v>100</v>
+        <v>37894</v>
       </c>
       <c r="F115" s="3">
         <v>0</v>
       </c>
       <c r="G115" s="3">
-        <v>200</v>
+        <v>56842</v>
       </c>
       <c r="H115" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I115" s="3">
         <v>1</v>
@@ -11607,16 +11562,16 @@
         <v>0</v>
       </c>
       <c r="E116" s="3">
-        <v>100</v>
+        <v>50526</v>
       </c>
       <c r="F116" s="3">
         <v>0</v>
       </c>
       <c r="G116" s="3">
-        <v>200</v>
+        <v>75790</v>
       </c>
       <c r="H116" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I116" s="3">
         <v>1</v>
@@ -11669,16 +11624,16 @@
         <v>0</v>
       </c>
       <c r="E117" s="3">
-        <v>100</v>
+        <v>63158</v>
       </c>
       <c r="F117" s="3">
         <v>0</v>
       </c>
       <c r="G117" s="3">
-        <v>200</v>
+        <v>94736</v>
       </c>
       <c r="H117" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I117" s="3">
         <v>1</v>
@@ -11731,16 +11686,16 @@
         <v>0</v>
       </c>
       <c r="E118" s="3">
-        <v>100</v>
+        <v>75790</v>
       </c>
       <c r="F118" s="3">
         <v>0</v>
       </c>
       <c r="G118" s="3">
-        <v>200</v>
+        <v>113684</v>
       </c>
       <c r="H118" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I118" s="3">
         <v>1</v>
@@ -11793,16 +11748,16 @@
         <v>0</v>
       </c>
       <c r="E119" s="3">
-        <v>100</v>
+        <v>88421</v>
       </c>
       <c r="F119" s="3">
         <v>0</v>
       </c>
       <c r="G119" s="3">
-        <v>200</v>
+        <v>132631</v>
       </c>
       <c r="H119" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I119" s="3">
         <v>1</v>
@@ -11855,16 +11810,16 @@
         <v>0</v>
       </c>
       <c r="E120" s="3">
-        <v>100</v>
+        <v>101053</v>
       </c>
       <c r="F120" s="3">
         <v>0</v>
       </c>
       <c r="G120" s="3">
-        <v>200</v>
+        <v>151579</v>
       </c>
       <c r="H120" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I120" s="3">
         <v>1</v>
@@ -11917,16 +11872,16 @@
         <v>0</v>
       </c>
       <c r="E121" s="3">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="F121" s="3">
         <v>0</v>
       </c>
       <c r="G121" s="3">
-        <v>200</v>
+        <v>253</v>
       </c>
       <c r="H121" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I121" s="3">
         <v>1</v>
@@ -11979,16 +11934,16 @@
         <v>0</v>
       </c>
       <c r="E122" s="3">
-        <v>100</v>
+        <v>253</v>
       </c>
       <c r="F122" s="3">
         <v>0</v>
       </c>
       <c r="G122" s="3">
-        <v>200</v>
+        <v>379</v>
       </c>
       <c r="H122" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I122" s="3">
         <v>1</v>
@@ -12041,16 +11996,16 @@
         <v>0</v>
       </c>
       <c r="E123" s="3">
-        <v>100</v>
+        <v>337</v>
       </c>
       <c r="F123" s="3">
         <v>0</v>
       </c>
       <c r="G123" s="3">
-        <v>200</v>
+        <v>505</v>
       </c>
       <c r="H123" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I123" s="3">
         <v>1</v>
@@ -12103,16 +12058,16 @@
         <v>0</v>
       </c>
       <c r="E124" s="3">
-        <v>100</v>
+        <v>387</v>
       </c>
       <c r="F124" s="3">
         <v>0</v>
       </c>
       <c r="G124" s="3">
-        <v>200</v>
+        <v>581</v>
       </c>
       <c r="H124" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I124" s="3">
         <v>1</v>
@@ -12165,16 +12120,16 @@
         <v>0</v>
       </c>
       <c r="E125" s="3">
-        <v>100</v>
+        <v>438</v>
       </c>
       <c r="F125" s="3">
         <v>0</v>
       </c>
       <c r="G125" s="3">
-        <v>200</v>
+        <v>656</v>
       </c>
       <c r="H125" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I125" s="3">
         <v>1</v>
@@ -12227,16 +12182,16 @@
         <v>0</v>
       </c>
       <c r="E126" s="3">
-        <v>100</v>
+        <v>506</v>
       </c>
       <c r="F126" s="3">
         <v>0</v>
       </c>
       <c r="G126" s="3">
-        <v>200</v>
+        <v>758</v>
       </c>
       <c r="H126" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I126" s="3">
         <v>1</v>
@@ -12289,16 +12244,16 @@
         <v>0</v>
       </c>
       <c r="E127" s="3">
-        <v>100</v>
+        <v>556</v>
       </c>
       <c r="F127" s="3">
         <v>0</v>
       </c>
       <c r="G127" s="3">
-        <v>200</v>
+        <v>834</v>
       </c>
       <c r="H127" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I127" s="3">
         <v>1</v>
@@ -12351,16 +12306,16 @@
         <v>0</v>
       </c>
       <c r="E128" s="3">
-        <v>100</v>
+        <v>606</v>
       </c>
       <c r="F128" s="3">
         <v>0</v>
       </c>
       <c r="G128" s="3">
-        <v>200</v>
+        <v>910</v>
       </c>
       <c r="H128" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I128" s="3">
         <v>1</v>
@@ -12413,16 +12368,16 @@
         <v>0</v>
       </c>
       <c r="E129" s="3">
-        <v>100</v>
+        <v>674</v>
       </c>
       <c r="F129" s="3">
         <v>0</v>
       </c>
       <c r="G129" s="3">
-        <v>200</v>
+        <v>1010</v>
       </c>
       <c r="H129" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I129" s="3">
         <v>1</v>
@@ -12475,16 +12430,16 @@
         <v>0</v>
       </c>
       <c r="E130" s="3">
-        <v>100</v>
+        <v>758</v>
       </c>
       <c r="F130" s="3">
         <v>0</v>
       </c>
       <c r="G130" s="3">
-        <v>200</v>
+        <v>1136</v>
       </c>
       <c r="H130" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I130" s="3">
         <v>1</v>
@@ -12537,16 +12492,16 @@
         <v>0</v>
       </c>
       <c r="E131" s="3">
-        <v>100</v>
+        <v>926</v>
       </c>
       <c r="F131" s="3">
         <v>0</v>
       </c>
       <c r="G131" s="3">
-        <v>200</v>
+        <v>1390</v>
       </c>
       <c r="H131" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I131" s="3">
         <v>1</v>
@@ -12599,16 +12554,16 @@
         <v>0</v>
       </c>
       <c r="E132" s="3">
-        <v>100</v>
+        <v>1010</v>
       </c>
       <c r="F132" s="3">
         <v>0</v>
       </c>
       <c r="G132" s="3">
-        <v>200</v>
+        <v>1516</v>
       </c>
       <c r="H132" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I132" s="3">
         <v>1</v>
@@ -12661,16 +12616,16 @@
         <v>0</v>
       </c>
       <c r="E133" s="3">
-        <v>100</v>
+        <v>1179</v>
       </c>
       <c r="F133" s="3">
         <v>0</v>
       </c>
       <c r="G133" s="3">
-        <v>200</v>
+        <v>1769</v>
       </c>
       <c r="H133" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I133" s="3">
         <v>1</v>
@@ -12723,16 +12678,16 @@
         <v>0</v>
       </c>
       <c r="E134" s="3">
-        <v>100</v>
+        <v>1347</v>
       </c>
       <c r="F134" s="3">
         <v>0</v>
       </c>
       <c r="G134" s="3">
-        <v>200</v>
+        <v>2021</v>
       </c>
       <c r="H134" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I134" s="3">
         <v>1</v>
@@ -12785,16 +12740,16 @@
         <v>0</v>
       </c>
       <c r="E135" s="3">
-        <v>100</v>
+        <v>1516</v>
       </c>
       <c r="F135" s="3">
         <v>0</v>
       </c>
       <c r="G135" s="3">
-        <v>200</v>
+        <v>2274</v>
       </c>
       <c r="H135" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I135" s="3">
         <v>1</v>
@@ -12847,16 +12802,16 @@
         <v>0</v>
       </c>
       <c r="E136" s="3">
-        <v>100</v>
+        <v>1684</v>
       </c>
       <c r="F136" s="3">
         <v>0</v>
       </c>
       <c r="G136" s="3">
-        <v>200</v>
+        <v>2526</v>
       </c>
       <c r="H136" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I136" s="3">
         <v>1</v>
@@ -12909,16 +12864,16 @@
         <v>0</v>
       </c>
       <c r="E137" s="3">
-        <v>100</v>
+        <v>2526</v>
       </c>
       <c r="F137" s="3">
         <v>0</v>
       </c>
       <c r="G137" s="3">
-        <v>200</v>
+        <v>3790</v>
       </c>
       <c r="H137" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I137" s="3">
         <v>1</v>
@@ -12971,16 +12926,16 @@
         <v>0</v>
       </c>
       <c r="E138" s="3">
-        <v>100</v>
+        <v>3031</v>
       </c>
       <c r="F138" s="3">
         <v>0</v>
       </c>
       <c r="G138" s="3">
-        <v>200</v>
+        <v>4547</v>
       </c>
       <c r="H138" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I138" s="3">
         <v>1</v>
@@ -13033,16 +12988,16 @@
         <v>0</v>
       </c>
       <c r="E139" s="3">
-        <v>100</v>
+        <v>3706</v>
       </c>
       <c r="F139" s="3">
         <v>0</v>
       </c>
       <c r="G139" s="3">
-        <v>200</v>
+        <v>5558</v>
       </c>
       <c r="H139" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I139" s="3">
         <v>1</v>
@@ -13095,16 +13050,16 @@
         <v>0</v>
       </c>
       <c r="E140" s="3">
-        <v>100</v>
+        <v>5053</v>
       </c>
       <c r="F140" s="3">
         <v>0</v>
       </c>
       <c r="G140" s="3">
-        <v>200</v>
+        <v>7579</v>
       </c>
       <c r="H140" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I140" s="3">
         <v>1</v>
@@ -13157,16 +13112,16 @@
         <v>0</v>
       </c>
       <c r="E141" s="3">
-        <v>100</v>
+        <v>6063</v>
       </c>
       <c r="F141" s="3">
         <v>0</v>
       </c>
       <c r="G141" s="3">
-        <v>200</v>
+        <v>9095</v>
       </c>
       <c r="H141" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I141" s="3">
         <v>1</v>
@@ -13219,16 +13174,16 @@
         <v>0</v>
       </c>
       <c r="E142" s="3">
-        <v>100</v>
+        <v>7747</v>
       </c>
       <c r="F142" s="3">
         <v>0</v>
       </c>
       <c r="G142" s="3">
-        <v>200</v>
+        <v>11621</v>
       </c>
       <c r="H142" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I142" s="3">
         <v>1</v>
@@ -13281,16 +13236,16 @@
         <v>0</v>
       </c>
       <c r="E143" s="3">
-        <v>100</v>
+        <v>9263</v>
       </c>
       <c r="F143" s="3">
         <v>0</v>
       </c>
       <c r="G143" s="3">
-        <v>200</v>
+        <v>13895</v>
       </c>
       <c r="H143" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I143" s="3">
         <v>1</v>
@@ -13343,16 +13298,16 @@
         <v>0</v>
       </c>
       <c r="E144" s="3">
-        <v>100</v>
+        <v>11790</v>
       </c>
       <c r="F144" s="3">
         <v>0</v>
       </c>
       <c r="G144" s="3">
-        <v>200</v>
+        <v>17684</v>
       </c>
       <c r="H144" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I144" s="3">
         <v>1</v>
@@ -13405,16 +13360,16 @@
         <v>0</v>
       </c>
       <c r="E145" s="3">
-        <v>100</v>
+        <v>14316</v>
       </c>
       <c r="F145" s="3">
         <v>0</v>
       </c>
       <c r="G145" s="3">
-        <v>200</v>
+        <v>21474</v>
       </c>
       <c r="H145" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I145" s="3">
         <v>1</v>
@@ -13467,16 +13422,16 @@
         <v>0</v>
       </c>
       <c r="E146" s="3">
-        <v>100</v>
+        <v>16000</v>
       </c>
       <c r="F146" s="3">
         <v>0</v>
       </c>
       <c r="G146" s="3">
-        <v>200</v>
+        <v>24000</v>
       </c>
       <c r="H146" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I146" s="3">
         <v>1</v>
@@ -13529,16 +13484,16 @@
         <v>0</v>
       </c>
       <c r="E147" s="3">
-        <v>100</v>
+        <v>17684</v>
       </c>
       <c r="F147" s="3">
         <v>0</v>
       </c>
       <c r="G147" s="3">
-        <v>200</v>
+        <v>26526</v>
       </c>
       <c r="H147" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I147" s="3">
         <v>1</v>
@@ -13591,16 +13546,16 @@
         <v>0</v>
       </c>
       <c r="E148" s="3">
-        <v>100</v>
+        <v>20210</v>
       </c>
       <c r="F148" s="3">
         <v>0</v>
       </c>
       <c r="G148" s="3">
-        <v>200</v>
+        <v>30316</v>
       </c>
       <c r="H148" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I148" s="3">
         <v>1</v>
@@ -13653,16 +13608,16 @@
         <v>0</v>
       </c>
       <c r="E149" s="3">
-        <v>100</v>
+        <v>23579</v>
       </c>
       <c r="F149" s="3">
         <v>0</v>
       </c>
       <c r="G149" s="3">
-        <v>200</v>
+        <v>35369</v>
       </c>
       <c r="H149" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I149" s="3">
         <v>1</v>
@@ -13715,16 +13670,16 @@
         <v>0</v>
       </c>
       <c r="E150" s="3">
-        <v>100</v>
+        <v>26947</v>
       </c>
       <c r="F150" s="3">
         <v>0</v>
       </c>
       <c r="G150" s="3">
-        <v>200</v>
+        <v>40421</v>
       </c>
       <c r="H150" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I150" s="3">
         <v>1</v>
@@ -13777,16 +13732,16 @@
         <v>0</v>
       </c>
       <c r="E151" s="3">
-        <v>100</v>
+        <v>30316</v>
       </c>
       <c r="F151" s="3">
         <v>0</v>
       </c>
       <c r="G151" s="3">
-        <v>200</v>
+        <v>45474</v>
       </c>
       <c r="H151" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I151" s="3">
         <v>1</v>
@@ -13839,16 +13794,16 @@
         <v>0</v>
       </c>
       <c r="E152" s="3">
-        <v>100</v>
+        <v>33684</v>
       </c>
       <c r="F152" s="3">
         <v>0</v>
       </c>
       <c r="G152" s="3">
-        <v>200</v>
+        <v>50526</v>
       </c>
       <c r="H152" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I152" s="3">
         <v>1</v>
@@ -13901,16 +13856,16 @@
         <v>0</v>
       </c>
       <c r="E153" s="3">
-        <v>100</v>
+        <v>42106</v>
       </c>
       <c r="F153" s="3">
         <v>0</v>
       </c>
       <c r="G153" s="3">
-        <v>200</v>
+        <v>63158</v>
       </c>
       <c r="H153" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I153" s="3">
         <v>1</v>
@@ -13963,16 +13918,16 @@
         <v>0</v>
       </c>
       <c r="E154" s="3">
-        <v>100</v>
+        <v>50526</v>
       </c>
       <c r="F154" s="3">
         <v>0</v>
       </c>
       <c r="G154" s="3">
-        <v>200</v>
+        <v>75790</v>
       </c>
       <c r="H154" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I154" s="3">
         <v>1</v>
@@ -14025,16 +13980,16 @@
         <v>0</v>
       </c>
       <c r="E155" s="3">
-        <v>100</v>
+        <v>67369</v>
       </c>
       <c r="F155" s="3">
         <v>0</v>
       </c>
       <c r="G155" s="3">
-        <v>200</v>
+        <v>101053</v>
       </c>
       <c r="H155" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I155" s="3">
         <v>1</v>
@@ -14087,16 +14042,16 @@
         <v>0</v>
       </c>
       <c r="E156" s="3">
-        <v>100</v>
+        <v>84210</v>
       </c>
       <c r="F156" s="3">
         <v>0</v>
       </c>
       <c r="G156" s="3">
-        <v>200</v>
+        <v>126316</v>
       </c>
       <c r="H156" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I156" s="3">
         <v>1</v>
@@ -14149,16 +14104,16 @@
         <v>0</v>
       </c>
       <c r="E157" s="3">
-        <v>100</v>
+        <v>101053</v>
       </c>
       <c r="F157" s="3">
         <v>0</v>
       </c>
       <c r="G157" s="3">
-        <v>200</v>
+        <v>151579</v>
       </c>
       <c r="H157" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I157" s="3">
         <v>1</v>
@@ -14211,16 +14166,16 @@
         <v>0</v>
       </c>
       <c r="E158" s="3">
-        <v>100</v>
+        <v>117894</v>
       </c>
       <c r="F158" s="3">
         <v>0</v>
       </c>
       <c r="G158" s="3">
-        <v>200</v>
+        <v>176842</v>
       </c>
       <c r="H158" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I158" s="3">
         <v>1</v>
@@ -14273,16 +14228,16 @@
         <v>0</v>
       </c>
       <c r="E159" s="3">
-        <v>100</v>
+        <v>134737</v>
       </c>
       <c r="F159" s="3">
         <v>0</v>
       </c>
       <c r="G159" s="3">
-        <v>200</v>
+        <v>202105</v>
       </c>
       <c r="H159" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I159" s="3">
         <v>1</v>
@@ -14335,16 +14290,16 @@
         <v>0</v>
       </c>
       <c r="E160" s="3">
-        <v>100</v>
+        <v>421</v>
       </c>
       <c r="F160" s="3">
         <v>0</v>
       </c>
       <c r="G160" s="3">
-        <v>200</v>
+        <v>631</v>
       </c>
       <c r="H160" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I160" s="3">
         <v>1</v>
@@ -14397,16 +14352,16 @@
         <v>0</v>
       </c>
       <c r="E161" s="3">
-        <v>100</v>
+        <v>631</v>
       </c>
       <c r="F161" s="3">
         <v>0</v>
       </c>
       <c r="G161" s="3">
-        <v>200</v>
+        <v>947</v>
       </c>
       <c r="H161" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I161" s="3">
         <v>1</v>
@@ -14459,16 +14414,16 @@
         <v>0</v>
       </c>
       <c r="E162" s="3">
-        <v>100</v>
+        <v>842</v>
       </c>
       <c r="F162" s="3">
         <v>0</v>
       </c>
       <c r="G162" s="3">
-        <v>200</v>
+        <v>1264</v>
       </c>
       <c r="H162" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I162" s="3">
         <v>1</v>
@@ -14521,16 +14476,16 @@
         <v>0</v>
       </c>
       <c r="E163" s="3">
-        <v>100</v>
+        <v>969</v>
       </c>
       <c r="F163" s="3">
         <v>0</v>
       </c>
       <c r="G163" s="3">
-        <v>200</v>
+        <v>1453</v>
       </c>
       <c r="H163" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I163" s="3">
         <v>1</v>
@@ -14583,16 +14538,16 @@
         <v>0</v>
       </c>
       <c r="E164" s="3">
-        <v>100</v>
+        <v>1094</v>
       </c>
       <c r="F164" s="3">
         <v>0</v>
       </c>
       <c r="G164" s="3">
-        <v>200</v>
+        <v>1642</v>
       </c>
       <c r="H164" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I164" s="3">
         <v>1</v>
@@ -14645,16 +14600,16 @@
         <v>0</v>
       </c>
       <c r="E165" s="3">
-        <v>100</v>
+        <v>1263</v>
       </c>
       <c r="F165" s="3">
         <v>0</v>
       </c>
       <c r="G165" s="3">
-        <v>200</v>
+        <v>1895</v>
       </c>
       <c r="H165" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I165" s="3">
         <v>1</v>
@@ -14707,16 +14662,16 @@
         <v>0</v>
       </c>
       <c r="E166" s="3">
-        <v>100</v>
+        <v>1390</v>
       </c>
       <c r="F166" s="3">
         <v>0</v>
       </c>
       <c r="G166" s="3">
-        <v>200</v>
+        <v>2084</v>
       </c>
       <c r="H166" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I166" s="3">
         <v>1</v>
@@ -14769,16 +14724,16 @@
         <v>0</v>
       </c>
       <c r="E167" s="3">
-        <v>100</v>
+        <v>1516</v>
       </c>
       <c r="F167" s="3">
         <v>0</v>
       </c>
       <c r="G167" s="3">
-        <v>200</v>
+        <v>2274</v>
       </c>
       <c r="H167" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I167" s="3">
         <v>1</v>
@@ -14831,16 +14786,16 @@
         <v>0</v>
       </c>
       <c r="E168" s="3">
-        <v>100</v>
+        <v>1684</v>
       </c>
       <c r="F168" s="3">
         <v>0</v>
       </c>
       <c r="G168" s="3">
-        <v>200</v>
+        <v>2526</v>
       </c>
       <c r="H168" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I168" s="3">
         <v>1</v>
@@ -14893,16 +14848,16 @@
         <v>0</v>
       </c>
       <c r="E169" s="3">
-        <v>100</v>
+        <v>1894</v>
       </c>
       <c r="F169" s="3">
         <v>0</v>
       </c>
       <c r="G169" s="3">
-        <v>200</v>
+        <v>2842</v>
       </c>
       <c r="H169" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I169" s="3">
         <v>1</v>
@@ -14955,16 +14910,16 @@
         <v>0</v>
       </c>
       <c r="E170" s="3">
-        <v>100</v>
+        <v>2316</v>
       </c>
       <c r="F170" s="3">
         <v>0</v>
       </c>
       <c r="G170" s="3">
-        <v>200</v>
+        <v>3474</v>
       </c>
       <c r="H170" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I170" s="3">
         <v>1</v>
@@ -15017,16 +14972,16 @@
         <v>0</v>
       </c>
       <c r="E171" s="3">
-        <v>100</v>
+        <v>2526</v>
       </c>
       <c r="F171" s="3">
         <v>0</v>
       </c>
       <c r="G171" s="3">
-        <v>200</v>
+        <v>3790</v>
       </c>
       <c r="H171" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I171" s="3">
         <v>1</v>
@@ -15079,16 +15034,16 @@
         <v>0</v>
       </c>
       <c r="E172" s="3">
-        <v>100</v>
+        <v>2947</v>
       </c>
       <c r="F172" s="3">
         <v>0</v>
       </c>
       <c r="G172" s="3">
-        <v>200</v>
+        <v>4421</v>
       </c>
       <c r="H172" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I172" s="3">
         <v>1</v>
@@ -15141,16 +15096,16 @@
         <v>0</v>
       </c>
       <c r="E173" s="3">
-        <v>100</v>
+        <v>3369</v>
       </c>
       <c r="F173" s="3">
         <v>0</v>
       </c>
       <c r="G173" s="3">
-        <v>200</v>
+        <v>5053</v>
       </c>
       <c r="H173" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I173" s="3">
         <v>1</v>
@@ -15203,16 +15158,16 @@
         <v>0</v>
       </c>
       <c r="E174" s="3">
-        <v>100</v>
+        <v>3790</v>
       </c>
       <c r="F174" s="3">
         <v>0</v>
       </c>
       <c r="G174" s="3">
-        <v>200</v>
+        <v>5684</v>
       </c>
       <c r="H174" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I174" s="3">
         <v>1</v>
@@ -15265,16 +15220,16 @@
         <v>0</v>
       </c>
       <c r="E175" s="3">
-        <v>100</v>
+        <v>4210</v>
       </c>
       <c r="F175" s="3">
         <v>0</v>
       </c>
       <c r="G175" s="3">
-        <v>200</v>
+        <v>6316</v>
       </c>
       <c r="H175" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I175" s="3">
         <v>1</v>
@@ -15327,16 +15282,16 @@
         <v>0</v>
       </c>
       <c r="E176" s="3">
-        <v>100</v>
+        <v>6316</v>
       </c>
       <c r="F176" s="3">
         <v>0</v>
       </c>
       <c r="G176" s="3">
-        <v>200</v>
+        <v>9474</v>
       </c>
       <c r="H176" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I176" s="3">
         <v>1</v>
@@ -15389,16 +15344,16 @@
         <v>0</v>
       </c>
       <c r="E177" s="3">
-        <v>100</v>
+        <v>7579</v>
       </c>
       <c r="F177" s="3">
         <v>0</v>
       </c>
       <c r="G177" s="3">
-        <v>200</v>
+        <v>11369</v>
       </c>
       <c r="H177" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I177" s="3">
         <v>1</v>
@@ -15451,16 +15406,16 @@
         <v>0</v>
       </c>
       <c r="E178" s="3">
-        <v>100</v>
+        <v>9263</v>
       </c>
       <c r="F178" s="3">
         <v>0</v>
       </c>
       <c r="G178" s="3">
-        <v>200</v>
+        <v>13895</v>
       </c>
       <c r="H178" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I178" s="3">
         <v>1</v>
@@ -15513,16 +15468,16 @@
         <v>0</v>
       </c>
       <c r="E179" s="3">
-        <v>100</v>
+        <v>12631</v>
       </c>
       <c r="F179" s="3">
         <v>0</v>
       </c>
       <c r="G179" s="3">
-        <v>200</v>
+        <v>18947</v>
       </c>
       <c r="H179" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I179" s="3">
         <v>1</v>
@@ -15575,16 +15530,16 @@
         <v>0</v>
       </c>
       <c r="E180" s="3">
-        <v>100</v>
+        <v>15158</v>
       </c>
       <c r="F180" s="3">
         <v>0</v>
       </c>
       <c r="G180" s="3">
-        <v>200</v>
+        <v>22736</v>
       </c>
       <c r="H180" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I180" s="3">
         <v>1</v>
@@ -15637,16 +15592,16 @@
         <v>0</v>
       </c>
       <c r="E181" s="3">
-        <v>100</v>
+        <v>19369</v>
       </c>
       <c r="F181" s="3">
         <v>0</v>
       </c>
       <c r="G181" s="3">
-        <v>200</v>
+        <v>29053</v>
       </c>
       <c r="H181" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I181" s="3">
         <v>1</v>
@@ -15699,16 +15654,16 @@
         <v>0</v>
       </c>
       <c r="E182" s="3">
-        <v>100</v>
+        <v>23158</v>
       </c>
       <c r="F182" s="3">
         <v>0</v>
       </c>
       <c r="G182" s="3">
-        <v>200</v>
+        <v>34736</v>
       </c>
       <c r="H182" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I182" s="3">
         <v>1</v>
@@ -15761,16 +15716,16 @@
         <v>0</v>
       </c>
       <c r="E183" s="3">
-        <v>100</v>
+        <v>29474</v>
       </c>
       <c r="F183" s="3">
         <v>0</v>
       </c>
       <c r="G183" s="3">
-        <v>200</v>
+        <v>44210</v>
       </c>
       <c r="H183" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I183" s="3">
         <v>1</v>
@@ -15823,16 +15778,16 @@
         <v>0</v>
       </c>
       <c r="E184" s="3">
-        <v>100</v>
+        <v>35790</v>
       </c>
       <c r="F184" s="3">
         <v>0</v>
       </c>
       <c r="G184" s="3">
-        <v>200</v>
+        <v>53684</v>
       </c>
       <c r="H184" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I184" s="3">
         <v>1</v>
@@ -15885,16 +15840,16 @@
         <v>0</v>
       </c>
       <c r="E185" s="3">
-        <v>100</v>
+        <v>40000</v>
       </c>
       <c r="F185" s="3">
         <v>0</v>
       </c>
       <c r="G185" s="3">
-        <v>200</v>
+        <v>60000</v>
       </c>
       <c r="H185" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I185" s="3">
         <v>1</v>
@@ -15947,16 +15902,16 @@
         <v>0</v>
       </c>
       <c r="E186" s="3">
-        <v>100</v>
+        <v>44210</v>
       </c>
       <c r="F186" s="3">
         <v>0</v>
       </c>
       <c r="G186" s="3">
-        <v>200</v>
+        <v>66316</v>
       </c>
       <c r="H186" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I186" s="3">
         <v>1</v>
@@ -16009,16 +15964,16 @@
         <v>0</v>
       </c>
       <c r="E187" s="3">
-        <v>100</v>
+        <v>50526</v>
       </c>
       <c r="F187" s="3">
         <v>0</v>
       </c>
       <c r="G187" s="3">
-        <v>200</v>
+        <v>75790</v>
       </c>
       <c r="H187" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I187" s="3">
         <v>1</v>
@@ -16071,16 +16026,16 @@
         <v>0</v>
       </c>
       <c r="E188" s="3">
-        <v>100</v>
+        <v>58947</v>
       </c>
       <c r="F188" s="3">
         <v>0</v>
       </c>
       <c r="G188" s="3">
-        <v>200</v>
+        <v>88421</v>
       </c>
       <c r="H188" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I188" s="3">
         <v>1</v>
@@ -16133,16 +16088,16 @@
         <v>0</v>
       </c>
       <c r="E189" s="3">
-        <v>100</v>
+        <v>67369</v>
       </c>
       <c r="F189" s="3">
         <v>0</v>
       </c>
       <c r="G189" s="3">
-        <v>200</v>
+        <v>101053</v>
       </c>
       <c r="H189" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I189" s="3">
         <v>1</v>
@@ -16195,16 +16150,16 @@
         <v>0</v>
       </c>
       <c r="E190" s="3">
-        <v>100</v>
+        <v>75790</v>
       </c>
       <c r="F190" s="3">
         <v>0</v>
       </c>
       <c r="G190" s="3">
-        <v>200</v>
+        <v>113684</v>
       </c>
       <c r="H190" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I190" s="3">
         <v>1</v>
@@ -16257,16 +16212,16 @@
         <v>0</v>
       </c>
       <c r="E191" s="3">
-        <v>100</v>
+        <v>84210</v>
       </c>
       <c r="F191" s="3">
         <v>0</v>
       </c>
       <c r="G191" s="3">
-        <v>200</v>
+        <v>126316</v>
       </c>
       <c r="H191" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I191" s="3">
         <v>1</v>
@@ -16319,16 +16274,16 @@
         <v>0</v>
       </c>
       <c r="E192" s="3">
-        <v>100</v>
+        <v>105263</v>
       </c>
       <c r="F192" s="3">
         <v>0</v>
       </c>
       <c r="G192" s="3">
-        <v>200</v>
+        <v>157895</v>
       </c>
       <c r="H192" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I192" s="3">
         <v>1</v>
@@ -16381,16 +16336,16 @@
         <v>0</v>
       </c>
       <c r="E193" s="3">
-        <v>100</v>
+        <v>126316</v>
       </c>
       <c r="F193" s="3">
         <v>0</v>
       </c>
       <c r="G193" s="3">
-        <v>200</v>
+        <v>189474</v>
       </c>
       <c r="H193" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I193" s="3">
         <v>1</v>
@@ -16443,16 +16398,16 @@
         <v>0</v>
       </c>
       <c r="E194" s="3">
-        <v>100</v>
+        <v>168421</v>
       </c>
       <c r="F194" s="3">
         <v>0</v>
       </c>
       <c r="G194" s="3">
-        <v>200</v>
+        <v>252631</v>
       </c>
       <c r="H194" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I194" s="3">
         <v>1</v>
@@ -16505,16 +16460,16 @@
         <v>0</v>
       </c>
       <c r="E195" s="3">
-        <v>100</v>
+        <v>210526</v>
       </c>
       <c r="F195" s="3">
         <v>0</v>
       </c>
       <c r="G195" s="3">
-        <v>200</v>
+        <v>315790</v>
       </c>
       <c r="H195" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I195" s="3">
         <v>1</v>
@@ -16567,16 +16522,16 @@
         <v>0</v>
       </c>
       <c r="E196" s="3">
-        <v>100</v>
+        <v>252631</v>
       </c>
       <c r="F196" s="3">
         <v>0</v>
       </c>
       <c r="G196" s="3">
-        <v>200</v>
+        <v>378947</v>
       </c>
       <c r="H196" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I196" s="3">
         <v>1</v>
@@ -16629,16 +16584,16 @@
         <v>0</v>
       </c>
       <c r="E197" s="3">
-        <v>100</v>
+        <v>294737</v>
       </c>
       <c r="F197" s="3">
         <v>0</v>
       </c>
       <c r="G197" s="3">
-        <v>200</v>
+        <v>442105</v>
       </c>
       <c r="H197" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I197" s="3">
         <v>1</v>
@@ -16691,16 +16646,16 @@
         <v>0</v>
       </c>
       <c r="E198" s="3">
-        <v>100</v>
+        <v>336842</v>
       </c>
       <c r="F198" s="3">
         <v>0</v>
       </c>
       <c r="G198" s="3">
-        <v>200</v>
+        <v>505264</v>
       </c>
       <c r="H198" s="3">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I198" s="3">
         <v>1</v>
@@ -16753,16 +16708,16 @@
         <v>0</v>
       </c>
       <c r="E199" s="3">
-        <v>100</v>
+        <v>889</v>
       </c>
       <c r="F199" s="3">
         <v>0</v>
       </c>
       <c r="G199" s="3">
-        <v>200</v>
+        <v>1333</v>
       </c>
       <c r="H199" s="3">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="I199" s="3">
         <v>1</v>
@@ -16815,16 +16770,16 @@
         <v>0</v>
       </c>
       <c r="E200" s="3">
-        <v>100</v>
+        <v>1334</v>
       </c>
       <c r="F200" s="3">
         <v>0</v>
       </c>
       <c r="G200" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="H200" s="3">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="I200" s="3">
         <v>1</v>
@@ -16877,16 +16832,16 @@
         <v>0</v>
       </c>
       <c r="E201" s="3">
-        <v>100</v>
+        <v>1778</v>
       </c>
       <c r="F201" s="3">
         <v>0</v>
       </c>
       <c r="G201" s="3">
-        <v>200</v>
+        <v>2666</v>
       </c>
       <c r="H201" s="3">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="I201" s="3">
         <v>1</v>
@@ -16939,16 +16894,16 @@
         <v>0</v>
       </c>
       <c r="E202" s="3">
-        <v>100</v>
+        <v>2045</v>
       </c>
       <c r="F202" s="3">
         <v>0</v>
       </c>
       <c r="G202" s="3">
-        <v>200</v>
+        <v>3067</v>
       </c>
       <c r="H202" s="3">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="I202" s="3">
         <v>1</v>
@@ -17001,16 +16956,16 @@
         <v>0</v>
       </c>
       <c r="E203" s="3">
-        <v>100</v>
+        <v>2311</v>
       </c>
       <c r="F203" s="3">
         <v>0</v>
       </c>
       <c r="G203" s="3">
-        <v>200</v>
+        <v>3467</v>
       </c>
       <c r="H203" s="3">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="I203" s="3">
         <v>1</v>
@@ -17063,16 +17018,16 @@
         <v>0</v>
       </c>
       <c r="E204" s="3">
-        <v>100</v>
+        <v>2666</v>
       </c>
       <c r="F204" s="3">
         <v>0</v>
       </c>
       <c r="G204" s="3">
-        <v>200</v>
+        <v>4000</v>
       </c>
       <c r="H204" s="3">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="I204" s="3">
         <v>1</v>
@@ -17125,16 +17080,16 @@
         <v>0</v>
       </c>
       <c r="E205" s="3">
-        <v>100</v>
+        <v>2934</v>
       </c>
       <c r="F205" s="3">
         <v>0</v>
       </c>
       <c r="G205" s="3">
-        <v>200</v>
+        <v>4400</v>
       </c>
       <c r="H205" s="3">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="I205" s="3">
         <v>1</v>
@@ -17187,16 +17142,16 @@
         <v>0</v>
       </c>
       <c r="E206" s="3">
-        <v>100</v>
+        <v>3200</v>
       </c>
       <c r="F206" s="3">
         <v>0</v>
       </c>
       <c r="G206" s="3">
-        <v>200</v>
+        <v>4800</v>
       </c>
       <c r="H206" s="3">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="I206" s="3">
         <v>1</v>
@@ -17249,16 +17204,16 @@
         <v>0</v>
       </c>
       <c r="E207" s="3">
-        <v>100</v>
+        <v>3555</v>
       </c>
       <c r="F207" s="3">
         <v>0</v>
       </c>
       <c r="G207" s="3">
-        <v>200</v>
+        <v>5333</v>
       </c>
       <c r="H207" s="3">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="I207" s="3">
         <v>1</v>
@@ -17311,16 +17266,16 @@
         <v>0</v>
       </c>
       <c r="E208" s="3">
-        <v>100</v>
+        <v>4000</v>
       </c>
       <c r="F208" s="3">
         <v>0</v>
       </c>
       <c r="G208" s="3">
-        <v>200</v>
+        <v>6000</v>
       </c>
       <c r="H208" s="3">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="I208" s="3">
         <v>1</v>
@@ -17373,16 +17328,16 @@
         <v>0</v>
       </c>
       <c r="E209" s="3">
-        <v>100</v>
+        <v>4889</v>
       </c>
       <c r="F209" s="3">
         <v>0</v>
       </c>
       <c r="G209" s="3">
-        <v>200</v>
+        <v>7333</v>
       </c>
       <c r="H209" s="3">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="I209" s="3">
         <v>1</v>
@@ -17435,16 +17390,16 @@
         <v>0</v>
       </c>
       <c r="E210" s="3">
-        <v>100</v>
+        <v>5334</v>
       </c>
       <c r="F210" s="3">
         <v>0</v>
       </c>
       <c r="G210" s="3">
-        <v>200</v>
+        <v>8000</v>
       </c>
       <c r="H210" s="3">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="I210" s="3">
         <v>1</v>
@@ -17497,16 +17452,16 @@
         <v>0</v>
       </c>
       <c r="E211" s="3">
-        <v>100</v>
+        <v>6222</v>
       </c>
       <c r="F211" s="3">
         <v>0</v>
       </c>
       <c r="G211" s="3">
-        <v>200</v>
+        <v>9334</v>
       </c>
       <c r="H211" s="3">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="I211" s="3">
         <v>1</v>
@@ -17559,16 +17514,16 @@
         <v>0</v>
       </c>
       <c r="E212" s="3">
-        <v>100</v>
+        <v>7111</v>
       </c>
       <c r="F212" s="3">
         <v>0</v>
       </c>
       <c r="G212" s="3">
-        <v>200</v>
+        <v>10667</v>
       </c>
       <c r="H212" s="3">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="I212" s="3">
         <v>1</v>
@@ -17621,16 +17576,16 @@
         <v>0</v>
       </c>
       <c r="E213" s="3">
-        <v>100</v>
+        <v>8000</v>
       </c>
       <c r="F213" s="3">
         <v>0</v>
       </c>
       <c r="G213" s="3">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="H213" s="3">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="I213" s="3">
         <v>1</v>
@@ -17683,16 +17638,16 @@
         <v>0</v>
       </c>
       <c r="E214" s="3">
-        <v>100</v>
+        <v>8889</v>
       </c>
       <c r="F214" s="3">
         <v>0</v>
       </c>
       <c r="G214" s="3">
-        <v>200</v>
+        <v>13333</v>
       </c>
       <c r="H214" s="3">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="I214" s="3">
         <v>1</v>
@@ -17745,16 +17700,16 @@
         <v>0</v>
       </c>
       <c r="E215" s="3">
-        <v>100</v>
+        <v>13334</v>
       </c>
       <c r="F215" s="3">
         <v>0</v>
       </c>
       <c r="G215" s="3">
-        <v>200</v>
+        <v>20000</v>
       </c>
       <c r="H215" s="3">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="I215" s="3">
         <v>1</v>
@@ -17807,16 +17762,16 @@
         <v>0</v>
       </c>
       <c r="E216" s="3">
-        <v>100</v>
+        <v>16000</v>
       </c>
       <c r="F216" s="3">
         <v>0</v>
       </c>
       <c r="G216" s="3">
-        <v>200</v>
+        <v>24000</v>
       </c>
       <c r="H216" s="3">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="I216" s="3">
         <v>1</v>
@@ -17869,16 +17824,16 @@
         <v>0</v>
       </c>
       <c r="E217" s="3">
-        <v>100</v>
+        <v>19555</v>
       </c>
       <c r="F217" s="3">
         <v>0</v>
       </c>
       <c r="G217" s="3">
-        <v>200</v>
+        <v>29333</v>
       </c>
       <c r="H217" s="3">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="I217" s="3">
         <v>1</v>
@@ -17931,16 +17886,16 @@
         <v>0</v>
       </c>
       <c r="E218" s="3">
-        <v>100</v>
+        <v>26666</v>
       </c>
       <c r="F218" s="3">
         <v>0</v>
       </c>
       <c r="G218" s="3">
-        <v>200</v>
+        <v>40000</v>
       </c>
       <c r="H218" s="3">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="I218" s="3">
         <v>1</v>
@@ -17993,16 +17948,16 @@
         <v>0</v>
       </c>
       <c r="E219" s="3">
-        <v>100</v>
+        <v>32000</v>
       </c>
       <c r="F219" s="3">
         <v>0</v>
       </c>
       <c r="G219" s="3">
-        <v>200</v>
+        <v>48000</v>
       </c>
       <c r="H219" s="3">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="I219" s="3">
         <v>1</v>
@@ -18055,16 +18010,16 @@
         <v>0</v>
       </c>
       <c r="E220" s="3">
-        <v>100</v>
+        <v>40889</v>
       </c>
       <c r="F220" s="3">
         <v>0</v>
       </c>
       <c r="G220" s="3">
-        <v>200</v>
+        <v>61333</v>
       </c>
       <c r="H220" s="3">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="I220" s="3">
         <v>1</v>
@@ -18117,16 +18072,16 @@
         <v>0</v>
       </c>
       <c r="E221" s="3">
-        <v>100</v>
+        <v>48889</v>
       </c>
       <c r="F221" s="3">
         <v>0</v>
       </c>
       <c r="G221" s="3">
-        <v>200</v>
+        <v>73333</v>
       </c>
       <c r="H221" s="3">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="I221" s="3">
         <v>1</v>
@@ -18179,16 +18134,16 @@
         <v>0</v>
       </c>
       <c r="E222" s="3">
-        <v>100</v>
+        <v>62222</v>
       </c>
       <c r="F222" s="3">
         <v>0</v>
       </c>
       <c r="G222" s="3">
-        <v>200</v>
+        <v>93334</v>
       </c>
       <c r="H222" s="3">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="I222" s="3">
         <v>1</v>
@@ -18241,16 +18196,16 @@
         <v>0</v>
       </c>
       <c r="E223" s="3">
-        <v>100</v>
+        <v>75555</v>
       </c>
       <c r="F223" s="3">
         <v>0</v>
       </c>
       <c r="G223" s="3">
-        <v>200</v>
+        <v>113333</v>
       </c>
       <c r="H223" s="3">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="I223" s="3">
         <v>1</v>
@@ -18303,16 +18258,16 @@
         <v>0</v>
       </c>
       <c r="E224" s="3">
-        <v>100</v>
+        <v>84445</v>
       </c>
       <c r="F224" s="3">
         <v>0</v>
       </c>
       <c r="G224" s="3">
-        <v>200</v>
+        <v>126667</v>
       </c>
       <c r="H224" s="3">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="I224" s="3">
         <v>1</v>
@@ -18365,16 +18320,16 @@
         <v>0</v>
       </c>
       <c r="E225" s="3">
-        <v>100</v>
+        <v>93334</v>
       </c>
       <c r="F225" s="3">
         <v>0</v>
       </c>
       <c r="G225" s="3">
-        <v>200</v>
+        <v>140000</v>
       </c>
       <c r="H225" s="3">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="I225" s="3">
         <v>1</v>
@@ -18427,16 +18382,16 @@
         <v>0</v>
       </c>
       <c r="E226" s="3">
-        <v>100</v>
+        <v>106666</v>
       </c>
       <c r="F226" s="3">
         <v>0</v>
       </c>
       <c r="G226" s="3">
-        <v>200</v>
+        <v>160000</v>
       </c>
       <c r="H226" s="3">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="I226" s="3">
         <v>1</v>
@@ -18489,16 +18444,16 @@
         <v>0</v>
       </c>
       <c r="E227" s="3">
-        <v>100</v>
+        <v>124445</v>
       </c>
       <c r="F227" s="3">
         <v>0</v>
       </c>
       <c r="G227" s="3">
-        <v>200</v>
+        <v>186667</v>
       </c>
       <c r="H227" s="3">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="I227" s="3">
         <v>1</v>
@@ -18551,16 +18506,16 @@
         <v>0</v>
       </c>
       <c r="E228" s="3">
-        <v>100</v>
+        <v>142222</v>
       </c>
       <c r="F228" s="3">
         <v>0</v>
       </c>
       <c r="G228" s="3">
-        <v>200</v>
+        <v>213334</v>
       </c>
       <c r="H228" s="3">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="I228" s="3">
         <v>1</v>
@@ -18613,16 +18568,16 @@
         <v>0</v>
       </c>
       <c r="E229" s="3">
-        <v>100</v>
+        <v>160000</v>
       </c>
       <c r="F229" s="3">
         <v>0</v>
       </c>
       <c r="G229" s="3">
-        <v>200</v>
+        <v>240000</v>
       </c>
       <c r="H229" s="3">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="I229" s="3">
         <v>1</v>
@@ -18675,16 +18630,16 @@
         <v>0</v>
       </c>
       <c r="E230" s="3">
-        <v>100</v>
+        <v>177778</v>
       </c>
       <c r="F230" s="3">
         <v>0</v>
       </c>
       <c r="G230" s="3">
-        <v>200</v>
+        <v>266666</v>
       </c>
       <c r="H230" s="3">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="I230" s="3">
         <v>1</v>
@@ -18737,16 +18692,16 @@
         <v>0</v>
       </c>
       <c r="E231" s="3">
-        <v>100</v>
+        <v>222222</v>
       </c>
       <c r="F231" s="3">
         <v>0</v>
       </c>
       <c r="G231" s="3">
-        <v>200</v>
+        <v>333334</v>
       </c>
       <c r="H231" s="3">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="I231" s="3">
         <v>1</v>
@@ -18799,16 +18754,16 @@
         <v>0</v>
       </c>
       <c r="E232" s="3">
-        <v>100</v>
+        <v>266666</v>
       </c>
       <c r="F232" s="3">
         <v>0</v>
       </c>
       <c r="G232" s="3">
-        <v>200</v>
+        <v>400000</v>
       </c>
       <c r="H232" s="3">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="I232" s="3">
         <v>1</v>
@@ -18861,16 +18816,16 @@
         <v>0</v>
       </c>
       <c r="E233" s="3">
-        <v>100</v>
+        <v>355555</v>
       </c>
       <c r="F233" s="3">
         <v>0</v>
       </c>
       <c r="G233" s="3">
-        <v>200</v>
+        <v>533333</v>
       </c>
       <c r="H233" s="3">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="I233" s="3">
         <v>1</v>
@@ -18923,16 +18878,16 @@
         <v>0</v>
       </c>
       <c r="E234" s="3">
-        <v>100</v>
+        <v>444445</v>
       </c>
       <c r="F234" s="3">
         <v>0</v>
       </c>
       <c r="G234" s="3">
-        <v>200</v>
+        <v>666667</v>
       </c>
       <c r="H234" s="3">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="I234" s="3">
         <v>1</v>
@@ -18985,16 +18940,16 @@
         <v>0</v>
       </c>
       <c r="E235" s="3">
-        <v>100</v>
+        <v>533334</v>
       </c>
       <c r="F235" s="3">
         <v>0</v>
       </c>
       <c r="G235" s="3">
-        <v>200</v>
+        <v>800000</v>
       </c>
       <c r="H235" s="3">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="I235" s="3">
         <v>1</v>
@@ -19047,16 +19002,16 @@
         <v>0</v>
       </c>
       <c r="E236" s="3">
-        <v>100</v>
+        <v>622222</v>
       </c>
       <c r="F236" s="3">
         <v>0</v>
       </c>
       <c r="G236" s="3">
-        <v>200</v>
+        <v>933334</v>
       </c>
       <c r="H236" s="3">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="I236" s="3">
         <v>1</v>
@@ -19109,16 +19064,16 @@
         <v>0</v>
       </c>
       <c r="E237" s="3">
-        <v>100</v>
+        <v>711111</v>
       </c>
       <c r="F237" s="3">
         <v>0</v>
       </c>
       <c r="G237" s="3">
-        <v>200</v>
+        <v>1066667</v>
       </c>
       <c r="H237" s="3">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="I237" s="3">
         <v>1</v>

--- a/Excel/monster.怪物.xlsx
+++ b/Excel/monster.怪物.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242FF84E-FF8B-41EB-AE89-F372912DD071}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DBF2EE-199C-4C83-80CB-EAE8DA459E92}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -311,7 +311,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="234">
   <si>
     <t>sheet名</t>
   </si>
@@ -1659,22 +1659,6 @@
   </si>
   <si>
     <t>Clip2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>mon"&amp;</t>
-    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3122,8 +3106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3533D82-F7C1-4426-8069-7FF1D31AC5C8}">
   <dimension ref="A1:AA11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3425,7 +3409,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="3">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>139</v>
@@ -3472,7 +3456,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="3">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>140</v>
@@ -3523,7 +3507,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="3">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>140</v>
@@ -3578,7 +3562,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="3">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>140</v>
@@ -3637,7 +3621,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="3">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>140</v>
@@ -3700,7 +3684,7 @@
         <v>1.33</v>
       </c>
       <c r="G9" s="3">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>140</v>
@@ -3751,7 +3735,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="3">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>140</v>
@@ -3810,7 +3794,7 @@
         <v>1.17</v>
       </c>
       <c r="G11" s="3">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>140</v>
@@ -4312,7 +4296,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF36D8AE-75A8-46BF-880B-B77EF97ECDB9}">
   <dimension ref="A1:AD237"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D189" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>

--- a/Excel/monster.怪物.xlsx
+++ b/Excel/monster.怪物.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5B7917-4665-4FB7-919D-F38813305F73}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC89E06-1004-478F-BB02-160D510DD3E8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4313,10 +4313,10 @@
   <dimension ref="A1:AD495"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D390" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D312" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H414" sqref="H414:H495"/>
+      <selection pane="bottomRight" activeCell="I336" sqref="I336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/monster.怪物.xlsx
+++ b/Excel/monster.怪物.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC89E06-1004-478F-BB02-160D510DD3E8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5B7917-4665-4FB7-919D-F38813305F73}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4313,10 +4313,10 @@
   <dimension ref="A1:AD495"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D312" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D390" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I336" sqref="I336"/>
+      <selection pane="bottomRight" activeCell="H414" sqref="H414:H495"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/monster.怪物.xlsx
+++ b/Excel/monster.怪物.xlsx
@@ -1345,12 +1345,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1373,25 +1373,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1402,8 +1386,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1416,67 +1409,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1490,8 +1448,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1505,25 +1514,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1536,30 +1536,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1574,19 +1567,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149998474074526"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1598,25 +1591,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1634,7 +1627,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.149998474074526"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1646,13 +1741,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1664,19 +1759,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFF6600"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1688,103 +1771,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34934537797174"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF6600"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1809,6 +1796,45 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1852,36 +1878,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1893,8 +1889,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1910,189 +1908,178 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="1">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="1" applyFont="0">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="1" applyFont="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -4563,11 +4550,11 @@
   <dimension ref="A1:AD495"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D148" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D487" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I249" sqref="I249"/>
+      <selection pane="bottomRight" activeCell="J517" sqref="J517"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -15048,10 +15035,10 @@
         <v>187</v>
       </c>
       <c r="H168" s="3">
-        <v>0.035</v>
-      </c>
-      <c r="I168" s="3">
-        <v>1</v>
+        <v>0.0375</v>
+      </c>
+      <c r="I168" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="J168" s="3">
         <v>0</v>
@@ -15110,10 +15097,10 @@
         <v>281</v>
       </c>
       <c r="H169" s="3">
-        <v>0.035</v>
-      </c>
-      <c r="I169" s="3">
-        <v>1</v>
+        <v>0.0375</v>
+      </c>
+      <c r="I169" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="J169" s="3">
         <v>0</v>
@@ -15172,10 +15159,10 @@
         <v>374</v>
       </c>
       <c r="H170" s="3">
-        <v>0.035</v>
-      </c>
-      <c r="I170" s="3">
-        <v>1</v>
+        <v>0.0375</v>
+      </c>
+      <c r="I170" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="J170" s="3">
         <v>0</v>
@@ -15234,10 +15221,10 @@
         <v>430</v>
       </c>
       <c r="H171" s="3">
-        <v>0.035</v>
-      </c>
-      <c r="I171" s="3">
-        <v>1</v>
+        <v>0.0375</v>
+      </c>
+      <c r="I171" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="J171" s="3">
         <v>0</v>
@@ -15296,10 +15283,10 @@
         <v>486</v>
       </c>
       <c r="H172" s="3">
-        <v>0.035</v>
-      </c>
-      <c r="I172" s="3">
-        <v>1</v>
+        <v>0.0375</v>
+      </c>
+      <c r="I172" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="J172" s="3">
         <v>0</v>
@@ -15358,10 +15345,10 @@
         <v>562</v>
       </c>
       <c r="H173" s="3">
-        <v>0.035</v>
-      </c>
-      <c r="I173" s="3">
-        <v>1</v>
+        <v>0.0375</v>
+      </c>
+      <c r="I173" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="J173" s="3">
         <v>0</v>
@@ -15420,7 +15407,7 @@
         <v>617</v>
       </c>
       <c r="H174" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I174" s="3">
         <v>1</v>
@@ -15482,7 +15469,7 @@
         <v>673</v>
       </c>
       <c r="H175" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I175" s="3">
         <v>1</v>
@@ -15544,7 +15531,7 @@
         <v>748</v>
       </c>
       <c r="H176" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I176" s="3">
         <v>1</v>
@@ -15606,7 +15593,7 @@
         <v>841</v>
       </c>
       <c r="H177" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I177" s="3">
         <v>1</v>
@@ -15668,7 +15655,7 @@
         <v>1028</v>
       </c>
       <c r="H178" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I178" s="3">
         <v>1</v>
@@ -15730,7 +15717,7 @@
         <v>1122</v>
       </c>
       <c r="H179" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I179" s="3">
         <v>1</v>
@@ -15792,7 +15779,7 @@
         <v>1309</v>
       </c>
       <c r="H180" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I180" s="3">
         <v>1</v>
@@ -15854,10 +15841,10 @@
         <v>1496</v>
       </c>
       <c r="H181" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I181" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J181" s="3">
         <v>0</v>
@@ -15916,7 +15903,7 @@
         <v>1870</v>
       </c>
       <c r="H182" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I182" s="3">
         <v>2</v>
@@ -15978,7 +15965,7 @@
         <v>2244</v>
       </c>
       <c r="H183" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I183" s="3">
         <v>2</v>
@@ -16040,7 +16027,7 @@
         <v>2806</v>
       </c>
       <c r="H184" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I184" s="3">
         <v>2</v>
@@ -16102,7 +16089,7 @@
         <v>3366</v>
       </c>
       <c r="H185" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I185" s="3">
         <v>2</v>
@@ -16164,7 +16151,7 @@
         <v>4115</v>
       </c>
       <c r="H186" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I186" s="3">
         <v>2</v>
@@ -16226,10 +16213,10 @@
         <v>5423</v>
       </c>
       <c r="H187" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I187" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J187" s="3">
         <v>0</v>
@@ -16288,10 +16275,10 @@
         <v>6732</v>
       </c>
       <c r="H188" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I188" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J188" s="3">
         <v>0</v>
@@ -16350,10 +16337,10 @@
         <v>8416</v>
       </c>
       <c r="H189" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I189" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J189" s="3">
         <v>0</v>
@@ -16412,10 +16399,10 @@
         <v>10285</v>
       </c>
       <c r="H190" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I190" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J190" s="3">
         <v>0</v>
@@ -16474,10 +16461,10 @@
         <v>13091</v>
       </c>
       <c r="H191" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I191" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J191" s="3">
         <v>0</v>
@@ -16536,10 +16523,10 @@
         <v>15896</v>
       </c>
       <c r="H192" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I192" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J192" s="3">
         <v>0</v>
@@ -16598,10 +16585,10 @@
         <v>18701</v>
       </c>
       <c r="H193" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I193" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J193" s="3">
         <v>0</v>
@@ -16660,10 +16647,10 @@
         <v>22441</v>
       </c>
       <c r="H194" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I194" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J194" s="3">
         <v>0</v>
@@ -16722,10 +16709,10 @@
         <v>26182</v>
       </c>
       <c r="H195" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I195" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J195" s="3">
         <v>0</v>
@@ -16784,10 +16771,10 @@
         <v>29922</v>
       </c>
       <c r="H196" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I196" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J196" s="3">
         <v>0</v>
@@ -16846,10 +16833,10 @@
         <v>33662</v>
       </c>
       <c r="H197" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I197" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J197" s="3">
         <v>0</v>
@@ -16908,10 +16895,10 @@
         <v>37403</v>
       </c>
       <c r="H198" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I198" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J198" s="3">
         <v>0</v>
@@ -16970,10 +16957,10 @@
         <v>42078</v>
       </c>
       <c r="H199" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I199" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J199" s="3">
         <v>0</v>
@@ -17032,10 +17019,10 @@
         <v>46753</v>
       </c>
       <c r="H200" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I200" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J200" s="3">
         <v>0</v>
@@ -17094,10 +17081,10 @@
         <v>51428</v>
       </c>
       <c r="H201" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I201" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J201" s="3">
         <v>0</v>
@@ -17156,10 +17143,10 @@
         <v>56104</v>
       </c>
       <c r="H202" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I202" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J202" s="3">
         <v>0</v>
@@ -17218,10 +17205,10 @@
         <v>63584</v>
       </c>
       <c r="H203" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I203" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J203" s="3">
         <v>0</v>
@@ -17280,10 +17267,10 @@
         <v>71065</v>
       </c>
       <c r="H204" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I204" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J204" s="3">
         <v>0</v>
@@ -17342,10 +17329,10 @@
         <v>78546</v>
       </c>
       <c r="H205" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I205" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J205" s="3">
         <v>0</v>
@@ -17404,10 +17391,10 @@
         <v>86026</v>
       </c>
       <c r="H206" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I206" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J206" s="3">
         <v>0</v>
@@ -17466,10 +17453,10 @@
         <v>93506</v>
       </c>
       <c r="H207" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I207" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J207" s="3">
         <v>0</v>
@@ -17528,10 +17515,10 @@
         <v>102857</v>
       </c>
       <c r="H208" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I208" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J208" s="3">
         <v>0</v>
@@ -17590,10 +17577,10 @@
         <v>112207</v>
       </c>
       <c r="H209" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I209" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J209" s="3">
         <v>0</v>
@@ -17652,10 +17639,10 @@
         <v>121559</v>
       </c>
       <c r="H210" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I210" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J210" s="3">
         <v>0</v>
@@ -17714,10 +17701,10 @@
         <v>130909</v>
       </c>
       <c r="H211" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I211" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J211" s="3">
         <v>0</v>
@@ -17776,10 +17763,10 @@
         <v>140260</v>
       </c>
       <c r="H212" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I212" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J212" s="3">
         <v>0</v>
@@ -17838,10 +17825,10 @@
         <v>149610</v>
       </c>
       <c r="H213" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I213" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J213" s="3">
         <v>0</v>
@@ -17900,10 +17887,10 @@
         <v>158962</v>
       </c>
       <c r="H214" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I214" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J214" s="3">
         <v>0</v>
@@ -17962,10 +17949,10 @@
         <v>168312</v>
       </c>
       <c r="H215" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I215" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J215" s="3">
         <v>0</v>
@@ -18024,10 +18011,10 @@
         <v>177662</v>
       </c>
       <c r="H216" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I216" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J216" s="3">
         <v>0</v>
@@ -18086,10 +18073,10 @@
         <v>187013</v>
       </c>
       <c r="H217" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I217" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J217" s="3">
         <v>0</v>
@@ -18148,10 +18135,10 @@
         <v>205715</v>
       </c>
       <c r="H218" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I218" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J218" s="3">
         <v>0</v>
@@ -18210,10 +18197,10 @@
         <v>224416</v>
       </c>
       <c r="H219" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I219" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J219" s="3">
         <v>0</v>
@@ -18272,10 +18259,10 @@
         <v>243116</v>
       </c>
       <c r="H220" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I220" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J220" s="3">
         <v>0</v>
@@ -18334,10 +18321,10 @@
         <v>261818</v>
       </c>
       <c r="H221" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I221" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J221" s="3">
         <v>0</v>
@@ -18396,10 +18383,10 @@
         <v>280519</v>
       </c>
       <c r="H222" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I222" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J222" s="3">
         <v>0</v>
@@ -18458,10 +18445,10 @@
         <v>299221</v>
       </c>
       <c r="H223" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I223" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J223" s="3">
         <v>0</v>
@@ -18520,10 +18507,10 @@
         <v>317922</v>
       </c>
       <c r="H224" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I224" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J224" s="3">
         <v>0</v>
@@ -18582,10 +18569,10 @@
         <v>336623</v>
       </c>
       <c r="H225" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I225" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J225" s="3">
         <v>0</v>
@@ -18644,10 +18631,10 @@
         <v>355325</v>
       </c>
       <c r="H226" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I226" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J226" s="3">
         <v>0</v>
@@ -18706,10 +18693,10 @@
         <v>374026</v>
       </c>
       <c r="H227" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I227" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J227" s="3">
         <v>0</v>
@@ -18768,10 +18755,10 @@
         <v>392728</v>
       </c>
       <c r="H228" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I228" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J228" s="3">
         <v>0</v>
@@ -18830,10 +18817,10 @@
         <v>397403</v>
       </c>
       <c r="H229" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I229" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J229" s="3">
         <v>0</v>
@@ -18892,10 +18879,10 @@
         <v>402078</v>
       </c>
       <c r="H230" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I230" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J230" s="3">
         <v>0</v>
@@ -18954,10 +18941,10 @@
         <v>406753</v>
       </c>
       <c r="H231" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I231" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J231" s="3">
         <v>0</v>
@@ -19016,10 +19003,10 @@
         <v>411428</v>
       </c>
       <c r="H232" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I232" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J232" s="3">
         <v>0</v>
@@ -19078,10 +19065,10 @@
         <v>416104</v>
       </c>
       <c r="H233" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I233" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J233" s="3">
         <v>0</v>
@@ -19140,10 +19127,10 @@
         <v>420779</v>
       </c>
       <c r="H234" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I234" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J234" s="3">
         <v>0</v>
@@ -19202,10 +19189,10 @@
         <v>425454</v>
       </c>
       <c r="H235" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I235" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J235" s="3">
         <v>0</v>
@@ -19264,10 +19251,10 @@
         <v>430130</v>
       </c>
       <c r="H236" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I236" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J236" s="3">
         <v>0</v>
@@ -19326,10 +19313,10 @@
         <v>434806</v>
       </c>
       <c r="H237" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I237" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J237" s="3">
         <v>0</v>
@@ -19388,10 +19375,10 @@
         <v>439481</v>
       </c>
       <c r="H238" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I238" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J238" s="3">
         <v>0</v>
@@ -19450,10 +19437,10 @@
         <v>444156</v>
       </c>
       <c r="H239" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I239" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J239" s="3">
         <v>0</v>
@@ -19512,10 +19499,10 @@
         <v>448831</v>
       </c>
       <c r="H240" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I240" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J240" s="3">
         <v>0</v>
@@ -19574,10 +19561,10 @@
         <v>453506</v>
       </c>
       <c r="H241" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I241" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J241" s="3">
         <v>0</v>
@@ -19636,10 +19623,10 @@
         <v>458182</v>
       </c>
       <c r="H242" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I242" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J242" s="3">
         <v>0</v>
@@ -19698,10 +19685,10 @@
         <v>462857</v>
       </c>
       <c r="H243" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I243" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J243" s="3">
         <v>0</v>
@@ -19760,10 +19747,10 @@
         <v>467532</v>
       </c>
       <c r="H244" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I244" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J244" s="3">
         <v>0</v>
@@ -19822,10 +19809,10 @@
         <v>472207</v>
       </c>
       <c r="H245" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I245" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J245" s="3">
         <v>0</v>
@@ -19884,10 +19871,10 @@
         <v>476884</v>
       </c>
       <c r="H246" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I246" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J246" s="3">
         <v>0</v>
@@ -19946,10 +19933,10 @@
         <v>481559</v>
       </c>
       <c r="H247" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I247" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J247" s="3">
         <v>0</v>
@@ -20008,10 +19995,10 @@
         <v>486234</v>
       </c>
       <c r="H248" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I248" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J248" s="3">
         <v>0</v>
@@ -20070,10 +20057,10 @@
         <v>486234</v>
       </c>
       <c r="H249" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I249" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J249" s="3">
         <v>0</v>
@@ -20132,10 +20119,10 @@
         <v>250</v>
       </c>
       <c r="H250" s="3">
-        <v>0.035</v>
-      </c>
-      <c r="I250" s="3">
-        <v>1</v>
+        <v>0.0375</v>
+      </c>
+      <c r="I250" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="J250" s="3">
         <v>0</v>
@@ -20194,10 +20181,10 @@
         <v>374</v>
       </c>
       <c r="H251" s="3">
-        <v>0.035</v>
-      </c>
-      <c r="I251" s="3">
-        <v>1</v>
+        <v>0.0375</v>
+      </c>
+      <c r="I251" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="J251" s="3">
         <v>0</v>
@@ -20256,10 +20243,10 @@
         <v>499</v>
       </c>
       <c r="H252" s="3">
-        <v>0.035</v>
-      </c>
-      <c r="I252" s="3">
-        <v>1</v>
+        <v>0.0375</v>
+      </c>
+      <c r="I252" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="J252" s="3">
         <v>0</v>
@@ -20318,10 +20305,10 @@
         <v>574</v>
       </c>
       <c r="H253" s="3">
-        <v>0.035</v>
-      </c>
-      <c r="I253" s="3">
-        <v>1</v>
+        <v>0.0375</v>
+      </c>
+      <c r="I253" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="J253" s="3">
         <v>0</v>
@@ -20380,10 +20367,10 @@
         <v>648</v>
       </c>
       <c r="H254" s="3">
-        <v>0.035</v>
-      </c>
-      <c r="I254" s="3">
-        <v>1</v>
+        <v>0.0375</v>
+      </c>
+      <c r="I254" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="J254" s="3">
         <v>0</v>
@@ -20442,10 +20429,10 @@
         <v>748</v>
       </c>
       <c r="H255" s="3">
-        <v>0.035</v>
-      </c>
-      <c r="I255" s="3">
-        <v>1</v>
+        <v>0.0375</v>
+      </c>
+      <c r="I255" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="J255" s="3">
         <v>0</v>
@@ -20504,7 +20491,7 @@
         <v>823</v>
       </c>
       <c r="H256" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I256" s="3">
         <v>1</v>
@@ -20566,7 +20553,7 @@
         <v>898</v>
       </c>
       <c r="H257" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I257" s="3">
         <v>1</v>
@@ -20628,7 +20615,7 @@
         <v>997</v>
       </c>
       <c r="H258" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I258" s="3">
         <v>1</v>
@@ -20690,7 +20677,7 @@
         <v>1122</v>
       </c>
       <c r="H259" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I259" s="3">
         <v>1</v>
@@ -20752,7 +20739,7 @@
         <v>1372</v>
       </c>
       <c r="H260" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I260" s="3">
         <v>1</v>
@@ -20814,7 +20801,7 @@
         <v>1496</v>
       </c>
       <c r="H261" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I261" s="3">
         <v>1</v>
@@ -20876,7 +20863,7 @@
         <v>1746</v>
       </c>
       <c r="H262" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I262" s="3">
         <v>1</v>
@@ -20938,10 +20925,10 @@
         <v>1994</v>
       </c>
       <c r="H263" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I263" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J263" s="3">
         <v>0</v>
@@ -21000,7 +20987,7 @@
         <v>2494</v>
       </c>
       <c r="H264" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I264" s="3">
         <v>2</v>
@@ -21062,7 +21049,7 @@
         <v>2993</v>
       </c>
       <c r="H265" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I265" s="3">
         <v>2</v>
@@ -21124,7 +21111,7 @@
         <v>3740</v>
       </c>
       <c r="H266" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I266" s="3">
         <v>2</v>
@@ -21186,7 +21173,7 @@
         <v>4488</v>
       </c>
       <c r="H267" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I267" s="3">
         <v>2</v>
@@ -21248,7 +21235,7 @@
         <v>5485</v>
       </c>
       <c r="H268" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I268" s="3">
         <v>2</v>
@@ -21310,10 +21297,10 @@
         <v>7231</v>
       </c>
       <c r="H269" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I269" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J269" s="3">
         <v>0</v>
@@ -21372,10 +21359,10 @@
         <v>8977</v>
       </c>
       <c r="H270" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I270" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J270" s="3">
         <v>0</v>
@@ -21434,10 +21421,10 @@
         <v>11221</v>
       </c>
       <c r="H271" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I271" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J271" s="3">
         <v>0</v>
@@ -21496,10 +21483,10 @@
         <v>13715</v>
       </c>
       <c r="H272" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I272" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J272" s="3">
         <v>0</v>
@@ -21558,10 +21545,10 @@
         <v>17454</v>
       </c>
       <c r="H273" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I273" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J273" s="3">
         <v>0</v>
@@ -21620,10 +21607,10 @@
         <v>21194</v>
       </c>
       <c r="H274" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I274" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J274" s="3">
         <v>0</v>
@@ -21682,10 +21669,10 @@
         <v>24935</v>
       </c>
       <c r="H275" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I275" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J275" s="3">
         <v>0</v>
@@ -21744,10 +21731,10 @@
         <v>29922</v>
       </c>
       <c r="H276" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I276" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J276" s="3">
         <v>0</v>
@@ -21806,10 +21793,10 @@
         <v>34909</v>
       </c>
       <c r="H277" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I277" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J277" s="3">
         <v>0</v>
@@ -21868,10 +21855,10 @@
         <v>39896</v>
       </c>
       <c r="H278" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I278" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J278" s="3">
         <v>0</v>
@@ -21930,10 +21917,10 @@
         <v>44884</v>
       </c>
       <c r="H279" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I279" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J279" s="3">
         <v>0</v>
@@ -21992,10 +21979,10 @@
         <v>49870</v>
       </c>
       <c r="H280" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I280" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J280" s="3">
         <v>0</v>
@@ -22054,10 +22041,10 @@
         <v>56104</v>
       </c>
       <c r="H281" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I281" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J281" s="3">
         <v>0</v>
@@ -22116,10 +22103,10 @@
         <v>62338</v>
       </c>
       <c r="H282" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I282" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J282" s="3">
         <v>0</v>
@@ -22178,10 +22165,10 @@
         <v>68572</v>
       </c>
       <c r="H283" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I283" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J283" s="3">
         <v>0</v>
@@ -22240,10 +22227,10 @@
         <v>74806</v>
       </c>
       <c r="H284" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I284" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J284" s="3">
         <v>0</v>
@@ -22302,10 +22289,10 @@
         <v>84779</v>
       </c>
       <c r="H285" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I285" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J285" s="3">
         <v>0</v>
@@ -22364,10 +22351,10 @@
         <v>94753</v>
       </c>
       <c r="H286" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I286" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J286" s="3">
         <v>0</v>
@@ -22426,10 +22413,10 @@
         <v>104728</v>
       </c>
       <c r="H287" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I287" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J287" s="3">
         <v>0</v>
@@ -22488,10 +22475,10 @@
         <v>114701</v>
       </c>
       <c r="H288" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I288" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J288" s="3">
         <v>0</v>
@@ -22550,10 +22537,10 @@
         <v>124675</v>
       </c>
       <c r="H289" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I289" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J289" s="3">
         <v>0</v>
@@ -22612,10 +22599,10 @@
         <v>137143</v>
       </c>
       <c r="H290" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I290" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J290" s="3">
         <v>0</v>
@@ -22674,10 +22661,10 @@
         <v>149610</v>
       </c>
       <c r="H291" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I291" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J291" s="3">
         <v>0</v>
@@ -22736,10 +22723,10 @@
         <v>162078</v>
       </c>
       <c r="H292" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I292" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J292" s="3">
         <v>0</v>
@@ -22798,10 +22785,10 @@
         <v>174546</v>
       </c>
       <c r="H293" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I293" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J293" s="3">
         <v>0</v>
@@ -22860,10 +22847,10 @@
         <v>187013</v>
       </c>
       <c r="H294" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I294" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J294" s="3">
         <v>0</v>
@@ -22922,10 +22909,10 @@
         <v>199481</v>
       </c>
       <c r="H295" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I295" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J295" s="3">
         <v>0</v>
@@ -22984,10 +22971,10 @@
         <v>211948</v>
       </c>
       <c r="H296" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I296" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J296" s="3">
         <v>0</v>
@@ -23046,10 +23033,10 @@
         <v>224416</v>
       </c>
       <c r="H297" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I297" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J297" s="3">
         <v>0</v>
@@ -23108,10 +23095,10 @@
         <v>236884</v>
       </c>
       <c r="H298" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I298" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J298" s="3">
         <v>0</v>
@@ -23170,10 +23157,10 @@
         <v>249350</v>
       </c>
       <c r="H299" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I299" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J299" s="3">
         <v>0</v>
@@ -23232,10 +23219,10 @@
         <v>274285</v>
       </c>
       <c r="H300" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I300" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J300" s="3">
         <v>0</v>
@@ -23294,10 +23281,10 @@
         <v>299221</v>
       </c>
       <c r="H301" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I301" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J301" s="3">
         <v>0</v>
@@ -23356,10 +23343,10 @@
         <v>324156</v>
       </c>
       <c r="H302" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I302" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J302" s="3">
         <v>0</v>
@@ -23418,10 +23405,10 @@
         <v>349091</v>
       </c>
       <c r="H303" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I303" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J303" s="3">
         <v>0</v>
@@ -23480,10 +23467,10 @@
         <v>374026</v>
       </c>
       <c r="H304" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I304" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J304" s="3">
         <v>0</v>
@@ -23542,10 +23529,10 @@
         <v>398962</v>
       </c>
       <c r="H305" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I305" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J305" s="3">
         <v>0</v>
@@ -23604,10 +23591,10 @@
         <v>423896</v>
       </c>
       <c r="H306" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I306" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J306" s="3">
         <v>0</v>
@@ -23666,10 +23653,10 @@
         <v>448831</v>
       </c>
       <c r="H307" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I307" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J307" s="3">
         <v>0</v>
@@ -23728,10 +23715,10 @@
         <v>473766</v>
       </c>
       <c r="H308" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I308" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J308" s="3">
         <v>0</v>
@@ -23790,10 +23777,10 @@
         <v>498701</v>
       </c>
       <c r="H309" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I309" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J309" s="3">
         <v>0</v>
@@ -23852,10 +23839,10 @@
         <v>523637</v>
       </c>
       <c r="H310" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I310" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J310" s="3">
         <v>0</v>
@@ -23914,10 +23901,10 @@
         <v>529870</v>
       </c>
       <c r="H311" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I311" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J311" s="3">
         <v>0</v>
@@ -23976,10 +23963,10 @@
         <v>536104</v>
       </c>
       <c r="H312" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I312" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J312" s="3">
         <v>0</v>
@@ -24038,10 +24025,10 @@
         <v>542338</v>
       </c>
       <c r="H313" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I313" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J313" s="3">
         <v>0</v>
@@ -24100,10 +24087,10 @@
         <v>548572</v>
       </c>
       <c r="H314" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I314" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J314" s="3">
         <v>0</v>
@@ -24162,10 +24149,10 @@
         <v>554806</v>
       </c>
       <c r="H315" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I315" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J315" s="3">
         <v>0</v>
@@ -24224,10 +24211,10 @@
         <v>561038</v>
       </c>
       <c r="H316" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I316" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J316" s="3">
         <v>0</v>
@@ -24286,10 +24273,10 @@
         <v>567272</v>
       </c>
       <c r="H317" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I317" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J317" s="3">
         <v>0</v>
@@ -24348,10 +24335,10 @@
         <v>573506</v>
       </c>
       <c r="H318" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I318" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J318" s="3">
         <v>0</v>
@@ -24410,10 +24397,10 @@
         <v>579740</v>
       </c>
       <c r="H319" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I319" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J319" s="3">
         <v>0</v>
@@ -24472,10 +24459,10 @@
         <v>585974</v>
       </c>
       <c r="H320" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I320" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J320" s="3">
         <v>0</v>
@@ -24534,10 +24521,10 @@
         <v>592207</v>
       </c>
       <c r="H321" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I321" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J321" s="3">
         <v>0</v>
@@ -24596,10 +24583,10 @@
         <v>598441</v>
       </c>
       <c r="H322" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I322" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J322" s="3">
         <v>0</v>
@@ -24658,10 +24645,10 @@
         <v>604675</v>
       </c>
       <c r="H323" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I323" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J323" s="3">
         <v>0</v>
@@ -24720,10 +24707,10 @@
         <v>610909</v>
       </c>
       <c r="H324" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I324" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J324" s="3">
         <v>0</v>
@@ -24782,10 +24769,10 @@
         <v>617143</v>
       </c>
       <c r="H325" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I325" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J325" s="3">
         <v>0</v>
@@ -24844,10 +24831,10 @@
         <v>623377</v>
       </c>
       <c r="H326" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I326" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J326" s="3">
         <v>0</v>
@@ -24906,10 +24893,10 @@
         <v>629610</v>
       </c>
       <c r="H327" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I327" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J327" s="3">
         <v>0</v>
@@ -24968,10 +24955,10 @@
         <v>635844</v>
       </c>
       <c r="H328" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I328" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J328" s="3">
         <v>0</v>
@@ -25030,10 +25017,10 @@
         <v>642078</v>
       </c>
       <c r="H329" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I329" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J329" s="3">
         <v>0</v>
@@ -25092,10 +25079,10 @@
         <v>648312</v>
       </c>
       <c r="H330" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I330" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J330" s="3">
         <v>0</v>
@@ -25154,10 +25141,10 @@
         <v>648312</v>
       </c>
       <c r="H331" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I331" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J331" s="3">
         <v>0</v>
@@ -25216,10 +25203,10 @@
         <v>623</v>
       </c>
       <c r="H332" s="3">
-        <v>0.035</v>
-      </c>
-      <c r="I332" s="3">
-        <v>1</v>
+        <v>0.0375</v>
+      </c>
+      <c r="I332" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="J332" s="3">
         <v>0</v>
@@ -25278,10 +25265,10 @@
         <v>935</v>
       </c>
       <c r="H333" s="3">
-        <v>0.035</v>
-      </c>
-      <c r="I333" s="3">
-        <v>1</v>
+        <v>0.0375</v>
+      </c>
+      <c r="I333" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="J333" s="3">
         <v>0</v>
@@ -25340,10 +25327,10 @@
         <v>1247</v>
       </c>
       <c r="H334" s="3">
-        <v>0.035</v>
-      </c>
-      <c r="I334" s="3">
-        <v>1</v>
+        <v>0.0375</v>
+      </c>
+      <c r="I334" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="J334" s="3">
         <v>0</v>
@@ -25402,10 +25389,10 @@
         <v>1434</v>
       </c>
       <c r="H335" s="3">
-        <v>0.035</v>
-      </c>
-      <c r="I335" s="3">
-        <v>1</v>
+        <v>0.0375</v>
+      </c>
+      <c r="I335" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="J335" s="3">
         <v>0</v>
@@ -25464,10 +25451,10 @@
         <v>1621</v>
       </c>
       <c r="H336" s="3">
-        <v>0.035</v>
-      </c>
-      <c r="I336" s="3">
-        <v>1</v>
+        <v>0.0375</v>
+      </c>
+      <c r="I336" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="J336" s="3">
         <v>0</v>
@@ -25526,10 +25513,10 @@
         <v>1870</v>
       </c>
       <c r="H337" s="3">
-        <v>0.035</v>
-      </c>
-      <c r="I337" s="3">
-        <v>1</v>
+        <v>0.0375</v>
+      </c>
+      <c r="I337" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="J337" s="3">
         <v>0</v>
@@ -25588,7 +25575,7 @@
         <v>2057</v>
       </c>
       <c r="H338" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I338" s="3">
         <v>1</v>
@@ -25650,7 +25637,7 @@
         <v>2244</v>
       </c>
       <c r="H339" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I339" s="3">
         <v>1</v>
@@ -25712,7 +25699,7 @@
         <v>2494</v>
       </c>
       <c r="H340" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I340" s="3">
         <v>1</v>
@@ -25774,7 +25761,7 @@
         <v>2806</v>
       </c>
       <c r="H341" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I341" s="3">
         <v>1</v>
@@ -25836,7 +25823,7 @@
         <v>3428</v>
       </c>
       <c r="H342" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I342" s="3">
         <v>1</v>
@@ -25898,7 +25885,7 @@
         <v>3740</v>
       </c>
       <c r="H343" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I343" s="3">
         <v>1</v>
@@ -25960,7 +25947,7 @@
         <v>4363</v>
       </c>
       <c r="H344" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I344" s="3">
         <v>1</v>
@@ -26022,10 +26009,10 @@
         <v>4987</v>
       </c>
       <c r="H345" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I345" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J345" s="3">
         <v>0</v>
@@ -26084,7 +26071,7 @@
         <v>6234</v>
       </c>
       <c r="H346" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I346" s="3">
         <v>2</v>
@@ -26146,7 +26133,7 @@
         <v>7481</v>
       </c>
       <c r="H347" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I347" s="3">
         <v>2</v>
@@ -26208,7 +26195,7 @@
         <v>9350</v>
       </c>
       <c r="H348" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I348" s="3">
         <v>2</v>
@@ -26270,7 +26257,7 @@
         <v>11221</v>
       </c>
       <c r="H349" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I349" s="3">
         <v>2</v>
@@ -26332,7 +26319,7 @@
         <v>13715</v>
       </c>
       <c r="H350" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I350" s="3">
         <v>2</v>
@@ -26394,10 +26381,10 @@
         <v>18078</v>
       </c>
       <c r="H351" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I351" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J351" s="3">
         <v>0</v>
@@ -26456,10 +26443,10 @@
         <v>22441</v>
       </c>
       <c r="H352" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I352" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J352" s="3">
         <v>0</v>
@@ -26518,10 +26505,10 @@
         <v>28052</v>
       </c>
       <c r="H353" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I353" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J353" s="3">
         <v>0</v>
@@ -26580,10 +26567,10 @@
         <v>34285</v>
       </c>
       <c r="H354" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I354" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J354" s="3">
         <v>0</v>
@@ -26642,10 +26629,10 @@
         <v>43637</v>
       </c>
       <c r="H355" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I355" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J355" s="3">
         <v>0</v>
@@ -26704,10 +26691,10 @@
         <v>52987</v>
       </c>
       <c r="H356" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I356" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J356" s="3">
         <v>0</v>
@@ -26766,10 +26753,10 @@
         <v>62338</v>
       </c>
       <c r="H357" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I357" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J357" s="3">
         <v>0</v>
@@ -26828,10 +26815,10 @@
         <v>74806</v>
       </c>
       <c r="H358" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I358" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J358" s="3">
         <v>0</v>
@@ -26890,10 +26877,10 @@
         <v>87272</v>
       </c>
       <c r="H359" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I359" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J359" s="3">
         <v>0</v>
@@ -26952,10 +26939,10 @@
         <v>99740</v>
       </c>
       <c r="H360" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I360" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J360" s="3">
         <v>0</v>
@@ -27014,10 +27001,10 @@
         <v>112207</v>
       </c>
       <c r="H361" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I361" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J361" s="3">
         <v>0</v>
@@ -27076,10 +27063,10 @@
         <v>124675</v>
       </c>
       <c r="H362" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I362" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J362" s="3">
         <v>0</v>
@@ -27138,10 +27125,10 @@
         <v>140260</v>
       </c>
       <c r="H363" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I363" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J363" s="3">
         <v>0</v>
@@ -27200,10 +27187,10 @@
         <v>155844</v>
       </c>
       <c r="H364" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I364" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J364" s="3">
         <v>0</v>
@@ -27262,10 +27249,10 @@
         <v>171428</v>
       </c>
       <c r="H365" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I365" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J365" s="3">
         <v>0</v>
@@ -27324,10 +27311,10 @@
         <v>187013</v>
       </c>
       <c r="H366" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I366" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J366" s="3">
         <v>0</v>
@@ -27386,10 +27373,10 @@
         <v>211948</v>
       </c>
       <c r="H367" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I367" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J367" s="3">
         <v>0</v>
@@ -27448,10 +27435,10 @@
         <v>236884</v>
       </c>
       <c r="H368" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I368" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J368" s="3">
         <v>0</v>
@@ -27510,10 +27497,10 @@
         <v>261818</v>
       </c>
       <c r="H369" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I369" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J369" s="3">
         <v>0</v>
@@ -27572,10 +27559,10 @@
         <v>286753</v>
       </c>
       <c r="H370" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I370" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J370" s="3">
         <v>0</v>
@@ -27634,10 +27621,10 @@
         <v>311688</v>
       </c>
       <c r="H371" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I371" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J371" s="3">
         <v>0</v>
@@ -27696,10 +27683,10 @@
         <v>342857</v>
       </c>
       <c r="H372" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I372" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J372" s="3">
         <v>0</v>
@@ -27758,10 +27745,10 @@
         <v>374026</v>
       </c>
       <c r="H373" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I373" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J373" s="3">
         <v>0</v>
@@ -27820,10 +27807,10 @@
         <v>405194</v>
       </c>
       <c r="H374" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I374" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J374" s="3">
         <v>0</v>
@@ -27882,10 +27869,10 @@
         <v>436363</v>
       </c>
       <c r="H375" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I375" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J375" s="3">
         <v>0</v>
@@ -27944,10 +27931,10 @@
         <v>467532</v>
       </c>
       <c r="H376" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I376" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J376" s="3">
         <v>0</v>
@@ -28006,10 +27993,10 @@
         <v>498701</v>
       </c>
       <c r="H377" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I377" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J377" s="3">
         <v>0</v>
@@ -28068,10 +28055,10 @@
         <v>529870</v>
       </c>
       <c r="H378" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I378" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J378" s="3">
         <v>0</v>
@@ -28130,10 +28117,10 @@
         <v>561038</v>
       </c>
       <c r="H379" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I379" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J379" s="3">
         <v>0</v>
@@ -28192,10 +28179,10 @@
         <v>592207</v>
       </c>
       <c r="H380" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I380" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J380" s="3">
         <v>0</v>
@@ -28254,10 +28241,10 @@
         <v>623377</v>
       </c>
       <c r="H381" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I381" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J381" s="3">
         <v>0</v>
@@ -28316,10 +28303,10 @@
         <v>685715</v>
       </c>
       <c r="H382" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I382" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J382" s="3">
         <v>0</v>
@@ -28378,10 +28365,10 @@
         <v>748052</v>
       </c>
       <c r="H383" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I383" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J383" s="3">
         <v>0</v>
@@ -28440,10 +28427,10 @@
         <v>810390</v>
       </c>
       <c r="H384" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I384" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J384" s="3">
         <v>0</v>
@@ -28502,10 +28489,10 @@
         <v>872728</v>
       </c>
       <c r="H385" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I385" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J385" s="3">
         <v>0</v>
@@ -28564,10 +28551,10 @@
         <v>935065</v>
       </c>
       <c r="H386" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I386" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J386" s="3">
         <v>0</v>
@@ -28626,10 +28613,10 @@
         <v>997403</v>
       </c>
       <c r="H387" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I387" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J387" s="3">
         <v>0</v>
@@ -28688,10 +28675,10 @@
         <v>1059740</v>
       </c>
       <c r="H388" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I388" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J388" s="3">
         <v>0</v>
@@ -28750,10 +28737,10 @@
         <v>1122078</v>
       </c>
       <c r="H389" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I389" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J389" s="3">
         <v>0</v>
@@ -28812,10 +28799,10 @@
         <v>1184416</v>
       </c>
       <c r="H390" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I390" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J390" s="3">
         <v>0</v>
@@ -28874,10 +28861,10 @@
         <v>1246753</v>
       </c>
       <c r="H391" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I391" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J391" s="3">
         <v>0</v>
@@ -28936,10 +28923,10 @@
         <v>1309091</v>
       </c>
       <c r="H392" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I392" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J392" s="3">
         <v>0</v>
@@ -28998,10 +28985,10 @@
         <v>1324675</v>
       </c>
       <c r="H393" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I393" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J393" s="3">
         <v>0</v>
@@ -29060,10 +29047,10 @@
         <v>1340260</v>
       </c>
       <c r="H394" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I394" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J394" s="3">
         <v>0</v>
@@ -29122,10 +29109,10 @@
         <v>1355844</v>
       </c>
       <c r="H395" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I395" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J395" s="3">
         <v>0</v>
@@ -29184,10 +29171,10 @@
         <v>1371428</v>
       </c>
       <c r="H396" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I396" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J396" s="3">
         <v>0</v>
@@ -29246,10 +29233,10 @@
         <v>1387013</v>
       </c>
       <c r="H397" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I397" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J397" s="3">
         <v>0</v>
@@ -29308,10 +29295,10 @@
         <v>1402597</v>
       </c>
       <c r="H398" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I398" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J398" s="3">
         <v>0</v>
@@ -29370,10 +29357,10 @@
         <v>1418182</v>
       </c>
       <c r="H399" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I399" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J399" s="3">
         <v>0</v>
@@ -29432,10 +29419,10 @@
         <v>1433766</v>
       </c>
       <c r="H400" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I400" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J400" s="3">
         <v>0</v>
@@ -29494,10 +29481,10 @@
         <v>1449350</v>
       </c>
       <c r="H401" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I401" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J401" s="3">
         <v>0</v>
@@ -29556,10 +29543,10 @@
         <v>1464935</v>
       </c>
       <c r="H402" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I402" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J402" s="3">
         <v>0</v>
@@ -29618,10 +29605,10 @@
         <v>1480519</v>
       </c>
       <c r="H403" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I403" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J403" s="3">
         <v>0</v>
@@ -29680,10 +29667,10 @@
         <v>1496104</v>
       </c>
       <c r="H404" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I404" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J404" s="3">
         <v>0</v>
@@ -29742,10 +29729,10 @@
         <v>1511688</v>
       </c>
       <c r="H405" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I405" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J405" s="3">
         <v>0</v>
@@ -29804,10 +29791,10 @@
         <v>1527272</v>
       </c>
       <c r="H406" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I406" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J406" s="3">
         <v>0</v>
@@ -29866,10 +29853,10 @@
         <v>1542857</v>
       </c>
       <c r="H407" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I407" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J407" s="3">
         <v>0</v>
@@ -29928,10 +29915,10 @@
         <v>1558441</v>
       </c>
       <c r="H408" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I408" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J408" s="3">
         <v>0</v>
@@ -29990,10 +29977,10 @@
         <v>1574026</v>
       </c>
       <c r="H409" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I409" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J409" s="3">
         <v>0</v>
@@ -30052,10 +30039,10 @@
         <v>1589610</v>
       </c>
       <c r="H410" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I410" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J410" s="3">
         <v>0</v>
@@ -30114,10 +30101,10 @@
         <v>1605194</v>
       </c>
       <c r="H411" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I411" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J411" s="3">
         <v>0</v>
@@ -30176,10 +30163,10 @@
         <v>1620779</v>
       </c>
       <c r="H412" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I412" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J412" s="3">
         <v>0</v>
@@ -30238,10 +30225,10 @@
         <v>1620779</v>
       </c>
       <c r="H413" s="3">
-        <v>0.035</v>
+        <v>0.0375</v>
       </c>
       <c r="I413" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J413" s="3">
         <v>0</v>
@@ -30302,8 +30289,8 @@
       <c r="H414" s="3">
         <v>0.075</v>
       </c>
-      <c r="I414" s="3">
-        <v>1</v>
+      <c r="I414" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="J414" s="3">
         <v>0</v>
@@ -30364,8 +30351,8 @@
       <c r="H415" s="3">
         <v>0.075</v>
       </c>
-      <c r="I415" s="3">
-        <v>1</v>
+      <c r="I415" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="J415" s="3">
         <v>0</v>
@@ -30426,8 +30413,8 @@
       <c r="H416" s="3">
         <v>0.075</v>
       </c>
-      <c r="I416" s="3">
-        <v>1</v>
+      <c r="I416" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="J416" s="3">
         <v>0</v>
@@ -30488,8 +30475,8 @@
       <c r="H417" s="3">
         <v>0.075</v>
       </c>
-      <c r="I417" s="3">
-        <v>1</v>
+      <c r="I417" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="J417" s="3">
         <v>0</v>
@@ -30550,8 +30537,8 @@
       <c r="H418" s="3">
         <v>0.075</v>
       </c>
-      <c r="I418" s="3">
-        <v>1</v>
+      <c r="I418" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="J418" s="3">
         <v>0</v>
@@ -30612,8 +30599,8 @@
       <c r="H419" s="3">
         <v>0.075</v>
       </c>
-      <c r="I419" s="3">
-        <v>1</v>
+      <c r="I419" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="J419" s="3">
         <v>0</v>
@@ -31109,7 +31096,7 @@
         <v>0.075</v>
       </c>
       <c r="I427" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J427" s="3">
         <v>0</v>
@@ -31481,7 +31468,7 @@
         <v>0.075</v>
       </c>
       <c r="I433" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J433" s="3">
         <v>0</v>
@@ -31543,7 +31530,7 @@
         <v>0.075</v>
       </c>
       <c r="I434" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J434" s="3">
         <v>0</v>
@@ -31605,7 +31592,7 @@
         <v>0.075</v>
       </c>
       <c r="I435" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J435" s="3">
         <v>0</v>
@@ -31667,7 +31654,7 @@
         <v>0.075</v>
       </c>
       <c r="I436" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J436" s="3">
         <v>0</v>
@@ -31729,7 +31716,7 @@
         <v>0.075</v>
       </c>
       <c r="I437" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J437" s="3">
         <v>0</v>
@@ -31791,7 +31778,7 @@
         <v>0.075</v>
       </c>
       <c r="I438" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J438" s="3">
         <v>0</v>
@@ -31853,7 +31840,7 @@
         <v>0.075</v>
       </c>
       <c r="I439" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J439" s="3">
         <v>0</v>
@@ -31915,7 +31902,7 @@
         <v>0.075</v>
       </c>
       <c r="I440" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J440" s="3">
         <v>0</v>
@@ -31977,7 +31964,7 @@
         <v>0.075</v>
       </c>
       <c r="I441" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J441" s="3">
         <v>0</v>
@@ -32039,7 +32026,7 @@
         <v>0.075</v>
       </c>
       <c r="I442" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J442" s="3">
         <v>0</v>
@@ -32101,7 +32088,7 @@
         <v>0.075</v>
       </c>
       <c r="I443" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J443" s="3">
         <v>0</v>
@@ -32163,7 +32150,7 @@
         <v>0.075</v>
       </c>
       <c r="I444" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J444" s="3">
         <v>0</v>
@@ -32225,7 +32212,7 @@
         <v>0.075</v>
       </c>
       <c r="I445" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J445" s="3">
         <v>0</v>
@@ -32287,7 +32274,7 @@
         <v>0.075</v>
       </c>
       <c r="I446" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J446" s="3">
         <v>0</v>
@@ -32349,7 +32336,7 @@
         <v>0.075</v>
       </c>
       <c r="I447" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J447" s="3">
         <v>0</v>
@@ -32411,7 +32398,7 @@
         <v>0.075</v>
       </c>
       <c r="I448" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J448" s="3">
         <v>0</v>
@@ -32473,7 +32460,7 @@
         <v>0.075</v>
       </c>
       <c r="I449" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J449" s="3">
         <v>0</v>
@@ -32535,7 +32522,7 @@
         <v>0.075</v>
       </c>
       <c r="I450" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J450" s="3">
         <v>0</v>
@@ -32597,7 +32584,7 @@
         <v>0.075</v>
       </c>
       <c r="I451" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J451" s="3">
         <v>0</v>
@@ -32659,7 +32646,7 @@
         <v>0.075</v>
       </c>
       <c r="I452" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J452" s="3">
         <v>0</v>
@@ -32721,7 +32708,7 @@
         <v>0.075</v>
       </c>
       <c r="I453" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J453" s="3">
         <v>0</v>
@@ -32783,7 +32770,7 @@
         <v>0.075</v>
       </c>
       <c r="I454" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J454" s="3">
         <v>0</v>
@@ -32845,7 +32832,7 @@
         <v>0.075</v>
       </c>
       <c r="I455" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J455" s="3">
         <v>0</v>
@@ -32907,7 +32894,7 @@
         <v>0.075</v>
       </c>
       <c r="I456" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J456" s="3">
         <v>0</v>
@@ -32969,7 +32956,7 @@
         <v>0.075</v>
       </c>
       <c r="I457" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J457" s="3">
         <v>0</v>
@@ -33031,7 +33018,7 @@
         <v>0.075</v>
       </c>
       <c r="I458" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J458" s="3">
         <v>0</v>
@@ -33093,7 +33080,7 @@
         <v>0.075</v>
       </c>
       <c r="I459" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J459" s="3">
         <v>0</v>
@@ -33155,7 +33142,7 @@
         <v>0.075</v>
       </c>
       <c r="I460" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J460" s="3">
         <v>0</v>
@@ -33217,7 +33204,7 @@
         <v>0.075</v>
       </c>
       <c r="I461" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J461" s="3">
         <v>0</v>
@@ -33279,7 +33266,7 @@
         <v>0.075</v>
       </c>
       <c r="I462" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J462" s="3">
         <v>0</v>
@@ -33341,7 +33328,7 @@
         <v>0.075</v>
       </c>
       <c r="I463" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J463" s="3">
         <v>0</v>
@@ -33403,7 +33390,7 @@
         <v>0.075</v>
       </c>
       <c r="I464" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J464" s="3">
         <v>0</v>
@@ -33465,7 +33452,7 @@
         <v>0.075</v>
       </c>
       <c r="I465" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J465" s="3">
         <v>0</v>
@@ -33527,7 +33514,7 @@
         <v>0.075</v>
       </c>
       <c r="I466" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J466" s="3">
         <v>0</v>
@@ -33589,7 +33576,7 @@
         <v>0.075</v>
       </c>
       <c r="I467" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J467" s="3">
         <v>0</v>
@@ -33651,7 +33638,7 @@
         <v>0.075</v>
       </c>
       <c r="I468" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J468" s="3">
         <v>0</v>
@@ -33713,7 +33700,7 @@
         <v>0.075</v>
       </c>
       <c r="I469" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J469" s="3">
         <v>0</v>
@@ -33775,7 +33762,7 @@
         <v>0.075</v>
       </c>
       <c r="I470" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J470" s="3">
         <v>0</v>
@@ -33837,7 +33824,7 @@
         <v>0.075</v>
       </c>
       <c r="I471" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J471" s="3">
         <v>0</v>
@@ -33899,7 +33886,7 @@
         <v>0.075</v>
       </c>
       <c r="I472" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J472" s="3">
         <v>0</v>
@@ -33961,7 +33948,7 @@
         <v>0.075</v>
       </c>
       <c r="I473" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J473" s="3">
         <v>0</v>
@@ -34023,7 +34010,7 @@
         <v>0.075</v>
       </c>
       <c r="I474" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J474" s="3">
         <v>0</v>
@@ -34085,7 +34072,7 @@
         <v>0.075</v>
       </c>
       <c r="I475" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J475" s="3">
         <v>0</v>
@@ -34147,7 +34134,7 @@
         <v>0.075</v>
       </c>
       <c r="I476" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J476" s="3">
         <v>0</v>
@@ -34209,7 +34196,7 @@
         <v>0.075</v>
       </c>
       <c r="I477" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J477" s="3">
         <v>0</v>
@@ -34271,7 +34258,7 @@
         <v>0.075</v>
       </c>
       <c r="I478" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J478" s="3">
         <v>0</v>
@@ -34333,7 +34320,7 @@
         <v>0.075</v>
       </c>
       <c r="I479" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J479" s="3">
         <v>0</v>
@@ -34395,7 +34382,7 @@
         <v>0.075</v>
       </c>
       <c r="I480" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J480" s="3">
         <v>0</v>
@@ -34457,7 +34444,7 @@
         <v>0.075</v>
       </c>
       <c r="I481" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J481" s="3">
         <v>0</v>
@@ -34519,7 +34506,7 @@
         <v>0.075</v>
       </c>
       <c r="I482" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J482" s="3">
         <v>0</v>
@@ -34581,7 +34568,7 @@
         <v>0.075</v>
       </c>
       <c r="I483" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J483" s="3">
         <v>0</v>
@@ -34643,7 +34630,7 @@
         <v>0.075</v>
       </c>
       <c r="I484" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J484" s="3">
         <v>0</v>
@@ -34705,7 +34692,7 @@
         <v>0.075</v>
       </c>
       <c r="I485" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J485" s="3">
         <v>0</v>
@@ -34767,7 +34754,7 @@
         <v>0.075</v>
       </c>
       <c r="I486" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J486" s="3">
         <v>0</v>
@@ -34829,7 +34816,7 @@
         <v>0.075</v>
       </c>
       <c r="I487" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J487" s="3">
         <v>0</v>
@@ -34891,7 +34878,7 @@
         <v>0.075</v>
       </c>
       <c r="I488" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J488" s="3">
         <v>0</v>
@@ -34953,7 +34940,7 @@
         <v>0.075</v>
       </c>
       <c r="I489" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J489" s="3">
         <v>0</v>
@@ -35015,7 +35002,7 @@
         <v>0.075</v>
       </c>
       <c r="I490" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J490" s="3">
         <v>0</v>
@@ -35077,7 +35064,7 @@
         <v>0.075</v>
       </c>
       <c r="I491" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J491" s="3">
         <v>0</v>
@@ -35139,7 +35126,7 @@
         <v>0.075</v>
       </c>
       <c r="I492" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J492" s="3">
         <v>0</v>
@@ -35201,7 +35188,7 @@
         <v>0.075</v>
       </c>
       <c r="I493" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J493" s="3">
         <v>0</v>
@@ -35263,7 +35250,7 @@
         <v>0.075</v>
       </c>
       <c r="I494" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J494" s="3">
         <v>0</v>
@@ -35325,7 +35312,7 @@
         <v>0.075</v>
       </c>
       <c r="I495" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J495" s="3">
         <v>0</v>

--- a/Excel/monster.怪物.xlsx
+++ b/Excel/monster.怪物.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9B8064-B1A3-47E0-85E8-4A5A9598D1B4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54066B9-8840-4153-8C1D-FB2ACA9EEDC2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4055,10 +4055,10 @@
   <dimension ref="A1:AD495"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="R4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB11" sqref="AB11"/>
+      <selection pane="bottomRight" activeCell="R491" sqref="R491"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4417,7 +4417,7 @@
         <v>0</v>
       </c>
       <c r="Z4" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
@@ -4493,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="Z5" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
@@ -4532,19 +4532,19 @@
         <v>0</v>
       </c>
       <c r="K6" s="3">
-        <v>432</v>
+        <v>370</v>
       </c>
       <c r="L6" s="3">
         <v>0</v>
       </c>
       <c r="M6" s="3">
-        <v>575</v>
+        <v>493</v>
       </c>
       <c r="N6" s="3">
         <v>0</v>
       </c>
       <c r="O6" s="3">
-        <v>287</v>
+        <v>246</v>
       </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
@@ -4569,7 +4569,7 @@
         <v>0</v>
       </c>
       <c r="Z6" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
@@ -4608,19 +4608,19 @@
         <v>0</v>
       </c>
       <c r="K7" s="3">
-        <v>2666</v>
+        <v>2531</v>
       </c>
       <c r="L7" s="3">
         <v>0</v>
       </c>
       <c r="M7" s="3">
-        <v>1207</v>
+        <v>1126</v>
       </c>
       <c r="N7" s="3">
         <v>0</v>
       </c>
       <c r="O7" s="3">
-        <v>399</v>
+        <v>359</v>
       </c>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
@@ -4645,7 +4645,7 @@
         <v>0</v>
       </c>
       <c r="Z7" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
@@ -4684,19 +4684,19 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>4266</v>
+        <v>3939</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
       <c r="M8" s="3">
-        <v>1663</v>
+        <v>1495</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
       <c r="O8" s="3">
-        <v>569</v>
+        <v>485</v>
       </c>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
@@ -4721,7 +4721,7 @@
         <v>0</v>
       </c>
       <c r="Z8" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
@@ -4760,19 +4760,19 @@
         <v>0</v>
       </c>
       <c r="K9" s="3">
-        <v>5350</v>
+        <v>4972</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
       </c>
       <c r="M9" s="3">
-        <v>1999</v>
+        <v>1831</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
       </c>
       <c r="O9" s="3">
-        <v>810</v>
+        <v>726</v>
       </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
@@ -4797,7 +4797,7 @@
         <v>0</v>
       </c>
       <c r="Z9" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
@@ -4836,19 +4836,19 @@
         <v>0</v>
       </c>
       <c r="K10" s="3">
-        <v>7813</v>
+        <v>7155</v>
       </c>
       <c r="L10" s="3">
         <v>0</v>
       </c>
       <c r="M10" s="3">
-        <v>2839</v>
+        <v>2582</v>
       </c>
       <c r="N10" s="3">
         <v>0</v>
       </c>
       <c r="O10" s="3">
-        <v>1307</v>
+        <v>1179</v>
       </c>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
@@ -4873,7 +4873,7 @@
         <v>0</v>
       </c>
       <c r="Z10" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
@@ -4912,19 +4912,19 @@
         <v>0</v>
       </c>
       <c r="K11" s="3">
-        <v>11275</v>
+        <v>10584</v>
       </c>
       <c r="L11" s="3">
         <v>0</v>
       </c>
       <c r="M11" s="3">
-        <v>3663</v>
+        <v>3406</v>
       </c>
       <c r="N11" s="3">
         <v>0</v>
       </c>
       <c r="O11" s="3">
-        <v>1575</v>
+        <v>1446</v>
       </c>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
@@ -4949,7 +4949,7 @@
         <v>0</v>
       </c>
       <c r="Z11" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
@@ -5025,7 +5025,7 @@
         <v>0</v>
       </c>
       <c r="Z12" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
@@ -5101,7 +5101,7 @@
         <v>0</v>
       </c>
       <c r="Z13" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
@@ -5177,7 +5177,7 @@
         <v>0</v>
       </c>
       <c r="Z14" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA14" s="3"/>
       <c r="AB14" s="3"/>
@@ -5253,7 +5253,7 @@
         <v>0</v>
       </c>
       <c r="Z15" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
@@ -5329,7 +5329,7 @@
         <v>0</v>
       </c>
       <c r="Z16" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
@@ -5405,7 +5405,7 @@
         <v>36</v>
       </c>
       <c r="Z17" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
@@ -5481,7 +5481,7 @@
         <v>222</v>
       </c>
       <c r="Z18" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
@@ -5557,7 +5557,7 @@
         <v>447</v>
       </c>
       <c r="Z19" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
@@ -5633,7 +5633,7 @@
         <v>486</v>
       </c>
       <c r="Z20" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA20" s="3"/>
       <c r="AB20" s="3"/>
@@ -5709,7 +5709,7 @@
         <v>750</v>
       </c>
       <c r="Z21" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA21" s="3"/>
       <c r="AB21" s="3"/>
@@ -5785,7 +5785,7 @@
         <v>1100</v>
       </c>
       <c r="Z22" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
@@ -5861,7 +5861,7 @@
         <v>1650</v>
       </c>
       <c r="Z23" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
@@ -5937,7 +5937,7 @@
         <v>1950</v>
       </c>
       <c r="Z24" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
@@ -6013,7 +6013,7 @@
         <v>1950</v>
       </c>
       <c r="Z25" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
@@ -6089,7 +6089,7 @@
         <v>2250</v>
       </c>
       <c r="Z26" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
@@ -6165,7 +6165,7 @@
         <v>2550</v>
       </c>
       <c r="Z27" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA27" s="3"/>
       <c r="AB27" s="3"/>
@@ -6241,7 +6241,7 @@
         <v>2850</v>
       </c>
       <c r="Z28" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA28" s="3"/>
       <c r="AB28" s="3"/>
@@ -6317,7 +6317,7 @@
         <v>3646</v>
       </c>
       <c r="Z29" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA29" s="3"/>
       <c r="AB29" s="3"/>
@@ -6393,7 +6393,7 @@
         <v>3646</v>
       </c>
       <c r="Z30" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA30" s="3"/>
       <c r="AB30" s="3"/>
@@ -6469,7 +6469,7 @@
         <v>3982</v>
       </c>
       <c r="Z31" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA31" s="3"/>
       <c r="AB31" s="3"/>
@@ -6545,7 +6545,7 @@
         <v>4318</v>
       </c>
       <c r="Z32" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA32" s="3"/>
       <c r="AB32" s="3"/>
@@ -6621,7 +6621,7 @@
         <v>4654</v>
       </c>
       <c r="Z33" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA33" s="3"/>
       <c r="AB33" s="3"/>
@@ -6697,7 +6697,7 @@
         <v>4990</v>
       </c>
       <c r="Z34" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA34" s="3"/>
       <c r="AB34" s="3"/>
@@ -6773,7 +6773,7 @@
         <v>5185</v>
       </c>
       <c r="Z35" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA35" s="3"/>
       <c r="AB35" s="3"/>
@@ -6849,7 +6849,7 @@
         <v>5950</v>
       </c>
       <c r="Z36" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA36" s="3"/>
       <c r="AB36" s="3"/>
@@ -6925,7 +6925,7 @@
         <v>6325</v>
       </c>
       <c r="Z37" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA37" s="3"/>
       <c r="AB37" s="3"/>
@@ -7001,7 +7001,7 @@
         <v>6700</v>
       </c>
       <c r="Z38" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA38" s="3"/>
       <c r="AB38" s="3"/>
@@ -7077,7 +7077,7 @@
         <v>7075</v>
       </c>
       <c r="Z39" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
@@ -7153,7 +7153,7 @@
         <v>7450</v>
       </c>
       <c r="Z40" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
@@ -7229,7 +7229,7 @@
         <v>8750</v>
       </c>
       <c r="Z41" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA41" s="3"/>
       <c r="AB41" s="3"/>
@@ -7305,7 +7305,7 @@
         <v>10300</v>
       </c>
       <c r="Z42" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA42" s="3"/>
       <c r="AB42" s="3"/>
@@ -7381,7 +7381,7 @@
         <v>11200</v>
       </c>
       <c r="Z43" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA43" s="3"/>
       <c r="AB43" s="3"/>
@@ -7457,7 +7457,7 @@
         <v>12100</v>
       </c>
       <c r="Z44" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA44" s="3"/>
       <c r="AB44" s="3"/>
@@ -7533,7 +7533,7 @@
         <v>12550</v>
       </c>
       <c r="Z45" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA45" s="3"/>
       <c r="AB45" s="3"/>
@@ -7609,7 +7609,7 @@
         <v>13810</v>
       </c>
       <c r="Z46" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA46" s="3"/>
       <c r="AB46" s="3"/>
@@ -7685,7 +7685,7 @@
         <v>15216</v>
       </c>
       <c r="Z47" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA47" s="3"/>
       <c r="AB47" s="3"/>
@@ -7761,7 +7761,7 @@
         <v>16188</v>
       </c>
       <c r="Z48" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA48" s="3"/>
       <c r="AB48" s="3"/>
@@ -7837,7 +7837,7 @@
         <v>17615</v>
       </c>
       <c r="Z49" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA49" s="3"/>
       <c r="AB49" s="3"/>
@@ -7913,7 +7913,7 @@
         <v>19050</v>
       </c>
       <c r="Z50" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA50" s="3"/>
       <c r="AB50" s="3"/>
@@ -7989,7 +7989,7 @@
         <v>20100</v>
       </c>
       <c r="Z51" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA51" s="3"/>
       <c r="AB51" s="3"/>
@@ -8065,7 +8065,7 @@
         <v>20625</v>
       </c>
       <c r="Z52" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA52" s="3"/>
       <c r="AB52" s="3"/>
@@ -8141,7 +8141,7 @@
         <v>21675</v>
       </c>
       <c r="Z53" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA53" s="3"/>
       <c r="AB53" s="3"/>
@@ -8217,7 +8217,7 @@
         <v>23800</v>
       </c>
       <c r="Z54" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA54" s="3"/>
       <c r="AB54" s="3"/>
@@ -8293,7 +8293,7 @@
         <v>26550</v>
       </c>
       <c r="Z55" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
@@ -8369,7 +8369,7 @@
         <v>27750</v>
       </c>
       <c r="Z56" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
@@ -8445,7 +8445,7 @@
         <v>28350</v>
       </c>
       <c r="Z57" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA57" s="3"/>
       <c r="AB57" s="3"/>
@@ -8521,7 +8521,7 @@
         <v>29550</v>
       </c>
       <c r="Z58" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA58" s="3"/>
       <c r="AB58" s="3"/>
@@ -8597,7 +8597,7 @@
         <v>30750</v>
       </c>
       <c r="Z59" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA59" s="3"/>
       <c r="AB59" s="3"/>
@@ -8673,7 +8673,7 @@
         <v>31350</v>
       </c>
       <c r="Z60" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA60" s="3"/>
       <c r="AB60" s="3"/>
@@ -8749,7 +8749,7 @@
         <v>33900</v>
       </c>
       <c r="Z61" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA61" s="3"/>
       <c r="AB61" s="3"/>
@@ -8825,7 +8825,7 @@
         <v>37275</v>
       </c>
       <c r="Z62" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA62" s="3"/>
       <c r="AB62" s="3"/>
@@ -8901,7 +8901,7 @@
         <v>38625</v>
       </c>
       <c r="Z63" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA63" s="3"/>
       <c r="AB63" s="3"/>
@@ -8977,7 +8977,7 @@
         <v>39975</v>
       </c>
       <c r="Z64" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA64" s="3"/>
       <c r="AB64" s="3"/>
@@ -9053,7 +9053,7 @@
         <v>39975</v>
       </c>
       <c r="Z65" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA65" s="3"/>
       <c r="AB65" s="3"/>
@@ -9129,7 +9129,7 @@
         <v>40750</v>
       </c>
       <c r="Z66" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA66" s="3"/>
       <c r="AB66" s="3"/>
@@ -9205,7 +9205,7 @@
         <v>41425</v>
       </c>
       <c r="Z67" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
@@ -9281,7 +9281,7 @@
         <v>42100</v>
       </c>
       <c r="Z68" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA68" s="3"/>
       <c r="AB68" s="3"/>
@@ -9357,7 +9357,7 @@
         <v>44350</v>
       </c>
       <c r="Z69" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA69" s="3"/>
       <c r="AB69" s="3"/>
@@ -9433,7 +9433,7 @@
         <v>47500</v>
       </c>
       <c r="Z70" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA70" s="3"/>
       <c r="AB70" s="3"/>
@@ -9509,7 +9509,7 @@
         <v>48250</v>
       </c>
       <c r="Z71" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA71" s="3"/>
       <c r="AB71" s="3"/>
@@ -9585,7 +9585,7 @@
         <v>49000</v>
       </c>
       <c r="Z72" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA72" s="3"/>
       <c r="AB72" s="3"/>
@@ -9661,7 +9661,7 @@
         <v>49750</v>
       </c>
       <c r="Z73" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA73" s="3"/>
       <c r="AB73" s="3"/>
@@ -9737,7 +9737,7 @@
         <v>50500</v>
       </c>
       <c r="Z74" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA74" s="3"/>
       <c r="AB74" s="3"/>
@@ -9813,7 +9813,7 @@
         <v>50500</v>
       </c>
       <c r="Z75" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA75" s="3"/>
       <c r="AB75" s="3"/>
@@ -9889,7 +9889,7 @@
         <v>51250</v>
       </c>
       <c r="Z76" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA76" s="3"/>
       <c r="AB76" s="3"/>
@@ -9965,7 +9965,7 @@
         <v>52000</v>
       </c>
       <c r="Z77" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA77" s="3"/>
       <c r="AB77" s="3"/>
@@ -10041,7 +10041,7 @@
         <v>52750</v>
       </c>
       <c r="Z78" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA78" s="3"/>
       <c r="AB78" s="3"/>
@@ -10117,7 +10117,7 @@
         <v>53650</v>
       </c>
       <c r="Z79" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA79" s="3"/>
       <c r="AB79" s="3"/>
@@ -10193,7 +10193,7 @@
         <v>53650</v>
       </c>
       <c r="Z80" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA80" s="3"/>
       <c r="AB80" s="3"/>
@@ -10269,7 +10269,7 @@
         <v>54400</v>
       </c>
       <c r="Z81" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA81" s="3"/>
       <c r="AB81" s="3"/>
@@ -10345,7 +10345,7 @@
         <v>55150</v>
       </c>
       <c r="Z82" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
@@ -10421,7 +10421,7 @@
         <v>55900</v>
       </c>
       <c r="Z83" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA83" s="3"/>
       <c r="AB83" s="3"/>
@@ -10497,7 +10497,7 @@
         <v>56650</v>
       </c>
       <c r="Z84" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA84" s="3"/>
       <c r="AB84" s="3"/>
@@ -10536,13 +10536,13 @@
         <v>0</v>
       </c>
       <c r="K85" s="3">
-        <v>35066614</v>
+        <v>35382016</v>
       </c>
       <c r="L85" s="3">
         <v>0</v>
       </c>
       <c r="M85" s="3">
-        <v>3106192</v>
+        <v>3134109</v>
       </c>
       <c r="N85" s="3">
         <v>0</v>
@@ -10573,7 +10573,7 @@
         <v>56650</v>
       </c>
       <c r="Z85" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA85" s="3"/>
       <c r="AB85" s="3"/>
@@ -10649,7 +10649,7 @@
         <v>0</v>
       </c>
       <c r="Z86" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA86" s="3"/>
       <c r="AB86" s="3"/>
@@ -10725,7 +10725,7 @@
         <v>0</v>
       </c>
       <c r="Z87" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA87" s="3"/>
       <c r="AB87" s="3"/>
@@ -10764,19 +10764,19 @@
         <v>0</v>
       </c>
       <c r="K88" s="3">
-        <v>648</v>
+        <v>555</v>
       </c>
       <c r="L88" s="3">
         <v>0</v>
       </c>
       <c r="M88" s="3">
-        <v>575</v>
+        <v>493</v>
       </c>
       <c r="N88" s="3">
         <v>0</v>
       </c>
       <c r="O88" s="3">
-        <v>287</v>
+        <v>246</v>
       </c>
       <c r="P88" s="3"/>
       <c r="Q88" s="3"/>
@@ -10801,7 +10801,7 @@
         <v>0</v>
       </c>
       <c r="Z88" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA88" s="3"/>
       <c r="AB88" s="3"/>
@@ -10840,19 +10840,19 @@
         <v>0</v>
       </c>
       <c r="K89" s="3">
-        <v>3999</v>
+        <v>3796</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
       <c r="M89" s="3">
-        <v>1207</v>
+        <v>1126</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
       <c r="O89" s="3">
-        <v>399</v>
+        <v>359</v>
       </c>
       <c r="P89" s="3"/>
       <c r="Q89" s="3"/>
@@ -10877,7 +10877,7 @@
         <v>0</v>
       </c>
       <c r="Z89" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA89" s="3"/>
       <c r="AB89" s="3"/>
@@ -10916,19 +10916,19 @@
         <v>0</v>
       </c>
       <c r="K90" s="3">
-        <v>6399</v>
+        <v>5908</v>
       </c>
       <c r="L90" s="3">
         <v>0</v>
       </c>
       <c r="M90" s="3">
-        <v>1663</v>
+        <v>1495</v>
       </c>
       <c r="N90" s="3">
         <v>0</v>
       </c>
       <c r="O90" s="3">
-        <v>569</v>
+        <v>485</v>
       </c>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
@@ -10953,7 +10953,7 @@
         <v>0</v>
       </c>
       <c r="Z90" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
@@ -10992,19 +10992,19 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
-        <v>8025</v>
+        <v>7458</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
       <c r="M91" s="3">
-        <v>1999</v>
+        <v>1831</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
       <c r="O91" s="3">
-        <v>810</v>
+        <v>726</v>
       </c>
       <c r="P91" s="3"/>
       <c r="Q91" s="3"/>
@@ -11029,7 +11029,7 @@
         <v>0</v>
       </c>
       <c r="Z91" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA91" s="3"/>
       <c r="AB91" s="3"/>
@@ -11068,19 +11068,19 @@
         <v>0</v>
       </c>
       <c r="K92" s="3">
-        <v>11719</v>
+        <v>10732</v>
       </c>
       <c r="L92" s="3">
         <v>0</v>
       </c>
       <c r="M92" s="3">
-        <v>2839</v>
+        <v>2582</v>
       </c>
       <c r="N92" s="3">
         <v>0</v>
       </c>
       <c r="O92" s="3">
-        <v>1307</v>
+        <v>1179</v>
       </c>
       <c r="P92" s="3"/>
       <c r="Q92" s="3"/>
@@ -11105,7 +11105,7 @@
         <v>0</v>
       </c>
       <c r="Z92" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA92" s="3"/>
       <c r="AB92" s="3"/>
@@ -11144,19 +11144,19 @@
         <v>0</v>
       </c>
       <c r="K93" s="3">
-        <v>16912</v>
+        <v>15876</v>
       </c>
       <c r="L93" s="3">
         <v>0</v>
       </c>
       <c r="M93" s="3">
-        <v>3663</v>
+        <v>3406</v>
       </c>
       <c r="N93" s="3">
         <v>0</v>
       </c>
       <c r="O93" s="3">
-        <v>1575</v>
+        <v>1446</v>
       </c>
       <c r="P93" s="3"/>
       <c r="Q93" s="3"/>
@@ -11181,7 +11181,7 @@
         <v>0</v>
       </c>
       <c r="Z93" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA93" s="3"/>
       <c r="AB93" s="3"/>
@@ -11257,7 +11257,7 @@
         <v>0</v>
       </c>
       <c r="Z94" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA94" s="3"/>
       <c r="AB94" s="3"/>
@@ -11333,7 +11333,7 @@
         <v>0</v>
       </c>
       <c r="Z95" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
@@ -11409,7 +11409,7 @@
         <v>0</v>
       </c>
       <c r="Z96" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA96" s="3"/>
       <c r="AB96" s="3"/>
@@ -11485,7 +11485,7 @@
         <v>0</v>
       </c>
       <c r="Z97" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA97" s="3"/>
       <c r="AB97" s="3"/>
@@ -11561,7 +11561,7 @@
         <v>0</v>
       </c>
       <c r="Z98" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA98" s="3"/>
       <c r="AB98" s="3"/>
@@ -11637,7 +11637,7 @@
         <v>36</v>
       </c>
       <c r="Z99" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA99" s="3"/>
       <c r="AB99" s="3"/>
@@ -11713,7 +11713,7 @@
         <v>222</v>
       </c>
       <c r="Z100" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA100" s="3"/>
       <c r="AB100" s="3"/>
@@ -11789,7 +11789,7 @@
         <v>447</v>
       </c>
       <c r="Z101" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA101" s="3"/>
       <c r="AB101" s="3"/>
@@ -11865,7 +11865,7 @@
         <v>486</v>
       </c>
       <c r="Z102" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA102" s="3"/>
       <c r="AB102" s="3"/>
@@ -11941,7 +11941,7 @@
         <v>750</v>
       </c>
       <c r="Z103" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA103" s="3"/>
       <c r="AB103" s="3"/>
@@ -12017,7 +12017,7 @@
         <v>1100</v>
       </c>
       <c r="Z104" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA104" s="3"/>
       <c r="AB104" s="3"/>
@@ -12093,7 +12093,7 @@
         <v>1650</v>
       </c>
       <c r="Z105" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA105" s="3"/>
       <c r="AB105" s="3"/>
@@ -12169,7 +12169,7 @@
         <v>1950</v>
       </c>
       <c r="Z106" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA106" s="3"/>
       <c r="AB106" s="3"/>
@@ -12245,7 +12245,7 @@
         <v>1950</v>
       </c>
       <c r="Z107" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA107" s="3"/>
       <c r="AB107" s="3"/>
@@ -12321,7 +12321,7 @@
         <v>2250</v>
       </c>
       <c r="Z108" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA108" s="3"/>
       <c r="AB108" s="3"/>
@@ -12397,7 +12397,7 @@
         <v>2550</v>
       </c>
       <c r="Z109" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA109" s="3"/>
       <c r="AB109" s="3"/>
@@ -12473,7 +12473,7 @@
         <v>2850</v>
       </c>
       <c r="Z110" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA110" s="3"/>
       <c r="AB110" s="3"/>
@@ -12549,7 +12549,7 @@
         <v>3646</v>
       </c>
       <c r="Z111" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA111" s="3"/>
       <c r="AB111" s="3"/>
@@ -12625,7 +12625,7 @@
         <v>3646</v>
       </c>
       <c r="Z112" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA112" s="3"/>
       <c r="AB112" s="3"/>
@@ -12701,7 +12701,7 @@
         <v>3982</v>
       </c>
       <c r="Z113" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA113" s="3"/>
       <c r="AB113" s="3"/>
@@ -12777,7 +12777,7 @@
         <v>4318</v>
       </c>
       <c r="Z114" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA114" s="3"/>
       <c r="AB114" s="3"/>
@@ -12853,7 +12853,7 @@
         <v>4654</v>
       </c>
       <c r="Z115" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA115" s="3"/>
       <c r="AB115" s="3"/>
@@ -12929,7 +12929,7 @@
         <v>4990</v>
       </c>
       <c r="Z116" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA116" s="3"/>
       <c r="AB116" s="3"/>
@@ -13005,7 +13005,7 @@
         <v>5185</v>
       </c>
       <c r="Z117" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA117" s="3"/>
       <c r="AB117" s="3"/>
@@ -13081,7 +13081,7 @@
         <v>5950</v>
       </c>
       <c r="Z118" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA118" s="3"/>
       <c r="AB118" s="3"/>
@@ -13157,7 +13157,7 @@
         <v>6325</v>
       </c>
       <c r="Z119" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA119" s="3"/>
       <c r="AB119" s="3"/>
@@ -13233,7 +13233,7 @@
         <v>6700</v>
       </c>
       <c r="Z120" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA120" s="3"/>
       <c r="AB120" s="3"/>
@@ -13309,7 +13309,7 @@
         <v>7075</v>
       </c>
       <c r="Z121" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA121" s="3"/>
       <c r="AB121" s="3"/>
@@ -13385,7 +13385,7 @@
         <v>7450</v>
       </c>
       <c r="Z122" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA122" s="3"/>
       <c r="AB122" s="3"/>
@@ -13461,7 +13461,7 @@
         <v>8750</v>
       </c>
       <c r="Z123" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA123" s="3"/>
       <c r="AB123" s="3"/>
@@ -13537,7 +13537,7 @@
         <v>10300</v>
       </c>
       <c r="Z124" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA124" s="3"/>
       <c r="AB124" s="3"/>
@@ -13613,7 +13613,7 @@
         <v>11200</v>
       </c>
       <c r="Z125" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA125" s="3"/>
       <c r="AB125" s="3"/>
@@ -13689,7 +13689,7 @@
         <v>12100</v>
       </c>
       <c r="Z126" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA126" s="3"/>
       <c r="AB126" s="3"/>
@@ -13765,7 +13765,7 @@
         <v>12550</v>
       </c>
       <c r="Z127" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA127" s="3"/>
       <c r="AB127" s="3"/>
@@ -13841,7 +13841,7 @@
         <v>13810</v>
       </c>
       <c r="Z128" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA128" s="3"/>
       <c r="AB128" s="3"/>
@@ -13917,7 +13917,7 @@
         <v>15216</v>
       </c>
       <c r="Z129" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA129" s="3"/>
       <c r="AB129" s="3"/>
@@ -13993,7 +13993,7 @@
         <v>16188</v>
       </c>
       <c r="Z130" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA130" s="3"/>
       <c r="AB130" s="3"/>
@@ -14069,7 +14069,7 @@
         <v>17615</v>
       </c>
       <c r="Z131" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA131" s="3"/>
       <c r="AB131" s="3"/>
@@ -14145,7 +14145,7 @@
         <v>19050</v>
       </c>
       <c r="Z132" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA132" s="3"/>
       <c r="AB132" s="3"/>
@@ -14221,7 +14221,7 @@
         <v>20100</v>
       </c>
       <c r="Z133" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA133" s="3"/>
       <c r="AB133" s="3"/>
@@ -14297,7 +14297,7 @@
         <v>20625</v>
       </c>
       <c r="Z134" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA134" s="3"/>
       <c r="AB134" s="3"/>
@@ -14373,7 +14373,7 @@
         <v>21675</v>
       </c>
       <c r="Z135" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA135" s="3"/>
       <c r="AB135" s="3"/>
@@ -14449,7 +14449,7 @@
         <v>23800</v>
       </c>
       <c r="Z136" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA136" s="3"/>
       <c r="AB136" s="3"/>
@@ -14525,7 +14525,7 @@
         <v>26550</v>
       </c>
       <c r="Z137" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA137" s="3"/>
       <c r="AB137" s="3"/>
@@ -14601,7 +14601,7 @@
         <v>27750</v>
       </c>
       <c r="Z138" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA138" s="3"/>
       <c r="AB138" s="3"/>
@@ -14677,7 +14677,7 @@
         <v>28350</v>
       </c>
       <c r="Z139" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA139" s="3"/>
       <c r="AB139" s="3"/>
@@ -14753,7 +14753,7 @@
         <v>29550</v>
       </c>
       <c r="Z140" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA140" s="3"/>
       <c r="AB140" s="3"/>
@@ -14829,7 +14829,7 @@
         <v>30750</v>
       </c>
       <c r="Z141" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA141" s="3"/>
       <c r="AB141" s="3"/>
@@ -14905,7 +14905,7 @@
         <v>31350</v>
       </c>
       <c r="Z142" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA142" s="3"/>
       <c r="AB142" s="3"/>
@@ -14981,7 +14981,7 @@
         <v>33900</v>
       </c>
       <c r="Z143" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA143" s="3"/>
       <c r="AB143" s="3"/>
@@ -15057,7 +15057,7 @@
         <v>37275</v>
       </c>
       <c r="Z144" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA144" s="3"/>
       <c r="AB144" s="3"/>
@@ -15133,7 +15133,7 @@
         <v>38625</v>
       </c>
       <c r="Z145" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA145" s="3"/>
       <c r="AB145" s="3"/>
@@ -15209,7 +15209,7 @@
         <v>39975</v>
       </c>
       <c r="Z146" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA146" s="3"/>
       <c r="AB146" s="3"/>
@@ -15285,7 +15285,7 @@
         <v>39975</v>
       </c>
       <c r="Z147" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA147" s="3"/>
       <c r="AB147" s="3"/>
@@ -15361,7 +15361,7 @@
         <v>40750</v>
       </c>
       <c r="Z148" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA148" s="3"/>
       <c r="AB148" s="3"/>
@@ -15437,7 +15437,7 @@
         <v>41425</v>
       </c>
       <c r="Z149" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA149" s="3"/>
       <c r="AB149" s="3"/>
@@ -15513,7 +15513,7 @@
         <v>42100</v>
       </c>
       <c r="Z150" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA150" s="3"/>
       <c r="AB150" s="3"/>
@@ -15589,7 +15589,7 @@
         <v>44350</v>
       </c>
       <c r="Z151" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA151" s="3"/>
       <c r="AB151" s="3"/>
@@ -15665,7 +15665,7 @@
         <v>47500</v>
       </c>
       <c r="Z152" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA152" s="3"/>
       <c r="AB152" s="3"/>
@@ -15741,7 +15741,7 @@
         <v>48250</v>
       </c>
       <c r="Z153" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA153" s="3"/>
       <c r="AB153" s="3"/>
@@ -15817,7 +15817,7 @@
         <v>49000</v>
       </c>
       <c r="Z154" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA154" s="3"/>
       <c r="AB154" s="3"/>
@@ -15893,7 +15893,7 @@
         <v>49750</v>
       </c>
       <c r="Z155" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA155" s="3"/>
       <c r="AB155" s="3"/>
@@ -15969,7 +15969,7 @@
         <v>50500</v>
       </c>
       <c r="Z156" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA156" s="3"/>
       <c r="AB156" s="3"/>
@@ -16045,7 +16045,7 @@
         <v>50500</v>
       </c>
       <c r="Z157" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA157" s="3"/>
       <c r="AB157" s="3"/>
@@ -16121,7 +16121,7 @@
         <v>51250</v>
       </c>
       <c r="Z158" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA158" s="3"/>
       <c r="AB158" s="3"/>
@@ -16197,7 +16197,7 @@
         <v>52000</v>
       </c>
       <c r="Z159" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA159" s="3"/>
       <c r="AB159" s="3"/>
@@ -16273,7 +16273,7 @@
         <v>52750</v>
       </c>
       <c r="Z160" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA160" s="3"/>
       <c r="AB160" s="3"/>
@@ -16349,7 +16349,7 @@
         <v>53650</v>
       </c>
       <c r="Z161" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA161" s="3"/>
       <c r="AB161" s="3"/>
@@ -16425,7 +16425,7 @@
         <v>53650</v>
       </c>
       <c r="Z162" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA162" s="3"/>
       <c r="AB162" s="3"/>
@@ -16501,7 +16501,7 @@
         <v>54400</v>
       </c>
       <c r="Z163" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA163" s="3"/>
       <c r="AB163" s="3"/>
@@ -16577,7 +16577,7 @@
         <v>55150</v>
       </c>
       <c r="Z164" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA164" s="3"/>
       <c r="AB164" s="3"/>
@@ -16653,7 +16653,7 @@
         <v>55900</v>
       </c>
       <c r="Z165" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA165" s="3"/>
       <c r="AB165" s="3"/>
@@ -16729,7 +16729,7 @@
         <v>56650</v>
       </c>
       <c r="Z166" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA166" s="3"/>
       <c r="AB166" s="3"/>
@@ -16768,13 +16768,13 @@
         <v>0</v>
       </c>
       <c r="K167" s="3">
-        <v>52599922</v>
+        <v>53073026</v>
       </c>
       <c r="L167" s="3">
         <v>0</v>
       </c>
       <c r="M167" s="3">
-        <v>3106192</v>
+        <v>3134109</v>
       </c>
       <c r="N167" s="3">
         <v>0</v>
@@ -16805,7 +16805,7 @@
         <v>56650</v>
       </c>
       <c r="Z167" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA167" s="3"/>
       <c r="AB167" s="3"/>
@@ -16881,7 +16881,7 @@
         <v>0</v>
       </c>
       <c r="Z168" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA168" s="3"/>
       <c r="AB168" s="3"/>
@@ -16957,7 +16957,7 @@
         <v>0</v>
       </c>
       <c r="Z169" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA169" s="3"/>
       <c r="AB169" s="3"/>
@@ -16996,19 +16996,19 @@
         <v>0</v>
       </c>
       <c r="K170" s="3">
-        <v>1296</v>
+        <v>1111</v>
       </c>
       <c r="L170" s="3">
         <v>0</v>
       </c>
       <c r="M170" s="3">
-        <v>575</v>
+        <v>493</v>
       </c>
       <c r="N170" s="3">
         <v>0</v>
       </c>
       <c r="O170" s="3">
-        <v>287</v>
+        <v>246</v>
       </c>
       <c r="P170" s="3"/>
       <c r="Q170" s="3"/>
@@ -17033,7 +17033,7 @@
         <v>0</v>
       </c>
       <c r="Z170" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA170" s="3"/>
       <c r="AB170" s="3"/>
@@ -17072,19 +17072,19 @@
         <v>0</v>
       </c>
       <c r="K171" s="3">
-        <v>7999</v>
+        <v>7593</v>
       </c>
       <c r="L171" s="3">
         <v>0</v>
       </c>
       <c r="M171" s="3">
-        <v>1207</v>
+        <v>1126</v>
       </c>
       <c r="N171" s="3">
         <v>0</v>
       </c>
       <c r="O171" s="3">
-        <v>399</v>
+        <v>359</v>
       </c>
       <c r="P171" s="3"/>
       <c r="Q171" s="3"/>
@@ -17109,7 +17109,7 @@
         <v>0</v>
       </c>
       <c r="Z171" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA171" s="3"/>
       <c r="AB171" s="3"/>
@@ -17148,19 +17148,19 @@
         <v>0</v>
       </c>
       <c r="K172" s="3">
-        <v>12799</v>
+        <v>11817</v>
       </c>
       <c r="L172" s="3">
         <v>0</v>
       </c>
       <c r="M172" s="3">
-        <v>1663</v>
+        <v>1495</v>
       </c>
       <c r="N172" s="3">
         <v>0</v>
       </c>
       <c r="O172" s="3">
-        <v>569</v>
+        <v>485</v>
       </c>
       <c r="P172" s="3"/>
       <c r="Q172" s="3"/>
@@ -17185,7 +17185,7 @@
         <v>0</v>
       </c>
       <c r="Z172" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA172" s="3"/>
       <c r="AB172" s="3"/>
@@ -17224,19 +17224,19 @@
         <v>0</v>
       </c>
       <c r="K173" s="3">
-        <v>16051</v>
+        <v>14917</v>
       </c>
       <c r="L173" s="3">
         <v>0</v>
       </c>
       <c r="M173" s="3">
-        <v>1999</v>
+        <v>1831</v>
       </c>
       <c r="N173" s="3">
         <v>0</v>
       </c>
       <c r="O173" s="3">
-        <v>810</v>
+        <v>726</v>
       </c>
       <c r="P173" s="3"/>
       <c r="Q173" s="3"/>
@@ -17261,7 +17261,7 @@
         <v>0</v>
       </c>
       <c r="Z173" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA173" s="3"/>
       <c r="AB173" s="3"/>
@@ -17300,19 +17300,19 @@
         <v>0</v>
       </c>
       <c r="K174" s="3">
-        <v>23439</v>
+        <v>21465</v>
       </c>
       <c r="L174" s="3">
         <v>0</v>
       </c>
       <c r="M174" s="3">
-        <v>2839</v>
+        <v>2582</v>
       </c>
       <c r="N174" s="3">
         <v>0</v>
       </c>
       <c r="O174" s="3">
-        <v>1307</v>
+        <v>1179</v>
       </c>
       <c r="P174" s="3"/>
       <c r="Q174" s="3"/>
@@ -17337,7 +17337,7 @@
         <v>0</v>
       </c>
       <c r="Z174" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA174" s="3"/>
       <c r="AB174" s="3"/>
@@ -17376,19 +17376,19 @@
         <v>0</v>
       </c>
       <c r="K175" s="3">
-        <v>33825</v>
+        <v>31752</v>
       </c>
       <c r="L175" s="3">
         <v>0</v>
       </c>
       <c r="M175" s="3">
-        <v>3663</v>
+        <v>3406</v>
       </c>
       <c r="N175" s="3">
         <v>0</v>
       </c>
       <c r="O175" s="3">
-        <v>1575</v>
+        <v>1446</v>
       </c>
       <c r="P175" s="3"/>
       <c r="Q175" s="3"/>
@@ -17413,7 +17413,7 @@
         <v>0</v>
       </c>
       <c r="Z175" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA175" s="3"/>
       <c r="AB175" s="3"/>
@@ -17489,7 +17489,7 @@
         <v>0</v>
       </c>
       <c r="Z176" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA176" s="3"/>
       <c r="AB176" s="3"/>
@@ -17565,7 +17565,7 @@
         <v>0</v>
       </c>
       <c r="Z177" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA177" s="3"/>
       <c r="AB177" s="3"/>
@@ -17641,7 +17641,7 @@
         <v>0</v>
       </c>
       <c r="Z178" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA178" s="3"/>
       <c r="AB178" s="3"/>
@@ -17717,7 +17717,7 @@
         <v>0</v>
       </c>
       <c r="Z179" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA179" s="3"/>
       <c r="AB179" s="3"/>
@@ -17793,7 +17793,7 @@
         <v>0</v>
       </c>
       <c r="Z180" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA180" s="3"/>
       <c r="AB180" s="3"/>
@@ -17869,7 +17869,7 @@
         <v>36</v>
       </c>
       <c r="Z181" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA181" s="3"/>
       <c r="AB181" s="3"/>
@@ -17945,7 +17945,7 @@
         <v>222</v>
       </c>
       <c r="Z182" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA182" s="3"/>
       <c r="AB182" s="3"/>
@@ -18021,7 +18021,7 @@
         <v>447</v>
       </c>
       <c r="Z183" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA183" s="3"/>
       <c r="AB183" s="3"/>
@@ -18097,7 +18097,7 @@
         <v>486</v>
       </c>
       <c r="Z184" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA184" s="3"/>
       <c r="AB184" s="3"/>
@@ -18173,7 +18173,7 @@
         <v>750</v>
       </c>
       <c r="Z185" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA185" s="3"/>
       <c r="AB185" s="3"/>
@@ -18249,7 +18249,7 @@
         <v>1100</v>
       </c>
       <c r="Z186" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA186" s="3"/>
       <c r="AB186" s="3"/>
@@ -18325,7 +18325,7 @@
         <v>1650</v>
       </c>
       <c r="Z187" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA187" s="3"/>
       <c r="AB187" s="3"/>
@@ -18401,7 +18401,7 @@
         <v>1950</v>
       </c>
       <c r="Z188" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA188" s="3"/>
       <c r="AB188" s="3"/>
@@ -18477,7 +18477,7 @@
         <v>1950</v>
       </c>
       <c r="Z189" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA189" s="3"/>
       <c r="AB189" s="3"/>
@@ -18553,7 +18553,7 @@
         <v>2250</v>
       </c>
       <c r="Z190" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA190" s="3"/>
       <c r="AB190" s="3"/>
@@ -18629,7 +18629,7 @@
         <v>2550</v>
       </c>
       <c r="Z191" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA191" s="3"/>
       <c r="AB191" s="3"/>
@@ -18705,7 +18705,7 @@
         <v>2850</v>
       </c>
       <c r="Z192" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA192" s="3"/>
       <c r="AB192" s="3"/>
@@ -18781,7 +18781,7 @@
         <v>3646</v>
       </c>
       <c r="Z193" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA193" s="3"/>
       <c r="AB193" s="3"/>
@@ -18857,7 +18857,7 @@
         <v>3646</v>
       </c>
       <c r="Z194" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA194" s="3"/>
       <c r="AB194" s="3"/>
@@ -18933,7 +18933,7 @@
         <v>3982</v>
       </c>
       <c r="Z195" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA195" s="3"/>
       <c r="AB195" s="3"/>
@@ -19009,7 +19009,7 @@
         <v>4318</v>
       </c>
       <c r="Z196" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA196" s="3"/>
       <c r="AB196" s="3"/>
@@ -19085,7 +19085,7 @@
         <v>4654</v>
       </c>
       <c r="Z197" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA197" s="3"/>
       <c r="AB197" s="3"/>
@@ -19161,7 +19161,7 @@
         <v>4990</v>
       </c>
       <c r="Z198" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA198" s="3"/>
       <c r="AB198" s="3"/>
@@ -19237,7 +19237,7 @@
         <v>5185</v>
       </c>
       <c r="Z199" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA199" s="3"/>
       <c r="AB199" s="3"/>
@@ -19313,7 +19313,7 @@
         <v>5950</v>
       </c>
       <c r="Z200" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA200" s="3"/>
       <c r="AB200" s="3"/>
@@ -19389,7 +19389,7 @@
         <v>6325</v>
       </c>
       <c r="Z201" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA201" s="3"/>
       <c r="AB201" s="3"/>
@@ -19465,7 +19465,7 @@
         <v>6700</v>
       </c>
       <c r="Z202" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA202" s="3"/>
       <c r="AB202" s="3"/>
@@ -19541,7 +19541,7 @@
         <v>7075</v>
       </c>
       <c r="Z203" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA203" s="3"/>
       <c r="AB203" s="3"/>
@@ -19617,7 +19617,7 @@
         <v>7450</v>
       </c>
       <c r="Z204" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA204" s="3"/>
       <c r="AB204" s="3"/>
@@ -19693,7 +19693,7 @@
         <v>8750</v>
       </c>
       <c r="Z205" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA205" s="3"/>
       <c r="AB205" s="3"/>
@@ -19769,7 +19769,7 @@
         <v>10300</v>
       </c>
       <c r="Z206" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA206" s="3"/>
       <c r="AB206" s="3"/>
@@ -19845,7 +19845,7 @@
         <v>11200</v>
       </c>
       <c r="Z207" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA207" s="3"/>
       <c r="AB207" s="3"/>
@@ -19921,7 +19921,7 @@
         <v>12100</v>
       </c>
       <c r="Z208" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA208" s="3"/>
       <c r="AB208" s="3"/>
@@ -19997,7 +19997,7 @@
         <v>12550</v>
       </c>
       <c r="Z209" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA209" s="3"/>
       <c r="AB209" s="3"/>
@@ -20073,7 +20073,7 @@
         <v>13810</v>
       </c>
       <c r="Z210" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA210" s="3"/>
       <c r="AB210" s="3"/>
@@ -20149,7 +20149,7 @@
         <v>15216</v>
       </c>
       <c r="Z211" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA211" s="3"/>
       <c r="AB211" s="3"/>
@@ -20225,7 +20225,7 @@
         <v>16188</v>
       </c>
       <c r="Z212" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA212" s="3"/>
       <c r="AB212" s="3"/>
@@ -20301,7 +20301,7 @@
         <v>17615</v>
       </c>
       <c r="Z213" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA213" s="3"/>
       <c r="AB213" s="3"/>
@@ -20377,7 +20377,7 @@
         <v>19050</v>
       </c>
       <c r="Z214" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA214" s="3"/>
       <c r="AB214" s="3"/>
@@ -20453,7 +20453,7 @@
         <v>20100</v>
       </c>
       <c r="Z215" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA215" s="3"/>
       <c r="AB215" s="3"/>
@@ -20529,7 +20529,7 @@
         <v>20625</v>
       </c>
       <c r="Z216" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA216" s="3"/>
       <c r="AB216" s="3"/>
@@ -20605,7 +20605,7 @@
         <v>21675</v>
       </c>
       <c r="Z217" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA217" s="3"/>
       <c r="AB217" s="3"/>
@@ -20681,7 +20681,7 @@
         <v>23800</v>
       </c>
       <c r="Z218" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA218" s="3"/>
       <c r="AB218" s="3"/>
@@ -20757,7 +20757,7 @@
         <v>26550</v>
       </c>
       <c r="Z219" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA219" s="3"/>
       <c r="AB219" s="3"/>
@@ -20833,7 +20833,7 @@
         <v>27750</v>
       </c>
       <c r="Z220" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA220" s="3"/>
       <c r="AB220" s="3"/>
@@ -20909,7 +20909,7 @@
         <v>28350</v>
       </c>
       <c r="Z221" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA221" s="3"/>
       <c r="AB221" s="3"/>
@@ -20985,7 +20985,7 @@
         <v>29550</v>
       </c>
       <c r="Z222" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA222" s="3"/>
       <c r="AB222" s="3"/>
@@ -21061,7 +21061,7 @@
         <v>30750</v>
       </c>
       <c r="Z223" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA223" s="3"/>
       <c r="AB223" s="3"/>
@@ -21137,7 +21137,7 @@
         <v>31350</v>
       </c>
       <c r="Z224" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA224" s="3"/>
       <c r="AB224" s="3"/>
@@ -21213,7 +21213,7 @@
         <v>33900</v>
       </c>
       <c r="Z225" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA225" s="3"/>
       <c r="AB225" s="3"/>
@@ -21289,7 +21289,7 @@
         <v>37275</v>
       </c>
       <c r="Z226" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA226" s="3"/>
       <c r="AB226" s="3"/>
@@ -21365,7 +21365,7 @@
         <v>38625</v>
       </c>
       <c r="Z227" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA227" s="3"/>
       <c r="AB227" s="3"/>
@@ -21441,7 +21441,7 @@
         <v>39975</v>
       </c>
       <c r="Z228" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA228" s="3"/>
       <c r="AB228" s="3"/>
@@ -21517,7 +21517,7 @@
         <v>39975</v>
       </c>
       <c r="Z229" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA229" s="3"/>
       <c r="AB229" s="3"/>
@@ -21593,7 +21593,7 @@
         <v>40750</v>
       </c>
       <c r="Z230" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA230" s="3"/>
       <c r="AB230" s="3"/>
@@ -21669,7 +21669,7 @@
         <v>41425</v>
       </c>
       <c r="Z231" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA231" s="3"/>
       <c r="AB231" s="3"/>
@@ -21745,7 +21745,7 @@
         <v>42100</v>
       </c>
       <c r="Z232" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA232" s="3"/>
       <c r="AB232" s="3"/>
@@ -21821,7 +21821,7 @@
         <v>44350</v>
       </c>
       <c r="Z233" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA233" s="3"/>
       <c r="AB233" s="3"/>
@@ -21897,7 +21897,7 @@
         <v>47500</v>
       </c>
       <c r="Z234" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA234" s="3"/>
       <c r="AB234" s="3"/>
@@ -21973,7 +21973,7 @@
         <v>48250</v>
       </c>
       <c r="Z235" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA235" s="3"/>
       <c r="AB235" s="3"/>
@@ -22049,7 +22049,7 @@
         <v>49000</v>
       </c>
       <c r="Z236" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA236" s="3"/>
       <c r="AB236" s="3"/>
@@ -22125,7 +22125,7 @@
         <v>49750</v>
       </c>
       <c r="Z237" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA237" s="3"/>
       <c r="AB237" s="3"/>
@@ -22201,7 +22201,7 @@
         <v>50500</v>
       </c>
       <c r="Z238" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA238" s="3"/>
       <c r="AB238" s="3"/>
@@ -22277,7 +22277,7 @@
         <v>50500</v>
       </c>
       <c r="Z239" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA239" s="3"/>
       <c r="AB239" s="3"/>
@@ -22353,7 +22353,7 @@
         <v>51250</v>
       </c>
       <c r="Z240" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA240" s="3"/>
       <c r="AB240" s="3"/>
@@ -22429,7 +22429,7 @@
         <v>52000</v>
       </c>
       <c r="Z241" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA241" s="3"/>
       <c r="AB241" s="3"/>
@@ -22505,7 +22505,7 @@
         <v>52750</v>
       </c>
       <c r="Z242" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA242" s="3"/>
       <c r="AB242" s="3"/>
@@ -22581,7 +22581,7 @@
         <v>53650</v>
       </c>
       <c r="Z243" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA243" s="3"/>
       <c r="AB243" s="3"/>
@@ -22657,7 +22657,7 @@
         <v>53650</v>
       </c>
       <c r="Z244" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA244" s="3"/>
       <c r="AB244" s="3"/>
@@ -22733,7 +22733,7 @@
         <v>54400</v>
       </c>
       <c r="Z245" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA245" s="3"/>
       <c r="AB245" s="3"/>
@@ -22809,7 +22809,7 @@
         <v>55150</v>
       </c>
       <c r="Z246" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA246" s="3"/>
       <c r="AB246" s="3"/>
@@ -22885,7 +22885,7 @@
         <v>55900</v>
       </c>
       <c r="Z247" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA247" s="3"/>
       <c r="AB247" s="3"/>
@@ -22961,7 +22961,7 @@
         <v>56650</v>
       </c>
       <c r="Z248" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA248" s="3"/>
       <c r="AB248" s="3"/>
@@ -23000,13 +23000,13 @@
         <v>0</v>
       </c>
       <c r="K249" s="3">
-        <v>105199844</v>
+        <v>106146052</v>
       </c>
       <c r="L249" s="3">
         <v>0</v>
       </c>
       <c r="M249" s="3">
-        <v>3106192</v>
+        <v>3134109</v>
       </c>
       <c r="N249" s="3">
         <v>0</v>
@@ -23037,7 +23037,7 @@
         <v>56650</v>
       </c>
       <c r="Z249" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA249" s="3"/>
       <c r="AB249" s="3"/>
@@ -23113,7 +23113,7 @@
         <v>0</v>
       </c>
       <c r="Z250" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA250" s="3"/>
       <c r="AB250" s="3"/>
@@ -23189,7 +23189,7 @@
         <v>0</v>
       </c>
       <c r="Z251" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA251" s="3"/>
       <c r="AB251" s="3"/>
@@ -23228,19 +23228,19 @@
         <v>0</v>
       </c>
       <c r="K252" s="3">
-        <v>1728</v>
+        <v>1482</v>
       </c>
       <c r="L252" s="3">
         <v>0</v>
       </c>
       <c r="M252" s="3">
-        <v>575</v>
+        <v>493</v>
       </c>
       <c r="N252" s="3">
         <v>0</v>
       </c>
       <c r="O252" s="3">
-        <v>287</v>
+        <v>246</v>
       </c>
       <c r="P252" s="3"/>
       <c r="Q252" s="3"/>
@@ -23265,7 +23265,7 @@
         <v>0</v>
       </c>
       <c r="Z252" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA252" s="3"/>
       <c r="AB252" s="3"/>
@@ -23304,19 +23304,19 @@
         <v>0</v>
       </c>
       <c r="K253" s="3">
-        <v>10665</v>
+        <v>10124</v>
       </c>
       <c r="L253" s="3">
         <v>0</v>
       </c>
       <c r="M253" s="3">
-        <v>1207</v>
+        <v>1126</v>
       </c>
       <c r="N253" s="3">
         <v>0</v>
       </c>
       <c r="O253" s="3">
-        <v>399</v>
+        <v>359</v>
       </c>
       <c r="P253" s="3"/>
       <c r="Q253" s="3"/>
@@ -23341,7 +23341,7 @@
         <v>0</v>
       </c>
       <c r="Z253" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA253" s="3"/>
       <c r="AB253" s="3"/>
@@ -23380,19 +23380,19 @@
         <v>0</v>
       </c>
       <c r="K254" s="3">
-        <v>17066</v>
+        <v>15756</v>
       </c>
       <c r="L254" s="3">
         <v>0</v>
       </c>
       <c r="M254" s="3">
-        <v>1663</v>
+        <v>1495</v>
       </c>
       <c r="N254" s="3">
         <v>0</v>
       </c>
       <c r="O254" s="3">
-        <v>569</v>
+        <v>485</v>
       </c>
       <c r="P254" s="3"/>
       <c r="Q254" s="3"/>
@@ -23417,7 +23417,7 @@
         <v>0</v>
       </c>
       <c r="Z254" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA254" s="3"/>
       <c r="AB254" s="3"/>
@@ -23456,19 +23456,19 @@
         <v>0</v>
       </c>
       <c r="K255" s="3">
-        <v>21402</v>
+        <v>19890</v>
       </c>
       <c r="L255" s="3">
         <v>0</v>
       </c>
       <c r="M255" s="3">
-        <v>1999</v>
+        <v>1831</v>
       </c>
       <c r="N255" s="3">
         <v>0</v>
       </c>
       <c r="O255" s="3">
-        <v>810</v>
+        <v>726</v>
       </c>
       <c r="P255" s="3"/>
       <c r="Q255" s="3"/>
@@ -23493,7 +23493,7 @@
         <v>0</v>
       </c>
       <c r="Z255" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA255" s="3"/>
       <c r="AB255" s="3"/>
@@ -23532,19 +23532,19 @@
         <v>0</v>
       </c>
       <c r="K256" s="3">
-        <v>31252</v>
+        <v>28621</v>
       </c>
       <c r="L256" s="3">
         <v>0</v>
       </c>
       <c r="M256" s="3">
-        <v>2839</v>
+        <v>2582</v>
       </c>
       <c r="N256" s="3">
         <v>0</v>
       </c>
       <c r="O256" s="3">
-        <v>1307</v>
+        <v>1179</v>
       </c>
       <c r="P256" s="3"/>
       <c r="Q256" s="3"/>
@@ -23569,7 +23569,7 @@
         <v>0</v>
       </c>
       <c r="Z256" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA256" s="3"/>
       <c r="AB256" s="3"/>
@@ -23608,19 +23608,19 @@
         <v>0</v>
       </c>
       <c r="K257" s="3">
-        <v>45100</v>
+        <v>42336</v>
       </c>
       <c r="L257" s="3">
         <v>0</v>
       </c>
       <c r="M257" s="3">
-        <v>3663</v>
+        <v>3406</v>
       </c>
       <c r="N257" s="3">
         <v>0</v>
       </c>
       <c r="O257" s="3">
-        <v>1575</v>
+        <v>1446</v>
       </c>
       <c r="P257" s="3"/>
       <c r="Q257" s="3"/>
@@ -23645,7 +23645,7 @@
         <v>0</v>
       </c>
       <c r="Z257" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA257" s="3"/>
       <c r="AB257" s="3"/>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Z258" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA258" s="3"/>
       <c r="AB258" s="3"/>
@@ -23797,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="Z259" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA259" s="3"/>
       <c r="AB259" s="3"/>
@@ -23873,7 +23873,7 @@
         <v>0</v>
       </c>
       <c r="Z260" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA260" s="3"/>
       <c r="AB260" s="3"/>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="Z261" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA261" s="3"/>
       <c r="AB261" s="3"/>
@@ -24025,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="Z262" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA262" s="3"/>
       <c r="AB262" s="3"/>
@@ -24101,7 +24101,7 @@
         <v>36</v>
       </c>
       <c r="Z263" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA263" s="3"/>
       <c r="AB263" s="3"/>
@@ -24177,7 +24177,7 @@
         <v>222</v>
       </c>
       <c r="Z264" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA264" s="3"/>
       <c r="AB264" s="3"/>
@@ -24253,7 +24253,7 @@
         <v>447</v>
       </c>
       <c r="Z265" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA265" s="3"/>
       <c r="AB265" s="3"/>
@@ -24329,7 +24329,7 @@
         <v>486</v>
       </c>
       <c r="Z266" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA266" s="3"/>
       <c r="AB266" s="3"/>
@@ -24405,7 +24405,7 @@
         <v>750</v>
       </c>
       <c r="Z267" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA267" s="3"/>
       <c r="AB267" s="3"/>
@@ -24481,7 +24481,7 @@
         <v>1100</v>
       </c>
       <c r="Z268" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA268" s="3"/>
       <c r="AB268" s="3"/>
@@ -24557,7 +24557,7 @@
         <v>1650</v>
       </c>
       <c r="Z269" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA269" s="3"/>
       <c r="AB269" s="3"/>
@@ -24633,7 +24633,7 @@
         <v>1950</v>
       </c>
       <c r="Z270" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA270" s="3"/>
       <c r="AB270" s="3"/>
@@ -24709,7 +24709,7 @@
         <v>1950</v>
       </c>
       <c r="Z271" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA271" s="3"/>
       <c r="AB271" s="3"/>
@@ -24785,7 +24785,7 @@
         <v>2250</v>
       </c>
       <c r="Z272" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA272" s="3"/>
       <c r="AB272" s="3"/>
@@ -24861,7 +24861,7 @@
         <v>2550</v>
       </c>
       <c r="Z273" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA273" s="3"/>
       <c r="AB273" s="3"/>
@@ -24937,7 +24937,7 @@
         <v>2850</v>
       </c>
       <c r="Z274" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA274" s="3"/>
       <c r="AB274" s="3"/>
@@ -25013,7 +25013,7 @@
         <v>3646</v>
       </c>
       <c r="Z275" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA275" s="3"/>
       <c r="AB275" s="3"/>
@@ -25089,7 +25089,7 @@
         <v>3646</v>
       </c>
       <c r="Z276" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA276" s="3"/>
       <c r="AB276" s="3"/>
@@ -25165,7 +25165,7 @@
         <v>3982</v>
       </c>
       <c r="Z277" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA277" s="3"/>
       <c r="AB277" s="3"/>
@@ -25241,7 +25241,7 @@
         <v>4318</v>
       </c>
       <c r="Z278" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA278" s="3"/>
       <c r="AB278" s="3"/>
@@ -25317,7 +25317,7 @@
         <v>4654</v>
       </c>
       <c r="Z279" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA279" s="3"/>
       <c r="AB279" s="3"/>
@@ -25393,7 +25393,7 @@
         <v>4990</v>
       </c>
       <c r="Z280" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA280" s="3"/>
       <c r="AB280" s="3"/>
@@ -25469,7 +25469,7 @@
         <v>5185</v>
       </c>
       <c r="Z281" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA281" s="3"/>
       <c r="AB281" s="3"/>
@@ -25545,7 +25545,7 @@
         <v>5950</v>
       </c>
       <c r="Z282" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA282" s="3"/>
       <c r="AB282" s="3"/>
@@ -25621,7 +25621,7 @@
         <v>6325</v>
       </c>
       <c r="Z283" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA283" s="3"/>
       <c r="AB283" s="3"/>
@@ -25697,7 +25697,7 @@
         <v>6700</v>
       </c>
       <c r="Z284" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA284" s="3"/>
       <c r="AB284" s="3"/>
@@ -25773,7 +25773,7 @@
         <v>7075</v>
       </c>
       <c r="Z285" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA285" s="3"/>
       <c r="AB285" s="3"/>
@@ -25849,7 +25849,7 @@
         <v>7450</v>
       </c>
       <c r="Z286" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA286" s="3"/>
       <c r="AB286" s="3"/>
@@ -25925,7 +25925,7 @@
         <v>8750</v>
       </c>
       <c r="Z287" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA287" s="3"/>
       <c r="AB287" s="3"/>
@@ -26001,7 +26001,7 @@
         <v>10300</v>
       </c>
       <c r="Z288" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA288" s="3"/>
       <c r="AB288" s="3"/>
@@ -26077,7 +26077,7 @@
         <v>11200</v>
       </c>
       <c r="Z289" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA289" s="3"/>
       <c r="AB289" s="3"/>
@@ -26153,7 +26153,7 @@
         <v>12100</v>
       </c>
       <c r="Z290" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA290" s="3"/>
       <c r="AB290" s="3"/>
@@ -26229,7 +26229,7 @@
         <v>12550</v>
       </c>
       <c r="Z291" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA291" s="3"/>
       <c r="AB291" s="3"/>
@@ -26305,7 +26305,7 @@
         <v>13810</v>
       </c>
       <c r="Z292" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA292" s="3"/>
       <c r="AB292" s="3"/>
@@ -26381,7 +26381,7 @@
         <v>15216</v>
       </c>
       <c r="Z293" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA293" s="3"/>
       <c r="AB293" s="3"/>
@@ -26457,7 +26457,7 @@
         <v>16188</v>
       </c>
       <c r="Z294" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA294" s="3"/>
       <c r="AB294" s="3"/>
@@ -26533,7 +26533,7 @@
         <v>17615</v>
       </c>
       <c r="Z295" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA295" s="3"/>
       <c r="AB295" s="3"/>
@@ -26609,7 +26609,7 @@
         <v>19050</v>
       </c>
       <c r="Z296" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA296" s="3"/>
       <c r="AB296" s="3"/>
@@ -26685,7 +26685,7 @@
         <v>20100</v>
       </c>
       <c r="Z297" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA297" s="3"/>
       <c r="AB297" s="3"/>
@@ -26761,7 +26761,7 @@
         <v>20625</v>
       </c>
       <c r="Z298" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA298" s="3"/>
       <c r="AB298" s="3"/>
@@ -26837,7 +26837,7 @@
         <v>21675</v>
       </c>
       <c r="Z299" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA299" s="3"/>
       <c r="AB299" s="3"/>
@@ -26913,7 +26913,7 @@
         <v>23800</v>
       </c>
       <c r="Z300" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA300" s="3"/>
       <c r="AB300" s="3"/>
@@ -26989,7 +26989,7 @@
         <v>26550</v>
       </c>
       <c r="Z301" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA301" s="3"/>
       <c r="AB301" s="3"/>
@@ -27065,7 +27065,7 @@
         <v>27750</v>
       </c>
       <c r="Z302" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA302" s="3"/>
       <c r="AB302" s="3"/>
@@ -27141,7 +27141,7 @@
         <v>28350</v>
       </c>
       <c r="Z303" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA303" s="3"/>
       <c r="AB303" s="3"/>
@@ -27217,7 +27217,7 @@
         <v>29550</v>
       </c>
       <c r="Z304" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA304" s="3"/>
       <c r="AB304" s="3"/>
@@ -27293,7 +27293,7 @@
         <v>30750</v>
       </c>
       <c r="Z305" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA305" s="3"/>
       <c r="AB305" s="3"/>
@@ -27369,7 +27369,7 @@
         <v>31350</v>
       </c>
       <c r="Z306" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA306" s="3"/>
       <c r="AB306" s="3"/>
@@ -27445,7 +27445,7 @@
         <v>33900</v>
       </c>
       <c r="Z307" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA307" s="3"/>
       <c r="AB307" s="3"/>
@@ -27521,7 +27521,7 @@
         <v>37275</v>
       </c>
       <c r="Z308" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA308" s="3"/>
       <c r="AB308" s="3"/>
@@ -27597,7 +27597,7 @@
         <v>38625</v>
       </c>
       <c r="Z309" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA309" s="3"/>
       <c r="AB309" s="3"/>
@@ -27673,7 +27673,7 @@
         <v>39975</v>
       </c>
       <c r="Z310" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA310" s="3"/>
       <c r="AB310" s="3"/>
@@ -27749,7 +27749,7 @@
         <v>39975</v>
       </c>
       <c r="Z311" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA311" s="3"/>
       <c r="AB311" s="3"/>
@@ -27825,7 +27825,7 @@
         <v>40750</v>
       </c>
       <c r="Z312" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA312" s="3"/>
       <c r="AB312" s="3"/>
@@ -27901,7 +27901,7 @@
         <v>41425</v>
       </c>
       <c r="Z313" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA313" s="3"/>
       <c r="AB313" s="3"/>
@@ -27977,7 +27977,7 @@
         <v>42100</v>
       </c>
       <c r="Z314" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA314" s="3"/>
       <c r="AB314" s="3"/>
@@ -28053,7 +28053,7 @@
         <v>44350</v>
       </c>
       <c r="Z315" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA315" s="3"/>
       <c r="AB315" s="3"/>
@@ -28129,7 +28129,7 @@
         <v>47500</v>
       </c>
       <c r="Z316" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA316" s="3"/>
       <c r="AB316" s="3"/>
@@ -28205,7 +28205,7 @@
         <v>48250</v>
       </c>
       <c r="Z317" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA317" s="3"/>
       <c r="AB317" s="3"/>
@@ -28281,7 +28281,7 @@
         <v>49000</v>
       </c>
       <c r="Z318" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA318" s="3"/>
       <c r="AB318" s="3"/>
@@ -28357,7 +28357,7 @@
         <v>49750</v>
       </c>
       <c r="Z319" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA319" s="3"/>
       <c r="AB319" s="3"/>
@@ -28433,7 +28433,7 @@
         <v>50500</v>
       </c>
       <c r="Z320" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA320" s="3"/>
       <c r="AB320" s="3"/>
@@ -28509,7 +28509,7 @@
         <v>50500</v>
       </c>
       <c r="Z321" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA321" s="3"/>
       <c r="AB321" s="3"/>
@@ -28585,7 +28585,7 @@
         <v>51250</v>
       </c>
       <c r="Z322" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA322" s="3"/>
       <c r="AB322" s="3"/>
@@ -28661,7 +28661,7 @@
         <v>52000</v>
       </c>
       <c r="Z323" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA323" s="3"/>
       <c r="AB323" s="3"/>
@@ -28737,7 +28737,7 @@
         <v>52750</v>
       </c>
       <c r="Z324" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA324" s="3"/>
       <c r="AB324" s="3"/>
@@ -28813,7 +28813,7 @@
         <v>53650</v>
       </c>
       <c r="Z325" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA325" s="3"/>
       <c r="AB325" s="3"/>
@@ -28889,7 +28889,7 @@
         <v>53650</v>
       </c>
       <c r="Z326" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA326" s="3"/>
       <c r="AB326" s="3"/>
@@ -28965,7 +28965,7 @@
         <v>54400</v>
       </c>
       <c r="Z327" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA327" s="3"/>
       <c r="AB327" s="3"/>
@@ -29041,7 +29041,7 @@
         <v>55150</v>
       </c>
       <c r="Z328" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA328" s="3"/>
       <c r="AB328" s="3"/>
@@ -29117,7 +29117,7 @@
         <v>55900</v>
       </c>
       <c r="Z329" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA329" s="3"/>
       <c r="AB329" s="3"/>
@@ -29193,7 +29193,7 @@
         <v>56650</v>
       </c>
       <c r="Z330" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA330" s="3"/>
       <c r="AB330" s="3"/>
@@ -29232,13 +29232,13 @@
         <v>0</v>
       </c>
       <c r="K331" s="3">
-        <v>140266459</v>
+        <v>141528070</v>
       </c>
       <c r="L331" s="3">
         <v>0</v>
       </c>
       <c r="M331" s="3">
-        <v>3106192</v>
+        <v>3134109</v>
       </c>
       <c r="N331" s="3">
         <v>0</v>
@@ -29269,7 +29269,7 @@
         <v>56650</v>
       </c>
       <c r="Z331" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA331" s="3"/>
       <c r="AB331" s="3"/>
@@ -29345,7 +29345,7 @@
         <v>0</v>
       </c>
       <c r="Z332" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA332" s="3"/>
       <c r="AB332" s="3"/>
@@ -29421,7 +29421,7 @@
         <v>0</v>
       </c>
       <c r="Z333" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA333" s="3"/>
       <c r="AB333" s="3"/>
@@ -29460,19 +29460,19 @@
         <v>0</v>
       </c>
       <c r="K334" s="3">
-        <v>4320</v>
+        <v>3705</v>
       </c>
       <c r="L334" s="3">
         <v>0</v>
       </c>
       <c r="M334" s="3">
-        <v>575</v>
+        <v>493</v>
       </c>
       <c r="N334" s="3">
         <v>0</v>
       </c>
       <c r="O334" s="3">
-        <v>287</v>
+        <v>246</v>
       </c>
       <c r="P334" s="3"/>
       <c r="Q334" s="3"/>
@@ -29497,7 +29497,7 @@
         <v>0</v>
       </c>
       <c r="Z334" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA334" s="3"/>
       <c r="AB334" s="3"/>
@@ -29536,19 +29536,19 @@
         <v>0</v>
       </c>
       <c r="K335" s="3">
-        <v>26664</v>
+        <v>25311</v>
       </c>
       <c r="L335" s="3">
         <v>0</v>
       </c>
       <c r="M335" s="3">
-        <v>1207</v>
+        <v>1126</v>
       </c>
       <c r="N335" s="3">
         <v>0</v>
       </c>
       <c r="O335" s="3">
-        <v>399</v>
+        <v>359</v>
       </c>
       <c r="P335" s="3"/>
       <c r="Q335" s="3"/>
@@ -29573,7 +29573,7 @@
         <v>0</v>
       </c>
       <c r="Z335" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA335" s="3"/>
       <c r="AB335" s="3"/>
@@ -29612,19 +29612,19 @@
         <v>0</v>
       </c>
       <c r="K336" s="3">
-        <v>42666</v>
+        <v>39390</v>
       </c>
       <c r="L336" s="3">
         <v>0</v>
       </c>
       <c r="M336" s="3">
-        <v>1663</v>
+        <v>1495</v>
       </c>
       <c r="N336" s="3">
         <v>0</v>
       </c>
       <c r="O336" s="3">
-        <v>569</v>
+        <v>485</v>
       </c>
       <c r="P336" s="3"/>
       <c r="Q336" s="3"/>
@@ -29649,7 +29649,7 @@
         <v>0</v>
       </c>
       <c r="Z336" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA336" s="3"/>
       <c r="AB336" s="3"/>
@@ -29688,19 +29688,19 @@
         <v>0</v>
       </c>
       <c r="K337" s="3">
-        <v>53505</v>
+        <v>49725</v>
       </c>
       <c r="L337" s="3">
         <v>0</v>
       </c>
       <c r="M337" s="3">
-        <v>1999</v>
+        <v>1831</v>
       </c>
       <c r="N337" s="3">
         <v>0</v>
       </c>
       <c r="O337" s="3">
-        <v>810</v>
+        <v>726</v>
       </c>
       <c r="P337" s="3"/>
       <c r="Q337" s="3"/>
@@ -29725,7 +29725,7 @@
         <v>0</v>
       </c>
       <c r="Z337" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA337" s="3"/>
       <c r="AB337" s="3"/>
@@ -29764,19 +29764,19 @@
         <v>0</v>
       </c>
       <c r="K338" s="3">
-        <v>78132</v>
+        <v>71553</v>
       </c>
       <c r="L338" s="3">
         <v>0</v>
       </c>
       <c r="M338" s="3">
-        <v>2839</v>
+        <v>2582</v>
       </c>
       <c r="N338" s="3">
         <v>0</v>
       </c>
       <c r="O338" s="3">
-        <v>1307</v>
+        <v>1179</v>
       </c>
       <c r="P338" s="3"/>
       <c r="Q338" s="3"/>
@@ -29801,7 +29801,7 @@
         <v>0</v>
       </c>
       <c r="Z338" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA338" s="3"/>
       <c r="AB338" s="3"/>
@@ -29840,19 +29840,19 @@
         <v>0</v>
       </c>
       <c r="K339" s="3">
-        <v>112752</v>
+        <v>105840</v>
       </c>
       <c r="L339" s="3">
         <v>0</v>
       </c>
       <c r="M339" s="3">
-        <v>3663</v>
+        <v>3406</v>
       </c>
       <c r="N339" s="3">
         <v>0</v>
       </c>
       <c r="O339" s="3">
-        <v>1575</v>
+        <v>1446</v>
       </c>
       <c r="P339" s="3"/>
       <c r="Q339" s="3"/>
@@ -29877,7 +29877,7 @@
         <v>0</v>
       </c>
       <c r="Z339" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA339" s="3"/>
       <c r="AB339" s="3"/>
@@ -29953,7 +29953,7 @@
         <v>0</v>
       </c>
       <c r="Z340" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA340" s="3"/>
       <c r="AB340" s="3"/>
@@ -30029,7 +30029,7 @@
         <v>0</v>
       </c>
       <c r="Z341" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA341" s="3"/>
       <c r="AB341" s="3"/>
@@ -30105,7 +30105,7 @@
         <v>0</v>
       </c>
       <c r="Z342" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA342" s="3"/>
       <c r="AB342" s="3"/>
@@ -30181,7 +30181,7 @@
         <v>0</v>
       </c>
       <c r="Z343" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA343" s="3"/>
       <c r="AB343" s="3"/>
@@ -30257,7 +30257,7 @@
         <v>0</v>
       </c>
       <c r="Z344" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA344" s="3"/>
       <c r="AB344" s="3"/>
@@ -30333,7 +30333,7 @@
         <v>36</v>
       </c>
       <c r="Z345" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA345" s="3"/>
       <c r="AB345" s="3"/>
@@ -30409,7 +30409,7 @@
         <v>222</v>
       </c>
       <c r="Z346" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA346" s="3"/>
       <c r="AB346" s="3"/>
@@ -30485,7 +30485,7 @@
         <v>447</v>
       </c>
       <c r="Z347" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA347" s="3"/>
       <c r="AB347" s="3"/>
@@ -30561,7 +30561,7 @@
         <v>486</v>
       </c>
       <c r="Z348" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA348" s="3"/>
       <c r="AB348" s="3"/>
@@ -30637,7 +30637,7 @@
         <v>750</v>
       </c>
       <c r="Z349" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA349" s="3"/>
       <c r="AB349" s="3"/>
@@ -30713,7 +30713,7 @@
         <v>1100</v>
       </c>
       <c r="Z350" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA350" s="3"/>
       <c r="AB350" s="3"/>
@@ -30789,7 +30789,7 @@
         <v>1650</v>
       </c>
       <c r="Z351" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA351" s="3"/>
       <c r="AB351" s="3"/>
@@ -30865,7 +30865,7 @@
         <v>1950</v>
       </c>
       <c r="Z352" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA352" s="3"/>
       <c r="AB352" s="3"/>
@@ -30941,7 +30941,7 @@
         <v>1950</v>
       </c>
       <c r="Z353" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA353" s="3"/>
       <c r="AB353" s="3"/>
@@ -31017,7 +31017,7 @@
         <v>2250</v>
       </c>
       <c r="Z354" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA354" s="3"/>
       <c r="AB354" s="3"/>
@@ -31093,7 +31093,7 @@
         <v>2550</v>
       </c>
       <c r="Z355" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA355" s="3"/>
       <c r="AB355" s="3"/>
@@ -31169,7 +31169,7 @@
         <v>2850</v>
       </c>
       <c r="Z356" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA356" s="3"/>
       <c r="AB356" s="3"/>
@@ -31245,7 +31245,7 @@
         <v>3646</v>
       </c>
       <c r="Z357" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA357" s="3"/>
       <c r="AB357" s="3"/>
@@ -31321,7 +31321,7 @@
         <v>3646</v>
       </c>
       <c r="Z358" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA358" s="3"/>
       <c r="AB358" s="3"/>
@@ -31397,7 +31397,7 @@
         <v>3982</v>
       </c>
       <c r="Z359" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA359" s="3"/>
       <c r="AB359" s="3"/>
@@ -31473,7 +31473,7 @@
         <v>4318</v>
       </c>
       <c r="Z360" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA360" s="3"/>
       <c r="AB360" s="3"/>
@@ -31549,7 +31549,7 @@
         <v>4654</v>
       </c>
       <c r="Z361" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA361" s="3"/>
       <c r="AB361" s="3"/>
@@ -31625,7 +31625,7 @@
         <v>4990</v>
       </c>
       <c r="Z362" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA362" s="3"/>
       <c r="AB362" s="3"/>
@@ -31701,7 +31701,7 @@
         <v>5185</v>
       </c>
       <c r="Z363" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA363" s="3"/>
       <c r="AB363" s="3"/>
@@ -31777,7 +31777,7 @@
         <v>5950</v>
       </c>
       <c r="Z364" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA364" s="3"/>
       <c r="AB364" s="3"/>
@@ -31853,7 +31853,7 @@
         <v>6325</v>
       </c>
       <c r="Z365" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA365" s="3"/>
       <c r="AB365" s="3"/>
@@ -31929,7 +31929,7 @@
         <v>6700</v>
       </c>
       <c r="Z366" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA366" s="3"/>
       <c r="AB366" s="3"/>
@@ -32005,7 +32005,7 @@
         <v>7075</v>
       </c>
       <c r="Z367" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA367" s="3"/>
       <c r="AB367" s="3"/>
@@ -32081,7 +32081,7 @@
         <v>7450</v>
       </c>
       <c r="Z368" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA368" s="3"/>
       <c r="AB368" s="3"/>
@@ -32157,7 +32157,7 @@
         <v>8750</v>
       </c>
       <c r="Z369" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA369" s="3"/>
       <c r="AB369" s="3"/>
@@ -32233,7 +32233,7 @@
         <v>10300</v>
       </c>
       <c r="Z370" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA370" s="3"/>
       <c r="AB370" s="3"/>
@@ -32309,7 +32309,7 @@
         <v>11200</v>
       </c>
       <c r="Z371" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA371" s="3"/>
       <c r="AB371" s="3"/>
@@ -32385,7 +32385,7 @@
         <v>12100</v>
       </c>
       <c r="Z372" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA372" s="3"/>
       <c r="AB372" s="3"/>
@@ -32461,7 +32461,7 @@
         <v>12550</v>
       </c>
       <c r="Z373" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA373" s="3"/>
       <c r="AB373" s="3"/>
@@ -32537,7 +32537,7 @@
         <v>13810</v>
       </c>
       <c r="Z374" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA374" s="3"/>
       <c r="AB374" s="3"/>
@@ -32613,7 +32613,7 @@
         <v>15216</v>
       </c>
       <c r="Z375" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA375" s="3"/>
       <c r="AB375" s="3"/>
@@ -32689,7 +32689,7 @@
         <v>16188</v>
       </c>
       <c r="Z376" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA376" s="3"/>
       <c r="AB376" s="3"/>
@@ -32765,7 +32765,7 @@
         <v>17615</v>
       </c>
       <c r="Z377" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA377" s="3"/>
       <c r="AB377" s="3"/>
@@ -32841,7 +32841,7 @@
         <v>19050</v>
       </c>
       <c r="Z378" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA378" s="3"/>
       <c r="AB378" s="3"/>
@@ -32917,7 +32917,7 @@
         <v>20100</v>
       </c>
       <c r="Z379" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA379" s="3"/>
       <c r="AB379" s="3"/>
@@ -32993,7 +32993,7 @@
         <v>20625</v>
       </c>
       <c r="Z380" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA380" s="3"/>
       <c r="AB380" s="3"/>
@@ -33069,7 +33069,7 @@
         <v>21675</v>
       </c>
       <c r="Z381" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA381" s="3"/>
       <c r="AB381" s="3"/>
@@ -33145,7 +33145,7 @@
         <v>23800</v>
       </c>
       <c r="Z382" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA382" s="3"/>
       <c r="AB382" s="3"/>
@@ -33221,7 +33221,7 @@
         <v>26550</v>
       </c>
       <c r="Z383" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA383" s="3"/>
       <c r="AB383" s="3"/>
@@ -33297,7 +33297,7 @@
         <v>27750</v>
       </c>
       <c r="Z384" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA384" s="3"/>
       <c r="AB384" s="3"/>
@@ -33373,7 +33373,7 @@
         <v>28350</v>
       </c>
       <c r="Z385" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA385" s="3"/>
       <c r="AB385" s="3"/>
@@ -33449,7 +33449,7 @@
         <v>29550</v>
       </c>
       <c r="Z386" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA386" s="3"/>
       <c r="AB386" s="3"/>
@@ -33525,7 +33525,7 @@
         <v>30750</v>
       </c>
       <c r="Z387" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA387" s="3"/>
       <c r="AB387" s="3"/>
@@ -33601,7 +33601,7 @@
         <v>31350</v>
       </c>
       <c r="Z388" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA388" s="3"/>
       <c r="AB388" s="3"/>
@@ -33677,7 +33677,7 @@
         <v>33900</v>
       </c>
       <c r="Z389" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA389" s="3"/>
       <c r="AB389" s="3"/>
@@ -33753,7 +33753,7 @@
         <v>37275</v>
       </c>
       <c r="Z390" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA390" s="3"/>
       <c r="AB390" s="3"/>
@@ -33829,7 +33829,7 @@
         <v>38625</v>
       </c>
       <c r="Z391" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA391" s="3"/>
       <c r="AB391" s="3"/>
@@ -33905,7 +33905,7 @@
         <v>39975</v>
       </c>
       <c r="Z392" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA392" s="3"/>
       <c r="AB392" s="3"/>
@@ -33981,7 +33981,7 @@
         <v>39975</v>
       </c>
       <c r="Z393" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA393" s="3"/>
       <c r="AB393" s="3"/>
@@ -34057,7 +34057,7 @@
         <v>40750</v>
       </c>
       <c r="Z394" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA394" s="3"/>
       <c r="AB394" s="3"/>
@@ -34133,7 +34133,7 @@
         <v>41425</v>
       </c>
       <c r="Z395" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA395" s="3"/>
       <c r="AB395" s="3"/>
@@ -34209,7 +34209,7 @@
         <v>42100</v>
       </c>
       <c r="Z396" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA396" s="3"/>
       <c r="AB396" s="3"/>
@@ -34285,7 +34285,7 @@
         <v>44350</v>
       </c>
       <c r="Z397" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA397" s="3"/>
       <c r="AB397" s="3"/>
@@ -34361,7 +34361,7 @@
         <v>47500</v>
       </c>
       <c r="Z398" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA398" s="3"/>
       <c r="AB398" s="3"/>
@@ -34437,7 +34437,7 @@
         <v>48250</v>
       </c>
       <c r="Z399" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA399" s="3"/>
       <c r="AB399" s="3"/>
@@ -34513,7 +34513,7 @@
         <v>49000</v>
       </c>
       <c r="Z400" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA400" s="3"/>
       <c r="AB400" s="3"/>
@@ -34589,7 +34589,7 @@
         <v>49750</v>
       </c>
       <c r="Z401" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA401" s="3"/>
       <c r="AB401" s="3"/>
@@ -34665,7 +34665,7 @@
         <v>50500</v>
       </c>
       <c r="Z402" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA402" s="3"/>
       <c r="AB402" s="3"/>
@@ -34741,7 +34741,7 @@
         <v>50500</v>
       </c>
       <c r="Z403" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA403" s="3"/>
       <c r="AB403" s="3"/>
@@ -34817,7 +34817,7 @@
         <v>51250</v>
       </c>
       <c r="Z404" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA404" s="3"/>
       <c r="AB404" s="3"/>
@@ -34893,7 +34893,7 @@
         <v>52000</v>
       </c>
       <c r="Z405" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA405" s="3"/>
       <c r="AB405" s="3"/>
@@ -34969,7 +34969,7 @@
         <v>52750</v>
       </c>
       <c r="Z406" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA406" s="3"/>
       <c r="AB406" s="3"/>
@@ -35045,7 +35045,7 @@
         <v>53650</v>
       </c>
       <c r="Z407" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA407" s="3"/>
       <c r="AB407" s="3"/>
@@ -35121,7 +35121,7 @@
         <v>53650</v>
       </c>
       <c r="Z408" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA408" s="3"/>
       <c r="AB408" s="3"/>
@@ -35197,7 +35197,7 @@
         <v>54400</v>
       </c>
       <c r="Z409" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA409" s="3"/>
       <c r="AB409" s="3"/>
@@ -35273,7 +35273,7 @@
         <v>55150</v>
       </c>
       <c r="Z410" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA410" s="3"/>
       <c r="AB410" s="3"/>
@@ -35349,7 +35349,7 @@
         <v>55900</v>
       </c>
       <c r="Z411" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA411" s="3"/>
       <c r="AB411" s="3"/>
@@ -35425,7 +35425,7 @@
         <v>56650</v>
       </c>
       <c r="Z412" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA412" s="3"/>
       <c r="AB412" s="3"/>
@@ -35464,13 +35464,13 @@
         <v>0</v>
       </c>
       <c r="K413" s="3">
-        <v>350666149</v>
+        <v>353820178</v>
       </c>
       <c r="L413" s="3">
         <v>0</v>
       </c>
       <c r="M413" s="3">
-        <v>3106192</v>
+        <v>3134109</v>
       </c>
       <c r="N413" s="3">
         <v>0</v>
@@ -35501,7 +35501,7 @@
         <v>56650</v>
       </c>
       <c r="Z413" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA413" s="3"/>
       <c r="AB413" s="3"/>
@@ -35577,7 +35577,7 @@
         <v>0</v>
       </c>
       <c r="Z414" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA414" s="3"/>
       <c r="AB414" s="3"/>
@@ -35653,7 +35653,7 @@
         <v>0</v>
       </c>
       <c r="Z415" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA415" s="3"/>
       <c r="AB415" s="3"/>
@@ -35692,19 +35692,19 @@
         <v>0</v>
       </c>
       <c r="K416" s="3">
-        <v>8640</v>
+        <v>7410</v>
       </c>
       <c r="L416" s="3">
         <v>0</v>
       </c>
       <c r="M416" s="3">
-        <v>575</v>
+        <v>493</v>
       </c>
       <c r="N416" s="3">
         <v>0</v>
       </c>
       <c r="O416" s="3">
-        <v>287</v>
+        <v>246</v>
       </c>
       <c r="P416" s="3"/>
       <c r="Q416" s="3"/>
@@ -35729,7 +35729,7 @@
         <v>0</v>
       </c>
       <c r="Z416" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA416" s="3"/>
       <c r="AB416" s="3"/>
@@ -35768,19 +35768,19 @@
         <v>0</v>
       </c>
       <c r="K417" s="3">
-        <v>53328</v>
+        <v>50622</v>
       </c>
       <c r="L417" s="3">
         <v>0</v>
       </c>
       <c r="M417" s="3">
-        <v>1207</v>
+        <v>1126</v>
       </c>
       <c r="N417" s="3">
         <v>0</v>
       </c>
       <c r="O417" s="3">
-        <v>399</v>
+        <v>359</v>
       </c>
       <c r="P417" s="3"/>
       <c r="Q417" s="3"/>
@@ -35805,7 +35805,7 @@
         <v>0</v>
       </c>
       <c r="Z417" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA417" s="3"/>
       <c r="AB417" s="3"/>
@@ -35844,19 +35844,19 @@
         <v>0</v>
       </c>
       <c r="K418" s="3">
-        <v>85332</v>
+        <v>78780</v>
       </c>
       <c r="L418" s="3">
         <v>0</v>
       </c>
       <c r="M418" s="3">
-        <v>1663</v>
+        <v>1495</v>
       </c>
       <c r="N418" s="3">
         <v>0</v>
       </c>
       <c r="O418" s="3">
-        <v>569</v>
+        <v>485</v>
       </c>
       <c r="P418" s="3"/>
       <c r="Q418" s="3"/>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="Z418" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA418" s="3"/>
       <c r="AB418" s="3"/>
@@ -35920,19 +35920,19 @@
         <v>0</v>
       </c>
       <c r="K419" s="3">
-        <v>107010</v>
+        <v>99450</v>
       </c>
       <c r="L419" s="3">
         <v>0</v>
       </c>
       <c r="M419" s="3">
-        <v>1999</v>
+        <v>1831</v>
       </c>
       <c r="N419" s="3">
         <v>0</v>
       </c>
       <c r="O419" s="3">
-        <v>810</v>
+        <v>726</v>
       </c>
       <c r="P419" s="3"/>
       <c r="Q419" s="3"/>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="Z419" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA419" s="3"/>
       <c r="AB419" s="3"/>
@@ -35996,19 +35996,19 @@
         <v>0</v>
       </c>
       <c r="K420" s="3">
-        <v>156264</v>
+        <v>143106</v>
       </c>
       <c r="L420" s="3">
         <v>0</v>
       </c>
       <c r="M420" s="3">
-        <v>2839</v>
+        <v>2582</v>
       </c>
       <c r="N420" s="3">
         <v>0</v>
       </c>
       <c r="O420" s="3">
-        <v>1307</v>
+        <v>1179</v>
       </c>
       <c r="P420" s="3"/>
       <c r="Q420" s="3"/>
@@ -36033,7 +36033,7 @@
         <v>0</v>
       </c>
       <c r="Z420" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA420" s="3"/>
       <c r="AB420" s="3"/>
@@ -36072,19 +36072,19 @@
         <v>0</v>
       </c>
       <c r="K421" s="3">
-        <v>225504</v>
+        <v>211680</v>
       </c>
       <c r="L421" s="3">
         <v>0</v>
       </c>
       <c r="M421" s="3">
-        <v>3663</v>
+        <v>3406</v>
       </c>
       <c r="N421" s="3">
         <v>0</v>
       </c>
       <c r="O421" s="3">
-        <v>1575</v>
+        <v>1446</v>
       </c>
       <c r="P421" s="3"/>
       <c r="Q421" s="3"/>
@@ -36109,7 +36109,7 @@
         <v>0</v>
       </c>
       <c r="Z421" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA421" s="3"/>
       <c r="AB421" s="3"/>
@@ -36185,7 +36185,7 @@
         <v>0</v>
       </c>
       <c r="Z422" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA422" s="3"/>
       <c r="AB422" s="3"/>
@@ -36261,7 +36261,7 @@
         <v>0</v>
       </c>
       <c r="Z423" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA423" s="3"/>
       <c r="AB423" s="3"/>
@@ -36337,7 +36337,7 @@
         <v>0</v>
       </c>
       <c r="Z424" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA424" s="3"/>
       <c r="AB424" s="3"/>
@@ -36413,7 +36413,7 @@
         <v>0</v>
       </c>
       <c r="Z425" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA425" s="3"/>
       <c r="AB425" s="3"/>
@@ -36489,7 +36489,7 @@
         <v>0</v>
       </c>
       <c r="Z426" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA426" s="3"/>
       <c r="AB426" s="3"/>
@@ -36565,7 +36565,7 @@
         <v>36</v>
       </c>
       <c r="Z427" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA427" s="3"/>
       <c r="AB427" s="3"/>
@@ -36641,7 +36641,7 @@
         <v>222</v>
       </c>
       <c r="Z428" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA428" s="3"/>
       <c r="AB428" s="3"/>
@@ -36717,7 +36717,7 @@
         <v>447</v>
       </c>
       <c r="Z429" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA429" s="3"/>
       <c r="AB429" s="3"/>
@@ -36793,7 +36793,7 @@
         <v>486</v>
       </c>
       <c r="Z430" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA430" s="3"/>
       <c r="AB430" s="3"/>
@@ -36869,7 +36869,7 @@
         <v>750</v>
       </c>
       <c r="Z431" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA431" s="3"/>
       <c r="AB431" s="3"/>
@@ -36945,7 +36945,7 @@
         <v>1100</v>
       </c>
       <c r="Z432" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA432" s="3"/>
       <c r="AB432" s="3"/>
@@ -37021,7 +37021,7 @@
         <v>1650</v>
       </c>
       <c r="Z433" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA433" s="3"/>
       <c r="AB433" s="3"/>
@@ -37097,7 +37097,7 @@
         <v>1950</v>
       </c>
       <c r="Z434" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA434" s="3"/>
       <c r="AB434" s="3"/>
@@ -37173,7 +37173,7 @@
         <v>1950</v>
       </c>
       <c r="Z435" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA435" s="3"/>
       <c r="AB435" s="3"/>
@@ -37249,7 +37249,7 @@
         <v>2250</v>
       </c>
       <c r="Z436" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA436" s="3"/>
       <c r="AB436" s="3"/>
@@ -37325,7 +37325,7 @@
         <v>2550</v>
       </c>
       <c r="Z437" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA437" s="3"/>
       <c r="AB437" s="3"/>
@@ -37401,7 +37401,7 @@
         <v>2850</v>
       </c>
       <c r="Z438" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA438" s="3"/>
       <c r="AB438" s="3"/>
@@ -37477,7 +37477,7 @@
         <v>3646</v>
       </c>
       <c r="Z439" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA439" s="3"/>
       <c r="AB439" s="3"/>
@@ -37553,7 +37553,7 @@
         <v>3646</v>
       </c>
       <c r="Z440" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA440" s="3"/>
       <c r="AB440" s="3"/>
@@ -37629,7 +37629,7 @@
         <v>3982</v>
       </c>
       <c r="Z441" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA441" s="3"/>
       <c r="AB441" s="3"/>
@@ -37705,7 +37705,7 @@
         <v>4318</v>
       </c>
       <c r="Z442" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA442" s="3"/>
       <c r="AB442" s="3"/>
@@ -37781,7 +37781,7 @@
         <v>4654</v>
       </c>
       <c r="Z443" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA443" s="3"/>
       <c r="AB443" s="3"/>
@@ -37857,7 +37857,7 @@
         <v>4990</v>
       </c>
       <c r="Z444" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA444" s="3"/>
       <c r="AB444" s="3"/>
@@ -37933,7 +37933,7 @@
         <v>5185</v>
       </c>
       <c r="Z445" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA445" s="3"/>
       <c r="AB445" s="3"/>
@@ -38009,7 +38009,7 @@
         <v>5950</v>
       </c>
       <c r="Z446" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA446" s="3"/>
       <c r="AB446" s="3"/>
@@ -38085,7 +38085,7 @@
         <v>6325</v>
       </c>
       <c r="Z447" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA447" s="3"/>
       <c r="AB447" s="3"/>
@@ -38161,7 +38161,7 @@
         <v>6700</v>
       </c>
       <c r="Z448" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA448" s="3"/>
       <c r="AB448" s="3"/>
@@ -38237,7 +38237,7 @@
         <v>7075</v>
       </c>
       <c r="Z449" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA449" s="3"/>
       <c r="AB449" s="3"/>
@@ -38313,7 +38313,7 @@
         <v>7450</v>
       </c>
       <c r="Z450" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA450" s="3"/>
       <c r="AB450" s="3"/>
@@ -38389,7 +38389,7 @@
         <v>8750</v>
       </c>
       <c r="Z451" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA451" s="3"/>
       <c r="AB451" s="3"/>
@@ -38465,7 +38465,7 @@
         <v>10300</v>
       </c>
       <c r="Z452" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA452" s="3"/>
       <c r="AB452" s="3"/>
@@ -38541,7 +38541,7 @@
         <v>11200</v>
       </c>
       <c r="Z453" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA453" s="3"/>
       <c r="AB453" s="3"/>
@@ -38617,7 +38617,7 @@
         <v>12100</v>
       </c>
       <c r="Z454" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA454" s="3"/>
       <c r="AB454" s="3"/>
@@ -38693,7 +38693,7 @@
         <v>12550</v>
       </c>
       <c r="Z455" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA455" s="3"/>
       <c r="AB455" s="3"/>
@@ -38769,7 +38769,7 @@
         <v>13810</v>
       </c>
       <c r="Z456" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA456" s="3"/>
       <c r="AB456" s="3"/>
@@ -38845,7 +38845,7 @@
         <v>15216</v>
       </c>
       <c r="Z457" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA457" s="3"/>
       <c r="AB457" s="3"/>
@@ -38921,7 +38921,7 @@
         <v>16188</v>
       </c>
       <c r="Z458" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA458" s="3"/>
       <c r="AB458" s="3"/>
@@ -38997,7 +38997,7 @@
         <v>17615</v>
       </c>
       <c r="Z459" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA459" s="3"/>
       <c r="AB459" s="3"/>
@@ -39073,7 +39073,7 @@
         <v>19050</v>
       </c>
       <c r="Z460" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA460" s="3"/>
       <c r="AB460" s="3"/>
@@ -39149,7 +39149,7 @@
         <v>20100</v>
       </c>
       <c r="Z461" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA461" s="3"/>
       <c r="AB461" s="3"/>
@@ -39225,7 +39225,7 @@
         <v>20625</v>
       </c>
       <c r="Z462" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA462" s="3"/>
       <c r="AB462" s="3"/>
@@ -39301,7 +39301,7 @@
         <v>21675</v>
       </c>
       <c r="Z463" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA463" s="3"/>
       <c r="AB463" s="3"/>
@@ -39377,7 +39377,7 @@
         <v>23800</v>
       </c>
       <c r="Z464" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA464" s="3"/>
       <c r="AB464" s="3"/>
@@ -39453,7 +39453,7 @@
         <v>26550</v>
       </c>
       <c r="Z465" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA465" s="3"/>
       <c r="AB465" s="3"/>
@@ -39529,7 +39529,7 @@
         <v>27750</v>
       </c>
       <c r="Z466" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA466" s="3"/>
       <c r="AB466" s="3"/>
@@ -39605,7 +39605,7 @@
         <v>28350</v>
       </c>
       <c r="Z467" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA467" s="3"/>
       <c r="AB467" s="3"/>
@@ -39681,7 +39681,7 @@
         <v>29550</v>
       </c>
       <c r="Z468" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA468" s="3"/>
       <c r="AB468" s="3"/>
@@ -39757,7 +39757,7 @@
         <v>30750</v>
       </c>
       <c r="Z469" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA469" s="3"/>
       <c r="AB469" s="3"/>
@@ -39833,7 +39833,7 @@
         <v>31350</v>
       </c>
       <c r="Z470" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA470" s="3"/>
       <c r="AB470" s="3"/>
@@ -39909,7 +39909,7 @@
         <v>33900</v>
       </c>
       <c r="Z471" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA471" s="3"/>
       <c r="AB471" s="3"/>
@@ -39985,7 +39985,7 @@
         <v>37275</v>
       </c>
       <c r="Z472" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA472" s="3"/>
       <c r="AB472" s="3"/>
@@ -40061,7 +40061,7 @@
         <v>38625</v>
       </c>
       <c r="Z473" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA473" s="3"/>
       <c r="AB473" s="3"/>
@@ -40137,7 +40137,7 @@
         <v>39975</v>
       </c>
       <c r="Z474" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA474" s="3"/>
       <c r="AB474" s="3"/>
@@ -40213,7 +40213,7 @@
         <v>39975</v>
       </c>
       <c r="Z475" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA475" s="3"/>
       <c r="AB475" s="3"/>
@@ -40289,7 +40289,7 @@
         <v>40750</v>
       </c>
       <c r="Z476" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA476" s="3"/>
       <c r="AB476" s="3"/>
@@ -40365,7 +40365,7 @@
         <v>41425</v>
       </c>
       <c r="Z477" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA477" s="3"/>
       <c r="AB477" s="3"/>
@@ -40441,7 +40441,7 @@
         <v>42100</v>
       </c>
       <c r="Z478" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA478" s="3"/>
       <c r="AB478" s="3"/>
@@ -40517,7 +40517,7 @@
         <v>44350</v>
       </c>
       <c r="Z479" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA479" s="3"/>
       <c r="AB479" s="3"/>
@@ -40593,7 +40593,7 @@
         <v>47500</v>
       </c>
       <c r="Z480" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA480" s="3"/>
       <c r="AB480" s="3"/>
@@ -40669,7 +40669,7 @@
         <v>48250</v>
       </c>
       <c r="Z481" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA481" s="3"/>
       <c r="AB481" s="3"/>
@@ -40745,7 +40745,7 @@
         <v>49000</v>
       </c>
       <c r="Z482" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA482" s="3"/>
       <c r="AB482" s="3"/>
@@ -40821,7 +40821,7 @@
         <v>49750</v>
       </c>
       <c r="Z483" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA483" s="3"/>
       <c r="AB483" s="3"/>
@@ -40897,7 +40897,7 @@
         <v>50500</v>
       </c>
       <c r="Z484" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA484" s="3"/>
       <c r="AB484" s="3"/>
@@ -40973,7 +40973,7 @@
         <v>50500</v>
       </c>
       <c r="Z485" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA485" s="3"/>
       <c r="AB485" s="3"/>
@@ -41049,7 +41049,7 @@
         <v>51250</v>
       </c>
       <c r="Z486" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA486" s="3"/>
       <c r="AB486" s="3"/>
@@ -41125,7 +41125,7 @@
         <v>52000</v>
       </c>
       <c r="Z487" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA487" s="3"/>
       <c r="AB487" s="3"/>
@@ -41201,7 +41201,7 @@
         <v>52750</v>
       </c>
       <c r="Z488" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA488" s="3"/>
       <c r="AB488" s="3"/>
@@ -41277,7 +41277,7 @@
         <v>53650</v>
       </c>
       <c r="Z489" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA489" s="3"/>
       <c r="AB489" s="3"/>
@@ -41353,7 +41353,7 @@
         <v>53650</v>
       </c>
       <c r="Z490" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA490" s="3"/>
       <c r="AB490" s="3"/>
@@ -41429,7 +41429,7 @@
         <v>54400</v>
       </c>
       <c r="Z491" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA491" s="3"/>
       <c r="AB491" s="3"/>
@@ -41505,7 +41505,7 @@
         <v>55150</v>
       </c>
       <c r="Z492" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA492" s="3"/>
       <c r="AB492" s="3"/>
@@ -41581,7 +41581,7 @@
         <v>55900</v>
       </c>
       <c r="Z493" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA493" s="3"/>
       <c r="AB493" s="3"/>
@@ -41657,7 +41657,7 @@
         <v>56650</v>
       </c>
       <c r="Z494" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA494" s="3"/>
       <c r="AB494" s="3"/>
@@ -41696,13 +41696,13 @@
         <v>0</v>
       </c>
       <c r="K495" s="3">
-        <v>701332298</v>
+        <v>707640356</v>
       </c>
       <c r="L495" s="3">
         <v>0</v>
       </c>
       <c r="M495" s="3">
-        <v>3106192</v>
+        <v>3134109</v>
       </c>
       <c r="N495" s="3">
         <v>0</v>
@@ -41733,7 +41733,7 @@
         <v>56650</v>
       </c>
       <c r="Z495" s="3">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="AA495" s="3"/>
       <c r="AB495" s="3"/>

--- a/Excel/monster.怪物.xlsx
+++ b/Excel/monster.怪物.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4E84A1-6EE6-464C-81D8-1F8B015BBF11}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB13CBD6-2C76-469D-8B3F-B8B0BFF50FC7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4055,10 +4055,10 @@
   <dimension ref="A1:AD495"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="G445" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D484" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L506" sqref="L506"/>
+      <selection pane="bottomRight" activeCell="K504" sqref="K504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4608,7 +4608,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="3">
-        <v>488</v>
+        <v>433</v>
       </c>
       <c r="L7" s="3">
         <v>0</v>
@@ -4684,7 +4684,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>1133</v>
+        <v>906</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="3">
-        <v>2233</v>
+        <v>1624</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
@@ -4836,7 +4836,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="3">
-        <v>4300</v>
+        <v>2867</v>
       </c>
       <c r="L10" s="3">
         <v>0</v>
@@ -4912,7 +4912,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="3">
-        <v>6395</v>
+        <v>4263</v>
       </c>
       <c r="L11" s="3">
         <v>0</v>
@@ -4988,7 +4988,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="3">
-        <v>9104</v>
+        <v>6069</v>
       </c>
       <c r="L12" s="3">
         <v>0</v>
@@ -5064,7 +5064,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="3">
-        <v>10681</v>
+        <v>7120</v>
       </c>
       <c r="L13" s="3">
         <v>0</v>
@@ -5140,7 +5140,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
-        <v>18720</v>
+        <v>12480</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -5216,7 +5216,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="3">
-        <v>36154</v>
+        <v>24102</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -5292,7 +5292,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="3">
-        <v>49292</v>
+        <v>32861</v>
       </c>
       <c r="L16" s="3">
         <v>0</v>
@@ -5368,7 +5368,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="3">
-        <v>67900</v>
+        <v>45266</v>
       </c>
       <c r="L17" s="3">
         <v>0</v>
@@ -5444,7 +5444,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="3">
-        <v>89024</v>
+        <v>59349</v>
       </c>
       <c r="L18" s="3">
         <v>0</v>
@@ -5520,7 +5520,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="3">
-        <v>125292</v>
+        <v>83528</v>
       </c>
       <c r="L19" s="3">
         <v>0</v>
@@ -5596,7 +5596,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>144179</v>
+        <v>96119</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
@@ -5672,7 +5672,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="3">
-        <v>199527</v>
+        <v>133018</v>
       </c>
       <c r="L21" s="3">
         <v>0</v>
@@ -5748,7 +5748,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
-        <v>332781</v>
+        <v>221854</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -5824,7 +5824,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="3">
-        <v>360743</v>
+        <v>240495</v>
       </c>
       <c r="L23" s="3">
         <v>0</v>
@@ -5900,7 +5900,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
-        <v>492609</v>
+        <v>328406</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -5976,7 +5976,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="3">
-        <v>526862</v>
+        <v>351241</v>
       </c>
       <c r="L25" s="3">
         <v>0</v>
@@ -6052,7 +6052,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="3">
-        <v>571827</v>
+        <v>381218</v>
       </c>
       <c r="L26" s="3">
         <v>0</v>
@@ -6128,7 +6128,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="3">
-        <v>791250</v>
+        <v>527500</v>
       </c>
       <c r="L27" s="3">
         <v>0</v>
@@ -6204,7 +6204,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="3">
-        <v>837183</v>
+        <v>558122</v>
       </c>
       <c r="L28" s="3">
         <v>0</v>
@@ -6280,7 +6280,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
-        <v>1120396</v>
+        <v>746931</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -6356,7 +6356,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="3">
-        <v>1214084</v>
+        <v>809389</v>
       </c>
       <c r="L30" s="3">
         <v>0</v>
@@ -6432,7 +6432,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="3">
-        <v>1301255</v>
+        <v>867503</v>
       </c>
       <c r="L31" s="3">
         <v>0</v>
@@ -6508,7 +6508,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>1358220</v>
+        <v>905480</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="3">
-        <v>1462360</v>
+        <v>974906</v>
       </c>
       <c r="L33" s="3">
         <v>0</v>
@@ -6660,7 +6660,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="3">
-        <v>1521172</v>
+        <v>1014114</v>
       </c>
       <c r="L34" s="3">
         <v>0</v>
@@ -6736,7 +6736,7 @@
         <v>0</v>
       </c>
       <c r="K35" s="3">
-        <v>1744034</v>
+        <v>1162689</v>
       </c>
       <c r="L35" s="3">
         <v>0</v>
@@ -6812,7 +6812,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="3">
-        <v>1905063</v>
+        <v>1270042</v>
       </c>
       <c r="L36" s="3">
         <v>0</v>
@@ -6888,7 +6888,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="3">
-        <v>2130589</v>
+        <v>1420392</v>
       </c>
       <c r="L37" s="3">
         <v>0</v>
@@ -6964,7 +6964,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="3">
-        <v>2265679</v>
+        <v>1510452</v>
       </c>
       <c r="L38" s="3">
         <v>0</v>
@@ -7040,7 +7040,7 @@
         <v>0</v>
       </c>
       <c r="K39" s="3">
-        <v>2493540</v>
+        <v>1662360</v>
       </c>
       <c r="L39" s="3">
         <v>0</v>
@@ -7116,7 +7116,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="3">
-        <v>2699996</v>
+        <v>1799997</v>
       </c>
       <c r="L40" s="3">
         <v>0</v>
@@ -7192,7 +7192,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>3260024</v>
+        <v>2173349</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
@@ -7268,7 +7268,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="3">
-        <v>3502428</v>
+        <v>2334952</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -7344,7 +7344,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="3">
-        <v>4112722</v>
+        <v>2741815</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -7420,7 +7420,7 @@
         <v>0</v>
       </c>
       <c r="K44" s="3">
-        <v>4307791</v>
+        <v>2871860</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -7496,7 +7496,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>4675726</v>
+        <v>3117151</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -7572,7 +7572,7 @@
         <v>0</v>
       </c>
       <c r="K46" s="3">
-        <v>5332338</v>
+        <v>3554892</v>
       </c>
       <c r="L46" s="3">
         <v>0</v>
@@ -7648,7 +7648,7 @@
         <v>0</v>
       </c>
       <c r="K47" s="3">
-        <v>6057973</v>
+        <v>4038648</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -7724,7 +7724,7 @@
         <v>0</v>
       </c>
       <c r="K48" s="3">
-        <v>6775331</v>
+        <v>4516887</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -7800,7 +7800,7 @@
         <v>0</v>
       </c>
       <c r="K49" s="3">
-        <v>7645231</v>
+        <v>5096821</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -7876,7 +7876,7 @@
         <v>0</v>
       </c>
       <c r="K50" s="3">
-        <v>7873606</v>
+        <v>5249071</v>
       </c>
       <c r="L50" s="3">
         <v>0</v>
@@ -7952,7 +7952,7 @@
         <v>0</v>
       </c>
       <c r="K51" s="3">
-        <v>9054965</v>
+        <v>6036643</v>
       </c>
       <c r="L51" s="3">
         <v>0</v>
@@ -8028,7 +8028,7 @@
         <v>0</v>
       </c>
       <c r="K52" s="3">
-        <v>9356502</v>
+        <v>6237668</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -8104,7 +8104,7 @@
         <v>0</v>
       </c>
       <c r="K53" s="3">
-        <v>9640716</v>
+        <v>6427144</v>
       </c>
       <c r="L53" s="3">
         <v>0</v>
@@ -8180,7 +8180,7 @@
         <v>0</v>
       </c>
       <c r="K54" s="3">
-        <v>11402178</v>
+        <v>7601452</v>
       </c>
       <c r="L54" s="3">
         <v>0</v>
@@ -8256,7 +8256,7 @@
         <v>0</v>
       </c>
       <c r="K55" s="3">
-        <v>11479216</v>
+        <v>7652811</v>
       </c>
       <c r="L55" s="3">
         <v>0</v>
@@ -8332,7 +8332,7 @@
         <v>0</v>
       </c>
       <c r="K56" s="3">
-        <v>12902365</v>
+        <v>8601577</v>
       </c>
       <c r="L56" s="3">
         <v>0</v>
@@ -8408,7 +8408,7 @@
         <v>0</v>
       </c>
       <c r="K57" s="3">
-        <v>13609926</v>
+        <v>9073284</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
@@ -8484,7 +8484,7 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
-        <v>13957427</v>
+        <v>9304951</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -8560,7 +8560,7 @@
         <v>0</v>
       </c>
       <c r="K59" s="3">
-        <v>14325421</v>
+        <v>9550280</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
@@ -8636,7 +8636,7 @@
         <v>0</v>
       </c>
       <c r="K60" s="3">
-        <v>15163408</v>
+        <v>10108939</v>
       </c>
       <c r="L60" s="3">
         <v>0</v>
@@ -8712,7 +8712,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
-        <v>16844902</v>
+        <v>11229935</v>
       </c>
       <c r="L61" s="3">
         <v>0</v>
@@ -8788,7 +8788,7 @@
         <v>0</v>
       </c>
       <c r="K62" s="3">
-        <v>17283803</v>
+        <v>11522535</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -8864,7 +8864,7 @@
         <v>0</v>
       </c>
       <c r="K63" s="3">
-        <v>19155409</v>
+        <v>12770272</v>
       </c>
       <c r="L63" s="3">
         <v>0</v>
@@ -8940,7 +8940,7 @@
         <v>0</v>
       </c>
       <c r="K64" s="3">
-        <v>20441504</v>
+        <v>13627669</v>
       </c>
       <c r="L64" s="3">
         <v>0</v>
@@ -9016,7 +9016,7 @@
         <v>0</v>
       </c>
       <c r="K65" s="3">
-        <v>21514254</v>
+        <v>14342836</v>
       </c>
       <c r="L65" s="3">
         <v>0</v>
@@ -9092,7 +9092,7 @@
         <v>0</v>
       </c>
       <c r="K66" s="3">
-        <v>22256197</v>
+        <v>14837464</v>
       </c>
       <c r="L66" s="3">
         <v>0</v>
@@ -9168,7 +9168,7 @@
         <v>0</v>
       </c>
       <c r="K67" s="3">
-        <v>22498911</v>
+        <v>14999274</v>
       </c>
       <c r="L67" s="3">
         <v>0</v>
@@ -9244,7 +9244,7 @@
         <v>0</v>
       </c>
       <c r="K68" s="3">
-        <v>22742140</v>
+        <v>15161426</v>
       </c>
       <c r="L68" s="3">
         <v>0</v>
@@ -9320,7 +9320,7 @@
         <v>0</v>
       </c>
       <c r="K69" s="3">
-        <v>25238084</v>
+        <v>16825389</v>
       </c>
       <c r="L69" s="3">
         <v>0</v>
@@ -9396,7 +9396,7 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
-        <v>25669848</v>
+        <v>17113232</v>
       </c>
       <c r="L70" s="3">
         <v>0</v>
@@ -9472,7 +9472,7 @@
         <v>0</v>
       </c>
       <c r="K71" s="3">
-        <v>27275623</v>
+        <v>18183749</v>
       </c>
       <c r="L71" s="3">
         <v>0</v>
@@ -9548,7 +9548,7 @@
         <v>0</v>
       </c>
       <c r="K72" s="3">
-        <v>28191628</v>
+        <v>18794419</v>
       </c>
       <c r="L72" s="3">
         <v>0</v>
@@ -9624,7 +9624,7 @@
         <v>0</v>
       </c>
       <c r="K73" s="3">
-        <v>28473325</v>
+        <v>18982216</v>
       </c>
       <c r="L73" s="3">
         <v>0</v>
@@ -9700,7 +9700,7 @@
         <v>0</v>
       </c>
       <c r="K74" s="3">
-        <v>31151248</v>
+        <v>20767498</v>
       </c>
       <c r="L74" s="3">
         <v>0</v>
@@ -9776,7 +9776,7 @@
         <v>0</v>
       </c>
       <c r="K75" s="3">
-        <v>32462518</v>
+        <v>21641678</v>
       </c>
       <c r="L75" s="3">
         <v>0</v>
@@ -9852,7 +9852,7 @@
         <v>0</v>
       </c>
       <c r="K76" s="3">
-        <v>32744569</v>
+        <v>21829712</v>
       </c>
       <c r="L76" s="3">
         <v>0</v>
@@ -9928,7 +9928,7 @@
         <v>0</v>
       </c>
       <c r="K77" s="3">
-        <v>33059899</v>
+        <v>22039932</v>
       </c>
       <c r="L77" s="3">
         <v>0</v>
@@ -10004,7 +10004,7 @@
         <v>0</v>
       </c>
       <c r="K78" s="3">
-        <v>33375226</v>
+        <v>22250150</v>
       </c>
       <c r="L78" s="3">
         <v>0</v>
@@ -10080,7 +10080,7 @@
         <v>0</v>
       </c>
       <c r="K79" s="3">
-        <v>33690599</v>
+        <v>22460399</v>
       </c>
       <c r="L79" s="3">
         <v>0</v>
@@ -10156,7 +10156,7 @@
         <v>0</v>
       </c>
       <c r="K80" s="3">
-        <v>34005943</v>
+        <v>22670629</v>
       </c>
       <c r="L80" s="3">
         <v>0</v>
@@ -10232,7 +10232,7 @@
         <v>0</v>
       </c>
       <c r="K81" s="3">
-        <v>34288003</v>
+        <v>22858669</v>
       </c>
       <c r="L81" s="3">
         <v>0</v>
@@ -10308,7 +10308,7 @@
         <v>0</v>
       </c>
       <c r="K82" s="3">
-        <v>34603325</v>
+        <v>23068883</v>
       </c>
       <c r="L82" s="3">
         <v>0</v>
@@ -10384,7 +10384,7 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
-        <v>34918644</v>
+        <v>23279096</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -10460,7 +10460,7 @@
         <v>0</v>
       </c>
       <c r="K84" s="3">
-        <v>35233962</v>
+        <v>23489308</v>
       </c>
       <c r="L84" s="3">
         <v>0</v>
@@ -10536,7 +10536,7 @@
         <v>0</v>
       </c>
       <c r="K85" s="3">
-        <v>35382016</v>
+        <v>23699520</v>
       </c>
       <c r="L85" s="3">
         <v>0</v>
@@ -10840,7 +10840,7 @@
         <v>0</v>
       </c>
       <c r="K89" s="3">
-        <v>732</v>
+        <v>650</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
@@ -10916,7 +10916,7 @@
         <v>0</v>
       </c>
       <c r="K90" s="3">
-        <v>1699</v>
+        <v>1359</v>
       </c>
       <c r="L90" s="3">
         <v>0</v>
@@ -10992,7 +10992,7 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
-        <v>3349</v>
+        <v>2436</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>0</v>
       </c>
       <c r="K92" s="3">
-        <v>6451</v>
+        <v>4300</v>
       </c>
       <c r="L92" s="3">
         <v>0</v>
@@ -11144,7 +11144,7 @@
         <v>0</v>
       </c>
       <c r="K93" s="3">
-        <v>9593</v>
+        <v>6395</v>
       </c>
       <c r="L93" s="3">
         <v>0</v>
@@ -11220,7 +11220,7 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
-        <v>13656</v>
+        <v>9104</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="K95" s="3">
-        <v>16021</v>
+        <v>10681</v>
       </c>
       <c r="L95" s="3">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
-        <v>28080</v>
+        <v>18720</v>
       </c>
       <c r="L96" s="3">
         <v>0</v>
@@ -11448,7 +11448,7 @@
         <v>0</v>
       </c>
       <c r="K97" s="3">
-        <v>54231</v>
+        <v>36153</v>
       </c>
       <c r="L97" s="3">
         <v>0</v>
@@ -11524,7 +11524,7 @@
         <v>0</v>
       </c>
       <c r="K98" s="3">
-        <v>73939</v>
+        <v>49292</v>
       </c>
       <c r="L98" s="3">
         <v>0</v>
@@ -11600,7 +11600,7 @@
         <v>0</v>
       </c>
       <c r="K99" s="3">
-        <v>101850</v>
+        <v>67900</v>
       </c>
       <c r="L99" s="3">
         <v>0</v>
@@ -11676,7 +11676,7 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
-        <v>133536</v>
+        <v>89024</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
@@ -11752,7 +11752,7 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
-        <v>187938</v>
+        <v>125292</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -11828,7 +11828,7 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>216269</v>
+        <v>144179</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
@@ -11904,7 +11904,7 @@
         <v>0</v>
       </c>
       <c r="K103" s="3">
-        <v>299290</v>
+        <v>199527</v>
       </c>
       <c r="L103" s="3">
         <v>0</v>
@@ -11980,7 +11980,7 @@
         <v>0</v>
       </c>
       <c r="K104" s="3">
-        <v>499172</v>
+        <v>332781</v>
       </c>
       <c r="L104" s="3">
         <v>0</v>
@@ -12056,7 +12056,7 @@
         <v>0</v>
       </c>
       <c r="K105" s="3">
-        <v>541114</v>
+        <v>360742</v>
       </c>
       <c r="L105" s="3">
         <v>0</v>
@@ -12132,7 +12132,7 @@
         <v>0</v>
       </c>
       <c r="K106" s="3">
-        <v>738914</v>
+        <v>492609</v>
       </c>
       <c r="L106" s="3">
         <v>0</v>
@@ -12208,7 +12208,7 @@
         <v>0</v>
       </c>
       <c r="K107" s="3">
-        <v>790294</v>
+        <v>526862</v>
       </c>
       <c r="L107" s="3">
         <v>0</v>
@@ -12284,7 +12284,7 @@
         <v>0</v>
       </c>
       <c r="K108" s="3">
-        <v>857740</v>
+        <v>571827</v>
       </c>
       <c r="L108" s="3">
         <v>0</v>
@@ -12360,7 +12360,7 @@
         <v>0</v>
       </c>
       <c r="K109" s="3">
-        <v>1186875</v>
+        <v>791250</v>
       </c>
       <c r="L109" s="3">
         <v>0</v>
@@ -12436,7 +12436,7 @@
         <v>0</v>
       </c>
       <c r="K110" s="3">
-        <v>1255775</v>
+        <v>837183</v>
       </c>
       <c r="L110" s="3">
         <v>0</v>
@@ -12512,7 +12512,7 @@
         <v>0</v>
       </c>
       <c r="K111" s="3">
-        <v>1680594</v>
+        <v>1120396</v>
       </c>
       <c r="L111" s="3">
         <v>0</v>
@@ -12588,7 +12588,7 @@
         <v>0</v>
       </c>
       <c r="K112" s="3">
-        <v>1821127</v>
+        <v>1214084</v>
       </c>
       <c r="L112" s="3">
         <v>0</v>
@@ -12664,7 +12664,7 @@
         <v>0</v>
       </c>
       <c r="K113" s="3">
-        <v>1951883</v>
+        <v>1301255</v>
       </c>
       <c r="L113" s="3">
         <v>0</v>
@@ -12740,7 +12740,7 @@
         <v>0</v>
       </c>
       <c r="K114" s="3">
-        <v>2037330</v>
+        <v>1358220</v>
       </c>
       <c r="L114" s="3">
         <v>0</v>
@@ -12816,7 +12816,7 @@
         <v>0</v>
       </c>
       <c r="K115" s="3">
-        <v>2193540</v>
+        <v>1462360</v>
       </c>
       <c r="L115" s="3">
         <v>0</v>
@@ -12892,7 +12892,7 @@
         <v>0</v>
       </c>
       <c r="K116" s="3">
-        <v>2281758</v>
+        <v>1521172</v>
       </c>
       <c r="L116" s="3">
         <v>0</v>
@@ -12968,7 +12968,7 @@
         <v>0</v>
       </c>
       <c r="K117" s="3">
-        <v>2616051</v>
+        <v>1744034</v>
       </c>
       <c r="L117" s="3">
         <v>0</v>
@@ -13044,7 +13044,7 @@
         <v>0</v>
       </c>
       <c r="K118" s="3">
-        <v>2857595</v>
+        <v>1905063</v>
       </c>
       <c r="L118" s="3">
         <v>0</v>
@@ -13120,7 +13120,7 @@
         <v>0</v>
       </c>
       <c r="K119" s="3">
-        <v>3195884</v>
+        <v>2130589</v>
       </c>
       <c r="L119" s="3">
         <v>0</v>
@@ -13196,7 +13196,7 @@
         <v>0</v>
       </c>
       <c r="K120" s="3">
-        <v>3398519</v>
+        <v>2265679</v>
       </c>
       <c r="L120" s="3">
         <v>0</v>
@@ -13272,7 +13272,7 @@
         <v>0</v>
       </c>
       <c r="K121" s="3">
-        <v>3740311</v>
+        <v>2493540</v>
       </c>
       <c r="L121" s="3">
         <v>0</v>
@@ -13348,7 +13348,7 @@
         <v>0</v>
       </c>
       <c r="K122" s="3">
-        <v>4049994</v>
+        <v>2699996</v>
       </c>
       <c r="L122" s="3">
         <v>0</v>
@@ -13424,7 +13424,7 @@
         <v>0</v>
       </c>
       <c r="K123" s="3">
-        <v>4890036</v>
+        <v>3260024</v>
       </c>
       <c r="L123" s="3">
         <v>0</v>
@@ -13500,7 +13500,7 @@
         <v>0</v>
       </c>
       <c r="K124" s="3">
-        <v>5253643</v>
+        <v>3502428</v>
       </c>
       <c r="L124" s="3">
         <v>0</v>
@@ -13576,7 +13576,7 @@
         <v>0</v>
       </c>
       <c r="K125" s="3">
-        <v>6169084</v>
+        <v>4112722</v>
       </c>
       <c r="L125" s="3">
         <v>0</v>
@@ -13652,7 +13652,7 @@
         <v>0</v>
       </c>
       <c r="K126" s="3">
-        <v>6461686</v>
+        <v>4307791</v>
       </c>
       <c r="L126" s="3">
         <v>0</v>
@@ -13728,7 +13728,7 @@
         <v>0</v>
       </c>
       <c r="K127" s="3">
-        <v>7013589</v>
+        <v>4675726</v>
       </c>
       <c r="L127" s="3">
         <v>0</v>
@@ -13804,7 +13804,7 @@
         <v>0</v>
       </c>
       <c r="K128" s="3">
-        <v>7998507</v>
+        <v>5332338</v>
       </c>
       <c r="L128" s="3">
         <v>0</v>
@@ -13880,7 +13880,7 @@
         <v>0</v>
       </c>
       <c r="K129" s="3">
-        <v>9086960</v>
+        <v>6057973</v>
       </c>
       <c r="L129" s="3">
         <v>0</v>
@@ -13956,7 +13956,7 @@
         <v>0</v>
       </c>
       <c r="K130" s="3">
-        <v>10162997</v>
+        <v>6775331</v>
       </c>
       <c r="L130" s="3">
         <v>0</v>
@@ -14032,7 +14032,7 @@
         <v>0</v>
       </c>
       <c r="K131" s="3">
-        <v>11467847</v>
+        <v>7645231</v>
       </c>
       <c r="L131" s="3">
         <v>0</v>
@@ -14108,7 +14108,7 @@
         <v>0</v>
       </c>
       <c r="K132" s="3">
-        <v>11810409</v>
+        <v>7873606</v>
       </c>
       <c r="L132" s="3">
         <v>0</v>
@@ -14184,7 +14184,7 @@
         <v>0</v>
       </c>
       <c r="K133" s="3">
-        <v>13582448</v>
+        <v>9054965</v>
       </c>
       <c r="L133" s="3">
         <v>0</v>
@@ -14260,7 +14260,7 @@
         <v>0</v>
       </c>
       <c r="K134" s="3">
-        <v>14034753</v>
+        <v>9356502</v>
       </c>
       <c r="L134" s="3">
         <v>0</v>
@@ -14336,7 +14336,7 @@
         <v>0</v>
       </c>
       <c r="K135" s="3">
-        <v>14461075</v>
+        <v>9640716</v>
       </c>
       <c r="L135" s="3">
         <v>0</v>
@@ -14412,7 +14412,7 @@
         <v>0</v>
       </c>
       <c r="K136" s="3">
-        <v>17103267</v>
+        <v>11402178</v>
       </c>
       <c r="L136" s="3">
         <v>0</v>
@@ -14488,7 +14488,7 @@
         <v>0</v>
       </c>
       <c r="K137" s="3">
-        <v>17218825</v>
+        <v>11479216</v>
       </c>
       <c r="L137" s="3">
         <v>0</v>
@@ -14564,7 +14564,7 @@
         <v>0</v>
       </c>
       <c r="K138" s="3">
-        <v>19353548</v>
+        <v>12902365</v>
       </c>
       <c r="L138" s="3">
         <v>0</v>
@@ -14640,7 +14640,7 @@
         <v>0</v>
       </c>
       <c r="K139" s="3">
-        <v>20414890</v>
+        <v>13609926</v>
       </c>
       <c r="L139" s="3">
         <v>0</v>
@@ -14716,7 +14716,7 @@
         <v>0</v>
       </c>
       <c r="K140" s="3">
-        <v>20936141</v>
+        <v>13957427</v>
       </c>
       <c r="L140" s="3">
         <v>0</v>
@@ -14792,7 +14792,7 @@
         <v>0</v>
       </c>
       <c r="K141" s="3">
-        <v>21488131</v>
+        <v>14325421</v>
       </c>
       <c r="L141" s="3">
         <v>0</v>
@@ -14868,7 +14868,7 @@
         <v>0</v>
       </c>
       <c r="K142" s="3">
-        <v>22745112</v>
+        <v>15163408</v>
       </c>
       <c r="L142" s="3">
         <v>0</v>
@@ -14944,7 +14944,7 @@
         <v>0</v>
       </c>
       <c r="K143" s="3">
-        <v>25267353</v>
+        <v>16844902</v>
       </c>
       <c r="L143" s="3">
         <v>0</v>
@@ -15020,7 +15020,7 @@
         <v>0</v>
       </c>
       <c r="K144" s="3">
-        <v>25925705</v>
+        <v>17283803</v>
       </c>
       <c r="L144" s="3">
         <v>0</v>
@@ -15096,7 +15096,7 @@
         <v>0</v>
       </c>
       <c r="K145" s="3">
-        <v>28733113</v>
+        <v>19155409</v>
       </c>
       <c r="L145" s="3">
         <v>0</v>
@@ -15172,7 +15172,7 @@
         <v>0</v>
       </c>
       <c r="K146" s="3">
-        <v>30662257</v>
+        <v>20441504</v>
       </c>
       <c r="L146" s="3">
         <v>0</v>
@@ -15248,7 +15248,7 @@
         <v>0</v>
       </c>
       <c r="K147" s="3">
-        <v>32271382</v>
+        <v>21514254</v>
       </c>
       <c r="L147" s="3">
         <v>0</v>
@@ -15324,7 +15324,7 @@
         <v>0</v>
       </c>
       <c r="K148" s="3">
-        <v>33384295</v>
+        <v>22256197</v>
       </c>
       <c r="L148" s="3">
         <v>0</v>
@@ -15400,7 +15400,7 @@
         <v>0</v>
       </c>
       <c r="K149" s="3">
-        <v>33748367</v>
+        <v>22498911</v>
       </c>
       <c r="L149" s="3">
         <v>0</v>
@@ -15476,7 +15476,7 @@
         <v>0</v>
       </c>
       <c r="K150" s="3">
-        <v>34113210</v>
+        <v>22742140</v>
       </c>
       <c r="L150" s="3">
         <v>0</v>
@@ -15552,7 +15552,7 @@
         <v>0</v>
       </c>
       <c r="K151" s="3">
-        <v>37857126</v>
+        <v>25238084</v>
       </c>
       <c r="L151" s="3">
         <v>0</v>
@@ -15628,7 +15628,7 @@
         <v>0</v>
       </c>
       <c r="K152" s="3">
-        <v>38504773</v>
+        <v>25669848</v>
       </c>
       <c r="L152" s="3">
         <v>0</v>
@@ -15704,7 +15704,7 @@
         <v>0</v>
       </c>
       <c r="K153" s="3">
-        <v>40913435</v>
+        <v>27275623</v>
       </c>
       <c r="L153" s="3">
         <v>0</v>
@@ -15780,7 +15780,7 @@
         <v>0</v>
       </c>
       <c r="K154" s="3">
-        <v>42287442</v>
+        <v>28191628</v>
       </c>
       <c r="L154" s="3">
         <v>0</v>
@@ -15856,7 +15856,7 @@
         <v>0</v>
       </c>
       <c r="K155" s="3">
-        <v>42709987</v>
+        <v>28473325</v>
       </c>
       <c r="L155" s="3">
         <v>0</v>
@@ -15932,7 +15932,7 @@
         <v>0</v>
       </c>
       <c r="K156" s="3">
-        <v>46726872</v>
+        <v>31151248</v>
       </c>
       <c r="L156" s="3">
         <v>0</v>
@@ -16008,7 +16008,7 @@
         <v>0</v>
       </c>
       <c r="K157" s="3">
-        <v>48693777</v>
+        <v>32462518</v>
       </c>
       <c r="L157" s="3">
         <v>0</v>
@@ -16084,7 +16084,7 @@
         <v>0</v>
       </c>
       <c r="K158" s="3">
-        <v>49116853</v>
+        <v>32744569</v>
       </c>
       <c r="L158" s="3">
         <v>0</v>
@@ -16160,7 +16160,7 @@
         <v>0</v>
       </c>
       <c r="K159" s="3">
-        <v>49589848</v>
+        <v>33059899</v>
       </c>
       <c r="L159" s="3">
         <v>0</v>
@@ -16236,7 +16236,7 @@
         <v>0</v>
       </c>
       <c r="K160" s="3">
-        <v>50062839</v>
+        <v>33375226</v>
       </c>
       <c r="L160" s="3">
         <v>0</v>
@@ -16312,7 +16312,7 @@
         <v>0</v>
       </c>
       <c r="K161" s="3">
-        <v>50535899</v>
+        <v>33690599</v>
       </c>
       <c r="L161" s="3">
         <v>0</v>
@@ -16388,7 +16388,7 @@
         <v>0</v>
       </c>
       <c r="K162" s="3">
-        <v>51008915</v>
+        <v>34005943</v>
       </c>
       <c r="L162" s="3">
         <v>0</v>
@@ -16464,7 +16464,7 @@
         <v>0</v>
       </c>
       <c r="K163" s="3">
-        <v>51432005</v>
+        <v>34288003</v>
       </c>
       <c r="L163" s="3">
         <v>0</v>
@@ -16540,7 +16540,7 @@
         <v>0</v>
       </c>
       <c r="K164" s="3">
-        <v>51904987</v>
+        <v>34603325</v>
       </c>
       <c r="L164" s="3">
         <v>0</v>
@@ -16616,7 +16616,7 @@
         <v>0</v>
       </c>
       <c r="K165" s="3">
-        <v>52377967</v>
+        <v>34918644</v>
       </c>
       <c r="L165" s="3">
         <v>0</v>
@@ -16692,7 +16692,7 @@
         <v>0</v>
       </c>
       <c r="K166" s="3">
-        <v>52850943</v>
+        <v>35233962</v>
       </c>
       <c r="L166" s="3">
         <v>0</v>
@@ -16768,7 +16768,7 @@
         <v>0</v>
       </c>
       <c r="K167" s="3">
-        <v>53073026</v>
+        <v>35549280</v>
       </c>
       <c r="L167" s="3">
         <v>0</v>
@@ -17072,7 +17072,7 @@
         <v>0</v>
       </c>
       <c r="K171" s="3">
-        <v>1464</v>
+        <v>1301</v>
       </c>
       <c r="L171" s="3">
         <v>0</v>
@@ -17148,7 +17148,7 @@
         <v>0</v>
       </c>
       <c r="K172" s="3">
-        <v>3399</v>
+        <v>2719</v>
       </c>
       <c r="L172" s="3">
         <v>0</v>
@@ -17224,7 +17224,7 @@
         <v>0</v>
       </c>
       <c r="K173" s="3">
-        <v>6699</v>
+        <v>4872</v>
       </c>
       <c r="L173" s="3">
         <v>0</v>
@@ -17300,7 +17300,7 @@
         <v>0</v>
       </c>
       <c r="K174" s="3">
-        <v>12902</v>
+        <v>8601</v>
       </c>
       <c r="L174" s="3">
         <v>0</v>
@@ -17376,7 +17376,7 @@
         <v>0</v>
       </c>
       <c r="K175" s="3">
-        <v>19186</v>
+        <v>12790</v>
       </c>
       <c r="L175" s="3">
         <v>0</v>
@@ -17452,7 +17452,7 @@
         <v>0</v>
       </c>
       <c r="K176" s="3">
-        <v>27313</v>
+        <v>18208</v>
       </c>
       <c r="L176" s="3">
         <v>0</v>
@@ -17528,7 +17528,7 @@
         <v>0</v>
       </c>
       <c r="K177" s="3">
-        <v>32043</v>
+        <v>21362</v>
       </c>
       <c r="L177" s="3">
         <v>0</v>
@@ -17604,7 +17604,7 @@
         <v>0</v>
       </c>
       <c r="K178" s="3">
-        <v>56160</v>
+        <v>37440</v>
       </c>
       <c r="L178" s="3">
         <v>0</v>
@@ -17680,7 +17680,7 @@
         <v>0</v>
       </c>
       <c r="K179" s="3">
-        <v>108462</v>
+        <v>72307</v>
       </c>
       <c r="L179" s="3">
         <v>0</v>
@@ -17756,7 +17756,7 @@
         <v>0</v>
       </c>
       <c r="K180" s="3">
-        <v>147878</v>
+        <v>98585</v>
       </c>
       <c r="L180" s="3">
         <v>0</v>
@@ -17832,7 +17832,7 @@
         <v>0</v>
       </c>
       <c r="K181" s="3">
-        <v>203700</v>
+        <v>135800</v>
       </c>
       <c r="L181" s="3">
         <v>0</v>
@@ -17908,7 +17908,7 @@
         <v>0</v>
       </c>
       <c r="K182" s="3">
-        <v>267073</v>
+        <v>178049</v>
       </c>
       <c r="L182" s="3">
         <v>0</v>
@@ -17984,7 +17984,7 @@
         <v>0</v>
       </c>
       <c r="K183" s="3">
-        <v>375877</v>
+        <v>250584</v>
       </c>
       <c r="L183" s="3">
         <v>0</v>
@@ -18060,7 +18060,7 @@
         <v>0</v>
       </c>
       <c r="K184" s="3">
-        <v>432539</v>
+        <v>288359</v>
       </c>
       <c r="L184" s="3">
         <v>0</v>
@@ -18136,7 +18136,7 @@
         <v>0</v>
       </c>
       <c r="K185" s="3">
-        <v>598581</v>
+        <v>399054</v>
       </c>
       <c r="L185" s="3">
         <v>0</v>
@@ -18212,7 +18212,7 @@
         <v>0</v>
       </c>
       <c r="K186" s="3">
-        <v>998345</v>
+        <v>665563</v>
       </c>
       <c r="L186" s="3">
         <v>0</v>
@@ -18288,7 +18288,7 @@
         <v>0</v>
       </c>
       <c r="K187" s="3">
-        <v>1082229</v>
+        <v>721485</v>
       </c>
       <c r="L187" s="3">
         <v>0</v>
@@ -18364,7 +18364,7 @@
         <v>0</v>
       </c>
       <c r="K188" s="3">
-        <v>1477828</v>
+        <v>985219</v>
       </c>
       <c r="L188" s="3">
         <v>0</v>
@@ -18440,7 +18440,7 @@
         <v>0</v>
       </c>
       <c r="K189" s="3">
-        <v>1580588</v>
+        <v>1053725</v>
       </c>
       <c r="L189" s="3">
         <v>0</v>
@@ -18516,7 +18516,7 @@
         <v>0</v>
       </c>
       <c r="K190" s="3">
-        <v>1715481</v>
+        <v>1143654</v>
       </c>
       <c r="L190" s="3">
         <v>0</v>
@@ -18592,7 +18592,7 @@
         <v>0</v>
       </c>
       <c r="K191" s="3">
-        <v>2373751</v>
+        <v>1582500</v>
       </c>
       <c r="L191" s="3">
         <v>0</v>
@@ -18668,7 +18668,7 @@
         <v>0</v>
       </c>
       <c r="K192" s="3">
-        <v>2511550</v>
+        <v>1674367</v>
       </c>
       <c r="L192" s="3">
         <v>0</v>
@@ -18744,7 +18744,7 @@
         <v>0</v>
       </c>
       <c r="K193" s="3">
-        <v>3361189</v>
+        <v>2240793</v>
       </c>
       <c r="L193" s="3">
         <v>0</v>
@@ -18820,7 +18820,7 @@
         <v>0</v>
       </c>
       <c r="K194" s="3">
-        <v>3642254</v>
+        <v>2428169</v>
       </c>
       <c r="L194" s="3">
         <v>0</v>
@@ -18896,7 +18896,7 @@
         <v>0</v>
       </c>
       <c r="K195" s="3">
-        <v>3903767</v>
+        <v>2602511</v>
       </c>
       <c r="L195" s="3">
         <v>0</v>
@@ -18972,7 +18972,7 @@
         <v>0</v>
       </c>
       <c r="K196" s="3">
-        <v>4074661</v>
+        <v>2716441</v>
       </c>
       <c r="L196" s="3">
         <v>0</v>
@@ -19048,7 +19048,7 @@
         <v>0</v>
       </c>
       <c r="K197" s="3">
-        <v>4387080</v>
+        <v>2924720</v>
       </c>
       <c r="L197" s="3">
         <v>0</v>
@@ -19124,7 +19124,7 @@
         <v>0</v>
       </c>
       <c r="K198" s="3">
-        <v>4563516</v>
+        <v>3042344</v>
       </c>
       <c r="L198" s="3">
         <v>0</v>
@@ -19200,7 +19200,7 @@
         <v>0</v>
       </c>
       <c r="K199" s="3">
-        <v>5232102</v>
+        <v>3488068</v>
       </c>
       <c r="L199" s="3">
         <v>0</v>
@@ -19276,7 +19276,7 @@
         <v>0</v>
       </c>
       <c r="K200" s="3">
-        <v>5715191</v>
+        <v>3810127</v>
       </c>
       <c r="L200" s="3">
         <v>0</v>
@@ -19352,7 +19352,7 @@
         <v>0</v>
       </c>
       <c r="K201" s="3">
-        <v>6391768</v>
+        <v>4261178</v>
       </c>
       <c r="L201" s="3">
         <v>0</v>
@@ -19428,7 +19428,7 @@
         <v>0</v>
       </c>
       <c r="K202" s="3">
-        <v>6797038</v>
+        <v>4531358</v>
       </c>
       <c r="L202" s="3">
         <v>0</v>
@@ -19504,7 +19504,7 @@
         <v>0</v>
       </c>
       <c r="K203" s="3">
-        <v>7480622</v>
+        <v>4987081</v>
       </c>
       <c r="L203" s="3">
         <v>0</v>
@@ -19580,7 +19580,7 @@
         <v>0</v>
       </c>
       <c r="K204" s="3">
-        <v>8099988</v>
+        <v>5399992</v>
       </c>
       <c r="L204" s="3">
         <v>0</v>
@@ -19656,7 +19656,7 @@
         <v>0</v>
       </c>
       <c r="K205" s="3">
-        <v>9780073</v>
+        <v>6520048</v>
       </c>
       <c r="L205" s="3">
         <v>0</v>
@@ -19732,7 +19732,7 @@
         <v>0</v>
       </c>
       <c r="K206" s="3">
-        <v>10507286</v>
+        <v>7004857</v>
       </c>
       <c r="L206" s="3">
         <v>0</v>
@@ -19808,7 +19808,7 @@
         <v>0</v>
       </c>
       <c r="K207" s="3">
-        <v>12338168</v>
+        <v>8225445</v>
       </c>
       <c r="L207" s="3">
         <v>0</v>
@@ -19884,7 +19884,7 @@
         <v>0</v>
       </c>
       <c r="K208" s="3">
-        <v>12923373</v>
+        <v>8615582</v>
       </c>
       <c r="L208" s="3">
         <v>0</v>
@@ -19960,7 +19960,7 @@
         <v>0</v>
       </c>
       <c r="K209" s="3">
-        <v>14027179</v>
+        <v>9351453</v>
       </c>
       <c r="L209" s="3">
         <v>0</v>
@@ -20036,7 +20036,7 @@
         <v>0</v>
       </c>
       <c r="K210" s="3">
-        <v>15997014</v>
+        <v>10664676</v>
       </c>
       <c r="L210" s="3">
         <v>0</v>
@@ -20112,7 +20112,7 @@
         <v>0</v>
       </c>
       <c r="K211" s="3">
-        <v>18173920</v>
+        <v>12115946</v>
       </c>
       <c r="L211" s="3">
         <v>0</v>
@@ -20188,7 +20188,7 @@
         <v>0</v>
       </c>
       <c r="K212" s="3">
-        <v>20325994</v>
+        <v>13550663</v>
       </c>
       <c r="L212" s="3">
         <v>0</v>
@@ -20264,7 +20264,7 @@
         <v>0</v>
       </c>
       <c r="K213" s="3">
-        <v>22935695</v>
+        <v>15290463</v>
       </c>
       <c r="L213" s="3">
         <v>0</v>
@@ -20340,7 +20340,7 @@
         <v>0</v>
       </c>
       <c r="K214" s="3">
-        <v>23620819</v>
+        <v>15747213</v>
       </c>
       <c r="L214" s="3">
         <v>0</v>
@@ -20416,7 +20416,7 @@
         <v>0</v>
       </c>
       <c r="K215" s="3">
-        <v>27164896</v>
+        <v>18109930</v>
       </c>
       <c r="L215" s="3">
         <v>0</v>
@@ -20492,7 +20492,7 @@
         <v>0</v>
       </c>
       <c r="K216" s="3">
-        <v>28069507</v>
+        <v>18713004</v>
       </c>
       <c r="L216" s="3">
         <v>0</v>
@@ -20568,7 +20568,7 @@
         <v>0</v>
       </c>
       <c r="K217" s="3">
-        <v>28922150</v>
+        <v>19281433</v>
       </c>
       <c r="L217" s="3">
         <v>0</v>
@@ -20644,7 +20644,7 @@
         <v>0</v>
       </c>
       <c r="K218" s="3">
-        <v>34206534</v>
+        <v>22804356</v>
       </c>
       <c r="L218" s="3">
         <v>0</v>
@@ -20720,7 +20720,7 @@
         <v>0</v>
       </c>
       <c r="K219" s="3">
-        <v>34437650</v>
+        <v>22958433</v>
       </c>
       <c r="L219" s="3">
         <v>0</v>
@@ -20796,7 +20796,7 @@
         <v>0</v>
       </c>
       <c r="K220" s="3">
-        <v>38707097</v>
+        <v>25804731</v>
       </c>
       <c r="L220" s="3">
         <v>0</v>
@@ -20872,7 +20872,7 @@
         <v>0</v>
       </c>
       <c r="K221" s="3">
-        <v>40829780</v>
+        <v>27219853</v>
       </c>
       <c r="L221" s="3">
         <v>0</v>
@@ -20948,7 +20948,7 @@
         <v>0</v>
       </c>
       <c r="K222" s="3">
-        <v>41872282</v>
+        <v>27914854</v>
       </c>
       <c r="L222" s="3">
         <v>0</v>
@@ -21024,7 +21024,7 @@
         <v>0</v>
       </c>
       <c r="K223" s="3">
-        <v>42976263</v>
+        <v>28650842</v>
       </c>
       <c r="L223" s="3">
         <v>0</v>
@@ -21100,7 +21100,7 @@
         <v>0</v>
       </c>
       <c r="K224" s="3">
-        <v>45490225</v>
+        <v>30326817</v>
       </c>
       <c r="L224" s="3">
         <v>0</v>
@@ -21176,7 +21176,7 @@
         <v>0</v>
       </c>
       <c r="K225" s="3">
-        <v>50534707</v>
+        <v>33689805</v>
       </c>
       <c r="L225" s="3">
         <v>0</v>
@@ -21252,7 +21252,7 @@
         <v>0</v>
       </c>
       <c r="K226" s="3">
-        <v>51851411</v>
+        <v>34567607</v>
       </c>
       <c r="L226" s="3">
         <v>0</v>
@@ -21328,7 +21328,7 @@
         <v>0</v>
       </c>
       <c r="K227" s="3">
-        <v>57466227</v>
+        <v>38310818</v>
       </c>
       <c r="L227" s="3">
         <v>0</v>
@@ -21404,7 +21404,7 @@
         <v>0</v>
       </c>
       <c r="K228" s="3">
-        <v>61324514</v>
+        <v>40883009</v>
       </c>
       <c r="L228" s="3">
         <v>0</v>
@@ -21480,7 +21480,7 @@
         <v>0</v>
       </c>
       <c r="K229" s="3">
-        <v>64542764</v>
+        <v>43028509</v>
       </c>
       <c r="L229" s="3">
         <v>0</v>
@@ -21556,7 +21556,7 @@
         <v>0</v>
       </c>
       <c r="K230" s="3">
-        <v>66768591</v>
+        <v>44512394</v>
       </c>
       <c r="L230" s="3">
         <v>0</v>
@@ -21632,7 +21632,7 @@
         <v>0</v>
       </c>
       <c r="K231" s="3">
-        <v>67496734</v>
+        <v>44997822</v>
       </c>
       <c r="L231" s="3">
         <v>0</v>
@@ -21708,7 +21708,7 @@
         <v>0</v>
       </c>
       <c r="K232" s="3">
-        <v>68226420</v>
+        <v>45484280</v>
       </c>
       <c r="L232" s="3">
         <v>0</v>
@@ -21784,7 +21784,7 @@
         <v>0</v>
       </c>
       <c r="K233" s="3">
-        <v>75714253</v>
+        <v>50476168</v>
       </c>
       <c r="L233" s="3">
         <v>0</v>
@@ -21860,7 +21860,7 @@
         <v>0</v>
       </c>
       <c r="K234" s="3">
-        <v>77009546</v>
+        <v>51339697</v>
       </c>
       <c r="L234" s="3">
         <v>0</v>
@@ -21936,7 +21936,7 @@
         <v>0</v>
       </c>
       <c r="K235" s="3">
-        <v>81826870</v>
+        <v>54551247</v>
       </c>
       <c r="L235" s="3">
         <v>0</v>
@@ -22012,7 +22012,7 @@
         <v>0</v>
       </c>
       <c r="K236" s="3">
-        <v>84574885</v>
+        <v>56383257</v>
       </c>
       <c r="L236" s="3">
         <v>0</v>
@@ -22088,7 +22088,7 @@
         <v>0</v>
       </c>
       <c r="K237" s="3">
-        <v>85419975</v>
+        <v>56946650</v>
       </c>
       <c r="L237" s="3">
         <v>0</v>
@@ -22164,7 +22164,7 @@
         <v>0</v>
       </c>
       <c r="K238" s="3">
-        <v>93453744</v>
+        <v>62302496</v>
       </c>
       <c r="L238" s="3">
         <v>0</v>
@@ -22240,7 +22240,7 @@
         <v>0</v>
       </c>
       <c r="K239" s="3">
-        <v>97387555</v>
+        <v>64925036</v>
       </c>
       <c r="L239" s="3">
         <v>0</v>
@@ -22316,7 +22316,7 @@
         <v>0</v>
       </c>
       <c r="K240" s="3">
-        <v>98233707</v>
+        <v>65489138</v>
       </c>
       <c r="L240" s="3">
         <v>0</v>
@@ -22392,7 +22392,7 @@
         <v>0</v>
       </c>
       <c r="K241" s="3">
-        <v>99179697</v>
+        <v>66119798</v>
       </c>
       <c r="L241" s="3">
         <v>0</v>
@@ -22468,7 +22468,7 @@
         <v>0</v>
       </c>
       <c r="K242" s="3">
-        <v>100125679</v>
+        <v>66750452</v>
       </c>
       <c r="L242" s="3">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         <v>0</v>
       </c>
       <c r="K243" s="3">
-        <v>101071798</v>
+        <v>67381198</v>
       </c>
       <c r="L243" s="3">
         <v>0</v>
@@ -22620,7 +22620,7 @@
         <v>0</v>
       </c>
       <c r="K244" s="3">
-        <v>102017831</v>
+        <v>68011887</v>
       </c>
       <c r="L244" s="3">
         <v>0</v>
@@ -22696,7 +22696,7 @@
         <v>0</v>
       </c>
       <c r="K245" s="3">
-        <v>102864010</v>
+        <v>68576007</v>
       </c>
       <c r="L245" s="3">
         <v>0</v>
@@ -22772,7 +22772,7 @@
         <v>0</v>
       </c>
       <c r="K246" s="3">
-        <v>103809975</v>
+        <v>69206650</v>
       </c>
       <c r="L246" s="3">
         <v>0</v>
@@ -22848,7 +22848,7 @@
         <v>0</v>
       </c>
       <c r="K247" s="3">
-        <v>104755934</v>
+        <v>69837289</v>
       </c>
       <c r="L247" s="3">
         <v>0</v>
@@ -22924,7 +22924,7 @@
         <v>0</v>
       </c>
       <c r="K248" s="3">
-        <v>105701887</v>
+        <v>70467924</v>
       </c>
       <c r="L248" s="3">
         <v>0</v>
@@ -23000,7 +23000,7 @@
         <v>0</v>
       </c>
       <c r="K249" s="3">
-        <v>106146052</v>
+        <v>71098559</v>
       </c>
       <c r="L249" s="3">
         <v>0</v>
@@ -23304,7 +23304,7 @@
         <v>0</v>
       </c>
       <c r="K253" s="3">
-        <v>1952</v>
+        <v>1735</v>
       </c>
       <c r="L253" s="3">
         <v>0</v>
@@ -23380,7 +23380,7 @@
         <v>0</v>
       </c>
       <c r="K254" s="3">
-        <v>4532</v>
+        <v>3625</v>
       </c>
       <c r="L254" s="3">
         <v>0</v>
@@ -23456,7 +23456,7 @@
         <v>0</v>
       </c>
       <c r="K255" s="3">
-        <v>8932</v>
+        <v>6496</v>
       </c>
       <c r="L255" s="3">
         <v>0</v>
@@ -23532,7 +23532,7 @@
         <v>0</v>
       </c>
       <c r="K256" s="3">
-        <v>17203</v>
+        <v>11468</v>
       </c>
       <c r="L256" s="3">
         <v>0</v>
@@ -23608,7 +23608,7 @@
         <v>0</v>
       </c>
       <c r="K257" s="3">
-        <v>25581</v>
+        <v>17054</v>
       </c>
       <c r="L257" s="3">
         <v>0</v>
@@ -23684,7 +23684,7 @@
         <v>0</v>
       </c>
       <c r="K258" s="3">
-        <v>36417</v>
+        <v>24278</v>
       </c>
       <c r="L258" s="3">
         <v>0</v>
@@ -23760,7 +23760,7 @@
         <v>0</v>
       </c>
       <c r="K259" s="3">
-        <v>42724</v>
+        <v>28483</v>
       </c>
       <c r="L259" s="3">
         <v>0</v>
@@ -23836,7 +23836,7 @@
         <v>0</v>
       </c>
       <c r="K260" s="3">
-        <v>74880</v>
+        <v>49920</v>
       </c>
       <c r="L260" s="3">
         <v>0</v>
@@ -23912,7 +23912,7 @@
         <v>0</v>
       </c>
       <c r="K261" s="3">
-        <v>144616</v>
+        <v>96410</v>
       </c>
       <c r="L261" s="3">
         <v>0</v>
@@ -23988,7 +23988,7 @@
         <v>0</v>
       </c>
       <c r="K262" s="3">
-        <v>197171</v>
+        <v>131447</v>
       </c>
       <c r="L262" s="3">
         <v>0</v>
@@ -24064,7 +24064,7 @@
         <v>0</v>
       </c>
       <c r="K263" s="3">
-        <v>271600</v>
+        <v>181066</v>
       </c>
       <c r="L263" s="3">
         <v>0</v>
@@ -24140,7 +24140,7 @@
         <v>0</v>
       </c>
       <c r="K264" s="3">
-        <v>356098</v>
+        <v>237398</v>
       </c>
       <c r="L264" s="3">
         <v>0</v>
@@ -24216,7 +24216,7 @@
         <v>0</v>
       </c>
       <c r="K265" s="3">
-        <v>501170</v>
+        <v>334113</v>
       </c>
       <c r="L265" s="3">
         <v>0</v>
@@ -24292,7 +24292,7 @@
         <v>0</v>
       </c>
       <c r="K266" s="3">
-        <v>576718</v>
+        <v>384479</v>
       </c>
       <c r="L266" s="3">
         <v>0</v>
@@ -24368,7 +24368,7 @@
         <v>0</v>
       </c>
       <c r="K267" s="3">
-        <v>798108</v>
+        <v>532072</v>
       </c>
       <c r="L267" s="3">
         <v>0</v>
@@ -24444,7 +24444,7 @@
         <v>0</v>
       </c>
       <c r="K268" s="3">
-        <v>1331127</v>
+        <v>887418</v>
       </c>
       <c r="L268" s="3">
         <v>0</v>
@@ -24520,7 +24520,7 @@
         <v>0</v>
       </c>
       <c r="K269" s="3">
-        <v>1442972</v>
+        <v>961981</v>
       </c>
       <c r="L269" s="3">
         <v>0</v>
@@ -24596,7 +24596,7 @@
         <v>0</v>
       </c>
       <c r="K270" s="3">
-        <v>1970438</v>
+        <v>1313625</v>
       </c>
       <c r="L270" s="3">
         <v>0</v>
@@ -24672,7 +24672,7 @@
         <v>0</v>
       </c>
       <c r="K271" s="3">
-        <v>2107451</v>
+        <v>1404967</v>
       </c>
       <c r="L271" s="3">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="K272" s="3">
-        <v>2287308</v>
+        <v>1524872</v>
       </c>
       <c r="L272" s="3">
         <v>0</v>
@@ -24824,7 +24824,7 @@
         <v>0</v>
       </c>
       <c r="K273" s="3">
-        <v>3165001</v>
+        <v>2110001</v>
       </c>
       <c r="L273" s="3">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="K274" s="3">
-        <v>3348734</v>
+        <v>2232489</v>
       </c>
       <c r="L274" s="3">
         <v>0</v>
@@ -24976,7 +24976,7 @@
         <v>0</v>
       </c>
       <c r="K275" s="3">
-        <v>4481586</v>
+        <v>2987724</v>
       </c>
       <c r="L275" s="3">
         <v>0</v>
@@ -25052,7 +25052,7 @@
         <v>0</v>
       </c>
       <c r="K276" s="3">
-        <v>4856339</v>
+        <v>3237559</v>
       </c>
       <c r="L276" s="3">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="K277" s="3">
-        <v>5205023</v>
+        <v>3470015</v>
       </c>
       <c r="L277" s="3">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="K278" s="3">
-        <v>5432882</v>
+        <v>3621921</v>
       </c>
       <c r="L278" s="3">
         <v>0</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="K279" s="3">
-        <v>5849440</v>
+        <v>3899627</v>
       </c>
       <c r="L279" s="3">
         <v>0</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="K280" s="3">
-        <v>6084688</v>
+        <v>4056458</v>
       </c>
       <c r="L280" s="3">
         <v>0</v>
@@ -25432,7 +25432,7 @@
         <v>0</v>
       </c>
       <c r="K281" s="3">
-        <v>6976137</v>
+        <v>4650758</v>
       </c>
       <c r="L281" s="3">
         <v>0</v>
@@ -25508,7 +25508,7 @@
         <v>0</v>
       </c>
       <c r="K282" s="3">
-        <v>7620254</v>
+        <v>5080169</v>
       </c>
       <c r="L282" s="3">
         <v>0</v>
@@ -25584,7 +25584,7 @@
         <v>0</v>
       </c>
       <c r="K283" s="3">
-        <v>8522357</v>
+        <v>5681571</v>
       </c>
       <c r="L283" s="3">
         <v>0</v>
@@ -25660,7 +25660,7 @@
         <v>0</v>
       </c>
       <c r="K284" s="3">
-        <v>9062717</v>
+        <v>6041811</v>
       </c>
       <c r="L284" s="3">
         <v>0</v>
@@ -25736,7 +25736,7 @@
         <v>0</v>
       </c>
       <c r="K285" s="3">
-        <v>9974163</v>
+        <v>6649442</v>
       </c>
       <c r="L285" s="3">
         <v>0</v>
@@ -25812,7 +25812,7 @@
         <v>0</v>
       </c>
       <c r="K286" s="3">
-        <v>10799985</v>
+        <v>7199990</v>
       </c>
       <c r="L286" s="3">
         <v>0</v>
@@ -25888,7 +25888,7 @@
         <v>0</v>
       </c>
       <c r="K287" s="3">
-        <v>13040097</v>
+        <v>8693398</v>
       </c>
       <c r="L287" s="3">
         <v>0</v>
@@ -25964,7 +25964,7 @@
         <v>0</v>
       </c>
       <c r="K288" s="3">
-        <v>14009715</v>
+        <v>9339810</v>
       </c>
       <c r="L288" s="3">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="K289" s="3">
-        <v>16450890</v>
+        <v>10967260</v>
       </c>
       <c r="L289" s="3">
         <v>0</v>
@@ -26116,7 +26116,7 @@
         <v>0</v>
       </c>
       <c r="K290" s="3">
-        <v>17231164</v>
+        <v>11487443</v>
       </c>
       <c r="L290" s="3">
         <v>0</v>
@@ -26192,7 +26192,7 @@
         <v>0</v>
       </c>
       <c r="K291" s="3">
-        <v>18702906</v>
+        <v>12468604</v>
       </c>
       <c r="L291" s="3">
         <v>0</v>
@@ -26268,7 +26268,7 @@
         <v>0</v>
       </c>
       <c r="K292" s="3">
-        <v>21329352</v>
+        <v>14219568</v>
       </c>
       <c r="L292" s="3">
         <v>0</v>
@@ -26344,7 +26344,7 @@
         <v>0</v>
       </c>
       <c r="K293" s="3">
-        <v>24231893</v>
+        <v>16154595</v>
       </c>
       <c r="L293" s="3">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>0</v>
       </c>
       <c r="K294" s="3">
-        <v>27101326</v>
+        <v>18067551</v>
       </c>
       <c r="L294" s="3">
         <v>0</v>
@@ -26496,7 +26496,7 @@
         <v>0</v>
       </c>
       <c r="K295" s="3">
-        <v>30580926</v>
+        <v>20387284</v>
       </c>
       <c r="L295" s="3">
         <v>0</v>
@@ -26572,7 +26572,7 @@
         <v>0</v>
       </c>
       <c r="K296" s="3">
-        <v>31494426</v>
+        <v>20996284</v>
       </c>
       <c r="L296" s="3">
         <v>0</v>
@@ -26648,7 +26648,7 @@
         <v>0</v>
       </c>
       <c r="K297" s="3">
-        <v>36219861</v>
+        <v>24146574</v>
       </c>
       <c r="L297" s="3">
         <v>0</v>
@@ -26724,7 +26724,7 @@
         <v>0</v>
       </c>
       <c r="K298" s="3">
-        <v>37426010</v>
+        <v>24950673</v>
       </c>
       <c r="L298" s="3">
         <v>0</v>
@@ -26800,7 +26800,7 @@
         <v>0</v>
       </c>
       <c r="K299" s="3">
-        <v>38562867</v>
+        <v>25708578</v>
       </c>
       <c r="L299" s="3">
         <v>0</v>
@@ -26876,7 +26876,7 @@
         <v>0</v>
       </c>
       <c r="K300" s="3">
-        <v>45608712</v>
+        <v>30405808</v>
       </c>
       <c r="L300" s="3">
         <v>0</v>
@@ -26952,7 +26952,7 @@
         <v>0</v>
       </c>
       <c r="K301" s="3">
-        <v>45916867</v>
+        <v>30611245</v>
       </c>
       <c r="L301" s="3">
         <v>0</v>
@@ -27028,7 +27028,7 @@
         <v>0</v>
       </c>
       <c r="K302" s="3">
-        <v>51609463</v>
+        <v>34406308</v>
       </c>
       <c r="L302" s="3">
         <v>0</v>
@@ -27104,7 +27104,7 @@
         <v>0</v>
       </c>
       <c r="K303" s="3">
-        <v>54439706</v>
+        <v>36293137</v>
       </c>
       <c r="L303" s="3">
         <v>0</v>
@@ -27180,7 +27180,7 @@
         <v>0</v>
       </c>
       <c r="K304" s="3">
-        <v>55829709</v>
+        <v>37219806</v>
       </c>
       <c r="L304" s="3">
         <v>0</v>
@@ -27256,7 +27256,7 @@
         <v>0</v>
       </c>
       <c r="K305" s="3">
-        <v>57301684</v>
+        <v>38201123</v>
       </c>
       <c r="L305" s="3">
         <v>0</v>
@@ -27332,7 +27332,7 @@
         <v>0</v>
       </c>
       <c r="K306" s="3">
-        <v>60653634</v>
+        <v>40435756</v>
       </c>
       <c r="L306" s="3">
         <v>0</v>
@@ -27408,7 +27408,7 @@
         <v>0</v>
       </c>
       <c r="K307" s="3">
-        <v>67379610</v>
+        <v>44919740</v>
       </c>
       <c r="L307" s="3">
         <v>0</v>
@@ -27484,7 +27484,7 @@
         <v>0</v>
       </c>
       <c r="K308" s="3">
-        <v>69135215</v>
+        <v>46090143</v>
       </c>
       <c r="L308" s="3">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>0</v>
       </c>
       <c r="K309" s="3">
-        <v>76621637</v>
+        <v>51081091</v>
       </c>
       <c r="L309" s="3">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="K310" s="3">
-        <v>81766019</v>
+        <v>54510679</v>
       </c>
       <c r="L310" s="3">
         <v>0</v>
@@ -27712,7 +27712,7 @@
         <v>0</v>
       </c>
       <c r="K311" s="3">
-        <v>86057018</v>
+        <v>57371345</v>
       </c>
       <c r="L311" s="3">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="K312" s="3">
-        <v>89024789</v>
+        <v>59349859</v>
       </c>
       <c r="L312" s="3">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="K313" s="3">
-        <v>89995646</v>
+        <v>59997097</v>
       </c>
       <c r="L313" s="3">
         <v>0</v>
@@ -27940,7 +27940,7 @@
         <v>0</v>
       </c>
       <c r="K314" s="3">
-        <v>90968561</v>
+        <v>60645707</v>
       </c>
       <c r="L314" s="3">
         <v>0</v>
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="K315" s="3">
-        <v>100952338</v>
+        <v>67301558</v>
       </c>
       <c r="L315" s="3">
         <v>0</v>
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="K316" s="3">
-        <v>102679394</v>
+        <v>68452929</v>
       </c>
       <c r="L316" s="3">
         <v>0</v>
@@ -28168,7 +28168,7 @@
         <v>0</v>
       </c>
       <c r="K317" s="3">
-        <v>109102494</v>
+        <v>72734996</v>
       </c>
       <c r="L317" s="3">
         <v>0</v>
@@ -28244,7 +28244,7 @@
         <v>0</v>
       </c>
       <c r="K318" s="3">
-        <v>112766514</v>
+        <v>75177676</v>
       </c>
       <c r="L318" s="3">
         <v>0</v>
@@ -28320,7 +28320,7 @@
         <v>0</v>
       </c>
       <c r="K319" s="3">
-        <v>113893300</v>
+        <v>75928866</v>
       </c>
       <c r="L319" s="3">
         <v>0</v>
@@ -28396,7 +28396,7 @@
         <v>0</v>
       </c>
       <c r="K320" s="3">
-        <v>124604993</v>
+        <v>83069995</v>
       </c>
       <c r="L320" s="3">
         <v>0</v>
@@ -28472,7 +28472,7 @@
         <v>0</v>
       </c>
       <c r="K321" s="3">
-        <v>129850073</v>
+        <v>86566715</v>
       </c>
       <c r="L321" s="3">
         <v>0</v>
@@ -28548,7 +28548,7 @@
         <v>0</v>
       </c>
       <c r="K322" s="3">
-        <v>130978277</v>
+        <v>87318851</v>
       </c>
       <c r="L322" s="3">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="K323" s="3">
-        <v>132239596</v>
+        <v>88159730</v>
       </c>
       <c r="L323" s="3">
         <v>0</v>
@@ -28700,7 +28700,7 @@
         <v>0</v>
       </c>
       <c r="K324" s="3">
-        <v>133500905</v>
+        <v>89000603</v>
       </c>
       <c r="L324" s="3">
         <v>0</v>
@@ -28776,7 +28776,7 @@
         <v>0</v>
       </c>
       <c r="K325" s="3">
-        <v>134762397</v>
+        <v>89841598</v>
       </c>
       <c r="L325" s="3">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="K326" s="3">
-        <v>136023775</v>
+        <v>90682517</v>
       </c>
       <c r="L326" s="3">
         <v>0</v>
@@ -28928,7 +28928,7 @@
         <v>0</v>
       </c>
       <c r="K327" s="3">
-        <v>137152014</v>
+        <v>91434676</v>
       </c>
       <c r="L327" s="3">
         <v>0</v>
@@ -29004,7 +29004,7 @@
         <v>0</v>
       </c>
       <c r="K328" s="3">
-        <v>138413300</v>
+        <v>92275533</v>
       </c>
       <c r="L328" s="3">
         <v>0</v>
@@ -29080,7 +29080,7 @@
         <v>0</v>
       </c>
       <c r="K329" s="3">
-        <v>139674579</v>
+        <v>93116386</v>
       </c>
       <c r="L329" s="3">
         <v>0</v>
@@ -29156,7 +29156,7 @@
         <v>0</v>
       </c>
       <c r="K330" s="3">
-        <v>140935849</v>
+        <v>93957233</v>
       </c>
       <c r="L330" s="3">
         <v>0</v>
@@ -29232,7 +29232,7 @@
         <v>0</v>
       </c>
       <c r="K331" s="3">
-        <v>141528070</v>
+        <v>94798080</v>
       </c>
       <c r="L331" s="3">
         <v>0</v>
@@ -29536,7 +29536,7 @@
         <v>0</v>
       </c>
       <c r="K335" s="3">
-        <v>4880</v>
+        <v>4338</v>
       </c>
       <c r="L335" s="3">
         <v>0</v>
@@ -29612,7 +29612,7 @@
         <v>0</v>
       </c>
       <c r="K336" s="3">
-        <v>11330</v>
+        <v>9064</v>
       </c>
       <c r="L336" s="3">
         <v>0</v>
@@ -29688,7 +29688,7 @@
         <v>0</v>
       </c>
       <c r="K337" s="3">
-        <v>22330</v>
+        <v>16240</v>
       </c>
       <c r="L337" s="3">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="K338" s="3">
-        <v>43008</v>
+        <v>28672</v>
       </c>
       <c r="L338" s="3">
         <v>0</v>
@@ -29840,7 +29840,7 @@
         <v>0</v>
       </c>
       <c r="K339" s="3">
-        <v>63954</v>
+        <v>42636</v>
       </c>
       <c r="L339" s="3">
         <v>0</v>
@@ -29916,7 +29916,7 @@
         <v>0</v>
       </c>
       <c r="K340" s="3">
-        <v>91044</v>
+        <v>60696</v>
       </c>
       <c r="L340" s="3">
         <v>0</v>
@@ -29992,7 +29992,7 @@
         <v>0</v>
       </c>
       <c r="K341" s="3">
-        <v>106812</v>
+        <v>71208</v>
       </c>
       <c r="L341" s="3">
         <v>0</v>
@@ -30068,7 +30068,7 @@
         <v>0</v>
       </c>
       <c r="K342" s="3">
-        <v>187200</v>
+        <v>124800</v>
       </c>
       <c r="L342" s="3">
         <v>0</v>
@@ -30144,7 +30144,7 @@
         <v>0</v>
       </c>
       <c r="K343" s="3">
-        <v>361540</v>
+        <v>241026</v>
       </c>
       <c r="L343" s="3">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         <v>0</v>
       </c>
       <c r="K344" s="3">
-        <v>492929</v>
+        <v>328619</v>
       </c>
       <c r="L344" s="3">
         <v>0</v>
@@ -30296,7 +30296,7 @@
         <v>0</v>
       </c>
       <c r="K345" s="3">
-        <v>679001</v>
+        <v>452667</v>
       </c>
       <c r="L345" s="3">
         <v>0</v>
@@ -30372,7 +30372,7 @@
         <v>0</v>
       </c>
       <c r="K346" s="3">
-        <v>890245</v>
+        <v>593497</v>
       </c>
       <c r="L346" s="3">
         <v>0</v>
@@ -30448,7 +30448,7 @@
         <v>0</v>
       </c>
       <c r="K347" s="3">
-        <v>1252925</v>
+        <v>835283</v>
       </c>
       <c r="L347" s="3">
         <v>0</v>
@@ -30524,7 +30524,7 @@
         <v>0</v>
       </c>
       <c r="K348" s="3">
-        <v>1441797</v>
+        <v>961198</v>
       </c>
       <c r="L348" s="3">
         <v>0</v>
@@ -30600,7 +30600,7 @@
         <v>0</v>
       </c>
       <c r="K349" s="3">
-        <v>1995270</v>
+        <v>1330180</v>
       </c>
       <c r="L349" s="3">
         <v>0</v>
@@ -30676,7 +30676,7 @@
         <v>0</v>
       </c>
       <c r="K350" s="3">
-        <v>3327817</v>
+        <v>2218545</v>
       </c>
       <c r="L350" s="3">
         <v>0</v>
@@ -30752,7 +30752,7 @@
         <v>0</v>
       </c>
       <c r="K351" s="3">
-        <v>3607430</v>
+        <v>2404953</v>
       </c>
       <c r="L351" s="3">
         <v>0</v>
@@ -30828,7 +30828,7 @@
         <v>0</v>
       </c>
       <c r="K352" s="3">
-        <v>4926095</v>
+        <v>3284063</v>
       </c>
       <c r="L352" s="3">
         <v>0</v>
@@ -30904,7 +30904,7 @@
         <v>0</v>
       </c>
       <c r="K353" s="3">
-        <v>5268628</v>
+        <v>3512418</v>
       </c>
       <c r="L353" s="3">
         <v>0</v>
@@ -30980,7 +30980,7 @@
         <v>0</v>
       </c>
       <c r="K354" s="3">
-        <v>5718270</v>
+        <v>3812180</v>
       </c>
       <c r="L354" s="3">
         <v>0</v>
@@ -31056,7 +31056,7 @@
         <v>0</v>
       </c>
       <c r="K355" s="3">
-        <v>7912504</v>
+        <v>5275002</v>
       </c>
       <c r="L355" s="3">
         <v>0</v>
@@ -31132,7 +31132,7 @@
         <v>0</v>
       </c>
       <c r="K356" s="3">
-        <v>8371836</v>
+        <v>5581224</v>
       </c>
       <c r="L356" s="3">
         <v>0</v>
@@ -31208,7 +31208,7 @@
         <v>0</v>
       </c>
       <c r="K357" s="3">
-        <v>11203965</v>
+        <v>7469310</v>
       </c>
       <c r="L357" s="3">
         <v>0</v>
@@ -31284,7 +31284,7 @@
         <v>0</v>
       </c>
       <c r="K358" s="3">
-        <v>12140848</v>
+        <v>8093899</v>
       </c>
       <c r="L358" s="3">
         <v>0</v>
@@ -31360,7 +31360,7 @@
         <v>0</v>
       </c>
       <c r="K359" s="3">
-        <v>13012558</v>
+        <v>8675038</v>
       </c>
       <c r="L359" s="3">
         <v>0</v>
@@ -31436,7 +31436,7 @@
         <v>0</v>
       </c>
       <c r="K360" s="3">
-        <v>13582206</v>
+        <v>9054804</v>
       </c>
       <c r="L360" s="3">
         <v>0</v>
@@ -31512,7 +31512,7 @@
         <v>0</v>
       </c>
       <c r="K361" s="3">
-        <v>14623602</v>
+        <v>9749068</v>
       </c>
       <c r="L361" s="3">
         <v>0</v>
@@ -31588,7 +31588,7 @@
         <v>0</v>
       </c>
       <c r="K362" s="3">
-        <v>15211720</v>
+        <v>10141147</v>
       </c>
       <c r="L362" s="3">
         <v>0</v>
@@ -31664,7 +31664,7 @@
         <v>0</v>
       </c>
       <c r="K363" s="3">
-        <v>17440342</v>
+        <v>11626895</v>
       </c>
       <c r="L363" s="3">
         <v>0</v>
@@ -31740,7 +31740,7 @@
         <v>0</v>
       </c>
       <c r="K364" s="3">
-        <v>19050637</v>
+        <v>12700424</v>
       </c>
       <c r="L364" s="3">
         <v>0</v>
@@ -31816,7 +31816,7 @@
         <v>0</v>
       </c>
       <c r="K365" s="3">
-        <v>21305894</v>
+        <v>14203929</v>
       </c>
       <c r="L365" s="3">
         <v>0</v>
@@ -31892,7 +31892,7 @@
         <v>0</v>
       </c>
       <c r="K366" s="3">
-        <v>22656793</v>
+        <v>15104529</v>
       </c>
       <c r="L366" s="3">
         <v>0</v>
@@ -31968,7 +31968,7 @@
         <v>0</v>
       </c>
       <c r="K367" s="3">
-        <v>24935409</v>
+        <v>16623606</v>
       </c>
       <c r="L367" s="3">
         <v>0</v>
@@ -32044,7 +32044,7 @@
         <v>0</v>
       </c>
       <c r="K368" s="3">
-        <v>26999963</v>
+        <v>17999975</v>
       </c>
       <c r="L368" s="3">
         <v>0</v>
@@ -32120,7 +32120,7 @@
         <v>0</v>
       </c>
       <c r="K369" s="3">
-        <v>32600244</v>
+        <v>21733496</v>
       </c>
       <c r="L369" s="3">
         <v>0</v>
@@ -32196,7 +32196,7 @@
         <v>0</v>
       </c>
       <c r="K370" s="3">
-        <v>35024289</v>
+        <v>23349526</v>
       </c>
       <c r="L370" s="3">
         <v>0</v>
@@ -32272,7 +32272,7 @@
         <v>0</v>
       </c>
       <c r="K371" s="3">
-        <v>41127227</v>
+        <v>27418151</v>
       </c>
       <c r="L371" s="3">
         <v>0</v>
@@ -32348,7 +32348,7 @@
         <v>0</v>
       </c>
       <c r="K372" s="3">
-        <v>43077911</v>
+        <v>28718607</v>
       </c>
       <c r="L372" s="3">
         <v>0</v>
@@ -32424,7 +32424,7 @@
         <v>0</v>
       </c>
       <c r="K373" s="3">
-        <v>46757266</v>
+        <v>31171510</v>
       </c>
       <c r="L373" s="3">
         <v>0</v>
@@ -32500,7 +32500,7 @@
         <v>0</v>
       </c>
       <c r="K374" s="3">
-        <v>53323381</v>
+        <v>35548920</v>
       </c>
       <c r="L374" s="3">
         <v>0</v>
@@ -32576,7 +32576,7 @@
         <v>0</v>
       </c>
       <c r="K375" s="3">
-        <v>60579733</v>
+        <v>40386489</v>
       </c>
       <c r="L375" s="3">
         <v>0</v>
@@ -32652,7 +32652,7 @@
         <v>0</v>
       </c>
       <c r="K376" s="3">
-        <v>67753316</v>
+        <v>45168877</v>
       </c>
       <c r="L376" s="3">
         <v>0</v>
@@ -32728,7 +32728,7 @@
         <v>0</v>
       </c>
       <c r="K377" s="3">
-        <v>76452317</v>
+        <v>50968211</v>
       </c>
       <c r="L377" s="3">
         <v>0</v>
@@ -32804,7 +32804,7 @@
         <v>0</v>
       </c>
       <c r="K378" s="3">
-        <v>78736065</v>
+        <v>52490710</v>
       </c>
       <c r="L378" s="3">
         <v>0</v>
@@ -32880,7 +32880,7 @@
         <v>0</v>
       </c>
       <c r="K379" s="3">
-        <v>90549653</v>
+        <v>60366435</v>
       </c>
       <c r="L379" s="3">
         <v>0</v>
@@ -32956,7 +32956,7 @@
         <v>0</v>
       </c>
       <c r="K380" s="3">
-        <v>93565025</v>
+        <v>62376683</v>
       </c>
       <c r="L380" s="3">
         <v>0</v>
@@ -33032,7 +33032,7 @@
         <v>0</v>
       </c>
       <c r="K381" s="3">
-        <v>96407167</v>
+        <v>64271445</v>
       </c>
       <c r="L381" s="3">
         <v>0</v>
@@ -33108,7 +33108,7 @@
         <v>0</v>
       </c>
       <c r="K382" s="3">
-        <v>114021780</v>
+        <v>76014520</v>
       </c>
       <c r="L382" s="3">
         <v>0</v>
@@ -33184,7 +33184,7 @@
         <v>0</v>
       </c>
       <c r="K383" s="3">
-        <v>114792169</v>
+        <v>76528113</v>
       </c>
       <c r="L383" s="3">
         <v>0</v>
@@ -33260,7 +33260,7 @@
         <v>0</v>
       </c>
       <c r="K384" s="3">
-        <v>129023658</v>
+        <v>86015772</v>
       </c>
       <c r="L384" s="3">
         <v>0</v>
@@ -33336,7 +33336,7 @@
         <v>0</v>
       </c>
       <c r="K385" s="3">
-        <v>136099267</v>
+        <v>90732844</v>
       </c>
       <c r="L385" s="3">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>0</v>
       </c>
       <c r="K386" s="3">
-        <v>139574273</v>
+        <v>93049515</v>
       </c>
       <c r="L386" s="3">
         <v>0</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="K387" s="3">
-        <v>143254212</v>
+        <v>95502808</v>
       </c>
       <c r="L387" s="3">
         <v>0</v>
@@ -33564,7 +33564,7 @@
         <v>0</v>
       </c>
       <c r="K388" s="3">
-        <v>151634086</v>
+        <v>101089390</v>
       </c>
       <c r="L388" s="3">
         <v>0</v>
@@ -33640,7 +33640,7 @@
         <v>0</v>
       </c>
       <c r="K389" s="3">
-        <v>168449026</v>
+        <v>112299350</v>
       </c>
       <c r="L389" s="3">
         <v>0</v>
@@ -33716,7 +33716,7 @@
         <v>0</v>
       </c>
       <c r="K390" s="3">
-        <v>172838038</v>
+        <v>115225358</v>
       </c>
       <c r="L390" s="3">
         <v>0</v>
@@ -33792,7 +33792,7 @@
         <v>0</v>
       </c>
       <c r="K391" s="3">
-        <v>191554093</v>
+        <v>127702728</v>
       </c>
       <c r="L391" s="3">
         <v>0</v>
@@ -33868,7 +33868,7 @@
         <v>0</v>
       </c>
       <c r="K392" s="3">
-        <v>204415048</v>
+        <v>136276699</v>
       </c>
       <c r="L392" s="3">
         <v>0</v>
@@ -33944,7 +33944,7 @@
         <v>0</v>
       </c>
       <c r="K393" s="3">
-        <v>215142547</v>
+        <v>143428364</v>
       </c>
       <c r="L393" s="3">
         <v>0</v>
@@ -34020,7 +34020,7 @@
         <v>0</v>
       </c>
       <c r="K394" s="3">
-        <v>222561973</v>
+        <v>148374648</v>
       </c>
       <c r="L394" s="3">
         <v>0</v>
@@ -34096,7 +34096,7 @@
         <v>0</v>
       </c>
       <c r="K395" s="3">
-        <v>224989115</v>
+        <v>149992743</v>
       </c>
       <c r="L395" s="3">
         <v>0</v>
@@ -34172,7 +34172,7 @@
         <v>0</v>
       </c>
       <c r="K396" s="3">
-        <v>227421403</v>
+        <v>151614268</v>
       </c>
       <c r="L396" s="3">
         <v>0</v>
@@ -34248,7 +34248,7 @@
         <v>0</v>
       </c>
       <c r="K397" s="3">
-        <v>252380845</v>
+        <v>168253896</v>
       </c>
       <c r="L397" s="3">
         <v>0</v>
@@ -34324,7 +34324,7 @@
         <v>0</v>
       </c>
       <c r="K398" s="3">
-        <v>256698487</v>
+        <v>171132324</v>
       </c>
       <c r="L398" s="3">
         <v>0</v>
@@ -34400,7 +34400,7 @@
         <v>0</v>
       </c>
       <c r="K399" s="3">
-        <v>272756236</v>
+        <v>181837490</v>
       </c>
       <c r="L399" s="3">
         <v>0</v>
@@ -34476,7 +34476,7 @@
         <v>0</v>
       </c>
       <c r="K400" s="3">
-        <v>281916285</v>
+        <v>187944190</v>
       </c>
       <c r="L400" s="3">
         <v>0</v>
@@ -34552,7 +34552,7 @@
         <v>0</v>
       </c>
       <c r="K401" s="3">
-        <v>284733250</v>
+        <v>189822167</v>
       </c>
       <c r="L401" s="3">
         <v>0</v>
@@ -34628,7 +34628,7 @@
         <v>0</v>
       </c>
       <c r="K402" s="3">
-        <v>311512482</v>
+        <v>207674988</v>
       </c>
       <c r="L402" s="3">
         <v>0</v>
@@ -34704,7 +34704,7 @@
         <v>0</v>
       </c>
       <c r="K403" s="3">
-        <v>324625183</v>
+        <v>216416789</v>
       </c>
       <c r="L403" s="3">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K404" s="3">
-        <v>327445693</v>
+        <v>218297128</v>
       </c>
       <c r="L404" s="3">
         <v>0</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="K405" s="3">
-        <v>330598990</v>
+        <v>220399327</v>
       </c>
       <c r="L405" s="3">
         <v>0</v>
@@ -34932,7 +34932,7 @@
         <v>0</v>
       </c>
       <c r="K406" s="3">
-        <v>333752263</v>
+        <v>222501509</v>
       </c>
       <c r="L406" s="3">
         <v>0</v>
@@ -35008,7 +35008,7 @@
         <v>0</v>
       </c>
       <c r="K407" s="3">
-        <v>336905994</v>
+        <v>224603996</v>
       </c>
       <c r="L407" s="3">
         <v>0</v>
@@ -35084,7 +35084,7 @@
         <v>0</v>
       </c>
       <c r="K408" s="3">
-        <v>340059439</v>
+        <v>226706292</v>
       </c>
       <c r="L408" s="3">
         <v>0</v>
@@ -35160,7 +35160,7 @@
         <v>0</v>
       </c>
       <c r="K409" s="3">
-        <v>342880035</v>
+        <v>228586690</v>
       </c>
       <c r="L409" s="3">
         <v>0</v>
@@ -35236,7 +35236,7 @@
         <v>0</v>
       </c>
       <c r="K410" s="3">
-        <v>346033252</v>
+        <v>230688834</v>
       </c>
       <c r="L410" s="3">
         <v>0</v>
@@ -35312,7 +35312,7 @@
         <v>0</v>
       </c>
       <c r="K411" s="3">
-        <v>349186448</v>
+        <v>232790965</v>
       </c>
       <c r="L411" s="3">
         <v>0</v>
@@ -35388,7 +35388,7 @@
         <v>0</v>
       </c>
       <c r="K412" s="3">
-        <v>352339624</v>
+        <v>234893082</v>
       </c>
       <c r="L412" s="3">
         <v>0</v>
@@ -35464,7 +35464,7 @@
         <v>0</v>
       </c>
       <c r="K413" s="3">
-        <v>353820178</v>
+        <v>236995199</v>
       </c>
       <c r="L413" s="3">
         <v>0</v>
@@ -35768,7 +35768,7 @@
         <v>0</v>
       </c>
       <c r="K417" s="3">
-        <v>9760</v>
+        <v>8676</v>
       </c>
       <c r="L417" s="3">
         <v>0</v>
@@ -35844,7 +35844,7 @@
         <v>0</v>
       </c>
       <c r="K418" s="3">
-        <v>22660</v>
+        <v>18128</v>
       </c>
       <c r="L418" s="3">
         <v>0</v>
@@ -35920,7 +35920,7 @@
         <v>0</v>
       </c>
       <c r="K419" s="3">
-        <v>44660</v>
+        <v>32480</v>
       </c>
       <c r="L419" s="3">
         <v>0</v>
@@ -35996,7 +35996,7 @@
         <v>0</v>
       </c>
       <c r="K420" s="3">
-        <v>86016</v>
+        <v>57344</v>
       </c>
       <c r="L420" s="3">
         <v>0</v>
@@ -36072,7 +36072,7 @@
         <v>0</v>
       </c>
       <c r="K421" s="3">
-        <v>127908</v>
+        <v>85272</v>
       </c>
       <c r="L421" s="3">
         <v>0</v>
@@ -36148,7 +36148,7 @@
         <v>0</v>
       </c>
       <c r="K422" s="3">
-        <v>182088</v>
+        <v>121392</v>
       </c>
       <c r="L422" s="3">
         <v>0</v>
@@ -36224,7 +36224,7 @@
         <v>0</v>
       </c>
       <c r="K423" s="3">
-        <v>213624</v>
+        <v>142416</v>
       </c>
       <c r="L423" s="3">
         <v>0</v>
@@ -36300,7 +36300,7 @@
         <v>0</v>
       </c>
       <c r="K424" s="3">
-        <v>374400</v>
+        <v>249600</v>
       </c>
       <c r="L424" s="3">
         <v>0</v>
@@ -36376,7 +36376,7 @@
         <v>0</v>
       </c>
       <c r="K425" s="3">
-        <v>723080</v>
+        <v>482053</v>
       </c>
       <c r="L425" s="3">
         <v>0</v>
@@ -36452,7 +36452,7 @@
         <v>0</v>
       </c>
       <c r="K426" s="3">
-        <v>985859</v>
+        <v>657239</v>
       </c>
       <c r="L426" s="3">
         <v>0</v>
@@ -36528,7 +36528,7 @@
         <v>0</v>
       </c>
       <c r="K427" s="3">
-        <v>1358002</v>
+        <v>905334</v>
       </c>
       <c r="L427" s="3">
         <v>0</v>
@@ -36604,7 +36604,7 @@
         <v>0</v>
       </c>
       <c r="K428" s="3">
-        <v>1780491</v>
+        <v>1186994</v>
       </c>
       <c r="L428" s="3">
         <v>0</v>
@@ -36680,7 +36680,7 @@
         <v>0</v>
       </c>
       <c r="K429" s="3">
-        <v>2505850</v>
+        <v>1670566</v>
       </c>
       <c r="L429" s="3">
         <v>0</v>
@@ -36756,7 +36756,7 @@
         <v>0</v>
       </c>
       <c r="K430" s="3">
-        <v>2883594</v>
+        <v>1922396</v>
       </c>
       <c r="L430" s="3">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>0</v>
       </c>
       <c r="K431" s="3">
-        <v>3990540</v>
+        <v>2660360</v>
       </c>
       <c r="L431" s="3">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="K432" s="3">
-        <v>6655635</v>
+        <v>4437090</v>
       </c>
       <c r="L432" s="3">
         <v>0</v>
@@ -36984,7 +36984,7 @@
         <v>0</v>
       </c>
       <c r="K433" s="3">
-        <v>7214860</v>
+        <v>4809906</v>
       </c>
       <c r="L433" s="3">
         <v>0</v>
@@ -37060,7 +37060,7 @@
         <v>0</v>
       </c>
       <c r="K434" s="3">
-        <v>9852190</v>
+        <v>6568127</v>
       </c>
       <c r="L434" s="3">
         <v>0</v>
@@ -37136,7 +37136,7 @@
         <v>0</v>
       </c>
       <c r="K435" s="3">
-        <v>10537256</v>
+        <v>7024837</v>
       </c>
       <c r="L435" s="3">
         <v>0</v>
@@ -37212,7 +37212,7 @@
         <v>0</v>
       </c>
       <c r="K436" s="3">
-        <v>11436540</v>
+        <v>7624360</v>
       </c>
       <c r="L436" s="3">
         <v>0</v>
@@ -37288,7 +37288,7 @@
         <v>0</v>
       </c>
       <c r="K437" s="3">
-        <v>15825008</v>
+        <v>10550005</v>
       </c>
       <c r="L437" s="3">
         <v>0</v>
@@ -37364,7 +37364,7 @@
         <v>0</v>
       </c>
       <c r="K438" s="3">
-        <v>16743673</v>
+        <v>11162449</v>
       </c>
       <c r="L438" s="3">
         <v>0</v>
@@ -37440,7 +37440,7 @@
         <v>0</v>
       </c>
       <c r="K439" s="3">
-        <v>22407930</v>
+        <v>14938620</v>
       </c>
       <c r="L439" s="3">
         <v>0</v>
@@ -37516,7 +37516,7 @@
         <v>0</v>
       </c>
       <c r="K440" s="3">
-        <v>24281697</v>
+        <v>16187798</v>
       </c>
       <c r="L440" s="3">
         <v>0</v>
@@ -37592,7 +37592,7 @@
         <v>0</v>
       </c>
       <c r="K441" s="3">
-        <v>26025116</v>
+        <v>17350077</v>
       </c>
       <c r="L441" s="3">
         <v>0</v>
@@ -37668,7 +37668,7 @@
         <v>0</v>
       </c>
       <c r="K442" s="3">
-        <v>27164413</v>
+        <v>18109609</v>
       </c>
       <c r="L442" s="3">
         <v>0</v>
@@ -37744,7 +37744,7 @@
         <v>0</v>
       </c>
       <c r="K443" s="3">
-        <v>29247204</v>
+        <v>19498136</v>
       </c>
       <c r="L443" s="3">
         <v>0</v>
@@ -37820,7 +37820,7 @@
         <v>0</v>
       </c>
       <c r="K444" s="3">
-        <v>30423441</v>
+        <v>20282294</v>
       </c>
       <c r="L444" s="3">
         <v>0</v>
@@ -37896,7 +37896,7 @@
         <v>0</v>
       </c>
       <c r="K445" s="3">
-        <v>34880685</v>
+        <v>23253790</v>
       </c>
       <c r="L445" s="3">
         <v>0</v>
@@ -37972,7 +37972,7 @@
         <v>0</v>
       </c>
       <c r="K446" s="3">
-        <v>38101274</v>
+        <v>25400849</v>
       </c>
       <c r="L446" s="3">
         <v>0</v>
@@ -38048,7 +38048,7 @@
         <v>0</v>
       </c>
       <c r="K447" s="3">
-        <v>42611789</v>
+        <v>28407859</v>
       </c>
       <c r="L447" s="3">
         <v>0</v>
@@ -38124,7 +38124,7 @@
         <v>0</v>
       </c>
       <c r="K448" s="3">
-        <v>45313587</v>
+        <v>30209058</v>
       </c>
       <c r="L448" s="3">
         <v>0</v>
@@ -38200,7 +38200,7 @@
         <v>0</v>
       </c>
       <c r="K449" s="3">
-        <v>49870819</v>
+        <v>33247212</v>
       </c>
       <c r="L449" s="3">
         <v>0</v>
@@ -38276,7 +38276,7 @@
         <v>0</v>
       </c>
       <c r="K450" s="3">
-        <v>53999926</v>
+        <v>35999951</v>
       </c>
       <c r="L450" s="3">
         <v>0</v>
@@ -38352,7 +38352,7 @@
         <v>0</v>
       </c>
       <c r="K451" s="3">
-        <v>65200488</v>
+        <v>43466992</v>
       </c>
       <c r="L451" s="3">
         <v>0</v>
@@ -38428,7 +38428,7 @@
         <v>0</v>
       </c>
       <c r="K452" s="3">
-        <v>70048578</v>
+        <v>46699052</v>
       </c>
       <c r="L452" s="3">
         <v>0</v>
@@ -38504,7 +38504,7 @@
         <v>0</v>
       </c>
       <c r="K453" s="3">
-        <v>82254454</v>
+        <v>54836302</v>
       </c>
       <c r="L453" s="3">
         <v>0</v>
@@ -38580,7 +38580,7 @@
         <v>0</v>
       </c>
       <c r="K454" s="3">
-        <v>86155823</v>
+        <v>57437215</v>
       </c>
       <c r="L454" s="3">
         <v>0</v>
@@ -38656,7 +38656,7 @@
         <v>0</v>
       </c>
       <c r="K455" s="3">
-        <v>93514532</v>
+        <v>62343021</v>
       </c>
       <c r="L455" s="3">
         <v>0</v>
@@ -38732,7 +38732,7 @@
         <v>0</v>
       </c>
       <c r="K456" s="3">
-        <v>106646762</v>
+        <v>71097841</v>
       </c>
       <c r="L456" s="3">
         <v>0</v>
@@ -38808,7 +38808,7 @@
         <v>0</v>
       </c>
       <c r="K457" s="3">
-        <v>121159467</v>
+        <v>80772978</v>
       </c>
       <c r="L457" s="3">
         <v>0</v>
@@ -38884,7 +38884,7 @@
         <v>0</v>
       </c>
       <c r="K458" s="3">
-        <v>135506633</v>
+        <v>90337755</v>
       </c>
       <c r="L458" s="3">
         <v>0</v>
@@ -38960,7 +38960,7 @@
         <v>0</v>
       </c>
       <c r="K459" s="3">
-        <v>152904634</v>
+        <v>101936422</v>
       </c>
       <c r="L459" s="3">
         <v>0</v>
@@ -39036,7 +39036,7 @@
         <v>0</v>
       </c>
       <c r="K460" s="3">
-        <v>157472130</v>
+        <v>104981420</v>
       </c>
       <c r="L460" s="3">
         <v>0</v>
@@ -39112,7 +39112,7 @@
         <v>0</v>
       </c>
       <c r="K461" s="3">
-        <v>181099307</v>
+        <v>120732871</v>
       </c>
       <c r="L461" s="3">
         <v>0</v>
@@ -39188,7 +39188,7 @@
         <v>0</v>
       </c>
       <c r="K462" s="3">
-        <v>187130050</v>
+        <v>124753366</v>
       </c>
       <c r="L462" s="3">
         <v>0</v>
@@ -39264,7 +39264,7 @@
         <v>0</v>
       </c>
       <c r="K463" s="3">
-        <v>192814335</v>
+        <v>128542890</v>
       </c>
       <c r="L463" s="3">
         <v>0</v>
@@ -39340,7 +39340,7 @@
         <v>0</v>
       </c>
       <c r="K464" s="3">
-        <v>228043560</v>
+        <v>152029040</v>
       </c>
       <c r="L464" s="3">
         <v>0</v>
@@ -39416,7 +39416,7 @@
         <v>0</v>
       </c>
       <c r="K465" s="3">
-        <v>229584339</v>
+        <v>153056226</v>
       </c>
       <c r="L465" s="3">
         <v>0</v>
@@ -39492,7 +39492,7 @@
         <v>0</v>
       </c>
       <c r="K466" s="3">
-        <v>258047316</v>
+        <v>172031544</v>
       </c>
       <c r="L466" s="3">
         <v>0</v>
@@ -39568,7 +39568,7 @@
         <v>0</v>
       </c>
       <c r="K467" s="3">
-        <v>272198534</v>
+        <v>181465689</v>
       </c>
       <c r="L467" s="3">
         <v>0</v>
@@ -39644,7 +39644,7 @@
         <v>0</v>
       </c>
       <c r="K468" s="3">
-        <v>279148547</v>
+        <v>186099031</v>
       </c>
       <c r="L468" s="3">
         <v>0</v>
@@ -39720,7 +39720,7 @@
         <v>0</v>
       </c>
       <c r="K469" s="3">
-        <v>286508424</v>
+        <v>191005616</v>
       </c>
       <c r="L469" s="3">
         <v>0</v>
@@ -39796,7 +39796,7 @@
         <v>0</v>
       </c>
       <c r="K470" s="3">
-        <v>303268172</v>
+        <v>202178781</v>
       </c>
       <c r="L470" s="3">
         <v>0</v>
@@ -39872,7 +39872,7 @@
         <v>0</v>
       </c>
       <c r="K471" s="3">
-        <v>336898052</v>
+        <v>224598701</v>
       </c>
       <c r="L471" s="3">
         <v>0</v>
@@ -39948,7 +39948,7 @@
         <v>0</v>
       </c>
       <c r="K472" s="3">
-        <v>345676076</v>
+        <v>230450717</v>
       </c>
       <c r="L472" s="3">
         <v>0</v>
@@ -40024,7 +40024,7 @@
         <v>0</v>
       </c>
       <c r="K473" s="3">
-        <v>383108186</v>
+        <v>255405457</v>
       </c>
       <c r="L473" s="3">
         <v>0</v>
@@ -40100,7 +40100,7 @@
         <v>0</v>
       </c>
       <c r="K474" s="3">
-        <v>408830097</v>
+        <v>272553398</v>
       </c>
       <c r="L474" s="3">
         <v>0</v>
@@ -40176,7 +40176,7 @@
         <v>0</v>
       </c>
       <c r="K475" s="3">
-        <v>430285094</v>
+        <v>286856729</v>
       </c>
       <c r="L475" s="3">
         <v>0</v>
@@ -40252,7 +40252,7 @@
         <v>0</v>
       </c>
       <c r="K476" s="3">
-        <v>445123946</v>
+        <v>296749297</v>
       </c>
       <c r="L476" s="3">
         <v>0</v>
@@ -40328,7 +40328,7 @@
         <v>0</v>
       </c>
       <c r="K477" s="3">
-        <v>449978230</v>
+        <v>299985486</v>
       </c>
       <c r="L477" s="3">
         <v>0</v>
@@ -40404,7 +40404,7 @@
         <v>0</v>
       </c>
       <c r="K478" s="3">
-        <v>454842806</v>
+        <v>303228537</v>
       </c>
       <c r="L478" s="3">
         <v>0</v>
@@ -40480,7 +40480,7 @@
         <v>0</v>
       </c>
       <c r="K479" s="3">
-        <v>504761690</v>
+        <v>336507793</v>
       </c>
       <c r="L479" s="3">
         <v>0</v>
@@ -40556,7 +40556,7 @@
         <v>0</v>
       </c>
       <c r="K480" s="3">
-        <v>513396974</v>
+        <v>342264649</v>
       </c>
       <c r="L480" s="3">
         <v>0</v>
@@ -40632,7 +40632,7 @@
         <v>0</v>
       </c>
       <c r="K481" s="3">
-        <v>545512472</v>
+        <v>363674981</v>
       </c>
       <c r="L481" s="3">
         <v>0</v>
@@ -40708,7 +40708,7 @@
         <v>0</v>
       </c>
       <c r="K482" s="3">
-        <v>563832570</v>
+        <v>375888380</v>
       </c>
       <c r="L482" s="3">
         <v>0</v>
@@ -40784,7 +40784,7 @@
         <v>0</v>
       </c>
       <c r="K483" s="3">
-        <v>569466501</v>
+        <v>379644334</v>
       </c>
       <c r="L483" s="3">
         <v>0</v>
@@ -40860,7 +40860,7 @@
         <v>0</v>
       </c>
       <c r="K484" s="3">
-        <v>623024965</v>
+        <v>415349976</v>
       </c>
       <c r="L484" s="3">
         <v>0</v>
@@ -40936,7 +40936,7 @@
         <v>0</v>
       </c>
       <c r="K485" s="3">
-        <v>649250367</v>
+        <v>432833578</v>
       </c>
       <c r="L485" s="3">
         <v>0</v>
@@ -41012,7 +41012,7 @@
         <v>0</v>
       </c>
       <c r="K486" s="3">
-        <v>654891386</v>
+        <v>436594257</v>
       </c>
       <c r="L486" s="3">
         <v>0</v>
@@ -41088,7 +41088,7 @@
         <v>0</v>
       </c>
       <c r="K487" s="3">
-        <v>661197981</v>
+        <v>440798654</v>
       </c>
       <c r="L487" s="3">
         <v>0</v>
@@ -41164,7 +41164,7 @@
         <v>0</v>
       </c>
       <c r="K488" s="3">
-        <v>667504527</v>
+        <v>445003018</v>
       </c>
       <c r="L488" s="3">
         <v>0</v>
@@ -41240,7 +41240,7 @@
         <v>0</v>
       </c>
       <c r="K489" s="3">
-        <v>673811989</v>
+        <v>449207993</v>
       </c>
       <c r="L489" s="3">
         <v>0</v>
@@ -41316,7 +41316,7 @@
         <v>0</v>
       </c>
       <c r="K490" s="3">
-        <v>680118878</v>
+        <v>453412585</v>
       </c>
       <c r="L490" s="3">
         <v>0</v>
@@ -41392,7 +41392,7 @@
         <v>0</v>
       </c>
       <c r="K491" s="3">
-        <v>685760071</v>
+        <v>457173381</v>
       </c>
       <c r="L491" s="3">
         <v>0</v>
@@ -41468,7 +41468,7 @@
         <v>0</v>
       </c>
       <c r="K492" s="3">
-        <v>692066504</v>
+        <v>461377669</v>
       </c>
       <c r="L492" s="3">
         <v>0</v>
@@ -41544,7 +41544,7 @@
         <v>0</v>
       </c>
       <c r="K493" s="3">
-        <v>698372896</v>
+        <v>465581931</v>
       </c>
       <c r="L493" s="3">
         <v>0</v>
@@ -41620,7 +41620,7 @@
         <v>0</v>
       </c>
       <c r="K494" s="3">
-        <v>704679248</v>
+        <v>469786165</v>
       </c>
       <c r="L494" s="3">
         <v>0</v>
@@ -41696,7 +41696,7 @@
         <v>0</v>
       </c>
       <c r="K495" s="3">
-        <v>707640356</v>
+        <v>473990399</v>
       </c>
       <c r="L495" s="3">
         <v>0</v>

--- a/Excel/monster.怪物.xlsx
+++ b/Excel/monster.怪物.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB13CBD6-2C76-469D-8B3F-B8B0BFF50FC7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F8F7A2-C55D-441D-B924-67EB7FA98904}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4055,10 +4055,10 @@
   <dimension ref="A1:AD495"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D484" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D481" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K504" sqref="K504"/>
+      <selection pane="bottomRight" activeCell="L492" sqref="L492"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4068,7 +4068,8 @@
     <col min="5" max="5" width="17.625" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
     <col min="7" max="9" width="17.625" customWidth="1"/>
-    <col min="10" max="11" width="11.5" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="11" max="11" width="24.375" customWidth="1"/>
     <col min="12" max="30" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4532,7 +4533,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="3">
-        <v>81</v>
+        <v>2916</v>
       </c>
       <c r="L6" s="3">
         <v>0</v>
@@ -4608,7 +4609,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="3">
-        <v>433</v>
+        <v>17568</v>
       </c>
       <c r="L7" s="3">
         <v>0</v>
@@ -4684,7 +4685,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>906</v>
+        <v>40788</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -4760,7 +4761,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="3">
-        <v>1624</v>
+        <v>80388</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
@@ -4836,7 +4837,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="3">
-        <v>2867</v>
+        <v>154828</v>
       </c>
       <c r="L10" s="3">
         <v>0</v>
@@ -4912,7 +4913,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="3">
-        <v>4263</v>
+        <v>230234</v>
       </c>
       <c r="L11" s="3">
         <v>0</v>
@@ -4988,7 +4989,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="3">
-        <v>6069</v>
+        <v>646412</v>
       </c>
       <c r="L12" s="3">
         <v>0</v>
@@ -5064,7 +5065,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="3">
-        <v>7120</v>
+        <v>758365</v>
       </c>
       <c r="L13" s="3">
         <v>0</v>
@@ -5140,7 +5141,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
-        <v>12480</v>
+        <v>1329120</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -5216,7 +5217,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="3">
-        <v>24102</v>
+        <v>2566935</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -5292,7 +5293,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="3">
-        <v>32861</v>
+        <v>5225053</v>
       </c>
       <c r="L16" s="3">
         <v>0</v>
@@ -5368,7 +5369,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="3">
-        <v>45266</v>
+        <v>7197410</v>
       </c>
       <c r="L17" s="3">
         <v>0</v>
@@ -5444,7 +5445,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="3">
-        <v>59349</v>
+        <v>12552463</v>
       </c>
       <c r="L18" s="3">
         <v>0</v>
@@ -5520,7 +5521,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="3">
-        <v>83528</v>
+        <v>17666245</v>
       </c>
       <c r="L19" s="3">
         <v>0</v>
@@ -5596,7 +5597,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>96119</v>
+        <v>20329343</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
@@ -5672,7 +5673,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="3">
-        <v>133018</v>
+        <v>28133313</v>
       </c>
       <c r="L21" s="3">
         <v>0</v>
@@ -5748,7 +5749,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
-        <v>221854</v>
+        <v>58569595</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -5824,7 +5825,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="3">
-        <v>240495</v>
+        <v>63490770</v>
       </c>
       <c r="L23" s="3">
         <v>0</v>
@@ -5900,7 +5901,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
-        <v>328406</v>
+        <v>86699280</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -5976,7 +5977,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="3">
-        <v>351241</v>
+        <v>92727860</v>
       </c>
       <c r="L25" s="3">
         <v>0</v>
@@ -6052,7 +6053,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="3">
-        <v>381218</v>
+        <v>100641555</v>
       </c>
       <c r="L26" s="3">
         <v>0</v>
@@ -6128,7 +6129,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="3">
-        <v>527500</v>
+        <v>139260079</v>
       </c>
       <c r="L27" s="3">
         <v>0</v>
@@ -6204,7 +6205,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="3">
-        <v>558122</v>
+        <v>147344327</v>
       </c>
       <c r="L28" s="3">
         <v>0</v>
@@ -6280,7 +6281,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
-        <v>746931</v>
+        <v>236403661</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -6356,7 +6357,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="3">
-        <v>809389</v>
+        <v>256171908</v>
       </c>
       <c r="L30" s="3">
         <v>0</v>
@@ -6432,7 +6433,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="3">
-        <v>867503</v>
+        <v>274564976</v>
       </c>
       <c r="L31" s="3">
         <v>0</v>
@@ -6508,7 +6509,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>905480</v>
+        <v>286584566</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
@@ -6584,7 +6585,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="3">
-        <v>974906</v>
+        <v>308558009</v>
       </c>
       <c r="L33" s="3">
         <v>0</v>
@@ -6660,7 +6661,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="3">
-        <v>1014114</v>
+        <v>320967309</v>
       </c>
       <c r="L34" s="3">
         <v>0</v>
@@ -6736,7 +6737,7 @@
         <v>0</v>
       </c>
       <c r="K35" s="3">
-        <v>1162689</v>
+        <v>367991231</v>
       </c>
       <c r="L35" s="3">
         <v>0</v>
@@ -6812,7 +6813,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="3">
-        <v>1270042</v>
+        <v>468645675</v>
       </c>
       <c r="L36" s="3">
         <v>0</v>
@@ -6888,7 +6889,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="3">
-        <v>1420392</v>
+        <v>524125006</v>
       </c>
       <c r="L37" s="3">
         <v>0</v>
@@ -6964,7 +6965,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="3">
-        <v>1510452</v>
+        <v>557357130</v>
       </c>
       <c r="L38" s="3">
         <v>0</v>
@@ -7040,7 +7041,7 @@
         <v>0</v>
       </c>
       <c r="K39" s="3">
-        <v>1662360</v>
+        <v>613411079</v>
       </c>
       <c r="L39" s="3">
         <v>0</v>
@@ -7116,7 +7117,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="3">
-        <v>1799997</v>
+        <v>758698968</v>
       </c>
       <c r="L40" s="3">
         <v>0</v>
@@ -7192,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>2173349</v>
+        <v>916066857</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
@@ -7268,7 +7269,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="3">
-        <v>2334952</v>
+        <v>984182530</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -7344,7 +7345,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="3">
-        <v>2741815</v>
+        <v>1299620376</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -7420,7 +7421,7 @@
         <v>0</v>
       </c>
       <c r="K44" s="3">
-        <v>2871860</v>
+        <v>1361262016</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -7496,7 +7497,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>3117151</v>
+        <v>1477529609</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -7572,7 +7573,7 @@
         <v>0</v>
       </c>
       <c r="K46" s="3">
-        <v>3554892</v>
+        <v>1871650678</v>
       </c>
       <c r="L46" s="3">
         <v>0</v>
@@ -7648,7 +7649,7 @@
         <v>0</v>
       </c>
       <c r="K47" s="3">
-        <v>4038648</v>
+        <v>2126348650</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -7724,7 +7725,7 @@
         <v>0</v>
       </c>
       <c r="K48" s="3">
-        <v>4516887</v>
+        <v>2378141409</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -7800,7 +7801,7 @@
         <v>0</v>
       </c>
       <c r="K49" s="3">
-        <v>5096821</v>
+        <v>2951059437</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -7876,7 +7877,7 @@
         <v>0</v>
       </c>
       <c r="K50" s="3">
-        <v>5249071</v>
+        <v>3039212124</v>
       </c>
       <c r="L50" s="3">
         <v>0</v>
@@ -7952,7 +7953,7 @@
         <v>0</v>
       </c>
       <c r="K51" s="3">
-        <v>6036643</v>
+        <v>3495216639</v>
       </c>
       <c r="L51" s="3">
         <v>0</v>
@@ -8028,7 +8029,7 @@
         <v>0</v>
       </c>
       <c r="K52" s="3">
-        <v>6237668</v>
+        <v>3611609969</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -8104,7 +8105,7 @@
         <v>0</v>
       </c>
       <c r="K53" s="3">
-        <v>6427144</v>
+        <v>3721316677</v>
       </c>
       <c r="L53" s="3">
         <v>0</v>
@@ -8180,7 +8181,7 @@
         <v>0</v>
       </c>
       <c r="K54" s="3">
-        <v>7601452</v>
+        <v>4800316955</v>
       </c>
       <c r="L54" s="3">
         <v>0</v>
@@ -8256,7 +8257,7 @@
         <v>0</v>
       </c>
       <c r="K55" s="3">
-        <v>7652811</v>
+        <v>4832750342</v>
       </c>
       <c r="L55" s="3">
         <v>0</v>
@@ -8332,7 +8333,7 @@
         <v>0</v>
       </c>
       <c r="K56" s="3">
-        <v>8601577</v>
+        <v>5431896009</v>
       </c>
       <c r="L56" s="3">
         <v>0</v>
@@ -8408,7 +8409,7 @@
         <v>0</v>
       </c>
       <c r="K57" s="3">
-        <v>9073284</v>
+        <v>5729779150</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
@@ -8484,7 +8485,7 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
-        <v>9304951</v>
+        <v>5876076930</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -8560,7 +8561,7 @@
         <v>0</v>
       </c>
       <c r="K59" s="3">
-        <v>9550280</v>
+        <v>6031002339</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
@@ -8636,7 +8637,7 @@
         <v>0</v>
       </c>
       <c r="K60" s="3">
-        <v>10108939</v>
+        <v>6383795030</v>
       </c>
       <c r="L60" s="3">
         <v>0</v>
@@ -8712,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
-        <v>11229935</v>
+        <v>7091704008</v>
       </c>
       <c r="L61" s="3">
         <v>0</v>
@@ -8788,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="K62" s="3">
-        <v>11522535</v>
+        <v>7276481410</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -8864,7 +8865,7 @@
         <v>0</v>
       </c>
       <c r="K63" s="3">
-        <v>12770272</v>
+        <v>8064427332</v>
       </c>
       <c r="L63" s="3">
         <v>0</v>
@@ -8940,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="K64" s="3">
-        <v>13627669</v>
+        <v>8605873557</v>
       </c>
       <c r="L64" s="3">
         <v>0</v>
@@ -9016,7 +9017,7 @@
         <v>0</v>
       </c>
       <c r="K65" s="3">
-        <v>14342836</v>
+        <v>9057501236</v>
       </c>
       <c r="L65" s="3">
         <v>0</v>
@@ -9092,7 +9093,7 @@
         <v>0</v>
       </c>
       <c r="K66" s="3">
-        <v>14837464</v>
+        <v>9369859066</v>
       </c>
       <c r="L66" s="3">
         <v>0</v>
@@ -9168,7 +9169,7 @@
         <v>0</v>
       </c>
       <c r="K67" s="3">
-        <v>14999274</v>
+        <v>9472041745</v>
       </c>
       <c r="L67" s="3">
         <v>0</v>
@@ -9244,7 +9245,7 @@
         <v>0</v>
       </c>
       <c r="K68" s="3">
-        <v>15161426</v>
+        <v>9574441068</v>
       </c>
       <c r="L68" s="3">
         <v>0</v>
@@ -9320,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="K69" s="3">
-        <v>16825389</v>
+        <v>10625233575</v>
       </c>
       <c r="L69" s="3">
         <v>0</v>
@@ -9396,7 +9397,7 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
-        <v>17113232</v>
+        <v>10807006303</v>
       </c>
       <c r="L70" s="3">
         <v>0</v>
@@ -9472,7 +9473,7 @@
         <v>0</v>
       </c>
       <c r="K71" s="3">
-        <v>18183749</v>
+        <v>11483037538</v>
       </c>
       <c r="L71" s="3">
         <v>0</v>
@@ -9548,7 +9549,7 @@
         <v>0</v>
       </c>
       <c r="K72" s="3">
-        <v>18794419</v>
+        <v>11868675606</v>
       </c>
       <c r="L72" s="3">
         <v>0</v>
@@ -9624,7 +9625,7 @@
         <v>0</v>
       </c>
       <c r="K73" s="3">
-        <v>18982216</v>
+        <v>11987269861</v>
       </c>
       <c r="L73" s="3">
         <v>0</v>
@@ -9700,7 +9701,7 @@
         <v>0</v>
       </c>
       <c r="K74" s="3">
-        <v>20767498</v>
+        <v>13114675515</v>
       </c>
       <c r="L74" s="3">
         <v>0</v>
@@ -9776,7 +9777,7 @@
         <v>0</v>
       </c>
       <c r="K75" s="3">
-        <v>21641678</v>
+        <v>13666720243</v>
       </c>
       <c r="L75" s="3">
         <v>0</v>
@@ -9852,7 +9853,7 @@
         <v>0</v>
       </c>
       <c r="K76" s="3">
-        <v>21829712</v>
+        <v>13785463694</v>
       </c>
       <c r="L76" s="3">
         <v>0</v>
@@ -9928,7 +9929,7 @@
         <v>0</v>
       </c>
       <c r="K77" s="3">
-        <v>22039932</v>
+        <v>13918217512</v>
       </c>
       <c r="L77" s="3">
         <v>0</v>
@@ -10004,7 +10005,7 @@
         <v>0</v>
       </c>
       <c r="K78" s="3">
-        <v>22250150</v>
+        <v>14050970305</v>
       </c>
       <c r="L78" s="3">
         <v>0</v>
@@ -10080,7 +10081,7 @@
         <v>0</v>
       </c>
       <c r="K79" s="3">
-        <v>22460399</v>
+        <v>14183742383</v>
       </c>
       <c r="L79" s="3">
         <v>0</v>
@@ -10156,7 +10157,7 @@
         <v>0</v>
       </c>
       <c r="K80" s="3">
-        <v>22670629</v>
+        <v>14316502387</v>
       </c>
       <c r="L80" s="3">
         <v>0</v>
@@ -10232,7 +10233,7 @@
         <v>0</v>
       </c>
       <c r="K81" s="3">
-        <v>22858669</v>
+        <v>14435249506</v>
       </c>
       <c r="L81" s="3">
         <v>0</v>
@@ -10308,7 +10309,7 @@
         <v>0</v>
       </c>
       <c r="K82" s="3">
-        <v>23068883</v>
+        <v>14567999928</v>
       </c>
       <c r="L82" s="3">
         <v>0</v>
@@ -10384,7 +10385,7 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
-        <v>23279096</v>
+        <v>14700749475</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -10460,7 +10461,7 @@
         <v>0</v>
       </c>
       <c r="K84" s="3">
-        <v>23489308</v>
+        <v>14833498180</v>
       </c>
       <c r="L84" s="3">
         <v>0</v>
@@ -10536,7 +10537,7 @@
         <v>0</v>
       </c>
       <c r="K85" s="3">
-        <v>23699520</v>
+        <v>14966246885</v>
       </c>
       <c r="L85" s="3">
         <v>0</v>
@@ -10764,7 +10765,7 @@
         <v>0</v>
       </c>
       <c r="K88" s="3">
-        <v>121</v>
+        <v>4374</v>
       </c>
       <c r="L88" s="3">
         <v>0</v>
@@ -10840,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="K89" s="3">
-        <v>650</v>
+        <v>26353</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
@@ -10916,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="K90" s="3">
-        <v>1359</v>
+        <v>61182</v>
       </c>
       <c r="L90" s="3">
         <v>0</v>
@@ -10992,7 +10993,7 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
-        <v>2436</v>
+        <v>120582</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -11068,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="K92" s="3">
-        <v>4300</v>
+        <v>232243</v>
       </c>
       <c r="L92" s="3">
         <v>0</v>
@@ -11144,7 +11145,7 @@
         <v>0</v>
       </c>
       <c r="K93" s="3">
-        <v>6395</v>
+        <v>345351</v>
       </c>
       <c r="L93" s="3">
         <v>0</v>
@@ -11220,7 +11221,7 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
-        <v>9104</v>
+        <v>969618</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -11296,7 +11297,7 @@
         <v>0</v>
       </c>
       <c r="K95" s="3">
-        <v>10681</v>
+        <v>1137547</v>
       </c>
       <c r="L95" s="3">
         <v>0</v>
@@ -11372,7 +11373,7 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
-        <v>18720</v>
+        <v>1993680</v>
       </c>
       <c r="L96" s="3">
         <v>0</v>
@@ -11448,7 +11449,7 @@
         <v>0</v>
       </c>
       <c r="K97" s="3">
-        <v>36153</v>
+        <v>3850402</v>
       </c>
       <c r="L97" s="3">
         <v>0</v>
@@ -11524,7 +11525,7 @@
         <v>0</v>
       </c>
       <c r="K98" s="3">
-        <v>49292</v>
+        <v>7837579</v>
       </c>
       <c r="L98" s="3">
         <v>0</v>
@@ -11600,7 +11601,7 @@
         <v>0</v>
       </c>
       <c r="K99" s="3">
-        <v>67900</v>
+        <v>10796115</v>
       </c>
       <c r="L99" s="3">
         <v>0</v>
@@ -11676,7 +11677,7 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
-        <v>89024</v>
+        <v>18828695</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
@@ -11752,7 +11753,7 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
-        <v>125292</v>
+        <v>26499368</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -11828,7 +11829,7 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>144179</v>
+        <v>30494014</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
@@ -11904,7 +11905,7 @@
         <v>0</v>
       </c>
       <c r="K103" s="3">
-        <v>199527</v>
+        <v>42199970</v>
       </c>
       <c r="L103" s="3">
         <v>0</v>
@@ -11980,7 +11981,7 @@
         <v>0</v>
       </c>
       <c r="K104" s="3">
-        <v>332781</v>
+        <v>87854392</v>
       </c>
       <c r="L104" s="3">
         <v>0</v>
@@ -12056,7 +12057,7 @@
         <v>0</v>
       </c>
       <c r="K105" s="3">
-        <v>360742</v>
+        <v>95236155</v>
       </c>
       <c r="L105" s="3">
         <v>0</v>
@@ -12132,7 +12133,7 @@
         <v>0</v>
       </c>
       <c r="K106" s="3">
-        <v>492609</v>
+        <v>130048921</v>
       </c>
       <c r="L106" s="3">
         <v>0</v>
@@ -12208,7 +12209,7 @@
         <v>0</v>
       </c>
       <c r="K107" s="3">
-        <v>526862</v>
+        <v>139091790</v>
       </c>
       <c r="L107" s="3">
         <v>0</v>
@@ -12284,7 +12285,7 @@
         <v>0</v>
       </c>
       <c r="K108" s="3">
-        <v>571827</v>
+        <v>150962333</v>
       </c>
       <c r="L108" s="3">
         <v>0</v>
@@ -12360,7 +12361,7 @@
         <v>0</v>
       </c>
       <c r="K109" s="3">
-        <v>791250</v>
+        <v>208890118</v>
       </c>
       <c r="L109" s="3">
         <v>0</v>
@@ -12436,7 +12437,7 @@
         <v>0</v>
       </c>
       <c r="K110" s="3">
-        <v>837183</v>
+        <v>221016491</v>
       </c>
       <c r="L110" s="3">
         <v>0</v>
@@ -12512,7 +12513,7 @@
         <v>0</v>
       </c>
       <c r="K111" s="3">
-        <v>1120396</v>
+        <v>354605492</v>
       </c>
       <c r="L111" s="3">
         <v>0</v>
@@ -12588,7 +12589,7 @@
         <v>0</v>
       </c>
       <c r="K112" s="3">
-        <v>1214084</v>
+        <v>384257862</v>
       </c>
       <c r="L112" s="3">
         <v>0</v>
@@ -12664,7 +12665,7 @@
         <v>0</v>
       </c>
       <c r="K113" s="3">
-        <v>1301255</v>
+        <v>411847464</v>
       </c>
       <c r="L113" s="3">
         <v>0</v>
@@ -12740,7 +12741,7 @@
         <v>0</v>
       </c>
       <c r="K114" s="3">
-        <v>1358220</v>
+        <v>429876849</v>
       </c>
       <c r="L114" s="3">
         <v>0</v>
@@ -12816,7 +12817,7 @@
         <v>0</v>
       </c>
       <c r="K115" s="3">
-        <v>1462360</v>
+        <v>462837014</v>
       </c>
       <c r="L115" s="3">
         <v>0</v>
@@ -12892,7 +12893,7 @@
         <v>0</v>
       </c>
       <c r="K116" s="3">
-        <v>1521172</v>
+        <v>481450964</v>
       </c>
       <c r="L116" s="3">
         <v>0</v>
@@ -12968,7 +12969,7 @@
         <v>0</v>
       </c>
       <c r="K117" s="3">
-        <v>1744034</v>
+        <v>551986847</v>
       </c>
       <c r="L117" s="3">
         <v>0</v>
@@ -13044,7 +13045,7 @@
         <v>0</v>
       </c>
       <c r="K118" s="3">
-        <v>1905063</v>
+        <v>702968513</v>
       </c>
       <c r="L118" s="3">
         <v>0</v>
@@ -13120,7 +13121,7 @@
         <v>0</v>
       </c>
       <c r="K119" s="3">
-        <v>2130589</v>
+        <v>786187509</v>
       </c>
       <c r="L119" s="3">
         <v>0</v>
@@ -13196,7 +13197,7 @@
         <v>0</v>
       </c>
       <c r="K120" s="3">
-        <v>2265679</v>
+        <v>836035695</v>
       </c>
       <c r="L120" s="3">
         <v>0</v>
@@ -13272,7 +13273,7 @@
         <v>0</v>
       </c>
       <c r="K121" s="3">
-        <v>2493540</v>
+        <v>920116618</v>
       </c>
       <c r="L121" s="3">
         <v>0</v>
@@ -13348,7 +13349,7 @@
         <v>0</v>
       </c>
       <c r="K122" s="3">
-        <v>2699996</v>
+        <v>1138048452</v>
       </c>
       <c r="L122" s="3">
         <v>0</v>
@@ -13424,7 +13425,7 @@
         <v>0</v>
       </c>
       <c r="K123" s="3">
-        <v>3260024</v>
+        <v>1374100286</v>
       </c>
       <c r="L123" s="3">
         <v>0</v>
@@ -13500,7 +13501,7 @@
         <v>0</v>
       </c>
       <c r="K124" s="3">
-        <v>3502428</v>
+        <v>1476273795</v>
       </c>
       <c r="L124" s="3">
         <v>0</v>
@@ -13576,7 +13577,7 @@
         <v>0</v>
       </c>
       <c r="K125" s="3">
-        <v>4112722</v>
+        <v>1949430565</v>
       </c>
       <c r="L125" s="3">
         <v>0</v>
@@ -13652,7 +13653,7 @@
         <v>0</v>
       </c>
       <c r="K126" s="3">
-        <v>4307791</v>
+        <v>2041893024</v>
       </c>
       <c r="L126" s="3">
         <v>0</v>
@@ -13728,7 +13729,7 @@
         <v>0</v>
       </c>
       <c r="K127" s="3">
-        <v>4675726</v>
+        <v>2216294414</v>
       </c>
       <c r="L127" s="3">
         <v>0</v>
@@ -13804,7 +13805,7 @@
         <v>0</v>
       </c>
       <c r="K128" s="3">
-        <v>5332338</v>
+        <v>2807476018</v>
       </c>
       <c r="L128" s="3">
         <v>0</v>
@@ -13880,7 +13881,7 @@
         <v>0</v>
       </c>
       <c r="K129" s="3">
-        <v>6057973</v>
+        <v>3189522975</v>
       </c>
       <c r="L129" s="3">
         <v>0</v>
@@ -13956,7 +13957,7 @@
         <v>0</v>
       </c>
       <c r="K130" s="3">
-        <v>6775331</v>
+        <v>3567212113</v>
       </c>
       <c r="L130" s="3">
         <v>0</v>
@@ -14032,7 +14033,7 @@
         <v>0</v>
       </c>
       <c r="K131" s="3">
-        <v>7645231</v>
+        <v>4426589156</v>
       </c>
       <c r="L131" s="3">
         <v>0</v>
@@ -14108,7 +14109,7 @@
         <v>0</v>
       </c>
       <c r="K132" s="3">
-        <v>7873606</v>
+        <v>4558818186</v>
       </c>
       <c r="L132" s="3">
         <v>0</v>
@@ -14184,7 +14185,7 @@
         <v>0</v>
       </c>
       <c r="K133" s="3">
-        <v>9054965</v>
+        <v>5242824959</v>
       </c>
       <c r="L133" s="3">
         <v>0</v>
@@ -14260,7 +14261,7 @@
         <v>0</v>
       </c>
       <c r="K134" s="3">
-        <v>9356502</v>
+        <v>5417414954</v>
       </c>
       <c r="L134" s="3">
         <v>0</v>
@@ -14336,7 +14337,7 @@
         <v>0</v>
       </c>
       <c r="K135" s="3">
-        <v>9640716</v>
+        <v>5581975016</v>
       </c>
       <c r="L135" s="3">
         <v>0</v>
@@ -14412,7 +14413,7 @@
         <v>0</v>
       </c>
       <c r="K136" s="3">
-        <v>11402178</v>
+        <v>7200475433</v>
       </c>
       <c r="L136" s="3">
         <v>0</v>
@@ -14488,7 +14489,7 @@
         <v>0</v>
       </c>
       <c r="K137" s="3">
-        <v>11479216</v>
+        <v>7249125513</v>
       </c>
       <c r="L137" s="3">
         <v>0</v>
@@ -14564,7 +14565,7 @@
         <v>0</v>
       </c>
       <c r="K138" s="3">
-        <v>12902365</v>
+        <v>8147844014</v>
       </c>
       <c r="L138" s="3">
         <v>0</v>
@@ -14640,7 +14641,7 @@
         <v>0</v>
       </c>
       <c r="K139" s="3">
-        <v>13609926</v>
+        <v>8594668726</v>
       </c>
       <c r="L139" s="3">
         <v>0</v>
@@ -14716,7 +14717,7 @@
         <v>0</v>
       </c>
       <c r="K140" s="3">
-        <v>13957427</v>
+        <v>8814115395</v>
       </c>
       <c r="L140" s="3">
         <v>0</v>
@@ -14792,7 +14793,7 @@
         <v>0</v>
       </c>
       <c r="K141" s="3">
-        <v>14325421</v>
+        <v>9046503508</v>
       </c>
       <c r="L141" s="3">
         <v>0</v>
@@ -14868,7 +14869,7 @@
         <v>0</v>
       </c>
       <c r="K142" s="3">
-        <v>15163408</v>
+        <v>9575692545</v>
       </c>
       <c r="L142" s="3">
         <v>0</v>
@@ -14944,7 +14945,7 @@
         <v>0</v>
       </c>
       <c r="K143" s="3">
-        <v>16844902</v>
+        <v>10637556013</v>
       </c>
       <c r="L143" s="3">
         <v>0</v>
@@ -15020,7 +15021,7 @@
         <v>0</v>
       </c>
       <c r="K144" s="3">
-        <v>17283803</v>
+        <v>10914722115</v>
       </c>
       <c r="L144" s="3">
         <v>0</v>
@@ -15096,7 +15097,7 @@
         <v>0</v>
       </c>
       <c r="K145" s="3">
-        <v>19155409</v>
+        <v>12096640999</v>
       </c>
       <c r="L145" s="3">
         <v>0</v>
@@ -15172,7 +15173,7 @@
         <v>0</v>
       </c>
       <c r="K146" s="3">
-        <v>20441504</v>
+        <v>12908810335</v>
       </c>
       <c r="L146" s="3">
         <v>0</v>
@@ -15248,7 +15249,7 @@
         <v>0</v>
       </c>
       <c r="K147" s="3">
-        <v>21514254</v>
+        <v>13586251854</v>
       </c>
       <c r="L147" s="3">
         <v>0</v>
@@ -15324,7 +15325,7 @@
         <v>0</v>
       </c>
       <c r="K148" s="3">
-        <v>22256197</v>
+        <v>14054788599</v>
       </c>
       <c r="L148" s="3">
         <v>0</v>
@@ -15400,7 +15401,7 @@
         <v>0</v>
       </c>
       <c r="K149" s="3">
-        <v>22498911</v>
+        <v>14208062618</v>
       </c>
       <c r="L149" s="3">
         <v>0</v>
@@ -15476,7 +15477,7 @@
         <v>0</v>
       </c>
       <c r="K150" s="3">
-        <v>22742140</v>
+        <v>14361661602</v>
       </c>
       <c r="L150" s="3">
         <v>0</v>
@@ -15552,7 +15553,7 @@
         <v>0</v>
       </c>
       <c r="K151" s="3">
-        <v>25238084</v>
+        <v>15937850363</v>
       </c>
       <c r="L151" s="3">
         <v>0</v>
@@ -15628,7 +15629,7 @@
         <v>0</v>
       </c>
       <c r="K152" s="3">
-        <v>25669848</v>
+        <v>16210509455</v>
       </c>
       <c r="L152" s="3">
         <v>0</v>
@@ -15704,7 +15705,7 @@
         <v>0</v>
       </c>
       <c r="K153" s="3">
-        <v>27275623</v>
+        <v>17224556307</v>
       </c>
       <c r="L153" s="3">
         <v>0</v>
@@ -15780,7 +15781,7 @@
         <v>0</v>
       </c>
       <c r="K154" s="3">
-        <v>28191628</v>
+        <v>17803013410</v>
       </c>
       <c r="L154" s="3">
         <v>0</v>
@@ -15856,7 +15857,7 @@
         <v>0</v>
       </c>
       <c r="K155" s="3">
-        <v>28473325</v>
+        <v>17980904792</v>
       </c>
       <c r="L155" s="3">
         <v>0</v>
@@ -15932,7 +15933,7 @@
         <v>0</v>
       </c>
       <c r="K156" s="3">
-        <v>31151248</v>
+        <v>19672013273</v>
       </c>
       <c r="L156" s="3">
         <v>0</v>
@@ -16008,7 +16009,7 @@
         <v>0</v>
       </c>
       <c r="K157" s="3">
-        <v>32462518</v>
+        <v>20500080365</v>
       </c>
       <c r="L157" s="3">
         <v>0</v>
@@ -16084,7 +16085,7 @@
         <v>0</v>
       </c>
       <c r="K158" s="3">
-        <v>32744569</v>
+        <v>20678195542</v>
       </c>
       <c r="L158" s="3">
         <v>0</v>
@@ -16160,7 +16161,7 @@
         <v>0</v>
       </c>
       <c r="K159" s="3">
-        <v>33059899</v>
+        <v>20877326268</v>
       </c>
       <c r="L159" s="3">
         <v>0</v>
@@ -16236,7 +16237,7 @@
         <v>0</v>
       </c>
       <c r="K160" s="3">
-        <v>33375226</v>
+        <v>21076455458</v>
       </c>
       <c r="L160" s="3">
         <v>0</v>
@@ -16312,7 +16313,7 @@
         <v>0</v>
       </c>
       <c r="K161" s="3">
-        <v>33690599</v>
+        <v>21275613574</v>
       </c>
       <c r="L161" s="3">
         <v>0</v>
@@ -16388,7 +16389,7 @@
         <v>0</v>
       </c>
       <c r="K162" s="3">
-        <v>34005943</v>
+        <v>21474753580</v>
       </c>
       <c r="L162" s="3">
         <v>0</v>
@@ -16464,7 +16465,7 @@
         <v>0</v>
       </c>
       <c r="K163" s="3">
-        <v>34288003</v>
+        <v>21652874259</v>
       </c>
       <c r="L163" s="3">
         <v>0</v>
@@ -16540,7 +16541,7 @@
         <v>0</v>
       </c>
       <c r="K164" s="3">
-        <v>34603325</v>
+        <v>21851999892</v>
       </c>
       <c r="L164" s="3">
         <v>0</v>
@@ -16616,7 +16617,7 @@
         <v>0</v>
       </c>
       <c r="K165" s="3">
-        <v>34918644</v>
+        <v>22051124212</v>
       </c>
       <c r="L165" s="3">
         <v>0</v>
@@ -16692,7 +16693,7 @@
         <v>0</v>
       </c>
       <c r="K166" s="3">
-        <v>35233962</v>
+        <v>22250247270</v>
       </c>
       <c r="L166" s="3">
         <v>0</v>
@@ -16768,7 +16769,7 @@
         <v>0</v>
       </c>
       <c r="K167" s="3">
-        <v>35549280</v>
+        <v>22449370328</v>
       </c>
       <c r="L167" s="3">
         <v>0</v>
@@ -16996,7 +16997,7 @@
         <v>0</v>
       </c>
       <c r="K170" s="3">
-        <v>243</v>
+        <v>8748</v>
       </c>
       <c r="L170" s="3">
         <v>0</v>
@@ -17072,7 +17073,7 @@
         <v>0</v>
       </c>
       <c r="K171" s="3">
-        <v>1301</v>
+        <v>52706</v>
       </c>
       <c r="L171" s="3">
         <v>0</v>
@@ -17148,7 +17149,7 @@
         <v>0</v>
       </c>
       <c r="K172" s="3">
-        <v>2719</v>
+        <v>122364</v>
       </c>
       <c r="L172" s="3">
         <v>0</v>
@@ -17224,7 +17225,7 @@
         <v>0</v>
       </c>
       <c r="K173" s="3">
-        <v>4872</v>
+        <v>241164</v>
       </c>
       <c r="L173" s="3">
         <v>0</v>
@@ -17300,7 +17301,7 @@
         <v>0</v>
       </c>
       <c r="K174" s="3">
-        <v>8601</v>
+        <v>464486</v>
       </c>
       <c r="L174" s="3">
         <v>0</v>
@@ -17376,7 +17377,7 @@
         <v>0</v>
       </c>
       <c r="K175" s="3">
-        <v>12790</v>
+        <v>690703</v>
       </c>
       <c r="L175" s="3">
         <v>0</v>
@@ -17452,7 +17453,7 @@
         <v>0</v>
       </c>
       <c r="K176" s="3">
-        <v>18208</v>
+        <v>1939237</v>
       </c>
       <c r="L176" s="3">
         <v>0</v>
@@ -17528,7 +17529,7 @@
         <v>0</v>
       </c>
       <c r="K177" s="3">
-        <v>21362</v>
+        <v>2275095</v>
       </c>
       <c r="L177" s="3">
         <v>0</v>
@@ -17604,7 +17605,7 @@
         <v>0</v>
       </c>
       <c r="K178" s="3">
-        <v>37440</v>
+        <v>3987360</v>
       </c>
       <c r="L178" s="3">
         <v>0</v>
@@ -17680,7 +17681,7 @@
         <v>0</v>
       </c>
       <c r="K179" s="3">
-        <v>72307</v>
+        <v>7700805</v>
       </c>
       <c r="L179" s="3">
         <v>0</v>
@@ -17756,7 +17757,7 @@
         <v>0</v>
       </c>
       <c r="K180" s="3">
-        <v>98585</v>
+        <v>15675159</v>
       </c>
       <c r="L180" s="3">
         <v>0</v>
@@ -17832,7 +17833,7 @@
         <v>0</v>
       </c>
       <c r="K181" s="3">
-        <v>135800</v>
+        <v>21592231</v>
       </c>
       <c r="L181" s="3">
         <v>0</v>
@@ -17908,7 +17909,7 @@
         <v>0</v>
       </c>
       <c r="K182" s="3">
-        <v>178049</v>
+        <v>37657390</v>
       </c>
       <c r="L182" s="3">
         <v>0</v>
@@ -17984,7 +17985,7 @@
         <v>0</v>
       </c>
       <c r="K183" s="3">
-        <v>250584</v>
+        <v>52998736</v>
       </c>
       <c r="L183" s="3">
         <v>0</v>
@@ -18060,7 +18061,7 @@
         <v>0</v>
       </c>
       <c r="K184" s="3">
-        <v>288359</v>
+        <v>60988029</v>
       </c>
       <c r="L184" s="3">
         <v>0</v>
@@ -18136,7 +18137,7 @@
         <v>0</v>
       </c>
       <c r="K185" s="3">
-        <v>399054</v>
+        <v>84399940</v>
       </c>
       <c r="L185" s="3">
         <v>0</v>
@@ -18212,7 +18213,7 @@
         <v>0</v>
       </c>
       <c r="K186" s="3">
-        <v>665563</v>
+        <v>175708785</v>
       </c>
       <c r="L186" s="3">
         <v>0</v>
@@ -18288,7 +18289,7 @@
         <v>0</v>
       </c>
       <c r="K187" s="3">
-        <v>721485</v>
+        <v>190472311</v>
       </c>
       <c r="L187" s="3">
         <v>0</v>
@@ -18364,7 +18365,7 @@
         <v>0</v>
       </c>
       <c r="K188" s="3">
-        <v>985219</v>
+        <v>260097842</v>
       </c>
       <c r="L188" s="3">
         <v>0</v>
@@ -18440,7 +18441,7 @@
         <v>0</v>
       </c>
       <c r="K189" s="3">
-        <v>1053725</v>
+        <v>278183581</v>
       </c>
       <c r="L189" s="3">
         <v>0</v>
@@ -18516,7 +18517,7 @@
         <v>0</v>
       </c>
       <c r="K190" s="3">
-        <v>1143654</v>
+        <v>301924666</v>
       </c>
       <c r="L190" s="3">
         <v>0</v>
@@ -18592,7 +18593,7 @@
         <v>0</v>
       </c>
       <c r="K191" s="3">
-        <v>1582500</v>
+        <v>417780237</v>
       </c>
       <c r="L191" s="3">
         <v>0</v>
@@ -18668,7 +18669,7 @@
         <v>0</v>
       </c>
       <c r="K192" s="3">
-        <v>1674367</v>
+        <v>442032982</v>
       </c>
       <c r="L192" s="3">
         <v>0</v>
@@ -18744,7 +18745,7 @@
         <v>0</v>
       </c>
       <c r="K193" s="3">
-        <v>2240793</v>
+        <v>709210985</v>
       </c>
       <c r="L193" s="3">
         <v>0</v>
@@ -18820,7 +18821,7 @@
         <v>0</v>
       </c>
       <c r="K194" s="3">
-        <v>2428169</v>
+        <v>768515724</v>
       </c>
       <c r="L194" s="3">
         <v>0</v>
@@ -18896,7 +18897,7 @@
         <v>0</v>
       </c>
       <c r="K195" s="3">
-        <v>2602511</v>
+        <v>823694928</v>
       </c>
       <c r="L195" s="3">
         <v>0</v>
@@ -18972,7 +18973,7 @@
         <v>0</v>
       </c>
       <c r="K196" s="3">
-        <v>2716441</v>
+        <v>859753699</v>
       </c>
       <c r="L196" s="3">
         <v>0</v>
@@ -19048,7 +19049,7 @@
         <v>0</v>
       </c>
       <c r="K197" s="3">
-        <v>2924720</v>
+        <v>925674028</v>
       </c>
       <c r="L197" s="3">
         <v>0</v>
@@ -19124,7 +19125,7 @@
         <v>0</v>
       </c>
       <c r="K198" s="3">
-        <v>3042344</v>
+        <v>962901929</v>
       </c>
       <c r="L198" s="3">
         <v>0</v>
@@ -19200,7 +19201,7 @@
         <v>0</v>
       </c>
       <c r="K199" s="3">
-        <v>3488068</v>
+        <v>1103973695</v>
       </c>
       <c r="L199" s="3">
         <v>0</v>
@@ -19276,7 +19277,7 @@
         <v>0</v>
       </c>
       <c r="K200" s="3">
-        <v>3810127</v>
+        <v>1405937026</v>
       </c>
       <c r="L200" s="3">
         <v>0</v>
@@ -19352,7 +19353,7 @@
         <v>0</v>
       </c>
       <c r="K201" s="3">
-        <v>4261178</v>
+        <v>1572375019</v>
       </c>
       <c r="L201" s="3">
         <v>0</v>
@@ -19428,7 +19429,7 @@
         <v>0</v>
       </c>
       <c r="K202" s="3">
-        <v>4531358</v>
+        <v>1672071390</v>
       </c>
       <c r="L202" s="3">
         <v>0</v>
@@ -19504,7 +19505,7 @@
         <v>0</v>
       </c>
       <c r="K203" s="3">
-        <v>4987081</v>
+        <v>1840233237</v>
       </c>
       <c r="L203" s="3">
         <v>0</v>
@@ -19580,7 +19581,7 @@
         <v>0</v>
       </c>
       <c r="K204" s="3">
-        <v>5399992</v>
+        <v>2276096904</v>
       </c>
       <c r="L204" s="3">
         <v>0</v>
@@ -19656,7 +19657,7 @@
         <v>0</v>
       </c>
       <c r="K205" s="3">
-        <v>6520048</v>
+        <v>2748200573</v>
       </c>
       <c r="L205" s="3">
         <v>0</v>
@@ -19732,7 +19733,7 @@
         <v>0</v>
       </c>
       <c r="K206" s="3">
-        <v>7004857</v>
+        <v>2952547590</v>
       </c>
       <c r="L206" s="3">
         <v>0</v>
@@ -19808,7 +19809,7 @@
         <v>0</v>
       </c>
       <c r="K207" s="3">
-        <v>8225445</v>
+        <v>3898861130</v>
       </c>
       <c r="L207" s="3">
         <v>0</v>
@@ -19884,7 +19885,7 @@
         <v>0</v>
       </c>
       <c r="K208" s="3">
-        <v>8615582</v>
+        <v>4083786048</v>
       </c>
       <c r="L208" s="3">
         <v>0</v>
@@ -19960,7 +19961,7 @@
         <v>0</v>
       </c>
       <c r="K209" s="3">
-        <v>9351453</v>
+        <v>4432588828</v>
       </c>
       <c r="L209" s="3">
         <v>0</v>
@@ -20036,7 +20037,7 @@
         <v>0</v>
       </c>
       <c r="K210" s="3">
-        <v>10664676</v>
+        <v>5614952036</v>
       </c>
       <c r="L210" s="3">
         <v>0</v>
@@ -20112,7 +20113,7 @@
         <v>0</v>
       </c>
       <c r="K211" s="3">
-        <v>12115946</v>
+        <v>6379045951</v>
       </c>
       <c r="L211" s="3">
         <v>0</v>
@@ -20188,7 +20189,7 @@
         <v>0</v>
       </c>
       <c r="K212" s="3">
-        <v>13550663</v>
+        <v>7134424227</v>
       </c>
       <c r="L212" s="3">
         <v>0</v>
@@ -20264,7 +20265,7 @@
         <v>0</v>
       </c>
       <c r="K213" s="3">
-        <v>15290463</v>
+        <v>8853178312</v>
       </c>
       <c r="L213" s="3">
         <v>0</v>
@@ -20340,7 +20341,7 @@
         <v>0</v>
       </c>
       <c r="K214" s="3">
-        <v>15747213</v>
+        <v>9117636372</v>
       </c>
       <c r="L214" s="3">
         <v>0</v>
@@ -20416,7 +20417,7 @@
         <v>0</v>
       </c>
       <c r="K215" s="3">
-        <v>18109930</v>
+        <v>10485649918</v>
       </c>
       <c r="L215" s="3">
         <v>0</v>
@@ -20492,7 +20493,7 @@
         <v>0</v>
       </c>
       <c r="K216" s="3">
-        <v>18713004</v>
+        <v>10834829909</v>
       </c>
       <c r="L216" s="3">
         <v>0</v>
@@ -20568,7 +20569,7 @@
         <v>0</v>
       </c>
       <c r="K217" s="3">
-        <v>19281433</v>
+        <v>11163950032</v>
       </c>
       <c r="L217" s="3">
         <v>0</v>
@@ -20644,7 +20645,7 @@
         <v>0</v>
       </c>
       <c r="K218" s="3">
-        <v>22804356</v>
+        <v>14400950867</v>
       </c>
       <c r="L218" s="3">
         <v>0</v>
@@ -20720,7 +20721,7 @@
         <v>0</v>
       </c>
       <c r="K219" s="3">
-        <v>22958433</v>
+        <v>14498251027</v>
       </c>
       <c r="L219" s="3">
         <v>0</v>
@@ -20796,7 +20797,7 @@
         <v>0</v>
       </c>
       <c r="K220" s="3">
-        <v>25804731</v>
+        <v>16295688028</v>
       </c>
       <c r="L220" s="3">
         <v>0</v>
@@ -20872,7 +20873,7 @@
         <v>0</v>
       </c>
       <c r="K221" s="3">
-        <v>27219853</v>
+        <v>17189337452</v>
       </c>
       <c r="L221" s="3">
         <v>0</v>
@@ -20948,7 +20949,7 @@
         <v>0</v>
       </c>
       <c r="K222" s="3">
-        <v>27914854</v>
+        <v>17628230790</v>
       </c>
       <c r="L222" s="3">
         <v>0</v>
@@ -21024,7 +21025,7 @@
         <v>0</v>
       </c>
       <c r="K223" s="3">
-        <v>28650842</v>
+        <v>18093007017</v>
       </c>
       <c r="L223" s="3">
         <v>0</v>
@@ -21100,7 +21101,7 @@
         <v>0</v>
       </c>
       <c r="K224" s="3">
-        <v>30326817</v>
+        <v>19151385091</v>
       </c>
       <c r="L224" s="3">
         <v>0</v>
@@ -21176,7 +21177,7 @@
         <v>0</v>
       </c>
       <c r="K225" s="3">
-        <v>33689805</v>
+        <v>21275112026</v>
       </c>
       <c r="L225" s="3">
         <v>0</v>
@@ -21252,7 +21253,7 @@
         <v>0</v>
       </c>
       <c r="K226" s="3">
-        <v>34567607</v>
+        <v>21829444230</v>
       </c>
       <c r="L226" s="3">
         <v>0</v>
@@ -21328,7 +21329,7 @@
         <v>0</v>
       </c>
       <c r="K227" s="3">
-        <v>38310818</v>
+        <v>24193281998</v>
       </c>
       <c r="L227" s="3">
         <v>0</v>
@@ -21404,7 +21405,7 @@
         <v>0</v>
       </c>
       <c r="K228" s="3">
-        <v>40883009</v>
+        <v>25817620671</v>
       </c>
       <c r="L228" s="3">
         <v>0</v>
@@ -21480,7 +21481,7 @@
         <v>0</v>
       </c>
       <c r="K229" s="3">
-        <v>43028509</v>
+        <v>27172503708</v>
       </c>
       <c r="L229" s="3">
         <v>0</v>
@@ -21556,7 +21557,7 @@
         <v>0</v>
       </c>
       <c r="K230" s="3">
-        <v>44512394</v>
+        <v>28109577198</v>
       </c>
       <c r="L230" s="3">
         <v>0</v>
@@ -21632,7 +21633,7 @@
         <v>0</v>
       </c>
       <c r="K231" s="3">
-        <v>44997822</v>
+        <v>28416125236</v>
       </c>
       <c r="L231" s="3">
         <v>0</v>
@@ -21708,7 +21709,7 @@
         <v>0</v>
       </c>
       <c r="K232" s="3">
-        <v>45484280</v>
+        <v>28723323204</v>
       </c>
       <c r="L232" s="3">
         <v>0</v>
@@ -21784,7 +21785,7 @@
         <v>0</v>
       </c>
       <c r="K233" s="3">
-        <v>50476168</v>
+        <v>31875700727</v>
       </c>
       <c r="L233" s="3">
         <v>0</v>
@@ -21860,7 +21861,7 @@
         <v>0</v>
       </c>
       <c r="K234" s="3">
-        <v>51339697</v>
+        <v>32421018910</v>
       </c>
       <c r="L234" s="3">
         <v>0</v>
@@ -21936,7 +21937,7 @@
         <v>0</v>
       </c>
       <c r="K235" s="3">
-        <v>54551247</v>
+        <v>34449112615</v>
       </c>
       <c r="L235" s="3">
         <v>0</v>
@@ -22012,7 +22013,7 @@
         <v>0</v>
       </c>
       <c r="K236" s="3">
-        <v>56383257</v>
+        <v>35606026820</v>
       </c>
       <c r="L236" s="3">
         <v>0</v>
@@ -22088,7 +22089,7 @@
         <v>0</v>
       </c>
       <c r="K237" s="3">
-        <v>56946650</v>
+        <v>35961809585</v>
       </c>
       <c r="L237" s="3">
         <v>0</v>
@@ -22164,7 +22165,7 @@
         <v>0</v>
       </c>
       <c r="K238" s="3">
-        <v>62302496</v>
+        <v>39344026547</v>
       </c>
       <c r="L238" s="3">
         <v>0</v>
@@ -22240,7 +22241,7 @@
         <v>0</v>
       </c>
       <c r="K239" s="3">
-        <v>64925036</v>
+        <v>41000160731</v>
       </c>
       <c r="L239" s="3">
         <v>0</v>
@@ -22316,7 +22317,7 @@
         <v>0</v>
       </c>
       <c r="K240" s="3">
-        <v>65489138</v>
+        <v>41356391084</v>
       </c>
       <c r="L240" s="3">
         <v>0</v>
@@ -22392,7 +22393,7 @@
         <v>0</v>
       </c>
       <c r="K241" s="3">
-        <v>66119798</v>
+        <v>41754652537</v>
       </c>
       <c r="L241" s="3">
         <v>0</v>
@@ -22468,7 +22469,7 @@
         <v>0</v>
       </c>
       <c r="K242" s="3">
-        <v>66750452</v>
+        <v>42152910916</v>
       </c>
       <c r="L242" s="3">
         <v>0</v>
@@ -22544,7 +22545,7 @@
         <v>0</v>
       </c>
       <c r="K243" s="3">
-        <v>67381198</v>
+        <v>42551227149</v>
       </c>
       <c r="L243" s="3">
         <v>0</v>
@@ -22620,7 +22621,7 @@
         <v>0</v>
       </c>
       <c r="K244" s="3">
-        <v>68011887</v>
+        <v>42949507161</v>
       </c>
       <c r="L244" s="3">
         <v>0</v>
@@ -22696,7 +22697,7 @@
         <v>0</v>
       </c>
       <c r="K245" s="3">
-        <v>68576007</v>
+        <v>43305748518</v>
       </c>
       <c r="L245" s="3">
         <v>0</v>
@@ -22772,7 +22773,7 @@
         <v>0</v>
       </c>
       <c r="K246" s="3">
-        <v>69206650</v>
+        <v>43703999785</v>
       </c>
       <c r="L246" s="3">
         <v>0</v>
@@ -22848,7 +22849,7 @@
         <v>0</v>
       </c>
       <c r="K247" s="3">
-        <v>69837289</v>
+        <v>44102248425</v>
       </c>
       <c r="L247" s="3">
         <v>0</v>
@@ -22924,7 +22925,7 @@
         <v>0</v>
       </c>
       <c r="K248" s="3">
-        <v>70467924</v>
+        <v>44500494540</v>
       </c>
       <c r="L248" s="3">
         <v>0</v>
@@ -23000,7 +23001,7 @@
         <v>0</v>
       </c>
       <c r="K249" s="3">
-        <v>71098559</v>
+        <v>44898740655</v>
       </c>
       <c r="L249" s="3">
         <v>0</v>
@@ -23228,7 +23229,7 @@
         <v>0</v>
       </c>
       <c r="K252" s="3">
-        <v>324</v>
+        <v>11664</v>
       </c>
       <c r="L252" s="3">
         <v>0</v>
@@ -23304,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="K253" s="3">
-        <v>1735</v>
+        <v>70275</v>
       </c>
       <c r="L253" s="3">
         <v>0</v>
@@ -23380,7 +23381,7 @@
         <v>0</v>
       </c>
       <c r="K254" s="3">
-        <v>3625</v>
+        <v>163152</v>
       </c>
       <c r="L254" s="3">
         <v>0</v>
@@ -23456,7 +23457,7 @@
         <v>0</v>
       </c>
       <c r="K255" s="3">
-        <v>6496</v>
+        <v>321552</v>
       </c>
       <c r="L255" s="3">
         <v>0</v>
@@ -23532,7 +23533,7 @@
         <v>0</v>
       </c>
       <c r="K256" s="3">
-        <v>11468</v>
+        <v>619315</v>
       </c>
       <c r="L256" s="3">
         <v>0</v>
@@ -23608,7 +23609,7 @@
         <v>0</v>
       </c>
       <c r="K257" s="3">
-        <v>17054</v>
+        <v>920937</v>
       </c>
       <c r="L257" s="3">
         <v>0</v>
@@ -23684,7 +23685,7 @@
         <v>0</v>
       </c>
       <c r="K258" s="3">
-        <v>24278</v>
+        <v>2585649</v>
       </c>
       <c r="L258" s="3">
         <v>0</v>
@@ -23760,7 +23761,7 @@
         <v>0</v>
       </c>
       <c r="K259" s="3">
-        <v>28483</v>
+        <v>3033460</v>
       </c>
       <c r="L259" s="3">
         <v>0</v>
@@ -23836,7 +23837,7 @@
         <v>0</v>
       </c>
       <c r="K260" s="3">
-        <v>49920</v>
+        <v>5316480</v>
       </c>
       <c r="L260" s="3">
         <v>0</v>
@@ -23912,7 +23913,7 @@
         <v>0</v>
       </c>
       <c r="K261" s="3">
-        <v>96410</v>
+        <v>10267741</v>
       </c>
       <c r="L261" s="3">
         <v>0</v>
@@ -23988,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="K262" s="3">
-        <v>131447</v>
+        <v>20900213</v>
       </c>
       <c r="L262" s="3">
         <v>0</v>
@@ -24064,7 +24065,7 @@
         <v>0</v>
       </c>
       <c r="K263" s="3">
-        <v>181066</v>
+        <v>28789642</v>
       </c>
       <c r="L263" s="3">
         <v>0</v>
@@ -24140,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="K264" s="3">
-        <v>237398</v>
+        <v>50209853</v>
       </c>
       <c r="L264" s="3">
         <v>0</v>
@@ -24216,7 +24217,7 @@
         <v>0</v>
       </c>
       <c r="K265" s="3">
-        <v>334113</v>
+        <v>70664982</v>
       </c>
       <c r="L265" s="3">
         <v>0</v>
@@ -24292,7 +24293,7 @@
         <v>0</v>
       </c>
       <c r="K266" s="3">
-        <v>384479</v>
+        <v>81317372</v>
       </c>
       <c r="L266" s="3">
         <v>0</v>
@@ -24368,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="K267" s="3">
-        <v>532072</v>
+        <v>112533254</v>
       </c>
       <c r="L267" s="3">
         <v>0</v>
@@ -24444,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="K268" s="3">
-        <v>887418</v>
+        <v>234278380</v>
       </c>
       <c r="L268" s="3">
         <v>0</v>
@@ -24520,7 +24521,7 @@
         <v>0</v>
       </c>
       <c r="K269" s="3">
-        <v>961981</v>
+        <v>253963081</v>
       </c>
       <c r="L269" s="3">
         <v>0</v>
@@ -24596,7 +24597,7 @@
         <v>0</v>
       </c>
       <c r="K270" s="3">
-        <v>1313625</v>
+        <v>346797122</v>
       </c>
       <c r="L270" s="3">
         <v>0</v>
@@ -24672,7 +24673,7 @@
         <v>0</v>
       </c>
       <c r="K271" s="3">
-        <v>1404967</v>
+        <v>370911442</v>
       </c>
       <c r="L271" s="3">
         <v>0</v>
@@ -24748,7 +24749,7 @@
         <v>0</v>
       </c>
       <c r="K272" s="3">
-        <v>1524872</v>
+        <v>402566222</v>
       </c>
       <c r="L272" s="3">
         <v>0</v>
@@ -24824,7 +24825,7 @@
         <v>0</v>
       </c>
       <c r="K273" s="3">
-        <v>2110001</v>
+        <v>557040316</v>
       </c>
       <c r="L273" s="3">
         <v>0</v>
@@ -24900,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="K274" s="3">
-        <v>2232489</v>
+        <v>589377310</v>
       </c>
       <c r="L274" s="3">
         <v>0</v>
@@ -24976,7 +24977,7 @@
         <v>0</v>
       </c>
       <c r="K275" s="3">
-        <v>2987724</v>
+        <v>945614647</v>
       </c>
       <c r="L275" s="3">
         <v>0</v>
@@ -25052,7 +25053,7 @@
         <v>0</v>
       </c>
       <c r="K276" s="3">
-        <v>3237559</v>
+        <v>1024687632</v>
       </c>
       <c r="L276" s="3">
         <v>0</v>
@@ -25128,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="K277" s="3">
-        <v>3470015</v>
+        <v>1098259905</v>
       </c>
       <c r="L277" s="3">
         <v>0</v>
@@ -25204,7 +25205,7 @@
         <v>0</v>
       </c>
       <c r="K278" s="3">
-        <v>3621921</v>
+        <v>1146338266</v>
       </c>
       <c r="L278" s="3">
         <v>0</v>
@@ -25280,7 +25281,7 @@
         <v>0</v>
       </c>
       <c r="K279" s="3">
-        <v>3899627</v>
+        <v>1234232037</v>
       </c>
       <c r="L279" s="3">
         <v>0</v>
@@ -25356,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="K280" s="3">
-        <v>4056458</v>
+        <v>1283869239</v>
       </c>
       <c r="L280" s="3">
         <v>0</v>
@@ -25432,7 +25433,7 @@
         <v>0</v>
       </c>
       <c r="K281" s="3">
-        <v>4650758</v>
+        <v>1471964927</v>
       </c>
       <c r="L281" s="3">
         <v>0</v>
@@ -25508,7 +25509,7 @@
         <v>0</v>
       </c>
       <c r="K282" s="3">
-        <v>5080169</v>
+        <v>1874582702</v>
       </c>
       <c r="L282" s="3">
         <v>0</v>
@@ -25584,7 +25585,7 @@
         <v>0</v>
       </c>
       <c r="K283" s="3">
-        <v>5681571</v>
+        <v>2096500026</v>
       </c>
       <c r="L283" s="3">
         <v>0</v>
@@ -25660,7 +25661,7 @@
         <v>0</v>
       </c>
       <c r="K284" s="3">
-        <v>6041811</v>
+        <v>2229428520</v>
       </c>
       <c r="L284" s="3">
         <v>0</v>
@@ -25736,7 +25737,7 @@
         <v>0</v>
       </c>
       <c r="K285" s="3">
-        <v>6649442</v>
+        <v>2453644316</v>
       </c>
       <c r="L285" s="3">
         <v>0</v>
@@ -25812,7 +25813,7 @@
         <v>0</v>
       </c>
       <c r="K286" s="3">
-        <v>7199990</v>
+        <v>3034795873</v>
       </c>
       <c r="L286" s="3">
         <v>0</v>
@@ -25888,7 +25889,7 @@
         <v>0</v>
       </c>
       <c r="K287" s="3">
-        <v>8693398</v>
+        <v>3664267431</v>
       </c>
       <c r="L287" s="3">
         <v>0</v>
@@ -25964,7 +25965,7 @@
         <v>0</v>
       </c>
       <c r="K288" s="3">
-        <v>9339810</v>
+        <v>3936730120</v>
       </c>
       <c r="L288" s="3">
         <v>0</v>
@@ -26040,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="K289" s="3">
-        <v>10967260</v>
+        <v>5198481507</v>
       </c>
       <c r="L289" s="3">
         <v>0</v>
@@ -26116,7 +26117,7 @@
         <v>0</v>
       </c>
       <c r="K290" s="3">
-        <v>11487443</v>
+        <v>5445048064</v>
       </c>
       <c r="L290" s="3">
         <v>0</v>
@@ -26192,7 +26193,7 @@
         <v>0</v>
       </c>
       <c r="K291" s="3">
-        <v>12468604</v>
+        <v>5910118438</v>
       </c>
       <c r="L291" s="3">
         <v>0</v>
@@ -26268,7 +26269,7 @@
         <v>0</v>
       </c>
       <c r="K292" s="3">
-        <v>14219568</v>
+        <v>7486602715</v>
       </c>
       <c r="L292" s="3">
         <v>0</v>
@@ -26344,7 +26345,7 @@
         <v>0</v>
       </c>
       <c r="K293" s="3">
-        <v>16154595</v>
+        <v>8505394602</v>
       </c>
       <c r="L293" s="3">
         <v>0</v>
@@ -26420,7 +26421,7 @@
         <v>0</v>
       </c>
       <c r="K294" s="3">
-        <v>18067551</v>
+        <v>9512565637</v>
       </c>
       <c r="L294" s="3">
         <v>0</v>
@@ -26496,7 +26497,7 @@
         <v>0</v>
       </c>
       <c r="K295" s="3">
-        <v>20387284</v>
+        <v>11804237750</v>
       </c>
       <c r="L295" s="3">
         <v>0</v>
@@ -26572,7 +26573,7 @@
         <v>0</v>
       </c>
       <c r="K296" s="3">
-        <v>20996284</v>
+        <v>12156848496</v>
       </c>
       <c r="L296" s="3">
         <v>0</v>
@@ -26648,7 +26649,7 @@
         <v>0</v>
       </c>
       <c r="K297" s="3">
-        <v>24146574</v>
+        <v>13980866558</v>
       </c>
       <c r="L297" s="3">
         <v>0</v>
@@ -26724,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="K298" s="3">
-        <v>24950673</v>
+        <v>14446439879</v>
       </c>
       <c r="L298" s="3">
         <v>0</v>
@@ -26800,7 +26801,7 @@
         <v>0</v>
       </c>
       <c r="K299" s="3">
-        <v>25708578</v>
+        <v>14885266709</v>
       </c>
       <c r="L299" s="3">
         <v>0</v>
@@ -26876,7 +26877,7 @@
         <v>0</v>
       </c>
       <c r="K300" s="3">
-        <v>30405808</v>
+        <v>19201267823</v>
       </c>
       <c r="L300" s="3">
         <v>0</v>
@@ -26952,7 +26953,7 @@
         <v>0</v>
       </c>
       <c r="K301" s="3">
-        <v>30611245</v>
+        <v>19331001369</v>
       </c>
       <c r="L301" s="3">
         <v>0</v>
@@ -27028,7 +27029,7 @@
         <v>0</v>
       </c>
       <c r="K302" s="3">
-        <v>34406308</v>
+        <v>21727584038</v>
       </c>
       <c r="L302" s="3">
         <v>0</v>
@@ -27104,7 +27105,7 @@
         <v>0</v>
       </c>
       <c r="K303" s="3">
-        <v>36293137</v>
+        <v>22919116602</v>
       </c>
       <c r="L303" s="3">
         <v>0</v>
@@ -27180,7 +27181,7 @@
         <v>0</v>
       </c>
       <c r="K304" s="3">
-        <v>37219806</v>
+        <v>23504307720</v>
       </c>
       <c r="L304" s="3">
         <v>0</v>
@@ -27256,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="K305" s="3">
-        <v>38201123</v>
+        <v>24124009356</v>
       </c>
       <c r="L305" s="3">
         <v>0</v>
@@ -27332,7 +27333,7 @@
         <v>0</v>
       </c>
       <c r="K306" s="3">
-        <v>40435756</v>
+        <v>25535180121</v>
       </c>
       <c r="L306" s="3">
         <v>0</v>
@@ -27408,7 +27409,7 @@
         <v>0</v>
       </c>
       <c r="K307" s="3">
-        <v>44919740</v>
+        <v>28366816034</v>
       </c>
       <c r="L307" s="3">
         <v>0</v>
@@ -27484,7 +27485,7 @@
         <v>0</v>
       </c>
       <c r="K308" s="3">
-        <v>46090143</v>
+        <v>29105925640</v>
       </c>
       <c r="L308" s="3">
         <v>0</v>
@@ -27560,7 +27561,7 @@
         <v>0</v>
       </c>
       <c r="K309" s="3">
-        <v>51081091</v>
+        <v>32257709331</v>
       </c>
       <c r="L309" s="3">
         <v>0</v>
@@ -27636,7 +27637,7 @@
         <v>0</v>
       </c>
       <c r="K310" s="3">
-        <v>54510679</v>
+        <v>34423494229</v>
       </c>
       <c r="L310" s="3">
         <v>0</v>
@@ -27712,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="K311" s="3">
-        <v>57371345</v>
+        <v>36230004944</v>
       </c>
       <c r="L311" s="3">
         <v>0</v>
@@ -27788,7 +27789,7 @@
         <v>0</v>
       </c>
       <c r="K312" s="3">
-        <v>59349859</v>
+        <v>37479436264</v>
       </c>
       <c r="L312" s="3">
         <v>0</v>
@@ -27864,7 +27865,7 @@
         <v>0</v>
       </c>
       <c r="K313" s="3">
-        <v>59997097</v>
+        <v>37888166981</v>
       </c>
       <c r="L313" s="3">
         <v>0</v>
@@ -27940,7 +27941,7 @@
         <v>0</v>
       </c>
       <c r="K314" s="3">
-        <v>60645707</v>
+        <v>38297764273</v>
       </c>
       <c r="L314" s="3">
         <v>0</v>
@@ -28016,7 +28017,7 @@
         <v>0</v>
       </c>
       <c r="K315" s="3">
-        <v>67301558</v>
+        <v>42500934303</v>
       </c>
       <c r="L315" s="3">
         <v>0</v>
@@ -28092,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="K316" s="3">
-        <v>68452929</v>
+        <v>43228025214</v>
       </c>
       <c r="L316" s="3">
         <v>0</v>
@@ -28168,7 +28169,7 @@
         <v>0</v>
       </c>
       <c r="K317" s="3">
-        <v>72734996</v>
+        <v>45932150154</v>
       </c>
       <c r="L317" s="3">
         <v>0</v>
@@ -28244,7 +28245,7 @@
         <v>0</v>
       </c>
       <c r="K318" s="3">
-        <v>75177676</v>
+        <v>47474702427</v>
       </c>
       <c r="L318" s="3">
         <v>0</v>
@@ -28320,7 +28321,7 @@
         <v>0</v>
       </c>
       <c r="K319" s="3">
-        <v>75928866</v>
+        <v>47949079447</v>
       </c>
       <c r="L319" s="3">
         <v>0</v>
@@ -28396,7 +28397,7 @@
         <v>0</v>
       </c>
       <c r="K320" s="3">
-        <v>83069995</v>
+        <v>52458702063</v>
       </c>
       <c r="L320" s="3">
         <v>0</v>
@@ -28472,7 +28473,7 @@
         <v>0</v>
       </c>
       <c r="K321" s="3">
-        <v>86566715</v>
+        <v>54666880975</v>
       </c>
       <c r="L321" s="3">
         <v>0</v>
@@ -28548,7 +28549,7 @@
         <v>0</v>
       </c>
       <c r="K322" s="3">
-        <v>87318851</v>
+        <v>55141854779</v>
       </c>
       <c r="L322" s="3">
         <v>0</v>
@@ -28624,7 +28625,7 @@
         <v>0</v>
       </c>
       <c r="K323" s="3">
-        <v>88159730</v>
+        <v>55672870049</v>
       </c>
       <c r="L323" s="3">
         <v>0</v>
@@ -28700,7 +28701,7 @@
         <v>0</v>
       </c>
       <c r="K324" s="3">
-        <v>89000603</v>
+        <v>56203881222</v>
       </c>
       <c r="L324" s="3">
         <v>0</v>
@@ -28776,7 +28777,7 @@
         <v>0</v>
       </c>
       <c r="K325" s="3">
-        <v>89841598</v>
+        <v>56734969532</v>
       </c>
       <c r="L325" s="3">
         <v>0</v>
@@ -28852,7 +28853,7 @@
         <v>0</v>
       </c>
       <c r="K326" s="3">
-        <v>90682517</v>
+        <v>57266009549</v>
       </c>
       <c r="L326" s="3">
         <v>0</v>
@@ -28928,7 +28929,7 @@
         <v>0</v>
       </c>
       <c r="K327" s="3">
-        <v>91434676</v>
+        <v>57740998024</v>
       </c>
       <c r="L327" s="3">
         <v>0</v>
@@ -29004,7 +29005,7 @@
         <v>0</v>
       </c>
       <c r="K328" s="3">
-        <v>92275533</v>
+        <v>58271999714</v>
       </c>
       <c r="L328" s="3">
         <v>0</v>
@@ -29080,7 +29081,7 @@
         <v>0</v>
       </c>
       <c r="K329" s="3">
-        <v>93116386</v>
+        <v>58802997900</v>
       </c>
       <c r="L329" s="3">
         <v>0</v>
@@ -29156,7 +29157,7 @@
         <v>0</v>
       </c>
       <c r="K330" s="3">
-        <v>93957233</v>
+        <v>59333992720</v>
       </c>
       <c r="L330" s="3">
         <v>0</v>
@@ -29232,7 +29233,7 @@
         <v>0</v>
       </c>
       <c r="K331" s="3">
-        <v>94798080</v>
+        <v>59864987540</v>
       </c>
       <c r="L331" s="3">
         <v>0</v>
@@ -29460,7 +29461,7 @@
         <v>0</v>
       </c>
       <c r="K334" s="3">
-        <v>810</v>
+        <v>29160</v>
       </c>
       <c r="L334" s="3">
         <v>0</v>
@@ -29536,7 +29537,7 @@
         <v>0</v>
       </c>
       <c r="K335" s="3">
-        <v>4338</v>
+        <v>175689</v>
       </c>
       <c r="L335" s="3">
         <v>0</v>
@@ -29612,7 +29613,7 @@
         <v>0</v>
       </c>
       <c r="K336" s="3">
-        <v>9064</v>
+        <v>407880</v>
       </c>
       <c r="L336" s="3">
         <v>0</v>
@@ -29688,7 +29689,7 @@
         <v>0</v>
       </c>
       <c r="K337" s="3">
-        <v>16240</v>
+        <v>803880</v>
       </c>
       <c r="L337" s="3">
         <v>0</v>
@@ -29764,7 +29765,7 @@
         <v>0</v>
       </c>
       <c r="K338" s="3">
-        <v>28672</v>
+        <v>1548288</v>
       </c>
       <c r="L338" s="3">
         <v>0</v>
@@ -29840,7 +29841,7 @@
         <v>0</v>
       </c>
       <c r="K339" s="3">
-        <v>42636</v>
+        <v>2302344</v>
       </c>
       <c r="L339" s="3">
         <v>0</v>
@@ -29916,7 +29917,7 @@
         <v>0</v>
       </c>
       <c r="K340" s="3">
-        <v>60696</v>
+        <v>6464124</v>
       </c>
       <c r="L340" s="3">
         <v>0</v>
@@ -29992,7 +29993,7 @@
         <v>0</v>
       </c>
       <c r="K341" s="3">
-        <v>71208</v>
+        <v>7583652</v>
       </c>
       <c r="L341" s="3">
         <v>0</v>
@@ -30068,7 +30069,7 @@
         <v>0</v>
       </c>
       <c r="K342" s="3">
-        <v>124800</v>
+        <v>13291200</v>
       </c>
       <c r="L342" s="3">
         <v>0</v>
@@ -30144,7 +30145,7 @@
         <v>0</v>
       </c>
       <c r="K343" s="3">
-        <v>241026</v>
+        <v>25669352</v>
       </c>
       <c r="L343" s="3">
         <v>0</v>
@@ -30220,7 +30221,7 @@
         <v>0</v>
       </c>
       <c r="K344" s="3">
-        <v>328619</v>
+        <v>52250533</v>
       </c>
       <c r="L344" s="3">
         <v>0</v>
@@ -30296,7 +30297,7 @@
         <v>0</v>
       </c>
       <c r="K345" s="3">
-        <v>452667</v>
+        <v>71974106</v>
       </c>
       <c r="L345" s="3">
         <v>0</v>
@@ -30372,7 +30373,7 @@
         <v>0</v>
       </c>
       <c r="K346" s="3">
-        <v>593497</v>
+        <v>125524634</v>
       </c>
       <c r="L346" s="3">
         <v>0</v>
@@ -30448,7 +30449,7 @@
         <v>0</v>
       </c>
       <c r="K347" s="3">
-        <v>835283</v>
+        <v>176662456</v>
       </c>
       <c r="L347" s="3">
         <v>0</v>
@@ -30524,7 +30525,7 @@
         <v>0</v>
       </c>
       <c r="K348" s="3">
-        <v>961198</v>
+        <v>203293430</v>
       </c>
       <c r="L348" s="3">
         <v>0</v>
@@ -30600,7 +30601,7 @@
         <v>0</v>
       </c>
       <c r="K349" s="3">
-        <v>1330180</v>
+        <v>281333136</v>
       </c>
       <c r="L349" s="3">
         <v>0</v>
@@ -30676,7 +30677,7 @@
         <v>0</v>
       </c>
       <c r="K350" s="3">
-        <v>2218545</v>
+        <v>585695951</v>
       </c>
       <c r="L350" s="3">
         <v>0</v>
@@ -30752,7 +30753,7 @@
         <v>0</v>
       </c>
       <c r="K351" s="3">
-        <v>2404953</v>
+        <v>634907703</v>
       </c>
       <c r="L351" s="3">
         <v>0</v>
@@ -30828,7 +30829,7 @@
         <v>0</v>
       </c>
       <c r="K352" s="3">
-        <v>3284063</v>
+        <v>866992807</v>
       </c>
       <c r="L352" s="3">
         <v>0</v>
@@ -30904,7 +30905,7 @@
         <v>0</v>
       </c>
       <c r="K353" s="3">
-        <v>3512418</v>
+        <v>927278605</v>
       </c>
       <c r="L353" s="3">
         <v>0</v>
@@ -30980,7 +30981,7 @@
         <v>0</v>
       </c>
       <c r="K354" s="3">
-        <v>3812180</v>
+        <v>1006415555</v>
       </c>
       <c r="L354" s="3">
         <v>0</v>
@@ -31056,7 +31057,7 @@
         <v>0</v>
       </c>
       <c r="K355" s="3">
-        <v>5275002</v>
+        <v>1392600790</v>
       </c>
       <c r="L355" s="3">
         <v>0</v>
@@ -31132,7 +31133,7 @@
         <v>0</v>
       </c>
       <c r="K356" s="3">
-        <v>5581224</v>
+        <v>1473443275</v>
       </c>
       <c r="L356" s="3">
         <v>0</v>
@@ -31208,7 +31209,7 @@
         <v>0</v>
       </c>
       <c r="K357" s="3">
-        <v>7469310</v>
+        <v>2364036617</v>
       </c>
       <c r="L357" s="3">
         <v>0</v>
@@ -31284,7 +31285,7 @@
         <v>0</v>
       </c>
       <c r="K358" s="3">
-        <v>8093899</v>
+        <v>2561719081</v>
       </c>
       <c r="L358" s="3">
         <v>0</v>
@@ -31360,7 +31361,7 @@
         <v>0</v>
       </c>
       <c r="K359" s="3">
-        <v>8675038</v>
+        <v>2745649763</v>
       </c>
       <c r="L359" s="3">
         <v>0</v>
@@ -31436,7 +31437,7 @@
         <v>0</v>
       </c>
       <c r="K360" s="3">
-        <v>9054804</v>
+        <v>2865845666</v>
       </c>
       <c r="L360" s="3">
         <v>0</v>
@@ -31512,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="K361" s="3">
-        <v>9749068</v>
+        <v>3085580094</v>
       </c>
       <c r="L361" s="3">
         <v>0</v>
@@ -31588,7 +31589,7 @@
         <v>0</v>
       </c>
       <c r="K362" s="3">
-        <v>10141147</v>
+        <v>3209673099</v>
       </c>
       <c r="L362" s="3">
         <v>0</v>
@@ -31664,7 +31665,7 @@
         <v>0</v>
       </c>
       <c r="K363" s="3">
-        <v>11626895</v>
+        <v>3679912317</v>
       </c>
       <c r="L363" s="3">
         <v>0</v>
@@ -31740,7 +31741,7 @@
         <v>0</v>
       </c>
       <c r="K364" s="3">
-        <v>12700424</v>
+        <v>4686456756</v>
       </c>
       <c r="L364" s="3">
         <v>0</v>
@@ -31816,7 +31817,7 @@
         <v>0</v>
       </c>
       <c r="K365" s="3">
-        <v>14203929</v>
+        <v>5241250065</v>
       </c>
       <c r="L365" s="3">
         <v>0</v>
@@ -31892,7 +31893,7 @@
         <v>0</v>
       </c>
       <c r="K366" s="3">
-        <v>15104529</v>
+        <v>5573571302</v>
       </c>
       <c r="L366" s="3">
         <v>0</v>
@@ -31968,7 +31969,7 @@
         <v>0</v>
       </c>
       <c r="K367" s="3">
-        <v>16623606</v>
+        <v>6134110792</v>
       </c>
       <c r="L367" s="3">
         <v>0</v>
@@ -32044,7 +32045,7 @@
         <v>0</v>
       </c>
       <c r="K368" s="3">
-        <v>17999975</v>
+        <v>7586989683</v>
       </c>
       <c r="L368" s="3">
         <v>0</v>
@@ -32120,7 +32121,7 @@
         <v>0</v>
       </c>
       <c r="K369" s="3">
-        <v>21733496</v>
+        <v>9160668579</v>
       </c>
       <c r="L369" s="3">
         <v>0</v>
@@ -32196,7 +32197,7 @@
         <v>0</v>
       </c>
       <c r="K370" s="3">
-        <v>23349526</v>
+        <v>9841825301</v>
       </c>
       <c r="L370" s="3">
         <v>0</v>
@@ -32272,7 +32273,7 @@
         <v>0</v>
       </c>
       <c r="K371" s="3">
-        <v>27418151</v>
+        <v>12996203768</v>
       </c>
       <c r="L371" s="3">
         <v>0</v>
@@ -32348,7 +32349,7 @@
         <v>0</v>
       </c>
       <c r="K372" s="3">
-        <v>28718607</v>
+        <v>13612620160</v>
       </c>
       <c r="L372" s="3">
         <v>0</v>
@@ -32424,7 +32425,7 @@
         <v>0</v>
       </c>
       <c r="K373" s="3">
-        <v>31171510</v>
+        <v>14775296095</v>
       </c>
       <c r="L373" s="3">
         <v>0</v>
@@ -32500,7 +32501,7 @@
         <v>0</v>
       </c>
       <c r="K374" s="3">
-        <v>35548920</v>
+        <v>18716506789</v>
       </c>
       <c r="L374" s="3">
         <v>0</v>
@@ -32576,7 +32577,7 @@
         <v>0</v>
       </c>
       <c r="K375" s="3">
-        <v>40386489</v>
+        <v>21263486506</v>
       </c>
       <c r="L375" s="3">
         <v>0</v>
@@ -32652,7 +32653,7 @@
         <v>0</v>
       </c>
       <c r="K376" s="3">
-        <v>45168877</v>
+        <v>23781414092</v>
       </c>
       <c r="L376" s="3">
         <v>0</v>
@@ -32728,7 +32729,7 @@
         <v>0</v>
       </c>
       <c r="K377" s="3">
-        <v>50968211</v>
+        <v>29510594376</v>
       </c>
       <c r="L377" s="3">
         <v>0</v>
@@ -32804,7 +32805,7 @@
         <v>0</v>
       </c>
       <c r="K378" s="3">
-        <v>52490710</v>
+        <v>30392121241</v>
       </c>
       <c r="L378" s="3">
         <v>0</v>
@@ -32880,7 +32881,7 @@
         <v>0</v>
       </c>
       <c r="K379" s="3">
-        <v>60366435</v>
+        <v>34952166396</v>
       </c>
       <c r="L379" s="3">
         <v>0</v>
@@ -32956,7 +32957,7 @@
         <v>0</v>
       </c>
       <c r="K380" s="3">
-        <v>62376683</v>
+        <v>36116099698</v>
       </c>
       <c r="L380" s="3">
         <v>0</v>
@@ -33032,7 +33033,7 @@
         <v>0</v>
       </c>
       <c r="K381" s="3">
-        <v>64271445</v>
+        <v>37213166774</v>
       </c>
       <c r="L381" s="3">
         <v>0</v>
@@ -33108,7 +33109,7 @@
         <v>0</v>
       </c>
       <c r="K382" s="3">
-        <v>76014520</v>
+        <v>48003169559</v>
       </c>
       <c r="L382" s="3">
         <v>0</v>
@@ -33184,7 +33185,7 @@
         <v>0</v>
       </c>
       <c r="K383" s="3">
-        <v>76528113</v>
+        <v>48327503424</v>
       </c>
       <c r="L383" s="3">
         <v>0</v>
@@ -33260,7 +33261,7 @@
         <v>0</v>
       </c>
       <c r="K384" s="3">
-        <v>86015772</v>
+        <v>54318960095</v>
       </c>
       <c r="L384" s="3">
         <v>0</v>
@@ -33336,7 +33337,7 @@
         <v>0</v>
       </c>
       <c r="K385" s="3">
-        <v>90732844</v>
+        <v>57297791507</v>
       </c>
       <c r="L385" s="3">
         <v>0</v>
@@ -33412,7 +33413,7 @@
         <v>0</v>
       </c>
       <c r="K386" s="3">
-        <v>93049515</v>
+        <v>58760769302</v>
       </c>
       <c r="L386" s="3">
         <v>0</v>
@@ -33488,7 +33489,7 @@
         <v>0</v>
       </c>
       <c r="K387" s="3">
-        <v>95502808</v>
+        <v>60310023391</v>
       </c>
       <c r="L387" s="3">
         <v>0</v>
@@ -33564,7 +33565,7 @@
         <v>0</v>
       </c>
       <c r="K388" s="3">
-        <v>101089390</v>
+        <v>63837950304</v>
       </c>
       <c r="L388" s="3">
         <v>0</v>
@@ -33640,7 +33641,7 @@
         <v>0</v>
       </c>
       <c r="K389" s="3">
-        <v>112299350</v>
+        <v>70917040087</v>
       </c>
       <c r="L389" s="3">
         <v>0</v>
@@ -33716,7 +33717,7 @@
         <v>0</v>
       </c>
       <c r="K390" s="3">
-        <v>115225358</v>
+        <v>72764814101</v>
       </c>
       <c r="L390" s="3">
         <v>0</v>
@@ -33792,7 +33793,7 @@
         <v>0</v>
       </c>
       <c r="K391" s="3">
-        <v>127702728</v>
+        <v>80644273327</v>
       </c>
       <c r="L391" s="3">
         <v>0</v>
@@ -33868,7 +33869,7 @@
         <v>0</v>
       </c>
       <c r="K392" s="3">
-        <v>136276699</v>
+        <v>86058735572</v>
       </c>
       <c r="L392" s="3">
         <v>0</v>
@@ -33944,7 +33945,7 @@
         <v>0</v>
       </c>
       <c r="K393" s="3">
-        <v>143428364</v>
+        <v>90575012361</v>
       </c>
       <c r="L393" s="3">
         <v>0</v>
@@ -34020,7 +34021,7 @@
         <v>0</v>
       </c>
       <c r="K394" s="3">
-        <v>148374648</v>
+        <v>93698590662</v>
       </c>
       <c r="L394" s="3">
         <v>0</v>
@@ -34096,7 +34097,7 @@
         <v>0</v>
       </c>
       <c r="K395" s="3">
-        <v>149992743</v>
+        <v>94720417454</v>
       </c>
       <c r="L395" s="3">
         <v>0</v>
@@ -34172,7 +34173,7 @@
         <v>0</v>
       </c>
       <c r="K396" s="3">
-        <v>151614268</v>
+        <v>95744410682</v>
       </c>
       <c r="L396" s="3">
         <v>0</v>
@@ -34248,7 +34249,7 @@
         <v>0</v>
       </c>
       <c r="K397" s="3">
-        <v>168253896</v>
+        <v>106252335759</v>
       </c>
       <c r="L397" s="3">
         <v>0</v>
@@ -34324,7 +34325,7 @@
         <v>0</v>
       </c>
       <c r="K398" s="3">
-        <v>171132324</v>
+        <v>108070063035</v>
       </c>
       <c r="L398" s="3">
         <v>0</v>
@@ -34400,7 +34401,7 @@
         <v>0</v>
       </c>
       <c r="K399" s="3">
-        <v>181837490</v>
+        <v>114830375386</v>
       </c>
       <c r="L399" s="3">
         <v>0</v>
@@ -34476,7 +34477,7 @@
         <v>0</v>
       </c>
       <c r="K400" s="3">
-        <v>187944190</v>
+        <v>118686756069</v>
       </c>
       <c r="L400" s="3">
         <v>0</v>
@@ -34552,7 +34553,7 @@
         <v>0</v>
       </c>
       <c r="K401" s="3">
-        <v>189822167</v>
+        <v>119872698618</v>
       </c>
       <c r="L401" s="3">
         <v>0</v>
@@ -34628,7 +34629,7 @@
         <v>0</v>
       </c>
       <c r="K402" s="3">
-        <v>207674988</v>
+        <v>131146755157</v>
       </c>
       <c r="L402" s="3">
         <v>0</v>
@@ -34704,7 +34705,7 @@
         <v>0</v>
       </c>
       <c r="K403" s="3">
-        <v>216416789</v>
+        <v>136667202437</v>
       </c>
       <c r="L403" s="3">
         <v>0</v>
@@ -34780,7 +34781,7 @@
         <v>0</v>
       </c>
       <c r="K404" s="3">
-        <v>218297128</v>
+        <v>137854636948</v>
       </c>
       <c r="L404" s="3">
         <v>0</v>
@@ -34856,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K405" s="3">
-        <v>220399327</v>
+        <v>139182175124</v>
       </c>
       <c r="L405" s="3">
         <v>0</v>
@@ -34932,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="K406" s="3">
-        <v>222501509</v>
+        <v>140509703055</v>
       </c>
       <c r="L406" s="3">
         <v>0</v>
@@ -35008,7 +35009,7 @@
         <v>0</v>
       </c>
       <c r="K407" s="3">
-        <v>224603996</v>
+        <v>141837423830</v>
       </c>
       <c r="L407" s="3">
         <v>0</v>
@@ -35084,7 +35085,7 @@
         <v>0</v>
       </c>
       <c r="K408" s="3">
-        <v>226706292</v>
+        <v>143165023873</v>
       </c>
       <c r="L408" s="3">
         <v>0</v>
@@ -35160,7 +35161,7 @@
         <v>0</v>
       </c>
       <c r="K409" s="3">
-        <v>228586690</v>
+        <v>144352495062</v>
       </c>
       <c r="L409" s="3">
         <v>0</v>
@@ -35236,7 +35237,7 @@
         <v>0</v>
       </c>
       <c r="K410" s="3">
-        <v>230688834</v>
+        <v>145679999286</v>
       </c>
       <c r="L410" s="3">
         <v>0</v>
@@ -35312,7 +35313,7 @@
         <v>0</v>
       </c>
       <c r="K411" s="3">
-        <v>232790965</v>
+        <v>147007494750</v>
       </c>
       <c r="L411" s="3">
         <v>0</v>
@@ -35388,7 +35389,7 @@
         <v>0</v>
       </c>
       <c r="K412" s="3">
-        <v>234893082</v>
+        <v>148334981800</v>
       </c>
       <c r="L412" s="3">
         <v>0</v>
@@ -35464,7 +35465,7 @@
         <v>0</v>
       </c>
       <c r="K413" s="3">
-        <v>236995199</v>
+        <v>149662468850</v>
       </c>
       <c r="L413" s="3">
         <v>0</v>
@@ -35692,7 +35693,7 @@
         <v>0</v>
       </c>
       <c r="K416" s="3">
-        <v>1620</v>
+        <v>58320</v>
       </c>
       <c r="L416" s="3">
         <v>0</v>
@@ -35768,7 +35769,7 @@
         <v>0</v>
       </c>
       <c r="K417" s="3">
-        <v>8676</v>
+        <v>351378</v>
       </c>
       <c r="L417" s="3">
         <v>0</v>
@@ -35844,7 +35845,7 @@
         <v>0</v>
       </c>
       <c r="K418" s="3">
-        <v>18128</v>
+        <v>815760</v>
       </c>
       <c r="L418" s="3">
         <v>0</v>
@@ -35920,7 +35921,7 @@
         <v>0</v>
       </c>
       <c r="K419" s="3">
-        <v>32480</v>
+        <v>1607760</v>
       </c>
       <c r="L419" s="3">
         <v>0</v>
@@ -35996,7 +35997,7 @@
         <v>0</v>
       </c>
       <c r="K420" s="3">
-        <v>57344</v>
+        <v>3096576</v>
       </c>
       <c r="L420" s="3">
         <v>0</v>
@@ -36072,7 +36073,7 @@
         <v>0</v>
       </c>
       <c r="K421" s="3">
-        <v>85272</v>
+        <v>4604688</v>
       </c>
       <c r="L421" s="3">
         <v>0</v>
@@ -36148,7 +36149,7 @@
         <v>0</v>
       </c>
       <c r="K422" s="3">
-        <v>121392</v>
+        <v>12928248</v>
       </c>
       <c r="L422" s="3">
         <v>0</v>
@@ -36224,7 +36225,7 @@
         <v>0</v>
       </c>
       <c r="K423" s="3">
-        <v>142416</v>
+        <v>15167304</v>
       </c>
       <c r="L423" s="3">
         <v>0</v>
@@ -36300,7 +36301,7 @@
         <v>0</v>
       </c>
       <c r="K424" s="3">
-        <v>249600</v>
+        <v>26582400</v>
       </c>
       <c r="L424" s="3">
         <v>0</v>
@@ -36376,7 +36377,7 @@
         <v>0</v>
       </c>
       <c r="K425" s="3">
-        <v>482053</v>
+        <v>51338705</v>
       </c>
       <c r="L425" s="3">
         <v>0</v>
@@ -36452,7 +36453,7 @@
         <v>0</v>
       </c>
       <c r="K426" s="3">
-        <v>657239</v>
+        <v>104501066</v>
       </c>
       <c r="L426" s="3">
         <v>0</v>
@@ -36528,7 +36529,7 @@
         <v>0</v>
       </c>
       <c r="K427" s="3">
-        <v>905334</v>
+        <v>143948213</v>
       </c>
       <c r="L427" s="3">
         <v>0</v>
@@ -36604,7 +36605,7 @@
         <v>0</v>
       </c>
       <c r="K428" s="3">
-        <v>1186994</v>
+        <v>251049268</v>
       </c>
       <c r="L428" s="3">
         <v>0</v>
@@ -36680,7 +36681,7 @@
         <v>0</v>
       </c>
       <c r="K429" s="3">
-        <v>1670566</v>
+        <v>353324912</v>
       </c>
       <c r="L429" s="3">
         <v>0</v>
@@ -36756,7 +36757,7 @@
         <v>0</v>
       </c>
       <c r="K430" s="3">
-        <v>1922396</v>
+        <v>406586861</v>
       </c>
       <c r="L430" s="3">
         <v>0</v>
@@ -36832,7 +36833,7 @@
         <v>0</v>
       </c>
       <c r="K431" s="3">
-        <v>2660360</v>
+        <v>562666272</v>
       </c>
       <c r="L431" s="3">
         <v>0</v>
@@ -36908,7 +36909,7 @@
         <v>0</v>
       </c>
       <c r="K432" s="3">
-        <v>4437090</v>
+        <v>1171391903</v>
       </c>
       <c r="L432" s="3">
         <v>0</v>
@@ -36984,7 +36985,7 @@
         <v>0</v>
       </c>
       <c r="K433" s="3">
-        <v>4809906</v>
+        <v>1269815407</v>
       </c>
       <c r="L433" s="3">
         <v>0</v>
@@ -37060,7 +37061,7 @@
         <v>0</v>
       </c>
       <c r="K434" s="3">
-        <v>6568127</v>
+        <v>1733985614</v>
       </c>
       <c r="L434" s="3">
         <v>0</v>
@@ -37136,7 +37137,7 @@
         <v>0</v>
       </c>
       <c r="K435" s="3">
-        <v>7024837</v>
+        <v>1854557211</v>
       </c>
       <c r="L435" s="3">
         <v>0</v>
@@ -37212,7 +37213,7 @@
         <v>0</v>
       </c>
       <c r="K436" s="3">
-        <v>7624360</v>
+        <v>2012831110</v>
       </c>
       <c r="L436" s="3">
         <v>0</v>
@@ -37288,7 +37289,7 @@
         <v>0</v>
       </c>
       <c r="K437" s="3">
-        <v>10550005</v>
+        <v>2785201580</v>
       </c>
       <c r="L437" s="3">
         <v>0</v>
@@ -37364,7 +37365,7 @@
         <v>0</v>
       </c>
       <c r="K438" s="3">
-        <v>11162449</v>
+        <v>2946886551</v>
       </c>
       <c r="L438" s="3">
         <v>0</v>
@@ -37440,7 +37441,7 @@
         <v>0</v>
       </c>
       <c r="K439" s="3">
-        <v>14938620</v>
+        <v>4728073235</v>
       </c>
       <c r="L439" s="3">
         <v>0</v>
@@ -37516,7 +37517,7 @@
         <v>0</v>
       </c>
       <c r="K440" s="3">
-        <v>16187798</v>
+        <v>5123438163</v>
       </c>
       <c r="L440" s="3">
         <v>0</v>
@@ -37592,7 +37593,7 @@
         <v>0</v>
       </c>
       <c r="K441" s="3">
-        <v>17350077</v>
+        <v>5491299526</v>
       </c>
       <c r="L441" s="3">
         <v>0</v>
@@ -37668,7 +37669,7 @@
         <v>0</v>
       </c>
       <c r="K442" s="3">
-        <v>18109609</v>
+        <v>5731691332</v>
       </c>
       <c r="L442" s="3">
         <v>0</v>
@@ -37744,7 +37745,7 @@
         <v>0</v>
       </c>
       <c r="K443" s="3">
-        <v>19498136</v>
+        <v>6171160189</v>
       </c>
       <c r="L443" s="3">
         <v>0</v>
@@ -37820,7 +37821,7 @@
         <v>0</v>
       </c>
       <c r="K444" s="3">
-        <v>20282294</v>
+        <v>6419346199</v>
       </c>
       <c r="L444" s="3">
         <v>0</v>
@@ -37896,7 +37897,7 @@
         <v>0</v>
       </c>
       <c r="K445" s="3">
-        <v>23253790</v>
+        <v>7359824635</v>
       </c>
       <c r="L445" s="3">
         <v>0</v>
@@ -37972,7 +37973,7 @@
         <v>0</v>
       </c>
       <c r="K446" s="3">
-        <v>25400849</v>
+        <v>9372913512</v>
       </c>
       <c r="L446" s="3">
         <v>0</v>
@@ -38048,7 +38049,7 @@
         <v>0</v>
       </c>
       <c r="K447" s="3">
-        <v>28407859</v>
+        <v>10482500130</v>
       </c>
       <c r="L447" s="3">
         <v>0</v>
@@ -38124,7 +38125,7 @@
         <v>0</v>
       </c>
       <c r="K448" s="3">
-        <v>30209058</v>
+        <v>11147142604</v>
       </c>
       <c r="L448" s="3">
         <v>0</v>
@@ -38200,7 +38201,7 @@
         <v>0</v>
       </c>
       <c r="K449" s="3">
-        <v>33247212</v>
+        <v>12268221584</v>
       </c>
       <c r="L449" s="3">
         <v>0</v>
@@ -38276,7 +38277,7 @@
         <v>0</v>
       </c>
       <c r="K450" s="3">
-        <v>35999951</v>
+        <v>15173979366</v>
       </c>
       <c r="L450" s="3">
         <v>0</v>
@@ -38352,7 +38353,7 @@
         <v>0</v>
       </c>
       <c r="K451" s="3">
-        <v>43466992</v>
+        <v>18321337158</v>
       </c>
       <c r="L451" s="3">
         <v>0</v>
@@ -38428,7 +38429,7 @@
         <v>0</v>
       </c>
       <c r="K452" s="3">
-        <v>46699052</v>
+        <v>19683650603</v>
       </c>
       <c r="L452" s="3">
         <v>0</v>
@@ -38504,7 +38505,7 @@
         <v>0</v>
       </c>
       <c r="K453" s="3">
-        <v>54836302</v>
+        <v>25992407536</v>
       </c>
       <c r="L453" s="3">
         <v>0</v>
@@ -38580,7 +38581,7 @@
         <v>0</v>
       </c>
       <c r="K454" s="3">
-        <v>57437215</v>
+        <v>27225240320</v>
       </c>
       <c r="L454" s="3">
         <v>0</v>
@@ -38656,7 +38657,7 @@
         <v>0</v>
       </c>
       <c r="K455" s="3">
-        <v>62343021</v>
+        <v>29550592190</v>
       </c>
       <c r="L455" s="3">
         <v>0</v>
@@ -38732,7 +38733,7 @@
         <v>0</v>
       </c>
       <c r="K456" s="3">
-        <v>71097841</v>
+        <v>37433013578</v>
       </c>
       <c r="L456" s="3">
         <v>0</v>
@@ -38808,7 +38809,7 @@
         <v>0</v>
       </c>
       <c r="K457" s="3">
-        <v>80772978</v>
+        <v>42526973012</v>
       </c>
       <c r="L457" s="3">
         <v>0</v>
@@ -38884,7 +38885,7 @@
         <v>0</v>
       </c>
       <c r="K458" s="3">
-        <v>90337755</v>
+        <v>47562828185</v>
       </c>
       <c r="L458" s="3">
         <v>0</v>
@@ -38960,7 +38961,7 @@
         <v>0</v>
       </c>
       <c r="K459" s="3">
-        <v>101936422</v>
+        <v>59021188752</v>
       </c>
       <c r="L459" s="3">
         <v>0</v>
@@ -39036,7 +39037,7 @@
         <v>0</v>
       </c>
       <c r="K460" s="3">
-        <v>104981420</v>
+        <v>60784242482</v>
       </c>
       <c r="L460" s="3">
         <v>0</v>
@@ -39112,7 +39113,7 @@
         <v>0</v>
       </c>
       <c r="K461" s="3">
-        <v>120732871</v>
+        <v>69904332792</v>
       </c>
       <c r="L461" s="3">
         <v>0</v>
@@ -39188,7 +39189,7 @@
         <v>0</v>
       </c>
       <c r="K462" s="3">
-        <v>124753366</v>
+        <v>72232199397</v>
       </c>
       <c r="L462" s="3">
         <v>0</v>
@@ -39264,7 +39265,7 @@
         <v>0</v>
       </c>
       <c r="K463" s="3">
-        <v>128542890</v>
+        <v>74426333548</v>
       </c>
       <c r="L463" s="3">
         <v>0</v>
@@ -39340,7 +39341,7 @@
         <v>0</v>
       </c>
       <c r="K464" s="3">
-        <v>152029040</v>
+        <v>96006339118</v>
       </c>
       <c r="L464" s="3">
         <v>0</v>
@@ -39416,7 +39417,7 @@
         <v>0</v>
       </c>
       <c r="K465" s="3">
-        <v>153056226</v>
+        <v>96655006849</v>
       </c>
       <c r="L465" s="3">
         <v>0</v>
@@ -39492,7 +39493,7 @@
         <v>0</v>
       </c>
       <c r="K466" s="3">
-        <v>172031544</v>
+        <v>108637920190</v>
       </c>
       <c r="L466" s="3">
         <v>0</v>
@@ -39568,7 +39569,7 @@
         <v>0</v>
       </c>
       <c r="K467" s="3">
-        <v>181465689</v>
+        <v>114595583014</v>
       </c>
       <c r="L467" s="3">
         <v>0</v>
@@ -39644,7 +39645,7 @@
         <v>0</v>
       </c>
       <c r="K468" s="3">
-        <v>186099031</v>
+        <v>117521538604</v>
       </c>
       <c r="L468" s="3">
         <v>0</v>
@@ -39720,7 +39721,7 @@
         <v>0</v>
       </c>
       <c r="K469" s="3">
-        <v>191005616</v>
+        <v>120620046782</v>
       </c>
       <c r="L469" s="3">
         <v>0</v>
@@ -39796,7 +39797,7 @@
         <v>0</v>
       </c>
       <c r="K470" s="3">
-        <v>202178781</v>
+        <v>127675900608</v>
       </c>
       <c r="L470" s="3">
         <v>0</v>
@@ -39872,7 +39873,7 @@
         <v>0</v>
       </c>
       <c r="K471" s="3">
-        <v>224598701</v>
+        <v>141834080174</v>
       </c>
       <c r="L471" s="3">
         <v>0</v>
@@ -39948,7 +39949,7 @@
         <v>0</v>
       </c>
       <c r="K472" s="3">
-        <v>230450717</v>
+        <v>145529628203</v>
       </c>
       <c r="L472" s="3">
         <v>0</v>
@@ -40024,7 +40025,7 @@
         <v>0</v>
       </c>
       <c r="K473" s="3">
-        <v>255405457</v>
+        <v>161288546655</v>
       </c>
       <c r="L473" s="3">
         <v>0</v>
@@ -40100,7 +40101,7 @@
         <v>0</v>
       </c>
       <c r="K474" s="3">
-        <v>272553398</v>
+        <v>172117471145</v>
       </c>
       <c r="L474" s="3">
         <v>0</v>
@@ -40176,7 +40177,7 @@
         <v>0</v>
       </c>
       <c r="K475" s="3">
-        <v>286856729</v>
+        <v>181150024723</v>
       </c>
       <c r="L475" s="3">
         <v>0</v>
@@ -40252,7 +40253,7 @@
         <v>0</v>
       </c>
       <c r="K476" s="3">
-        <v>296749297</v>
+        <v>187397181324</v>
       </c>
       <c r="L476" s="3">
         <v>0</v>
@@ -40328,7 +40329,7 @@
         <v>0</v>
       </c>
       <c r="K477" s="3">
-        <v>299985486</v>
+        <v>189440834908</v>
       </c>
       <c r="L477" s="3">
         <v>0</v>
@@ -40404,7 +40405,7 @@
         <v>0</v>
       </c>
       <c r="K478" s="3">
-        <v>303228537</v>
+        <v>191488821365</v>
       </c>
       <c r="L478" s="3">
         <v>0</v>
@@ -40480,7 +40481,7 @@
         <v>0</v>
       </c>
       <c r="K479" s="3">
-        <v>336507793</v>
+        <v>212504671519</v>
       </c>
       <c r="L479" s="3">
         <v>0</v>
@@ -40556,7 +40557,7 @@
         <v>0</v>
       </c>
       <c r="K480" s="3">
-        <v>342264649</v>
+        <v>216140126070</v>
       </c>
       <c r="L480" s="3">
         <v>0</v>
@@ -40632,7 +40633,7 @@
         <v>0</v>
       </c>
       <c r="K481" s="3">
-        <v>363674981</v>
+        <v>229660750773</v>
       </c>
       <c r="L481" s="3">
         <v>0</v>
@@ -40708,7 +40709,7 @@
         <v>0</v>
       </c>
       <c r="K482" s="3">
-        <v>375888380</v>
+        <v>237373512138</v>
       </c>
       <c r="L482" s="3">
         <v>0</v>
@@ -40784,7 +40785,7 @@
         <v>0</v>
       </c>
       <c r="K483" s="3">
-        <v>379644334</v>
+        <v>239745397236</v>
       </c>
       <c r="L483" s="3">
         <v>0</v>
@@ -40860,7 +40861,7 @@
         <v>0</v>
       </c>
       <c r="K484" s="3">
-        <v>415349976</v>
+        <v>262293510315</v>
       </c>
       <c r="L484" s="3">
         <v>0</v>
@@ -40936,7 +40937,7 @@
         <v>0</v>
       </c>
       <c r="K485" s="3">
-        <v>432833578</v>
+        <v>273334404875</v>
       </c>
       <c r="L485" s="3">
         <v>0</v>
@@ -41012,7 +41013,7 @@
         <v>0</v>
       </c>
       <c r="K486" s="3">
-        <v>436594257</v>
+        <v>275709273896</v>
       </c>
       <c r="L486" s="3">
         <v>0</v>
@@ -41088,7 +41089,7 @@
         <v>0</v>
       </c>
       <c r="K487" s="3">
-        <v>440798654</v>
+        <v>278364350249</v>
       </c>
       <c r="L487" s="3">
         <v>0</v>
@@ -41164,7 +41165,7 @@
         <v>0</v>
       </c>
       <c r="K488" s="3">
-        <v>445003018</v>
+        <v>281019406111</v>
       </c>
       <c r="L488" s="3">
         <v>0</v>
@@ -41240,7 +41241,7 @@
         <v>0</v>
       </c>
       <c r="K489" s="3">
-        <v>449207993</v>
+        <v>283674847660</v>
       </c>
       <c r="L489" s="3">
         <v>0</v>
@@ -41316,7 +41317,7 @@
         <v>0</v>
       </c>
       <c r="K490" s="3">
-        <v>453412585</v>
+        <v>286330047746</v>
       </c>
       <c r="L490" s="3">
         <v>0</v>
@@ -41392,7 +41393,7 @@
         <v>0</v>
       </c>
       <c r="K491" s="3">
-        <v>457173381</v>
+        <v>288704990124</v>
       </c>
       <c r="L491" s="3">
         <v>0</v>
@@ -41468,7 +41469,7 @@
         <v>0</v>
       </c>
       <c r="K492" s="3">
-        <v>461377669</v>
+        <v>291359998573</v>
       </c>
       <c r="L492" s="3">
         <v>0</v>
@@ -41544,7 +41545,7 @@
         <v>0</v>
       </c>
       <c r="K493" s="3">
-        <v>465581931</v>
+        <v>294014989500</v>
       </c>
       <c r="L493" s="3">
         <v>0</v>
@@ -41620,7 +41621,7 @@
         <v>0</v>
       </c>
       <c r="K494" s="3">
-        <v>469786165</v>
+        <v>296669963601</v>
       </c>
       <c r="L494" s="3">
         <v>0</v>
@@ -41696,7 +41697,7 @@
         <v>0</v>
       </c>
       <c r="K495" s="3">
-        <v>473990399</v>
+        <v>299324937702</v>
       </c>
       <c r="L495" s="3">
         <v>0</v>

--- a/Excel/monster.怪物.xlsx
+++ b/Excel/monster.怪物.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57850A2-EC0F-4F4B-8507-45CEA8BCC956}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E930DF-E068-4BAD-A067-69EF4274DDA2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1642,7 +1642,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
@@ -1661,6 +1661,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="4" applyNumberFormat="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -4059,10 +4062,10 @@
   <dimension ref="A1:AD495"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="I478" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D240" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O487" sqref="O487"/>
+      <selection pane="bottomRight" activeCell="F250" sqref="F250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4375,7 +4378,7 @@
       <c r="G4" s="3">
         <v>60</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="4" t="s">
@@ -4451,7 +4454,7 @@
       <c r="G5" s="3">
         <v>90</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="4" t="s">
@@ -4527,7 +4530,7 @@
       <c r="G6" s="3">
         <v>120</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="4" t="s">
@@ -4603,7 +4606,7 @@
       <c r="G7" s="3">
         <v>138</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="4" t="s">
@@ -4679,7 +4682,7 @@
       <c r="G8" s="3">
         <v>156</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="7">
         <v>0</v>
       </c>
       <c r="I8" s="4" t="s">
@@ -4755,7 +4758,7 @@
       <c r="G9" s="3">
         <v>180</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="7">
         <v>0</v>
       </c>
       <c r="I9" s="4" t="s">
@@ -4831,7 +4834,7 @@
       <c r="G10" s="3">
         <v>198</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="7">
         <v>0</v>
       </c>
       <c r="I10" s="4" t="s">
@@ -4907,7 +4910,7 @@
       <c r="G11" s="3">
         <v>216</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="7">
         <v>0</v>
       </c>
       <c r="I11" s="4" t="s">
@@ -4983,7 +4986,7 @@
       <c r="G12" s="3">
         <v>240</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="7">
         <v>0</v>
       </c>
       <c r="I12" s="4" t="s">
@@ -5059,7 +5062,7 @@
       <c r="G13" s="3">
         <v>270</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="7">
         <v>0</v>
       </c>
       <c r="I13" s="4" t="s">
@@ -5135,7 +5138,7 @@
       <c r="G14" s="3">
         <v>330</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="7">
         <v>0</v>
       </c>
       <c r="I14" s="4" t="s">
@@ -5211,7 +5214,7 @@
       <c r="G15" s="3">
         <v>360</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="7">
         <v>0</v>
       </c>
       <c r="I15" s="4" t="s">
@@ -5287,7 +5290,7 @@
       <c r="G16" s="3">
         <v>420</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="7">
         <v>0</v>
       </c>
       <c r="I16" s="4" t="s">
@@ -5363,7 +5366,7 @@
       <c r="G17" s="3">
         <v>480</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="7">
         <v>0</v>
       </c>
       <c r="I17" s="4" t="s">
@@ -5439,7 +5442,7 @@
       <c r="G18" s="3">
         <v>600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="7">
         <v>0</v>
       </c>
       <c r="I18" s="4" t="s">
@@ -5515,7 +5518,7 @@
       <c r="G19" s="3">
         <v>720</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="7">
         <v>0</v>
       </c>
       <c r="I19" s="4" t="s">
@@ -5591,7 +5594,7 @@
       <c r="G20" s="3">
         <v>900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="7">
         <v>0</v>
       </c>
       <c r="I20" s="4" t="s">
@@ -5667,7 +5670,7 @@
       <c r="G21" s="3">
         <v>1080</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="7">
         <v>0</v>
       </c>
       <c r="I21" s="4" t="s">
@@ -5743,7 +5746,7 @@
       <c r="G22" s="3">
         <v>1320</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="7">
         <v>0</v>
       </c>
       <c r="I22" s="4" t="s">
@@ -5819,7 +5822,7 @@
       <c r="G23" s="3">
         <v>1740</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="7">
         <v>0</v>
       </c>
       <c r="I23" s="4" t="s">
@@ -5895,7 +5898,7 @@
       <c r="G24" s="3">
         <v>2160</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="7">
         <v>0</v>
       </c>
       <c r="I24" s="4" t="s">
@@ -5971,7 +5974,7 @@
       <c r="G25" s="3">
         <v>2700</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="7">
         <v>0</v>
       </c>
       <c r="I25" s="4" t="s">
@@ -6047,7 +6050,7 @@
       <c r="G26" s="3">
         <v>3300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="7">
         <v>0</v>
       </c>
       <c r="I26" s="4" t="s">
@@ -6123,7 +6126,7 @@
       <c r="G27" s="3">
         <v>4200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="7">
         <v>0</v>
       </c>
       <c r="I27" s="4" t="s">
@@ -6199,7 +6202,7 @@
       <c r="G28" s="3">
         <v>5100</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="7">
         <v>0</v>
       </c>
       <c r="I28" s="4" t="s">
@@ -6275,7 +6278,7 @@
       <c r="G29" s="3">
         <v>6000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="7">
         <v>0</v>
       </c>
       <c r="I29" s="4" t="s">
@@ -6351,7 +6354,7 @@
       <c r="G30" s="3">
         <v>7200</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="7">
         <v>0</v>
       </c>
       <c r="I30" s="4" t="s">
@@ -6427,7 +6430,7 @@
       <c r="G31" s="3">
         <v>8400</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="7">
         <v>0</v>
       </c>
       <c r="I31" s="4" t="s">
@@ -6503,7 +6506,7 @@
       <c r="G32" s="3">
         <v>9600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="7">
         <v>0</v>
       </c>
       <c r="I32" s="4" t="s">
@@ -6579,7 +6582,7 @@
       <c r="G33" s="3">
         <v>10800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="7">
         <v>0</v>
       </c>
       <c r="I33" s="4" t="s">
@@ -6655,7 +6658,7 @@
       <c r="G34" s="3">
         <v>12000</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="7">
         <v>0</v>
       </c>
       <c r="I34" s="4" t="s">
@@ -6731,7 +6734,7 @@
       <c r="G35" s="3">
         <v>13500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="7">
         <v>0</v>
       </c>
       <c r="I35" s="4" t="s">
@@ -6807,7 +6810,7 @@
       <c r="G36" s="3">
         <v>15000</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H36" s="7">
         <v>0</v>
       </c>
       <c r="I36" s="4" t="s">
@@ -6883,7 +6886,7 @@
       <c r="G37" s="3">
         <v>16500</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H37" s="7">
         <v>0</v>
       </c>
       <c r="I37" s="4" t="s">
@@ -6959,7 +6962,7 @@
       <c r="G38" s="3">
         <v>18000</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38" s="7">
         <v>0</v>
       </c>
       <c r="I38" s="4" t="s">
@@ -7035,7 +7038,7 @@
       <c r="G39" s="3">
         <v>20400</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39" s="7">
         <v>0</v>
       </c>
       <c r="I39" s="4" t="s">
@@ -7111,7 +7114,7 @@
       <c r="G40" s="3">
         <v>22800</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H40" s="7">
         <v>0</v>
       </c>
       <c r="I40" s="4" t="s">
@@ -7187,7 +7190,7 @@
       <c r="G41" s="3">
         <v>25200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H41" s="7">
         <v>0</v>
       </c>
       <c r="I41" s="4" t="s">
@@ -7263,7 +7266,7 @@
       <c r="G42" s="3">
         <v>27600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="7">
         <v>0</v>
       </c>
       <c r="I42" s="4" t="s">
@@ -7339,7 +7342,7 @@
       <c r="G43" s="3">
         <v>30000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43" s="7">
         <v>0</v>
       </c>
       <c r="I43" s="4" t="s">
@@ -7415,7 +7418,7 @@
       <c r="G44" s="3">
         <v>33000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" s="7">
         <v>0</v>
       </c>
       <c r="I44" s="4" t="s">
@@ -7491,7 +7494,7 @@
       <c r="G45" s="3">
         <v>36000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H45" s="7">
         <v>0</v>
       </c>
       <c r="I45" s="4" t="s">
@@ -7567,7 +7570,7 @@
       <c r="G46" s="3">
         <v>39000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="H46" s="7">
         <v>0</v>
       </c>
       <c r="I46" s="4" t="s">
@@ -7643,7 +7646,7 @@
       <c r="G47" s="3">
         <v>42000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="7">
         <v>0</v>
       </c>
       <c r="I47" s="4" t="s">
@@ -7719,7 +7722,7 @@
       <c r="G48" s="3">
         <v>45000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H48" s="7">
         <v>0</v>
       </c>
       <c r="I48" s="4" t="s">
@@ -7795,7 +7798,7 @@
       <c r="G49" s="3">
         <v>48000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="7">
         <v>0</v>
       </c>
       <c r="I49" s="4" t="s">
@@ -7871,7 +7874,7 @@
       <c r="G50" s="3">
         <v>51000</v>
       </c>
-      <c r="H50" s="3">
+      <c r="H50" s="7">
         <v>0</v>
       </c>
       <c r="I50" s="4" t="s">
@@ -7947,7 +7950,7 @@
       <c r="G51" s="3">
         <v>54000</v>
       </c>
-      <c r="H51" s="3">
+      <c r="H51" s="7">
         <v>0</v>
       </c>
       <c r="I51" s="4" t="s">
@@ -8023,7 +8026,7 @@
       <c r="G52" s="3">
         <v>57000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="7">
         <v>0</v>
       </c>
       <c r="I52" s="4" t="s">
@@ -8099,7 +8102,7 @@
       <c r="G53" s="3">
         <v>60000</v>
       </c>
-      <c r="H53" s="3">
+      <c r="H53" s="7">
         <v>0</v>
       </c>
       <c r="I53" s="4" t="s">
@@ -8175,7 +8178,7 @@
       <c r="G54" s="3">
         <v>66000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="H54" s="7">
         <v>0</v>
       </c>
       <c r="I54" s="4" t="s">
@@ -8251,7 +8254,7 @@
       <c r="G55" s="3">
         <v>72000</v>
       </c>
-      <c r="H55" s="3">
+      <c r="H55" s="7">
         <v>0</v>
       </c>
       <c r="I55" s="4" t="s">
@@ -8327,7 +8330,7 @@
       <c r="G56" s="3">
         <v>78000</v>
       </c>
-      <c r="H56" s="3">
+      <c r="H56" s="7">
         <v>0</v>
       </c>
       <c r="I56" s="4" t="s">
@@ -8403,7 +8406,7 @@
       <c r="G57" s="3">
         <v>84000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="H57" s="7">
         <v>0</v>
       </c>
       <c r="I57" s="4" t="s">
@@ -8479,7 +8482,7 @@
       <c r="G58" s="3">
         <v>90000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="7">
         <v>0</v>
       </c>
       <c r="I58" s="4" t="s">
@@ -8555,7 +8558,7 @@
       <c r="G59" s="3">
         <v>96000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="H59" s="7">
         <v>0</v>
       </c>
       <c r="I59" s="4" t="s">
@@ -8631,7 +8634,7 @@
       <c r="G60" s="3">
         <v>102000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="H60" s="7">
         <v>0</v>
       </c>
       <c r="I60" s="4" t="s">
@@ -8707,7 +8710,7 @@
       <c r="G61" s="3">
         <v>108000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="H61" s="7">
         <v>0</v>
       </c>
       <c r="I61" s="4" t="s">
@@ -8783,7 +8786,7 @@
       <c r="G62" s="3">
         <v>114000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="H62" s="7">
         <v>0</v>
       </c>
       <c r="I62" s="4" t="s">
@@ -8859,7 +8862,7 @@
       <c r="G63" s="3">
         <v>120000</v>
       </c>
-      <c r="H63" s="3">
+      <c r="H63" s="7">
         <v>0</v>
       </c>
       <c r="I63" s="4" t="s">
@@ -8935,7 +8938,7 @@
       <c r="G64" s="3">
         <v>126000</v>
       </c>
-      <c r="H64" s="3">
+      <c r="H64" s="7">
         <v>0</v>
       </c>
       <c r="I64" s="4" t="s">
@@ -9011,7 +9014,7 @@
       <c r="G65" s="3">
         <v>127500</v>
       </c>
-      <c r="H65" s="3">
+      <c r="H65" s="7">
         <v>0</v>
       </c>
       <c r="I65" s="4" t="s">
@@ -9087,7 +9090,7 @@
       <c r="G66" s="3">
         <v>129000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="H66" s="7">
         <v>0</v>
       </c>
       <c r="I66" s="4" t="s">
@@ -9163,7 +9166,7 @@
       <c r="G67" s="3">
         <v>130500</v>
       </c>
-      <c r="H67" s="3">
+      <c r="H67" s="7">
         <v>0</v>
       </c>
       <c r="I67" s="4" t="s">
@@ -9239,7 +9242,7 @@
       <c r="G68" s="3">
         <v>132000</v>
       </c>
-      <c r="H68" s="3">
+      <c r="H68" s="7">
         <v>0</v>
       </c>
       <c r="I68" s="4" t="s">
@@ -9315,7 +9318,7 @@
       <c r="G69" s="3">
         <v>133500</v>
       </c>
-      <c r="H69" s="3">
+      <c r="H69" s="7">
         <v>0</v>
       </c>
       <c r="I69" s="4" t="s">
@@ -9391,7 +9394,7 @@
       <c r="G70" s="3">
         <v>135000</v>
       </c>
-      <c r="H70" s="3">
+      <c r="H70" s="7">
         <v>0</v>
       </c>
       <c r="I70" s="4" t="s">
@@ -9467,7 +9470,7 @@
       <c r="G71" s="3">
         <v>136500</v>
       </c>
-      <c r="H71" s="3">
+      <c r="H71" s="7">
         <v>0</v>
       </c>
       <c r="I71" s="4" t="s">
@@ -9543,7 +9546,7 @@
       <c r="G72" s="3">
         <v>138000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="H72" s="7">
         <v>0</v>
       </c>
       <c r="I72" s="4" t="s">
@@ -9619,7 +9622,7 @@
       <c r="G73" s="3">
         <v>139500</v>
       </c>
-      <c r="H73" s="3">
+      <c r="H73" s="7">
         <v>0</v>
       </c>
       <c r="I73" s="4" t="s">
@@ -9695,7 +9698,7 @@
       <c r="G74" s="3">
         <v>141000</v>
       </c>
-      <c r="H74" s="3">
+      <c r="H74" s="7">
         <v>0</v>
       </c>
       <c r="I74" s="4" t="s">
@@ -9771,7 +9774,7 @@
       <c r="G75" s="3">
         <v>142500</v>
       </c>
-      <c r="H75" s="3">
+      <c r="H75" s="7">
         <v>0</v>
       </c>
       <c r="I75" s="4" t="s">
@@ -9847,7 +9850,7 @@
       <c r="G76" s="3">
         <v>144000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="H76" s="7">
         <v>0</v>
       </c>
       <c r="I76" s="4" t="s">
@@ -9923,7 +9926,7 @@
       <c r="G77" s="3">
         <v>145500</v>
       </c>
-      <c r="H77" s="3">
+      <c r="H77" s="7">
         <v>0</v>
       </c>
       <c r="I77" s="4" t="s">
@@ -9999,7 +10002,7 @@
       <c r="G78" s="3">
         <v>147000</v>
       </c>
-      <c r="H78" s="3">
+      <c r="H78" s="7">
         <v>0</v>
       </c>
       <c r="I78" s="4" t="s">
@@ -10075,7 +10078,7 @@
       <c r="G79" s="3">
         <v>148500</v>
       </c>
-      <c r="H79" s="3">
+      <c r="H79" s="7">
         <v>0</v>
       </c>
       <c r="I79" s="4" t="s">
@@ -10151,7 +10154,7 @@
       <c r="G80" s="3">
         <v>150000</v>
       </c>
-      <c r="H80" s="3">
+      <c r="H80" s="7">
         <v>0</v>
       </c>
       <c r="I80" s="4" t="s">
@@ -10227,7 +10230,7 @@
       <c r="G81" s="3">
         <v>151500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="H81" s="7">
         <v>0</v>
       </c>
       <c r="I81" s="4" t="s">
@@ -10303,7 +10306,7 @@
       <c r="G82" s="3">
         <v>153000</v>
       </c>
-      <c r="H82" s="3">
+      <c r="H82" s="7">
         <v>0</v>
       </c>
       <c r="I82" s="4" t="s">
@@ -10379,7 +10382,7 @@
       <c r="G83" s="3">
         <v>154500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="H83" s="7">
         <v>0</v>
       </c>
       <c r="I83" s="4" t="s">
@@ -10455,7 +10458,7 @@
       <c r="G84" s="3">
         <v>156000</v>
       </c>
-      <c r="H84" s="3">
+      <c r="H84" s="7">
         <v>0</v>
       </c>
       <c r="I84" s="4" t="s">
@@ -10531,7 +10534,7 @@
       <c r="G85" s="3">
         <v>156000</v>
       </c>
-      <c r="H85" s="3">
+      <c r="H85" s="7">
         <v>0</v>
       </c>
       <c r="I85" s="4" t="s">
@@ -10607,7 +10610,7 @@
       <c r="G86" s="3">
         <v>90</v>
       </c>
-      <c r="H86" s="3">
+      <c r="H86" s="7">
         <v>0</v>
       </c>
       <c r="I86" s="4" t="s">
@@ -10683,7 +10686,7 @@
       <c r="G87" s="3">
         <v>136</v>
       </c>
-      <c r="H87" s="3">
+      <c r="H87" s="7">
         <v>0</v>
       </c>
       <c r="I87" s="4" t="s">
@@ -10759,7 +10762,7 @@
       <c r="G88" s="3">
         <v>180</v>
       </c>
-      <c r="H88" s="3">
+      <c r="H88" s="7">
         <v>0</v>
       </c>
       <c r="I88" s="4" t="s">
@@ -10835,7 +10838,7 @@
       <c r="G89" s="3">
         <v>208</v>
       </c>
-      <c r="H89" s="3">
+      <c r="H89" s="7">
         <v>0</v>
       </c>
       <c r="I89" s="4" t="s">
@@ -10911,7 +10914,7 @@
       <c r="G90" s="3">
         <v>234</v>
       </c>
-      <c r="H90" s="3">
+      <c r="H90" s="7">
         <v>0</v>
       </c>
       <c r="I90" s="4" t="s">
@@ -10987,7 +10990,7 @@
       <c r="G91" s="3">
         <v>270</v>
       </c>
-      <c r="H91" s="3">
+      <c r="H91" s="7">
         <v>0</v>
       </c>
       <c r="I91" s="4" t="s">
@@ -11063,7 +11066,7 @@
       <c r="G92" s="3">
         <v>298</v>
       </c>
-      <c r="H92" s="3">
+      <c r="H92" s="7">
         <v>0</v>
       </c>
       <c r="I92" s="4" t="s">
@@ -11139,7 +11142,7 @@
       <c r="G93" s="3">
         <v>324</v>
       </c>
-      <c r="H93" s="3">
+      <c r="H93" s="7">
         <v>0</v>
       </c>
       <c r="I93" s="4" t="s">
@@ -11215,7 +11218,7 @@
       <c r="G94" s="3">
         <v>360</v>
       </c>
-      <c r="H94" s="3">
+      <c r="H94" s="7">
         <v>0</v>
       </c>
       <c r="I94" s="4" t="s">
@@ -11291,7 +11294,7 @@
       <c r="G95" s="3">
         <v>406</v>
       </c>
-      <c r="H95" s="3">
+      <c r="H95" s="7">
         <v>0</v>
       </c>
       <c r="I95" s="4" t="s">
@@ -11367,7 +11370,7 @@
       <c r="G96" s="3">
         <v>496</v>
       </c>
-      <c r="H96" s="3">
+      <c r="H96" s="7">
         <v>0</v>
       </c>
       <c r="I96" s="4" t="s">
@@ -11443,7 +11446,7 @@
       <c r="G97" s="3">
         <v>540</v>
       </c>
-      <c r="H97" s="3">
+      <c r="H97" s="7">
         <v>0</v>
       </c>
       <c r="I97" s="4" t="s">
@@ -11519,7 +11522,7 @@
       <c r="G98" s="3">
         <v>630</v>
       </c>
-      <c r="H98" s="3">
+      <c r="H98" s="7">
         <v>0</v>
       </c>
       <c r="I98" s="4" t="s">
@@ -11595,7 +11598,7 @@
       <c r="G99" s="3">
         <v>720</v>
       </c>
-      <c r="H99" s="3">
+      <c r="H99" s="7">
         <v>0</v>
       </c>
       <c r="I99" s="4" t="s">
@@ -11671,7 +11674,7 @@
       <c r="G100" s="3">
         <v>900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="H100" s="7">
         <v>0</v>
       </c>
       <c r="I100" s="4" t="s">
@@ -11747,7 +11750,7 @@
       <c r="G101" s="3">
         <v>1080</v>
       </c>
-      <c r="H101" s="3">
+      <c r="H101" s="7">
         <v>0</v>
       </c>
       <c r="I101" s="4" t="s">
@@ -11823,7 +11826,7 @@
       <c r="G102" s="3">
         <v>1350</v>
       </c>
-      <c r="H102" s="3">
+      <c r="H102" s="7">
         <v>0</v>
       </c>
       <c r="I102" s="4" t="s">
@@ -11899,7 +11902,7 @@
       <c r="G103" s="3">
         <v>1620</v>
       </c>
-      <c r="H103" s="3">
+      <c r="H103" s="7">
         <v>0</v>
       </c>
       <c r="I103" s="4" t="s">
@@ -11975,7 +11978,7 @@
       <c r="G104" s="3">
         <v>1980</v>
       </c>
-      <c r="H104" s="3">
+      <c r="H104" s="7">
         <v>0</v>
       </c>
       <c r="I104" s="4" t="s">
@@ -12051,7 +12054,7 @@
       <c r="G105" s="3">
         <v>2610</v>
       </c>
-      <c r="H105" s="3">
+      <c r="H105" s="7">
         <v>0</v>
       </c>
       <c r="I105" s="4" t="s">
@@ -12127,7 +12130,7 @@
       <c r="G106" s="3">
         <v>3240</v>
       </c>
-      <c r="H106" s="3">
+      <c r="H106" s="7">
         <v>0</v>
       </c>
       <c r="I106" s="4" t="s">
@@ -12203,7 +12206,7 @@
       <c r="G107" s="3">
         <v>4050</v>
       </c>
-      <c r="H107" s="3">
+      <c r="H107" s="7">
         <v>0</v>
       </c>
       <c r="I107" s="4" t="s">
@@ -12279,7 +12282,7 @@
       <c r="G108" s="3">
         <v>4950</v>
       </c>
-      <c r="H108" s="3">
+      <c r="H108" s="7">
         <v>0</v>
       </c>
       <c r="I108" s="4" t="s">
@@ -12355,7 +12358,7 @@
       <c r="G109" s="3">
         <v>6300</v>
       </c>
-      <c r="H109" s="3">
+      <c r="H109" s="7">
         <v>0</v>
       </c>
       <c r="I109" s="4" t="s">
@@ -12431,7 +12434,7 @@
       <c r="G110" s="3">
         <v>7650</v>
       </c>
-      <c r="H110" s="3">
+      <c r="H110" s="7">
         <v>0</v>
       </c>
       <c r="I110" s="4" t="s">
@@ -12507,7 +12510,7 @@
       <c r="G111" s="3">
         <v>9000</v>
       </c>
-      <c r="H111" s="3">
+      <c r="H111" s="7">
         <v>0</v>
       </c>
       <c r="I111" s="4" t="s">
@@ -12583,7 +12586,7 @@
       <c r="G112" s="3">
         <v>10800</v>
       </c>
-      <c r="H112" s="3">
+      <c r="H112" s="7">
         <v>0</v>
       </c>
       <c r="I112" s="4" t="s">
@@ -12659,7 +12662,7 @@
       <c r="G113" s="3">
         <v>12600</v>
       </c>
-      <c r="H113" s="3">
+      <c r="H113" s="7">
         <v>0</v>
       </c>
       <c r="I113" s="4" t="s">
@@ -12735,7 +12738,7 @@
       <c r="G114" s="3">
         <v>14400</v>
       </c>
-      <c r="H114" s="3">
+      <c r="H114" s="7">
         <v>0</v>
       </c>
       <c r="I114" s="4" t="s">
@@ -12811,7 +12814,7 @@
       <c r="G115" s="3">
         <v>16200</v>
       </c>
-      <c r="H115" s="3">
+      <c r="H115" s="7">
         <v>0</v>
       </c>
       <c r="I115" s="4" t="s">
@@ -12887,7 +12890,7 @@
       <c r="G116" s="3">
         <v>18000</v>
       </c>
-      <c r="H116" s="3">
+      <c r="H116" s="7">
         <v>0</v>
       </c>
       <c r="I116" s="4" t="s">
@@ -12963,7 +12966,7 @@
       <c r="G117" s="3">
         <v>20250</v>
       </c>
-      <c r="H117" s="3">
+      <c r="H117" s="7">
         <v>0</v>
       </c>
       <c r="I117" s="4" t="s">
@@ -13039,7 +13042,7 @@
       <c r="G118" s="3">
         <v>22500</v>
       </c>
-      <c r="H118" s="3">
+      <c r="H118" s="7">
         <v>0</v>
       </c>
       <c r="I118" s="4" t="s">
@@ -13115,7 +13118,7 @@
       <c r="G119" s="3">
         <v>24750</v>
       </c>
-      <c r="H119" s="3">
+      <c r="H119" s="7">
         <v>0</v>
       </c>
       <c r="I119" s="4" t="s">
@@ -13191,7 +13194,7 @@
       <c r="G120" s="3">
         <v>27000</v>
       </c>
-      <c r="H120" s="3">
+      <c r="H120" s="7">
         <v>0</v>
       </c>
       <c r="I120" s="4" t="s">
@@ -13267,7 +13270,7 @@
       <c r="G121" s="3">
         <v>30600</v>
       </c>
-      <c r="H121" s="3">
+      <c r="H121" s="7">
         <v>0</v>
       </c>
       <c r="I121" s="4" t="s">
@@ -13343,7 +13346,7 @@
       <c r="G122" s="3">
         <v>34200</v>
       </c>
-      <c r="H122" s="3">
+      <c r="H122" s="7">
         <v>0</v>
       </c>
       <c r="I122" s="4" t="s">
@@ -13419,7 +13422,7 @@
       <c r="G123" s="3">
         <v>37800</v>
       </c>
-      <c r="H123" s="3">
+      <c r="H123" s="7">
         <v>0</v>
       </c>
       <c r="I123" s="4" t="s">
@@ -13495,7 +13498,7 @@
       <c r="G124" s="3">
         <v>41400</v>
       </c>
-      <c r="H124" s="3">
+      <c r="H124" s="7">
         <v>0</v>
       </c>
       <c r="I124" s="4" t="s">
@@ -13571,7 +13574,7 @@
       <c r="G125" s="3">
         <v>45000</v>
       </c>
-      <c r="H125" s="3">
+      <c r="H125" s="7">
         <v>0</v>
       </c>
       <c r="I125" s="4" t="s">
@@ -13647,7 +13650,7 @@
       <c r="G126" s="3">
         <v>49500</v>
       </c>
-      <c r="H126" s="3">
+      <c r="H126" s="7">
         <v>0</v>
       </c>
       <c r="I126" s="4" t="s">
@@ -13723,7 +13726,7 @@
       <c r="G127" s="3">
         <v>54000</v>
       </c>
-      <c r="H127" s="3">
+      <c r="H127" s="7">
         <v>0</v>
       </c>
       <c r="I127" s="4" t="s">
@@ -13799,7 +13802,7 @@
       <c r="G128" s="3">
         <v>58500</v>
       </c>
-      <c r="H128" s="3">
+      <c r="H128" s="7">
         <v>0</v>
       </c>
       <c r="I128" s="4" t="s">
@@ -13875,7 +13878,7 @@
       <c r="G129" s="3">
         <v>63000</v>
       </c>
-      <c r="H129" s="3">
+      <c r="H129" s="7">
         <v>0</v>
       </c>
       <c r="I129" s="4" t="s">
@@ -13951,7 +13954,7 @@
       <c r="G130" s="3">
         <v>67500</v>
       </c>
-      <c r="H130" s="3">
+      <c r="H130" s="7">
         <v>0</v>
       </c>
       <c r="I130" s="4" t="s">
@@ -14027,7 +14030,7 @@
       <c r="G131" s="3">
         <v>72000</v>
       </c>
-      <c r="H131" s="3">
+      <c r="H131" s="7">
         <v>0</v>
       </c>
       <c r="I131" s="4" t="s">
@@ -14103,7 +14106,7 @@
       <c r="G132" s="3">
         <v>76500</v>
       </c>
-      <c r="H132" s="3">
+      <c r="H132" s="7">
         <v>0</v>
       </c>
       <c r="I132" s="4" t="s">
@@ -14179,7 +14182,7 @@
       <c r="G133" s="3">
         <v>81000</v>
       </c>
-      <c r="H133" s="3">
+      <c r="H133" s="7">
         <v>0</v>
       </c>
       <c r="I133" s="4" t="s">
@@ -14255,7 +14258,7 @@
       <c r="G134" s="3">
         <v>85500</v>
       </c>
-      <c r="H134" s="3">
+      <c r="H134" s="7">
         <v>0</v>
       </c>
       <c r="I134" s="4" t="s">
@@ -14331,7 +14334,7 @@
       <c r="G135" s="3">
         <v>90000</v>
       </c>
-      <c r="H135" s="3">
+      <c r="H135" s="7">
         <v>0</v>
       </c>
       <c r="I135" s="4" t="s">
@@ -14407,7 +14410,7 @@
       <c r="G136" s="3">
         <v>99000</v>
       </c>
-      <c r="H136" s="3">
+      <c r="H136" s="7">
         <v>0</v>
       </c>
       <c r="I136" s="4" t="s">
@@ -14483,7 +14486,7 @@
       <c r="G137" s="3">
         <v>108000</v>
       </c>
-      <c r="H137" s="3">
+      <c r="H137" s="7">
         <v>0</v>
       </c>
       <c r="I137" s="4" t="s">
@@ -14559,7 +14562,7 @@
       <c r="G138" s="3">
         <v>117000</v>
       </c>
-      <c r="H138" s="3">
+      <c r="H138" s="7">
         <v>0</v>
       </c>
       <c r="I138" s="4" t="s">
@@ -14635,7 +14638,7 @@
       <c r="G139" s="3">
         <v>126000</v>
       </c>
-      <c r="H139" s="3">
+      <c r="H139" s="7">
         <v>0</v>
       </c>
       <c r="I139" s="4" t="s">
@@ -14711,7 +14714,7 @@
       <c r="G140" s="3">
         <v>135000</v>
       </c>
-      <c r="H140" s="3">
+      <c r="H140" s="7">
         <v>0</v>
       </c>
       <c r="I140" s="4" t="s">
@@ -14787,7 +14790,7 @@
       <c r="G141" s="3">
         <v>144000</v>
       </c>
-      <c r="H141" s="3">
+      <c r="H141" s="7">
         <v>0</v>
       </c>
       <c r="I141" s="4" t="s">
@@ -14863,7 +14866,7 @@
       <c r="G142" s="3">
         <v>153000</v>
       </c>
-      <c r="H142" s="3">
+      <c r="H142" s="7">
         <v>0</v>
       </c>
       <c r="I142" s="4" t="s">
@@ -14939,7 +14942,7 @@
       <c r="G143" s="3">
         <v>162000</v>
       </c>
-      <c r="H143" s="3">
+      <c r="H143" s="7">
         <v>0</v>
       </c>
       <c r="I143" s="4" t="s">
@@ -15015,7 +15018,7 @@
       <c r="G144" s="3">
         <v>171000</v>
       </c>
-      <c r="H144" s="3">
+      <c r="H144" s="7">
         <v>0</v>
       </c>
       <c r="I144" s="4" t="s">
@@ -15091,7 +15094,7 @@
       <c r="G145" s="3">
         <v>180000</v>
       </c>
-      <c r="H145" s="3">
+      <c r="H145" s="7">
         <v>0</v>
       </c>
       <c r="I145" s="4" t="s">
@@ -15167,7 +15170,7 @@
       <c r="G146" s="3">
         <v>189000</v>
       </c>
-      <c r="H146" s="3">
+      <c r="H146" s="7">
         <v>0</v>
       </c>
       <c r="I146" s="4" t="s">
@@ -15243,7 +15246,7 @@
       <c r="G147" s="3">
         <v>191250</v>
       </c>
-      <c r="H147" s="3">
+      <c r="H147" s="7">
         <v>0</v>
       </c>
       <c r="I147" s="4" t="s">
@@ -15319,7 +15322,7 @@
       <c r="G148" s="3">
         <v>193500</v>
       </c>
-      <c r="H148" s="3">
+      <c r="H148" s="7">
         <v>0</v>
       </c>
       <c r="I148" s="4" t="s">
@@ -15395,7 +15398,7 @@
       <c r="G149" s="3">
         <v>195750</v>
       </c>
-      <c r="H149" s="3">
+      <c r="H149" s="7">
         <v>0</v>
       </c>
       <c r="I149" s="4" t="s">
@@ -15471,7 +15474,7 @@
       <c r="G150" s="3">
         <v>198000</v>
       </c>
-      <c r="H150" s="3">
+      <c r="H150" s="7">
         <v>0</v>
       </c>
       <c r="I150" s="4" t="s">
@@ -15547,7 +15550,7 @@
       <c r="G151" s="3">
         <v>200250</v>
       </c>
-      <c r="H151" s="3">
+      <c r="H151" s="7">
         <v>0</v>
       </c>
       <c r="I151" s="4" t="s">
@@ -15623,7 +15626,7 @@
       <c r="G152" s="3">
         <v>202500</v>
       </c>
-      <c r="H152" s="3">
+      <c r="H152" s="7">
         <v>0</v>
       </c>
       <c r="I152" s="4" t="s">
@@ -15699,7 +15702,7 @@
       <c r="G153" s="3">
         <v>204750</v>
       </c>
-      <c r="H153" s="3">
+      <c r="H153" s="7">
         <v>0</v>
       </c>
       <c r="I153" s="4" t="s">
@@ -15775,7 +15778,7 @@
       <c r="G154" s="3">
         <v>207000</v>
       </c>
-      <c r="H154" s="3">
+      <c r="H154" s="7">
         <v>0</v>
       </c>
       <c r="I154" s="4" t="s">
@@ -15851,7 +15854,7 @@
       <c r="G155" s="3">
         <v>209250</v>
       </c>
-      <c r="H155" s="3">
+      <c r="H155" s="7">
         <v>0</v>
       </c>
       <c r="I155" s="4" t="s">
@@ -15927,7 +15930,7 @@
       <c r="G156" s="3">
         <v>211500</v>
       </c>
-      <c r="H156" s="3">
+      <c r="H156" s="7">
         <v>0</v>
       </c>
       <c r="I156" s="4" t="s">
@@ -16003,7 +16006,7 @@
       <c r="G157" s="3">
         <v>213750</v>
       </c>
-      <c r="H157" s="3">
+      <c r="H157" s="7">
         <v>0</v>
       </c>
       <c r="I157" s="4" t="s">
@@ -16079,7 +16082,7 @@
       <c r="G158" s="3">
         <v>216000</v>
       </c>
-      <c r="H158" s="3">
+      <c r="H158" s="7">
         <v>0</v>
       </c>
       <c r="I158" s="4" t="s">
@@ -16155,7 +16158,7 @@
       <c r="G159" s="3">
         <v>218250</v>
       </c>
-      <c r="H159" s="3">
+      <c r="H159" s="7">
         <v>0</v>
       </c>
       <c r="I159" s="4" t="s">
@@ -16231,7 +16234,7 @@
       <c r="G160" s="3">
         <v>220500</v>
       </c>
-      <c r="H160" s="3">
+      <c r="H160" s="7">
         <v>0</v>
       </c>
       <c r="I160" s="4" t="s">
@@ -16307,7 +16310,7 @@
       <c r="G161" s="3">
         <v>222750</v>
       </c>
-      <c r="H161" s="3">
+      <c r="H161" s="7">
         <v>0</v>
       </c>
       <c r="I161" s="4" t="s">
@@ -16383,7 +16386,7 @@
       <c r="G162" s="3">
         <v>225000</v>
       </c>
-      <c r="H162" s="3">
+      <c r="H162" s="7">
         <v>0</v>
       </c>
       <c r="I162" s="4" t="s">
@@ -16459,7 +16462,7 @@
       <c r="G163" s="3">
         <v>227250</v>
       </c>
-      <c r="H163" s="3">
+      <c r="H163" s="7">
         <v>0</v>
       </c>
       <c r="I163" s="4" t="s">
@@ -16535,7 +16538,7 @@
       <c r="G164" s="3">
         <v>229500</v>
       </c>
-      <c r="H164" s="3">
+      <c r="H164" s="7">
         <v>0</v>
       </c>
       <c r="I164" s="4" t="s">
@@ -16611,7 +16614,7 @@
       <c r="G165" s="3">
         <v>231750</v>
       </c>
-      <c r="H165" s="3">
+      <c r="H165" s="7">
         <v>0</v>
       </c>
       <c r="I165" s="4" t="s">
@@ -16687,7 +16690,7 @@
       <c r="G166" s="3">
         <v>234000</v>
       </c>
-      <c r="H166" s="3">
+      <c r="H166" s="7">
         <v>0</v>
       </c>
       <c r="I166" s="4" t="s">
@@ -16763,7 +16766,7 @@
       <c r="G167" s="3">
         <v>234000</v>
       </c>
-      <c r="H167" s="3">
+      <c r="H167" s="7">
         <v>0</v>
       </c>
       <c r="I167" s="4" t="s">
@@ -16839,7 +16842,7 @@
       <c r="G168" s="3">
         <v>187</v>
       </c>
-      <c r="H168" s="3">
+      <c r="H168" s="7">
         <v>0</v>
       </c>
       <c r="I168" s="4" t="s">
@@ -16915,7 +16918,7 @@
       <c r="G169" s="3">
         <v>281</v>
       </c>
-      <c r="H169" s="3">
+      <c r="H169" s="7">
         <v>0</v>
       </c>
       <c r="I169" s="4" t="s">
@@ -16991,7 +16994,7 @@
       <c r="G170" s="3">
         <v>374</v>
       </c>
-      <c r="H170" s="3">
+      <c r="H170" s="7">
         <v>0</v>
       </c>
       <c r="I170" s="4" t="s">
@@ -17067,7 +17070,7 @@
       <c r="G171" s="3">
         <v>430</v>
       </c>
-      <c r="H171" s="3">
+      <c r="H171" s="7">
         <v>0</v>
       </c>
       <c r="I171" s="4" t="s">
@@ -17143,7 +17146,7 @@
       <c r="G172" s="3">
         <v>486</v>
       </c>
-      <c r="H172" s="3">
+      <c r="H172" s="7">
         <v>0</v>
       </c>
       <c r="I172" s="4" t="s">
@@ -17219,7 +17222,7 @@
       <c r="G173" s="3">
         <v>562</v>
       </c>
-      <c r="H173" s="3">
+      <c r="H173" s="7">
         <v>0</v>
       </c>
       <c r="I173" s="4" t="s">
@@ -17295,7 +17298,7 @@
       <c r="G174" s="3">
         <v>617</v>
       </c>
-      <c r="H174" s="3">
+      <c r="H174" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I174" s="3">
@@ -17371,7 +17374,7 @@
       <c r="G175" s="3">
         <v>673</v>
       </c>
-      <c r="H175" s="3">
+      <c r="H175" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I175" s="3">
@@ -17447,7 +17450,7 @@
       <c r="G176" s="3">
         <v>748</v>
       </c>
-      <c r="H176" s="3">
+      <c r="H176" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I176" s="3">
@@ -17523,7 +17526,7 @@
       <c r="G177" s="3">
         <v>841</v>
       </c>
-      <c r="H177" s="3">
+      <c r="H177" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I177" s="3">
@@ -17599,7 +17602,7 @@
       <c r="G178" s="3">
         <v>1028</v>
       </c>
-      <c r="H178" s="3">
+      <c r="H178" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I178" s="3">
@@ -17675,7 +17678,7 @@
       <c r="G179" s="3">
         <v>1122</v>
       </c>
-      <c r="H179" s="3">
+      <c r="H179" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I179" s="3">
@@ -17751,7 +17754,7 @@
       <c r="G180" s="3">
         <v>1309</v>
       </c>
-      <c r="H180" s="3">
+      <c r="H180" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I180" s="3">
@@ -17827,7 +17830,7 @@
       <c r="G181" s="3">
         <v>1496</v>
       </c>
-      <c r="H181" s="3">
+      <c r="H181" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I181" s="3">
@@ -17903,7 +17906,7 @@
       <c r="G182" s="3">
         <v>1870</v>
       </c>
-      <c r="H182" s="3">
+      <c r="H182" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I182" s="3">
@@ -17979,7 +17982,7 @@
       <c r="G183" s="3">
         <v>2244</v>
       </c>
-      <c r="H183" s="3">
+      <c r="H183" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I183" s="3">
@@ -18055,7 +18058,7 @@
       <c r="G184" s="3">
         <v>2806</v>
       </c>
-      <c r="H184" s="3">
+      <c r="H184" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I184" s="3">
@@ -18131,7 +18134,7 @@
       <c r="G185" s="3">
         <v>3366</v>
       </c>
-      <c r="H185" s="3">
+      <c r="H185" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I185" s="3">
@@ -18207,7 +18210,7 @@
       <c r="G186" s="3">
         <v>4115</v>
       </c>
-      <c r="H186" s="3">
+      <c r="H186" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I186" s="3">
@@ -18283,7 +18286,7 @@
       <c r="G187" s="3">
         <v>5423</v>
       </c>
-      <c r="H187" s="3">
+      <c r="H187" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I187" s="3">
@@ -18359,7 +18362,7 @@
       <c r="G188" s="3">
         <v>6732</v>
       </c>
-      <c r="H188" s="3">
+      <c r="H188" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I188" s="3">
@@ -18435,7 +18438,7 @@
       <c r="G189" s="3">
         <v>8416</v>
       </c>
-      <c r="H189" s="3">
+      <c r="H189" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I189" s="3">
@@ -18511,7 +18514,7 @@
       <c r="G190" s="3">
         <v>10285</v>
       </c>
-      <c r="H190" s="3">
+      <c r="H190" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I190" s="3">
@@ -18587,7 +18590,7 @@
       <c r="G191" s="3">
         <v>13091</v>
       </c>
-      <c r="H191" s="3">
+      <c r="H191" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I191" s="3">
@@ -18663,7 +18666,7 @@
       <c r="G192" s="3">
         <v>15896</v>
       </c>
-      <c r="H192" s="3">
+      <c r="H192" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I192" s="3">
@@ -18739,7 +18742,7 @@
       <c r="G193" s="3">
         <v>18701</v>
       </c>
-      <c r="H193" s="3">
+      <c r="H193" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I193" s="3">
@@ -18815,7 +18818,7 @@
       <c r="G194" s="3">
         <v>22441</v>
       </c>
-      <c r="H194" s="3">
+      <c r="H194" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I194" s="3">
@@ -18891,7 +18894,7 @@
       <c r="G195" s="3">
         <v>26182</v>
       </c>
-      <c r="H195" s="3">
+      <c r="H195" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I195" s="3">
@@ -18967,7 +18970,7 @@
       <c r="G196" s="3">
         <v>29922</v>
       </c>
-      <c r="H196" s="3">
+      <c r="H196" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I196" s="3">
@@ -19043,7 +19046,7 @@
       <c r="G197" s="3">
         <v>33662</v>
       </c>
-      <c r="H197" s="3">
+      <c r="H197" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I197" s="3">
@@ -19119,7 +19122,7 @@
       <c r="G198" s="3">
         <v>37403</v>
       </c>
-      <c r="H198" s="3">
+      <c r="H198" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I198" s="3">
@@ -19195,7 +19198,7 @@
       <c r="G199" s="3">
         <v>42078</v>
       </c>
-      <c r="H199" s="3">
+      <c r="H199" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I199" s="3">
@@ -19271,7 +19274,7 @@
       <c r="G200" s="3">
         <v>46753</v>
       </c>
-      <c r="H200" s="3">
+      <c r="H200" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I200" s="3">
@@ -19347,7 +19350,7 @@
       <c r="G201" s="3">
         <v>51428</v>
       </c>
-      <c r="H201" s="3">
+      <c r="H201" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I201" s="3">
@@ -19423,7 +19426,7 @@
       <c r="G202" s="3">
         <v>56104</v>
       </c>
-      <c r="H202" s="3">
+      <c r="H202" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I202" s="3">
@@ -19499,7 +19502,7 @@
       <c r="G203" s="3">
         <v>63584</v>
       </c>
-      <c r="H203" s="3">
+      <c r="H203" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I203" s="3">
@@ -19575,7 +19578,7 @@
       <c r="G204" s="3">
         <v>71065</v>
       </c>
-      <c r="H204" s="3">
+      <c r="H204" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I204" s="3">
@@ -19651,7 +19654,7 @@
       <c r="G205" s="3">
         <v>78546</v>
       </c>
-      <c r="H205" s="3">
+      <c r="H205" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I205" s="3">
@@ -19727,7 +19730,7 @@
       <c r="G206" s="3">
         <v>86026</v>
       </c>
-      <c r="H206" s="3">
+      <c r="H206" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I206" s="3">
@@ -19803,7 +19806,7 @@
       <c r="G207" s="3">
         <v>93506</v>
       </c>
-      <c r="H207" s="3">
+      <c r="H207" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I207" s="3">
@@ -19879,7 +19882,7 @@
       <c r="G208" s="3">
         <v>102857</v>
       </c>
-      <c r="H208" s="3">
+      <c r="H208" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I208" s="3">
@@ -19955,7 +19958,7 @@
       <c r="G209" s="3">
         <v>112207</v>
       </c>
-      <c r="H209" s="3">
+      <c r="H209" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I209" s="3">
@@ -20031,7 +20034,7 @@
       <c r="G210" s="3">
         <v>121559</v>
       </c>
-      <c r="H210" s="3">
+      <c r="H210" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I210" s="3">
@@ -20107,7 +20110,7 @@
       <c r="G211" s="3">
         <v>130909</v>
       </c>
-      <c r="H211" s="3">
+      <c r="H211" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I211" s="3">
@@ -20183,7 +20186,7 @@
       <c r="G212" s="3">
         <v>140260</v>
       </c>
-      <c r="H212" s="3">
+      <c r="H212" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I212" s="3">
@@ -20259,7 +20262,7 @@
       <c r="G213" s="3">
         <v>149610</v>
       </c>
-      <c r="H213" s="3">
+      <c r="H213" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I213" s="3">
@@ -20335,7 +20338,7 @@
       <c r="G214" s="3">
         <v>158962</v>
       </c>
-      <c r="H214" s="3">
+      <c r="H214" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I214" s="3">
@@ -20411,7 +20414,7 @@
       <c r="G215" s="3">
         <v>168312</v>
       </c>
-      <c r="H215" s="3">
+      <c r="H215" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I215" s="3">
@@ -20487,7 +20490,7 @@
       <c r="G216" s="3">
         <v>177662</v>
       </c>
-      <c r="H216" s="3">
+      <c r="H216" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I216" s="3">
@@ -20563,7 +20566,7 @@
       <c r="G217" s="3">
         <v>187013</v>
       </c>
-      <c r="H217" s="3">
+      <c r="H217" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I217" s="3">
@@ -20639,7 +20642,7 @@
       <c r="G218" s="3">
         <v>205715</v>
       </c>
-      <c r="H218" s="3">
+      <c r="H218" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I218" s="3">
@@ -20715,7 +20718,7 @@
       <c r="G219" s="3">
         <v>224416</v>
       </c>
-      <c r="H219" s="3">
+      <c r="H219" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I219" s="3">
@@ -20791,7 +20794,7 @@
       <c r="G220" s="3">
         <v>243116</v>
       </c>
-      <c r="H220" s="3">
+      <c r="H220" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I220" s="3">
@@ -20867,7 +20870,7 @@
       <c r="G221" s="3">
         <v>261818</v>
       </c>
-      <c r="H221" s="3">
+      <c r="H221" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I221" s="3">
@@ -20943,7 +20946,7 @@
       <c r="G222" s="3">
         <v>280519</v>
       </c>
-      <c r="H222" s="3">
+      <c r="H222" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I222" s="3">
@@ -21019,7 +21022,7 @@
       <c r="G223" s="3">
         <v>299221</v>
       </c>
-      <c r="H223" s="3">
+      <c r="H223" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I223" s="3">
@@ -21095,7 +21098,7 @@
       <c r="G224" s="3">
         <v>317922</v>
       </c>
-      <c r="H224" s="3">
+      <c r="H224" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I224" s="3">
@@ -21171,7 +21174,7 @@
       <c r="G225" s="3">
         <v>336623</v>
       </c>
-      <c r="H225" s="3">
+      <c r="H225" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I225" s="3">
@@ -21247,7 +21250,7 @@
       <c r="G226" s="3">
         <v>355325</v>
       </c>
-      <c r="H226" s="3">
+      <c r="H226" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I226" s="3">
@@ -21323,7 +21326,7 @@
       <c r="G227" s="3">
         <v>374026</v>
       </c>
-      <c r="H227" s="3">
+      <c r="H227" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I227" s="3">
@@ -21399,7 +21402,7 @@
       <c r="G228" s="3">
         <v>392728</v>
       </c>
-      <c r="H228" s="3">
+      <c r="H228" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I228" s="3">
@@ -21475,7 +21478,7 @@
       <c r="G229" s="3">
         <v>397403</v>
       </c>
-      <c r="H229" s="3">
+      <c r="H229" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I229" s="3">
@@ -21551,7 +21554,7 @@
       <c r="G230" s="3">
         <v>402078</v>
       </c>
-      <c r="H230" s="3">
+      <c r="H230" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I230" s="3">
@@ -21627,7 +21630,7 @@
       <c r="G231" s="3">
         <v>406753</v>
       </c>
-      <c r="H231" s="3">
+      <c r="H231" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I231" s="3">
@@ -21703,7 +21706,7 @@
       <c r="G232" s="3">
         <v>411428</v>
       </c>
-      <c r="H232" s="3">
+      <c r="H232" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I232" s="3">
@@ -21779,7 +21782,7 @@
       <c r="G233" s="3">
         <v>416104</v>
       </c>
-      <c r="H233" s="3">
+      <c r="H233" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I233" s="3">
@@ -21855,7 +21858,7 @@
       <c r="G234" s="3">
         <v>420779</v>
       </c>
-      <c r="H234" s="3">
+      <c r="H234" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I234" s="3">
@@ -21931,7 +21934,7 @@
       <c r="G235" s="3">
         <v>425454</v>
       </c>
-      <c r="H235" s="3">
+      <c r="H235" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I235" s="3">
@@ -22007,7 +22010,7 @@
       <c r="G236" s="3">
         <v>430130</v>
       </c>
-      <c r="H236" s="3">
+      <c r="H236" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I236" s="3">
@@ -22083,7 +22086,7 @@
       <c r="G237" s="3">
         <v>434806</v>
       </c>
-      <c r="H237" s="3">
+      <c r="H237" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I237" s="3">
@@ -22159,7 +22162,7 @@
       <c r="G238" s="3">
         <v>439481</v>
       </c>
-      <c r="H238" s="3">
+      <c r="H238" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I238" s="3">
@@ -22235,7 +22238,7 @@
       <c r="G239" s="3">
         <v>444156</v>
       </c>
-      <c r="H239" s="3">
+      <c r="H239" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I239" s="3">
@@ -22311,7 +22314,7 @@
       <c r="G240" s="3">
         <v>448831</v>
       </c>
-      <c r="H240" s="3">
+      <c r="H240" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I240" s="3">
@@ -22387,7 +22390,7 @@
       <c r="G241" s="3">
         <v>453506</v>
       </c>
-      <c r="H241" s="3">
+      <c r="H241" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I241" s="3">
@@ -22463,7 +22466,7 @@
       <c r="G242" s="3">
         <v>458182</v>
       </c>
-      <c r="H242" s="3">
+      <c r="H242" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I242" s="3">
@@ -22539,7 +22542,7 @@
       <c r="G243" s="3">
         <v>462857</v>
       </c>
-      <c r="H243" s="3">
+      <c r="H243" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I243" s="3">
@@ -22615,7 +22618,7 @@
       <c r="G244" s="3">
         <v>467532</v>
       </c>
-      <c r="H244" s="3">
+      <c r="H244" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I244" s="3">
@@ -22691,7 +22694,7 @@
       <c r="G245" s="3">
         <v>472207</v>
       </c>
-      <c r="H245" s="3">
+      <c r="H245" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I245" s="3">
@@ -22767,7 +22770,7 @@
       <c r="G246" s="3">
         <v>476884</v>
       </c>
-      <c r="H246" s="3">
+      <c r="H246" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I246" s="3">
@@ -22843,7 +22846,7 @@
       <c r="G247" s="3">
         <v>481559</v>
       </c>
-      <c r="H247" s="3">
+      <c r="H247" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I247" s="3">
@@ -22919,7 +22922,7 @@
       <c r="G248" s="3">
         <v>486234</v>
       </c>
-      <c r="H248" s="3">
+      <c r="H248" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I248" s="3">
@@ -22995,7 +22998,7 @@
       <c r="G249" s="3">
         <v>486234</v>
       </c>
-      <c r="H249" s="3">
+      <c r="H249" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I249" s="3">
@@ -23071,7 +23074,7 @@
       <c r="G250" s="3">
         <v>250</v>
       </c>
-      <c r="H250" s="3">
+      <c r="H250" s="7">
         <v>0</v>
       </c>
       <c r="I250" s="4" t="s">
@@ -23147,7 +23150,7 @@
       <c r="G251" s="3">
         <v>374</v>
       </c>
-      <c r="H251" s="3">
+      <c r="H251" s="7">
         <v>0</v>
       </c>
       <c r="I251" s="4" t="s">
@@ -23223,7 +23226,7 @@
       <c r="G252" s="3">
         <v>499</v>
       </c>
-      <c r="H252" s="3">
+      <c r="H252" s="7">
         <v>0</v>
       </c>
       <c r="I252" s="4" t="s">
@@ -23299,7 +23302,7 @@
       <c r="G253" s="3">
         <v>574</v>
       </c>
-      <c r="H253" s="3">
+      <c r="H253" s="7">
         <v>0</v>
       </c>
       <c r="I253" s="4" t="s">
@@ -23375,7 +23378,7 @@
       <c r="G254" s="3">
         <v>648</v>
       </c>
-      <c r="H254" s="3">
+      <c r="H254" s="7">
         <v>0</v>
       </c>
       <c r="I254" s="4" t="s">
@@ -23451,7 +23454,7 @@
       <c r="G255" s="3">
         <v>748</v>
       </c>
-      <c r="H255" s="3">
+      <c r="H255" s="7">
         <v>0</v>
       </c>
       <c r="I255" s="4" t="s">
@@ -23527,7 +23530,7 @@
       <c r="G256" s="3">
         <v>823</v>
       </c>
-      <c r="H256" s="3">
+      <c r="H256" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I256" s="3">
@@ -23603,7 +23606,7 @@
       <c r="G257" s="3">
         <v>898</v>
       </c>
-      <c r="H257" s="3">
+      <c r="H257" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I257" s="3">
@@ -23679,7 +23682,7 @@
       <c r="G258" s="3">
         <v>997</v>
       </c>
-      <c r="H258" s="3">
+      <c r="H258" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I258" s="3">
@@ -23755,7 +23758,7 @@
       <c r="G259" s="3">
         <v>1122</v>
       </c>
-      <c r="H259" s="3">
+      <c r="H259" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I259" s="3">
@@ -23831,7 +23834,7 @@
       <c r="G260" s="3">
         <v>1372</v>
       </c>
-      <c r="H260" s="3">
+      <c r="H260" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I260" s="3">
@@ -23907,7 +23910,7 @@
       <c r="G261" s="3">
         <v>1496</v>
       </c>
-      <c r="H261" s="3">
+      <c r="H261" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I261" s="3">
@@ -23983,7 +23986,7 @@
       <c r="G262" s="3">
         <v>1746</v>
       </c>
-      <c r="H262" s="3">
+      <c r="H262" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I262" s="3">
@@ -24059,7 +24062,7 @@
       <c r="G263" s="3">
         <v>1994</v>
       </c>
-      <c r="H263" s="3">
+      <c r="H263" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I263" s="3">
@@ -24135,7 +24138,7 @@
       <c r="G264" s="3">
         <v>2494</v>
       </c>
-      <c r="H264" s="3">
+      <c r="H264" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I264" s="3">
@@ -24211,7 +24214,7 @@
       <c r="G265" s="3">
         <v>2993</v>
       </c>
-      <c r="H265" s="3">
+      <c r="H265" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I265" s="3">
@@ -24287,7 +24290,7 @@
       <c r="G266" s="3">
         <v>3740</v>
       </c>
-      <c r="H266" s="3">
+      <c r="H266" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I266" s="3">
@@ -24363,7 +24366,7 @@
       <c r="G267" s="3">
         <v>4488</v>
       </c>
-      <c r="H267" s="3">
+      <c r="H267" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I267" s="3">
@@ -24439,7 +24442,7 @@
       <c r="G268" s="3">
         <v>5485</v>
       </c>
-      <c r="H268" s="3">
+      <c r="H268" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I268" s="3">
@@ -24515,7 +24518,7 @@
       <c r="G269" s="3">
         <v>7231</v>
       </c>
-      <c r="H269" s="3">
+      <c r="H269" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I269" s="3">
@@ -24591,7 +24594,7 @@
       <c r="G270" s="3">
         <v>8977</v>
       </c>
-      <c r="H270" s="3">
+      <c r="H270" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I270" s="3">
@@ -24667,7 +24670,7 @@
       <c r="G271" s="3">
         <v>11221</v>
       </c>
-      <c r="H271" s="3">
+      <c r="H271" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I271" s="3">
@@ -24743,7 +24746,7 @@
       <c r="G272" s="3">
         <v>13715</v>
       </c>
-      <c r="H272" s="3">
+      <c r="H272" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I272" s="3">
@@ -24819,7 +24822,7 @@
       <c r="G273" s="3">
         <v>17454</v>
       </c>
-      <c r="H273" s="3">
+      <c r="H273" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I273" s="3">
@@ -24895,7 +24898,7 @@
       <c r="G274" s="3">
         <v>21194</v>
       </c>
-      <c r="H274" s="3">
+      <c r="H274" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I274" s="3">
@@ -24971,7 +24974,7 @@
       <c r="G275" s="3">
         <v>24935</v>
       </c>
-      <c r="H275" s="3">
+      <c r="H275" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I275" s="3">
@@ -25047,7 +25050,7 @@
       <c r="G276" s="3">
         <v>29922</v>
       </c>
-      <c r="H276" s="3">
+      <c r="H276" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I276" s="3">
@@ -25123,7 +25126,7 @@
       <c r="G277" s="3">
         <v>34909</v>
       </c>
-      <c r="H277" s="3">
+      <c r="H277" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I277" s="3">
@@ -25199,7 +25202,7 @@
       <c r="G278" s="3">
         <v>39896</v>
       </c>
-      <c r="H278" s="3">
+      <c r="H278" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I278" s="3">
@@ -25275,7 +25278,7 @@
       <c r="G279" s="3">
         <v>44884</v>
       </c>
-      <c r="H279" s="3">
+      <c r="H279" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I279" s="3">
@@ -25351,7 +25354,7 @@
       <c r="G280" s="3">
         <v>49870</v>
       </c>
-      <c r="H280" s="3">
+      <c r="H280" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I280" s="3">
@@ -25427,7 +25430,7 @@
       <c r="G281" s="3">
         <v>56104</v>
       </c>
-      <c r="H281" s="3">
+      <c r="H281" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I281" s="3">
@@ -25503,7 +25506,7 @@
       <c r="G282" s="3">
         <v>62338</v>
       </c>
-      <c r="H282" s="3">
+      <c r="H282" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I282" s="3">
@@ -25579,7 +25582,7 @@
       <c r="G283" s="3">
         <v>68572</v>
       </c>
-      <c r="H283" s="3">
+      <c r="H283" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I283" s="3">
@@ -25655,7 +25658,7 @@
       <c r="G284" s="3">
         <v>74806</v>
       </c>
-      <c r="H284" s="3">
+      <c r="H284" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I284" s="3">
@@ -25731,7 +25734,7 @@
       <c r="G285" s="3">
         <v>84779</v>
       </c>
-      <c r="H285" s="3">
+      <c r="H285" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I285" s="3">
@@ -25807,7 +25810,7 @@
       <c r="G286" s="3">
         <v>94753</v>
       </c>
-      <c r="H286" s="3">
+      <c r="H286" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I286" s="3">
@@ -25883,7 +25886,7 @@
       <c r="G287" s="3">
         <v>104728</v>
       </c>
-      <c r="H287" s="3">
+      <c r="H287" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I287" s="3">
@@ -25959,7 +25962,7 @@
       <c r="G288" s="3">
         <v>114701</v>
       </c>
-      <c r="H288" s="3">
+      <c r="H288" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I288" s="3">
@@ -26035,7 +26038,7 @@
       <c r="G289" s="3">
         <v>124675</v>
       </c>
-      <c r="H289" s="3">
+      <c r="H289" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I289" s="3">
@@ -26111,7 +26114,7 @@
       <c r="G290" s="3">
         <v>137143</v>
       </c>
-      <c r="H290" s="3">
+      <c r="H290" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I290" s="3">
@@ -26187,7 +26190,7 @@
       <c r="G291" s="3">
         <v>149610</v>
       </c>
-      <c r="H291" s="3">
+      <c r="H291" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I291" s="3">
@@ -26263,7 +26266,7 @@
       <c r="G292" s="3">
         <v>162078</v>
       </c>
-      <c r="H292" s="3">
+      <c r="H292" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I292" s="3">
@@ -26339,7 +26342,7 @@
       <c r="G293" s="3">
         <v>174546</v>
       </c>
-      <c r="H293" s="3">
+      <c r="H293" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I293" s="3">
@@ -26415,7 +26418,7 @@
       <c r="G294" s="3">
         <v>187013</v>
       </c>
-      <c r="H294" s="3">
+      <c r="H294" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I294" s="3">
@@ -26491,7 +26494,7 @@
       <c r="G295" s="3">
         <v>199481</v>
       </c>
-      <c r="H295" s="3">
+      <c r="H295" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I295" s="3">
@@ -26567,7 +26570,7 @@
       <c r="G296" s="3">
         <v>211948</v>
       </c>
-      <c r="H296" s="3">
+      <c r="H296" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I296" s="3">
@@ -26643,7 +26646,7 @@
       <c r="G297" s="3">
         <v>224416</v>
       </c>
-      <c r="H297" s="3">
+      <c r="H297" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I297" s="3">
@@ -26719,7 +26722,7 @@
       <c r="G298" s="3">
         <v>236884</v>
       </c>
-      <c r="H298" s="3">
+      <c r="H298" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I298" s="3">
@@ -26795,7 +26798,7 @@
       <c r="G299" s="3">
         <v>249350</v>
       </c>
-      <c r="H299" s="3">
+      <c r="H299" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I299" s="3">
@@ -26871,7 +26874,7 @@
       <c r="G300" s="3">
         <v>274285</v>
       </c>
-      <c r="H300" s="3">
+      <c r="H300" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I300" s="3">
@@ -26947,7 +26950,7 @@
       <c r="G301" s="3">
         <v>299221</v>
       </c>
-      <c r="H301" s="3">
+      <c r="H301" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I301" s="3">
@@ -27023,7 +27026,7 @@
       <c r="G302" s="3">
         <v>324156</v>
       </c>
-      <c r="H302" s="3">
+      <c r="H302" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I302" s="3">
@@ -27099,7 +27102,7 @@
       <c r="G303" s="3">
         <v>349091</v>
       </c>
-      <c r="H303" s="3">
+      <c r="H303" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I303" s="3">
@@ -27175,7 +27178,7 @@
       <c r="G304" s="3">
         <v>374026</v>
       </c>
-      <c r="H304" s="3">
+      <c r="H304" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I304" s="3">
@@ -27251,7 +27254,7 @@
       <c r="G305" s="3">
         <v>398962</v>
       </c>
-      <c r="H305" s="3">
+      <c r="H305" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I305" s="3">
@@ -27327,7 +27330,7 @@
       <c r="G306" s="3">
         <v>423896</v>
       </c>
-      <c r="H306" s="3">
+      <c r="H306" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I306" s="3">
@@ -27403,7 +27406,7 @@
       <c r="G307" s="3">
         <v>448831</v>
       </c>
-      <c r="H307" s="3">
+      <c r="H307" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I307" s="3">
@@ -27479,7 +27482,7 @@
       <c r="G308" s="3">
         <v>473766</v>
       </c>
-      <c r="H308" s="3">
+      <c r="H308" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I308" s="3">
@@ -27555,7 +27558,7 @@
       <c r="G309" s="3">
         <v>498701</v>
       </c>
-      <c r="H309" s="3">
+      <c r="H309" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I309" s="3">
@@ -27631,7 +27634,7 @@
       <c r="G310" s="3">
         <v>523637</v>
       </c>
-      <c r="H310" s="3">
+      <c r="H310" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I310" s="3">
@@ -27707,7 +27710,7 @@
       <c r="G311" s="3">
         <v>529870</v>
       </c>
-      <c r="H311" s="3">
+      <c r="H311" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I311" s="3">
@@ -27783,7 +27786,7 @@
       <c r="G312" s="3">
         <v>536104</v>
       </c>
-      <c r="H312" s="3">
+      <c r="H312" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I312" s="3">
@@ -27859,7 +27862,7 @@
       <c r="G313" s="3">
         <v>542338</v>
       </c>
-      <c r="H313" s="3">
+      <c r="H313" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I313" s="3">
@@ -27935,7 +27938,7 @@
       <c r="G314" s="3">
         <v>548572</v>
       </c>
-      <c r="H314" s="3">
+      <c r="H314" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I314" s="3">
@@ -28011,7 +28014,7 @@
       <c r="G315" s="3">
         <v>554806</v>
       </c>
-      <c r="H315" s="3">
+      <c r="H315" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I315" s="3">
@@ -28087,7 +28090,7 @@
       <c r="G316" s="3">
         <v>561038</v>
       </c>
-      <c r="H316" s="3">
+      <c r="H316" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I316" s="3">
@@ -28163,7 +28166,7 @@
       <c r="G317" s="3">
         <v>567272</v>
       </c>
-      <c r="H317" s="3">
+      <c r="H317" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I317" s="3">
@@ -28239,7 +28242,7 @@
       <c r="G318" s="3">
         <v>573506</v>
       </c>
-      <c r="H318" s="3">
+      <c r="H318" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I318" s="3">
@@ -28315,7 +28318,7 @@
       <c r="G319" s="3">
         <v>579740</v>
       </c>
-      <c r="H319" s="3">
+      <c r="H319" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I319" s="3">
@@ -28391,7 +28394,7 @@
       <c r="G320" s="3">
         <v>585974</v>
       </c>
-      <c r="H320" s="3">
+      <c r="H320" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I320" s="3">
@@ -28467,7 +28470,7 @@
       <c r="G321" s="3">
         <v>592207</v>
       </c>
-      <c r="H321" s="3">
+      <c r="H321" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I321" s="3">
@@ -28543,7 +28546,7 @@
       <c r="G322" s="3">
         <v>598441</v>
       </c>
-      <c r="H322" s="3">
+      <c r="H322" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I322" s="3">
@@ -28619,7 +28622,7 @@
       <c r="G323" s="3">
         <v>604675</v>
       </c>
-      <c r="H323" s="3">
+      <c r="H323" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I323" s="3">
@@ -28695,7 +28698,7 @@
       <c r="G324" s="3">
         <v>610909</v>
       </c>
-      <c r="H324" s="3">
+      <c r="H324" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I324" s="3">
@@ -28771,7 +28774,7 @@
       <c r="G325" s="3">
         <v>617143</v>
       </c>
-      <c r="H325" s="3">
+      <c r="H325" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I325" s="3">
@@ -28847,7 +28850,7 @@
       <c r="G326" s="3">
         <v>623377</v>
       </c>
-      <c r="H326" s="3">
+      <c r="H326" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I326" s="3">
@@ -28923,7 +28926,7 @@
       <c r="G327" s="3">
         <v>629610</v>
       </c>
-      <c r="H327" s="3">
+      <c r="H327" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I327" s="3">
@@ -28999,7 +29002,7 @@
       <c r="G328" s="3">
         <v>635844</v>
       </c>
-      <c r="H328" s="3">
+      <c r="H328" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I328" s="3">
@@ -29075,7 +29078,7 @@
       <c r="G329" s="3">
         <v>642078</v>
       </c>
-      <c r="H329" s="3">
+      <c r="H329" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I329" s="3">
@@ -29151,7 +29154,7 @@
       <c r="G330" s="3">
         <v>648312</v>
       </c>
-      <c r="H330" s="3">
+      <c r="H330" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I330" s="3">
@@ -29227,7 +29230,7 @@
       <c r="G331" s="3">
         <v>648312</v>
       </c>
-      <c r="H331" s="3">
+      <c r="H331" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I331" s="3">
@@ -29303,7 +29306,7 @@
       <c r="G332" s="3">
         <v>623</v>
       </c>
-      <c r="H332" s="3">
+      <c r="H332" s="7">
         <v>0</v>
       </c>
       <c r="I332" s="4" t="s">
@@ -29379,7 +29382,7 @@
       <c r="G333" s="3">
         <v>935</v>
       </c>
-      <c r="H333" s="3">
+      <c r="H333" s="7">
         <v>0</v>
       </c>
       <c r="I333" s="4" t="s">
@@ -29455,7 +29458,7 @@
       <c r="G334" s="3">
         <v>1247</v>
       </c>
-      <c r="H334" s="3">
+      <c r="H334" s="7">
         <v>0</v>
       </c>
       <c r="I334" s="4" t="s">
@@ -29531,7 +29534,7 @@
       <c r="G335" s="3">
         <v>1434</v>
       </c>
-      <c r="H335" s="3">
+      <c r="H335" s="7">
         <v>0</v>
       </c>
       <c r="I335" s="4" t="s">
@@ -29607,7 +29610,7 @@
       <c r="G336" s="3">
         <v>1621</v>
       </c>
-      <c r="H336" s="3">
+      <c r="H336" s="7">
         <v>0</v>
       </c>
       <c r="I336" s="4" t="s">
@@ -29683,7 +29686,7 @@
       <c r="G337" s="3">
         <v>1870</v>
       </c>
-      <c r="H337" s="3">
+      <c r="H337" s="7">
         <v>0</v>
       </c>
       <c r="I337" s="4" t="s">
@@ -29759,7 +29762,7 @@
       <c r="G338" s="3">
         <v>2057</v>
       </c>
-      <c r="H338" s="3">
+      <c r="H338" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I338" s="3">
@@ -29835,7 +29838,7 @@
       <c r="G339" s="3">
         <v>2244</v>
       </c>
-      <c r="H339" s="3">
+      <c r="H339" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I339" s="3">
@@ -29911,7 +29914,7 @@
       <c r="G340" s="3">
         <v>2494</v>
       </c>
-      <c r="H340" s="3">
+      <c r="H340" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I340" s="3">
@@ -29987,7 +29990,7 @@
       <c r="G341" s="3">
         <v>2806</v>
       </c>
-      <c r="H341" s="3">
+      <c r="H341" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I341" s="3">
@@ -30063,7 +30066,7 @@
       <c r="G342" s="3">
         <v>3428</v>
       </c>
-      <c r="H342" s="3">
+      <c r="H342" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I342" s="3">
@@ -30139,7 +30142,7 @@
       <c r="G343" s="3">
         <v>3740</v>
       </c>
-      <c r="H343" s="3">
+      <c r="H343" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I343" s="3">
@@ -30215,7 +30218,7 @@
       <c r="G344" s="3">
         <v>4363</v>
       </c>
-      <c r="H344" s="3">
+      <c r="H344" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I344" s="3">
@@ -30291,7 +30294,7 @@
       <c r="G345" s="3">
         <v>4987</v>
       </c>
-      <c r="H345" s="3">
+      <c r="H345" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I345" s="3">
@@ -30367,7 +30370,7 @@
       <c r="G346" s="3">
         <v>6234</v>
       </c>
-      <c r="H346" s="3">
+      <c r="H346" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I346" s="3">
@@ -30443,7 +30446,7 @@
       <c r="G347" s="3">
         <v>7481</v>
       </c>
-      <c r="H347" s="3">
+      <c r="H347" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I347" s="3">
@@ -30519,7 +30522,7 @@
       <c r="G348" s="3">
         <v>9350</v>
       </c>
-      <c r="H348" s="3">
+      <c r="H348" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I348" s="3">
@@ -30595,7 +30598,7 @@
       <c r="G349" s="3">
         <v>11221</v>
       </c>
-      <c r="H349" s="3">
+      <c r="H349" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I349" s="3">
@@ -30671,7 +30674,7 @@
       <c r="G350" s="3">
         <v>13715</v>
       </c>
-      <c r="H350" s="3">
+      <c r="H350" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I350" s="3">
@@ -30747,7 +30750,7 @@
       <c r="G351" s="3">
         <v>18078</v>
       </c>
-      <c r="H351" s="3">
+      <c r="H351" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I351" s="3">
@@ -30823,7 +30826,7 @@
       <c r="G352" s="3">
         <v>22441</v>
       </c>
-      <c r="H352" s="3">
+      <c r="H352" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I352" s="3">
@@ -30899,7 +30902,7 @@
       <c r="G353" s="3">
         <v>28052</v>
       </c>
-      <c r="H353" s="3">
+      <c r="H353" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I353" s="3">
@@ -30975,7 +30978,7 @@
       <c r="G354" s="3">
         <v>34285</v>
       </c>
-      <c r="H354" s="3">
+      <c r="H354" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I354" s="3">
@@ -31051,7 +31054,7 @@
       <c r="G355" s="3">
         <v>43637</v>
       </c>
-      <c r="H355" s="3">
+      <c r="H355" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I355" s="3">
@@ -31127,7 +31130,7 @@
       <c r="G356" s="3">
         <v>52987</v>
       </c>
-      <c r="H356" s="3">
+      <c r="H356" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I356" s="3">
@@ -31203,7 +31206,7 @@
       <c r="G357" s="3">
         <v>62338</v>
       </c>
-      <c r="H357" s="3">
+      <c r="H357" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I357" s="3">
@@ -31279,7 +31282,7 @@
       <c r="G358" s="3">
         <v>74806</v>
       </c>
-      <c r="H358" s="3">
+      <c r="H358" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I358" s="3">
@@ -31355,7 +31358,7 @@
       <c r="G359" s="3">
         <v>87272</v>
       </c>
-      <c r="H359" s="3">
+      <c r="H359" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I359" s="3">
@@ -31431,7 +31434,7 @@
       <c r="G360" s="3">
         <v>99740</v>
       </c>
-      <c r="H360" s="3">
+      <c r="H360" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I360" s="3">
@@ -31507,7 +31510,7 @@
       <c r="G361" s="3">
         <v>112207</v>
       </c>
-      <c r="H361" s="3">
+      <c r="H361" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I361" s="3">
@@ -31583,7 +31586,7 @@
       <c r="G362" s="3">
         <v>124675</v>
       </c>
-      <c r="H362" s="3">
+      <c r="H362" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I362" s="3">
@@ -31659,7 +31662,7 @@
       <c r="G363" s="3">
         <v>140260</v>
       </c>
-      <c r="H363" s="3">
+      <c r="H363" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I363" s="3">
@@ -31735,7 +31738,7 @@
       <c r="G364" s="3">
         <v>155844</v>
       </c>
-      <c r="H364" s="3">
+      <c r="H364" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I364" s="3">
@@ -31811,7 +31814,7 @@
       <c r="G365" s="3">
         <v>171428</v>
       </c>
-      <c r="H365" s="3">
+      <c r="H365" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I365" s="3">
@@ -31887,7 +31890,7 @@
       <c r="G366" s="3">
         <v>187013</v>
       </c>
-      <c r="H366" s="3">
+      <c r="H366" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I366" s="3">
@@ -31963,7 +31966,7 @@
       <c r="G367" s="3">
         <v>211948</v>
       </c>
-      <c r="H367" s="3">
+      <c r="H367" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I367" s="3">
@@ -32039,7 +32042,7 @@
       <c r="G368" s="3">
         <v>236884</v>
       </c>
-      <c r="H368" s="3">
+      <c r="H368" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I368" s="3">
@@ -32115,7 +32118,7 @@
       <c r="G369" s="3">
         <v>261818</v>
       </c>
-      <c r="H369" s="3">
+      <c r="H369" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I369" s="3">
@@ -32191,7 +32194,7 @@
       <c r="G370" s="3">
         <v>286753</v>
       </c>
-      <c r="H370" s="3">
+      <c r="H370" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I370" s="3">
@@ -32267,7 +32270,7 @@
       <c r="G371" s="3">
         <v>311688</v>
       </c>
-      <c r="H371" s="3">
+      <c r="H371" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I371" s="3">
@@ -32343,7 +32346,7 @@
       <c r="G372" s="3">
         <v>342857</v>
       </c>
-      <c r="H372" s="3">
+      <c r="H372" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I372" s="3">
@@ -32419,7 +32422,7 @@
       <c r="G373" s="3">
         <v>374026</v>
       </c>
-      <c r="H373" s="3">
+      <c r="H373" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I373" s="3">
@@ -32495,7 +32498,7 @@
       <c r="G374" s="3">
         <v>405194</v>
       </c>
-      <c r="H374" s="3">
+      <c r="H374" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I374" s="3">
@@ -32571,7 +32574,7 @@
       <c r="G375" s="3">
         <v>436363</v>
       </c>
-      <c r="H375" s="3">
+      <c r="H375" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I375" s="3">
@@ -32647,7 +32650,7 @@
       <c r="G376" s="3">
         <v>467532</v>
       </c>
-      <c r="H376" s="3">
+      <c r="H376" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I376" s="3">
@@ -32723,7 +32726,7 @@
       <c r="G377" s="3">
         <v>498701</v>
       </c>
-      <c r="H377" s="3">
+      <c r="H377" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I377" s="3">
@@ -32799,7 +32802,7 @@
       <c r="G378" s="3">
         <v>529870</v>
       </c>
-      <c r="H378" s="3">
+      <c r="H378" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I378" s="3">
@@ -32875,7 +32878,7 @@
       <c r="G379" s="3">
         <v>561038</v>
       </c>
-      <c r="H379" s="3">
+      <c r="H379" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I379" s="3">
@@ -32951,7 +32954,7 @@
       <c r="G380" s="3">
         <v>592207</v>
       </c>
-      <c r="H380" s="3">
+      <c r="H380" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I380" s="3">
@@ -33027,7 +33030,7 @@
       <c r="G381" s="3">
         <v>623377</v>
       </c>
-      <c r="H381" s="3">
+      <c r="H381" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I381" s="3">
@@ -33103,7 +33106,7 @@
       <c r="G382" s="3">
         <v>685715</v>
       </c>
-      <c r="H382" s="3">
+      <c r="H382" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I382" s="3">
@@ -33179,7 +33182,7 @@
       <c r="G383" s="3">
         <v>748052</v>
       </c>
-      <c r="H383" s="3">
+      <c r="H383" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I383" s="3">
@@ -33255,7 +33258,7 @@
       <c r="G384" s="3">
         <v>810390</v>
       </c>
-      <c r="H384" s="3">
+      <c r="H384" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I384" s="3">
@@ -33331,7 +33334,7 @@
       <c r="G385" s="3">
         <v>872728</v>
       </c>
-      <c r="H385" s="3">
+      <c r="H385" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I385" s="3">
@@ -33407,7 +33410,7 @@
       <c r="G386" s="3">
         <v>935065</v>
       </c>
-      <c r="H386" s="3">
+      <c r="H386" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I386" s="3">
@@ -33483,7 +33486,7 @@
       <c r="G387" s="3">
         <v>997403</v>
       </c>
-      <c r="H387" s="3">
+      <c r="H387" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I387" s="3">
@@ -33559,7 +33562,7 @@
       <c r="G388" s="3">
         <v>1059740</v>
       </c>
-      <c r="H388" s="3">
+      <c r="H388" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I388" s="3">
@@ -33635,7 +33638,7 @@
       <c r="G389" s="3">
         <v>1122078</v>
       </c>
-      <c r="H389" s="3">
+      <c r="H389" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I389" s="3">
@@ -33711,7 +33714,7 @@
       <c r="G390" s="3">
         <v>1184416</v>
       </c>
-      <c r="H390" s="3">
+      <c r="H390" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I390" s="3">
@@ -33787,7 +33790,7 @@
       <c r="G391" s="3">
         <v>1246753</v>
       </c>
-      <c r="H391" s="3">
+      <c r="H391" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I391" s="3">
@@ -33863,7 +33866,7 @@
       <c r="G392" s="3">
         <v>1309091</v>
       </c>
-      <c r="H392" s="3">
+      <c r="H392" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I392" s="3">
@@ -33939,7 +33942,7 @@
       <c r="G393" s="3">
         <v>1324675</v>
       </c>
-      <c r="H393" s="3">
+      <c r="H393" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I393" s="3">
@@ -34015,7 +34018,7 @@
       <c r="G394" s="3">
         <v>1340260</v>
       </c>
-      <c r="H394" s="3">
+      <c r="H394" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I394" s="3">
@@ -34091,7 +34094,7 @@
       <c r="G395" s="3">
         <v>1355844</v>
       </c>
-      <c r="H395" s="3">
+      <c r="H395" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I395" s="3">
@@ -34167,7 +34170,7 @@
       <c r="G396" s="3">
         <v>1371428</v>
       </c>
-      <c r="H396" s="3">
+      <c r="H396" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I396" s="3">
@@ -34243,7 +34246,7 @@
       <c r="G397" s="3">
         <v>1387013</v>
       </c>
-      <c r="H397" s="3">
+      <c r="H397" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I397" s="3">
@@ -34319,7 +34322,7 @@
       <c r="G398" s="3">
         <v>1402597</v>
       </c>
-      <c r="H398" s="3">
+      <c r="H398" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I398" s="3">
@@ -34395,7 +34398,7 @@
       <c r="G399" s="3">
         <v>1418182</v>
       </c>
-      <c r="H399" s="3">
+      <c r="H399" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I399" s="3">
@@ -34471,7 +34474,7 @@
       <c r="G400" s="3">
         <v>1433766</v>
       </c>
-      <c r="H400" s="3">
+      <c r="H400" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I400" s="3">
@@ -34547,7 +34550,7 @@
       <c r="G401" s="3">
         <v>1449350</v>
       </c>
-      <c r="H401" s="3">
+      <c r="H401" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I401" s="3">
@@ -34623,7 +34626,7 @@
       <c r="G402" s="3">
         <v>1464935</v>
       </c>
-      <c r="H402" s="3">
+      <c r="H402" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I402" s="3">
@@ -34699,7 +34702,7 @@
       <c r="G403" s="3">
         <v>1480519</v>
       </c>
-      <c r="H403" s="3">
+      <c r="H403" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I403" s="3">
@@ -34775,7 +34778,7 @@
       <c r="G404" s="3">
         <v>1496104</v>
       </c>
-      <c r="H404" s="3">
+      <c r="H404" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I404" s="3">
@@ -34851,7 +34854,7 @@
       <c r="G405" s="3">
         <v>1511688</v>
       </c>
-      <c r="H405" s="3">
+      <c r="H405" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I405" s="3">
@@ -34927,7 +34930,7 @@
       <c r="G406" s="3">
         <v>1527272</v>
       </c>
-      <c r="H406" s="3">
+      <c r="H406" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I406" s="3">
@@ -35003,7 +35006,7 @@
       <c r="G407" s="3">
         <v>1542857</v>
       </c>
-      <c r="H407" s="3">
+      <c r="H407" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I407" s="3">
@@ -35079,7 +35082,7 @@
       <c r="G408" s="3">
         <v>1558441</v>
       </c>
-      <c r="H408" s="3">
+      <c r="H408" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I408" s="3">
@@ -35155,7 +35158,7 @@
       <c r="G409" s="3">
         <v>1574026</v>
       </c>
-      <c r="H409" s="3">
+      <c r="H409" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I409" s="3">
@@ -35231,7 +35234,7 @@
       <c r="G410" s="3">
         <v>1589610</v>
       </c>
-      <c r="H410" s="3">
+      <c r="H410" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I410" s="3">
@@ -35307,7 +35310,7 @@
       <c r="G411" s="3">
         <v>1605194</v>
       </c>
-      <c r="H411" s="3">
+      <c r="H411" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I411" s="3">
@@ -35383,7 +35386,7 @@
       <c r="G412" s="3">
         <v>1620779</v>
       </c>
-      <c r="H412" s="3">
+      <c r="H412" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I412" s="3">
@@ -35459,7 +35462,7 @@
       <c r="G413" s="3">
         <v>1620779</v>
       </c>
-      <c r="H413" s="3">
+      <c r="H413" s="7">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I413" s="3">
@@ -35535,7 +35538,7 @@
       <c r="G414" s="3">
         <v>1297</v>
       </c>
-      <c r="H414" s="3">
+      <c r="H414" s="7">
         <v>0</v>
       </c>
       <c r="I414" s="4" t="s">
@@ -35611,7 +35614,7 @@
       <c r="G415" s="3">
         <v>1946</v>
       </c>
-      <c r="H415" s="3">
+      <c r="H415" s="7">
         <v>0</v>
       </c>
       <c r="I415" s="4" t="s">
@@ -35687,7 +35690,7 @@
       <c r="G416" s="3">
         <v>2594</v>
       </c>
-      <c r="H416" s="3">
+      <c r="H416" s="7">
         <v>0</v>
       </c>
       <c r="I416" s="4" t="s">
@@ -35763,7 +35766,7 @@
       <c r="G417" s="3">
         <v>2983</v>
       </c>
-      <c r="H417" s="3">
+      <c r="H417" s="7">
         <v>0</v>
       </c>
       <c r="I417" s="4" t="s">
@@ -35839,7 +35842,7 @@
       <c r="G418" s="3">
         <v>3373</v>
       </c>
-      <c r="H418" s="3">
+      <c r="H418" s="7">
         <v>0</v>
       </c>
       <c r="I418" s="4" t="s">
@@ -35915,7 +35918,7 @@
       <c r="G419" s="3">
         <v>3892</v>
       </c>
-      <c r="H419" s="3">
+      <c r="H419" s="7">
         <v>0</v>
       </c>
       <c r="I419" s="4" t="s">
@@ -35991,7 +35994,7 @@
       <c r="G420" s="3">
         <v>4282</v>
       </c>
-      <c r="H420" s="3">
+      <c r="H420" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I420" s="3">
@@ -36067,7 +36070,7 @@
       <c r="G421" s="3">
         <v>4670</v>
       </c>
-      <c r="H421" s="3">
+      <c r="H421" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I421" s="3">
@@ -36143,7 +36146,7 @@
       <c r="G422" s="3">
         <v>5189</v>
       </c>
-      <c r="H422" s="3">
+      <c r="H422" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I422" s="3">
@@ -36219,7 +36222,7 @@
       <c r="G423" s="3">
         <v>5838</v>
       </c>
-      <c r="H423" s="3">
+      <c r="H423" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I423" s="3">
@@ -36295,7 +36298,7 @@
       <c r="G424" s="3">
         <v>7135</v>
       </c>
-      <c r="H424" s="3">
+      <c r="H424" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I424" s="3">
@@ -36371,7 +36374,7 @@
       <c r="G425" s="3">
         <v>7783</v>
       </c>
-      <c r="H425" s="3">
+      <c r="H425" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I425" s="3">
@@ -36447,7 +36450,7 @@
       <c r="G426" s="3">
         <v>9082</v>
       </c>
-      <c r="H426" s="3">
+      <c r="H426" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I426" s="3">
@@ -36523,7 +36526,7 @@
       <c r="G427" s="3">
         <v>10379</v>
       </c>
-      <c r="H427" s="3">
+      <c r="H427" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I427" s="3">
@@ -36599,7 +36602,7 @@
       <c r="G428" s="3">
         <v>12973</v>
       </c>
-      <c r="H428" s="3">
+      <c r="H428" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I428" s="3">
@@ -36675,7 +36678,7 @@
       <c r="G429" s="3">
         <v>15568</v>
       </c>
-      <c r="H429" s="3">
+      <c r="H429" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I429" s="3">
@@ -36751,7 +36754,7 @@
       <c r="G430" s="3">
         <v>19459</v>
       </c>
-      <c r="H430" s="3">
+      <c r="H430" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I430" s="3">
@@ -36827,7 +36830,7 @@
       <c r="G431" s="3">
         <v>23351</v>
       </c>
-      <c r="H431" s="3">
+      <c r="H431" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I431" s="3">
@@ -36903,7 +36906,7 @@
       <c r="G432" s="3">
         <v>28541</v>
       </c>
-      <c r="H432" s="3">
+      <c r="H432" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I432" s="3">
@@ -36979,7 +36982,7 @@
       <c r="G433" s="3">
         <v>37621</v>
       </c>
-      <c r="H433" s="3">
+      <c r="H433" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I433" s="3">
@@ -37055,7 +37058,7 @@
       <c r="G434" s="3">
         <v>46703</v>
       </c>
-      <c r="H434" s="3">
+      <c r="H434" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I434" s="3">
@@ -37131,7 +37134,7 @@
       <c r="G435" s="3">
         <v>58379</v>
       </c>
-      <c r="H435" s="3">
+      <c r="H435" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I435" s="3">
@@ -37207,7 +37210,7 @@
       <c r="G436" s="3">
         <v>71351</v>
       </c>
-      <c r="H436" s="3">
+      <c r="H436" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I436" s="3">
@@ -37283,7 +37286,7 @@
       <c r="G437" s="3">
         <v>90811</v>
       </c>
-      <c r="H437" s="3">
+      <c r="H437" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I437" s="3">
@@ -37359,7 +37362,7 @@
       <c r="G438" s="3">
         <v>110270</v>
       </c>
-      <c r="H438" s="3">
+      <c r="H438" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I438" s="3">
@@ -37435,7 +37438,7 @@
       <c r="G439" s="3">
         <v>129730</v>
       </c>
-      <c r="H439" s="3">
+      <c r="H439" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I439" s="3">
@@ -37511,7 +37514,7 @@
       <c r="G440" s="3">
         <v>155676</v>
       </c>
-      <c r="H440" s="3">
+      <c r="H440" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I440" s="3">
@@ -37587,7 +37590,7 @@
       <c r="G441" s="3">
         <v>181621</v>
       </c>
-      <c r="H441" s="3">
+      <c r="H441" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I441" s="3">
@@ -37663,7 +37666,7 @@
       <c r="G442" s="3">
         <v>207568</v>
       </c>
-      <c r="H442" s="3">
+      <c r="H442" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I442" s="3">
@@ -37739,7 +37742,7 @@
       <c r="G443" s="3">
         <v>233514</v>
       </c>
-      <c r="H443" s="3">
+      <c r="H443" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I443" s="3">
@@ -37815,7 +37818,7 @@
       <c r="G444" s="3">
         <v>259459</v>
       </c>
-      <c r="H444" s="3">
+      <c r="H444" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I444" s="3">
@@ -37891,7 +37894,7 @@
       <c r="G445" s="3">
         <v>291892</v>
       </c>
-      <c r="H445" s="3">
+      <c r="H445" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I445" s="3">
@@ -37967,7 +37970,7 @@
       <c r="G446" s="3">
         <v>324324</v>
       </c>
-      <c r="H446" s="3">
+      <c r="H446" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I446" s="3">
@@ -38043,7 +38046,7 @@
       <c r="G447" s="3">
         <v>356756</v>
       </c>
-      <c r="H447" s="3">
+      <c r="H447" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I447" s="3">
@@ -38119,7 +38122,7 @@
       <c r="G448" s="3">
         <v>389189</v>
       </c>
-      <c r="H448" s="3">
+      <c r="H448" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I448" s="3">
@@ -38195,7 +38198,7 @@
       <c r="G449" s="3">
         <v>441082</v>
       </c>
-      <c r="H449" s="3">
+      <c r="H449" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I449" s="3">
@@ -38271,7 +38274,7 @@
       <c r="G450" s="3">
         <v>492973</v>
       </c>
-      <c r="H450" s="3">
+      <c r="H450" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I450" s="3">
@@ -38347,7 +38350,7 @@
       <c r="G451" s="3">
         <v>544865</v>
       </c>
-      <c r="H451" s="3">
+      <c r="H451" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I451" s="3">
@@ -38423,7 +38426,7 @@
       <c r="G452" s="3">
         <v>596756</v>
       </c>
-      <c r="H452" s="3">
+      <c r="H452" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I452" s="3">
@@ -38499,7 +38502,7 @@
       <c r="G453" s="3">
         <v>648649</v>
       </c>
-      <c r="H453" s="3">
+      <c r="H453" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I453" s="3">
@@ -38575,7 +38578,7 @@
       <c r="G454" s="3">
         <v>713514</v>
       </c>
-      <c r="H454" s="3">
+      <c r="H454" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I454" s="3">
@@ -38651,7 +38654,7 @@
       <c r="G455" s="3">
         <v>778379</v>
       </c>
-      <c r="H455" s="3">
+      <c r="H455" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I455" s="3">
@@ -38727,7 +38730,7 @@
       <c r="G456" s="3">
         <v>843244</v>
       </c>
-      <c r="H456" s="3">
+      <c r="H456" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I456" s="3">
@@ -38803,7 +38806,7 @@
       <c r="G457" s="3">
         <v>908108</v>
       </c>
-      <c r="H457" s="3">
+      <c r="H457" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I457" s="3">
@@ -38879,7 +38882,7 @@
       <c r="G458" s="3">
         <v>972973</v>
       </c>
-      <c r="H458" s="3">
+      <c r="H458" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I458" s="3">
@@ -38955,7 +38958,7 @@
       <c r="G459" s="3">
         <v>1037838</v>
       </c>
-      <c r="H459" s="3">
+      <c r="H459" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I459" s="3">
@@ -39031,7 +39034,7 @@
       <c r="G460" s="3">
         <v>1102703</v>
       </c>
-      <c r="H460" s="3">
+      <c r="H460" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I460" s="3">
@@ -39107,7 +39110,7 @@
       <c r="G461" s="3">
         <v>1167568</v>
       </c>
-      <c r="H461" s="3">
+      <c r="H461" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I461" s="3">
@@ -39183,7 +39186,7 @@
       <c r="G462" s="3">
         <v>1232432</v>
       </c>
-      <c r="H462" s="3">
+      <c r="H462" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I462" s="3">
@@ -39259,7 +39262,7 @@
       <c r="G463" s="3">
         <v>1297297</v>
       </c>
-      <c r="H463" s="3">
+      <c r="H463" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I463" s="3">
@@ -39335,7 +39338,7 @@
       <c r="G464" s="3">
         <v>1427027</v>
       </c>
-      <c r="H464" s="3">
+      <c r="H464" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I464" s="3">
@@ -39411,7 +39414,7 @@
       <c r="G465" s="3">
         <v>1556756</v>
       </c>
-      <c r="H465" s="3">
+      <c r="H465" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I465" s="3">
@@ -39487,7 +39490,7 @@
       <c r="G466" s="3">
         <v>1686486</v>
       </c>
-      <c r="H466" s="3">
+      <c r="H466" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I466" s="3">
@@ -39563,7 +39566,7 @@
       <c r="G467" s="3">
         <v>1816217</v>
       </c>
-      <c r="H467" s="3">
+      <c r="H467" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I467" s="3">
@@ -39639,7 +39642,7 @@
       <c r="G468" s="3">
         <v>1945946</v>
       </c>
-      <c r="H468" s="3">
+      <c r="H468" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I468" s="3">
@@ -39715,7 +39718,7 @@
       <c r="G469" s="3">
         <v>2075676</v>
       </c>
-      <c r="H469" s="3">
+      <c r="H469" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I469" s="3">
@@ -39791,7 +39794,7 @@
       <c r="G470" s="3">
         <v>2205406</v>
       </c>
-      <c r="H470" s="3">
+      <c r="H470" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I470" s="3">
@@ -39867,7 +39870,7 @@
       <c r="G471" s="3">
         <v>2335135</v>
       </c>
-      <c r="H471" s="3">
+      <c r="H471" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I471" s="3">
@@ -39943,7 +39946,7 @@
       <c r="G472" s="3">
         <v>2464865</v>
       </c>
-      <c r="H472" s="3">
+      <c r="H472" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I472" s="3">
@@ -40019,7 +40022,7 @@
       <c r="G473" s="3">
         <v>2594594</v>
       </c>
-      <c r="H473" s="3">
+      <c r="H473" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I473" s="3">
@@ -40095,7 +40098,7 @@
       <c r="G474" s="3">
         <v>2724324</v>
       </c>
-      <c r="H474" s="3">
+      <c r="H474" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I474" s="3">
@@ -40171,7 +40174,7 @@
       <c r="G475" s="3">
         <v>2756756</v>
       </c>
-      <c r="H475" s="3">
+      <c r="H475" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I475" s="3">
@@ -40247,7 +40250,7 @@
       <c r="G476" s="3">
         <v>2789189</v>
       </c>
-      <c r="H476" s="3">
+      <c r="H476" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I476" s="3">
@@ -40323,7 +40326,7 @@
       <c r="G477" s="3">
         <v>2821621</v>
       </c>
-      <c r="H477" s="3">
+      <c r="H477" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I477" s="3">
@@ -40399,7 +40402,7 @@
       <c r="G478" s="3">
         <v>2854054</v>
       </c>
-      <c r="H478" s="3">
+      <c r="H478" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I478" s="3">
@@ -40475,7 +40478,7 @@
       <c r="G479" s="3">
         <v>2886486</v>
       </c>
-      <c r="H479" s="3">
+      <c r="H479" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I479" s="3">
@@ -40551,7 +40554,7 @@
       <c r="G480" s="3">
         <v>2918918</v>
       </c>
-      <c r="H480" s="3">
+      <c r="H480" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I480" s="3">
@@ -40627,7 +40630,7 @@
       <c r="G481" s="3">
         <v>2951351</v>
       </c>
-      <c r="H481" s="3">
+      <c r="H481" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I481" s="3">
@@ -40703,7 +40706,7 @@
       <c r="G482" s="3">
         <v>2983783</v>
       </c>
-      <c r="H482" s="3">
+      <c r="H482" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I482" s="3">
@@ -40779,7 +40782,7 @@
       <c r="G483" s="3">
         <v>3016217</v>
       </c>
-      <c r="H483" s="3">
+      <c r="H483" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I483" s="3">
@@ -40855,7 +40858,7 @@
       <c r="G484" s="3">
         <v>3048649</v>
       </c>
-      <c r="H484" s="3">
+      <c r="H484" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I484" s="3">
@@ -40931,7 +40934,7 @@
       <c r="G485" s="3">
         <v>3081082</v>
       </c>
-      <c r="H485" s="3">
+      <c r="H485" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I485" s="3">
@@ -41007,7 +41010,7 @@
       <c r="G486" s="3">
         <v>3113514</v>
       </c>
-      <c r="H486" s="3">
+      <c r="H486" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I486" s="3">
@@ -41083,7 +41086,7 @@
       <c r="G487" s="3">
         <v>3145946</v>
       </c>
-      <c r="H487" s="3">
+      <c r="H487" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I487" s="3">
@@ -41159,7 +41162,7 @@
       <c r="G488" s="3">
         <v>3178379</v>
       </c>
-      <c r="H488" s="3">
+      <c r="H488" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I488" s="3">
@@ -41235,7 +41238,7 @@
       <c r="G489" s="3">
         <v>3210811</v>
       </c>
-      <c r="H489" s="3">
+      <c r="H489" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I489" s="3">
@@ -41311,7 +41314,7 @@
       <c r="G490" s="3">
         <v>3243244</v>
       </c>
-      <c r="H490" s="3">
+      <c r="H490" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I490" s="3">
@@ -41387,7 +41390,7 @@
       <c r="G491" s="3">
         <v>3275676</v>
       </c>
-      <c r="H491" s="3">
+      <c r="H491" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I491" s="3">
@@ -41463,7 +41466,7 @@
       <c r="G492" s="3">
         <v>3308108</v>
       </c>
-      <c r="H492" s="3">
+      <c r="H492" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I492" s="3">
@@ -41539,7 +41542,7 @@
       <c r="G493" s="3">
         <v>3340541</v>
       </c>
-      <c r="H493" s="3">
+      <c r="H493" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I493" s="3">
@@ -41615,7 +41618,7 @@
       <c r="G494" s="3">
         <v>3372973</v>
       </c>
-      <c r="H494" s="3">
+      <c r="H494" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I494" s="3">
@@ -41691,7 +41694,7 @@
       <c r="G495" s="3">
         <v>3372973</v>
       </c>
-      <c r="H495" s="3">
+      <c r="H495" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I495" s="3">

--- a/Excel/monster.怪物.xlsx
+++ b/Excel/monster.怪物.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE6EFED-D53B-4DC5-9E64-133718DE9931}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8BA7A5-B75D-457A-95CF-BABA13276421}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4083,10 +4083,10 @@
   <dimension ref="A1:AD651"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="I523" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
+      <selection pane="bottomRight" activeCell="K544" sqref="K544:K651"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5556,7 +5556,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="3">
-        <v>616</v>
+        <v>640</v>
       </c>
       <c r="N19" s="3">
         <v>0</v>
@@ -5632,7 +5632,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
-        <v>1116</v>
+        <v>640</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
@@ -5708,7 +5708,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="3">
-        <v>1206</v>
+        <v>730</v>
       </c>
       <c r="N21" s="3">
         <v>0</v>
@@ -5784,7 +5784,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="3">
-        <v>1342</v>
+        <v>864</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -5860,7 +5860,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="3">
-        <v>1342</v>
+        <v>864</v>
       </c>
       <c r="N23" s="3">
         <v>0</v>
@@ -5936,7 +5936,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
-        <v>1440</v>
+        <v>962</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -6012,7 +6012,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="3">
-        <v>1482</v>
+        <v>990</v>
       </c>
       <c r="N25" s="3">
         <v>0</v>
@@ -6088,7 +6088,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="3">
-        <v>1482</v>
+        <v>990</v>
       </c>
       <c r="N26" s="3">
         <v>0</v>
@@ -6164,7 +6164,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="3">
-        <v>1684</v>
+        <v>1158</v>
       </c>
       <c r="N27" s="3">
         <v>0</v>
@@ -6240,7 +6240,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="3">
-        <v>2020</v>
+        <v>1452</v>
       </c>
       <c r="N28" s="3">
         <v>0</v>
@@ -6316,7 +6316,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="3">
-        <v>2020</v>
+        <v>1452</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -6392,7 +6392,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="3">
-        <v>2020</v>
+        <v>1452</v>
       </c>
       <c r="N30" s="3">
         <v>0</v>
@@ -6468,7 +6468,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="3">
-        <v>2020</v>
+        <v>1452</v>
       </c>
       <c r="N31" s="3">
         <v>0</v>
@@ -6544,7 +6544,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>2100</v>
+        <v>1532</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
@@ -6620,7 +6620,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="3">
-        <v>2100</v>
+        <v>1532</v>
       </c>
       <c r="N33" s="3">
         <v>0</v>
@@ -6696,7 +6696,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="3">
-        <v>2244</v>
+        <v>1666</v>
       </c>
       <c r="N34" s="3">
         <v>0</v>
@@ -6772,7 +6772,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="3">
-        <v>2400</v>
+        <v>1822</v>
       </c>
       <c r="N35" s="3">
         <v>0</v>
@@ -6848,7 +6848,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="3">
-        <v>2504</v>
+        <v>1928</v>
       </c>
       <c r="N36" s="3">
         <v>0</v>
@@ -6924,7 +6924,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="3">
-        <v>2556</v>
+        <v>1978</v>
       </c>
       <c r="N37" s="3">
         <v>0</v>
@@ -7000,7 +7000,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="3">
-        <v>3518</v>
+        <v>2810</v>
       </c>
       <c r="N38" s="3">
         <v>0</v>
@@ -7076,7 +7076,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="3">
-        <v>6368</v>
+        <v>4120</v>
       </c>
       <c r="N39" s="3">
         <v>0</v>
@@ -7152,7 +7152,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="3">
-        <v>7210</v>
+        <v>4768</v>
       </c>
       <c r="N40" s="3">
         <v>0</v>
@@ -7228,7 +7228,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>8184</v>
+        <v>5610</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
@@ -7304,7 +7304,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="3">
-        <v>10336</v>
+        <v>7936</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -7380,7 +7380,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>13136</v>
+        <v>10418</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -7450,13 +7450,13 @@
         <v>0</v>
       </c>
       <c r="K44" s="3">
-        <v>58171</v>
+        <v>59635</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
       </c>
       <c r="M44" s="3">
-        <v>14856</v>
+        <v>11930</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -7526,13 +7526,13 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>87725</v>
+        <v>89932</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>18674</v>
+        <v>15538</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -7602,13 +7602,13 @@
         <v>0</v>
       </c>
       <c r="K46" s="3">
-        <v>122854</v>
+        <v>128082</v>
       </c>
       <c r="L46" s="3">
         <v>0</v>
       </c>
       <c r="M46" s="3">
-        <v>21828</v>
+        <v>18336</v>
       </c>
       <c r="N46" s="3">
         <v>0</v>
@@ -7678,13 +7678,13 @@
         <v>0</v>
       </c>
       <c r="K47" s="3">
-        <v>136914</v>
+        <v>144305</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
       </c>
       <c r="M47" s="3">
-        <v>24172</v>
+        <v>20462</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -7754,13 +7754,13 @@
         <v>0</v>
       </c>
       <c r="K48" s="3">
-        <v>183461</v>
+        <v>189462</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
       </c>
       <c r="M48" s="3">
-        <v>30784</v>
+        <v>28056</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -7830,13 +7830,13 @@
         <v>0</v>
       </c>
       <c r="K49" s="3">
-        <v>393308</v>
+        <v>408161</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
       </c>
       <c r="M49" s="3">
-        <v>34664</v>
+        <v>31786</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -13764,7 +13764,7 @@
         <v>0</v>
       </c>
       <c r="M127" s="3">
-        <v>616</v>
+        <v>640</v>
       </c>
       <c r="N127" s="3">
         <v>0</v>
@@ -13840,7 +13840,7 @@
         <v>0</v>
       </c>
       <c r="M128" s="3">
-        <v>1116</v>
+        <v>640</v>
       </c>
       <c r="N128" s="3">
         <v>0</v>
@@ -13916,7 +13916,7 @@
         <v>0</v>
       </c>
       <c r="M129" s="3">
-        <v>1206</v>
+        <v>730</v>
       </c>
       <c r="N129" s="3">
         <v>0</v>
@@ -13992,7 +13992,7 @@
         <v>0</v>
       </c>
       <c r="M130" s="3">
-        <v>1342</v>
+        <v>864</v>
       </c>
       <c r="N130" s="3">
         <v>0</v>
@@ -14068,7 +14068,7 @@
         <v>0</v>
       </c>
       <c r="M131" s="3">
-        <v>1342</v>
+        <v>864</v>
       </c>
       <c r="N131" s="3">
         <v>0</v>
@@ -14144,7 +14144,7 @@
         <v>0</v>
       </c>
       <c r="M132" s="3">
-        <v>1440</v>
+        <v>962</v>
       </c>
       <c r="N132" s="3">
         <v>0</v>
@@ -14220,7 +14220,7 @@
         <v>0</v>
       </c>
       <c r="M133" s="3">
-        <v>1482</v>
+        <v>990</v>
       </c>
       <c r="N133" s="3">
         <v>0</v>
@@ -14296,7 +14296,7 @@
         <v>0</v>
       </c>
       <c r="M134" s="3">
-        <v>1482</v>
+        <v>990</v>
       </c>
       <c r="N134" s="3">
         <v>0</v>
@@ -14372,7 +14372,7 @@
         <v>0</v>
       </c>
       <c r="M135" s="3">
-        <v>1684</v>
+        <v>1158</v>
       </c>
       <c r="N135" s="3">
         <v>0</v>
@@ -14448,7 +14448,7 @@
         <v>0</v>
       </c>
       <c r="M136" s="3">
-        <v>2020</v>
+        <v>1452</v>
       </c>
       <c r="N136" s="3">
         <v>0</v>
@@ -14524,7 +14524,7 @@
         <v>0</v>
       </c>
       <c r="M137" s="3">
-        <v>2020</v>
+        <v>1452</v>
       </c>
       <c r="N137" s="3">
         <v>0</v>
@@ -14600,7 +14600,7 @@
         <v>0</v>
       </c>
       <c r="M138" s="3">
-        <v>2020</v>
+        <v>1452</v>
       </c>
       <c r="N138" s="3">
         <v>0</v>
@@ -14676,7 +14676,7 @@
         <v>0</v>
       </c>
       <c r="M139" s="3">
-        <v>2020</v>
+        <v>1452</v>
       </c>
       <c r="N139" s="3">
         <v>0</v>
@@ -14752,7 +14752,7 @@
         <v>0</v>
       </c>
       <c r="M140" s="3">
-        <v>2100</v>
+        <v>1532</v>
       </c>
       <c r="N140" s="3">
         <v>0</v>
@@ -14828,7 +14828,7 @@
         <v>0</v>
       </c>
       <c r="M141" s="3">
-        <v>2100</v>
+        <v>1532</v>
       </c>
       <c r="N141" s="3">
         <v>0</v>
@@ -14904,7 +14904,7 @@
         <v>0</v>
       </c>
       <c r="M142" s="3">
-        <v>2244</v>
+        <v>1666</v>
       </c>
       <c r="N142" s="3">
         <v>0</v>
@@ -14980,7 +14980,7 @@
         <v>0</v>
       </c>
       <c r="M143" s="3">
-        <v>2400</v>
+        <v>1822</v>
       </c>
       <c r="N143" s="3">
         <v>0</v>
@@ -15056,7 +15056,7 @@
         <v>0</v>
       </c>
       <c r="M144" s="3">
-        <v>2504</v>
+        <v>1928</v>
       </c>
       <c r="N144" s="3">
         <v>0</v>
@@ -15132,7 +15132,7 @@
         <v>0</v>
       </c>
       <c r="M145" s="3">
-        <v>2556</v>
+        <v>1978</v>
       </c>
       <c r="N145" s="3">
         <v>0</v>
@@ -15208,7 +15208,7 @@
         <v>0</v>
       </c>
       <c r="M146" s="3">
-        <v>3518</v>
+        <v>2810</v>
       </c>
       <c r="N146" s="3">
         <v>0</v>
@@ -15284,7 +15284,7 @@
         <v>0</v>
       </c>
       <c r="M147" s="3">
-        <v>6368</v>
+        <v>4120</v>
       </c>
       <c r="N147" s="3">
         <v>0</v>
@@ -15360,7 +15360,7 @@
         <v>0</v>
       </c>
       <c r="M148" s="3">
-        <v>7210</v>
+        <v>4768</v>
       </c>
       <c r="N148" s="3">
         <v>0</v>
@@ -15436,7 +15436,7 @@
         <v>0</v>
       </c>
       <c r="M149" s="3">
-        <v>8184</v>
+        <v>5610</v>
       </c>
       <c r="N149" s="3">
         <v>0</v>
@@ -15512,7 +15512,7 @@
         <v>0</v>
       </c>
       <c r="M150" s="3">
-        <v>10336</v>
+        <v>7936</v>
       </c>
       <c r="N150" s="3">
         <v>0</v>
@@ -15588,7 +15588,7 @@
         <v>0</v>
       </c>
       <c r="M151" s="3">
-        <v>13136</v>
+        <v>10418</v>
       </c>
       <c r="N151" s="3">
         <v>0</v>
@@ -15658,13 +15658,13 @@
         <v>0</v>
       </c>
       <c r="K152" s="3">
-        <v>87256</v>
+        <v>89452</v>
       </c>
       <c r="L152" s="3">
         <v>0</v>
       </c>
       <c r="M152" s="3">
-        <v>14856</v>
+        <v>11930</v>
       </c>
       <c r="N152" s="3">
         <v>0</v>
@@ -15734,13 +15734,13 @@
         <v>0</v>
       </c>
       <c r="K153" s="3">
-        <v>131588</v>
+        <v>134899</v>
       </c>
       <c r="L153" s="3">
         <v>0</v>
       </c>
       <c r="M153" s="3">
-        <v>18674</v>
+        <v>15538</v>
       </c>
       <c r="N153" s="3">
         <v>0</v>
@@ -15810,13 +15810,13 @@
         <v>0</v>
       </c>
       <c r="K154" s="3">
-        <v>184281</v>
+        <v>192123</v>
       </c>
       <c r="L154" s="3">
         <v>0</v>
       </c>
       <c r="M154" s="3">
-        <v>21828</v>
+        <v>18336</v>
       </c>
       <c r="N154" s="3">
         <v>0</v>
@@ -15886,13 +15886,13 @@
         <v>0</v>
       </c>
       <c r="K155" s="3">
-        <v>205372</v>
+        <v>216458</v>
       </c>
       <c r="L155" s="3">
         <v>0</v>
       </c>
       <c r="M155" s="3">
-        <v>24172</v>
+        <v>20462</v>
       </c>
       <c r="N155" s="3">
         <v>0</v>
@@ -15962,13 +15962,13 @@
         <v>0</v>
       </c>
       <c r="K156" s="3">
-        <v>275191</v>
+        <v>284193</v>
       </c>
       <c r="L156" s="3">
         <v>0</v>
       </c>
       <c r="M156" s="3">
-        <v>30784</v>
+        <v>28056</v>
       </c>
       <c r="N156" s="3">
         <v>0</v>
@@ -16038,13 +16038,13 @@
         <v>0</v>
       </c>
       <c r="K157" s="3">
-        <v>589962</v>
+        <v>612242</v>
       </c>
       <c r="L157" s="3">
         <v>0</v>
       </c>
       <c r="M157" s="3">
-        <v>34664</v>
+        <v>31786</v>
       </c>
       <c r="N157" s="3">
         <v>0</v>
@@ -21972,7 +21972,7 @@
         <v>0</v>
       </c>
       <c r="M235" s="3">
-        <v>616</v>
+        <v>640</v>
       </c>
       <c r="N235" s="3">
         <v>0</v>
@@ -22048,7 +22048,7 @@
         <v>0</v>
       </c>
       <c r="M236" s="3">
-        <v>1116</v>
+        <v>640</v>
       </c>
       <c r="N236" s="3">
         <v>0</v>
@@ -22124,7 +22124,7 @@
         <v>0</v>
       </c>
       <c r="M237" s="3">
-        <v>1206</v>
+        <v>730</v>
       </c>
       <c r="N237" s="3">
         <v>0</v>
@@ -22200,7 +22200,7 @@
         <v>0</v>
       </c>
       <c r="M238" s="3">
-        <v>1342</v>
+        <v>864</v>
       </c>
       <c r="N238" s="3">
         <v>0</v>
@@ -22276,7 +22276,7 @@
         <v>0</v>
       </c>
       <c r="M239" s="3">
-        <v>1342</v>
+        <v>864</v>
       </c>
       <c r="N239" s="3">
         <v>0</v>
@@ -22352,7 +22352,7 @@
         <v>0</v>
       </c>
       <c r="M240" s="3">
-        <v>1440</v>
+        <v>962</v>
       </c>
       <c r="N240" s="3">
         <v>0</v>
@@ -22428,7 +22428,7 @@
         <v>0</v>
       </c>
       <c r="M241" s="3">
-        <v>1482</v>
+        <v>990</v>
       </c>
       <c r="N241" s="3">
         <v>0</v>
@@ -22504,7 +22504,7 @@
         <v>0</v>
       </c>
       <c r="M242" s="3">
-        <v>1482</v>
+        <v>990</v>
       </c>
       <c r="N242" s="3">
         <v>0</v>
@@ -22580,7 +22580,7 @@
         <v>0</v>
       </c>
       <c r="M243" s="3">
-        <v>1684</v>
+        <v>1158</v>
       </c>
       <c r="N243" s="3">
         <v>0</v>
@@ -22656,7 +22656,7 @@
         <v>0</v>
       </c>
       <c r="M244" s="3">
-        <v>2020</v>
+        <v>1452</v>
       </c>
       <c r="N244" s="3">
         <v>0</v>
@@ -22732,7 +22732,7 @@
         <v>0</v>
       </c>
       <c r="M245" s="3">
-        <v>2020</v>
+        <v>1452</v>
       </c>
       <c r="N245" s="3">
         <v>0</v>
@@ -22808,7 +22808,7 @@
         <v>0</v>
       </c>
       <c r="M246" s="3">
-        <v>2020</v>
+        <v>1452</v>
       </c>
       <c r="N246" s="3">
         <v>0</v>
@@ -22884,7 +22884,7 @@
         <v>0</v>
       </c>
       <c r="M247" s="3">
-        <v>2020</v>
+        <v>1452</v>
       </c>
       <c r="N247" s="3">
         <v>0</v>
@@ -22960,7 +22960,7 @@
         <v>0</v>
       </c>
       <c r="M248" s="3">
-        <v>2100</v>
+        <v>1532</v>
       </c>
       <c r="N248" s="3">
         <v>0</v>
@@ -23036,7 +23036,7 @@
         <v>0</v>
       </c>
       <c r="M249" s="3">
-        <v>2100</v>
+        <v>1532</v>
       </c>
       <c r="N249" s="3">
         <v>0</v>
@@ -23112,7 +23112,7 @@
         <v>0</v>
       </c>
       <c r="M250" s="3">
-        <v>2244</v>
+        <v>1666</v>
       </c>
       <c r="N250" s="3">
         <v>0</v>
@@ -23188,7 +23188,7 @@
         <v>0</v>
       </c>
       <c r="M251" s="3">
-        <v>2400</v>
+        <v>1822</v>
       </c>
       <c r="N251" s="3">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="M252" s="3">
-        <v>2504</v>
+        <v>1928</v>
       </c>
       <c r="N252" s="3">
         <v>0</v>
@@ -23340,7 +23340,7 @@
         <v>0</v>
       </c>
       <c r="M253" s="3">
-        <v>2556</v>
+        <v>1978</v>
       </c>
       <c r="N253" s="3">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="M254" s="3">
-        <v>3518</v>
+        <v>2810</v>
       </c>
       <c r="N254" s="3">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         <v>0</v>
       </c>
       <c r="M255" s="3">
-        <v>6368</v>
+        <v>4120</v>
       </c>
       <c r="N255" s="3">
         <v>0</v>
@@ -23568,7 +23568,7 @@
         <v>0</v>
       </c>
       <c r="M256" s="3">
-        <v>7210</v>
+        <v>4768</v>
       </c>
       <c r="N256" s="3">
         <v>0</v>
@@ -23644,7 +23644,7 @@
         <v>0</v>
       </c>
       <c r="M257" s="3">
-        <v>8184</v>
+        <v>5610</v>
       </c>
       <c r="N257" s="3">
         <v>0</v>
@@ -23720,7 +23720,7 @@
         <v>0</v>
       </c>
       <c r="M258" s="3">
-        <v>10336</v>
+        <v>7936</v>
       </c>
       <c r="N258" s="3">
         <v>0</v>
@@ -23796,7 +23796,7 @@
         <v>0</v>
       </c>
       <c r="M259" s="3">
-        <v>13136</v>
+        <v>10418</v>
       </c>
       <c r="N259" s="3">
         <v>0</v>
@@ -23866,13 +23866,13 @@
         <v>0</v>
       </c>
       <c r="K260" s="3">
-        <v>174513</v>
+        <v>178905</v>
       </c>
       <c r="L260" s="3">
         <v>0</v>
       </c>
       <c r="M260" s="3">
-        <v>14856</v>
+        <v>11930</v>
       </c>
       <c r="N260" s="3">
         <v>0</v>
@@ -23942,13 +23942,13 @@
         <v>0</v>
       </c>
       <c r="K261" s="3">
-        <v>263176</v>
+        <v>269798</v>
       </c>
       <c r="L261" s="3">
         <v>0</v>
       </c>
       <c r="M261" s="3">
-        <v>18674</v>
+        <v>15538</v>
       </c>
       <c r="N261" s="3">
         <v>0</v>
@@ -24018,13 +24018,13 @@
         <v>0</v>
       </c>
       <c r="K262" s="3">
-        <v>368563</v>
+        <v>384246</v>
       </c>
       <c r="L262" s="3">
         <v>0</v>
       </c>
       <c r="M262" s="3">
-        <v>21828</v>
+        <v>18336</v>
       </c>
       <c r="N262" s="3">
         <v>0</v>
@@ -24094,13 +24094,13 @@
         <v>0</v>
       </c>
       <c r="K263" s="3">
-        <v>410744</v>
+        <v>432917</v>
       </c>
       <c r="L263" s="3">
         <v>0</v>
       </c>
       <c r="M263" s="3">
-        <v>24172</v>
+        <v>20462</v>
       </c>
       <c r="N263" s="3">
         <v>0</v>
@@ -24170,13 +24170,13 @@
         <v>0</v>
       </c>
       <c r="K264" s="3">
-        <v>550383</v>
+        <v>568387</v>
       </c>
       <c r="L264" s="3">
         <v>0</v>
       </c>
       <c r="M264" s="3">
-        <v>30784</v>
+        <v>28056</v>
       </c>
       <c r="N264" s="3">
         <v>0</v>
@@ -24246,13 +24246,13 @@
         <v>0</v>
       </c>
       <c r="K265" s="3">
-        <v>1179924</v>
+        <v>1224484</v>
       </c>
       <c r="L265" s="3">
         <v>0</v>
       </c>
       <c r="M265" s="3">
-        <v>34664</v>
+        <v>31786</v>
       </c>
       <c r="N265" s="3">
         <v>0</v>
@@ -30180,7 +30180,7 @@
         <v>0</v>
       </c>
       <c r="M343" s="3">
-        <v>616</v>
+        <v>640</v>
       </c>
       <c r="N343" s="3">
         <v>0</v>
@@ -30256,7 +30256,7 @@
         <v>0</v>
       </c>
       <c r="M344" s="3">
-        <v>1116</v>
+        <v>640</v>
       </c>
       <c r="N344" s="3">
         <v>0</v>
@@ -30332,7 +30332,7 @@
         <v>0</v>
       </c>
       <c r="M345" s="3">
-        <v>1206</v>
+        <v>730</v>
       </c>
       <c r="N345" s="3">
         <v>0</v>
@@ -30408,7 +30408,7 @@
         <v>0</v>
       </c>
       <c r="M346" s="3">
-        <v>1342</v>
+        <v>864</v>
       </c>
       <c r="N346" s="3">
         <v>0</v>
@@ -30484,7 +30484,7 @@
         <v>0</v>
       </c>
       <c r="M347" s="3">
-        <v>1342</v>
+        <v>864</v>
       </c>
       <c r="N347" s="3">
         <v>0</v>
@@ -30560,7 +30560,7 @@
         <v>0</v>
       </c>
       <c r="M348" s="3">
-        <v>1440</v>
+        <v>962</v>
       </c>
       <c r="N348" s="3">
         <v>0</v>
@@ -30636,7 +30636,7 @@
         <v>0</v>
       </c>
       <c r="M349" s="3">
-        <v>1482</v>
+        <v>990</v>
       </c>
       <c r="N349" s="3">
         <v>0</v>
@@ -30712,7 +30712,7 @@
         <v>0</v>
       </c>
       <c r="M350" s="3">
-        <v>1482</v>
+        <v>990</v>
       </c>
       <c r="N350" s="3">
         <v>0</v>
@@ -30788,7 +30788,7 @@
         <v>0</v>
       </c>
       <c r="M351" s="3">
-        <v>1684</v>
+        <v>1158</v>
       </c>
       <c r="N351" s="3">
         <v>0</v>
@@ -30864,7 +30864,7 @@
         <v>0</v>
       </c>
       <c r="M352" s="3">
-        <v>2020</v>
+        <v>1452</v>
       </c>
       <c r="N352" s="3">
         <v>0</v>
@@ -30940,7 +30940,7 @@
         <v>0</v>
       </c>
       <c r="M353" s="3">
-        <v>2020</v>
+        <v>1452</v>
       </c>
       <c r="N353" s="3">
         <v>0</v>
@@ -31016,7 +31016,7 @@
         <v>0</v>
       </c>
       <c r="M354" s="3">
-        <v>2020</v>
+        <v>1452</v>
       </c>
       <c r="N354" s="3">
         <v>0</v>
@@ -31092,7 +31092,7 @@
         <v>0</v>
       </c>
       <c r="M355" s="3">
-        <v>2020</v>
+        <v>1452</v>
       </c>
       <c r="N355" s="3">
         <v>0</v>
@@ -31168,7 +31168,7 @@
         <v>0</v>
       </c>
       <c r="M356" s="3">
-        <v>2100</v>
+        <v>1532</v>
       </c>
       <c r="N356" s="3">
         <v>0</v>
@@ -31244,7 +31244,7 @@
         <v>0</v>
       </c>
       <c r="M357" s="3">
-        <v>2100</v>
+        <v>1532</v>
       </c>
       <c r="N357" s="3">
         <v>0</v>
@@ -31320,7 +31320,7 @@
         <v>0</v>
       </c>
       <c r="M358" s="3">
-        <v>2244</v>
+        <v>1666</v>
       </c>
       <c r="N358" s="3">
         <v>0</v>
@@ -31396,7 +31396,7 @@
         <v>0</v>
       </c>
       <c r="M359" s="3">
-        <v>2400</v>
+        <v>1822</v>
       </c>
       <c r="N359" s="3">
         <v>0</v>
@@ -31472,7 +31472,7 @@
         <v>0</v>
       </c>
       <c r="M360" s="3">
-        <v>2504</v>
+        <v>1928</v>
       </c>
       <c r="N360" s="3">
         <v>0</v>
@@ -31548,7 +31548,7 @@
         <v>0</v>
       </c>
       <c r="M361" s="3">
-        <v>2556</v>
+        <v>1978</v>
       </c>
       <c r="N361" s="3">
         <v>0</v>
@@ -31624,7 +31624,7 @@
         <v>0</v>
       </c>
       <c r="M362" s="3">
-        <v>3518</v>
+        <v>2810</v>
       </c>
       <c r="N362" s="3">
         <v>0</v>
@@ -31700,7 +31700,7 @@
         <v>0</v>
       </c>
       <c r="M363" s="3">
-        <v>6368</v>
+        <v>4120</v>
       </c>
       <c r="N363" s="3">
         <v>0</v>
@@ -31776,7 +31776,7 @@
         <v>0</v>
       </c>
       <c r="M364" s="3">
-        <v>7210</v>
+        <v>4768</v>
       </c>
       <c r="N364" s="3">
         <v>0</v>
@@ -31852,7 +31852,7 @@
         <v>0</v>
       </c>
       <c r="M365" s="3">
-        <v>8184</v>
+        <v>5610</v>
       </c>
       <c r="N365" s="3">
         <v>0</v>
@@ -31928,7 +31928,7 @@
         <v>0</v>
       </c>
       <c r="M366" s="3">
-        <v>10336</v>
+        <v>7936</v>
       </c>
       <c r="N366" s="3">
         <v>0</v>
@@ -32004,7 +32004,7 @@
         <v>0</v>
       </c>
       <c r="M367" s="3">
-        <v>13136</v>
+        <v>10418</v>
       </c>
       <c r="N367" s="3">
         <v>0</v>
@@ -32074,13 +32074,13 @@
         <v>0</v>
       </c>
       <c r="K368" s="3">
-        <v>232684</v>
+        <v>238540</v>
       </c>
       <c r="L368" s="3">
         <v>0</v>
       </c>
       <c r="M368" s="3">
-        <v>14856</v>
+        <v>11930</v>
       </c>
       <c r="N368" s="3">
         <v>0</v>
@@ -32150,13 +32150,13 @@
         <v>0</v>
       </c>
       <c r="K369" s="3">
-        <v>350901</v>
+        <v>359731</v>
       </c>
       <c r="L369" s="3">
         <v>0</v>
       </c>
       <c r="M369" s="3">
-        <v>18674</v>
+        <v>15538</v>
       </c>
       <c r="N369" s="3">
         <v>0</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="K370" s="3">
-        <v>491417</v>
+        <v>512328</v>
       </c>
       <c r="L370" s="3">
         <v>0</v>
       </c>
       <c r="M370" s="3">
-        <v>21828</v>
+        <v>18336</v>
       </c>
       <c r="N370" s="3">
         <v>0</v>
@@ -32302,13 +32302,13 @@
         <v>0</v>
       </c>
       <c r="K371" s="3">
-        <v>547659</v>
+        <v>577223</v>
       </c>
       <c r="L371" s="3">
         <v>0</v>
       </c>
       <c r="M371" s="3">
-        <v>24172</v>
+        <v>20462</v>
       </c>
       <c r="N371" s="3">
         <v>0</v>
@@ -32378,13 +32378,13 @@
         <v>0</v>
       </c>
       <c r="K372" s="3">
-        <v>733844</v>
+        <v>757849</v>
       </c>
       <c r="L372" s="3">
         <v>0</v>
       </c>
       <c r="M372" s="3">
-        <v>30784</v>
+        <v>28056</v>
       </c>
       <c r="N372" s="3">
         <v>0</v>
@@ -32454,13 +32454,13 @@
         <v>0</v>
       </c>
       <c r="K373" s="3">
-        <v>1573232</v>
+        <v>1632646</v>
       </c>
       <c r="L373" s="3">
         <v>0</v>
       </c>
       <c r="M373" s="3">
-        <v>34664</v>
+        <v>31786</v>
       </c>
       <c r="N373" s="3">
         <v>0</v>
@@ -38388,7 +38388,7 @@
         <v>0</v>
       </c>
       <c r="M451" s="3">
-        <v>616</v>
+        <v>640</v>
       </c>
       <c r="N451" s="3">
         <v>0</v>
@@ -38464,7 +38464,7 @@
         <v>0</v>
       </c>
       <c r="M452" s="3">
-        <v>1116</v>
+        <v>640</v>
       </c>
       <c r="N452" s="3">
         <v>0</v>
@@ -38540,7 +38540,7 @@
         <v>0</v>
       </c>
       <c r="M453" s="3">
-        <v>1206</v>
+        <v>730</v>
       </c>
       <c r="N453" s="3">
         <v>0</v>
@@ -38616,7 +38616,7 @@
         <v>0</v>
       </c>
       <c r="M454" s="3">
-        <v>1342</v>
+        <v>864</v>
       </c>
       <c r="N454" s="3">
         <v>0</v>
@@ -38692,7 +38692,7 @@
         <v>0</v>
       </c>
       <c r="M455" s="3">
-        <v>1342</v>
+        <v>864</v>
       </c>
       <c r="N455" s="3">
         <v>0</v>
@@ -38768,7 +38768,7 @@
         <v>0</v>
       </c>
       <c r="M456" s="3">
-        <v>1440</v>
+        <v>962</v>
       </c>
       <c r="N456" s="3">
         <v>0</v>
@@ -38844,7 +38844,7 @@
         <v>0</v>
       </c>
       <c r="M457" s="3">
-        <v>1482</v>
+        <v>990</v>
       </c>
       <c r="N457" s="3">
         <v>0</v>
@@ -38920,7 +38920,7 @@
         <v>0</v>
       </c>
       <c r="M458" s="3">
-        <v>1482</v>
+        <v>990</v>
       </c>
       <c r="N458" s="3">
         <v>0</v>
@@ -38996,7 +38996,7 @@
         <v>0</v>
       </c>
       <c r="M459" s="3">
-        <v>1684</v>
+        <v>1158</v>
       </c>
       <c r="N459" s="3">
         <v>0</v>
@@ -39072,7 +39072,7 @@
         <v>0</v>
       </c>
       <c r="M460" s="3">
-        <v>2020</v>
+        <v>1452</v>
       </c>
       <c r="N460" s="3">
         <v>0</v>
@@ -39148,7 +39148,7 @@
         <v>0</v>
       </c>
       <c r="M461" s="3">
-        <v>2020</v>
+        <v>1452</v>
       </c>
       <c r="N461" s="3">
         <v>0</v>
@@ -39224,7 +39224,7 @@
         <v>0</v>
       </c>
       <c r="M462" s="3">
-        <v>2020</v>
+        <v>1452</v>
       </c>
       <c r="N462" s="3">
         <v>0</v>
@@ -39300,7 +39300,7 @@
         <v>0</v>
       </c>
       <c r="M463" s="3">
-        <v>2020</v>
+        <v>1452</v>
       </c>
       <c r="N463" s="3">
         <v>0</v>
@@ -39376,7 +39376,7 @@
         <v>0</v>
       </c>
       <c r="M464" s="3">
-        <v>2100</v>
+        <v>1532</v>
       </c>
       <c r="N464" s="3">
         <v>0</v>
@@ -39452,7 +39452,7 @@
         <v>0</v>
       </c>
       <c r="M465" s="3">
-        <v>2100</v>
+        <v>1532</v>
       </c>
       <c r="N465" s="3">
         <v>0</v>
@@ -39528,7 +39528,7 @@
         <v>0</v>
       </c>
       <c r="M466" s="3">
-        <v>2244</v>
+        <v>1666</v>
       </c>
       <c r="N466" s="3">
         <v>0</v>
@@ -39604,7 +39604,7 @@
         <v>0</v>
       </c>
       <c r="M467" s="3">
-        <v>2400</v>
+        <v>1822</v>
       </c>
       <c r="N467" s="3">
         <v>0</v>
@@ -39680,7 +39680,7 @@
         <v>0</v>
       </c>
       <c r="M468" s="3">
-        <v>2504</v>
+        <v>1928</v>
       </c>
       <c r="N468" s="3">
         <v>0</v>
@@ -39756,7 +39756,7 @@
         <v>0</v>
       </c>
       <c r="M469" s="3">
-        <v>2556</v>
+        <v>1978</v>
       </c>
       <c r="N469" s="3">
         <v>0</v>
@@ -39832,7 +39832,7 @@
         <v>0</v>
       </c>
       <c r="M470" s="3">
-        <v>3518</v>
+        <v>2810</v>
       </c>
       <c r="N470" s="3">
         <v>0</v>
@@ -39908,7 +39908,7 @@
         <v>0</v>
       </c>
       <c r="M471" s="3">
-        <v>6368</v>
+        <v>4120</v>
       </c>
       <c r="N471" s="3">
         <v>0</v>
@@ -39984,7 +39984,7 @@
         <v>0</v>
       </c>
       <c r="M472" s="3">
-        <v>7210</v>
+        <v>4768</v>
       </c>
       <c r="N472" s="3">
         <v>0</v>
@@ -40060,7 +40060,7 @@
         <v>0</v>
       </c>
       <c r="M473" s="3">
-        <v>8184</v>
+        <v>5610</v>
       </c>
       <c r="N473" s="3">
         <v>0</v>
@@ -40136,7 +40136,7 @@
         <v>0</v>
       </c>
       <c r="M474" s="3">
-        <v>10336</v>
+        <v>7936</v>
       </c>
       <c r="N474" s="3">
         <v>0</v>
@@ -40212,7 +40212,7 @@
         <v>0</v>
       </c>
       <c r="M475" s="3">
-        <v>13136</v>
+        <v>10418</v>
       </c>
       <c r="N475" s="3">
         <v>0</v>
@@ -40282,13 +40282,13 @@
         <v>0</v>
       </c>
       <c r="K476" s="3">
-        <v>727138</v>
+        <v>745437</v>
       </c>
       <c r="L476" s="3">
         <v>0</v>
       </c>
       <c r="M476" s="3">
-        <v>14856</v>
+        <v>11930</v>
       </c>
       <c r="N476" s="3">
         <v>0</v>
@@ -40358,13 +40358,13 @@
         <v>0</v>
       </c>
       <c r="K477" s="3">
-        <v>1096566</v>
+        <v>1124162</v>
       </c>
       <c r="L477" s="3">
         <v>0</v>
       </c>
       <c r="M477" s="3">
-        <v>18674</v>
+        <v>15538</v>
       </c>
       <c r="N477" s="3">
         <v>0</v>
@@ -40434,13 +40434,13 @@
         <v>0</v>
       </c>
       <c r="K478" s="3">
-        <v>1535679</v>
+        <v>1601027</v>
       </c>
       <c r="L478" s="3">
         <v>0</v>
       </c>
       <c r="M478" s="3">
-        <v>21828</v>
+        <v>18336</v>
       </c>
       <c r="N478" s="3">
         <v>0</v>
@@ -40510,13 +40510,13 @@
         <v>0</v>
       </c>
       <c r="K479" s="3">
-        <v>1711434</v>
+        <v>1803823</v>
       </c>
       <c r="L479" s="3">
         <v>0</v>
       </c>
       <c r="M479" s="3">
-        <v>24172</v>
+        <v>20462</v>
       </c>
       <c r="N479" s="3">
         <v>0</v>
@@ -40586,13 +40586,13 @@
         <v>0</v>
       </c>
       <c r="K480" s="3">
-        <v>2293265</v>
+        <v>2368280</v>
       </c>
       <c r="L480" s="3">
         <v>0</v>
       </c>
       <c r="M480" s="3">
-        <v>30784</v>
+        <v>28056</v>
       </c>
       <c r="N480" s="3">
         <v>0</v>
@@ -40662,13 +40662,13 @@
         <v>0</v>
       </c>
       <c r="K481" s="3">
-        <v>4916350</v>
+        <v>5102019</v>
       </c>
       <c r="L481" s="3">
         <v>0</v>
       </c>
       <c r="M481" s="3">
-        <v>34664</v>
+        <v>31786</v>
       </c>
       <c r="N481" s="3">
         <v>0</v>
@@ -46596,7 +46596,7 @@
         <v>0</v>
       </c>
       <c r="M559" s="3">
-        <v>616</v>
+        <v>640</v>
       </c>
       <c r="N559" s="3">
         <v>0</v>
@@ -46672,7 +46672,7 @@
         <v>0</v>
       </c>
       <c r="M560" s="3">
-        <v>1116</v>
+        <v>640</v>
       </c>
       <c r="N560" s="3">
         <v>0</v>
@@ -46748,7 +46748,7 @@
         <v>0</v>
       </c>
       <c r="M561" s="3">
-        <v>1206</v>
+        <v>730</v>
       </c>
       <c r="N561" s="3">
         <v>0</v>
@@ -46824,7 +46824,7 @@
         <v>0</v>
       </c>
       <c r="M562" s="3">
-        <v>1342</v>
+        <v>864</v>
       </c>
       <c r="N562" s="3">
         <v>0</v>
@@ -46900,7 +46900,7 @@
         <v>0</v>
       </c>
       <c r="M563" s="3">
-        <v>1342</v>
+        <v>864</v>
       </c>
       <c r="N563" s="3">
         <v>0</v>
@@ -46976,7 +46976,7 @@
         <v>0</v>
       </c>
       <c r="M564" s="3">
-        <v>1440</v>
+        <v>962</v>
       </c>
       <c r="N564" s="3">
         <v>0</v>
@@ -47052,7 +47052,7 @@
         <v>0</v>
       </c>
       <c r="M565" s="3">
-        <v>1482</v>
+        <v>990</v>
       </c>
       <c r="N565" s="3">
         <v>0</v>
@@ -47128,7 +47128,7 @@
         <v>0</v>
       </c>
       <c r="M566" s="3">
-        <v>1482</v>
+        <v>990</v>
       </c>
       <c r="N566" s="3">
         <v>0</v>
@@ -47204,7 +47204,7 @@
         <v>0</v>
       </c>
       <c r="M567" s="3">
-        <v>1684</v>
+        <v>1158</v>
       </c>
       <c r="N567" s="3">
         <v>0</v>
@@ -47280,7 +47280,7 @@
         <v>0</v>
       </c>
       <c r="M568" s="3">
-        <v>2020</v>
+        <v>1452</v>
       </c>
       <c r="N568" s="3">
         <v>0</v>
@@ -47356,7 +47356,7 @@
         <v>0</v>
       </c>
       <c r="M569" s="3">
-        <v>2020</v>
+        <v>1452</v>
       </c>
       <c r="N569" s="3">
         <v>0</v>
@@ -47432,7 +47432,7 @@
         <v>0</v>
       </c>
       <c r="M570" s="3">
-        <v>2020</v>
+        <v>1452</v>
       </c>
       <c r="N570" s="3">
         <v>0</v>
@@ -47508,7 +47508,7 @@
         <v>0</v>
       </c>
       <c r="M571" s="3">
-        <v>2020</v>
+        <v>1452</v>
       </c>
       <c r="N571" s="3">
         <v>0</v>
@@ -47584,7 +47584,7 @@
         <v>0</v>
       </c>
       <c r="M572" s="3">
-        <v>2100</v>
+        <v>1532</v>
       </c>
       <c r="N572" s="3">
         <v>0</v>
@@ -47660,7 +47660,7 @@
         <v>0</v>
       </c>
       <c r="M573" s="3">
-        <v>2100</v>
+        <v>1532</v>
       </c>
       <c r="N573" s="3">
         <v>0</v>
@@ -47736,7 +47736,7 @@
         <v>0</v>
       </c>
       <c r="M574" s="3">
-        <v>2244</v>
+        <v>1666</v>
       </c>
       <c r="N574" s="3">
         <v>0</v>
@@ -47812,7 +47812,7 @@
         <v>0</v>
       </c>
       <c r="M575" s="3">
-        <v>2400</v>
+        <v>1822</v>
       </c>
       <c r="N575" s="3">
         <v>0</v>
@@ -47888,7 +47888,7 @@
         <v>0</v>
       </c>
       <c r="M576" s="3">
-        <v>2504</v>
+        <v>1928</v>
       </c>
       <c r="N576" s="3">
         <v>0</v>
@@ -47964,7 +47964,7 @@
         <v>0</v>
       </c>
       <c r="M577" s="3">
-        <v>2556</v>
+        <v>1978</v>
       </c>
       <c r="N577" s="3">
         <v>0</v>
@@ -48040,7 +48040,7 @@
         <v>0</v>
       </c>
       <c r="M578" s="3">
-        <v>3518</v>
+        <v>2810</v>
       </c>
       <c r="N578" s="3">
         <v>0</v>
@@ -48116,7 +48116,7 @@
         <v>0</v>
       </c>
       <c r="M579" s="3">
-        <v>6368</v>
+        <v>4120</v>
       </c>
       <c r="N579" s="3">
         <v>0</v>
@@ -48192,7 +48192,7 @@
         <v>0</v>
       </c>
       <c r="M580" s="3">
-        <v>7210</v>
+        <v>4768</v>
       </c>
       <c r="N580" s="3">
         <v>0</v>
@@ -48268,7 +48268,7 @@
         <v>0</v>
       </c>
       <c r="M581" s="3">
-        <v>8184</v>
+        <v>5610</v>
       </c>
       <c r="N581" s="3">
         <v>0</v>
@@ -48344,7 +48344,7 @@
         <v>0</v>
       </c>
       <c r="M582" s="3">
-        <v>10336</v>
+        <v>7936</v>
       </c>
       <c r="N582" s="3">
         <v>0</v>
@@ -48420,7 +48420,7 @@
         <v>0</v>
       </c>
       <c r="M583" s="3">
-        <v>13136</v>
+        <v>10418</v>
       </c>
       <c r="N583" s="3">
         <v>0</v>
@@ -48490,13 +48490,13 @@
         <v>0</v>
       </c>
       <c r="K584" s="3">
-        <v>1745132</v>
+        <v>1789050</v>
       </c>
       <c r="L584" s="3">
         <v>0</v>
       </c>
       <c r="M584" s="3">
-        <v>14856</v>
+        <v>11930</v>
       </c>
       <c r="N584" s="3">
         <v>0</v>
@@ -48566,13 +48566,13 @@
         <v>0</v>
       </c>
       <c r="K585" s="3">
-        <v>2631760</v>
+        <v>2697989</v>
       </c>
       <c r="L585" s="3">
         <v>0</v>
       </c>
       <c r="M585" s="3">
-        <v>18674</v>
+        <v>15538</v>
       </c>
       <c r="N585" s="3">
         <v>0</v>
@@ -48642,13 +48642,13 @@
         <v>0</v>
       </c>
       <c r="K586" s="3">
-        <v>3685630</v>
+        <v>3842466</v>
       </c>
       <c r="L586" s="3">
         <v>0</v>
       </c>
       <c r="M586" s="3">
-        <v>21828</v>
+        <v>18336</v>
       </c>
       <c r="N586" s="3">
         <v>0</v>
@@ -48718,13 +48718,13 @@
         <v>0</v>
       </c>
       <c r="K587" s="3">
-        <v>4107442</v>
+        <v>4329176</v>
       </c>
       <c r="L587" s="3">
         <v>0</v>
       </c>
       <c r="M587" s="3">
-        <v>24172</v>
+        <v>20462</v>
       </c>
       <c r="N587" s="3">
         <v>0</v>
@@ -48794,13 +48794,13 @@
         <v>0</v>
       </c>
       <c r="K588" s="3">
-        <v>5503837</v>
+        <v>5683872</v>
       </c>
       <c r="L588" s="3">
         <v>0</v>
       </c>
       <c r="M588" s="3">
-        <v>30784</v>
+        <v>28056</v>
       </c>
       <c r="N588" s="3">
         <v>0</v>
@@ -48870,13 +48870,13 @@
         <v>0</v>
       </c>
       <c r="K589" s="3">
-        <v>11799241</v>
+        <v>12244847</v>
       </c>
       <c r="L589" s="3">
         <v>0</v>
       </c>
       <c r="M589" s="3">
-        <v>34664</v>
+        <v>31786</v>
       </c>
       <c r="N589" s="3">
         <v>0</v>

--- a/Excel/monster.怪物.xlsx
+++ b/Excel/monster.怪物.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838BAE55-DB1C-4AE2-80F7-C589C22B413F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1EB0F4C-F61B-4BB4-8547-FB2A5FB6E41A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4192,10 +4192,10 @@
   <dimension ref="A1:AO651"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="O124" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AH4" sqref="AH4"/>
+      <selection pane="bottomRight" activeCell="V141" sqref="V141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4645,7 +4645,7 @@
         <v>0</v>
       </c>
       <c r="U4" s="3">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="V4" s="3">
         <v>0</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="U5" s="3">
-        <v>1</v>
+        <v>0.32</v>
       </c>
       <c r="V5" s="3">
         <v>0</v>
@@ -4847,7 +4847,7 @@
         <v>0</v>
       </c>
       <c r="U6" s="3">
-        <v>1</v>
+        <v>0.34</v>
       </c>
       <c r="V6" s="3">
         <v>0</v>
@@ -4948,7 +4948,7 @@
         <v>0</v>
       </c>
       <c r="U7" s="3">
-        <v>1</v>
+        <v>0.36</v>
       </c>
       <c r="V7" s="3">
         <v>0</v>
@@ -5049,7 +5049,7 @@
         <v>0</v>
       </c>
       <c r="U8" s="3">
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="V8" s="3">
         <v>0</v>
@@ -5150,7 +5150,7 @@
         <v>0</v>
       </c>
       <c r="U9" s="3">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="V9" s="3">
         <v>0</v>
@@ -5251,7 +5251,7 @@
         <v>0</v>
       </c>
       <c r="U10" s="3">
-        <v>1</v>
+        <v>0.42</v>
       </c>
       <c r="V10" s="3">
         <v>0</v>
@@ -5352,7 +5352,7 @@
         <v>0</v>
       </c>
       <c r="U11" s="3">
-        <v>1</v>
+        <v>0.44</v>
       </c>
       <c r="V11" s="3">
         <v>0</v>
@@ -5453,7 +5453,7 @@
         <v>0</v>
       </c>
       <c r="U12" s="3">
-        <v>1</v>
+        <v>0.46</v>
       </c>
       <c r="V12" s="3">
         <v>0</v>
@@ -5554,7 +5554,7 @@
         <v>0</v>
       </c>
       <c r="U13" s="3">
-        <v>1</v>
+        <v>0.48</v>
       </c>
       <c r="V13" s="3">
         <v>0</v>
@@ -5655,7 +5655,7 @@
         <v>0</v>
       </c>
       <c r="U14" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -5756,7 +5756,7 @@
         <v>0</v>
       </c>
       <c r="U15" s="3">
-        <v>1</v>
+        <v>0.52</v>
       </c>
       <c r="V15" s="3">
         <v>0</v>
@@ -5857,7 +5857,7 @@
         <v>0</v>
       </c>
       <c r="U16" s="3">
-        <v>1</v>
+        <v>0.54</v>
       </c>
       <c r="V16" s="3">
         <v>0</v>
@@ -5958,7 +5958,7 @@
         <v>0</v>
       </c>
       <c r="U17" s="3">
-        <v>1</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="V17" s="3">
         <v>0</v>
@@ -6059,7 +6059,7 @@
         <v>0</v>
       </c>
       <c r="U18" s="3">
-        <v>1</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="V18" s="3">
         <v>0</v>
@@ -6160,7 +6160,7 @@
         <v>0</v>
       </c>
       <c r="U19" s="3">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="V19" s="3">
         <v>0</v>
@@ -6261,7 +6261,7 @@
         <v>0</v>
       </c>
       <c r="U20" s="3">
-        <v>1</v>
+        <v>0.62</v>
       </c>
       <c r="V20" s="3">
         <v>0</v>
@@ -6362,7 +6362,7 @@
         <v>0</v>
       </c>
       <c r="U21" s="3">
-        <v>1</v>
+        <v>0.64</v>
       </c>
       <c r="V21" s="3">
         <v>0</v>
@@ -6463,7 +6463,7 @@
         <v>0</v>
       </c>
       <c r="U22" s="3">
-        <v>1</v>
+        <v>0.66</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
@@ -6564,7 +6564,7 @@
         <v>0</v>
       </c>
       <c r="U23" s="3">
-        <v>1</v>
+        <v>0.68</v>
       </c>
       <c r="V23" s="3">
         <v>0</v>
@@ -6665,7 +6665,7 @@
         <v>0</v>
       </c>
       <c r="U24" s="3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="V24" s="3">
         <v>0</v>
@@ -6766,7 +6766,7 @@
         <v>0</v>
       </c>
       <c r="U25" s="3">
-        <v>1</v>
+        <v>0.72</v>
       </c>
       <c r="V25" s="3">
         <v>0</v>
@@ -6867,7 +6867,7 @@
         <v>0</v>
       </c>
       <c r="U26" s="3">
-        <v>1</v>
+        <v>0.74</v>
       </c>
       <c r="V26" s="3">
         <v>0</v>
@@ -6968,7 +6968,7 @@
         <v>0</v>
       </c>
       <c r="U27" s="3">
-        <v>1</v>
+        <v>0.76</v>
       </c>
       <c r="V27" s="3">
         <v>0</v>
@@ -7069,7 +7069,7 @@
         <v>0</v>
       </c>
       <c r="U28" s="3">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="V28" s="3">
         <v>0</v>
@@ -7170,7 +7170,7 @@
         <v>0</v>
       </c>
       <c r="U29" s="3">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="V29" s="3">
         <v>0</v>
@@ -7271,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="U30" s="3">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="V30" s="3">
         <v>0</v>
@@ -7372,7 +7372,7 @@
         <v>0</v>
       </c>
       <c r="U31" s="3">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="V31" s="3">
         <v>0</v>
@@ -7473,7 +7473,7 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="V32" s="3">
         <v>0</v>
@@ -7574,7 +7574,7 @@
         <v>0</v>
       </c>
       <c r="U33" s="3">
-        <v>1</v>
+        <v>0.880000000000001</v>
       </c>
       <c r="V33" s="3">
         <v>0</v>
@@ -7675,7 +7675,7 @@
         <v>0</v>
       </c>
       <c r="U34" s="3">
-        <v>1</v>
+        <v>0.90000000000000102</v>
       </c>
       <c r="V34" s="3">
         <v>0</v>
@@ -7776,7 +7776,7 @@
         <v>0</v>
       </c>
       <c r="U35" s="3">
-        <v>1</v>
+        <v>0.92000000000000104</v>
       </c>
       <c r="V35" s="3">
         <v>0</v>
@@ -7877,7 +7877,7 @@
         <v>0</v>
       </c>
       <c r="U36" s="3">
-        <v>1</v>
+        <v>0.94000000000000095</v>
       </c>
       <c r="V36" s="3">
         <v>0</v>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="U37" s="3">
-        <v>1</v>
+        <v>0.96000000000000096</v>
       </c>
       <c r="V37" s="3">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="U38" s="3">
-        <v>1</v>
+        <v>0.98000000000000098</v>
       </c>
       <c r="V38" s="3">
         <v>0</v>
@@ -15553,7 +15553,7 @@
         <v>0</v>
       </c>
       <c r="U112" s="3">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="V112" s="3">
         <v>0</v>
@@ -15654,7 +15654,7 @@
         <v>0</v>
       </c>
       <c r="U113" s="3">
-        <v>1</v>
+        <v>0.32</v>
       </c>
       <c r="V113" s="3">
         <v>0</v>
@@ -15755,7 +15755,7 @@
         <v>0</v>
       </c>
       <c r="U114" s="3">
-        <v>1</v>
+        <v>0.34</v>
       </c>
       <c r="V114" s="3">
         <v>0</v>
@@ -15856,7 +15856,7 @@
         <v>0</v>
       </c>
       <c r="U115" s="3">
-        <v>1</v>
+        <v>0.36</v>
       </c>
       <c r="V115" s="3">
         <v>0</v>
@@ -15957,7 +15957,7 @@
         <v>0</v>
       </c>
       <c r="U116" s="3">
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="V116" s="3">
         <v>0</v>
@@ -16058,7 +16058,7 @@
         <v>0</v>
       </c>
       <c r="U117" s="3">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="V117" s="3">
         <v>0</v>
@@ -16159,7 +16159,7 @@
         <v>0</v>
       </c>
       <c r="U118" s="3">
-        <v>1</v>
+        <v>0.42</v>
       </c>
       <c r="V118" s="3">
         <v>0</v>
@@ -16260,7 +16260,7 @@
         <v>0</v>
       </c>
       <c r="U119" s="3">
-        <v>1</v>
+        <v>0.44</v>
       </c>
       <c r="V119" s="3">
         <v>0</v>
@@ -16361,7 +16361,7 @@
         <v>0</v>
       </c>
       <c r="U120" s="3">
-        <v>1</v>
+        <v>0.46</v>
       </c>
       <c r="V120" s="3">
         <v>0</v>
@@ -16462,7 +16462,7 @@
         <v>0</v>
       </c>
       <c r="U121" s="3">
-        <v>1</v>
+        <v>0.48</v>
       </c>
       <c r="V121" s="3">
         <v>0</v>
@@ -16563,7 +16563,7 @@
         <v>0</v>
       </c>
       <c r="U122" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V122" s="3">
         <v>0</v>
@@ -16664,7 +16664,7 @@
         <v>0</v>
       </c>
       <c r="U123" s="3">
-        <v>1</v>
+        <v>0.52</v>
       </c>
       <c r="V123" s="3">
         <v>0</v>
@@ -16765,7 +16765,7 @@
         <v>0</v>
       </c>
       <c r="U124" s="3">
-        <v>1</v>
+        <v>0.54</v>
       </c>
       <c r="V124" s="3">
         <v>0</v>
@@ -16866,7 +16866,7 @@
         <v>0</v>
       </c>
       <c r="U125" s="3">
-        <v>1</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="V125" s="3">
         <v>0</v>
@@ -16967,7 +16967,7 @@
         <v>0</v>
       </c>
       <c r="U126" s="3">
-        <v>1</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="V126" s="3">
         <v>0</v>
@@ -17068,7 +17068,7 @@
         <v>0</v>
       </c>
       <c r="U127" s="3">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="V127" s="3">
         <v>0</v>
@@ -17169,7 +17169,7 @@
         <v>0</v>
       </c>
       <c r="U128" s="3">
-        <v>1</v>
+        <v>0.62</v>
       </c>
       <c r="V128" s="3">
         <v>0</v>
@@ -17270,7 +17270,7 @@
         <v>0</v>
       </c>
       <c r="U129" s="3">
-        <v>1</v>
+        <v>0.64</v>
       </c>
       <c r="V129" s="3">
         <v>0</v>
@@ -17371,7 +17371,7 @@
         <v>0</v>
       </c>
       <c r="U130" s="3">
-        <v>1</v>
+        <v>0.66</v>
       </c>
       <c r="V130" s="3">
         <v>0</v>
@@ -17472,7 +17472,7 @@
         <v>0</v>
       </c>
       <c r="U131" s="3">
-        <v>1</v>
+        <v>0.68</v>
       </c>
       <c r="V131" s="3">
         <v>0</v>
@@ -17573,7 +17573,7 @@
         <v>0</v>
       </c>
       <c r="U132" s="3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="V132" s="3">
         <v>0</v>
@@ -17674,7 +17674,7 @@
         <v>0</v>
       </c>
       <c r="U133" s="3">
-        <v>1</v>
+        <v>0.72</v>
       </c>
       <c r="V133" s="3">
         <v>0</v>
@@ -17775,7 +17775,7 @@
         <v>0</v>
       </c>
       <c r="U134" s="3">
-        <v>1</v>
+        <v>0.74</v>
       </c>
       <c r="V134" s="3">
         <v>0</v>
@@ -17876,7 +17876,7 @@
         <v>0</v>
       </c>
       <c r="U135" s="3">
-        <v>1</v>
+        <v>0.76</v>
       </c>
       <c r="V135" s="3">
         <v>0</v>
@@ -17977,7 +17977,7 @@
         <v>0</v>
       </c>
       <c r="U136" s="3">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="V136" s="3">
         <v>0</v>
@@ -18078,7 +18078,7 @@
         <v>0</v>
       </c>
       <c r="U137" s="3">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="V137" s="3">
         <v>0</v>
@@ -18179,7 +18179,7 @@
         <v>0</v>
       </c>
       <c r="U138" s="3">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="V138" s="3">
         <v>0</v>
@@ -18280,7 +18280,7 @@
         <v>0</v>
       </c>
       <c r="U139" s="3">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="V139" s="3">
         <v>0</v>
@@ -18381,7 +18381,7 @@
         <v>0</v>
       </c>
       <c r="U140" s="3">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="V140" s="3">
         <v>0</v>
@@ -18482,7 +18482,7 @@
         <v>0</v>
       </c>
       <c r="U141" s="3">
-        <v>1</v>
+        <v>0.880000000000001</v>
       </c>
       <c r="V141" s="3">
         <v>0</v>
@@ -18583,7 +18583,7 @@
         <v>0</v>
       </c>
       <c r="U142" s="3">
-        <v>1</v>
+        <v>0.90000000000000102</v>
       </c>
       <c r="V142" s="3">
         <v>0</v>
@@ -18684,7 +18684,7 @@
         <v>0</v>
       </c>
       <c r="U143" s="3">
-        <v>1</v>
+        <v>0.92000000000000104</v>
       </c>
       <c r="V143" s="3">
         <v>0</v>
@@ -18785,7 +18785,7 @@
         <v>0</v>
       </c>
       <c r="U144" s="3">
-        <v>1</v>
+        <v>0.94000000000000095</v>
       </c>
       <c r="V144" s="3">
         <v>0</v>
@@ -18886,7 +18886,7 @@
         <v>0</v>
       </c>
       <c r="U145" s="3">
-        <v>1</v>
+        <v>0.96000000000000096</v>
       </c>
       <c r="V145" s="3">
         <v>0</v>
@@ -18987,7 +18987,7 @@
         <v>0</v>
       </c>
       <c r="U146" s="3">
-        <v>1</v>
+        <v>0.98000000000000098</v>
       </c>
       <c r="V146" s="3">
         <v>0</v>

--- a/Excel/monster.怪物.xlsx
+++ b/Excel/monster.怪物.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\ship\doc\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9061C0C-2808-4778-9DE1-BCB8B70D4B5C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182D3208-4E10-4E92-80EA-B119E2986106}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4192,10 +4192,10 @@
   <dimension ref="A1:AO651"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="I625" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K544" sqref="K544:K651"/>
+      <selection pane="bottomRight" activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/monster.怪物.xlsx
+++ b/Excel/monster.怪物.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182D3208-4E10-4E92-80EA-B119E2986106}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B815BF-C7E6-4ED9-8E36-30B64AAC02D3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -3756,8 +3756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3884,7 +3884,7 @@
         <v>mon110001</v>
       </c>
       <c r="E5" s="3">
-        <v>10001</v>
+        <v>11001</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -3905,7 +3905,7 @@
         <v>mon100002</v>
       </c>
       <c r="E6" s="3">
-        <v>10001</v>
+        <v>10002</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -3926,7 +3926,7 @@
         <v>mon110002</v>
       </c>
       <c r="E7" s="3">
-        <v>10001</v>
+        <v>11002</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -3947,7 +3947,7 @@
         <v>mon130001</v>
       </c>
       <c r="E8" s="3">
-        <v>10001</v>
+        <v>12001</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -3968,7 +3968,7 @@
         <v>mon140001</v>
       </c>
       <c r="E9" s="3">
-        <v>10001</v>
+        <v>13001</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -4191,11 +4191,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AO651"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q14" sqref="Q14"/>
+      <selection pane="bottomRight" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/monster.怪物.xlsx
+++ b/Excel/monster.怪物.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124DCC9A-8578-467D-A39F-D1CE6BD1F1C3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E74ADCE-2B6A-4912-B880-2CCBC4730E2A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4192,10 +4192,10 @@
   <dimension ref="A1:AO651"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="Q637" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U544" sqref="U544:U651"/>
+      <selection pane="bottomRight" activeCell="N638" sqref="N638"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4629,7 +4629,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="3">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N4" s="3">
         <v>0</v>
@@ -4734,7 +4734,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="3">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N5" s="3">
         <v>0</v>
@@ -4839,7 +4839,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="3">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N6" s="3">
         <v>0</v>
@@ -4944,7 +4944,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="3">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="N7" s="3">
         <v>0</v>
@@ -5049,7 +5049,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="3">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -5154,7 +5154,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="3">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
@@ -5259,7 +5259,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="3">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="N10" s="3">
         <v>0</v>
@@ -5364,7 +5364,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="3">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="N11" s="3">
         <v>0</v>
@@ -5469,7 +5469,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="3">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="N12" s="3">
         <v>0</v>
@@ -5574,7 +5574,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="3">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="N13" s="3">
         <v>0</v>
@@ -5679,7 +5679,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -5784,7 +5784,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="3">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -5889,7 +5889,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="3">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="N16" s="3">
         <v>0</v>
@@ -5994,7 +5994,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="3">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="N17" s="3">
         <v>0</v>
@@ -6099,7 +6099,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="3">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="N18" s="3">
         <v>0</v>
@@ -6204,7 +6204,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="3">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="N19" s="3">
         <v>0</v>
@@ -6309,7 +6309,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
@@ -6414,7 +6414,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="3">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="N21" s="3">
         <v>0</v>
@@ -6519,7 +6519,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="3">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -6624,7 +6624,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="3">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="N23" s="3">
         <v>0</v>
@@ -6729,7 +6729,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -6834,7 +6834,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="3">
-        <v>777</v>
+        <v>786</v>
       </c>
       <c r="N25" s="3">
         <v>0</v>
@@ -6939,7 +6939,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="3">
-        <v>777</v>
+        <v>786</v>
       </c>
       <c r="N26" s="3">
         <v>0</v>
@@ -7044,7 +7044,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="3">
-        <v>935</v>
+        <v>943</v>
       </c>
       <c r="N27" s="3">
         <v>0</v>
@@ -7149,7 +7149,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="3">
-        <v>1210</v>
+        <v>1219</v>
       </c>
       <c r="N28" s="3">
         <v>0</v>
@@ -7254,7 +7254,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="3">
-        <v>1210</v>
+        <v>1219</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -7359,7 +7359,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="3">
-        <v>1234</v>
+        <v>1243</v>
       </c>
       <c r="N30" s="3">
         <v>0</v>
@@ -7464,7 +7464,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="3">
-        <v>1234</v>
+        <v>1243</v>
       </c>
       <c r="N31" s="3">
         <v>0</v>
@@ -7569,7 +7569,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>1300</v>
+        <v>1310</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
@@ -7674,7 +7674,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="3">
-        <v>1410</v>
+        <v>1421</v>
       </c>
       <c r="N33" s="3">
         <v>0</v>
@@ -7779,7 +7779,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="3">
-        <v>1490</v>
+        <v>1500</v>
       </c>
       <c r="N34" s="3">
         <v>0</v>
@@ -7884,7 +7884,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="3">
-        <v>1572</v>
+        <v>1583</v>
       </c>
       <c r="N35" s="3">
         <v>0</v>
@@ -7989,7 +7989,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="3">
-        <v>1625</v>
+        <v>1636</v>
       </c>
       <c r="N36" s="3">
         <v>0</v>
@@ -8094,7 +8094,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="3">
-        <v>1653</v>
+        <v>1663</v>
       </c>
       <c r="N37" s="3">
         <v>0</v>
@@ -8199,7 +8199,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="3">
-        <v>2456</v>
+        <v>2467</v>
       </c>
       <c r="N38" s="3">
         <v>0</v>
@@ -8304,7 +8304,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="3">
-        <v>4019</v>
+        <v>4029</v>
       </c>
       <c r="N39" s="3">
         <v>0</v>
@@ -8409,7 +8409,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="3">
-        <v>4646</v>
+        <v>4660</v>
       </c>
       <c r="N40" s="3">
         <v>0</v>
@@ -8514,7 +8514,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>5372</v>
+        <v>5388</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
@@ -8619,7 +8619,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="3">
-        <v>7114</v>
+        <v>7131</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -8724,7 +8724,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>9543</v>
+        <v>9563</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -8829,7 +8829,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="3">
-        <v>10990</v>
+        <v>11012</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -8934,7 +8934,7 @@
         <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>13807</v>
+        <v>13836</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -9039,7 +9039,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="3">
-        <v>17110</v>
+        <v>17139</v>
       </c>
       <c r="N46" s="3">
         <v>0</v>
@@ -9144,7 +9144,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="3">
-        <v>19015</v>
+        <v>19044</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -9249,7 +9249,7 @@
         <v>0</v>
       </c>
       <c r="M48" s="3">
-        <v>24762</v>
+        <v>24793</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -9354,7 +9354,7 @@
         <v>0</v>
       </c>
       <c r="M49" s="3">
-        <v>30387</v>
+        <v>30423</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -9564,7 +9564,7 @@
         <v>0</v>
       </c>
       <c r="M51" s="3">
-        <v>46279</v>
+        <v>46321</v>
       </c>
       <c r="N51" s="3">
         <v>0</v>
@@ -9669,7 +9669,7 @@
         <v>0</v>
       </c>
       <c r="M52" s="3">
-        <v>49420</v>
+        <v>49462</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -9774,7 +9774,7 @@
         <v>0</v>
       </c>
       <c r="M53" s="3">
-        <v>53688</v>
+        <v>53730</v>
       </c>
       <c r="N53" s="3">
         <v>0</v>
@@ -9879,7 +9879,7 @@
         <v>0</v>
       </c>
       <c r="M54" s="3">
-        <v>61148</v>
+        <v>61193</v>
       </c>
       <c r="N54" s="3">
         <v>0</v>
@@ -9984,7 +9984,7 @@
         <v>0</v>
       </c>
       <c r="M55" s="3">
-        <v>66028</v>
+        <v>66075</v>
       </c>
       <c r="N55" s="3">
         <v>0</v>
@@ -12084,7 +12084,7 @@
         <v>0</v>
       </c>
       <c r="M75" s="3">
-        <v>838868</v>
+        <v>839052</v>
       </c>
       <c r="N75" s="3">
         <v>0</v>
@@ -15969,7 +15969,7 @@
         <v>0</v>
       </c>
       <c r="M112" s="3">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N112" s="3">
         <v>0</v>
@@ -16074,7 +16074,7 @@
         <v>0</v>
       </c>
       <c r="M113" s="3">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N113" s="3">
         <v>0</v>
@@ -16179,7 +16179,7 @@
         <v>0</v>
       </c>
       <c r="M114" s="3">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N114" s="3">
         <v>0</v>
@@ -16284,7 +16284,7 @@
         <v>0</v>
       </c>
       <c r="M115" s="3">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="N115" s="3">
         <v>0</v>
@@ -16389,7 +16389,7 @@
         <v>0</v>
       </c>
       <c r="M116" s="3">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="N116" s="3">
         <v>0</v>
@@ -16494,7 +16494,7 @@
         <v>0</v>
       </c>
       <c r="M117" s="3">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="N117" s="3">
         <v>0</v>
@@ -16599,7 +16599,7 @@
         <v>0</v>
       </c>
       <c r="M118" s="3">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="N118" s="3">
         <v>0</v>
@@ -16704,7 +16704,7 @@
         <v>0</v>
       </c>
       <c r="M119" s="3">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="N119" s="3">
         <v>0</v>
@@ -16809,7 +16809,7 @@
         <v>0</v>
       </c>
       <c r="M120" s="3">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="N120" s="3">
         <v>0</v>
@@ -16914,7 +16914,7 @@
         <v>0</v>
       </c>
       <c r="M121" s="3">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="N121" s="3">
         <v>0</v>
@@ -17019,7 +17019,7 @@
         <v>0</v>
       </c>
       <c r="M122" s="3">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="N122" s="3">
         <v>0</v>
@@ -17124,7 +17124,7 @@
         <v>0</v>
       </c>
       <c r="M123" s="3">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="N123" s="3">
         <v>0</v>
@@ -17229,7 +17229,7 @@
         <v>0</v>
       </c>
       <c r="M124" s="3">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="N124" s="3">
         <v>0</v>
@@ -17334,7 +17334,7 @@
         <v>0</v>
       </c>
       <c r="M125" s="3">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="N125" s="3">
         <v>0</v>
@@ -17439,7 +17439,7 @@
         <v>0</v>
       </c>
       <c r="M126" s="3">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="N126" s="3">
         <v>0</v>
@@ -17544,7 +17544,7 @@
         <v>0</v>
       </c>
       <c r="M127" s="3">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="N127" s="3">
         <v>0</v>
@@ -17649,7 +17649,7 @@
         <v>0</v>
       </c>
       <c r="M128" s="3">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="N128" s="3">
         <v>0</v>
@@ -17754,7 +17754,7 @@
         <v>0</v>
       </c>
       <c r="M129" s="3">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="N129" s="3">
         <v>0</v>
@@ -17859,7 +17859,7 @@
         <v>0</v>
       </c>
       <c r="M130" s="3">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="N130" s="3">
         <v>0</v>
@@ -17964,7 +17964,7 @@
         <v>0</v>
       </c>
       <c r="M131" s="3">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="N131" s="3">
         <v>0</v>
@@ -18069,7 +18069,7 @@
         <v>0</v>
       </c>
       <c r="M132" s="3">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="N132" s="3">
         <v>0</v>
@@ -18174,7 +18174,7 @@
         <v>0</v>
       </c>
       <c r="M133" s="3">
-        <v>777</v>
+        <v>786</v>
       </c>
       <c r="N133" s="3">
         <v>0</v>
@@ -18279,7 +18279,7 @@
         <v>0</v>
       </c>
       <c r="M134" s="3">
-        <v>777</v>
+        <v>786</v>
       </c>
       <c r="N134" s="3">
         <v>0</v>
@@ -18384,7 +18384,7 @@
         <v>0</v>
       </c>
       <c r="M135" s="3">
-        <v>935</v>
+        <v>943</v>
       </c>
       <c r="N135" s="3">
         <v>0</v>
@@ -18489,7 +18489,7 @@
         <v>0</v>
       </c>
       <c r="M136" s="3">
-        <v>1210</v>
+        <v>1219</v>
       </c>
       <c r="N136" s="3">
         <v>0</v>
@@ -18594,7 +18594,7 @@
         <v>0</v>
       </c>
       <c r="M137" s="3">
-        <v>1210</v>
+        <v>1219</v>
       </c>
       <c r="N137" s="3">
         <v>0</v>
@@ -18699,7 +18699,7 @@
         <v>0</v>
       </c>
       <c r="M138" s="3">
-        <v>1234</v>
+        <v>1243</v>
       </c>
       <c r="N138" s="3">
         <v>0</v>
@@ -18804,7 +18804,7 @@
         <v>0</v>
       </c>
       <c r="M139" s="3">
-        <v>1234</v>
+        <v>1243</v>
       </c>
       <c r="N139" s="3">
         <v>0</v>
@@ -18909,7 +18909,7 @@
         <v>0</v>
       </c>
       <c r="M140" s="3">
-        <v>1300</v>
+        <v>1310</v>
       </c>
       <c r="N140" s="3">
         <v>0</v>
@@ -19014,7 +19014,7 @@
         <v>0</v>
       </c>
       <c r="M141" s="3">
-        <v>1410</v>
+        <v>1421</v>
       </c>
       <c r="N141" s="3">
         <v>0</v>
@@ -19119,7 +19119,7 @@
         <v>0</v>
       </c>
       <c r="M142" s="3">
-        <v>1490</v>
+        <v>1500</v>
       </c>
       <c r="N142" s="3">
         <v>0</v>
@@ -19224,7 +19224,7 @@
         <v>0</v>
       </c>
       <c r="M143" s="3">
-        <v>1572</v>
+        <v>1583</v>
       </c>
       <c r="N143" s="3">
         <v>0</v>
@@ -19329,7 +19329,7 @@
         <v>0</v>
       </c>
       <c r="M144" s="3">
-        <v>1625</v>
+        <v>1636</v>
       </c>
       <c r="N144" s="3">
         <v>0</v>
@@ -19434,7 +19434,7 @@
         <v>0</v>
       </c>
       <c r="M145" s="3">
-        <v>1653</v>
+        <v>1663</v>
       </c>
       <c r="N145" s="3">
         <v>0</v>
@@ -19539,7 +19539,7 @@
         <v>0</v>
       </c>
       <c r="M146" s="3">
-        <v>2456</v>
+        <v>2467</v>
       </c>
       <c r="N146" s="3">
         <v>0</v>
@@ -19644,7 +19644,7 @@
         <v>0</v>
       </c>
       <c r="M147" s="3">
-        <v>4019</v>
+        <v>4029</v>
       </c>
       <c r="N147" s="3">
         <v>0</v>
@@ -19749,7 +19749,7 @@
         <v>0</v>
       </c>
       <c r="M148" s="3">
-        <v>4646</v>
+        <v>4660</v>
       </c>
       <c r="N148" s="3">
         <v>0</v>
@@ -19854,7 +19854,7 @@
         <v>0</v>
       </c>
       <c r="M149" s="3">
-        <v>5372</v>
+        <v>5388</v>
       </c>
       <c r="N149" s="3">
         <v>0</v>
@@ -19959,7 +19959,7 @@
         <v>0</v>
       </c>
       <c r="M150" s="3">
-        <v>7114</v>
+        <v>7131</v>
       </c>
       <c r="N150" s="3">
         <v>0</v>
@@ -20064,7 +20064,7 @@
         <v>0</v>
       </c>
       <c r="M151" s="3">
-        <v>9543</v>
+        <v>9563</v>
       </c>
       <c r="N151" s="3">
         <v>0</v>
@@ -20169,7 +20169,7 @@
         <v>0</v>
       </c>
       <c r="M152" s="3">
-        <v>10990</v>
+        <v>11012</v>
       </c>
       <c r="N152" s="3">
         <v>0</v>
@@ -20274,7 +20274,7 @@
         <v>0</v>
       </c>
       <c r="M153" s="3">
-        <v>13807</v>
+        <v>13836</v>
       </c>
       <c r="N153" s="3">
         <v>0</v>
@@ -20379,7 +20379,7 @@
         <v>0</v>
       </c>
       <c r="M154" s="3">
-        <v>17110</v>
+        <v>17139</v>
       </c>
       <c r="N154" s="3">
         <v>0</v>
@@ -20484,7 +20484,7 @@
         <v>0</v>
       </c>
       <c r="M155" s="3">
-        <v>19015</v>
+        <v>19044</v>
       </c>
       <c r="N155" s="3">
         <v>0</v>
@@ -20589,7 +20589,7 @@
         <v>0</v>
       </c>
       <c r="M156" s="3">
-        <v>24762</v>
+        <v>24793</v>
       </c>
       <c r="N156" s="3">
         <v>0</v>
@@ -20694,7 +20694,7 @@
         <v>0</v>
       </c>
       <c r="M157" s="3">
-        <v>30387</v>
+        <v>30423</v>
       </c>
       <c r="N157" s="3">
         <v>0</v>
@@ -20904,7 +20904,7 @@
         <v>0</v>
       </c>
       <c r="M159" s="3">
-        <v>46279</v>
+        <v>46321</v>
       </c>
       <c r="N159" s="3">
         <v>0</v>
@@ -21009,7 +21009,7 @@
         <v>0</v>
       </c>
       <c r="M160" s="3">
-        <v>49420</v>
+        <v>49462</v>
       </c>
       <c r="N160" s="3">
         <v>0</v>
@@ -21114,7 +21114,7 @@
         <v>0</v>
       </c>
       <c r="M161" s="3">
-        <v>53688</v>
+        <v>53730</v>
       </c>
       <c r="N161" s="3">
         <v>0</v>
@@ -21219,7 +21219,7 @@
         <v>0</v>
       </c>
       <c r="M162" s="3">
-        <v>61148</v>
+        <v>61193</v>
       </c>
       <c r="N162" s="3">
         <v>0</v>
@@ -21324,7 +21324,7 @@
         <v>0</v>
       </c>
       <c r="M163" s="3">
-        <v>66028</v>
+        <v>66075</v>
       </c>
       <c r="N163" s="3">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="M183" s="3">
-        <v>838868</v>
+        <v>839052</v>
       </c>
       <c r="N183" s="3">
         <v>0</v>
@@ -27309,7 +27309,7 @@
         <v>0</v>
       </c>
       <c r="M220" s="3">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N220" s="3">
         <v>0</v>
@@ -27414,7 +27414,7 @@
         <v>0</v>
       </c>
       <c r="M221" s="3">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N221" s="3">
         <v>0</v>
@@ -27519,7 +27519,7 @@
         <v>0</v>
       </c>
       <c r="M222" s="3">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N222" s="3">
         <v>0</v>
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="M223" s="3">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="N223" s="3">
         <v>0</v>
@@ -27729,7 +27729,7 @@
         <v>0</v>
       </c>
       <c r="M224" s="3">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="N224" s="3">
         <v>0</v>
@@ -27834,7 +27834,7 @@
         <v>0</v>
       </c>
       <c r="M225" s="3">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="N225" s="3">
         <v>0</v>
@@ -27939,7 +27939,7 @@
         <v>0</v>
       </c>
       <c r="M226" s="3">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="N226" s="3">
         <v>0</v>
@@ -28044,7 +28044,7 @@
         <v>0</v>
       </c>
       <c r="M227" s="3">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="N227" s="3">
         <v>0</v>
@@ -28149,7 +28149,7 @@
         <v>0</v>
       </c>
       <c r="M228" s="3">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="N228" s="3">
         <v>0</v>
@@ -28254,7 +28254,7 @@
         <v>0</v>
       </c>
       <c r="M229" s="3">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="N229" s="3">
         <v>0</v>
@@ -28359,7 +28359,7 @@
         <v>0</v>
       </c>
       <c r="M230" s="3">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="N230" s="3">
         <v>0</v>
@@ -28464,7 +28464,7 @@
         <v>0</v>
       </c>
       <c r="M231" s="3">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="N231" s="3">
         <v>0</v>
@@ -28569,7 +28569,7 @@
         <v>0</v>
       </c>
       <c r="M232" s="3">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="N232" s="3">
         <v>0</v>
@@ -28674,7 +28674,7 @@
         <v>0</v>
       </c>
       <c r="M233" s="3">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="N233" s="3">
         <v>0</v>
@@ -28779,7 +28779,7 @@
         <v>0</v>
       </c>
       <c r="M234" s="3">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="N234" s="3">
         <v>0</v>
@@ -28884,7 +28884,7 @@
         <v>0</v>
       </c>
       <c r="M235" s="3">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="N235" s="3">
         <v>0</v>
@@ -28989,7 +28989,7 @@
         <v>0</v>
       </c>
       <c r="M236" s="3">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="N236" s="3">
         <v>0</v>
@@ -29094,7 +29094,7 @@
         <v>0</v>
       </c>
       <c r="M237" s="3">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="N237" s="3">
         <v>0</v>
@@ -29199,7 +29199,7 @@
         <v>0</v>
       </c>
       <c r="M238" s="3">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="N238" s="3">
         <v>0</v>
@@ -29304,7 +29304,7 @@
         <v>0</v>
       </c>
       <c r="M239" s="3">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="N239" s="3">
         <v>0</v>
@@ -29409,7 +29409,7 @@
         <v>0</v>
       </c>
       <c r="M240" s="3">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="N240" s="3">
         <v>0</v>
@@ -29514,7 +29514,7 @@
         <v>0</v>
       </c>
       <c r="M241" s="3">
-        <v>777</v>
+        <v>786</v>
       </c>
       <c r="N241" s="3">
         <v>0</v>
@@ -29619,7 +29619,7 @@
         <v>0</v>
       </c>
       <c r="M242" s="3">
-        <v>777</v>
+        <v>786</v>
       </c>
       <c r="N242" s="3">
         <v>0</v>
@@ -29724,7 +29724,7 @@
         <v>0</v>
       </c>
       <c r="M243" s="3">
-        <v>935</v>
+        <v>943</v>
       </c>
       <c r="N243" s="3">
         <v>0</v>
@@ -29829,7 +29829,7 @@
         <v>0</v>
       </c>
       <c r="M244" s="3">
-        <v>1210</v>
+        <v>1219</v>
       </c>
       <c r="N244" s="3">
         <v>0</v>
@@ -29934,7 +29934,7 @@
         <v>0</v>
       </c>
       <c r="M245" s="3">
-        <v>1210</v>
+        <v>1219</v>
       </c>
       <c r="N245" s="3">
         <v>0</v>
@@ -30039,7 +30039,7 @@
         <v>0</v>
       </c>
       <c r="M246" s="3">
-        <v>1234</v>
+        <v>1243</v>
       </c>
       <c r="N246" s="3">
         <v>0</v>
@@ -30144,7 +30144,7 @@
         <v>0</v>
       </c>
       <c r="M247" s="3">
-        <v>1234</v>
+        <v>1243</v>
       </c>
       <c r="N247" s="3">
         <v>0</v>
@@ -30249,7 +30249,7 @@
         <v>0</v>
       </c>
       <c r="M248" s="3">
-        <v>1300</v>
+        <v>1310</v>
       </c>
       <c r="N248" s="3">
         <v>0</v>
@@ -30354,7 +30354,7 @@
         <v>0</v>
       </c>
       <c r="M249" s="3">
-        <v>1410</v>
+        <v>1421</v>
       </c>
       <c r="N249" s="3">
         <v>0</v>
@@ -30459,7 +30459,7 @@
         <v>0</v>
       </c>
       <c r="M250" s="3">
-        <v>1490</v>
+        <v>1500</v>
       </c>
       <c r="N250" s="3">
         <v>0</v>
@@ -30564,7 +30564,7 @@
         <v>0</v>
       </c>
       <c r="M251" s="3">
-        <v>1572</v>
+        <v>1583</v>
       </c>
       <c r="N251" s="3">
         <v>0</v>
@@ -30669,7 +30669,7 @@
         <v>0</v>
       </c>
       <c r="M252" s="3">
-        <v>1625</v>
+        <v>1636</v>
       </c>
       <c r="N252" s="3">
         <v>0</v>
@@ -30774,7 +30774,7 @@
         <v>0</v>
       </c>
       <c r="M253" s="3">
-        <v>1653</v>
+        <v>1663</v>
       </c>
       <c r="N253" s="3">
         <v>0</v>
@@ -30879,7 +30879,7 @@
         <v>0</v>
       </c>
       <c r="M254" s="3">
-        <v>2456</v>
+        <v>2467</v>
       </c>
       <c r="N254" s="3">
         <v>0</v>
@@ -30984,7 +30984,7 @@
         <v>0</v>
       </c>
       <c r="M255" s="3">
-        <v>4019</v>
+        <v>4029</v>
       </c>
       <c r="N255" s="3">
         <v>0</v>
@@ -31089,7 +31089,7 @@
         <v>0</v>
       </c>
       <c r="M256" s="3">
-        <v>4646</v>
+        <v>4660</v>
       </c>
       <c r="N256" s="3">
         <v>0</v>
@@ -31194,7 +31194,7 @@
         <v>0</v>
       </c>
       <c r="M257" s="3">
-        <v>5372</v>
+        <v>5388</v>
       </c>
       <c r="N257" s="3">
         <v>0</v>
@@ -31299,7 +31299,7 @@
         <v>0</v>
       </c>
       <c r="M258" s="3">
-        <v>7114</v>
+        <v>7131</v>
       </c>
       <c r="N258" s="3">
         <v>0</v>
@@ -31404,7 +31404,7 @@
         <v>0</v>
       </c>
       <c r="M259" s="3">
-        <v>9543</v>
+        <v>9563</v>
       </c>
       <c r="N259" s="3">
         <v>0</v>
@@ -31509,7 +31509,7 @@
         <v>0</v>
       </c>
       <c r="M260" s="3">
-        <v>10990</v>
+        <v>11012</v>
       </c>
       <c r="N260" s="3">
         <v>0</v>
@@ -31614,7 +31614,7 @@
         <v>0</v>
       </c>
       <c r="M261" s="3">
-        <v>13807</v>
+        <v>13836</v>
       </c>
       <c r="N261" s="3">
         <v>0</v>
@@ -31719,7 +31719,7 @@
         <v>0</v>
       </c>
       <c r="M262" s="3">
-        <v>17110</v>
+        <v>17139</v>
       </c>
       <c r="N262" s="3">
         <v>0</v>
@@ -31824,7 +31824,7 @@
         <v>0</v>
       </c>
       <c r="M263" s="3">
-        <v>19015</v>
+        <v>19044</v>
       </c>
       <c r="N263" s="3">
         <v>0</v>
@@ -31929,7 +31929,7 @@
         <v>0</v>
       </c>
       <c r="M264" s="3">
-        <v>24762</v>
+        <v>24793</v>
       </c>
       <c r="N264" s="3">
         <v>0</v>
@@ -32034,7 +32034,7 @@
         <v>0</v>
       </c>
       <c r="M265" s="3">
-        <v>30387</v>
+        <v>30423</v>
       </c>
       <c r="N265" s="3">
         <v>0</v>
@@ -32244,7 +32244,7 @@
         <v>0</v>
       </c>
       <c r="M267" s="3">
-        <v>46279</v>
+        <v>46321</v>
       </c>
       <c r="N267" s="3">
         <v>0</v>
@@ -32349,7 +32349,7 @@
         <v>0</v>
       </c>
       <c r="M268" s="3">
-        <v>49420</v>
+        <v>49462</v>
       </c>
       <c r="N268" s="3">
         <v>0</v>
@@ -32454,7 +32454,7 @@
         <v>0</v>
       </c>
       <c r="M269" s="3">
-        <v>53688</v>
+        <v>53730</v>
       </c>
       <c r="N269" s="3">
         <v>0</v>
@@ -32559,7 +32559,7 @@
         <v>0</v>
       </c>
       <c r="M270" s="3">
-        <v>61148</v>
+        <v>61193</v>
       </c>
       <c r="N270" s="3">
         <v>0</v>
@@ -32664,7 +32664,7 @@
         <v>0</v>
       </c>
       <c r="M271" s="3">
-        <v>66028</v>
+        <v>66075</v>
       </c>
       <c r="N271" s="3">
         <v>0</v>
@@ -34764,7 +34764,7 @@
         <v>0</v>
       </c>
       <c r="M291" s="3">
-        <v>838868</v>
+        <v>839052</v>
       </c>
       <c r="N291" s="3">
         <v>0</v>
@@ -38649,7 +38649,7 @@
         <v>0</v>
       </c>
       <c r="M328" s="3">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N328" s="3">
         <v>0</v>
@@ -38754,7 +38754,7 @@
         <v>0</v>
       </c>
       <c r="M329" s="3">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N329" s="3">
         <v>0</v>
@@ -38859,7 +38859,7 @@
         <v>0</v>
       </c>
       <c r="M330" s="3">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N330" s="3">
         <v>0</v>
@@ -38964,7 +38964,7 @@
         <v>0</v>
       </c>
       <c r="M331" s="3">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="N331" s="3">
         <v>0</v>
@@ -39069,7 +39069,7 @@
         <v>0</v>
       </c>
       <c r="M332" s="3">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="N332" s="3">
         <v>0</v>
@@ -39174,7 +39174,7 @@
         <v>0</v>
       </c>
       <c r="M333" s="3">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="N333" s="3">
         <v>0</v>
@@ -39279,7 +39279,7 @@
         <v>0</v>
       </c>
       <c r="M334" s="3">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="N334" s="3">
         <v>0</v>
@@ -39384,7 +39384,7 @@
         <v>0</v>
       </c>
       <c r="M335" s="3">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="N335" s="3">
         <v>0</v>
@@ -39489,7 +39489,7 @@
         <v>0</v>
       </c>
       <c r="M336" s="3">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="N336" s="3">
         <v>0</v>
@@ -39594,7 +39594,7 @@
         <v>0</v>
       </c>
       <c r="M337" s="3">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="N337" s="3">
         <v>0</v>
@@ -39699,7 +39699,7 @@
         <v>0</v>
       </c>
       <c r="M338" s="3">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="N338" s="3">
         <v>0</v>
@@ -39804,7 +39804,7 @@
         <v>0</v>
       </c>
       <c r="M339" s="3">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="N339" s="3">
         <v>0</v>
@@ -39909,7 +39909,7 @@
         <v>0</v>
       </c>
       <c r="M340" s="3">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="N340" s="3">
         <v>0</v>
@@ -40014,7 +40014,7 @@
         <v>0</v>
       </c>
       <c r="M341" s="3">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="N341" s="3">
         <v>0</v>
@@ -40119,7 +40119,7 @@
         <v>0</v>
       </c>
       <c r="M342" s="3">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="N342" s="3">
         <v>0</v>
@@ -40224,7 +40224,7 @@
         <v>0</v>
       </c>
       <c r="M343" s="3">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="N343" s="3">
         <v>0</v>
@@ -40329,7 +40329,7 @@
         <v>0</v>
       </c>
       <c r="M344" s="3">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="N344" s="3">
         <v>0</v>
@@ -40434,7 +40434,7 @@
         <v>0</v>
       </c>
       <c r="M345" s="3">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="N345" s="3">
         <v>0</v>
@@ -40539,7 +40539,7 @@
         <v>0</v>
       </c>
       <c r="M346" s="3">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="N346" s="3">
         <v>0</v>
@@ -40644,7 +40644,7 @@
         <v>0</v>
       </c>
       <c r="M347" s="3">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="N347" s="3">
         <v>0</v>
@@ -40749,7 +40749,7 @@
         <v>0</v>
       </c>
       <c r="M348" s="3">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="N348" s="3">
         <v>0</v>
@@ -40854,7 +40854,7 @@
         <v>0</v>
       </c>
       <c r="M349" s="3">
-        <v>777</v>
+        <v>786</v>
       </c>
       <c r="N349" s="3">
         <v>0</v>
@@ -40959,7 +40959,7 @@
         <v>0</v>
       </c>
       <c r="M350" s="3">
-        <v>777</v>
+        <v>786</v>
       </c>
       <c r="N350" s="3">
         <v>0</v>
@@ -41064,7 +41064,7 @@
         <v>0</v>
       </c>
       <c r="M351" s="3">
-        <v>935</v>
+        <v>943</v>
       </c>
       <c r="N351" s="3">
         <v>0</v>
@@ -41169,7 +41169,7 @@
         <v>0</v>
       </c>
       <c r="M352" s="3">
-        <v>1210</v>
+        <v>1219</v>
       </c>
       <c r="N352" s="3">
         <v>0</v>
@@ -41274,7 +41274,7 @@
         <v>0</v>
       </c>
       <c r="M353" s="3">
-        <v>1210</v>
+        <v>1219</v>
       </c>
       <c r="N353" s="3">
         <v>0</v>
@@ -41379,7 +41379,7 @@
         <v>0</v>
       </c>
       <c r="M354" s="3">
-        <v>1234</v>
+        <v>1243</v>
       </c>
       <c r="N354" s="3">
         <v>0</v>
@@ -41484,7 +41484,7 @@
         <v>0</v>
       </c>
       <c r="M355" s="3">
-        <v>1234</v>
+        <v>1243</v>
       </c>
       <c r="N355" s="3">
         <v>0</v>
@@ -41589,7 +41589,7 @@
         <v>0</v>
       </c>
       <c r="M356" s="3">
-        <v>1300</v>
+        <v>1310</v>
       </c>
       <c r="N356" s="3">
         <v>0</v>
@@ -41694,7 +41694,7 @@
         <v>0</v>
       </c>
       <c r="M357" s="3">
-        <v>1410</v>
+        <v>1421</v>
       </c>
       <c r="N357" s="3">
         <v>0</v>
@@ -41799,7 +41799,7 @@
         <v>0</v>
       </c>
       <c r="M358" s="3">
-        <v>1490</v>
+        <v>1500</v>
       </c>
       <c r="N358" s="3">
         <v>0</v>
@@ -41904,7 +41904,7 @@
         <v>0</v>
       </c>
       <c r="M359" s="3">
-        <v>1572</v>
+        <v>1583</v>
       </c>
       <c r="N359" s="3">
         <v>0</v>
@@ -42009,7 +42009,7 @@
         <v>0</v>
       </c>
       <c r="M360" s="3">
-        <v>1625</v>
+        <v>1636</v>
       </c>
       <c r="N360" s="3">
         <v>0</v>
@@ -42114,7 +42114,7 @@
         <v>0</v>
       </c>
       <c r="M361" s="3">
-        <v>1653</v>
+        <v>1663</v>
       </c>
       <c r="N361" s="3">
         <v>0</v>
@@ -42219,7 +42219,7 @@
         <v>0</v>
       </c>
       <c r="M362" s="3">
-        <v>2456</v>
+        <v>2467</v>
       </c>
       <c r="N362" s="3">
         <v>0</v>
@@ -42324,7 +42324,7 @@
         <v>0</v>
       </c>
       <c r="M363" s="3">
-        <v>4019</v>
+        <v>4029</v>
       </c>
       <c r="N363" s="3">
         <v>0</v>
@@ -42429,7 +42429,7 @@
         <v>0</v>
       </c>
       <c r="M364" s="3">
-        <v>4646</v>
+        <v>4660</v>
       </c>
       <c r="N364" s="3">
         <v>0</v>
@@ -42534,7 +42534,7 @@
         <v>0</v>
       </c>
       <c r="M365" s="3">
-        <v>5372</v>
+        <v>5388</v>
       </c>
       <c r="N365" s="3">
         <v>0</v>
@@ -42639,7 +42639,7 @@
         <v>0</v>
       </c>
       <c r="M366" s="3">
-        <v>7114</v>
+        <v>7131</v>
       </c>
       <c r="N366" s="3">
         <v>0</v>
@@ -42744,7 +42744,7 @@
         <v>0</v>
       </c>
       <c r="M367" s="3">
-        <v>9543</v>
+        <v>9563</v>
       </c>
       <c r="N367" s="3">
         <v>0</v>
@@ -42849,7 +42849,7 @@
         <v>0</v>
       </c>
       <c r="M368" s="3">
-        <v>10990</v>
+        <v>11012</v>
       </c>
       <c r="N368" s="3">
         <v>0</v>
@@ -42954,7 +42954,7 @@
         <v>0</v>
       </c>
       <c r="M369" s="3">
-        <v>13807</v>
+        <v>13836</v>
       </c>
       <c r="N369" s="3">
         <v>0</v>
@@ -43059,7 +43059,7 @@
         <v>0</v>
       </c>
       <c r="M370" s="3">
-        <v>17110</v>
+        <v>17139</v>
       </c>
       <c r="N370" s="3">
         <v>0</v>
@@ -43164,7 +43164,7 @@
         <v>0</v>
       </c>
       <c r="M371" s="3">
-        <v>19015</v>
+        <v>19044</v>
       </c>
       <c r="N371" s="3">
         <v>0</v>
@@ -43269,7 +43269,7 @@
         <v>0</v>
       </c>
       <c r="M372" s="3">
-        <v>24762</v>
+        <v>24793</v>
       </c>
       <c r="N372" s="3">
         <v>0</v>
@@ -43374,7 +43374,7 @@
         <v>0</v>
       </c>
       <c r="M373" s="3">
-        <v>30387</v>
+        <v>30423</v>
       </c>
       <c r="N373" s="3">
         <v>0</v>
@@ -43584,7 +43584,7 @@
         <v>0</v>
       </c>
       <c r="M375" s="3">
-        <v>46279</v>
+        <v>46321</v>
       </c>
       <c r="N375" s="3">
         <v>0</v>
@@ -43689,7 +43689,7 @@
         <v>0</v>
       </c>
       <c r="M376" s="3">
-        <v>49420</v>
+        <v>49462</v>
       </c>
       <c r="N376" s="3">
         <v>0</v>
@@ -43794,7 +43794,7 @@
         <v>0</v>
       </c>
       <c r="M377" s="3">
-        <v>53688</v>
+        <v>53730</v>
       </c>
       <c r="N377" s="3">
         <v>0</v>
@@ -43899,7 +43899,7 @@
         <v>0</v>
       </c>
       <c r="M378" s="3">
-        <v>61148</v>
+        <v>61193</v>
       </c>
       <c r="N378" s="3">
         <v>0</v>
@@ -44004,7 +44004,7 @@
         <v>0</v>
       </c>
       <c r="M379" s="3">
-        <v>66028</v>
+        <v>66075</v>
       </c>
       <c r="N379" s="3">
         <v>0</v>
@@ -46104,7 +46104,7 @@
         <v>0</v>
       </c>
       <c r="M399" s="3">
-        <v>838868</v>
+        <v>839052</v>
       </c>
       <c r="N399" s="3">
         <v>0</v>
@@ -49989,7 +49989,7 @@
         <v>0</v>
       </c>
       <c r="M436" s="3">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N436" s="3">
         <v>0</v>
@@ -50094,7 +50094,7 @@
         <v>0</v>
       </c>
       <c r="M437" s="3">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N437" s="3">
         <v>0</v>
@@ -50199,7 +50199,7 @@
         <v>0</v>
       </c>
       <c r="M438" s="3">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N438" s="3">
         <v>0</v>
@@ -50304,7 +50304,7 @@
         <v>0</v>
       </c>
       <c r="M439" s="3">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="N439" s="3">
         <v>0</v>
@@ -50409,7 +50409,7 @@
         <v>0</v>
       </c>
       <c r="M440" s="3">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="N440" s="3">
         <v>0</v>
@@ -50514,7 +50514,7 @@
         <v>0</v>
       </c>
       <c r="M441" s="3">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="N441" s="3">
         <v>0</v>
@@ -50619,7 +50619,7 @@
         <v>0</v>
       </c>
       <c r="M442" s="3">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="N442" s="3">
         <v>0</v>
@@ -50724,7 +50724,7 @@
         <v>0</v>
       </c>
       <c r="M443" s="3">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="N443" s="3">
         <v>0</v>
@@ -50829,7 +50829,7 @@
         <v>0</v>
       </c>
       <c r="M444" s="3">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="N444" s="3">
         <v>0</v>
@@ -50934,7 +50934,7 @@
         <v>0</v>
       </c>
       <c r="M445" s="3">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="N445" s="3">
         <v>0</v>
@@ -51039,7 +51039,7 @@
         <v>0</v>
       </c>
       <c r="M446" s="3">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="N446" s="3">
         <v>0</v>
@@ -51144,7 +51144,7 @@
         <v>0</v>
       </c>
       <c r="M447" s="3">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="N447" s="3">
         <v>0</v>
@@ -51249,7 +51249,7 @@
         <v>0</v>
       </c>
       <c r="M448" s="3">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="N448" s="3">
         <v>0</v>
@@ -51354,7 +51354,7 @@
         <v>0</v>
       </c>
       <c r="M449" s="3">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="N449" s="3">
         <v>0</v>
@@ -51459,7 +51459,7 @@
         <v>0</v>
       </c>
       <c r="M450" s="3">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="N450" s="3">
         <v>0</v>
@@ -51564,7 +51564,7 @@
         <v>0</v>
       </c>
       <c r="M451" s="3">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="N451" s="3">
         <v>0</v>
@@ -51669,7 +51669,7 @@
         <v>0</v>
       </c>
       <c r="M452" s="3">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="N452" s="3">
         <v>0</v>
@@ -51774,7 +51774,7 @@
         <v>0</v>
       </c>
       <c r="M453" s="3">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="N453" s="3">
         <v>0</v>
@@ -51879,7 +51879,7 @@
         <v>0</v>
       </c>
       <c r="M454" s="3">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="N454" s="3">
         <v>0</v>
@@ -51984,7 +51984,7 @@
         <v>0</v>
       </c>
       <c r="M455" s="3">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="N455" s="3">
         <v>0</v>
@@ -52089,7 +52089,7 @@
         <v>0</v>
       </c>
       <c r="M456" s="3">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="N456" s="3">
         <v>0</v>
@@ -52194,7 +52194,7 @@
         <v>0</v>
       </c>
       <c r="M457" s="3">
-        <v>777</v>
+        <v>786</v>
       </c>
       <c r="N457" s="3">
         <v>0</v>
@@ -52299,7 +52299,7 @@
         <v>0</v>
       </c>
       <c r="M458" s="3">
-        <v>777</v>
+        <v>786</v>
       </c>
       <c r="N458" s="3">
         <v>0</v>
@@ -52404,7 +52404,7 @@
         <v>0</v>
       </c>
       <c r="M459" s="3">
-        <v>935</v>
+        <v>943</v>
       </c>
       <c r="N459" s="3">
         <v>0</v>
@@ -52509,7 +52509,7 @@
         <v>0</v>
       </c>
       <c r="M460" s="3">
-        <v>1210</v>
+        <v>1219</v>
       </c>
       <c r="N460" s="3">
         <v>0</v>
@@ -52614,7 +52614,7 @@
         <v>0</v>
       </c>
       <c r="M461" s="3">
-        <v>1210</v>
+        <v>1219</v>
       </c>
       <c r="N461" s="3">
         <v>0</v>
@@ -52719,7 +52719,7 @@
         <v>0</v>
       </c>
       <c r="M462" s="3">
-        <v>1234</v>
+        <v>1243</v>
       </c>
       <c r="N462" s="3">
         <v>0</v>
@@ -52824,7 +52824,7 @@
         <v>0</v>
       </c>
       <c r="M463" s="3">
-        <v>1234</v>
+        <v>1243</v>
       </c>
       <c r="N463" s="3">
         <v>0</v>
@@ -52929,7 +52929,7 @@
         <v>0</v>
       </c>
       <c r="M464" s="3">
-        <v>1300</v>
+        <v>1310</v>
       </c>
       <c r="N464" s="3">
         <v>0</v>
@@ -53034,7 +53034,7 @@
         <v>0</v>
       </c>
       <c r="M465" s="3">
-        <v>1410</v>
+        <v>1421</v>
       </c>
       <c r="N465" s="3">
         <v>0</v>
@@ -53139,7 +53139,7 @@
         <v>0</v>
       </c>
       <c r="M466" s="3">
-        <v>1490</v>
+        <v>1500</v>
       </c>
       <c r="N466" s="3">
         <v>0</v>
@@ -53244,7 +53244,7 @@
         <v>0</v>
       </c>
       <c r="M467" s="3">
-        <v>1572</v>
+        <v>1583</v>
       </c>
       <c r="N467" s="3">
         <v>0</v>
@@ -53349,7 +53349,7 @@
         <v>0</v>
       </c>
       <c r="M468" s="3">
-        <v>1625</v>
+        <v>1636</v>
       </c>
       <c r="N468" s="3">
         <v>0</v>
@@ -53454,7 +53454,7 @@
         <v>0</v>
       </c>
       <c r="M469" s="3">
-        <v>1653</v>
+        <v>1663</v>
       </c>
       <c r="N469" s="3">
         <v>0</v>
@@ -53559,7 +53559,7 @@
         <v>0</v>
       </c>
       <c r="M470" s="3">
-        <v>2456</v>
+        <v>2467</v>
       </c>
       <c r="N470" s="3">
         <v>0</v>
@@ -53664,7 +53664,7 @@
         <v>0</v>
       </c>
       <c r="M471" s="3">
-        <v>4019</v>
+        <v>4029</v>
       </c>
       <c r="N471" s="3">
         <v>0</v>
@@ -53769,7 +53769,7 @@
         <v>0</v>
       </c>
       <c r="M472" s="3">
-        <v>4646</v>
+        <v>4660</v>
       </c>
       <c r="N472" s="3">
         <v>0</v>
@@ -53874,7 +53874,7 @@
         <v>0</v>
       </c>
       <c r="M473" s="3">
-        <v>5372</v>
+        <v>5388</v>
       </c>
       <c r="N473" s="3">
         <v>0</v>
@@ -53979,7 +53979,7 @@
         <v>0</v>
       </c>
       <c r="M474" s="3">
-        <v>7114</v>
+        <v>7131</v>
       </c>
       <c r="N474" s="3">
         <v>0</v>
@@ -54084,7 +54084,7 @@
         <v>0</v>
       </c>
       <c r="M475" s="3">
-        <v>9543</v>
+        <v>9563</v>
       </c>
       <c r="N475" s="3">
         <v>0</v>
@@ -54189,7 +54189,7 @@
         <v>0</v>
       </c>
       <c r="M476" s="3">
-        <v>10990</v>
+        <v>11012</v>
       </c>
       <c r="N476" s="3">
         <v>0</v>
@@ -54294,7 +54294,7 @@
         <v>0</v>
       </c>
       <c r="M477" s="3">
-        <v>13807</v>
+        <v>13836</v>
       </c>
       <c r="N477" s="3">
         <v>0</v>
@@ -54399,7 +54399,7 @@
         <v>0</v>
       </c>
       <c r="M478" s="3">
-        <v>17110</v>
+        <v>17139</v>
       </c>
       <c r="N478" s="3">
         <v>0</v>
@@ -54504,7 +54504,7 @@
         <v>0</v>
       </c>
       <c r="M479" s="3">
-        <v>19015</v>
+        <v>19044</v>
       </c>
       <c r="N479" s="3">
         <v>0</v>
@@ -54609,7 +54609,7 @@
         <v>0</v>
       </c>
       <c r="M480" s="3">
-        <v>24762</v>
+        <v>24793</v>
       </c>
       <c r="N480" s="3">
         <v>0</v>
@@ -54714,7 +54714,7 @@
         <v>0</v>
       </c>
       <c r="M481" s="3">
-        <v>30387</v>
+        <v>30423</v>
       </c>
       <c r="N481" s="3">
         <v>0</v>
@@ -54924,7 +54924,7 @@
         <v>0</v>
       </c>
       <c r="M483" s="3">
-        <v>46279</v>
+        <v>46321</v>
       </c>
       <c r="N483" s="3">
         <v>0</v>
@@ -55029,7 +55029,7 @@
         <v>0</v>
       </c>
       <c r="M484" s="3">
-        <v>49420</v>
+        <v>49462</v>
       </c>
       <c r="N484" s="3">
         <v>0</v>
@@ -55134,7 +55134,7 @@
         <v>0</v>
       </c>
       <c r="M485" s="3">
-        <v>53688</v>
+        <v>53730</v>
       </c>
       <c r="N485" s="3">
         <v>0</v>
@@ -55239,7 +55239,7 @@
         <v>0</v>
       </c>
       <c r="M486" s="3">
-        <v>61148</v>
+        <v>61193</v>
       </c>
       <c r="N486" s="3">
         <v>0</v>
@@ -55344,7 +55344,7 @@
         <v>0</v>
       </c>
       <c r="M487" s="3">
-        <v>66028</v>
+        <v>66075</v>
       </c>
       <c r="N487" s="3">
         <v>0</v>
@@ -57444,7 +57444,7 @@
         <v>0</v>
       </c>
       <c r="M507" s="3">
-        <v>838868</v>
+        <v>839052</v>
       </c>
       <c r="N507" s="3">
         <v>0</v>
@@ -61329,7 +61329,7 @@
         <v>0</v>
       </c>
       <c r="M544" s="3">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N544" s="3">
         <v>0</v>
@@ -61434,7 +61434,7 @@
         <v>0</v>
       </c>
       <c r="M545" s="3">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N545" s="3">
         <v>0</v>
@@ -61539,7 +61539,7 @@
         <v>0</v>
       </c>
       <c r="M546" s="3">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N546" s="3">
         <v>0</v>
@@ -61644,7 +61644,7 @@
         <v>0</v>
       </c>
       <c r="M547" s="3">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="N547" s="3">
         <v>0</v>
@@ -61749,7 +61749,7 @@
         <v>0</v>
       </c>
       <c r="M548" s="3">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="N548" s="3">
         <v>0</v>
@@ -61854,7 +61854,7 @@
         <v>0</v>
       </c>
       <c r="M549" s="3">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="N549" s="3">
         <v>0</v>
@@ -61959,7 +61959,7 @@
         <v>0</v>
       </c>
       <c r="M550" s="3">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="N550" s="3">
         <v>0</v>
@@ -62064,7 +62064,7 @@
         <v>0</v>
       </c>
       <c r="M551" s="3">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="N551" s="3">
         <v>0</v>
@@ -62169,7 +62169,7 @@
         <v>0</v>
       </c>
       <c r="M552" s="3">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="N552" s="3">
         <v>0</v>
@@ -62274,7 +62274,7 @@
         <v>0</v>
       </c>
       <c r="M553" s="3">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="N553" s="3">
         <v>0</v>
@@ -62379,7 +62379,7 @@
         <v>0</v>
       </c>
       <c r="M554" s="3">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="N554" s="3">
         <v>0</v>
@@ -62484,7 +62484,7 @@
         <v>0</v>
       </c>
       <c r="M555" s="3">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="N555" s="3">
         <v>0</v>
@@ -62589,7 +62589,7 @@
         <v>0</v>
       </c>
       <c r="M556" s="3">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="N556" s="3">
         <v>0</v>
@@ -62694,7 +62694,7 @@
         <v>0</v>
       </c>
       <c r="M557" s="3">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="N557" s="3">
         <v>0</v>
@@ -62799,7 +62799,7 @@
         <v>0</v>
       </c>
       <c r="M558" s="3">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="N558" s="3">
         <v>0</v>
@@ -62904,7 +62904,7 @@
         <v>0</v>
       </c>
       <c r="M559" s="3">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="N559" s="3">
         <v>0</v>
@@ -63009,7 +63009,7 @@
         <v>0</v>
       </c>
       <c r="M560" s="3">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="N560" s="3">
         <v>0</v>
@@ -63114,7 +63114,7 @@
         <v>0</v>
       </c>
       <c r="M561" s="3">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="N561" s="3">
         <v>0</v>
@@ -63219,7 +63219,7 @@
         <v>0</v>
       </c>
       <c r="M562" s="3">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="N562" s="3">
         <v>0</v>
@@ -63324,7 +63324,7 @@
         <v>0</v>
       </c>
       <c r="M563" s="3">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="N563" s="3">
         <v>0</v>
@@ -63429,7 +63429,7 @@
         <v>0</v>
       </c>
       <c r="M564" s="3">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="N564" s="3">
         <v>0</v>
@@ -63534,7 +63534,7 @@
         <v>0</v>
       </c>
       <c r="M565" s="3">
-        <v>777</v>
+        <v>786</v>
       </c>
       <c r="N565" s="3">
         <v>0</v>
@@ -63639,7 +63639,7 @@
         <v>0</v>
       </c>
       <c r="M566" s="3">
-        <v>777</v>
+        <v>786</v>
       </c>
       <c r="N566" s="3">
         <v>0</v>
@@ -63744,7 +63744,7 @@
         <v>0</v>
       </c>
       <c r="M567" s="3">
-        <v>935</v>
+        <v>943</v>
       </c>
       <c r="N567" s="3">
         <v>0</v>
@@ -63849,7 +63849,7 @@
         <v>0</v>
       </c>
       <c r="M568" s="3">
-        <v>1210</v>
+        <v>1219</v>
       </c>
       <c r="N568" s="3">
         <v>0</v>
@@ -63954,7 +63954,7 @@
         <v>0</v>
       </c>
       <c r="M569" s="3">
-        <v>1210</v>
+        <v>1219</v>
       </c>
       <c r="N569" s="3">
         <v>0</v>
@@ -64059,7 +64059,7 @@
         <v>0</v>
       </c>
       <c r="M570" s="3">
-        <v>1234</v>
+        <v>1243</v>
       </c>
       <c r="N570" s="3">
         <v>0</v>
@@ -64164,7 +64164,7 @@
         <v>0</v>
       </c>
       <c r="M571" s="3">
-        <v>1234</v>
+        <v>1243</v>
       </c>
       <c r="N571" s="3">
         <v>0</v>
@@ -64269,7 +64269,7 @@
         <v>0</v>
       </c>
       <c r="M572" s="3">
-        <v>1300</v>
+        <v>1310</v>
       </c>
       <c r="N572" s="3">
         <v>0</v>
@@ -64374,7 +64374,7 @@
         <v>0</v>
       </c>
       <c r="M573" s="3">
-        <v>1410</v>
+        <v>1421</v>
       </c>
       <c r="N573" s="3">
         <v>0</v>
@@ -64479,7 +64479,7 @@
         <v>0</v>
       </c>
       <c r="M574" s="3">
-        <v>1490</v>
+        <v>1500</v>
       </c>
       <c r="N574" s="3">
         <v>0</v>
@@ -64584,7 +64584,7 @@
         <v>0</v>
       </c>
       <c r="M575" s="3">
-        <v>1572</v>
+        <v>1583</v>
       </c>
       <c r="N575" s="3">
         <v>0</v>
@@ -64689,7 +64689,7 @@
         <v>0</v>
       </c>
       <c r="M576" s="3">
-        <v>1625</v>
+        <v>1636</v>
       </c>
       <c r="N576" s="3">
         <v>0</v>
@@ -64794,7 +64794,7 @@
         <v>0</v>
       </c>
       <c r="M577" s="3">
-        <v>1653</v>
+        <v>1663</v>
       </c>
       <c r="N577" s="3">
         <v>0</v>
@@ -64899,7 +64899,7 @@
         <v>0</v>
       </c>
       <c r="M578" s="3">
-        <v>2456</v>
+        <v>2467</v>
       </c>
       <c r="N578" s="3">
         <v>0</v>
@@ -65004,7 +65004,7 @@
         <v>0</v>
       </c>
       <c r="M579" s="3">
-        <v>4019</v>
+        <v>4029</v>
       </c>
       <c r="N579" s="3">
         <v>0</v>
@@ -65109,7 +65109,7 @@
         <v>0</v>
       </c>
       <c r="M580" s="3">
-        <v>4646</v>
+        <v>4660</v>
       </c>
       <c r="N580" s="3">
         <v>0</v>
@@ -65214,7 +65214,7 @@
         <v>0</v>
       </c>
       <c r="M581" s="3">
-        <v>5372</v>
+        <v>5388</v>
       </c>
       <c r="N581" s="3">
         <v>0</v>
@@ -65319,7 +65319,7 @@
         <v>0</v>
       </c>
       <c r="M582" s="3">
-        <v>7114</v>
+        <v>7131</v>
       </c>
       <c r="N582" s="3">
         <v>0</v>
@@ -65424,7 +65424,7 @@
         <v>0</v>
       </c>
       <c r="M583" s="3">
-        <v>9543</v>
+        <v>9563</v>
       </c>
       <c r="N583" s="3">
         <v>0</v>
@@ -65529,7 +65529,7 @@
         <v>0</v>
       </c>
       <c r="M584" s="3">
-        <v>10990</v>
+        <v>11012</v>
       </c>
       <c r="N584" s="3">
         <v>0</v>
@@ -65634,7 +65634,7 @@
         <v>0</v>
       </c>
       <c r="M585" s="3">
-        <v>13807</v>
+        <v>13836</v>
       </c>
       <c r="N585" s="3">
         <v>0</v>
@@ -65739,7 +65739,7 @@
         <v>0</v>
       </c>
       <c r="M586" s="3">
-        <v>17110</v>
+        <v>17139</v>
       </c>
       <c r="N586" s="3">
         <v>0</v>
@@ -65844,7 +65844,7 @@
         <v>0</v>
       </c>
       <c r="M587" s="3">
-        <v>19015</v>
+        <v>19044</v>
       </c>
       <c r="N587" s="3">
         <v>0</v>
@@ -65949,7 +65949,7 @@
         <v>0</v>
       </c>
       <c r="M588" s="3">
-        <v>24762</v>
+        <v>24793</v>
       </c>
       <c r="N588" s="3">
         <v>0</v>
@@ -66054,7 +66054,7 @@
         <v>0</v>
       </c>
       <c r="M589" s="3">
-        <v>30387</v>
+        <v>30423</v>
       </c>
       <c r="N589" s="3">
         <v>0</v>
@@ -66264,7 +66264,7 @@
         <v>0</v>
       </c>
       <c r="M591" s="3">
-        <v>46279</v>
+        <v>46321</v>
       </c>
       <c r="N591" s="3">
         <v>0</v>
@@ -66369,7 +66369,7 @@
         <v>0</v>
       </c>
       <c r="M592" s="3">
-        <v>49420</v>
+        <v>49462</v>
       </c>
       <c r="N592" s="3">
         <v>0</v>
@@ -66474,7 +66474,7 @@
         <v>0</v>
       </c>
       <c r="M593" s="3">
-        <v>53688</v>
+        <v>53730</v>
       </c>
       <c r="N593" s="3">
         <v>0</v>
@@ -66579,7 +66579,7 @@
         <v>0</v>
       </c>
       <c r="M594" s="3">
-        <v>61148</v>
+        <v>61193</v>
       </c>
       <c r="N594" s="3">
         <v>0</v>
@@ -66684,7 +66684,7 @@
         <v>0</v>
       </c>
       <c r="M595" s="3">
-        <v>66028</v>
+        <v>66075</v>
       </c>
       <c r="N595" s="3">
         <v>0</v>
@@ -68784,7 +68784,7 @@
         <v>0</v>
       </c>
       <c r="M615" s="3">
-        <v>838868</v>
+        <v>839052</v>
       </c>
       <c r="N615" s="3">
         <v>0</v>

--- a/Excel/monster.怪物.xlsx
+++ b/Excel/monster.怪物.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E74ADCE-2B6A-4912-B880-2CCBC4730E2A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F1F4A4-FCDC-4E1B-9FA9-F2314775A6DA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4192,10 +4192,10 @@
   <dimension ref="A1:AO651"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D589" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N638" sqref="N638"/>
+      <selection pane="bottomRight" activeCell="K544" sqref="K544:K651"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5463,7 +5463,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="3">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="L12" s="3">
         <v>0</v>
@@ -5568,7 +5568,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="3">
-        <v>276</v>
+        <v>165</v>
       </c>
       <c r="L13" s="3">
         <v>0</v>
@@ -6198,7 +6198,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="3">
-        <v>276</v>
+        <v>383</v>
       </c>
       <c r="L19" s="3">
         <v>0</v>
@@ -6303,7 +6303,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>276</v>
+        <v>455</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
@@ -6408,7 +6408,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="3">
-        <v>405</v>
+        <v>574</v>
       </c>
       <c r="L21" s="3">
         <v>0</v>
@@ -6513,7 +6513,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
-        <v>686</v>
+        <v>801</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -6618,7 +6618,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="3">
-        <v>1202</v>
+        <v>995</v>
       </c>
       <c r="L23" s="3">
         <v>0</v>
@@ -7143,7 +7143,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="3">
-        <v>2268</v>
+        <v>1889</v>
       </c>
       <c r="L28" s="3">
         <v>0</v>
@@ -7668,7 +7668,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="3">
-        <v>3191</v>
+        <v>2653</v>
       </c>
       <c r="L33" s="3">
         <v>0</v>
@@ -16803,7 +16803,7 @@
         <v>0</v>
       </c>
       <c r="K120" s="3">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="L120" s="3">
         <v>0</v>
@@ -16908,7 +16908,7 @@
         <v>0</v>
       </c>
       <c r="K121" s="3">
-        <v>276</v>
+        <v>165</v>
       </c>
       <c r="L121" s="3">
         <v>0</v>
@@ -17538,7 +17538,7 @@
         <v>0</v>
       </c>
       <c r="K127" s="3">
-        <v>414</v>
+        <v>575</v>
       </c>
       <c r="L127" s="3">
         <v>0</v>
@@ -17643,7 +17643,7 @@
         <v>0</v>
       </c>
       <c r="K128" s="3">
-        <v>414</v>
+        <v>683</v>
       </c>
       <c r="L128" s="3">
         <v>0</v>
@@ -17748,7 +17748,7 @@
         <v>0</v>
       </c>
       <c r="K129" s="3">
-        <v>607</v>
+        <v>862</v>
       </c>
       <c r="L129" s="3">
         <v>0</v>
@@ -17853,7 +17853,7 @@
         <v>0</v>
       </c>
       <c r="K130" s="3">
-        <v>1030</v>
+        <v>1201</v>
       </c>
       <c r="L130" s="3">
         <v>0</v>
@@ -17958,7 +17958,7 @@
         <v>0</v>
       </c>
       <c r="K131" s="3">
-        <v>1803</v>
+        <v>1492</v>
       </c>
       <c r="L131" s="3">
         <v>0</v>
@@ -18483,7 +18483,7 @@
         <v>0</v>
       </c>
       <c r="K136" s="3">
-        <v>3403</v>
+        <v>2833</v>
       </c>
       <c r="L136" s="3">
         <v>0</v>
@@ -19008,7 +19008,7 @@
         <v>0</v>
       </c>
       <c r="K141" s="3">
-        <v>4787</v>
+        <v>3980</v>
       </c>
       <c r="L141" s="3">
         <v>0</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="K228" s="3">
-        <v>331</v>
+        <v>165</v>
       </c>
       <c r="L228" s="3">
         <v>0</v>
@@ -28248,7 +28248,7 @@
         <v>0</v>
       </c>
       <c r="K229" s="3">
-        <v>828</v>
+        <v>496</v>
       </c>
       <c r="L229" s="3">
         <v>0</v>
@@ -28878,7 +28878,7 @@
         <v>0</v>
       </c>
       <c r="K235" s="3">
-        <v>828</v>
+        <v>1150</v>
       </c>
       <c r="L235" s="3">
         <v>0</v>
@@ -28983,7 +28983,7 @@
         <v>0</v>
       </c>
       <c r="K236" s="3">
-        <v>828</v>
+        <v>1366</v>
       </c>
       <c r="L236" s="3">
         <v>0</v>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="K237" s="3">
-        <v>1215</v>
+        <v>1724</v>
       </c>
       <c r="L237" s="3">
         <v>0</v>
@@ -29193,7 +29193,7 @@
         <v>0</v>
       </c>
       <c r="K238" s="3">
-        <v>2060</v>
+        <v>2403</v>
       </c>
       <c r="L238" s="3">
         <v>0</v>
@@ -29298,7 +29298,7 @@
         <v>0</v>
       </c>
       <c r="K239" s="3">
-        <v>3606</v>
+        <v>2985</v>
       </c>
       <c r="L239" s="3">
         <v>0</v>
@@ -29823,7 +29823,7 @@
         <v>0</v>
       </c>
       <c r="K244" s="3">
-        <v>6806</v>
+        <v>5667</v>
       </c>
       <c r="L244" s="3">
         <v>0</v>
@@ -30348,7 +30348,7 @@
         <v>0</v>
       </c>
       <c r="K249" s="3">
-        <v>9574</v>
+        <v>7961</v>
       </c>
       <c r="L249" s="3">
         <v>0</v>
@@ -39483,7 +39483,7 @@
         <v>0</v>
       </c>
       <c r="K336" s="3">
-        <v>331</v>
+        <v>165</v>
       </c>
       <c r="L336" s="3">
         <v>0</v>
@@ -39588,7 +39588,7 @@
         <v>0</v>
       </c>
       <c r="K337" s="3">
-        <v>828</v>
+        <v>496</v>
       </c>
       <c r="L337" s="3">
         <v>0</v>
@@ -40218,7 +40218,7 @@
         <v>0</v>
       </c>
       <c r="K343" s="3">
-        <v>1104</v>
+        <v>1534</v>
       </c>
       <c r="L343" s="3">
         <v>0</v>
@@ -40323,7 +40323,7 @@
         <v>0</v>
       </c>
       <c r="K344" s="3">
-        <v>1104</v>
+        <v>1821</v>
       </c>
       <c r="L344" s="3">
         <v>0</v>
@@ -40428,7 +40428,7 @@
         <v>0</v>
       </c>
       <c r="K345" s="3">
-        <v>1621</v>
+        <v>2298</v>
       </c>
       <c r="L345" s="3">
         <v>0</v>
@@ -40533,7 +40533,7 @@
         <v>0</v>
       </c>
       <c r="K346" s="3">
-        <v>2747</v>
+        <v>3204</v>
       </c>
       <c r="L346" s="3">
         <v>0</v>
@@ -40638,7 +40638,7 @@
         <v>0</v>
       </c>
       <c r="K347" s="3">
-        <v>4808</v>
+        <v>3980</v>
       </c>
       <c r="L347" s="3">
         <v>0</v>
@@ -41163,7 +41163,7 @@
         <v>0</v>
       </c>
       <c r="K352" s="3">
-        <v>9074</v>
+        <v>7556</v>
       </c>
       <c r="L352" s="3">
         <v>0</v>
@@ -41688,7 +41688,7 @@
         <v>0</v>
       </c>
       <c r="K357" s="3">
-        <v>12765</v>
+        <v>10615</v>
       </c>
       <c r="L357" s="3">
         <v>0</v>
@@ -50823,7 +50823,7 @@
         <v>0</v>
       </c>
       <c r="K444" s="3">
-        <v>1104</v>
+        <v>552</v>
       </c>
       <c r="L444" s="3">
         <v>0</v>
@@ -50928,7 +50928,7 @@
         <v>0</v>
       </c>
       <c r="K445" s="3">
-        <v>4140</v>
+        <v>2484</v>
       </c>
       <c r="L445" s="3">
         <v>0</v>
@@ -51558,7 +51558,7 @@
         <v>0</v>
       </c>
       <c r="K451" s="3">
-        <v>2760</v>
+        <v>3836</v>
       </c>
       <c r="L451" s="3">
         <v>0</v>
@@ -51663,7 +51663,7 @@
         <v>0</v>
       </c>
       <c r="K452" s="3">
-        <v>2760</v>
+        <v>4554</v>
       </c>
       <c r="L452" s="3">
         <v>0</v>
@@ -51768,7 +51768,7 @@
         <v>0</v>
       </c>
       <c r="K453" s="3">
-        <v>4052</v>
+        <v>5747</v>
       </c>
       <c r="L453" s="3">
         <v>0</v>
@@ -51873,7 +51873,7 @@
         <v>0</v>
       </c>
       <c r="K454" s="3">
-        <v>6869</v>
+        <v>8010</v>
       </c>
       <c r="L454" s="3">
         <v>0</v>
@@ -51978,7 +51978,7 @@
         <v>0</v>
       </c>
       <c r="K455" s="3">
-        <v>12021</v>
+        <v>9951</v>
       </c>
       <c r="L455" s="3">
         <v>0</v>
@@ -52503,7 +52503,7 @@
         <v>0</v>
       </c>
       <c r="K460" s="3">
-        <v>22687</v>
+        <v>18892</v>
       </c>
       <c r="L460" s="3">
         <v>0</v>
@@ -53028,7 +53028,7 @@
         <v>0</v>
       </c>
       <c r="K465" s="3">
-        <v>39891</v>
+        <v>33173</v>
       </c>
       <c r="L465" s="3">
         <v>0</v>
@@ -62163,7 +62163,7 @@
         <v>0</v>
       </c>
       <c r="K552" s="3">
-        <v>2208</v>
+        <v>1104</v>
       </c>
       <c r="L552" s="3">
         <v>0</v>
@@ -62268,7 +62268,7 @@
         <v>0</v>
       </c>
       <c r="K553" s="3">
-        <v>5520</v>
+        <v>3312</v>
       </c>
       <c r="L553" s="3">
         <v>0</v>
@@ -62898,7 +62898,7 @@
         <v>0</v>
       </c>
       <c r="K559" s="3">
-        <v>5520</v>
+        <v>7672</v>
       </c>
       <c r="L559" s="3">
         <v>0</v>
@@ -63003,7 +63003,7 @@
         <v>0</v>
       </c>
       <c r="K560" s="3">
-        <v>5520</v>
+        <v>9108</v>
       </c>
       <c r="L560" s="3">
         <v>0</v>
@@ -63108,7 +63108,7 @@
         <v>0</v>
       </c>
       <c r="K561" s="3">
-        <v>8105</v>
+        <v>11494</v>
       </c>
       <c r="L561" s="3">
         <v>0</v>
@@ -63213,7 +63213,7 @@
         <v>0</v>
       </c>
       <c r="K562" s="3">
-        <v>13738</v>
+        <v>16020</v>
       </c>
       <c r="L562" s="3">
         <v>0</v>
@@ -63318,7 +63318,7 @@
         <v>0</v>
       </c>
       <c r="K563" s="3">
-        <v>24042</v>
+        <v>19902</v>
       </c>
       <c r="L563" s="3">
         <v>0</v>
@@ -63843,7 +63843,7 @@
         <v>0</v>
       </c>
       <c r="K568" s="3">
-        <v>56718</v>
+        <v>47230</v>
       </c>
       <c r="L568" s="3">
         <v>0</v>
@@ -64368,7 +64368,7 @@
         <v>0</v>
       </c>
       <c r="K573" s="3">
-        <v>87761</v>
+        <v>72980</v>
       </c>
       <c r="L573" s="3">
         <v>0</v>

--- a/Excel/monster.怪物.xlsx
+++ b/Excel/monster.怪物.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F1F4A4-FCDC-4E1B-9FA9-F2314775A6DA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312CE981-E8D5-40B0-8480-B112762B80A8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4192,10 +4192,10 @@
   <dimension ref="A1:AO651"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D589" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="T412" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K544" sqref="K544:K651"/>
+      <selection pane="bottomRight" activeCell="U328" sqref="U328:U435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4645,7 +4645,7 @@
         <v>0</v>
       </c>
       <c r="U4" s="3">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="V4" s="3">
         <v>0</v>
@@ -4750,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="U5" s="3">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="V5" s="3">
         <v>0</v>
@@ -4855,7 +4855,7 @@
         <v>0</v>
       </c>
       <c r="U6" s="3">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="V6" s="3">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="U7" s="3">
-        <v>1</v>
+        <v>0.77</v>
       </c>
       <c r="V7" s="3">
         <v>0</v>
@@ -5065,7 +5065,7 @@
         <v>0</v>
       </c>
       <c r="U8" s="3">
-        <v>1</v>
+        <v>0.72</v>
       </c>
       <c r="V8" s="3">
         <v>0</v>
@@ -5170,7 +5170,7 @@
         <v>0</v>
       </c>
       <c r="U9" s="3">
-        <v>1</v>
+        <v>0.72</v>
       </c>
       <c r="V9" s="3">
         <v>0</v>
@@ -5275,7 +5275,7 @@
         <v>0</v>
       </c>
       <c r="U10" s="3">
-        <v>1</v>
+        <v>0.72</v>
       </c>
       <c r="V10" s="3">
         <v>0</v>
@@ -5380,7 +5380,7 @@
         <v>0</v>
       </c>
       <c r="U11" s="3">
-        <v>1</v>
+        <v>0.81</v>
       </c>
       <c r="V11" s="3">
         <v>0</v>
@@ -5485,7 +5485,7 @@
         <v>0</v>
       </c>
       <c r="U12" s="3">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="V12" s="3">
         <v>0</v>
@@ -5590,7 +5590,7 @@
         <v>0</v>
       </c>
       <c r="U13" s="3">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="V13" s="3">
         <v>0</v>
@@ -5695,7 +5695,7 @@
         <v>0</v>
       </c>
       <c r="U14" s="3">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -5800,7 +5800,7 @@
         <v>0</v>
       </c>
       <c r="U15" s="3">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="V15" s="3">
         <v>0</v>
@@ -5905,7 +5905,7 @@
         <v>0</v>
       </c>
       <c r="U16" s="3">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="V16" s="3">
         <v>0</v>
@@ -6010,7 +6010,7 @@
         <v>0</v>
       </c>
       <c r="U17" s="3">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="V17" s="3">
         <v>0</v>
@@ -6745,7 +6745,7 @@
         <v>0</v>
       </c>
       <c r="U24" s="3">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="V24" s="3">
         <v>0</v>
@@ -6850,7 +6850,7 @@
         <v>0</v>
       </c>
       <c r="U25" s="3">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="V25" s="3">
         <v>0</v>
@@ -6955,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="U26" s="3">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="V26" s="3">
         <v>0</v>
@@ -7060,7 +7060,7 @@
         <v>0</v>
       </c>
       <c r="U27" s="3">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="V27" s="3">
         <v>0</v>
@@ -7165,7 +7165,7 @@
         <v>0</v>
       </c>
       <c r="U28" s="3">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="V28" s="3">
         <v>0</v>
@@ -7270,7 +7270,7 @@
         <v>0</v>
       </c>
       <c r="U29" s="3">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="V29" s="3">
         <v>0</v>
@@ -7375,7 +7375,7 @@
         <v>0</v>
       </c>
       <c r="U30" s="3">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="V30" s="3">
         <v>0</v>
@@ -7480,7 +7480,7 @@
         <v>0</v>
       </c>
       <c r="U31" s="3">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="V31" s="3">
         <v>0</v>
@@ -7585,7 +7585,7 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="V32" s="3">
         <v>0</v>
@@ -7690,7 +7690,7 @@
         <v>0</v>
       </c>
       <c r="U33" s="3">
-        <v>1.1499999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="V33" s="3">
         <v>0</v>
@@ -7795,7 +7795,7 @@
         <v>0</v>
       </c>
       <c r="U34" s="3">
-        <v>1.1499999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="V34" s="3">
         <v>0</v>
@@ -7900,7 +7900,7 @@
         <v>0</v>
       </c>
       <c r="U35" s="3">
-        <v>1.1599999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="V35" s="3">
         <v>0</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="U36" s="3">
-        <v>1.1599999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="V36" s="3">
         <v>0</v>
@@ -8110,7 +8110,7 @@
         <v>0</v>
       </c>
       <c r="U37" s="3">
-        <v>1.1599999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="V37" s="3">
         <v>0</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="U38" s="3">
-        <v>1.17</v>
+        <v>0.94</v>
       </c>
       <c r="V38" s="3">
         <v>0</v>
@@ -8320,7 +8320,7 @@
         <v>0</v>
       </c>
       <c r="U39" s="3">
-        <v>1.07</v>
+        <v>0.86</v>
       </c>
       <c r="V39" s="3">
         <v>0</v>
@@ -8425,7 +8425,7 @@
         <v>0</v>
       </c>
       <c r="U40" s="3">
-        <v>1.08</v>
+        <v>0.86</v>
       </c>
       <c r="V40" s="3">
         <v>0</v>
@@ -8530,7 +8530,7 @@
         <v>0</v>
       </c>
       <c r="U41" s="3">
-        <v>1.0900000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="V41" s="3">
         <v>0</v>
@@ -8635,7 +8635,7 @@
         <v>0</v>
       </c>
       <c r="U42" s="3">
-        <v>1.1200000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="V42" s="3">
         <v>0</v>
@@ -8740,7 +8740,7 @@
         <v>0</v>
       </c>
       <c r="U43" s="3">
-        <v>1.1499999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="V43" s="3">
         <v>0</v>
@@ -8845,7 +8845,7 @@
         <v>0</v>
       </c>
       <c r="U44" s="3">
-        <v>1.1399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="V44" s="3">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="U45" s="3">
-        <v>1.1399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="V45" s="3">
         <v>0</v>
@@ -9055,7 +9055,7 @@
         <v>0</v>
       </c>
       <c r="U46" s="3">
-        <v>1.1499999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="V46" s="3">
         <v>0</v>
@@ -9160,7 +9160,7 @@
         <v>0</v>
       </c>
       <c r="U47" s="3">
-        <v>1.1499999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="V47" s="3">
         <v>0</v>
@@ -9265,7 +9265,7 @@
         <v>0</v>
       </c>
       <c r="U48" s="3">
-        <v>1.17</v>
+        <v>0.94</v>
       </c>
       <c r="V48" s="3">
         <v>0</v>
@@ -9370,7 +9370,7 @@
         <v>0</v>
       </c>
       <c r="U49" s="3">
-        <v>1.18</v>
+        <v>0.94</v>
       </c>
       <c r="V49" s="3">
         <v>0</v>
@@ -9475,7 +9475,7 @@
         <v>0</v>
       </c>
       <c r="U50" s="3">
-        <v>1.23</v>
+        <v>0.99</v>
       </c>
       <c r="V50" s="3">
         <v>0</v>
@@ -9580,7 +9580,7 @@
         <v>0</v>
       </c>
       <c r="U51" s="3">
-        <v>1.21</v>
+        <v>0.97</v>
       </c>
       <c r="V51" s="3">
         <v>0</v>
@@ -9685,7 +9685,7 @@
         <v>0</v>
       </c>
       <c r="U52" s="3">
-        <v>1.21</v>
+        <v>0.97</v>
       </c>
       <c r="V52" s="3">
         <v>0</v>
@@ -9790,7 +9790,7 @@
         <v>0</v>
       </c>
       <c r="U53" s="3">
-        <v>1.21</v>
+        <v>0.97</v>
       </c>
       <c r="V53" s="3">
         <v>0</v>
@@ -9895,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="U54" s="3">
-        <v>1.22</v>
+        <v>0.98</v>
       </c>
       <c r="V54" s="3">
         <v>0</v>
@@ -10000,7 +10000,7 @@
         <v>0</v>
       </c>
       <c r="U55" s="3">
-        <v>1.22</v>
+        <v>0.97</v>
       </c>
       <c r="V55" s="3">
         <v>0</v>
@@ -10105,7 +10105,7 @@
         <v>0</v>
       </c>
       <c r="U56" s="3">
-        <v>1.61</v>
+        <v>1.45</v>
       </c>
       <c r="V56" s="3">
         <v>0</v>
@@ -10210,7 +10210,7 @@
         <v>0</v>
       </c>
       <c r="U57" s="3">
-        <v>1.61</v>
+        <v>1.45</v>
       </c>
       <c r="V57" s="3">
         <v>0</v>
@@ -10315,7 +10315,7 @@
         <v>0</v>
       </c>
       <c r="U58" s="3">
-        <v>1.61</v>
+        <v>1.45</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
@@ -10420,7 +10420,7 @@
         <v>0</v>
       </c>
       <c r="U59" s="3">
-        <v>1.62</v>
+        <v>1.47</v>
       </c>
       <c r="V59" s="3">
         <v>0</v>
@@ -10525,7 +10525,7 @@
         <v>0</v>
       </c>
       <c r="U60" s="3">
-        <v>1.62</v>
+        <v>1.47</v>
       </c>
       <c r="V60" s="3">
         <v>0</v>
@@ -10630,7 +10630,7 @@
         <v>0</v>
       </c>
       <c r="U61" s="3">
-        <v>1.7</v>
+        <v>1.54</v>
       </c>
       <c r="V61" s="3">
         <v>0</v>
@@ -10735,7 +10735,7 @@
         <v>0</v>
       </c>
       <c r="U62" s="3">
-        <v>1.7</v>
+        <v>1.58</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
@@ -10840,7 +10840,7 @@
         <v>0</v>
       </c>
       <c r="U63" s="3">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="V63" s="3">
         <v>0</v>
@@ -10945,7 +10945,7 @@
         <v>0</v>
       </c>
       <c r="U64" s="3">
-        <v>1.71</v>
+        <v>1.54</v>
       </c>
       <c r="V64" s="3">
         <v>0</v>
@@ -11050,7 +11050,7 @@
         <v>0</v>
       </c>
       <c r="U65" s="3">
-        <v>1.72</v>
+        <v>1.55</v>
       </c>
       <c r="V65" s="3">
         <v>0</v>
@@ -11155,7 +11155,7 @@
         <v>0</v>
       </c>
       <c r="U66" s="3">
-        <v>1.73</v>
+        <v>1.56</v>
       </c>
       <c r="V66" s="3">
         <v>0</v>
@@ -11260,7 +11260,7 @@
         <v>0</v>
       </c>
       <c r="U67" s="3">
-        <v>1.73</v>
+        <v>2.06</v>
       </c>
       <c r="V67" s="3">
         <v>0</v>
@@ -11365,7 +11365,7 @@
         <v>0</v>
       </c>
       <c r="U68" s="3">
-        <v>1.75</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="V68" s="3">
         <v>0</v>
@@ -11470,7 +11470,7 @@
         <v>0</v>
       </c>
       <c r="U69" s="3">
-        <v>1.76</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="V69" s="3">
         <v>0</v>
@@ -11575,7 +11575,7 @@
         <v>0</v>
       </c>
       <c r="U70" s="3">
-        <v>1.78</v>
+        <v>2.16</v>
       </c>
       <c r="V70" s="3">
         <v>0</v>
@@ -11680,7 +11680,7 @@
         <v>0</v>
       </c>
       <c r="U71" s="3">
-        <v>1.8</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="V71" s="3">
         <v>0</v>
@@ -11785,7 +11785,7 @@
         <v>0</v>
       </c>
       <c r="U72" s="3">
-        <v>1.8</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="V72" s="3">
         <v>0</v>
@@ -11890,7 +11890,7 @@
         <v>0</v>
       </c>
       <c r="U73" s="3">
-        <v>1.66</v>
+        <v>1.5</v>
       </c>
       <c r="V73" s="3">
         <v>0</v>
@@ -11995,7 +11995,7 @@
         <v>0</v>
       </c>
       <c r="U74" s="3">
-        <v>1.71</v>
+        <v>1.54</v>
       </c>
       <c r="V74" s="3">
         <v>0</v>
@@ -12100,7 +12100,7 @@
         <v>0</v>
       </c>
       <c r="U75" s="3">
-        <v>1.64</v>
+        <v>1.48</v>
       </c>
       <c r="V75" s="3">
         <v>0</v>
@@ -12205,7 +12205,7 @@
         <v>0</v>
       </c>
       <c r="U76" s="3">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="V76" s="3">
         <v>0</v>
@@ -12310,7 +12310,7 @@
         <v>0</v>
       </c>
       <c r="U77" s="3">
-        <v>1.9</v>
+        <v>1.71</v>
       </c>
       <c r="V77" s="3">
         <v>0</v>
@@ -12415,7 +12415,7 @@
         <v>0</v>
       </c>
       <c r="U78" s="3">
-        <v>1.88</v>
+        <v>1.69</v>
       </c>
       <c r="V78" s="3">
         <v>0</v>
@@ -12520,7 +12520,7 @@
         <v>0</v>
       </c>
       <c r="U79" s="3">
-        <v>1.91</v>
+        <v>1.72</v>
       </c>
       <c r="V79" s="3">
         <v>0</v>
@@ -12625,7 +12625,7 @@
         <v>0</v>
       </c>
       <c r="U80" s="3">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="V80" s="3">
         <v>0</v>
@@ -12730,7 +12730,7 @@
         <v>0</v>
       </c>
       <c r="U81" s="3">
-        <v>2.02</v>
+        <v>1.82</v>
       </c>
       <c r="V81" s="3">
         <v>0</v>
@@ -12835,7 +12835,7 @@
         <v>0</v>
       </c>
       <c r="U82" s="3">
-        <v>2.0499999999999998</v>
+        <v>1.85</v>
       </c>
       <c r="V82" s="3">
         <v>0</v>
@@ -12940,7 +12940,7 @@
         <v>0</v>
       </c>
       <c r="U83" s="3">
-        <v>2.0099999999999998</v>
+        <v>1.81</v>
       </c>
       <c r="V83" s="3">
         <v>0</v>
@@ -13045,7 +13045,7 @@
         <v>0</v>
       </c>
       <c r="U84" s="3">
-        <v>2.04</v>
+        <v>1.84</v>
       </c>
       <c r="V84" s="3">
         <v>0</v>
@@ -13150,7 +13150,7 @@
         <v>0</v>
       </c>
       <c r="U85" s="3">
-        <v>2.0699999999999998</v>
+        <v>1.87</v>
       </c>
       <c r="V85" s="3">
         <v>0</v>
@@ -13255,7 +13255,7 @@
         <v>0</v>
       </c>
       <c r="U86" s="3">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="V86" s="3">
         <v>0</v>
@@ -13360,7 +13360,7 @@
         <v>0</v>
       </c>
       <c r="U87" s="3">
-        <v>2.1</v>
+        <v>1.89</v>
       </c>
       <c r="V87" s="3">
         <v>0</v>
@@ -13465,7 +13465,7 @@
         <v>0</v>
       </c>
       <c r="U88" s="3">
-        <v>2.1800000000000002</v>
+        <v>1.96</v>
       </c>
       <c r="V88" s="3">
         <v>0</v>
@@ -13570,7 +13570,7 @@
         <v>0</v>
       </c>
       <c r="U89" s="3">
-        <v>2.25</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="V89" s="3">
         <v>0</v>
@@ -13675,7 +13675,7 @@
         <v>0</v>
       </c>
       <c r="U90" s="3">
-        <v>2.2000000000000002</v>
+        <v>1.98</v>
       </c>
       <c r="V90" s="3">
         <v>0</v>
@@ -13780,7 +13780,7 @@
         <v>0</v>
       </c>
       <c r="U91" s="3">
-        <v>2.23</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
@@ -13885,7 +13885,7 @@
         <v>0</v>
       </c>
       <c r="U92" s="3">
-        <v>2.2400000000000002</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="V92" s="3">
         <v>0</v>
@@ -13990,7 +13990,7 @@
         <v>0</v>
       </c>
       <c r="U93" s="3">
-        <v>2.19</v>
+        <v>1.97</v>
       </c>
       <c r="V93" s="3">
         <v>0</v>
@@ -14095,7 +14095,7 @@
         <v>0</v>
       </c>
       <c r="U94" s="3">
-        <v>2.5499999999999998</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="V94" s="3">
         <v>0</v>
@@ -14200,7 +14200,7 @@
         <v>0</v>
       </c>
       <c r="U95" s="3">
-        <v>2.63</v>
+        <v>2.37</v>
       </c>
       <c r="V95" s="3">
         <v>0</v>
@@ -14305,7 +14305,7 @@
         <v>0</v>
       </c>
       <c r="U96" s="3">
-        <v>2.74</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="V96" s="3">
         <v>0</v>
@@ -14410,7 +14410,7 @@
         <v>0</v>
       </c>
       <c r="U97" s="3">
-        <v>2.77</v>
+        <v>2.5</v>
       </c>
       <c r="V97" s="3">
         <v>0</v>
@@ -14515,7 +14515,7 @@
         <v>0</v>
       </c>
       <c r="U98" s="3">
-        <v>2.68</v>
+        <v>2.42</v>
       </c>
       <c r="V98" s="3">
         <v>0</v>
@@ -14620,7 +14620,7 @@
         <v>0</v>
       </c>
       <c r="U99" s="3">
-        <v>2.75</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="V99" s="3">
         <v>0</v>
@@ -14725,7 +14725,7 @@
         <v>0</v>
       </c>
       <c r="U100" s="3">
-        <v>2.75</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="V100" s="3">
         <v>0</v>
@@ -14830,7 +14830,7 @@
         <v>0</v>
       </c>
       <c r="U101" s="3">
-        <v>2.85</v>
+        <v>2.57</v>
       </c>
       <c r="V101" s="3">
         <v>0</v>
@@ -14935,7 +14935,7 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
-        <v>2.85</v>
+        <v>2.57</v>
       </c>
       <c r="V102" s="3">
         <v>0</v>
@@ -15040,7 +15040,7 @@
         <v>0</v>
       </c>
       <c r="U103" s="3">
-        <v>2.85</v>
+        <v>2.57</v>
       </c>
       <c r="V103" s="3">
         <v>0</v>
@@ -15145,7 +15145,7 @@
         <v>0</v>
       </c>
       <c r="U104" s="3">
-        <v>2.92</v>
+        <v>2.63</v>
       </c>
       <c r="V104" s="3">
         <v>0</v>
@@ -15250,7 +15250,7 @@
         <v>0</v>
       </c>
       <c r="U105" s="3">
-        <v>3.14</v>
+        <v>2.83</v>
       </c>
       <c r="V105" s="3">
         <v>0</v>
@@ -15355,7 +15355,7 @@
         <v>0</v>
       </c>
       <c r="U106" s="3">
-        <v>3.21</v>
+        <v>2.89</v>
       </c>
       <c r="V106" s="3">
         <v>0</v>
@@ -15460,7 +15460,7 @@
         <v>0</v>
       </c>
       <c r="U107" s="3">
-        <v>3.21</v>
+        <v>2.89</v>
       </c>
       <c r="V107" s="3">
         <v>0</v>
@@ -15565,7 +15565,7 @@
         <v>0</v>
       </c>
       <c r="U108" s="3">
-        <v>3.21</v>
+        <v>2.89</v>
       </c>
       <c r="V108" s="3">
         <v>0</v>
@@ -15670,7 +15670,7 @@
         <v>0</v>
       </c>
       <c r="U109" s="3">
-        <v>3.28</v>
+        <v>2.95</v>
       </c>
       <c r="V109" s="3">
         <v>0</v>
@@ -15775,7 +15775,7 @@
         <v>0</v>
       </c>
       <c r="U110" s="3">
-        <v>3.28</v>
+        <v>2.95</v>
       </c>
       <c r="V110" s="3">
         <v>0</v>
@@ -15880,7 +15880,7 @@
         <v>0</v>
       </c>
       <c r="U111" s="3">
-        <v>3.35</v>
+        <v>3.02</v>
       </c>
       <c r="V111" s="3">
         <v>0</v>
@@ -15985,7 +15985,7 @@
         <v>0</v>
       </c>
       <c r="U112" s="3">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="V112" s="3">
         <v>0</v>
@@ -16090,7 +16090,7 @@
         <v>0</v>
       </c>
       <c r="U113" s="3">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="V113" s="3">
         <v>0</v>
@@ -16195,7 +16195,7 @@
         <v>0</v>
       </c>
       <c r="U114" s="3">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="V114" s="3">
         <v>0</v>
@@ -16300,7 +16300,7 @@
         <v>0</v>
       </c>
       <c r="U115" s="3">
-        <v>1</v>
+        <v>0.77</v>
       </c>
       <c r="V115" s="3">
         <v>0</v>
@@ -16405,7 +16405,7 @@
         <v>0</v>
       </c>
       <c r="U116" s="3">
-        <v>1</v>
+        <v>0.72</v>
       </c>
       <c r="V116" s="3">
         <v>0</v>
@@ -16510,7 +16510,7 @@
         <v>0</v>
       </c>
       <c r="U117" s="3">
-        <v>1</v>
+        <v>0.72</v>
       </c>
       <c r="V117" s="3">
         <v>0</v>
@@ -16615,7 +16615,7 @@
         <v>0</v>
       </c>
       <c r="U118" s="3">
-        <v>1</v>
+        <v>0.72</v>
       </c>
       <c r="V118" s="3">
         <v>0</v>
@@ -16720,7 +16720,7 @@
         <v>0</v>
       </c>
       <c r="U119" s="3">
-        <v>1</v>
+        <v>0.81</v>
       </c>
       <c r="V119" s="3">
         <v>0</v>
@@ -16825,7 +16825,7 @@
         <v>0</v>
       </c>
       <c r="U120" s="3">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="V120" s="3">
         <v>0</v>
@@ -16930,7 +16930,7 @@
         <v>0</v>
       </c>
       <c r="U121" s="3">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="V121" s="3">
         <v>0</v>
@@ -17035,7 +17035,7 @@
         <v>0</v>
       </c>
       <c r="U122" s="3">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="V122" s="3">
         <v>0</v>
@@ -17140,7 +17140,7 @@
         <v>0</v>
       </c>
       <c r="U123" s="3">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="V123" s="3">
         <v>0</v>
@@ -17245,7 +17245,7 @@
         <v>0</v>
       </c>
       <c r="U124" s="3">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="V124" s="3">
         <v>0</v>
@@ -17350,7 +17350,7 @@
         <v>0</v>
       </c>
       <c r="U125" s="3">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="V125" s="3">
         <v>0</v>
@@ -18085,7 +18085,7 @@
         <v>0</v>
       </c>
       <c r="U132" s="3">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="V132" s="3">
         <v>0</v>
@@ -18190,7 +18190,7 @@
         <v>0</v>
       </c>
       <c r="U133" s="3">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="V133" s="3">
         <v>0</v>
@@ -18295,7 +18295,7 @@
         <v>0</v>
       </c>
       <c r="U134" s="3">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="V134" s="3">
         <v>0</v>
@@ -18400,7 +18400,7 @@
         <v>0</v>
       </c>
       <c r="U135" s="3">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="V135" s="3">
         <v>0</v>
@@ -18505,7 +18505,7 @@
         <v>0</v>
       </c>
       <c r="U136" s="3">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="V136" s="3">
         <v>0</v>
@@ -18610,7 +18610,7 @@
         <v>0</v>
       </c>
       <c r="U137" s="3">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="V137" s="3">
         <v>0</v>
@@ -18715,7 +18715,7 @@
         <v>0</v>
       </c>
       <c r="U138" s="3">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="V138" s="3">
         <v>0</v>
@@ -18820,7 +18820,7 @@
         <v>0</v>
       </c>
       <c r="U139" s="3">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="V139" s="3">
         <v>0</v>
@@ -18925,7 +18925,7 @@
         <v>0</v>
       </c>
       <c r="U140" s="3">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="V140" s="3">
         <v>0</v>
@@ -19030,7 +19030,7 @@
         <v>0</v>
       </c>
       <c r="U141" s="3">
-        <v>1.1499999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="V141" s="3">
         <v>0</v>
@@ -19135,7 +19135,7 @@
         <v>0</v>
       </c>
       <c r="U142" s="3">
-        <v>1.1499999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="V142" s="3">
         <v>0</v>
@@ -19240,7 +19240,7 @@
         <v>0</v>
       </c>
       <c r="U143" s="3">
-        <v>1.1599999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="V143" s="3">
         <v>0</v>
@@ -19345,7 +19345,7 @@
         <v>0</v>
       </c>
       <c r="U144" s="3">
-        <v>1.1599999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="V144" s="3">
         <v>0</v>
@@ -19450,7 +19450,7 @@
         <v>0</v>
       </c>
       <c r="U145" s="3">
-        <v>1.1599999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="V145" s="3">
         <v>0</v>
@@ -19555,7 +19555,7 @@
         <v>0</v>
       </c>
       <c r="U146" s="3">
-        <v>1.17</v>
+        <v>0.94</v>
       </c>
       <c r="V146" s="3">
         <v>0</v>
@@ -19660,7 +19660,7 @@
         <v>0</v>
       </c>
       <c r="U147" s="3">
-        <v>1.07</v>
+        <v>0.86</v>
       </c>
       <c r="V147" s="3">
         <v>0</v>
@@ -19765,7 +19765,7 @@
         <v>0</v>
       </c>
       <c r="U148" s="3">
-        <v>1.08</v>
+        <v>0.86</v>
       </c>
       <c r="V148" s="3">
         <v>0</v>
@@ -19870,7 +19870,7 @@
         <v>0</v>
       </c>
       <c r="U149" s="3">
-        <v>1.0900000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="V149" s="3">
         <v>0</v>
@@ -19975,7 +19975,7 @@
         <v>0</v>
       </c>
       <c r="U150" s="3">
-        <v>1.1200000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="V150" s="3">
         <v>0</v>
@@ -20080,7 +20080,7 @@
         <v>0</v>
       </c>
       <c r="U151" s="3">
-        <v>1.1499999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="V151" s="3">
         <v>0</v>
@@ -20185,7 +20185,7 @@
         <v>0</v>
       </c>
       <c r="U152" s="3">
-        <v>1.1399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="V152" s="3">
         <v>0</v>
@@ -20290,7 +20290,7 @@
         <v>0</v>
       </c>
       <c r="U153" s="3">
-        <v>1.1399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="V153" s="3">
         <v>0</v>
@@ -20395,7 +20395,7 @@
         <v>0</v>
       </c>
       <c r="U154" s="3">
-        <v>1.1499999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="V154" s="3">
         <v>0</v>
@@ -20500,7 +20500,7 @@
         <v>0</v>
       </c>
       <c r="U155" s="3">
-        <v>1.1499999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="V155" s="3">
         <v>0</v>
@@ -20605,7 +20605,7 @@
         <v>0</v>
       </c>
       <c r="U156" s="3">
-        <v>1.17</v>
+        <v>0.94</v>
       </c>
       <c r="V156" s="3">
         <v>0</v>
@@ -20710,7 +20710,7 @@
         <v>0</v>
       </c>
       <c r="U157" s="3">
-        <v>1.18</v>
+        <v>0.94</v>
       </c>
       <c r="V157" s="3">
         <v>0</v>
@@ -20815,7 +20815,7 @@
         <v>0</v>
       </c>
       <c r="U158" s="3">
-        <v>1.23</v>
+        <v>0.99</v>
       </c>
       <c r="V158" s="3">
         <v>0</v>
@@ -20920,7 +20920,7 @@
         <v>0</v>
       </c>
       <c r="U159" s="3">
-        <v>1.21</v>
+        <v>0.97</v>
       </c>
       <c r="V159" s="3">
         <v>0</v>
@@ -21025,7 +21025,7 @@
         <v>0</v>
       </c>
       <c r="U160" s="3">
-        <v>1.21</v>
+        <v>0.97</v>
       </c>
       <c r="V160" s="3">
         <v>0</v>
@@ -21130,7 +21130,7 @@
         <v>0</v>
       </c>
       <c r="U161" s="3">
-        <v>1.21</v>
+        <v>0.97</v>
       </c>
       <c r="V161" s="3">
         <v>0</v>
@@ -21235,7 +21235,7 @@
         <v>0</v>
       </c>
       <c r="U162" s="3">
-        <v>1.22</v>
+        <v>0.98</v>
       </c>
       <c r="V162" s="3">
         <v>0</v>
@@ -21340,7 +21340,7 @@
         <v>0</v>
       </c>
       <c r="U163" s="3">
-        <v>1.22</v>
+        <v>0.97</v>
       </c>
       <c r="V163" s="3">
         <v>0</v>
@@ -21445,7 +21445,7 @@
         <v>0</v>
       </c>
       <c r="U164" s="3">
-        <v>1.61</v>
+        <v>1.45</v>
       </c>
       <c r="V164" s="3">
         <v>0</v>
@@ -21550,7 +21550,7 @@
         <v>0</v>
       </c>
       <c r="U165" s="3">
-        <v>1.61</v>
+        <v>1.45</v>
       </c>
       <c r="V165" s="3">
         <v>0</v>
@@ -21655,7 +21655,7 @@
         <v>0</v>
       </c>
       <c r="U166" s="3">
-        <v>1.61</v>
+        <v>1.45</v>
       </c>
       <c r="V166" s="3">
         <v>0</v>
@@ -21760,7 +21760,7 @@
         <v>0</v>
       </c>
       <c r="U167" s="3">
-        <v>1.62</v>
+        <v>1.47</v>
       </c>
       <c r="V167" s="3">
         <v>0</v>
@@ -21865,7 +21865,7 @@
         <v>0</v>
       </c>
       <c r="U168" s="3">
-        <v>1.62</v>
+        <v>1.47</v>
       </c>
       <c r="V168" s="3">
         <v>0</v>
@@ -21970,7 +21970,7 @@
         <v>0</v>
       </c>
       <c r="U169" s="3">
-        <v>1.7</v>
+        <v>1.54</v>
       </c>
       <c r="V169" s="3">
         <v>0</v>
@@ -22075,7 +22075,7 @@
         <v>0</v>
       </c>
       <c r="U170" s="3">
-        <v>1.7</v>
+        <v>1.58</v>
       </c>
       <c r="V170" s="3">
         <v>0</v>
@@ -22180,7 +22180,7 @@
         <v>0</v>
       </c>
       <c r="U171" s="3">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="V171" s="3">
         <v>0</v>
@@ -22285,7 +22285,7 @@
         <v>0</v>
       </c>
       <c r="U172" s="3">
-        <v>1.71</v>
+        <v>1.54</v>
       </c>
       <c r="V172" s="3">
         <v>0</v>
@@ -22390,7 +22390,7 @@
         <v>0</v>
       </c>
       <c r="U173" s="3">
-        <v>1.72</v>
+        <v>1.55</v>
       </c>
       <c r="V173" s="3">
         <v>0</v>
@@ -22495,7 +22495,7 @@
         <v>0</v>
       </c>
       <c r="U174" s="3">
-        <v>1.73</v>
+        <v>1.56</v>
       </c>
       <c r="V174" s="3">
         <v>0</v>
@@ -22600,7 +22600,7 @@
         <v>0</v>
       </c>
       <c r="U175" s="3">
-        <v>1.73</v>
+        <v>2.06</v>
       </c>
       <c r="V175" s="3">
         <v>0</v>
@@ -22705,7 +22705,7 @@
         <v>0</v>
       </c>
       <c r="U176" s="3">
-        <v>1.75</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="V176" s="3">
         <v>0</v>
@@ -22810,7 +22810,7 @@
         <v>0</v>
       </c>
       <c r="U177" s="3">
-        <v>1.76</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="V177" s="3">
         <v>0</v>
@@ -22915,7 +22915,7 @@
         <v>0</v>
       </c>
       <c r="U178" s="3">
-        <v>1.78</v>
+        <v>2.16</v>
       </c>
       <c r="V178" s="3">
         <v>0</v>
@@ -23020,7 +23020,7 @@
         <v>0</v>
       </c>
       <c r="U179" s="3">
-        <v>1.8</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="V179" s="3">
         <v>0</v>
@@ -23125,7 +23125,7 @@
         <v>0</v>
       </c>
       <c r="U180" s="3">
-        <v>1.8</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="V180" s="3">
         <v>0</v>
@@ -23230,7 +23230,7 @@
         <v>0</v>
       </c>
       <c r="U181" s="3">
-        <v>1.66</v>
+        <v>1.5</v>
       </c>
       <c r="V181" s="3">
         <v>0</v>
@@ -23335,7 +23335,7 @@
         <v>0</v>
       </c>
       <c r="U182" s="3">
-        <v>1.71</v>
+        <v>1.54</v>
       </c>
       <c r="V182" s="3">
         <v>0</v>
@@ -23440,7 +23440,7 @@
         <v>0</v>
       </c>
       <c r="U183" s="3">
-        <v>1.64</v>
+        <v>1.48</v>
       </c>
       <c r="V183" s="3">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="U184" s="3">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="V184" s="3">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         <v>0</v>
       </c>
       <c r="U185" s="3">
-        <v>1.9</v>
+        <v>1.71</v>
       </c>
       <c r="V185" s="3">
         <v>0</v>
@@ -23755,7 +23755,7 @@
         <v>0</v>
       </c>
       <c r="U186" s="3">
-        <v>1.88</v>
+        <v>1.69</v>
       </c>
       <c r="V186" s="3">
         <v>0</v>
@@ -23860,7 +23860,7 @@
         <v>0</v>
       </c>
       <c r="U187" s="3">
-        <v>1.91</v>
+        <v>1.72</v>
       </c>
       <c r="V187" s="3">
         <v>0</v>
@@ -23965,7 +23965,7 @@
         <v>0</v>
       </c>
       <c r="U188" s="3">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="V188" s="3">
         <v>0</v>
@@ -24070,7 +24070,7 @@
         <v>0</v>
       </c>
       <c r="U189" s="3">
-        <v>2.02</v>
+        <v>1.82</v>
       </c>
       <c r="V189" s="3">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="U190" s="3">
-        <v>2.0499999999999998</v>
+        <v>1.85</v>
       </c>
       <c r="V190" s="3">
         <v>0</v>
@@ -24280,7 +24280,7 @@
         <v>0</v>
       </c>
       <c r="U191" s="3">
-        <v>2.0099999999999998</v>
+        <v>1.81</v>
       </c>
       <c r="V191" s="3">
         <v>0</v>
@@ -24385,7 +24385,7 @@
         <v>0</v>
       </c>
       <c r="U192" s="3">
-        <v>2.04</v>
+        <v>1.84</v>
       </c>
       <c r="V192" s="3">
         <v>0</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="U193" s="3">
-        <v>2.0699999999999998</v>
+        <v>1.87</v>
       </c>
       <c r="V193" s="3">
         <v>0</v>
@@ -24595,7 +24595,7 @@
         <v>0</v>
       </c>
       <c r="U194" s="3">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="V194" s="3">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="U195" s="3">
-        <v>2.1</v>
+        <v>1.89</v>
       </c>
       <c r="V195" s="3">
         <v>0</v>
@@ -24805,7 +24805,7 @@
         <v>0</v>
       </c>
       <c r="U196" s="3">
-        <v>2.1800000000000002</v>
+        <v>1.96</v>
       </c>
       <c r="V196" s="3">
         <v>0</v>
@@ -24910,7 +24910,7 @@
         <v>0</v>
       </c>
       <c r="U197" s="3">
-        <v>2.25</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="V197" s="3">
         <v>0</v>
@@ -25015,7 +25015,7 @@
         <v>0</v>
       </c>
       <c r="U198" s="3">
-        <v>2.2000000000000002</v>
+        <v>1.98</v>
       </c>
       <c r="V198" s="3">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="U199" s="3">
-        <v>2.23</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="V199" s="3">
         <v>0</v>
@@ -25225,7 +25225,7 @@
         <v>0</v>
       </c>
       <c r="U200" s="3">
-        <v>2.2400000000000002</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="V200" s="3">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="U201" s="3">
-        <v>2.19</v>
+        <v>1.97</v>
       </c>
       <c r="V201" s="3">
         <v>0</v>
@@ -25435,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="U202" s="3">
-        <v>2.5499999999999998</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="V202" s="3">
         <v>0</v>
@@ -25540,7 +25540,7 @@
         <v>0</v>
       </c>
       <c r="U203" s="3">
-        <v>2.63</v>
+        <v>2.37</v>
       </c>
       <c r="V203" s="3">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="U204" s="3">
-        <v>2.74</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="V204" s="3">
         <v>0</v>
@@ -25750,7 +25750,7 @@
         <v>0</v>
       </c>
       <c r="U205" s="3">
-        <v>2.77</v>
+        <v>2.5</v>
       </c>
       <c r="V205" s="3">
         <v>0</v>
@@ -25855,7 +25855,7 @@
         <v>0</v>
       </c>
       <c r="U206" s="3">
-        <v>2.68</v>
+        <v>2.42</v>
       </c>
       <c r="V206" s="3">
         <v>0</v>
@@ -25960,7 +25960,7 @@
         <v>0</v>
       </c>
       <c r="U207" s="3">
-        <v>2.75</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="V207" s="3">
         <v>0</v>
@@ -26065,7 +26065,7 @@
         <v>0</v>
       </c>
       <c r="U208" s="3">
-        <v>2.75</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="V208" s="3">
         <v>0</v>
@@ -26170,7 +26170,7 @@
         <v>0</v>
       </c>
       <c r="U209" s="3">
-        <v>2.85</v>
+        <v>2.57</v>
       </c>
       <c r="V209" s="3">
         <v>0</v>
@@ -26275,7 +26275,7 @@
         <v>0</v>
       </c>
       <c r="U210" s="3">
-        <v>2.85</v>
+        <v>2.57</v>
       </c>
       <c r="V210" s="3">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="U211" s="3">
-        <v>2.85</v>
+        <v>2.57</v>
       </c>
       <c r="V211" s="3">
         <v>0</v>
@@ -26485,7 +26485,7 @@
         <v>0</v>
       </c>
       <c r="U212" s="3">
-        <v>2.92</v>
+        <v>2.63</v>
       </c>
       <c r="V212" s="3">
         <v>0</v>
@@ -26590,7 +26590,7 @@
         <v>0</v>
       </c>
       <c r="U213" s="3">
-        <v>3.14</v>
+        <v>2.83</v>
       </c>
       <c r="V213" s="3">
         <v>0</v>
@@ -26695,7 +26695,7 @@
         <v>0</v>
       </c>
       <c r="U214" s="3">
-        <v>3.21</v>
+        <v>2.89</v>
       </c>
       <c r="V214" s="3">
         <v>0</v>
@@ -26800,7 +26800,7 @@
         <v>0</v>
       </c>
       <c r="U215" s="3">
-        <v>3.21</v>
+        <v>2.89</v>
       </c>
       <c r="V215" s="3">
         <v>0</v>
@@ -26905,7 +26905,7 @@
         <v>0</v>
       </c>
       <c r="U216" s="3">
-        <v>3.21</v>
+        <v>2.89</v>
       </c>
       <c r="V216" s="3">
         <v>0</v>
@@ -27010,7 +27010,7 @@
         <v>0</v>
       </c>
       <c r="U217" s="3">
-        <v>3.28</v>
+        <v>2.95</v>
       </c>
       <c r="V217" s="3">
         <v>0</v>
@@ -27115,7 +27115,7 @@
         <v>0</v>
       </c>
       <c r="U218" s="3">
-        <v>3.28</v>
+        <v>2.95</v>
       </c>
       <c r="V218" s="3">
         <v>0</v>
@@ -27220,7 +27220,7 @@
         <v>0</v>
       </c>
       <c r="U219" s="3">
-        <v>3.35</v>
+        <v>3.02</v>
       </c>
       <c r="V219" s="3">
         <v>0</v>
@@ -27325,7 +27325,7 @@
         <v>0</v>
       </c>
       <c r="U220" s="3">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="V220" s="3">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="U221" s="3">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="V221" s="3">
         <v>0</v>
@@ -27535,7 +27535,7 @@
         <v>0</v>
       </c>
       <c r="U222" s="3">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="V222" s="3">
         <v>0</v>
@@ -27640,7 +27640,7 @@
         <v>0</v>
       </c>
       <c r="U223" s="3">
-        <v>1</v>
+        <v>0.77</v>
       </c>
       <c r="V223" s="3">
         <v>0</v>
@@ -27745,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="U224" s="3">
-        <v>1</v>
+        <v>0.72</v>
       </c>
       <c r="V224" s="3">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         <v>0</v>
       </c>
       <c r="U225" s="3">
-        <v>1</v>
+        <v>0.72</v>
       </c>
       <c r="V225" s="3">
         <v>0</v>
@@ -27955,7 +27955,7 @@
         <v>0</v>
       </c>
       <c r="U226" s="3">
-        <v>1</v>
+        <v>0.72</v>
       </c>
       <c r="V226" s="3">
         <v>0</v>
@@ -28060,7 +28060,7 @@
         <v>0</v>
       </c>
       <c r="U227" s="3">
-        <v>1</v>
+        <v>0.81</v>
       </c>
       <c r="V227" s="3">
         <v>0</v>
@@ -28165,7 +28165,7 @@
         <v>0</v>
       </c>
       <c r="U228" s="3">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="V228" s="3">
         <v>0</v>
@@ -28270,7 +28270,7 @@
         <v>0</v>
       </c>
       <c r="U229" s="3">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="V229" s="3">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="U230" s="3">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="V230" s="3">
         <v>0</v>
@@ -28480,7 +28480,7 @@
         <v>0</v>
       </c>
       <c r="U231" s="3">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="V231" s="3">
         <v>0</v>
@@ -28585,7 +28585,7 @@
         <v>0</v>
       </c>
       <c r="U232" s="3">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="V232" s="3">
         <v>0</v>
@@ -28690,7 +28690,7 @@
         <v>0</v>
       </c>
       <c r="U233" s="3">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="V233" s="3">
         <v>0</v>
@@ -29425,7 +29425,7 @@
         <v>0</v>
       </c>
       <c r="U240" s="3">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="V240" s="3">
         <v>0</v>
@@ -29530,7 +29530,7 @@
         <v>0</v>
       </c>
       <c r="U241" s="3">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="V241" s="3">
         <v>0</v>
@@ -29635,7 +29635,7 @@
         <v>0</v>
       </c>
       <c r="U242" s="3">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="V242" s="3">
         <v>0</v>
@@ -29740,7 +29740,7 @@
         <v>0</v>
       </c>
       <c r="U243" s="3">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="V243" s="3">
         <v>0</v>
@@ -29845,7 +29845,7 @@
         <v>0</v>
       </c>
       <c r="U244" s="3">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="V244" s="3">
         <v>0</v>
@@ -29950,7 +29950,7 @@
         <v>0</v>
       </c>
       <c r="U245" s="3">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="V245" s="3">
         <v>0</v>
@@ -30055,7 +30055,7 @@
         <v>0</v>
       </c>
       <c r="U246" s="3">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="V246" s="3">
         <v>0</v>
@@ -30160,7 +30160,7 @@
         <v>0</v>
       </c>
       <c r="U247" s="3">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="V247" s="3">
         <v>0</v>
@@ -30265,7 +30265,7 @@
         <v>0</v>
       </c>
       <c r="U248" s="3">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="V248" s="3">
         <v>0</v>
@@ -30370,7 +30370,7 @@
         <v>0</v>
       </c>
       <c r="U249" s="3">
-        <v>1.1499999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="V249" s="3">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="U250" s="3">
-        <v>1.1499999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="V250" s="3">
         <v>0</v>
@@ -30580,7 +30580,7 @@
         <v>0</v>
       </c>
       <c r="U251" s="3">
-        <v>1.1599999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="V251" s="3">
         <v>0</v>
@@ -30685,7 +30685,7 @@
         <v>0</v>
       </c>
       <c r="U252" s="3">
-        <v>1.1599999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="V252" s="3">
         <v>0</v>
@@ -30790,7 +30790,7 @@
         <v>0</v>
       </c>
       <c r="U253" s="3">
-        <v>1.1599999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="V253" s="3">
         <v>0</v>
@@ -30895,7 +30895,7 @@
         <v>0</v>
       </c>
       <c r="U254" s="3">
-        <v>1.17</v>
+        <v>0.94</v>
       </c>
       <c r="V254" s="3">
         <v>0</v>
@@ -31000,7 +31000,7 @@
         <v>0</v>
       </c>
       <c r="U255" s="3">
-        <v>1.07</v>
+        <v>0.86</v>
       </c>
       <c r="V255" s="3">
         <v>0</v>
@@ -31105,7 +31105,7 @@
         <v>0</v>
       </c>
       <c r="U256" s="3">
-        <v>1.08</v>
+        <v>0.86</v>
       </c>
       <c r="V256" s="3">
         <v>0</v>
@@ -31210,7 +31210,7 @@
         <v>0</v>
       </c>
       <c r="U257" s="3">
-        <v>1.0900000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="V257" s="3">
         <v>0</v>
@@ -31315,7 +31315,7 @@
         <v>0</v>
       </c>
       <c r="U258" s="3">
-        <v>1.1200000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="V258" s="3">
         <v>0</v>
@@ -31420,7 +31420,7 @@
         <v>0</v>
       </c>
       <c r="U259" s="3">
-        <v>1.1499999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="V259" s="3">
         <v>0</v>
@@ -31525,7 +31525,7 @@
         <v>0</v>
       </c>
       <c r="U260" s="3">
-        <v>1.1399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="V260" s="3">
         <v>0</v>
@@ -31630,7 +31630,7 @@
         <v>0</v>
       </c>
       <c r="U261" s="3">
-        <v>1.1399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="V261" s="3">
         <v>0</v>
@@ -31735,7 +31735,7 @@
         <v>0</v>
       </c>
       <c r="U262" s="3">
-        <v>1.1499999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="V262" s="3">
         <v>0</v>
@@ -31840,7 +31840,7 @@
         <v>0</v>
       </c>
       <c r="U263" s="3">
-        <v>1.1499999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="V263" s="3">
         <v>0</v>
@@ -31945,7 +31945,7 @@
         <v>0</v>
       </c>
       <c r="U264" s="3">
-        <v>1.17</v>
+        <v>0.94</v>
       </c>
       <c r="V264" s="3">
         <v>0</v>
@@ -32050,7 +32050,7 @@
         <v>0</v>
       </c>
       <c r="U265" s="3">
-        <v>1.18</v>
+        <v>0.94</v>
       </c>
       <c r="V265" s="3">
         <v>0</v>
@@ -32155,7 +32155,7 @@
         <v>0</v>
       </c>
       <c r="U266" s="3">
-        <v>1.23</v>
+        <v>0.99</v>
       </c>
       <c r="V266" s="3">
         <v>0</v>
@@ -32260,7 +32260,7 @@
         <v>0</v>
       </c>
       <c r="U267" s="3">
-        <v>1.21</v>
+        <v>0.97</v>
       </c>
       <c r="V267" s="3">
         <v>0</v>
@@ -32365,7 +32365,7 @@
         <v>0</v>
       </c>
       <c r="U268" s="3">
-        <v>1.21</v>
+        <v>0.97</v>
       </c>
       <c r="V268" s="3">
         <v>0</v>
@@ -32470,7 +32470,7 @@
         <v>0</v>
       </c>
       <c r="U269" s="3">
-        <v>1.21</v>
+        <v>0.97</v>
       </c>
       <c r="V269" s="3">
         <v>0</v>
@@ -32575,7 +32575,7 @@
         <v>0</v>
       </c>
       <c r="U270" s="3">
-        <v>1.22</v>
+        <v>0.98</v>
       </c>
       <c r="V270" s="3">
         <v>0</v>
@@ -32680,7 +32680,7 @@
         <v>0</v>
       </c>
       <c r="U271" s="3">
-        <v>1.22</v>
+        <v>0.97</v>
       </c>
       <c r="V271" s="3">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>0</v>
       </c>
       <c r="U272" s="3">
-        <v>1.61</v>
+        <v>1.45</v>
       </c>
       <c r="V272" s="3">
         <v>0</v>
@@ -32890,7 +32890,7 @@
         <v>0</v>
       </c>
       <c r="U273" s="3">
-        <v>1.61</v>
+        <v>1.45</v>
       </c>
       <c r="V273" s="3">
         <v>0</v>
@@ -32995,7 +32995,7 @@
         <v>0</v>
       </c>
       <c r="U274" s="3">
-        <v>1.61</v>
+        <v>1.45</v>
       </c>
       <c r="V274" s="3">
         <v>0</v>
@@ -33100,7 +33100,7 @@
         <v>0</v>
       </c>
       <c r="U275" s="3">
-        <v>1.62</v>
+        <v>1.47</v>
       </c>
       <c r="V275" s="3">
         <v>0</v>
@@ -33205,7 +33205,7 @@
         <v>0</v>
       </c>
       <c r="U276" s="3">
-        <v>1.62</v>
+        <v>1.47</v>
       </c>
       <c r="V276" s="3">
         <v>0</v>
@@ -33310,7 +33310,7 @@
         <v>0</v>
       </c>
       <c r="U277" s="3">
-        <v>1.7</v>
+        <v>1.54</v>
       </c>
       <c r="V277" s="3">
         <v>0</v>
@@ -33415,7 +33415,7 @@
         <v>0</v>
       </c>
       <c r="U278" s="3">
-        <v>1.7</v>
+        <v>1.58</v>
       </c>
       <c r="V278" s="3">
         <v>0</v>
@@ -33520,7 +33520,7 @@
         <v>0</v>
       </c>
       <c r="U279" s="3">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="V279" s="3">
         <v>0</v>
@@ -33625,7 +33625,7 @@
         <v>0</v>
       </c>
       <c r="U280" s="3">
-        <v>1.71</v>
+        <v>1.54</v>
       </c>
       <c r="V280" s="3">
         <v>0</v>
@@ -33730,7 +33730,7 @@
         <v>0</v>
       </c>
       <c r="U281" s="3">
-        <v>1.72</v>
+        <v>1.55</v>
       </c>
       <c r="V281" s="3">
         <v>0</v>
@@ -33835,7 +33835,7 @@
         <v>0</v>
       </c>
       <c r="U282" s="3">
-        <v>1.73</v>
+        <v>1.56</v>
       </c>
       <c r="V282" s="3">
         <v>0</v>
@@ -33940,7 +33940,7 @@
         <v>0</v>
       </c>
       <c r="U283" s="3">
-        <v>1.73</v>
+        <v>2.06</v>
       </c>
       <c r="V283" s="3">
         <v>0</v>
@@ -34045,7 +34045,7 @@
         <v>0</v>
       </c>
       <c r="U284" s="3">
-        <v>1.75</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="V284" s="3">
         <v>0</v>
@@ -34150,7 +34150,7 @@
         <v>0</v>
       </c>
       <c r="U285" s="3">
-        <v>1.76</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="V285" s="3">
         <v>0</v>
@@ -34255,7 +34255,7 @@
         <v>0</v>
       </c>
       <c r="U286" s="3">
-        <v>1.78</v>
+        <v>2.16</v>
       </c>
       <c r="V286" s="3">
         <v>0</v>
@@ -34360,7 +34360,7 @@
         <v>0</v>
       </c>
       <c r="U287" s="3">
-        <v>1.8</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="V287" s="3">
         <v>0</v>
@@ -34465,7 +34465,7 @@
         <v>0</v>
       </c>
       <c r="U288" s="3">
-        <v>1.8</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="V288" s="3">
         <v>0</v>
@@ -34570,7 +34570,7 @@
         <v>0</v>
       </c>
       <c r="U289" s="3">
-        <v>1.66</v>
+        <v>1.5</v>
       </c>
       <c r="V289" s="3">
         <v>0</v>
@@ -34675,7 +34675,7 @@
         <v>0</v>
       </c>
       <c r="U290" s="3">
-        <v>1.71</v>
+        <v>1.54</v>
       </c>
       <c r="V290" s="3">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="U291" s="3">
-        <v>1.64</v>
+        <v>1.48</v>
       </c>
       <c r="V291" s="3">
         <v>0</v>
@@ -34885,7 +34885,7 @@
         <v>0</v>
       </c>
       <c r="U292" s="3">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="V292" s="3">
         <v>0</v>
@@ -34990,7 +34990,7 @@
         <v>0</v>
       </c>
       <c r="U293" s="3">
-        <v>1.9</v>
+        <v>1.71</v>
       </c>
       <c r="V293" s="3">
         <v>0</v>
@@ -35095,7 +35095,7 @@
         <v>0</v>
       </c>
       <c r="U294" s="3">
-        <v>1.88</v>
+        <v>1.69</v>
       </c>
       <c r="V294" s="3">
         <v>0</v>
@@ -35200,7 +35200,7 @@
         <v>0</v>
       </c>
       <c r="U295" s="3">
-        <v>1.91</v>
+        <v>1.72</v>
       </c>
       <c r="V295" s="3">
         <v>0</v>
@@ -35305,7 +35305,7 @@
         <v>0</v>
       </c>
       <c r="U296" s="3">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="V296" s="3">
         <v>0</v>
@@ -35410,7 +35410,7 @@
         <v>0</v>
       </c>
       <c r="U297" s="3">
-        <v>2.02</v>
+        <v>1.82</v>
       </c>
       <c r="V297" s="3">
         <v>0</v>
@@ -35515,7 +35515,7 @@
         <v>0</v>
       </c>
       <c r="U298" s="3">
-        <v>2.0499999999999998</v>
+        <v>1.85</v>
       </c>
       <c r="V298" s="3">
         <v>0</v>
@@ -35620,7 +35620,7 @@
         <v>0</v>
       </c>
       <c r="U299" s="3">
-        <v>2.0099999999999998</v>
+        <v>1.81</v>
       </c>
       <c r="V299" s="3">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="U300" s="3">
-        <v>2.04</v>
+        <v>1.84</v>
       </c>
       <c r="V300" s="3">
         <v>0</v>
@@ -35830,7 +35830,7 @@
         <v>0</v>
       </c>
       <c r="U301" s="3">
-        <v>2.0699999999999998</v>
+        <v>1.87</v>
       </c>
       <c r="V301" s="3">
         <v>0</v>
@@ -35935,7 +35935,7 @@
         <v>0</v>
       </c>
       <c r="U302" s="3">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="V302" s="3">
         <v>0</v>
@@ -36040,7 +36040,7 @@
         <v>0</v>
       </c>
       <c r="U303" s="3">
-        <v>2.1</v>
+        <v>1.89</v>
       </c>
       <c r="V303" s="3">
         <v>0</v>
@@ -36145,7 +36145,7 @@
         <v>0</v>
       </c>
       <c r="U304" s="3">
-        <v>2.1800000000000002</v>
+        <v>1.96</v>
       </c>
       <c r="V304" s="3">
         <v>0</v>
@@ -36250,7 +36250,7 @@
         <v>0</v>
       </c>
       <c r="U305" s="3">
-        <v>2.25</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="V305" s="3">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="U306" s="3">
-        <v>2.2000000000000002</v>
+        <v>1.98</v>
       </c>
       <c r="V306" s="3">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="U307" s="3">
-        <v>2.23</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="V307" s="3">
         <v>0</v>
@@ -36565,7 +36565,7 @@
         <v>0</v>
       </c>
       <c r="U308" s="3">
-        <v>2.2400000000000002</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="V308" s="3">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="U309" s="3">
-        <v>2.19</v>
+        <v>1.97</v>
       </c>
       <c r="V309" s="3">
         <v>0</v>
@@ -36775,7 +36775,7 @@
         <v>0</v>
       </c>
       <c r="U310" s="3">
-        <v>2.5499999999999998</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="V310" s="3">
         <v>0</v>
@@ -36880,7 +36880,7 @@
         <v>0</v>
       </c>
       <c r="U311" s="3">
-        <v>2.63</v>
+        <v>2.37</v>
       </c>
       <c r="V311" s="3">
         <v>0</v>
@@ -36985,7 +36985,7 @@
         <v>0</v>
       </c>
       <c r="U312" s="3">
-        <v>2.74</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="V312" s="3">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>0</v>
       </c>
       <c r="U313" s="3">
-        <v>2.77</v>
+        <v>2.5</v>
       </c>
       <c r="V313" s="3">
         <v>0</v>
@@ -37195,7 +37195,7 @@
         <v>0</v>
       </c>
       <c r="U314" s="3">
-        <v>2.68</v>
+        <v>2.42</v>
       </c>
       <c r="V314" s="3">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="U315" s="3">
-        <v>2.75</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="V315" s="3">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="U316" s="3">
-        <v>2.75</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="V316" s="3">
         <v>0</v>
@@ -37510,7 +37510,7 @@
         <v>0</v>
       </c>
       <c r="U317" s="3">
-        <v>2.85</v>
+        <v>2.57</v>
       </c>
       <c r="V317" s="3">
         <v>0</v>
@@ -37615,7 +37615,7 @@
         <v>0</v>
       </c>
       <c r="U318" s="3">
-        <v>2.85</v>
+        <v>2.57</v>
       </c>
       <c r="V318" s="3">
         <v>0</v>
@@ -37720,7 +37720,7 @@
         <v>0</v>
       </c>
       <c r="U319" s="3">
-        <v>2.85</v>
+        <v>2.57</v>
       </c>
       <c r="V319" s="3">
         <v>0</v>
@@ -37825,7 +37825,7 @@
         <v>0</v>
       </c>
       <c r="U320" s="3">
-        <v>2.92</v>
+        <v>2.63</v>
       </c>
       <c r="V320" s="3">
         <v>0</v>
@@ -37930,7 +37930,7 @@
         <v>0</v>
       </c>
       <c r="U321" s="3">
-        <v>3.14</v>
+        <v>2.83</v>
       </c>
       <c r="V321" s="3">
         <v>0</v>
@@ -38035,7 +38035,7 @@
         <v>0</v>
       </c>
       <c r="U322" s="3">
-        <v>3.21</v>
+        <v>2.89</v>
       </c>
       <c r="V322" s="3">
         <v>0</v>
@@ -38140,7 +38140,7 @@
         <v>0</v>
       </c>
       <c r="U323" s="3">
-        <v>3.21</v>
+        <v>2.89</v>
       </c>
       <c r="V323" s="3">
         <v>0</v>
@@ -38245,7 +38245,7 @@
         <v>0</v>
       </c>
       <c r="U324" s="3">
-        <v>3.21</v>
+        <v>2.89</v>
       </c>
       <c r="V324" s="3">
         <v>0</v>
@@ -38350,7 +38350,7 @@
         <v>0</v>
       </c>
       <c r="U325" s="3">
-        <v>3.28</v>
+        <v>2.95</v>
       </c>
       <c r="V325" s="3">
         <v>0</v>
@@ -38455,7 +38455,7 @@
         <v>0</v>
       </c>
       <c r="U326" s="3">
-        <v>3.28</v>
+        <v>2.95</v>
       </c>
       <c r="V326" s="3">
         <v>0</v>
@@ -38560,7 +38560,7 @@
         <v>0</v>
       </c>
       <c r="U327" s="3">
-        <v>3.35</v>
+        <v>3.02</v>
       </c>
       <c r="V327" s="3">
         <v>0</v>
@@ -38665,7 +38665,7 @@
         <v>0</v>
       </c>
       <c r="U328" s="3">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="V328" s="3">
         <v>0</v>
@@ -38770,7 +38770,7 @@
         <v>0</v>
       </c>
       <c r="U329" s="3">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="V329" s="3">
         <v>0</v>
@@ -38875,7 +38875,7 @@
         <v>0</v>
       </c>
       <c r="U330" s="3">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="V330" s="3">
         <v>0</v>
@@ -38980,7 +38980,7 @@
         <v>0</v>
       </c>
       <c r="U331" s="3">
-        <v>1</v>
+        <v>0.77</v>
       </c>
       <c r="V331" s="3">
         <v>0</v>
@@ -39085,7 +39085,7 @@
         <v>0</v>
       </c>
       <c r="U332" s="3">
-        <v>1</v>
+        <v>0.72</v>
       </c>
       <c r="V332" s="3">
         <v>0</v>
@@ -39190,7 +39190,7 @@
         <v>0</v>
       </c>
       <c r="U333" s="3">
-        <v>1</v>
+        <v>0.72</v>
       </c>
       <c r="V333" s="3">
         <v>0</v>
@@ -39295,7 +39295,7 @@
         <v>0</v>
       </c>
       <c r="U334" s="3">
-        <v>1</v>
+        <v>0.72</v>
       </c>
       <c r="V334" s="3">
         <v>0</v>
@@ -39400,7 +39400,7 @@
         <v>0</v>
       </c>
       <c r="U335" s="3">
-        <v>1</v>
+        <v>0.81</v>
       </c>
       <c r="V335" s="3">
         <v>0</v>
@@ -39505,7 +39505,7 @@
         <v>0</v>
       </c>
       <c r="U336" s="3">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="V336" s="3">
         <v>0</v>
@@ -39610,7 +39610,7 @@
         <v>0</v>
       </c>
       <c r="U337" s="3">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="V337" s="3">
         <v>0</v>
@@ -39715,7 +39715,7 @@
         <v>0</v>
       </c>
       <c r="U338" s="3">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="V338" s="3">
         <v>0</v>
@@ -39820,7 +39820,7 @@
         <v>0</v>
       </c>
       <c r="U339" s="3">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="V339" s="3">
         <v>0</v>
@@ -39925,7 +39925,7 @@
         <v>0</v>
       </c>
       <c r="U340" s="3">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="V340" s="3">
         <v>0</v>
@@ -40030,7 +40030,7 @@
         <v>0</v>
       </c>
       <c r="U341" s="3">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="V341" s="3">
         <v>0</v>
@@ -40765,7 +40765,7 @@
         <v>0</v>
       </c>
       <c r="U348" s="3">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="V348" s="3">
         <v>0</v>
@@ -40870,7 +40870,7 @@
         <v>0</v>
       </c>
       <c r="U349" s="3">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="V349" s="3">
         <v>0</v>
@@ -40975,7 +40975,7 @@
         <v>0</v>
       </c>
       <c r="U350" s="3">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="V350" s="3">
         <v>0</v>
@@ -41080,7 +41080,7 @@
         <v>0</v>
       </c>
       <c r="U351" s="3">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="V351" s="3">
         <v>0</v>
@@ -41185,7 +41185,7 @@
         <v>0</v>
       </c>
       <c r="U352" s="3">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="V352" s="3">
         <v>0</v>
@@ -41290,7 +41290,7 @@
         <v>0</v>
       </c>
       <c r="U353" s="3">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="V353" s="3">
         <v>0</v>
@@ -41395,7 +41395,7 @@
         <v>0</v>
       </c>
       <c r="U354" s="3">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="V354" s="3">
         <v>0</v>
@@ -41500,7 +41500,7 @@
         <v>0</v>
       </c>
       <c r="U355" s="3">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="V355" s="3">
         <v>0</v>
@@ -41605,7 +41605,7 @@
         <v>0</v>
       </c>
       <c r="U356" s="3">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="V356" s="3">
         <v>0</v>
@@ -41710,7 +41710,7 @@
         <v>0</v>
       </c>
       <c r="U357" s="3">
-        <v>1.1499999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="V357" s="3">
         <v>0</v>
@@ -41815,7 +41815,7 @@
         <v>0</v>
       </c>
       <c r="U358" s="3">
-        <v>1.1499999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="V358" s="3">
         <v>0</v>
@@ -41920,7 +41920,7 @@
         <v>0</v>
       </c>
       <c r="U359" s="3">
-        <v>1.1599999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="V359" s="3">
         <v>0</v>
@@ -42025,7 +42025,7 @@
         <v>0</v>
       </c>
       <c r="U360" s="3">
-        <v>1.1599999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="V360" s="3">
         <v>0</v>
@@ -42130,7 +42130,7 @@
         <v>0</v>
       </c>
       <c r="U361" s="3">
-        <v>1.1599999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="V361" s="3">
         <v>0</v>
@@ -42235,7 +42235,7 @@
         <v>0</v>
       </c>
       <c r="U362" s="3">
-        <v>1.17</v>
+        <v>0.94</v>
       </c>
       <c r="V362" s="3">
         <v>0</v>
@@ -42340,7 +42340,7 @@
         <v>0</v>
       </c>
       <c r="U363" s="3">
-        <v>1.07</v>
+        <v>0.86</v>
       </c>
       <c r="V363" s="3">
         <v>0</v>
@@ -42445,7 +42445,7 @@
         <v>0</v>
       </c>
       <c r="U364" s="3">
-        <v>1.08</v>
+        <v>0.86</v>
       </c>
       <c r="V364" s="3">
         <v>0</v>
@@ -42550,7 +42550,7 @@
         <v>0</v>
       </c>
       <c r="U365" s="3">
-        <v>1.0900000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="V365" s="3">
         <v>0</v>
@@ -42655,7 +42655,7 @@
         <v>0</v>
       </c>
       <c r="U366" s="3">
-        <v>1.1200000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="V366" s="3">
         <v>0</v>
@@ -42760,7 +42760,7 @@
         <v>0</v>
       </c>
       <c r="U367" s="3">
-        <v>1.1499999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="V367" s="3">
         <v>0</v>
@@ -42865,7 +42865,7 @@
         <v>0</v>
       </c>
       <c r="U368" s="3">
-        <v>1.1399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="V368" s="3">
         <v>0</v>
@@ -42970,7 +42970,7 @@
         <v>0</v>
       </c>
       <c r="U369" s="3">
-        <v>1.1399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="V369" s="3">
         <v>0</v>
@@ -43075,7 +43075,7 @@
         <v>0</v>
       </c>
       <c r="U370" s="3">
-        <v>1.1499999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="V370" s="3">
         <v>0</v>
@@ -43180,7 +43180,7 @@
         <v>0</v>
       </c>
       <c r="U371" s="3">
-        <v>1.1499999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="V371" s="3">
         <v>0</v>
@@ -43285,7 +43285,7 @@
         <v>0</v>
       </c>
       <c r="U372" s="3">
-        <v>1.17</v>
+        <v>0.94</v>
       </c>
       <c r="V372" s="3">
         <v>0</v>
@@ -43390,7 +43390,7 @@
         <v>0</v>
       </c>
       <c r="U373" s="3">
-        <v>1.18</v>
+        <v>0.94</v>
       </c>
       <c r="V373" s="3">
         <v>0</v>
@@ -43495,7 +43495,7 @@
         <v>0</v>
       </c>
       <c r="U374" s="3">
-        <v>1.23</v>
+        <v>0.99</v>
       </c>
       <c r="V374" s="3">
         <v>0</v>
@@ -43600,7 +43600,7 @@
         <v>0</v>
       </c>
       <c r="U375" s="3">
-        <v>1.21</v>
+        <v>0.97</v>
       </c>
       <c r="V375" s="3">
         <v>0</v>
@@ -43705,7 +43705,7 @@
         <v>0</v>
       </c>
       <c r="U376" s="3">
-        <v>1.21</v>
+        <v>0.97</v>
       </c>
       <c r="V376" s="3">
         <v>0</v>
@@ -43810,7 +43810,7 @@
         <v>0</v>
       </c>
       <c r="U377" s="3">
-        <v>1.21</v>
+        <v>0.97</v>
       </c>
       <c r="V377" s="3">
         <v>0</v>
@@ -43915,7 +43915,7 @@
         <v>0</v>
       </c>
       <c r="U378" s="3">
-        <v>1.22</v>
+        <v>0.98</v>
       </c>
       <c r="V378" s="3">
         <v>0</v>
@@ -44020,7 +44020,7 @@
         <v>0</v>
       </c>
       <c r="U379" s="3">
-        <v>1.22</v>
+        <v>0.97</v>
       </c>
       <c r="V379" s="3">
         <v>0</v>
@@ -44125,7 +44125,7 @@
         <v>0</v>
       </c>
       <c r="U380" s="3">
-        <v>1.61</v>
+        <v>1.45</v>
       </c>
       <c r="V380" s="3">
         <v>0</v>
@@ -44230,7 +44230,7 @@
         <v>0</v>
       </c>
       <c r="U381" s="3">
-        <v>1.61</v>
+        <v>1.45</v>
       </c>
       <c r="V381" s="3">
         <v>0</v>
@@ -44335,7 +44335,7 @@
         <v>0</v>
       </c>
       <c r="U382" s="3">
-        <v>1.61</v>
+        <v>1.45</v>
       </c>
       <c r="V382" s="3">
         <v>0</v>
@@ -44440,7 +44440,7 @@
         <v>0</v>
       </c>
       <c r="U383" s="3">
-        <v>1.62</v>
+        <v>1.47</v>
       </c>
       <c r="V383" s="3">
         <v>0</v>
@@ -44545,7 +44545,7 @@
         <v>0</v>
       </c>
       <c r="U384" s="3">
-        <v>1.62</v>
+        <v>1.47</v>
       </c>
       <c r="V384" s="3">
         <v>0</v>
@@ -44650,7 +44650,7 @@
         <v>0</v>
       </c>
       <c r="U385" s="3">
-        <v>1.7</v>
+        <v>1.54</v>
       </c>
       <c r="V385" s="3">
         <v>0</v>
@@ -44755,7 +44755,7 @@
         <v>0</v>
       </c>
       <c r="U386" s="3">
-        <v>1.7</v>
+        <v>1.58</v>
       </c>
       <c r="V386" s="3">
         <v>0</v>
@@ -44860,7 +44860,7 @@
         <v>0</v>
       </c>
       <c r="U387" s="3">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="V387" s="3">
         <v>0</v>
@@ -44965,7 +44965,7 @@
         <v>0</v>
       </c>
       <c r="U388" s="3">
-        <v>1.71</v>
+        <v>1.54</v>
       </c>
       <c r="V388" s="3">
         <v>0</v>
@@ -45070,7 +45070,7 @@
         <v>0</v>
       </c>
       <c r="U389" s="3">
-        <v>1.72</v>
+        <v>1.55</v>
       </c>
       <c r="V389" s="3">
         <v>0</v>
@@ -45175,7 +45175,7 @@
         <v>0</v>
       </c>
       <c r="U390" s="3">
-        <v>1.73</v>
+        <v>1.56</v>
       </c>
       <c r="V390" s="3">
         <v>0</v>
@@ -45280,7 +45280,7 @@
         <v>0</v>
       </c>
       <c r="U391" s="3">
-        <v>1.73</v>
+        <v>2.06</v>
       </c>
       <c r="V391" s="3">
         <v>0</v>
@@ -45385,7 +45385,7 @@
         <v>0</v>
       </c>
       <c r="U392" s="3">
-        <v>1.75</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="V392" s="3">
         <v>0</v>
@@ -45490,7 +45490,7 @@
         <v>0</v>
       </c>
       <c r="U393" s="3">
-        <v>1.76</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="V393" s="3">
         <v>0</v>
@@ -45595,7 +45595,7 @@
         <v>0</v>
       </c>
       <c r="U394" s="3">
-        <v>1.78</v>
+        <v>2.16</v>
       </c>
       <c r="V394" s="3">
         <v>0</v>
@@ -45700,7 +45700,7 @@
         <v>0</v>
       </c>
       <c r="U395" s="3">
-        <v>1.8</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="V395" s="3">
         <v>0</v>
@@ -45805,7 +45805,7 @@
         <v>0</v>
       </c>
       <c r="U396" s="3">
-        <v>1.8</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="V396" s="3">
         <v>0</v>
@@ -45910,7 +45910,7 @@
         <v>0</v>
       </c>
       <c r="U397" s="3">
-        <v>1.66</v>
+        <v>1.5</v>
       </c>
       <c r="V397" s="3">
         <v>0</v>
@@ -46015,7 +46015,7 @@
         <v>0</v>
       </c>
       <c r="U398" s="3">
-        <v>1.71</v>
+        <v>1.54</v>
       </c>
       <c r="V398" s="3">
         <v>0</v>
@@ -46120,7 +46120,7 @@
         <v>0</v>
       </c>
       <c r="U399" s="3">
-        <v>1.64</v>
+        <v>1.48</v>
       </c>
       <c r="V399" s="3">
         <v>0</v>
@@ -46225,7 +46225,7 @@
         <v>0</v>
       </c>
       <c r="U400" s="3">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="V400" s="3">
         <v>0</v>
@@ -46330,7 +46330,7 @@
         <v>0</v>
       </c>
       <c r="U401" s="3">
-        <v>1.9</v>
+        <v>1.71</v>
       </c>
       <c r="V401" s="3">
         <v>0</v>
@@ -46435,7 +46435,7 @@
         <v>0</v>
       </c>
       <c r="U402" s="3">
-        <v>1.88</v>
+        <v>1.69</v>
       </c>
       <c r="V402" s="3">
         <v>0</v>
@@ -46540,7 +46540,7 @@
         <v>0</v>
       </c>
       <c r="U403" s="3">
-        <v>1.91</v>
+        <v>1.72</v>
       </c>
       <c r="V403" s="3">
         <v>0</v>
@@ -46645,7 +46645,7 @@
         <v>0</v>
       </c>
       <c r="U404" s="3">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="V404" s="3">
         <v>0</v>
@@ -46750,7 +46750,7 @@
         <v>0</v>
       </c>
       <c r="U405" s="3">
-        <v>2.02</v>
+        <v>1.82</v>
       </c>
       <c r="V405" s="3">
         <v>0</v>
@@ -46855,7 +46855,7 @@
         <v>0</v>
       </c>
       <c r="U406" s="3">
-        <v>2.0499999999999998</v>
+        <v>1.85</v>
       </c>
       <c r="V406" s="3">
         <v>0</v>
@@ -46960,7 +46960,7 @@
         <v>0</v>
       </c>
       <c r="U407" s="3">
-        <v>2.0099999999999998</v>
+        <v>1.81</v>
       </c>
       <c r="V407" s="3">
         <v>0</v>
@@ -47065,7 +47065,7 @@
         <v>0</v>
       </c>
       <c r="U408" s="3">
-        <v>2.04</v>
+        <v>1.84</v>
       </c>
       <c r="V408" s="3">
         <v>0</v>
@@ -47170,7 +47170,7 @@
         <v>0</v>
       </c>
       <c r="U409" s="3">
-        <v>2.0699999999999998</v>
+        <v>1.87</v>
       </c>
       <c r="V409" s="3">
         <v>0</v>
@@ -47275,7 +47275,7 @@
         <v>0</v>
       </c>
       <c r="U410" s="3">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="V410" s="3">
         <v>0</v>
@@ -47380,7 +47380,7 @@
         <v>0</v>
       </c>
       <c r="U411" s="3">
-        <v>2.1</v>
+        <v>1.89</v>
       </c>
       <c r="V411" s="3">
         <v>0</v>
@@ -47485,7 +47485,7 @@
         <v>0</v>
       </c>
       <c r="U412" s="3">
-        <v>2.1800000000000002</v>
+        <v>1.96</v>
       </c>
       <c r="V412" s="3">
         <v>0</v>
@@ -47590,7 +47590,7 @@
         <v>0</v>
       </c>
       <c r="U413" s="3">
-        <v>2.25</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="V413" s="3">
         <v>0</v>
@@ -47695,7 +47695,7 @@
         <v>0</v>
       </c>
       <c r="U414" s="3">
-        <v>2.2000000000000002</v>
+        <v>1.98</v>
       </c>
       <c r="V414" s="3">
         <v>0</v>
@@ -47800,7 +47800,7 @@
         <v>0</v>
       </c>
       <c r="U415" s="3">
-        <v>2.23</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="V415" s="3">
         <v>0</v>
@@ -47905,7 +47905,7 @@
         <v>0</v>
       </c>
       <c r="U416" s="3">
-        <v>2.2400000000000002</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="V416" s="3">
         <v>0</v>
@@ -48010,7 +48010,7 @@
         <v>0</v>
       </c>
       <c r="U417" s="3">
-        <v>2.19</v>
+        <v>1.97</v>
       </c>
       <c r="V417" s="3">
         <v>0</v>
@@ -48115,7 +48115,7 @@
         <v>0</v>
       </c>
       <c r="U418" s="3">
-        <v>2.5499999999999998</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="V418" s="3">
         <v>0</v>
@@ -48220,7 +48220,7 @@
         <v>0</v>
       </c>
       <c r="U419" s="3">
-        <v>2.63</v>
+        <v>2.37</v>
       </c>
       <c r="V419" s="3">
         <v>0</v>
@@ -48325,7 +48325,7 @@
         <v>0</v>
       </c>
       <c r="U420" s="3">
-        <v>2.74</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="V420" s="3">
         <v>0</v>
@@ -48430,7 +48430,7 @@
         <v>0</v>
       </c>
       <c r="U421" s="3">
-        <v>2.77</v>
+        <v>2.5</v>
       </c>
       <c r="V421" s="3">
         <v>0</v>
@@ -48535,7 +48535,7 @@
         <v>0</v>
       </c>
       <c r="U422" s="3">
-        <v>2.68</v>
+        <v>2.42</v>
       </c>
       <c r="V422" s="3">
         <v>0</v>
@@ -48640,7 +48640,7 @@
         <v>0</v>
       </c>
       <c r="U423" s="3">
-        <v>2.75</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="V423" s="3">
         <v>0</v>
@@ -48745,7 +48745,7 @@
         <v>0</v>
       </c>
       <c r="U424" s="3">
-        <v>2.75</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="V424" s="3">
         <v>0</v>
@@ -48850,7 +48850,7 @@
         <v>0</v>
       </c>
       <c r="U425" s="3">
-        <v>2.85</v>
+        <v>2.57</v>
       </c>
       <c r="V425" s="3">
         <v>0</v>
@@ -48955,7 +48955,7 @@
         <v>0</v>
       </c>
       <c r="U426" s="3">
-        <v>2.85</v>
+        <v>2.57</v>
       </c>
       <c r="V426" s="3">
         <v>0</v>
@@ -49060,7 +49060,7 @@
         <v>0</v>
       </c>
       <c r="U427" s="3">
-        <v>2.85</v>
+        <v>2.57</v>
       </c>
       <c r="V427" s="3">
         <v>0</v>
@@ -49165,7 +49165,7 @@
         <v>0</v>
       </c>
       <c r="U428" s="3">
-        <v>2.92</v>
+        <v>2.63</v>
       </c>
       <c r="V428" s="3">
         <v>0</v>
@@ -49270,7 +49270,7 @@
         <v>0</v>
       </c>
       <c r="U429" s="3">
-        <v>3.14</v>
+        <v>2.83</v>
       </c>
       <c r="V429" s="3">
         <v>0</v>
@@ -49375,7 +49375,7 @@
         <v>0</v>
       </c>
       <c r="U430" s="3">
-        <v>3.21</v>
+        <v>2.89</v>
       </c>
       <c r="V430" s="3">
         <v>0</v>
@@ -49480,7 +49480,7 @@
         <v>0</v>
       </c>
       <c r="U431" s="3">
-        <v>3.21</v>
+        <v>2.89</v>
       </c>
       <c r="V431" s="3">
         <v>0</v>
@@ -49585,7 +49585,7 @@
         <v>0</v>
       </c>
       <c r="U432" s="3">
-        <v>3.21</v>
+        <v>2.89</v>
       </c>
       <c r="V432" s="3">
         <v>0</v>
@@ -49690,7 +49690,7 @@
         <v>0</v>
       </c>
       <c r="U433" s="3">
-        <v>3.28</v>
+        <v>2.95</v>
       </c>
       <c r="V433" s="3">
         <v>0</v>
@@ -49795,7 +49795,7 @@
         <v>0</v>
       </c>
       <c r="U434" s="3">
-        <v>3.28</v>
+        <v>2.95</v>
       </c>
       <c r="V434" s="3">
         <v>0</v>
@@ -49900,7 +49900,7 @@
         <v>0</v>
       </c>
       <c r="U435" s="3">
-        <v>3.35</v>
+        <v>3.02</v>
       </c>
       <c r="V435" s="3">
         <v>0</v>

--- a/Excel/monster.怪物.xlsx
+++ b/Excel/monster.怪物.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312CE981-E8D5-40B0-8480-B112762B80A8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41479144-0B7A-45D2-9169-1CEE1AAF1661}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4192,10 +4192,10 @@
   <dimension ref="A1:AO651"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="T412" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D553" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U328" sqref="U328:U435"/>
+      <selection pane="bottomRight" activeCell="K573" sqref="K573"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -63318,19 +63318,19 @@
         <v>0</v>
       </c>
       <c r="K563" s="3">
-        <v>19902</v>
+        <v>21325</v>
       </c>
       <c r="L563" s="3">
         <v>0</v>
       </c>
       <c r="M563" s="3">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="N563" s="3">
         <v>0</v>
       </c>
       <c r="O563" s="3">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="P563" s="3"/>
       <c r="Q563" s="3"/>
@@ -64263,7 +64263,7 @@
         <v>0</v>
       </c>
       <c r="K572" s="3">
-        <v>79783</v>
+        <v>74408</v>
       </c>
       <c r="L572" s="3">
         <v>0</v>
@@ -64368,7 +64368,7 @@
         <v>0</v>
       </c>
       <c r="K573" s="3">
-        <v>72980</v>
+        <v>95740</v>
       </c>
       <c r="L573" s="3">
         <v>0</v>
@@ -64473,7 +64473,7 @@
         <v>0</v>
       </c>
       <c r="K574" s="3">
-        <v>86116</v>
+        <v>93945</v>
       </c>
       <c r="L574" s="3">
         <v>0</v>
@@ -64578,7 +64578,7 @@
         <v>0</v>
       </c>
       <c r="K575" s="3">
-        <v>89581</v>
+        <v>97725</v>
       </c>
       <c r="L575" s="3">
         <v>0</v>
@@ -64683,7 +64683,7 @@
         <v>0</v>
       </c>
       <c r="K576" s="3">
-        <v>92097</v>
+        <v>100470</v>
       </c>
       <c r="L576" s="3">
         <v>0</v>
@@ -64788,7 +64788,7 @@
         <v>0</v>
       </c>
       <c r="K577" s="3">
-        <v>93665</v>
+        <v>102180</v>
       </c>
       <c r="L577" s="3">
         <v>0</v>

--- a/Excel/monster.怪物.xlsx
+++ b/Excel/monster.怪物.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D11603-8792-4C07-8B18-280990C29908}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1111C78-DBA9-49BB-A265-22BCAC7A3FBA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4192,7 +4192,7 @@
   <dimension ref="A1:AO717"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D706" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D586" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="J599" sqref="J599:K717"/>
@@ -71551,7 +71551,7 @@
         <v>0</v>
       </c>
       <c r="K618" s="3">
-        <v>7335</v>
+        <v>26655</v>
       </c>
       <c r="L618" s="3">
         <v>400</v>

--- a/Excel/monster.怪物.xlsx
+++ b/Excel/monster.怪物.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1111C78-DBA9-49BB-A265-22BCAC7A3FBA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB94578-F4E7-4E08-8F83-98A66AE754B4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4192,7 +4192,7 @@
   <dimension ref="A1:AO717"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D586" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D580" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="J599" sqref="J599:K717"/>
@@ -58580,7 +58580,7 @@
         <v>0</v>
       </c>
       <c r="K499" s="3">
-        <v>4575</v>
+        <v>14235</v>
       </c>
       <c r="L499" s="3">
         <v>400</v>
@@ -60760,7 +60760,7 @@
         <v>0</v>
       </c>
       <c r="K519" s="3">
-        <v>166443</v>
+        <v>171070</v>
       </c>
       <c r="L519" s="3">
         <v>4816</v>
@@ -72641,7 +72641,7 @@
         <v>0</v>
       </c>
       <c r="K628" s="3">
-        <v>106849</v>
+        <v>108581</v>
       </c>
       <c r="L628" s="3">
         <v>1246</v>
@@ -72750,7 +72750,7 @@
         <v>0</v>
       </c>
       <c r="K629" s="3">
-        <v>106849</v>
+        <v>108581</v>
       </c>
       <c r="L629" s="3">
         <v>1325</v>
@@ -72859,7 +72859,7 @@
         <v>0</v>
       </c>
       <c r="K630" s="3">
-        <v>106849</v>
+        <v>108581</v>
       </c>
       <c r="L630" s="3">
         <v>2024</v>
@@ -72968,7 +72968,7 @@
         <v>0</v>
       </c>
       <c r="K631" s="3">
-        <v>114673</v>
+        <v>116442</v>
       </c>
       <c r="L631" s="3">
         <v>2490</v>
@@ -73077,7 +73077,7 @@
         <v>0</v>
       </c>
       <c r="K632" s="3">
-        <v>147344</v>
+        <v>149565</v>
       </c>
       <c r="L632" s="3">
         <v>3174</v>
@@ -73186,7 +73186,7 @@
         <v>0</v>
       </c>
       <c r="K633" s="3">
-        <v>147344</v>
+        <v>151787</v>
       </c>
       <c r="L633" s="3">
         <v>3174</v>
@@ -73295,7 +73295,7 @@
         <v>0</v>
       </c>
       <c r="K634" s="3">
-        <v>179133</v>
+        <v>183953</v>
       </c>
       <c r="L634" s="3">
         <v>3224</v>
@@ -73404,7 +73404,7 @@
         <v>0</v>
       </c>
       <c r="K635" s="3">
-        <v>212045</v>
+        <v>218039</v>
       </c>
       <c r="L635" s="3">
         <v>3480</v>
@@ -73513,7 +73513,7 @@
         <v>0</v>
       </c>
       <c r="K636" s="3">
-        <v>229227</v>
+        <v>235676</v>
       </c>
       <c r="L636" s="3">
         <v>4098</v>
@@ -73622,7 +73622,7 @@
         <v>0</v>
       </c>
       <c r="K637" s="3">
-        <v>255247</v>
+        <v>262562</v>
       </c>
       <c r="L637" s="3">
         <v>4138</v>
@@ -73731,7 +73731,7 @@
         <v>0</v>
       </c>
       <c r="K638" s="3">
-        <v>318237</v>
+        <v>336295</v>
       </c>
       <c r="L638" s="3">
         <v>4816</v>
@@ -73840,7 +73840,7 @@
         <v>0</v>
       </c>
       <c r="K639" s="3">
-        <v>402793</v>
+        <v>414536</v>
       </c>
       <c r="L639" s="3">
         <v>5230</v>
@@ -73949,7 +73949,7 @@
         <v>0</v>
       </c>
       <c r="K640" s="3">
-        <v>313230</v>
+        <v>321300</v>
       </c>
       <c r="L640" s="3">
         <v>5443</v>
@@ -74058,7 +74058,7 @@
         <v>0</v>
       </c>
       <c r="K641" s="3">
-        <v>337002</v>
+        <v>345626</v>
       </c>
       <c r="L641" s="3">
         <v>5853</v>
@@ -74167,7 +74167,7 @@
         <v>0</v>
       </c>
       <c r="K642" s="3">
-        <v>353170</v>
+        <v>362197</v>
       </c>
       <c r="L642" s="3">
         <v>6086</v>
@@ -74276,7 +74276,7 @@
         <v>0</v>
       </c>
       <c r="K643" s="3">
-        <v>370558</v>
+        <v>385233</v>
       </c>
       <c r="L643" s="3">
         <v>6160</v>
@@ -74385,7 +74385,7 @@
         <v>0</v>
       </c>
       <c r="K644" s="3">
-        <v>513481</v>
+        <v>532818</v>
       </c>
       <c r="L644" s="3">
         <v>7950</v>
@@ -74494,7 +74494,7 @@
         <v>0</v>
       </c>
       <c r="K645" s="3">
-        <v>841025</v>
+        <v>881457</v>
       </c>
       <c r="L645" s="3">
         <v>9274</v>
@@ -74603,7 +74603,7 @@
         <v>1</v>
       </c>
       <c r="K646" s="3">
-        <v>1376.44</v>
+        <v>1434.74</v>
       </c>
       <c r="L646" s="3">
         <v>11354</v>
@@ -74712,7 +74712,7 @@
         <v>1</v>
       </c>
       <c r="K647" s="3">
-        <v>1526.32</v>
+        <v>1590.82</v>
       </c>
       <c r="L647" s="3">
         <v>12624</v>
@@ -74821,7 +74821,7 @@
         <v>1</v>
       </c>
       <c r="K648" s="3">
-        <v>2192.62</v>
+        <v>2252.94</v>
       </c>
       <c r="L648" s="3">
         <v>14296</v>
@@ -74930,7 +74930,7 @@
         <v>1</v>
       </c>
       <c r="K649" s="3">
-        <v>2301.5700000000002</v>
+        <v>2364.8000000000002</v>
       </c>
       <c r="L649" s="3">
         <v>15084</v>
@@ -75039,7 +75039,7 @@
         <v>1</v>
       </c>
       <c r="K650" s="3">
-        <v>5317.43</v>
+        <v>5426.29</v>
       </c>
       <c r="L650" s="3">
         <v>26479</v>
@@ -75148,7 +75148,7 @@
         <v>1</v>
       </c>
       <c r="K651" s="3">
-        <v>6407.05</v>
+        <v>6537.91</v>
       </c>
       <c r="L651" s="3">
         <v>30449</v>
@@ -75257,7 +75257,7 @@
         <v>1</v>
       </c>
       <c r="K652" s="3">
-        <v>6813.68</v>
+        <v>6904.79</v>
       </c>
       <c r="L652" s="3">
         <v>33765</v>
@@ -75366,7 +75366,7 @@
         <v>1</v>
       </c>
       <c r="K653" s="3">
-        <v>8326.85</v>
+        <v>8382.7000000000007</v>
       </c>
       <c r="L653" s="3">
         <v>40533</v>

--- a/Excel/monster.怪物.xlsx
+++ b/Excel/monster.怪物.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2A1F77-C59D-405D-9A20-5C4498A808A4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E823362-4299-4815-8129-4D8226CE13D3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4192,7 +4192,7 @@
   <dimension ref="A1:AO717"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="I691" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="H595" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="J599" sqref="J599:K717"/>
@@ -10184,7 +10184,7 @@
         <v>0</v>
       </c>
       <c r="K55" s="3">
-        <v>90177</v>
+        <v>83452</v>
       </c>
       <c r="L55" s="3">
         <v>25469</v>
@@ -10293,7 +10293,7 @@
         <v>0</v>
       </c>
       <c r="K56" s="3">
-        <v>116045</v>
+        <v>107896</v>
       </c>
       <c r="L56" s="3">
         <v>30035</v>
@@ -10402,7 +10402,7 @@
         <v>0</v>
       </c>
       <c r="K57" s="3">
-        <v>128807</v>
+        <v>120026</v>
       </c>
       <c r="L57" s="3">
         <v>33765</v>
@@ -10511,7 +10511,7 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
-        <v>156375</v>
+        <v>145909</v>
       </c>
       <c r="L58" s="3">
         <v>40533</v>
@@ -10620,7 +10620,7 @@
         <v>0</v>
       </c>
       <c r="K59" s="3">
-        <v>258419</v>
+        <v>241682</v>
       </c>
       <c r="L59" s="3">
         <v>50951</v>
@@ -10729,7 +10729,7 @@
         <v>0</v>
       </c>
       <c r="K60" s="3">
-        <v>306664</v>
+        <v>287923</v>
       </c>
       <c r="L60" s="3">
         <v>70204</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
-        <v>336562</v>
+        <v>317069</v>
       </c>
       <c r="L61" s="3">
         <v>76588</v>
@@ -10947,7 +10947,7 @@
         <v>0</v>
       </c>
       <c r="K62" s="3">
-        <v>349454</v>
+        <v>329209</v>
       </c>
       <c r="L62" s="3">
         <v>80182</v>
@@ -11056,7 +11056,7 @@
         <v>0</v>
       </c>
       <c r="K63" s="3">
-        <v>383204</v>
+        <v>360979</v>
       </c>
       <c r="L63" s="3">
         <v>88534</v>
@@ -11165,7 +11165,7 @@
         <v>0</v>
       </c>
       <c r="K64" s="3">
-        <v>397066</v>
+        <v>374027</v>
       </c>
       <c r="L64" s="3">
         <v>92369</v>
@@ -11274,7 +11274,7 @@
         <v>0</v>
       </c>
       <c r="K65" s="3">
-        <v>693529</v>
+        <v>645161</v>
       </c>
       <c r="L65" s="3">
         <v>104242</v>
@@ -11383,7 +11383,7 @@
         <v>0</v>
       </c>
       <c r="K66" s="3">
-        <v>804306</v>
+        <v>752717</v>
       </c>
       <c r="L66" s="3">
         <v>114878</v>
@@ -11492,7 +11492,7 @@
         <v>0</v>
       </c>
       <c r="K67" s="3">
-        <v>939082</v>
+        <v>881403</v>
       </c>
       <c r="L67" s="3">
         <v>123958</v>
@@ -11598,10 +11598,10 @@
         <v>198</v>
       </c>
       <c r="J68" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68" s="3">
-        <v>1028.27</v>
+        <v>967053</v>
       </c>
       <c r="L68" s="3">
         <v>133124</v>
@@ -11710,7 +11710,7 @@
         <v>1</v>
       </c>
       <c r="K69" s="3">
-        <v>1138.6500000000001</v>
+        <v>1070.77</v>
       </c>
       <c r="L69" s="3">
         <v>139030</v>
@@ -11819,7 +11819,7 @@
         <v>1</v>
       </c>
       <c r="K70" s="3">
-        <v>1343.51</v>
+        <v>1263.32</v>
       </c>
       <c r="L70" s="3">
         <v>157965</v>
@@ -11928,7 +11928,7 @@
         <v>1</v>
       </c>
       <c r="K71" s="3">
-        <v>1455.81</v>
+        <v>1368.87</v>
       </c>
       <c r="L71" s="3">
         <v>188418</v>
@@ -12037,7 +12037,7 @@
         <v>1</v>
       </c>
       <c r="K72" s="3">
-        <v>1445.87</v>
+        <v>1343.11</v>
       </c>
       <c r="L72" s="3">
         <v>217296</v>
@@ -12146,7 +12146,7 @@
         <v>1</v>
       </c>
       <c r="K73" s="3">
-        <v>1719.92</v>
+        <v>1608.58</v>
       </c>
       <c r="L73" s="3">
         <v>242248</v>
@@ -12255,7 +12255,7 @@
         <v>1</v>
       </c>
       <c r="K74" s="3">
-        <v>1912.89</v>
+        <v>1798.47</v>
       </c>
       <c r="L74" s="3">
         <v>247220</v>
@@ -12364,7 +12364,7 @@
         <v>1</v>
       </c>
       <c r="K75" s="3">
-        <v>1970.59</v>
+        <v>1852.7</v>
       </c>
       <c r="L75" s="3">
         <v>254002</v>
@@ -12473,7 +12473,7 @@
         <v>1</v>
       </c>
       <c r="K76" s="3">
-        <v>2266.89</v>
+        <v>2131.1799999999998</v>
       </c>
       <c r="L76" s="3">
         <v>269386</v>
@@ -12582,7 +12582,7 @@
         <v>1</v>
       </c>
       <c r="K77" s="3">
-        <v>3214.31</v>
+        <v>2973.54</v>
       </c>
       <c r="L77" s="3">
         <v>393258</v>
@@ -12691,7 +12691,7 @@
         <v>1</v>
       </c>
       <c r="K78" s="3">
-        <v>3933.77</v>
+        <v>3676.96</v>
       </c>
       <c r="L78" s="3">
         <v>420850</v>
@@ -12800,7 +12800,7 @@
         <v>1</v>
       </c>
       <c r="K79" s="3">
-        <v>4425.3599999999997</v>
+        <v>4160.08</v>
       </c>
       <c r="L79" s="3">
         <v>436056</v>
@@ -12909,7 +12909,7 @@
         <v>1</v>
       </c>
       <c r="K80" s="3">
-        <v>4502.04</v>
+        <v>4218.78</v>
       </c>
       <c r="L80" s="3">
         <v>468226</v>
@@ -13018,7 +13018,7 @@
         <v>1</v>
       </c>
       <c r="K81" s="3">
-        <v>5279.61</v>
+        <v>4919.47</v>
       </c>
       <c r="L81" s="3">
         <v>576324</v>
@@ -13127,7 +13127,7 @@
         <v>1</v>
       </c>
       <c r="K82" s="3">
-        <v>6658.69</v>
+        <v>6255.41</v>
       </c>
       <c r="L82" s="3">
         <v>678428</v>
@@ -13236,7 +13236,7 @@
         <v>1</v>
       </c>
       <c r="K83" s="3">
-        <v>7777.48</v>
+        <v>7344.65</v>
       </c>
       <c r="L83" s="3">
         <v>717396</v>
@@ -13345,7 +13345,7 @@
         <v>1</v>
       </c>
       <c r="K84" s="3">
-        <v>10435.64</v>
+        <v>9083.92</v>
       </c>
       <c r="L84" s="3">
         <v>868462</v>
@@ -13454,7 +13454,7 @@
         <v>1</v>
       </c>
       <c r="K85" s="3">
-        <v>11913.11</v>
+        <v>10529</v>
       </c>
       <c r="L85" s="3">
         <v>933610</v>
@@ -13563,7 +13563,7 @@
         <v>1</v>
       </c>
       <c r="K86" s="3">
-        <v>13430.92</v>
+        <v>11897.82</v>
       </c>
       <c r="L86" s="3">
         <v>1016846</v>
@@ -13672,7 +13672,7 @@
         <v>1</v>
       </c>
       <c r="K87" s="3">
-        <v>14959.14</v>
+        <v>13339.12</v>
       </c>
       <c r="L87" s="3">
         <v>1074596</v>
@@ -13781,7 +13781,7 @@
         <v>1</v>
       </c>
       <c r="K88" s="3">
-        <v>18224.14</v>
+        <v>15853.81</v>
       </c>
       <c r="L88" s="3">
         <v>1258266</v>
@@ -13890,7 +13890,7 @@
         <v>1</v>
       </c>
       <c r="K89" s="3">
-        <v>25904.91</v>
+        <v>22896.42</v>
       </c>
       <c r="L89" s="3">
         <v>1603750</v>
@@ -13999,7 +13999,7 @@
         <v>1</v>
       </c>
       <c r="K90" s="3">
-        <v>33781.24</v>
+        <v>30120.67</v>
       </c>
       <c r="L90" s="3">
         <v>2127270</v>
@@ -14108,7 +14108,7 @@
         <v>1</v>
       </c>
       <c r="K91" s="3">
-        <v>36047.24</v>
+        <v>32140.7</v>
       </c>
       <c r="L91" s="3">
         <v>2227284</v>
@@ -14217,7 +14217,7 @@
         <v>1</v>
       </c>
       <c r="K92" s="3">
-        <v>56792.65</v>
+        <v>50619.97</v>
       </c>
       <c r="L92" s="3">
         <v>2814804</v>
@@ -14326,7 +14326,7 @@
         <v>1</v>
       </c>
       <c r="K93" s="3">
-        <v>69522.429999999993</v>
+        <v>63104.82</v>
       </c>
       <c r="L93" s="3">
         <v>2926472</v>
@@ -14435,7 +14435,7 @@
         <v>1</v>
       </c>
       <c r="K94" s="3">
-        <v>77026.09</v>
+        <v>70511.41</v>
       </c>
       <c r="L94" s="3">
         <v>2967770</v>
@@ -14544,7 +14544,7 @@
         <v>1</v>
       </c>
       <c r="K95" s="3">
-        <v>78172.31</v>
+        <v>71560.53</v>
       </c>
       <c r="L95" s="3">
         <v>3012020</v>
@@ -14653,7 +14653,7 @@
         <v>1</v>
       </c>
       <c r="K96" s="3">
-        <v>84433.69</v>
+        <v>77291.710000000006</v>
       </c>
       <c r="L96" s="3">
         <v>3130814</v>
@@ -14762,7 +14762,7 @@
         <v>1</v>
       </c>
       <c r="K97" s="3">
-        <v>86081.51</v>
+        <v>78799.95</v>
       </c>
       <c r="L97" s="3">
         <v>3362800</v>
@@ -14871,7 +14871,7 @@
         <v>1</v>
       </c>
       <c r="K98" s="3">
-        <v>89221.7</v>
+        <v>81114.44</v>
       </c>
       <c r="L98" s="3">
         <v>3690088</v>
@@ -14980,7 +14980,7 @@
         <v>1</v>
       </c>
       <c r="K99" s="3">
-        <v>99485.33</v>
+        <v>91069.59</v>
       </c>
       <c r="L99" s="3">
         <v>3830502</v>
@@ -15089,7 +15089,7 @@
         <v>1</v>
       </c>
       <c r="K100" s="3">
-        <v>115465.64</v>
+        <v>101780.1</v>
       </c>
       <c r="L100" s="3">
         <v>4493070</v>
@@ -15198,7 +15198,7 @@
         <v>1</v>
       </c>
       <c r="K101" s="3">
-        <v>131137.76999999999</v>
+        <v>117282.25</v>
       </c>
       <c r="L101" s="3">
         <v>4548874</v>
@@ -15307,7 +15307,7 @@
         <v>1</v>
       </c>
       <c r="K102" s="3">
-        <v>163156.10999999999</v>
+        <v>147524.98000000001</v>
       </c>
       <c r="L102" s="3">
         <v>5131868</v>
@@ -15416,7 +15416,7 @@
         <v>1</v>
       </c>
       <c r="K103" s="3">
-        <v>164210.47</v>
+        <v>148478.20000000001</v>
       </c>
       <c r="L103" s="3">
         <v>5165074</v>
@@ -15525,7 +15525,7 @@
         <v>1</v>
       </c>
       <c r="K104" s="3">
-        <v>170624.74</v>
+        <v>154277.24</v>
       </c>
       <c r="L104" s="3">
         <v>5198278</v>
@@ -15634,7 +15634,7 @@
         <v>1</v>
       </c>
       <c r="K105" s="3">
-        <v>175740.47</v>
+        <v>158902.66</v>
       </c>
       <c r="L105" s="3">
         <v>5604240</v>
@@ -15743,7 +15743,7 @@
         <v>1</v>
       </c>
       <c r="K106" s="3">
-        <v>183760.05</v>
+        <v>166152.99</v>
       </c>
       <c r="L106" s="3">
         <v>5781320</v>
@@ -15852,7 +15852,7 @@
         <v>1</v>
       </c>
       <c r="K107" s="3">
-        <v>181165.32</v>
+        <v>162566.48000000001</v>
       </c>
       <c r="L107" s="3">
         <v>6107460</v>
@@ -15961,7 +15961,7 @@
         <v>1</v>
       </c>
       <c r="K108" s="3">
-        <v>195453.28</v>
+        <v>176726.29</v>
       </c>
       <c r="L108" s="3">
         <v>6149580</v>
@@ -16070,7 +16070,7 @@
         <v>1</v>
       </c>
       <c r="K109" s="3">
-        <v>196510.68</v>
+        <v>177682.29</v>
       </c>
       <c r="L109" s="3">
         <v>6191700</v>
@@ -16179,7 +16179,7 @@
         <v>1</v>
       </c>
       <c r="K110" s="3">
-        <v>197707.21</v>
+        <v>178764.07</v>
       </c>
       <c r="L110" s="3">
         <v>6229432</v>
@@ -16288,7 +16288,7 @@
         <v>1</v>
       </c>
       <c r="K111" s="3">
-        <v>198903.73</v>
+        <v>179845.83</v>
       </c>
       <c r="L111" s="3">
         <v>6267166</v>
@@ -16397,7 +16397,7 @@
         <v>1</v>
       </c>
       <c r="K112" s="3">
-        <v>201739.55</v>
+        <v>181117.89</v>
       </c>
       <c r="L112" s="3">
         <v>6780556</v>
@@ -16506,7 +16506,7 @@
         <v>1</v>
       </c>
       <c r="K113" s="3">
-        <v>216499.48</v>
+        <v>195755.9</v>
       </c>
       <c r="L113" s="3">
         <v>6820634</v>
@@ -16615,7 +16615,7 @@
         <v>1</v>
       </c>
       <c r="K114" s="3">
-        <v>217770.68</v>
+        <v>196905.18</v>
       </c>
       <c r="L114" s="3">
         <v>6860712</v>
@@ -16724,7 +16724,7 @@
         <v>1</v>
       </c>
       <c r="K115" s="3">
-        <v>223803.29</v>
+        <v>202359.61</v>
       </c>
       <c r="L115" s="3">
         <v>7050808</v>
@@ -16833,7 +16833,7 @@
         <v>1</v>
       </c>
       <c r="K116" s="3">
-        <v>225102.09</v>
+        <v>203533.84</v>
       </c>
       <c r="L116" s="3">
         <v>7091756</v>
@@ -16942,7 +16942,7 @@
         <v>1</v>
       </c>
       <c r="K117" s="3">
-        <v>221134.2</v>
+        <v>198267.75</v>
       </c>
       <c r="L117" s="3">
         <v>7518644</v>
@@ -17051,7 +17051,7 @@
         <v>1</v>
       </c>
       <c r="K118" s="3">
-        <v>245107.6</v>
+        <v>221623.11</v>
       </c>
       <c r="L118" s="3">
         <v>7721840</v>
@@ -17160,7 +17160,7 @@
         <v>1</v>
       </c>
       <c r="K119" s="3">
-        <v>246478.61</v>
+        <v>222862.63</v>
       </c>
       <c r="L119" s="3">
         <v>7765064</v>
@@ -17269,7 +17269,7 @@
         <v>1</v>
       </c>
       <c r="K120" s="3">
-        <v>247998.02</v>
+        <v>224236.29</v>
       </c>
       <c r="L120" s="3">
         <v>7812968</v>
@@ -17378,7 +17378,7 @@
         <v>1</v>
       </c>
       <c r="K121" s="3">
-        <v>249665.82</v>
+        <v>225744.1</v>
       </c>
       <c r="L121" s="3">
         <v>7865554</v>
@@ -17487,7 +17487,7 @@
         <v>1</v>
       </c>
       <c r="K122" s="3">
-        <v>253144.14</v>
+        <v>228888.85</v>
       </c>
       <c r="L122" s="3">
         <v>7976170</v>
@@ -23155,7 +23155,7 @@
         <v>0</v>
       </c>
       <c r="K174" s="3">
-        <v>135266</v>
+        <v>125178</v>
       </c>
       <c r="L174" s="3">
         <v>25469</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="K175" s="3">
-        <v>174068</v>
+        <v>161844</v>
       </c>
       <c r="L175" s="3">
         <v>30035</v>
@@ -23373,7 +23373,7 @@
         <v>0</v>
       </c>
       <c r="K176" s="3">
-        <v>193211</v>
+        <v>180039</v>
       </c>
       <c r="L176" s="3">
         <v>33765</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="K177" s="3">
-        <v>234563</v>
+        <v>218864</v>
       </c>
       <c r="L177" s="3">
         <v>40533</v>
@@ -23591,7 +23591,7 @@
         <v>0</v>
       </c>
       <c r="K178" s="3">
-        <v>387629</v>
+        <v>362523</v>
       </c>
       <c r="L178" s="3">
         <v>50951</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="K179" s="3">
-        <v>459996</v>
+        <v>431885</v>
       </c>
       <c r="L179" s="3">
         <v>70204</v>
@@ -23809,7 +23809,7 @@
         <v>0</v>
       </c>
       <c r="K180" s="3">
-        <v>504843</v>
+        <v>475604</v>
       </c>
       <c r="L180" s="3">
         <v>76588</v>
@@ -23918,7 +23918,7 @@
         <v>0</v>
       </c>
       <c r="K181" s="3">
-        <v>524181</v>
+        <v>493814</v>
       </c>
       <c r="L181" s="3">
         <v>80182</v>
@@ -24027,7 +24027,7 @@
         <v>0</v>
       </c>
       <c r="K182" s="3">
-        <v>574806</v>
+        <v>541469</v>
       </c>
       <c r="L182" s="3">
         <v>88534</v>
@@ -24136,7 +24136,7 @@
         <v>0</v>
       </c>
       <c r="K183" s="3">
-        <v>595599</v>
+        <v>561041</v>
       </c>
       <c r="L183" s="3">
         <v>92369</v>
@@ -24242,10 +24242,10 @@
         <v>198</v>
       </c>
       <c r="J184" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K184" s="3">
-        <v>1040.29</v>
+        <v>967742</v>
       </c>
       <c r="L184" s="3">
         <v>104242</v>
@@ -24354,7 +24354,7 @@
         <v>1</v>
       </c>
       <c r="K185" s="3">
-        <v>1206.46</v>
+        <v>1129.08</v>
       </c>
       <c r="L185" s="3">
         <v>114878</v>
@@ -24463,7 +24463,7 @@
         <v>1</v>
       </c>
       <c r="K186" s="3">
-        <v>1408.62</v>
+        <v>1322.11</v>
       </c>
       <c r="L186" s="3">
         <v>123958</v>
@@ -24572,7 +24572,7 @@
         <v>1</v>
       </c>
       <c r="K187" s="3">
-        <v>1542.4</v>
+        <v>1450.58</v>
       </c>
       <c r="L187" s="3">
         <v>133124</v>
@@ -24681,7 +24681,7 @@
         <v>1</v>
       </c>
       <c r="K188" s="3">
-        <v>1707.97</v>
+        <v>1606.15</v>
       </c>
       <c r="L188" s="3">
         <v>139030</v>
@@ -24790,7 +24790,7 @@
         <v>1</v>
       </c>
       <c r="K189" s="3">
-        <v>2015.26</v>
+        <v>1894.97</v>
       </c>
       <c r="L189" s="3">
         <v>157965</v>
@@ -24899,7 +24899,7 @@
         <v>1</v>
       </c>
       <c r="K190" s="3">
-        <v>2183.71</v>
+        <v>2053.31</v>
       </c>
       <c r="L190" s="3">
         <v>188418</v>
@@ -25008,7 +25008,7 @@
         <v>1</v>
       </c>
       <c r="K191" s="3">
-        <v>2168.81</v>
+        <v>2014.67</v>
       </c>
       <c r="L191" s="3">
         <v>217296</v>
@@ -25117,7 +25117,7 @@
         <v>1</v>
       </c>
       <c r="K192" s="3">
-        <v>2579.87</v>
+        <v>2412.87</v>
       </c>
       <c r="L192" s="3">
         <v>242248</v>
@@ -25226,7 +25226,7 @@
         <v>1</v>
       </c>
       <c r="K193" s="3">
-        <v>2869.33</v>
+        <v>2697.7</v>
       </c>
       <c r="L193" s="3">
         <v>247220</v>
@@ -25335,7 +25335,7 @@
         <v>1</v>
       </c>
       <c r="K194" s="3">
-        <v>2955.88</v>
+        <v>2779.05</v>
       </c>
       <c r="L194" s="3">
         <v>254002</v>
@@ -25444,7 +25444,7 @@
         <v>1</v>
       </c>
       <c r="K195" s="3">
-        <v>3400.34</v>
+        <v>3196.77</v>
       </c>
       <c r="L195" s="3">
         <v>269386</v>
@@ -25553,7 +25553,7 @@
         <v>1</v>
       </c>
       <c r="K196" s="3">
-        <v>4821.47</v>
+        <v>4460.3</v>
       </c>
       <c r="L196" s="3">
         <v>393258</v>
@@ -25662,7 +25662,7 @@
         <v>1</v>
       </c>
       <c r="K197" s="3">
-        <v>5900.66</v>
+        <v>5515.43</v>
       </c>
       <c r="L197" s="3">
         <v>420850</v>
@@ -25771,7 +25771,7 @@
         <v>1</v>
       </c>
       <c r="K198" s="3">
-        <v>6638.04</v>
+        <v>6240.13</v>
       </c>
       <c r="L198" s="3">
         <v>436056</v>
@@ -25880,7 +25880,7 @@
         <v>1</v>
       </c>
       <c r="K199" s="3">
-        <v>6753.06</v>
+        <v>6328.16</v>
       </c>
       <c r="L199" s="3">
         <v>468226</v>
@@ -25989,7 +25989,7 @@
         <v>1</v>
       </c>
       <c r="K200" s="3">
-        <v>7919.41</v>
+        <v>7379.2</v>
       </c>
       <c r="L200" s="3">
         <v>576324</v>
@@ -26098,7 +26098,7 @@
         <v>1</v>
       </c>
       <c r="K201" s="3">
-        <v>9988.0300000000007</v>
+        <v>9383.1200000000008</v>
       </c>
       <c r="L201" s="3">
         <v>678428</v>
@@ -26207,7 +26207,7 @@
         <v>1</v>
       </c>
       <c r="K202" s="3">
-        <v>11666.21</v>
+        <v>11016.98</v>
       </c>
       <c r="L202" s="3">
         <v>717396</v>
@@ -26316,7 +26316,7 @@
         <v>1</v>
       </c>
       <c r="K203" s="3">
-        <v>15653.46</v>
+        <v>13625.88</v>
       </c>
       <c r="L203" s="3">
         <v>868462</v>
@@ -26425,7 +26425,7 @@
         <v>1</v>
       </c>
       <c r="K204" s="3">
-        <v>17869.66</v>
+        <v>15793.5</v>
       </c>
       <c r="L204" s="3">
         <v>933610</v>
@@ -26534,7 +26534,7 @@
         <v>1</v>
       </c>
       <c r="K205" s="3">
-        <v>20146.38</v>
+        <v>17846.73</v>
       </c>
       <c r="L205" s="3">
         <v>1016846</v>
@@ -26643,7 +26643,7 @@
         <v>1</v>
       </c>
       <c r="K206" s="3">
-        <v>22438.7</v>
+        <v>20008.68</v>
       </c>
       <c r="L206" s="3">
         <v>1074596</v>
@@ -26752,7 +26752,7 @@
         <v>1</v>
       </c>
       <c r="K207" s="3">
-        <v>27336.22</v>
+        <v>23780.71</v>
       </c>
       <c r="L207" s="3">
         <v>1258266</v>
@@ -26861,7 +26861,7 @@
         <v>1</v>
       </c>
       <c r="K208" s="3">
-        <v>38857.360000000001</v>
+        <v>34344.620000000003</v>
       </c>
       <c r="L208" s="3">
         <v>1603750</v>
@@ -26970,7 +26970,7 @@
         <v>1</v>
       </c>
       <c r="K209" s="3">
-        <v>50671.86</v>
+        <v>45181</v>
       </c>
       <c r="L209" s="3">
         <v>2127270</v>
@@ -27079,7 +27079,7 @@
         <v>1</v>
       </c>
       <c r="K210" s="3">
-        <v>54070.86</v>
+        <v>48211.040000000001</v>
       </c>
       <c r="L210" s="3">
         <v>2227284</v>
@@ -27188,7 +27188,7 @@
         <v>1</v>
       </c>
       <c r="K211" s="3">
-        <v>85188.97</v>
+        <v>75929.960000000006</v>
       </c>
       <c r="L211" s="3">
         <v>2814804</v>
@@ -27297,7 +27297,7 @@
         <v>1</v>
       </c>
       <c r="K212" s="3">
-        <v>104283.65</v>
+        <v>94657.23</v>
       </c>
       <c r="L212" s="3">
         <v>2926472</v>
@@ -27406,7 +27406,7 @@
         <v>1</v>
       </c>
       <c r="K213" s="3">
-        <v>115539.14</v>
+        <v>105767.12</v>
       </c>
       <c r="L213" s="3">
         <v>2967770</v>
@@ -27515,7 +27515,7 @@
         <v>1</v>
       </c>
       <c r="K214" s="3">
-        <v>117258.47</v>
+        <v>107340.79</v>
       </c>
       <c r="L214" s="3">
         <v>3012020</v>
@@ -27624,7 +27624,7 @@
         <v>1</v>
       </c>
       <c r="K215" s="3">
-        <v>126650.54</v>
+        <v>115937.56</v>
       </c>
       <c r="L215" s="3">
         <v>3130814</v>
@@ -27733,7 +27733,7 @@
         <v>1</v>
       </c>
       <c r="K216" s="3">
-        <v>129122.27</v>
+        <v>118199.93</v>
       </c>
       <c r="L216" s="3">
         <v>3362800</v>
@@ -27842,7 +27842,7 @@
         <v>1</v>
       </c>
       <c r="K217" s="3">
-        <v>133832.54999999999</v>
+        <v>121671.66</v>
       </c>
       <c r="L217" s="3">
         <v>3690088</v>
@@ -27951,7 +27951,7 @@
         <v>1</v>
       </c>
       <c r="K218" s="3">
-        <v>149227.99</v>
+        <v>136604.38</v>
       </c>
       <c r="L218" s="3">
         <v>3830502</v>
@@ -28060,7 +28060,7 @@
         <v>1</v>
       </c>
       <c r="K219" s="3">
-        <v>173198.45</v>
+        <v>152670.15</v>
       </c>
       <c r="L219" s="3">
         <v>4493070</v>
@@ -28169,7 +28169,7 @@
         <v>1</v>
       </c>
       <c r="K220" s="3">
-        <v>196706.65</v>
+        <v>175923.37</v>
       </c>
       <c r="L220" s="3">
         <v>4548874</v>
@@ -28278,7 +28278,7 @@
         <v>1</v>
       </c>
       <c r="K221" s="3">
-        <v>244734.16</v>
+        <v>221287.48</v>
       </c>
       <c r="L221" s="3">
         <v>5131868</v>
@@ -28387,7 +28387,7 @@
         <v>1</v>
       </c>
       <c r="K222" s="3">
-        <v>246315.71</v>
+        <v>222717.3</v>
       </c>
       <c r="L222" s="3">
         <v>5165074</v>
@@ -28496,7 +28496,7 @@
         <v>1</v>
       </c>
       <c r="K223" s="3">
-        <v>255937.12</v>
+        <v>231415.86</v>
       </c>
       <c r="L223" s="3">
         <v>5198278</v>
@@ -28605,7 +28605,7 @@
         <v>1</v>
       </c>
       <c r="K224" s="3">
-        <v>263610.71000000002</v>
+        <v>238353.99</v>
       </c>
       <c r="L224" s="3">
         <v>5604240</v>
@@ -28714,7 +28714,7 @@
         <v>1</v>
       </c>
       <c r="K225" s="3">
-        <v>275640.07</v>
+        <v>249229.49</v>
       </c>
       <c r="L225" s="3">
         <v>5781320</v>
@@ -28823,7 +28823,7 @@
         <v>1</v>
       </c>
       <c r="K226" s="3">
-        <v>271747.99</v>
+        <v>243849.71</v>
       </c>
       <c r="L226" s="3">
         <v>6107460</v>
@@ -28932,7 +28932,7 @@
         <v>1</v>
       </c>
       <c r="K227" s="3">
-        <v>293179.90999999997</v>
+        <v>265089.44</v>
       </c>
       <c r="L227" s="3">
         <v>6149580</v>
@@ -29041,7 +29041,7 @@
         <v>1</v>
       </c>
       <c r="K228" s="3">
-        <v>294766.02</v>
+        <v>266523.43</v>
       </c>
       <c r="L228" s="3">
         <v>6191700</v>
@@ -29150,7 +29150,7 @@
         <v>1</v>
       </c>
       <c r="K229" s="3">
-        <v>296560.82</v>
+        <v>268146.09999999998</v>
       </c>
       <c r="L229" s="3">
         <v>6229432</v>
@@ -29259,7 +29259,7 @@
         <v>1</v>
       </c>
       <c r="K230" s="3">
-        <v>298355.59999999998</v>
+        <v>269768.75</v>
       </c>
       <c r="L230" s="3">
         <v>6267166</v>
@@ -29368,7 +29368,7 @@
         <v>1</v>
       </c>
       <c r="K231" s="3">
-        <v>302609.33</v>
+        <v>271676.84000000003</v>
       </c>
       <c r="L231" s="3">
         <v>6780556</v>
@@ -29477,7 +29477,7 @@
         <v>1</v>
       </c>
       <c r="K232" s="3">
-        <v>324749.21999999997</v>
+        <v>293633.84999999998</v>
       </c>
       <c r="L232" s="3">
         <v>6820634</v>
@@ -29586,7 +29586,7 @@
         <v>1</v>
       </c>
       <c r="K233" s="3">
-        <v>326656.03000000003</v>
+        <v>295357.77</v>
       </c>
       <c r="L233" s="3">
         <v>6860712</v>
@@ -29695,7 +29695,7 @@
         <v>1</v>
       </c>
       <c r="K234" s="3">
-        <v>335704.93</v>
+        <v>303539.42</v>
       </c>
       <c r="L234" s="3">
         <v>7050808</v>
@@ -29804,7 +29804,7 @@
         <v>1</v>
       </c>
       <c r="K235" s="3">
-        <v>337653.13</v>
+        <v>305300.76</v>
       </c>
       <c r="L235" s="3">
         <v>7091756</v>
@@ -29913,7 +29913,7 @@
         <v>1</v>
       </c>
       <c r="K236" s="3">
-        <v>331701.3</v>
+        <v>297401.63</v>
       </c>
       <c r="L236" s="3">
         <v>7518644</v>
@@ -30022,7 +30022,7 @@
         <v>1</v>
       </c>
       <c r="K237" s="3">
-        <v>367661.39</v>
+        <v>332434.67</v>
       </c>
       <c r="L237" s="3">
         <v>7721840</v>
@@ -30131,7 +30131,7 @@
         <v>1</v>
       </c>
       <c r="K238" s="3">
-        <v>369717.92</v>
+        <v>334293.94</v>
       </c>
       <c r="L238" s="3">
         <v>7765064</v>
@@ -30240,7 +30240,7 @@
         <v>1</v>
       </c>
       <c r="K239" s="3">
-        <v>371997.03</v>
+        <v>336354.43</v>
       </c>
       <c r="L239" s="3">
         <v>7812968</v>
@@ -30349,7 +30349,7 @@
         <v>1</v>
       </c>
       <c r="K240" s="3">
-        <v>374498.74</v>
+        <v>338616.16</v>
       </c>
       <c r="L240" s="3">
         <v>7865554</v>
@@ -30458,7 +30458,7 @@
         <v>1</v>
       </c>
       <c r="K241" s="3">
-        <v>379716.22</v>
+        <v>343333.27</v>
       </c>
       <c r="L241" s="3">
         <v>7976170</v>
@@ -36126,7 +36126,7 @@
         <v>0</v>
       </c>
       <c r="K293" s="3">
-        <v>184267</v>
+        <v>164093</v>
       </c>
       <c r="L293" s="3">
         <v>25469</v>
@@ -36235,7 +36235,7 @@
         <v>0</v>
       </c>
       <c r="K294" s="3">
-        <v>242474</v>
+        <v>218027</v>
       </c>
       <c r="L294" s="3">
         <v>30035</v>
@@ -36344,7 +36344,7 @@
         <v>0</v>
       </c>
       <c r="K295" s="3">
-        <v>257612</v>
+        <v>231270</v>
       </c>
       <c r="L295" s="3">
         <v>33765</v>
@@ -36453,7 +36453,7 @@
         <v>0</v>
       </c>
       <c r="K296" s="3">
-        <v>311270</v>
+        <v>279873</v>
       </c>
       <c r="L296" s="3">
         <v>40533</v>
@@ -36562,7 +36562,7 @@
         <v>0</v>
       </c>
       <c r="K297" s="3">
-        <v>510982</v>
+        <v>460770</v>
       </c>
       <c r="L297" s="3">
         <v>50951</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="K298" s="3">
-        <v>623653</v>
+        <v>567430</v>
       </c>
       <c r="L298" s="3">
         <v>70204</v>
@@ -36780,7 +36780,7 @@
         <v>0</v>
       </c>
       <c r="K299" s="3">
-        <v>648672</v>
+        <v>590194</v>
       </c>
       <c r="L299" s="3">
         <v>76588</v>
@@ -36889,7 +36889,7 @@
         <v>0</v>
       </c>
       <c r="K300" s="3">
-        <v>673691</v>
+        <v>612958</v>
       </c>
       <c r="L300" s="3">
         <v>80182</v>
@@ -36998,7 +36998,7 @@
         <v>0</v>
       </c>
       <c r="K301" s="3">
-        <v>739063</v>
+        <v>672390</v>
       </c>
       <c r="L301" s="3">
         <v>88534</v>
@@ -37107,7 +37107,7 @@
         <v>0</v>
       </c>
       <c r="K302" s="3">
-        <v>765978</v>
+        <v>696859</v>
       </c>
       <c r="L302" s="3">
         <v>92369</v>
@@ -37216,7 +37216,7 @@
         <v>1</v>
       </c>
       <c r="K303" s="3">
-        <v>1326.32</v>
+        <v>1181.22</v>
       </c>
       <c r="L303" s="3">
         <v>104242</v>
@@ -37325,7 +37325,7 @@
         <v>1</v>
       </c>
       <c r="K304" s="3">
-        <v>1605.94</v>
+        <v>1451.18</v>
       </c>
       <c r="L304" s="3">
         <v>114878</v>
@@ -37434,7 +37434,7 @@
         <v>1</v>
       </c>
       <c r="K305" s="3">
-        <v>1750.33</v>
+        <v>1577.3</v>
       </c>
       <c r="L305" s="3">
         <v>123958</v>
@@ -37543,7 +37543,7 @@
         <v>1</v>
       </c>
       <c r="K306" s="3">
-        <v>1904.8</v>
+        <v>1721.16</v>
       </c>
       <c r="L306" s="3">
         <v>133124</v>
@@ -37652,7 +37652,7 @@
         <v>1</v>
       </c>
       <c r="K307" s="3">
-        <v>2110.33</v>
+        <v>1906.69</v>
       </c>
       <c r="L307" s="3">
         <v>139030</v>
@@ -37761,7 +37761,7 @@
         <v>1</v>
       </c>
       <c r="K308" s="3">
-        <v>2491.46</v>
+        <v>2250.89</v>
       </c>
       <c r="L308" s="3">
         <v>157965</v>
@@ -37870,7 +37870,7 @@
         <v>1</v>
       </c>
       <c r="K309" s="3">
-        <v>2700.25</v>
+        <v>2439.44</v>
       </c>
       <c r="L309" s="3">
         <v>188418</v>
@@ -37979,7 +37979,7 @@
         <v>1</v>
       </c>
       <c r="K310" s="3">
-        <v>2780.53</v>
+        <v>2472.25</v>
       </c>
       <c r="L310" s="3">
         <v>217296</v>
@@ -38088,7 +38088,7 @@
         <v>1</v>
       </c>
       <c r="K311" s="3">
-        <v>3455.95</v>
+        <v>3121.95</v>
       </c>
       <c r="L311" s="3">
         <v>242248</v>
@@ -38197,7 +38197,7 @@
         <v>1</v>
       </c>
       <c r="K312" s="3">
-        <v>3550.78</v>
+        <v>3207.53</v>
       </c>
       <c r="L312" s="3">
         <v>247220</v>
@@ -38306,7 +38306,7 @@
         <v>1</v>
       </c>
       <c r="K313" s="3">
-        <v>3658.22</v>
+        <v>3304.55</v>
       </c>
       <c r="L313" s="3">
         <v>254002</v>
@@ -38415,7 +38415,7 @@
         <v>1</v>
       </c>
       <c r="K314" s="3">
-        <v>4209.6000000000004</v>
+        <v>3802.46</v>
       </c>
       <c r="L314" s="3">
         <v>269386</v>
@@ -38524,7 +38524,7 @@
         <v>1</v>
       </c>
       <c r="K315" s="3">
-        <v>6260.04</v>
+        <v>5537.71</v>
       </c>
       <c r="L315" s="3">
         <v>393258</v>
@@ -38633,7 +38633,7 @@
         <v>1</v>
       </c>
       <c r="K316" s="3">
-        <v>7960.55</v>
+        <v>7190.1</v>
       </c>
       <c r="L316" s="3">
         <v>420850</v>
@@ -38742,7 +38742,7 @@
         <v>1</v>
       </c>
       <c r="K317" s="3">
-        <v>8222.51</v>
+        <v>7426.68</v>
       </c>
       <c r="L317" s="3">
         <v>436056</v>
@@ -38851,7 +38851,7 @@
         <v>1</v>
       </c>
       <c r="K318" s="3">
-        <v>8445.65</v>
+        <v>7595.86</v>
       </c>
       <c r="L318" s="3">
         <v>468226</v>
@@ -38960,7 +38960,7 @@
         <v>1</v>
       </c>
       <c r="K319" s="3">
-        <v>10611.59</v>
+        <v>9531.17</v>
       </c>
       <c r="L319" s="3">
         <v>576324</v>
@@ -39069,7 +39069,7 @@
         <v>1</v>
       </c>
       <c r="K320" s="3">
-        <v>14075.44</v>
+        <v>12865.62</v>
       </c>
       <c r="L320" s="3">
         <v>678428</v>
@@ -39178,7 +39178,7 @@
         <v>1</v>
       </c>
       <c r="K321" s="3">
-        <v>15104.06</v>
+        <v>13805.59</v>
       </c>
       <c r="L321" s="3">
         <v>717396</v>
@@ -39287,7 +39287,7 @@
         <v>1</v>
       </c>
       <c r="K322" s="3">
-        <v>22586.21</v>
+        <v>18531.05</v>
       </c>
       <c r="L322" s="3">
         <v>868462</v>
@@ -39396,7 +39396,7 @@
         <v>1</v>
       </c>
       <c r="K323" s="3">
-        <v>26765.5</v>
+        <v>22613.18</v>
       </c>
       <c r="L323" s="3">
         <v>933610</v>
@@ -39505,7 +39505,7 @@
         <v>1</v>
       </c>
       <c r="K324" s="3">
-        <v>28385.75</v>
+        <v>23786.46</v>
       </c>
       <c r="L324" s="3">
         <v>1016846</v>
@@ -39614,7 +39614,7 @@
         <v>1</v>
       </c>
       <c r="K325" s="3">
-        <v>31324.45</v>
+        <v>26464.400000000001</v>
       </c>
       <c r="L325" s="3">
         <v>1074596</v>
@@ -39723,7 +39723,7 @@
         <v>1</v>
       </c>
       <c r="K326" s="3">
-        <v>39480.980000000003</v>
+        <v>32369.97</v>
       </c>
       <c r="L326" s="3">
         <v>1258266</v>
@@ -39832,7 +39832,7 @@
         <v>1</v>
       </c>
       <c r="K327" s="3">
-        <v>58151.86</v>
+        <v>49126.39</v>
       </c>
       <c r="L327" s="3">
         <v>1603750</v>
@@ -39941,7 +39941,7 @@
         <v>1</v>
       </c>
       <c r="K328" s="3">
-        <v>70753.570000000007</v>
+        <v>59771.85</v>
       </c>
       <c r="L328" s="3">
         <v>2127270</v>
@@ -40050,7 +40050,7 @@
         <v>1</v>
       </c>
       <c r="K329" s="3">
-        <v>75503.009999999995</v>
+        <v>63783.38</v>
       </c>
       <c r="L329" s="3">
         <v>2227284</v>
@@ -40159,7 +40159,7 @@
         <v>1</v>
       </c>
       <c r="K330" s="3">
-        <v>111749.47</v>
+        <v>93231.44</v>
       </c>
       <c r="L330" s="3">
         <v>2814804</v>
@@ -40268,7 +40268,7 @@
         <v>1</v>
       </c>
       <c r="K331" s="3">
-        <v>142371.32999999999</v>
+        <v>123118.49</v>
       </c>
       <c r="L331" s="3">
         <v>2926472</v>
@@ -40377,7 +40377,7 @@
         <v>1</v>
       </c>
       <c r="K332" s="3">
-        <v>144523.25</v>
+        <v>124979.2</v>
       </c>
       <c r="L332" s="3">
         <v>2967770</v>
@@ -40486,7 +40486,7 @@
         <v>1</v>
       </c>
       <c r="K333" s="3">
-        <v>146675.39000000001</v>
+        <v>126840.04</v>
       </c>
       <c r="L333" s="3">
         <v>3012020</v>
@@ -40595,7 +40595,7 @@
         <v>1</v>
       </c>
       <c r="K334" s="3">
-        <v>158429.39000000001</v>
+        <v>137003.44</v>
       </c>
       <c r="L334" s="3">
         <v>3130814</v>
@@ -40704,7 +40704,7 @@
         <v>1</v>
       </c>
       <c r="K335" s="3">
-        <v>161523.35</v>
+        <v>139678.66</v>
       </c>
       <c r="L335" s="3">
         <v>3362800</v>
@@ -40813,7 +40813,7 @@
         <v>1</v>
       </c>
       <c r="K336" s="3">
-        <v>169544.62</v>
+        <v>145222.85</v>
       </c>
       <c r="L336" s="3">
         <v>3690088</v>
@@ -40922,7 +40922,7 @@
         <v>1</v>
       </c>
       <c r="K337" s="3">
-        <v>186677.46</v>
+        <v>161430.23000000001</v>
       </c>
       <c r="L337" s="3">
         <v>3830502</v>
@@ -41031,7 +41031,7 @@
         <v>1</v>
       </c>
       <c r="K338" s="3">
-        <v>223975.04000000001</v>
+        <v>182918.44</v>
       </c>
       <c r="L338" s="3">
         <v>4493070</v>
@@ -41140,7 +41140,7 @@
         <v>1</v>
       </c>
       <c r="K339" s="3">
-        <v>269194.83</v>
+        <v>227628.27</v>
       </c>
       <c r="L339" s="3">
         <v>4548874</v>
@@ -41249,7 +41249,7 @@
         <v>1</v>
       </c>
       <c r="K340" s="3">
-        <v>303686.82</v>
+        <v>256793.45</v>
       </c>
       <c r="L340" s="3">
         <v>5131868</v>
@@ -41358,7 +41358,7 @@
         <v>1</v>
       </c>
       <c r="K341" s="3">
-        <v>305650.40000000002</v>
+        <v>258453.57</v>
       </c>
       <c r="L341" s="3">
         <v>5165074</v>
@@ -41467,7 +41467,7 @@
         <v>1</v>
       </c>
       <c r="K342" s="3">
-        <v>317595.64</v>
+        <v>268553.13</v>
       </c>
       <c r="L342" s="3">
         <v>5198278</v>
@@ -41576,7 +41576,7 @@
         <v>1</v>
       </c>
       <c r="K343" s="3">
-        <v>327119.3</v>
+        <v>276605.87</v>
       </c>
       <c r="L343" s="3">
         <v>5604240</v>
@@ -41685,7 +41685,7 @@
         <v>1</v>
       </c>
       <c r="K344" s="3">
-        <v>342054.23</v>
+        <v>289233.07</v>
       </c>
       <c r="L344" s="3">
         <v>5781320</v>
@@ -41794,7 +41794,7 @@
         <v>1</v>
       </c>
       <c r="K345" s="3">
-        <v>341513.42</v>
+        <v>285716.87</v>
       </c>
       <c r="L345" s="3">
         <v>6107460</v>
@@ -41903,7 +41903,7 @@
         <v>1</v>
       </c>
       <c r="K346" s="3">
-        <v>363815.86</v>
+        <v>307634.92</v>
       </c>
       <c r="L346" s="3">
         <v>6149580</v>
@@ -42012,7 +42012,7 @@
         <v>1</v>
       </c>
       <c r="K347" s="3">
-        <v>365785.05</v>
+        <v>309299.88</v>
       </c>
       <c r="L347" s="3">
         <v>6191700</v>
@@ -42121,7 +42121,7 @@
         <v>1</v>
       </c>
       <c r="K348" s="3">
-        <v>368013.33</v>
+        <v>311183.90000000002</v>
       </c>
       <c r="L348" s="3">
         <v>6229432</v>
@@ -42230,7 +42230,7 @@
         <v>1</v>
       </c>
       <c r="K349" s="3">
-        <v>370241.6</v>
+        <v>313067.90999999997</v>
       </c>
       <c r="L349" s="3">
         <v>6267166</v>
@@ -42339,7 +42339,7 @@
         <v>1</v>
       </c>
       <c r="K350" s="3">
-        <v>379988.34</v>
+        <v>318123.34999999998</v>
       </c>
       <c r="L350" s="3">
         <v>6780556</v>
@@ -42448,7 +42448,7 @@
         <v>1</v>
       </c>
       <c r="K351" s="3">
-        <v>402991.51</v>
+        <v>340760.77</v>
       </c>
       <c r="L351" s="3">
         <v>6820634</v>
@@ -42557,7 +42557,7 @@
         <v>1</v>
       </c>
       <c r="K352" s="3">
-        <v>405358.86</v>
+        <v>342762.35</v>
       </c>
       <c r="L352" s="3">
         <v>6860712</v>
@@ -42666,7 +42666,7 @@
         <v>1</v>
       </c>
       <c r="K353" s="3">
-        <v>416589.35</v>
+        <v>352258.32</v>
       </c>
       <c r="L353" s="3">
         <v>7050808</v>
@@ -42775,7 +42775,7 @@
         <v>1</v>
       </c>
       <c r="K354" s="3">
-        <v>419008.06</v>
+        <v>354303.33</v>
       </c>
       <c r="L354" s="3">
         <v>7091756</v>
@@ -42884,7 +42884,7 @@
         <v>1</v>
       </c>
       <c r="K355" s="3">
-        <v>417425.41</v>
+        <v>348826.06</v>
       </c>
       <c r="L355" s="3">
         <v>7518644</v>
@@ -42993,7 +42993,7 @@
         <v>1</v>
       </c>
       <c r="K356" s="3">
-        <v>456240.76</v>
+        <v>385787.31</v>
       </c>
       <c r="L356" s="3">
         <v>7721840</v>
@@ -43102,7 +43102,7 @@
         <v>1</v>
       </c>
       <c r="K357" s="3">
-        <v>458794.01</v>
+        <v>387946.04</v>
       </c>
       <c r="L357" s="3">
         <v>7765064</v>
@@ -43211,7 +43211,7 @@
         <v>1</v>
       </c>
       <c r="K358" s="3">
-        <v>461623.64</v>
+        <v>390338.44</v>
       </c>
       <c r="L358" s="3">
         <v>7812968</v>
@@ -43320,7 +43320,7 @@
         <v>1</v>
       </c>
       <c r="K359" s="3">
-        <v>464729.55</v>
+        <v>392964.39</v>
       </c>
       <c r="L359" s="3">
         <v>7865554</v>
@@ -43429,7 +43429,7 @@
         <v>1</v>
       </c>
       <c r="K360" s="3">
-        <v>471207.23</v>
+        <v>398441.35</v>
       </c>
       <c r="L360" s="3">
         <v>7976170</v>
@@ -49097,7 +49097,7 @@
         <v>0</v>
       </c>
       <c r="K412" s="3">
-        <v>245689</v>
+        <v>218791</v>
       </c>
       <c r="L412" s="3">
         <v>25469</v>
@@ -49206,7 +49206,7 @@
         <v>0</v>
       </c>
       <c r="K413" s="3">
-        <v>323299</v>
+        <v>290703</v>
       </c>
       <c r="L413" s="3">
         <v>30035</v>
@@ -49315,7 +49315,7 @@
         <v>0</v>
       </c>
       <c r="K414" s="3">
-        <v>343483</v>
+        <v>308360</v>
       </c>
       <c r="L414" s="3">
         <v>33765</v>
@@ -49424,7 +49424,7 @@
         <v>0</v>
       </c>
       <c r="K415" s="3">
-        <v>415027</v>
+        <v>373164</v>
       </c>
       <c r="L415" s="3">
         <v>40533</v>
@@ -49533,7 +49533,7 @@
         <v>0</v>
       </c>
       <c r="K416" s="3">
-        <v>681309</v>
+        <v>614360</v>
       </c>
       <c r="L416" s="3">
         <v>50951</v>
@@ -49642,7 +49642,7 @@
         <v>0</v>
       </c>
       <c r="K417" s="3">
-        <v>831537</v>
+        <v>756573</v>
       </c>
       <c r="L417" s="3">
         <v>70204</v>
@@ -49751,7 +49751,7 @@
         <v>0</v>
       </c>
       <c r="K418" s="3">
-        <v>864896</v>
+        <v>786925</v>
       </c>
       <c r="L418" s="3">
         <v>76588</v>
@@ -49860,7 +49860,7 @@
         <v>0</v>
       </c>
       <c r="K419" s="3">
-        <v>898255</v>
+        <v>817277</v>
       </c>
       <c r="L419" s="3">
         <v>80182</v>
@@ -49969,7 +49969,7 @@
         <v>0</v>
       </c>
       <c r="K420" s="3">
-        <v>985417</v>
+        <v>896520</v>
       </c>
       <c r="L420" s="3">
         <v>88534</v>
@@ -50075,10 +50075,10 @@
         <v>202</v>
       </c>
       <c r="J421" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K421" s="3">
-        <v>1021.3</v>
+        <v>929145</v>
       </c>
       <c r="L421" s="3">
         <v>92369</v>
@@ -50187,7 +50187,7 @@
         <v>1</v>
       </c>
       <c r="K422" s="3">
-        <v>1768.43</v>
+        <v>1574.96</v>
       </c>
       <c r="L422" s="3">
         <v>104242</v>
@@ -50296,7 +50296,7 @@
         <v>1</v>
       </c>
       <c r="K423" s="3">
-        <v>2141.2600000000002</v>
+        <v>1934.9</v>
       </c>
       <c r="L423" s="3">
         <v>114878</v>
@@ -50405,7 +50405,7 @@
         <v>1</v>
       </c>
       <c r="K424" s="3">
-        <v>2333.7800000000002</v>
+        <v>2103.06</v>
       </c>
       <c r="L424" s="3">
         <v>123958</v>
@@ -50514,7 +50514,7 @@
         <v>1</v>
       </c>
       <c r="K425" s="3">
-        <v>2539.7399999999998</v>
+        <v>2294.88</v>
       </c>
       <c r="L425" s="3">
         <v>133124</v>
@@ -50623,7 +50623,7 @@
         <v>1</v>
       </c>
       <c r="K426" s="3">
-        <v>2813.78</v>
+        <v>2542.25</v>
       </c>
       <c r="L426" s="3">
         <v>139030</v>
@@ -50732,7 +50732,7 @@
         <v>1</v>
       </c>
       <c r="K427" s="3">
-        <v>3321.95</v>
+        <v>3001.18</v>
       </c>
       <c r="L427" s="3">
         <v>157965</v>
@@ -50841,7 +50841,7 @@
         <v>1</v>
       </c>
       <c r="K428" s="3">
-        <v>3600.34</v>
+        <v>3252.58</v>
       </c>
       <c r="L428" s="3">
         <v>188418</v>
@@ -50950,7 +50950,7 @@
         <v>1</v>
       </c>
       <c r="K429" s="3">
-        <v>3707.38</v>
+        <v>3296.34</v>
       </c>
       <c r="L429" s="3">
         <v>217296</v>
@@ -51059,7 +51059,7 @@
         <v>1</v>
       </c>
       <c r="K430" s="3">
-        <v>4607.9399999999996</v>
+        <v>4162.59</v>
       </c>
       <c r="L430" s="3">
         <v>242248</v>
@@ -51168,7 +51168,7 @@
         <v>1</v>
       </c>
       <c r="K431" s="3">
-        <v>4734.38</v>
+        <v>4276.71</v>
       </c>
       <c r="L431" s="3">
         <v>247220</v>
@@ -51277,7 +51277,7 @@
         <v>1</v>
       </c>
       <c r="K432" s="3">
-        <v>4877.62</v>
+        <v>4406.07</v>
       </c>
       <c r="L432" s="3">
         <v>254002</v>
@@ -51386,7 +51386,7 @@
         <v>1</v>
       </c>
       <c r="K433" s="3">
-        <v>5612.8</v>
+        <v>5069.95</v>
       </c>
       <c r="L433" s="3">
         <v>269386</v>
@@ -51495,7 +51495,7 @@
         <v>1</v>
       </c>
       <c r="K434" s="3">
-        <v>8346.7199999999993</v>
+        <v>7383.62</v>
       </c>
       <c r="L434" s="3">
         <v>393258</v>
@@ -51604,7 +51604,7 @@
         <v>1</v>
       </c>
       <c r="K435" s="3">
-        <v>10614.06</v>
+        <v>9586.7999999999993</v>
       </c>
       <c r="L435" s="3">
         <v>420850</v>
@@ -51713,7 +51713,7 @@
         <v>1</v>
       </c>
       <c r="K436" s="3">
-        <v>10963.35</v>
+        <v>9902.24</v>
       </c>
       <c r="L436" s="3">
         <v>436056</v>
@@ -51822,7 +51822,7 @@
         <v>1</v>
       </c>
       <c r="K437" s="3">
-        <v>11260.87</v>
+        <v>10127.82</v>
       </c>
       <c r="L437" s="3">
         <v>468226</v>
@@ -51931,7 +51931,7 @@
         <v>1</v>
       </c>
       <c r="K438" s="3">
-        <v>14148.78</v>
+        <v>12708.23</v>
       </c>
       <c r="L438" s="3">
         <v>576324</v>
@@ -52040,7 +52040,7 @@
         <v>1</v>
       </c>
       <c r="K439" s="3">
-        <v>18767.259999999998</v>
+        <v>17154.16</v>
       </c>
       <c r="L439" s="3">
         <v>678428</v>
@@ -52149,7 +52149,7 @@
         <v>1</v>
       </c>
       <c r="K440" s="3">
-        <v>20138.75</v>
+        <v>18407.46</v>
       </c>
       <c r="L440" s="3">
         <v>717396</v>
@@ -52258,7 +52258,7 @@
         <v>1</v>
       </c>
       <c r="K441" s="3">
-        <v>30114.95</v>
+        <v>24708.07</v>
       </c>
       <c r="L441" s="3">
         <v>868462</v>
@@ -52367,7 +52367,7 @@
         <v>1</v>
       </c>
       <c r="K442" s="3">
-        <v>35687.339999999997</v>
+        <v>30150.9</v>
       </c>
       <c r="L442" s="3">
         <v>933610</v>
@@ -52476,7 +52476,7 @@
         <v>1</v>
       </c>
       <c r="K443" s="3">
-        <v>37847.660000000003</v>
+        <v>31715.279999999999</v>
       </c>
       <c r="L443" s="3">
         <v>1016846</v>
@@ -52585,7 +52585,7 @@
         <v>1</v>
       </c>
       <c r="K444" s="3">
-        <v>41765.93</v>
+        <v>35285.86</v>
       </c>
       <c r="L444" s="3">
         <v>1074596</v>
@@ -52694,7 +52694,7 @@
         <v>1</v>
       </c>
       <c r="K445" s="3">
-        <v>52641.3</v>
+        <v>43159.96</v>
       </c>
       <c r="L445" s="3">
         <v>1258266</v>
@@ -52803,7 +52803,7 @@
         <v>1</v>
       </c>
       <c r="K446" s="3">
-        <v>77535.81</v>
+        <v>65501.86</v>
       </c>
       <c r="L446" s="3">
         <v>1603750</v>
@@ -52912,7 +52912,7 @@
         <v>1</v>
       </c>
       <c r="K447" s="3">
-        <v>94338.09</v>
+        <v>79695.8</v>
       </c>
       <c r="L447" s="3">
         <v>2127270</v>
@@ -53021,7 +53021,7 @@
         <v>1</v>
       </c>
       <c r="K448" s="3">
-        <v>100670.69</v>
+        <v>85044.51</v>
       </c>
       <c r="L448" s="3">
         <v>2227284</v>
@@ -53130,7 +53130,7 @@
         <v>1</v>
       </c>
       <c r="K449" s="3">
-        <v>148999.29</v>
+        <v>124308.59</v>
       </c>
       <c r="L449" s="3">
         <v>2814804</v>
@@ -53239,7 +53239,7 @@
         <v>1</v>
       </c>
       <c r="K450" s="3">
-        <v>189828.44</v>
+        <v>164157.98000000001</v>
       </c>
       <c r="L450" s="3">
         <v>2926472</v>
@@ -53348,7 +53348,7 @@
         <v>1</v>
       </c>
       <c r="K451" s="3">
-        <v>192697.67</v>
+        <v>166638.94</v>
       </c>
       <c r="L451" s="3">
         <v>2967770</v>
@@ -53457,7 +53457,7 @@
         <v>1</v>
       </c>
       <c r="K452" s="3">
-        <v>195567.19</v>
+        <v>169120.05</v>
       </c>
       <c r="L452" s="3">
         <v>3012020</v>
@@ -53566,7 +53566,7 @@
         <v>1</v>
       </c>
       <c r="K453" s="3">
-        <v>211239.19</v>
+        <v>182671.25</v>
       </c>
       <c r="L453" s="3">
         <v>3130814</v>
@@ -53675,7 +53675,7 @@
         <v>1</v>
       </c>
       <c r="K454" s="3">
-        <v>215364.47</v>
+        <v>186238.21</v>
       </c>
       <c r="L454" s="3">
         <v>3362800</v>
@@ -53784,7 +53784,7 @@
         <v>1</v>
       </c>
       <c r="K455" s="3">
-        <v>226059.49</v>
+        <v>193630.47</v>
       </c>
       <c r="L455" s="3">
         <v>3690088</v>
@@ -53893,7 +53893,7 @@
         <v>1</v>
       </c>
       <c r="K456" s="3">
-        <v>248903.28</v>
+        <v>215240.31</v>
       </c>
       <c r="L456" s="3">
         <v>3830502</v>
@@ -54002,7 +54002,7 @@
         <v>1</v>
       </c>
       <c r="K457" s="3">
-        <v>298633.39</v>
+        <v>243891.25</v>
       </c>
       <c r="L457" s="3">
         <v>4493070</v>
@@ -54111,7 +54111,7 @@
         <v>1</v>
       </c>
       <c r="K458" s="3">
-        <v>358926.44</v>
+        <v>303504.36</v>
       </c>
       <c r="L458" s="3">
         <v>4548874</v>
@@ -54220,7 +54220,7 @@
         <v>1</v>
       </c>
       <c r="K459" s="3">
-        <v>404915.76</v>
+        <v>342391.27</v>
       </c>
       <c r="L459" s="3">
         <v>5131868</v>
@@ -54329,7 +54329,7 @@
         <v>1</v>
       </c>
       <c r="K460" s="3">
-        <v>407533.87</v>
+        <v>344604.76</v>
       </c>
       <c r="L460" s="3">
         <v>5165074</v>
@@ -54438,7 +54438,7 @@
         <v>1</v>
       </c>
       <c r="K461" s="3">
-        <v>423460.86</v>
+        <v>358070.84</v>
       </c>
       <c r="L461" s="3">
         <v>5198278</v>
@@ -54547,7 +54547,7 @@
         <v>1</v>
       </c>
       <c r="K462" s="3">
-        <v>436159.07</v>
+        <v>368807.83</v>
       </c>
       <c r="L462" s="3">
         <v>5604240</v>
@@ -54656,7 +54656,7 @@
         <v>1</v>
       </c>
       <c r="K463" s="3">
-        <v>456072.31</v>
+        <v>385644.09</v>
       </c>
       <c r="L463" s="3">
         <v>5781320</v>
@@ -54765,7 +54765,7 @@
         <v>1</v>
       </c>
       <c r="K464" s="3">
-        <v>455351.22</v>
+        <v>380955.83</v>
       </c>
       <c r="L464" s="3">
         <v>6107460</v>
@@ -54874,7 +54874,7 @@
         <v>1</v>
       </c>
       <c r="K465" s="3">
-        <v>485087.82</v>
+        <v>410179.9</v>
       </c>
       <c r="L465" s="3">
         <v>6149580</v>
@@ -54983,7 +54983,7 @@
         <v>1</v>
       </c>
       <c r="K466" s="3">
-        <v>487713.4</v>
+        <v>412399.84</v>
       </c>
       <c r="L466" s="3">
         <v>6191700</v>
@@ -55092,7 +55092,7 @@
         <v>1</v>
       </c>
       <c r="K467" s="3">
-        <v>490684.44</v>
+        <v>414911.86</v>
       </c>
       <c r="L467" s="3">
         <v>6229432</v>
@@ -55201,7 +55201,7 @@
         <v>1</v>
       </c>
       <c r="K468" s="3">
-        <v>493655.47</v>
+        <v>417423.88</v>
       </c>
       <c r="L468" s="3">
         <v>6267166</v>
@@ -55310,7 +55310,7 @@
         <v>1</v>
       </c>
       <c r="K469" s="3">
-        <v>506651.12</v>
+        <v>424164.47</v>
       </c>
       <c r="L469" s="3">
         <v>6780556</v>
@@ -55419,7 +55419,7 @@
         <v>1</v>
       </c>
       <c r="K470" s="3">
-        <v>537322.02</v>
+        <v>454347.69</v>
       </c>
       <c r="L470" s="3">
         <v>6820634</v>
@@ -55528,7 +55528,7 @@
         <v>1</v>
       </c>
       <c r="K471" s="3">
-        <v>540478.48</v>
+        <v>457016.47</v>
       </c>
       <c r="L471" s="3">
         <v>6860712</v>
@@ -55637,7 +55637,7 @@
         <v>1</v>
       </c>
       <c r="K472" s="3">
-        <v>555452.47</v>
+        <v>469677.76</v>
       </c>
       <c r="L472" s="3">
         <v>7050808</v>
@@ -55746,7 +55746,7 @@
         <v>1</v>
       </c>
       <c r="K473" s="3">
-        <v>558677.41</v>
+        <v>472404.44</v>
       </c>
       <c r="L473" s="3">
         <v>7091756</v>
@@ -55855,7 +55855,7 @@
         <v>1</v>
       </c>
       <c r="K474" s="3">
-        <v>556567.21</v>
+        <v>465101.41</v>
       </c>
       <c r="L474" s="3">
         <v>7518644</v>
@@ -55964,7 +55964,7 @@
         <v>1</v>
       </c>
       <c r="K475" s="3">
-        <v>608321.02</v>
+        <v>514383.08</v>
       </c>
       <c r="L475" s="3">
         <v>7721840</v>
@@ -56073,7 +56073,7 @@
         <v>1</v>
       </c>
       <c r="K476" s="3">
-        <v>611725.34</v>
+        <v>517261.39</v>
       </c>
       <c r="L476" s="3">
         <v>7765064</v>
@@ -56182,7 +56182,7 @@
         <v>1</v>
       </c>
       <c r="K477" s="3">
-        <v>615498.18000000005</v>
+        <v>520451.25</v>
       </c>
       <c r="L477" s="3">
         <v>7812968</v>
@@ -56291,7 +56291,7 @@
         <v>1</v>
       </c>
       <c r="K478" s="3">
-        <v>619639.4</v>
+        <v>523952.52</v>
       </c>
       <c r="L478" s="3">
         <v>7865554</v>
@@ -56400,7 +56400,7 @@
         <v>1</v>
       </c>
       <c r="K479" s="3">
-        <v>628276.31000000006</v>
+        <v>531255.13</v>
       </c>
       <c r="L479" s="3">
         <v>7976170</v>
@@ -56509,7 +56509,7 @@
         <v>0</v>
       </c>
       <c r="K480" s="3">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="L480" s="3">
         <v>20</v>
@@ -56618,7 +56618,7 @@
         <v>0</v>
       </c>
       <c r="K481" s="3">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="L481" s="3">
         <v>20</v>
@@ -56727,7 +56727,7 @@
         <v>0</v>
       </c>
       <c r="K482" s="3">
-        <v>452</v>
+        <v>510</v>
       </c>
       <c r="L482" s="3">
         <v>48</v>
@@ -56836,7 +56836,7 @@
         <v>0</v>
       </c>
       <c r="K483" s="3">
-        <v>452</v>
+        <v>510</v>
       </c>
       <c r="L483" s="3">
         <v>48</v>
@@ -56945,7 +56945,7 @@
         <v>0</v>
       </c>
       <c r="K484" s="3">
-        <v>452</v>
+        <v>510</v>
       </c>
       <c r="L484" s="3">
         <v>48</v>
@@ -57054,7 +57054,7 @@
         <v>0</v>
       </c>
       <c r="K485" s="3">
-        <v>258</v>
+        <v>517</v>
       </c>
       <c r="L485" s="3">
         <v>48</v>
@@ -57163,7 +57163,7 @@
         <v>0</v>
       </c>
       <c r="K486" s="3">
-        <v>517</v>
+        <v>1035</v>
       </c>
       <c r="L486" s="3">
         <v>76</v>
@@ -57272,7 +57272,7 @@
         <v>0</v>
       </c>
       <c r="K487" s="3">
-        <v>517</v>
+        <v>1035</v>
       </c>
       <c r="L487" s="3">
         <v>76</v>
@@ -57381,7 +57381,7 @@
         <v>0</v>
       </c>
       <c r="K488" s="3">
-        <v>1293</v>
+        <v>2587</v>
       </c>
       <c r="L488" s="3">
         <v>119</v>
@@ -57490,7 +57490,7 @@
         <v>0</v>
       </c>
       <c r="K489" s="3">
-        <v>1293</v>
+        <v>2587</v>
       </c>
       <c r="L489" s="3">
         <v>119</v>
@@ -57599,7 +57599,7 @@
         <v>0</v>
       </c>
       <c r="K490" s="3">
-        <v>2208</v>
+        <v>4416</v>
       </c>
       <c r="L490" s="3">
         <v>128</v>
@@ -57708,7 +57708,7 @@
         <v>0</v>
       </c>
       <c r="K491" s="3">
-        <v>2760</v>
+        <v>5520</v>
       </c>
       <c r="L491" s="3">
         <v>265</v>
@@ -57817,7 +57817,7 @@
         <v>0</v>
       </c>
       <c r="K492" s="3">
-        <v>2760</v>
+        <v>5520</v>
       </c>
       <c r="L492" s="3">
         <v>280</v>
@@ -57926,7 +57926,7 @@
         <v>0</v>
       </c>
       <c r="K493" s="3">
-        <v>2760</v>
+        <v>5520</v>
       </c>
       <c r="L493" s="3">
         <v>306</v>
@@ -58035,7 +58035,7 @@
         <v>0</v>
       </c>
       <c r="K494" s="3">
-        <v>2760</v>
+        <v>5520</v>
       </c>
       <c r="L494" s="3">
         <v>341</v>
@@ -58144,7 +58144,7 @@
         <v>0</v>
       </c>
       <c r="K495" s="3">
-        <v>4575</v>
+        <v>7335</v>
       </c>
       <c r="L495" s="3">
         <v>372</v>
@@ -58253,7 +58253,7 @@
         <v>0</v>
       </c>
       <c r="K496" s="3">
-        <v>4575</v>
+        <v>7335</v>
       </c>
       <c r="L496" s="3">
         <v>377</v>
@@ -58362,7 +58362,7 @@
         <v>0</v>
       </c>
       <c r="K497" s="3">
-        <v>4575</v>
+        <v>7335</v>
       </c>
       <c r="L497" s="3">
         <v>387</v>
@@ -58471,7 +58471,7 @@
         <v>0</v>
       </c>
       <c r="K498" s="3">
-        <v>4575</v>
+        <v>7335</v>
       </c>
       <c r="L498" s="3">
         <v>400</v>
@@ -58580,7 +58580,7 @@
         <v>0</v>
       </c>
       <c r="K499" s="3">
-        <v>14235</v>
+        <v>26655</v>
       </c>
       <c r="L499" s="3">
         <v>400</v>
@@ -58689,7 +58689,7 @@
         <v>0</v>
       </c>
       <c r="K500" s="3">
-        <v>15045</v>
+        <v>28155</v>
       </c>
       <c r="L500" s="3">
         <v>441</v>
@@ -58798,7 +58798,7 @@
         <v>0</v>
       </c>
       <c r="K501" s="3">
-        <v>20084</v>
+        <v>38059</v>
       </c>
       <c r="L501" s="3">
         <v>711</v>
@@ -58907,7 +58907,7 @@
         <v>0</v>
       </c>
       <c r="K502" s="3">
-        <v>23601</v>
+        <v>44577</v>
       </c>
       <c r="L502" s="3">
         <v>726</v>
@@ -59016,7 +59016,7 @@
         <v>0</v>
       </c>
       <c r="K503" s="3">
-        <v>23601</v>
+        <v>44577</v>
       </c>
       <c r="L503" s="3">
         <v>726</v>
@@ -59125,7 +59125,7 @@
         <v>0</v>
       </c>
       <c r="K504" s="3">
-        <v>26407</v>
+        <v>50166</v>
       </c>
       <c r="L504" s="3">
         <v>726</v>
@@ -59234,7 +59234,7 @@
         <v>0</v>
       </c>
       <c r="K505" s="3">
-        <v>32541</v>
+        <v>83463</v>
       </c>
       <c r="L505" s="3">
         <v>750</v>
@@ -59343,7 +59343,7 @@
         <v>0</v>
       </c>
       <c r="K506" s="3">
-        <v>38263</v>
+        <v>97534</v>
       </c>
       <c r="L506" s="3">
         <v>1207</v>
@@ -59452,7 +59452,7 @@
         <v>0</v>
       </c>
       <c r="K507" s="3">
-        <v>41368</v>
+        <v>106849</v>
       </c>
       <c r="L507" s="3">
         <v>1246</v>
@@ -59561,7 +59561,7 @@
         <v>0</v>
       </c>
       <c r="K508" s="3">
-        <v>41368</v>
+        <v>106849</v>
       </c>
       <c r="L508" s="3">
         <v>1246</v>
@@ -59670,7 +59670,7 @@
         <v>0</v>
       </c>
       <c r="K509" s="3">
-        <v>41368</v>
+        <v>106849</v>
       </c>
       <c r="L509" s="3">
         <v>1246</v>
@@ -59779,7 +59779,7 @@
         <v>0</v>
       </c>
       <c r="K510" s="3">
-        <v>41368</v>
+        <v>106849</v>
       </c>
       <c r="L510" s="3">
         <v>1325</v>
@@ -59888,7 +59888,7 @@
         <v>0</v>
       </c>
       <c r="K511" s="3">
-        <v>41368</v>
+        <v>106849</v>
       </c>
       <c r="L511" s="3">
         <v>2024</v>
@@ -59997,7 +59997,7 @@
         <v>0</v>
       </c>
       <c r="K512" s="3">
-        <v>45190</v>
+        <v>114673</v>
       </c>
       <c r="L512" s="3">
         <v>2490</v>
@@ -60106,7 +60106,7 @@
         <v>0</v>
       </c>
       <c r="K513" s="3">
-        <v>58472</v>
+        <v>147344</v>
       </c>
       <c r="L513" s="3">
         <v>3174</v>
@@ -60215,7 +60215,7 @@
         <v>0</v>
       </c>
       <c r="K514" s="3">
-        <v>58472</v>
+        <v>147344</v>
       </c>
       <c r="L514" s="3">
         <v>3174</v>
@@ -60324,7 +60324,7 @@
         <v>0</v>
       </c>
       <c r="K515" s="3">
-        <v>93331</v>
+        <v>179133</v>
       </c>
       <c r="L515" s="3">
         <v>3224</v>
@@ -60433,7 +60433,7 @@
         <v>0</v>
       </c>
       <c r="K516" s="3">
-        <v>110115</v>
+        <v>212045</v>
       </c>
       <c r="L516" s="3">
         <v>3480</v>
@@ -60542,7 +60542,7 @@
         <v>0</v>
       </c>
       <c r="K517" s="3">
-        <v>119068</v>
+        <v>229227</v>
       </c>
       <c r="L517" s="3">
         <v>4098</v>
@@ -60651,7 +60651,7 @@
         <v>0</v>
       </c>
       <c r="K518" s="3">
-        <v>132078</v>
+        <v>255247</v>
       </c>
       <c r="L518" s="3">
         <v>4138</v>
@@ -60760,7 +60760,7 @@
         <v>0</v>
       </c>
       <c r="K519" s="3">
-        <v>171070</v>
+        <v>327056</v>
       </c>
       <c r="L519" s="3">
         <v>5174</v>
@@ -60869,7 +60869,7 @@
         <v>0</v>
       </c>
       <c r="K520" s="3">
-        <v>217290</v>
+        <v>416759</v>
       </c>
       <c r="L520" s="3">
         <v>5230</v>
@@ -60978,7 +60978,7 @@
         <v>0</v>
       </c>
       <c r="K521" s="3">
-        <v>169741</v>
+        <v>324014</v>
       </c>
       <c r="L521" s="3">
         <v>5443</v>
@@ -61087,7 +61087,7 @@
         <v>0</v>
       </c>
       <c r="K522" s="3">
-        <v>182648</v>
+        <v>348601</v>
       </c>
       <c r="L522" s="3">
         <v>5853</v>
@@ -61196,7 +61196,7 @@
         <v>0</v>
       </c>
       <c r="K523" s="3">
-        <v>191412</v>
+        <v>365325</v>
       </c>
       <c r="L523" s="3">
         <v>6086</v>
@@ -61305,7 +61305,7 @@
         <v>0</v>
       </c>
       <c r="K524" s="3">
-        <v>200613</v>
+        <v>383334</v>
       </c>
       <c r="L524" s="3">
         <v>6160</v>
@@ -61414,7 +61414,7 @@
         <v>0</v>
       </c>
       <c r="K525" s="3">
-        <v>293498</v>
+        <v>531196</v>
       </c>
       <c r="L525" s="3">
         <v>7950</v>
@@ -61523,7 +61523,7 @@
         <v>0</v>
       </c>
       <c r="K526" s="3">
-        <v>477930</v>
+        <v>899573</v>
       </c>
       <c r="L526" s="3">
         <v>9274</v>
@@ -61629,10 +61629,10 @@
         <v>200</v>
       </c>
       <c r="J527" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K527" s="3">
-        <v>739916</v>
+        <v>1472.88</v>
       </c>
       <c r="L527" s="3">
         <v>11354</v>
@@ -61738,10 +61738,10 @@
         <v>200</v>
       </c>
       <c r="J528" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K528" s="3">
-        <v>820626</v>
+        <v>1633.25</v>
       </c>
       <c r="L528" s="3">
         <v>12624</v>
@@ -61850,7 +61850,7 @@
         <v>1</v>
       </c>
       <c r="K529" s="3">
-        <v>1195.8499999999999</v>
+        <v>2346.23</v>
       </c>
       <c r="L529" s="3">
         <v>14296</v>
@@ -61959,7 +61959,7 @@
         <v>1</v>
       </c>
       <c r="K530" s="3">
-        <v>1255.3599999999999</v>
+        <v>2462.81</v>
       </c>
       <c r="L530" s="3">
         <v>15084</v>
@@ -62068,7 +62068,7 @@
         <v>1</v>
       </c>
       <c r="K531" s="3">
-        <v>2591.4699999999998</v>
+        <v>4721.76</v>
       </c>
       <c r="L531" s="3">
         <v>25469</v>
@@ -62177,7 +62177,7 @@
         <v>1</v>
       </c>
       <c r="K532" s="3">
-        <v>3341.45</v>
+        <v>6099.18</v>
       </c>
       <c r="L532" s="3">
         <v>30035</v>
@@ -62286,7 +62286,7 @@
         <v>1</v>
       </c>
       <c r="K533" s="3">
-        <v>3745.64</v>
+        <v>6831.05</v>
       </c>
       <c r="L533" s="3">
         <v>33765</v>
@@ -62395,7 +62395,7 @@
         <v>1</v>
       </c>
       <c r="K534" s="3">
-        <v>4606.41</v>
+        <v>8362.23</v>
       </c>
       <c r="L534" s="3">
         <v>40533</v>
@@ -62504,7 +62504,7 @@
         <v>1</v>
       </c>
       <c r="K535" s="3">
-        <v>7713.08</v>
+        <v>13948.29</v>
       </c>
       <c r="L535" s="3">
         <v>50951</v>
@@ -62613,7 +62613,7 @@
         <v>1</v>
       </c>
       <c r="K536" s="3">
-        <v>9183.39</v>
+        <v>16613.27</v>
       </c>
       <c r="L536" s="3">
         <v>70204</v>
@@ -62722,7 +62722,7 @@
         <v>1</v>
       </c>
       <c r="K537" s="3">
-        <v>10050.86</v>
+        <v>18291.509999999998</v>
       </c>
       <c r="L537" s="3">
         <v>76588</v>
@@ -62831,7 +62831,7 @@
         <v>1</v>
       </c>
       <c r="K538" s="3">
-        <v>10435.91</v>
+        <v>18991.87</v>
       </c>
       <c r="L538" s="3">
         <v>80182</v>
@@ -62940,7 +62940,7 @@
         <v>1</v>
       </c>
       <c r="K539" s="3">
-        <v>11443.9</v>
+        <v>20824.7</v>
       </c>
       <c r="L539" s="3">
         <v>88534</v>
@@ -63049,7 +63049,7 @@
         <v>1</v>
       </c>
       <c r="K540" s="3">
-        <v>11857.97</v>
+        <v>21577.439999999999</v>
       </c>
       <c r="L540" s="3">
         <v>92369</v>
@@ -63158,7 +63158,7 @@
         <v>1</v>
       </c>
       <c r="K541" s="3">
-        <v>20714.25</v>
+        <v>37208.449999999997</v>
       </c>
       <c r="L541" s="3">
         <v>104242</v>
@@ -63267,7 +63267,7 @@
         <v>1</v>
       </c>
       <c r="K542" s="3">
-        <v>24133.759999999998</v>
+        <v>43400.29</v>
       </c>
       <c r="L542" s="3">
         <v>114878</v>
@@ -63376,7 +63376,7 @@
         <v>1</v>
       </c>
       <c r="K543" s="3">
-        <v>28063.4</v>
+        <v>50813.81</v>
       </c>
       <c r="L543" s="3">
         <v>123958</v>
@@ -63485,7 +63485,7 @@
         <v>1</v>
       </c>
       <c r="K544" s="3">
-        <v>30731.82</v>
+        <v>55746.86</v>
       </c>
       <c r="L544" s="3">
         <v>133124</v>
@@ -63594,7 +63594,7 @@
         <v>1</v>
       </c>
       <c r="K545" s="3">
-        <v>34031.269999999997</v>
+        <v>61725.79</v>
       </c>
       <c r="L545" s="3">
         <v>139030</v>
@@ -63703,7 +63703,7 @@
         <v>1</v>
       </c>
       <c r="K546" s="3">
-        <v>40154.6</v>
+        <v>72825.63</v>
       </c>
       <c r="L546" s="3">
         <v>157965</v>
@@ -63812,7 +63812,7 @@
         <v>1</v>
       </c>
       <c r="K547" s="3">
-        <v>43511.31</v>
+        <v>78910.559999999998</v>
       </c>
       <c r="L547" s="3">
         <v>188418</v>
@@ -63921,7 +63921,7 @@
         <v>1</v>
       </c>
       <c r="K548" s="3">
-        <v>43185.82</v>
+        <v>77465.83</v>
       </c>
       <c r="L548" s="3">
         <v>217296</v>
@@ -64030,7 +64030,7 @@
         <v>1</v>
       </c>
       <c r="K549" s="3">
-        <v>51622.22</v>
+        <v>92750.09</v>
       </c>
       <c r="L549" s="3">
         <v>242248</v>
@@ -64139,7 +64139,7 @@
         <v>1</v>
       </c>
       <c r="K550" s="3">
-        <v>57173.77</v>
+        <v>103675.79</v>
       </c>
       <c r="L550" s="3">
         <v>247220</v>
@@ -64248,7 +64248,7 @@
         <v>1</v>
       </c>
       <c r="K551" s="3">
-        <v>58898.62</v>
+        <v>106802.14</v>
       </c>
       <c r="L551" s="3">
         <v>254002</v>
@@ -64357,7 +64357,7 @@
         <v>1</v>
       </c>
       <c r="K552" s="3">
-        <v>67755.429999999993</v>
+        <v>122855.91</v>
       </c>
       <c r="L552" s="3">
         <v>269386</v>
@@ -64466,7 +64466,7 @@
         <v>1</v>
       </c>
       <c r="K553" s="3">
-        <v>95516.5</v>
+        <v>170978.48</v>
       </c>
       <c r="L553" s="3">
         <v>393258</v>
@@ -64575,7 +64575,7 @@
         <v>1</v>
       </c>
       <c r="K554" s="3">
-        <v>117608.09</v>
+        <v>211425.2</v>
       </c>
       <c r="L554" s="3">
         <v>420850</v>
@@ -64684,7 +64684,7 @@
         <v>1</v>
       </c>
       <c r="K555" s="3">
-        <v>131750.75</v>
+        <v>239205.05</v>
       </c>
       <c r="L555" s="3">
         <v>436056</v>
@@ -64793,7 +64793,7 @@
         <v>1</v>
       </c>
       <c r="K556" s="3">
-        <v>133984.29999999999</v>
+        <v>242579.84</v>
       </c>
       <c r="L556" s="3">
         <v>468226</v>
@@ -64902,7 +64902,7 @@
         <v>1</v>
       </c>
       <c r="K557" s="3">
-        <v>157607.48000000001</v>
+        <v>282869.64</v>
       </c>
       <c r="L557" s="3">
         <v>576324</v>
@@ -65011,7 +65011,7 @@
         <v>1</v>
       </c>
       <c r="K558" s="3">
-        <v>200048.57</v>
+        <v>359686.55</v>
       </c>
       <c r="L558" s="3">
         <v>678428</v>
@@ -65120,7 +65120,7 @@
         <v>1</v>
       </c>
       <c r="K559" s="3">
-        <v>232599.96</v>
+        <v>422317.72</v>
       </c>
       <c r="L559" s="3">
         <v>717396</v>
@@ -65229,7 +65229,7 @@
         <v>1</v>
       </c>
       <c r="K560" s="3">
-        <v>309445.34999999998</v>
+        <v>522325.69</v>
       </c>
       <c r="L560" s="3">
         <v>868462</v>
@@ -65338,7 +65338,7 @@
         <v>1</v>
       </c>
       <c r="K561" s="3">
-        <v>355629.04</v>
+        <v>605417.72</v>
       </c>
       <c r="L561" s="3">
         <v>933610</v>
@@ -65447,7 +65447,7 @@
         <v>1</v>
       </c>
       <c r="K562" s="3">
-        <v>399219.57</v>
+        <v>684125.01</v>
       </c>
       <c r="L562" s="3">
         <v>1016846</v>
@@ -65556,7 +65556,7 @@
         <v>1</v>
       </c>
       <c r="K563" s="3">
-        <v>445047.13</v>
+        <v>766999.44</v>
       </c>
       <c r="L563" s="3">
         <v>1074596</v>
@@ -65665,7 +65665,7 @@
         <v>1</v>
       </c>
       <c r="K564" s="3">
-        <v>540356.32999999996</v>
+        <v>911594.23</v>
       </c>
       <c r="L564" s="3">
         <v>1258266</v>
@@ -65771,10 +65771,10 @@
         <v>207</v>
       </c>
       <c r="J565" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K565" s="3">
-        <v>773267.47</v>
+        <v>1316.54</v>
       </c>
       <c r="L565" s="3">
         <v>1603750</v>
@@ -65883,7 +65883,7 @@
         <v>2</v>
       </c>
       <c r="K566" s="3">
-        <v>1005.02</v>
+        <v>1731.94</v>
       </c>
       <c r="L566" s="3">
         <v>2127270</v>
@@ -65992,7 +65992,7 @@
         <v>2</v>
       </c>
       <c r="K567" s="3">
-        <v>1072.44</v>
+        <v>1848.09</v>
       </c>
       <c r="L567" s="3">
         <v>2227284</v>
@@ -66101,7 +66101,7 @@
         <v>2</v>
       </c>
       <c r="K568" s="3">
-        <v>1678.74</v>
+        <v>2906.02</v>
       </c>
       <c r="L568" s="3">
         <v>2814804</v>
@@ -66210,7 +66210,7 @@
         <v>2</v>
       </c>
       <c r="K569" s="3">
-        <v>2070.9699999999998</v>
+        <v>3623.72</v>
       </c>
       <c r="L569" s="3">
         <v>2926472</v>
@@ -66319,7 +66319,7 @@
         <v>2</v>
       </c>
       <c r="K570" s="3">
-        <v>2285.3200000000002</v>
+        <v>4049.53</v>
       </c>
       <c r="L570" s="3">
         <v>2967770</v>
@@ -66428,7 +66428,7 @@
         <v>2</v>
       </c>
       <c r="K571" s="3">
-        <v>2319.33</v>
+        <v>4109.78</v>
       </c>
       <c r="L571" s="3">
         <v>3012020</v>
@@ -66537,7 +66537,7 @@
         <v>2</v>
       </c>
       <c r="K572" s="3">
-        <v>2505.1</v>
+        <v>4438.92</v>
       </c>
       <c r="L572" s="3">
         <v>3130814</v>
@@ -66646,7 +66646,7 @@
         <v>2</v>
       </c>
       <c r="K573" s="3">
-        <v>2553.9899999999998</v>
+        <v>4525.54</v>
       </c>
       <c r="L573" s="3">
         <v>3362800</v>
@@ -66755,7 +66755,7 @@
         <v>2</v>
       </c>
       <c r="K574" s="3">
-        <v>2644.6</v>
+        <v>4658.01</v>
       </c>
       <c r="L574" s="3">
         <v>3690088</v>
@@ -66864,7 +66864,7 @@
         <v>2</v>
       </c>
       <c r="K575" s="3">
-        <v>2951.67</v>
+        <v>5230.2</v>
       </c>
       <c r="L575" s="3">
         <v>3830502</v>
@@ -66973,7 +66973,7 @@
         <v>2</v>
       </c>
       <c r="K576" s="3">
-        <v>3412.15</v>
+        <v>5843.84</v>
       </c>
       <c r="L576" s="3">
         <v>4493070</v>
@@ -67082,7 +67082,7 @@
         <v>2</v>
       </c>
       <c r="K577" s="3">
-        <v>3904.51</v>
+        <v>6735.1</v>
       </c>
       <c r="L577" s="3">
         <v>4548874</v>
@@ -67191,7 +67191,7 @@
         <v>2</v>
       </c>
       <c r="K578" s="3">
-        <v>4836.41</v>
+        <v>8472.9599999999991</v>
       </c>
       <c r="L578" s="3">
         <v>5131868</v>
@@ -67300,7 +67300,7 @@
         <v>2</v>
       </c>
       <c r="K579" s="3">
-        <v>4867.66</v>
+        <v>8527.7000000000007</v>
       </c>
       <c r="L579" s="3">
         <v>5165074</v>
@@ -67409,7 +67409,7 @@
         <v>2</v>
       </c>
       <c r="K580" s="3">
-        <v>5057.8</v>
+        <v>8860.76</v>
       </c>
       <c r="L580" s="3">
         <v>5198278</v>
@@ -67518,7 +67518,7 @@
         <v>2</v>
       </c>
       <c r="K581" s="3">
-        <v>5209.4399999999996</v>
+        <v>9126.42</v>
       </c>
       <c r="L581" s="3">
         <v>5604240</v>
@@ -67627,7 +67627,7 @@
         <v>2</v>
       </c>
       <c r="K582" s="3">
-        <v>5447.17</v>
+        <v>9542.84</v>
       </c>
       <c r="L582" s="3">
         <v>5781320</v>
@@ -67736,7 +67736,7 @@
         <v>2</v>
       </c>
       <c r="K583" s="3">
-        <v>5365.26</v>
+        <v>9335.99</v>
       </c>
       <c r="L583" s="3">
         <v>6107460</v>
@@ -67845,7 +67845,7 @@
         <v>2</v>
       </c>
       <c r="K584" s="3">
-        <v>5793.79</v>
+        <v>10150.1</v>
       </c>
       <c r="L584" s="3">
         <v>6149580</v>
@@ -67954,7 +67954,7 @@
         <v>2</v>
       </c>
       <c r="K585" s="3">
-        <v>5825.13</v>
+        <v>10205.01</v>
       </c>
       <c r="L585" s="3">
         <v>6191700</v>
@@ -68063,7 +68063,7 @@
         <v>2</v>
       </c>
       <c r="K586" s="3">
-        <v>5860.6</v>
+        <v>10267.14</v>
       </c>
       <c r="L586" s="3">
         <v>6229432</v>
@@ -68172,7 +68172,7 @@
         <v>2</v>
       </c>
       <c r="K587" s="3">
-        <v>5896.07</v>
+        <v>10329.27</v>
       </c>
       <c r="L587" s="3">
         <v>6267166</v>
@@ -68281,7 +68281,7 @@
         <v>2</v>
       </c>
       <c r="K588" s="3">
-        <v>5974.93</v>
+        <v>10401.44</v>
       </c>
       <c r="L588" s="3">
         <v>6780556</v>
@@ -68390,7 +68390,7 @@
         <v>2</v>
       </c>
       <c r="K589" s="3">
-        <v>6417.66</v>
+        <v>11243.05</v>
       </c>
       <c r="L589" s="3">
         <v>6820634</v>
@@ -68499,7 +68499,7 @@
         <v>2</v>
       </c>
       <c r="K590" s="3">
-        <v>6455.34</v>
+        <v>11309.06</v>
       </c>
       <c r="L590" s="3">
         <v>6860712</v>
@@ -68608,7 +68608,7 @@
         <v>2</v>
       </c>
       <c r="K591" s="3">
-        <v>6634.16</v>
+        <v>11622.33</v>
       </c>
       <c r="L591" s="3">
         <v>7050808</v>
@@ -68717,7 +68717,7 @@
         <v>2</v>
       </c>
       <c r="K592" s="3">
-        <v>6672.66</v>
+        <v>11689.77</v>
       </c>
       <c r="L592" s="3">
         <v>7091756</v>
@@ -68826,7 +68826,7 @@
         <v>2</v>
       </c>
       <c r="K593" s="3">
-        <v>6548.29</v>
+        <v>11386.16</v>
       </c>
       <c r="L593" s="3">
         <v>7518644</v>
@@ -68935,7 +68935,7 @@
         <v>2</v>
       </c>
       <c r="K594" s="3">
-        <v>7265.68</v>
+        <v>12728.71</v>
       </c>
       <c r="L594" s="3">
         <v>7721840</v>
@@ -69044,7 +69044,7 @@
         <v>2</v>
       </c>
       <c r="K595" s="3">
-        <v>7306.32</v>
+        <v>12799.9</v>
       </c>
       <c r="L595" s="3">
         <v>7765064</v>
@@ -69153,7 +69153,7 @@
         <v>2</v>
       </c>
       <c r="K596" s="3">
-        <v>7351.36</v>
+        <v>12878.79</v>
       </c>
       <c r="L596" s="3">
         <v>7812968</v>
@@ -69262,7 +69262,7 @@
         <v>2</v>
       </c>
       <c r="K597" s="3">
-        <v>7400.8</v>
+        <v>12965.39</v>
       </c>
       <c r="L597" s="3">
         <v>7865554</v>
@@ -69371,7 +69371,7 @@
         <v>2</v>
       </c>
       <c r="K598" s="3">
-        <v>7503.91</v>
+        <v>13146.01</v>
       </c>
       <c r="L598" s="3">
         <v>7976170</v>
@@ -69480,7 +69480,7 @@
         <v>0</v>
       </c>
       <c r="K599" s="3">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="L599" s="3">
         <v>20</v>
@@ -69589,7 +69589,7 @@
         <v>0</v>
       </c>
       <c r="K600" s="3">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="L600" s="3">
         <v>20</v>
@@ -69698,7 +69698,7 @@
         <v>0</v>
       </c>
       <c r="K601" s="3">
-        <v>510</v>
+        <v>452</v>
       </c>
       <c r="L601" s="3">
         <v>48</v>
@@ -69807,7 +69807,7 @@
         <v>0</v>
       </c>
       <c r="K602" s="3">
-        <v>510</v>
+        <v>452</v>
       </c>
       <c r="L602" s="3">
         <v>48</v>
@@ -69916,7 +69916,7 @@
         <v>0</v>
       </c>
       <c r="K603" s="3">
-        <v>510</v>
+        <v>452</v>
       </c>
       <c r="L603" s="3">
         <v>48</v>
@@ -70025,7 +70025,7 @@
         <v>0</v>
       </c>
       <c r="K604" s="3">
-        <v>517</v>
+        <v>258</v>
       </c>
       <c r="L604" s="3">
         <v>48</v>
@@ -70134,7 +70134,7 @@
         <v>0</v>
       </c>
       <c r="K605" s="3">
-        <v>1035</v>
+        <v>517</v>
       </c>
       <c r="L605" s="3">
         <v>76</v>
@@ -70243,7 +70243,7 @@
         <v>0</v>
       </c>
       <c r="K606" s="3">
-        <v>1035</v>
+        <v>517</v>
       </c>
       <c r="L606" s="3">
         <v>76</v>
@@ -70352,7 +70352,7 @@
         <v>0</v>
       </c>
       <c r="K607" s="3">
-        <v>2587</v>
+        <v>1293</v>
       </c>
       <c r="L607" s="3">
         <v>119</v>
@@ -70461,7 +70461,7 @@
         <v>0</v>
       </c>
       <c r="K608" s="3">
-        <v>2587</v>
+        <v>1293</v>
       </c>
       <c r="L608" s="3">
         <v>119</v>
@@ -70570,7 +70570,7 @@
         <v>0</v>
       </c>
       <c r="K609" s="3">
-        <v>4416</v>
+        <v>2208</v>
       </c>
       <c r="L609" s="3">
         <v>128</v>
@@ -70679,7 +70679,7 @@
         <v>0</v>
       </c>
       <c r="K610" s="3">
-        <v>5520</v>
+        <v>2760</v>
       </c>
       <c r="L610" s="3">
         <v>265</v>
@@ -70788,7 +70788,7 @@
         <v>0</v>
       </c>
       <c r="K611" s="3">
-        <v>5520</v>
+        <v>2760</v>
       </c>
       <c r="L611" s="3">
         <v>280</v>
@@ -70897,7 +70897,7 @@
         <v>0</v>
       </c>
       <c r="K612" s="3">
-        <v>5520</v>
+        <v>2760</v>
       </c>
       <c r="L612" s="3">
         <v>306</v>
@@ -71006,7 +71006,7 @@
         <v>0</v>
       </c>
       <c r="K613" s="3">
-        <v>5520</v>
+        <v>2760</v>
       </c>
       <c r="L613" s="3">
         <v>341</v>
@@ -71115,7 +71115,7 @@
         <v>0</v>
       </c>
       <c r="K614" s="3">
-        <v>7335</v>
+        <v>4575</v>
       </c>
       <c r="L614" s="3">
         <v>372</v>
@@ -71224,7 +71224,7 @@
         <v>0</v>
       </c>
       <c r="K615" s="3">
-        <v>7335</v>
+        <v>4575</v>
       </c>
       <c r="L615" s="3">
         <v>377</v>
@@ -71333,7 +71333,7 @@
         <v>0</v>
       </c>
       <c r="K616" s="3">
-        <v>7335</v>
+        <v>4575</v>
       </c>
       <c r="L616" s="3">
         <v>387</v>
@@ -71442,7 +71442,7 @@
         <v>0</v>
       </c>
       <c r="K617" s="3">
-        <v>7335</v>
+        <v>4575</v>
       </c>
       <c r="L617" s="3">
         <v>400</v>
@@ -71551,7 +71551,7 @@
         <v>0</v>
       </c>
       <c r="K618" s="3">
-        <v>26655</v>
+        <v>14235</v>
       </c>
       <c r="L618" s="3">
         <v>400</v>
@@ -71660,7 +71660,7 @@
         <v>0</v>
       </c>
       <c r="K619" s="3">
-        <v>28155</v>
+        <v>15045</v>
       </c>
       <c r="L619" s="3">
         <v>441</v>
@@ -71769,7 +71769,7 @@
         <v>0</v>
       </c>
       <c r="K620" s="3">
-        <v>38059</v>
+        <v>20084</v>
       </c>
       <c r="L620" s="3">
         <v>711</v>
@@ -71878,7 +71878,7 @@
         <v>0</v>
       </c>
       <c r="K621" s="3">
-        <v>44577</v>
+        <v>23601</v>
       </c>
       <c r="L621" s="3">
         <v>726</v>
@@ -71987,7 +71987,7 @@
         <v>0</v>
       </c>
       <c r="K622" s="3">
-        <v>44577</v>
+        <v>23601</v>
       </c>
       <c r="L622" s="3">
         <v>726</v>
@@ -72096,7 +72096,7 @@
         <v>0</v>
       </c>
       <c r="K623" s="3">
-        <v>50166</v>
+        <v>26407</v>
       </c>
       <c r="L623" s="3">
         <v>726</v>
@@ -72205,7 +72205,7 @@
         <v>0</v>
       </c>
       <c r="K624" s="3">
-        <v>83463</v>
+        <v>32541</v>
       </c>
       <c r="L624" s="3">
         <v>750</v>
@@ -72314,7 +72314,7 @@
         <v>0</v>
       </c>
       <c r="K625" s="3">
-        <v>97534</v>
+        <v>38263</v>
       </c>
       <c r="L625" s="3">
         <v>1207</v>
@@ -72423,7 +72423,7 @@
         <v>0</v>
       </c>
       <c r="K626" s="3">
-        <v>106849</v>
+        <v>41368</v>
       </c>
       <c r="L626" s="3">
         <v>1246</v>
@@ -72532,7 +72532,7 @@
         <v>0</v>
       </c>
       <c r="K627" s="3">
-        <v>106849</v>
+        <v>41368</v>
       </c>
       <c r="L627" s="3">
         <v>1246</v>
@@ -72641,7 +72641,7 @@
         <v>0</v>
       </c>
       <c r="K628" s="3">
-        <v>106849</v>
+        <v>41368</v>
       </c>
       <c r="L628" s="3">
         <v>1246</v>
@@ -72750,7 +72750,7 @@
         <v>0</v>
       </c>
       <c r="K629" s="3">
-        <v>106849</v>
+        <v>41368</v>
       </c>
       <c r="L629" s="3">
         <v>1325</v>
@@ -72859,7 +72859,7 @@
         <v>0</v>
       </c>
       <c r="K630" s="3">
-        <v>106849</v>
+        <v>41368</v>
       </c>
       <c r="L630" s="3">
         <v>2024</v>
@@ -72968,7 +72968,7 @@
         <v>0</v>
       </c>
       <c r="K631" s="3">
-        <v>114673</v>
+        <v>45190</v>
       </c>
       <c r="L631" s="3">
         <v>2490</v>
@@ -73077,7 +73077,7 @@
         <v>0</v>
       </c>
       <c r="K632" s="3">
-        <v>147344</v>
+        <v>58472</v>
       </c>
       <c r="L632" s="3">
         <v>3174</v>
@@ -73186,7 +73186,7 @@
         <v>0</v>
       </c>
       <c r="K633" s="3">
-        <v>147344</v>
+        <v>58472</v>
       </c>
       <c r="L633" s="3">
         <v>3174</v>
@@ -73295,7 +73295,7 @@
         <v>0</v>
       </c>
       <c r="K634" s="3">
-        <v>179133</v>
+        <v>93331</v>
       </c>
       <c r="L634" s="3">
         <v>3224</v>
@@ -73404,7 +73404,7 @@
         <v>0</v>
       </c>
       <c r="K635" s="3">
-        <v>212045</v>
+        <v>110115</v>
       </c>
       <c r="L635" s="3">
         <v>3480</v>
@@ -73513,7 +73513,7 @@
         <v>0</v>
       </c>
       <c r="K636" s="3">
-        <v>229227</v>
+        <v>119068</v>
       </c>
       <c r="L636" s="3">
         <v>4098</v>
@@ -73622,7 +73622,7 @@
         <v>0</v>
       </c>
       <c r="K637" s="3">
-        <v>255247</v>
+        <v>132078</v>
       </c>
       <c r="L637" s="3">
         <v>4138</v>
@@ -73731,7 +73731,7 @@
         <v>0</v>
       </c>
       <c r="K638" s="3">
-        <v>327056</v>
+        <v>171070</v>
       </c>
       <c r="L638" s="3">
         <v>5174</v>
@@ -73840,7 +73840,7 @@
         <v>0</v>
       </c>
       <c r="K639" s="3">
-        <v>416759</v>
+        <v>217290</v>
       </c>
       <c r="L639" s="3">
         <v>5230</v>
@@ -73949,7 +73949,7 @@
         <v>0</v>
       </c>
       <c r="K640" s="3">
-        <v>324014</v>
+        <v>169741</v>
       </c>
       <c r="L640" s="3">
         <v>5443</v>
@@ -74058,7 +74058,7 @@
         <v>0</v>
       </c>
       <c r="K641" s="3">
-        <v>348601</v>
+        <v>182648</v>
       </c>
       <c r="L641" s="3">
         <v>5853</v>
@@ -74167,7 +74167,7 @@
         <v>0</v>
       </c>
       <c r="K642" s="3">
-        <v>365325</v>
+        <v>191412</v>
       </c>
       <c r="L642" s="3">
         <v>6086</v>
@@ -74276,7 +74276,7 @@
         <v>0</v>
       </c>
       <c r="K643" s="3">
-        <v>383334</v>
+        <v>200613</v>
       </c>
       <c r="L643" s="3">
         <v>6160</v>
@@ -74385,7 +74385,7 @@
         <v>0</v>
       </c>
       <c r="K644" s="3">
-        <v>531196</v>
+        <v>293498</v>
       </c>
       <c r="L644" s="3">
         <v>7950</v>
@@ -74494,7 +74494,7 @@
         <v>0</v>
       </c>
       <c r="K645" s="3">
-        <v>899573</v>
+        <v>477930</v>
       </c>
       <c r="L645" s="3">
         <v>9274</v>
@@ -74600,10 +74600,10 @@
         <v>200</v>
       </c>
       <c r="J646" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K646" s="3">
-        <v>1472.88</v>
+        <v>739916</v>
       </c>
       <c r="L646" s="3">
         <v>11354</v>
@@ -74709,10 +74709,10 @@
         <v>200</v>
       </c>
       <c r="J647" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K647" s="3">
-        <v>1633.25</v>
+        <v>820626</v>
       </c>
       <c r="L647" s="3">
         <v>12624</v>
@@ -74821,7 +74821,7 @@
         <v>1</v>
       </c>
       <c r="K648" s="3">
-        <v>2346.23</v>
+        <v>1195.8499999999999</v>
       </c>
       <c r="L648" s="3">
         <v>14296</v>
@@ -74930,7 +74930,7 @@
         <v>1</v>
       </c>
       <c r="K649" s="3">
-        <v>2462.81</v>
+        <v>1255.3599999999999</v>
       </c>
       <c r="L649" s="3">
         <v>15084</v>
@@ -75039,7 +75039,7 @@
         <v>1</v>
       </c>
       <c r="K650" s="3">
-        <v>5076.4799999999996</v>
+        <v>2422.35</v>
       </c>
       <c r="L650" s="3">
         <v>25469</v>
@@ -75148,7 +75148,7 @@
         <v>1</v>
       </c>
       <c r="K651" s="3">
-        <v>6529.05</v>
+        <v>3136.49</v>
       </c>
       <c r="L651" s="3">
         <v>30035</v>
@@ -75257,7 +75257,7 @@
         <v>1</v>
       </c>
       <c r="K652" s="3">
-        <v>7294.19</v>
+        <v>3524.84</v>
       </c>
       <c r="L652" s="3">
         <v>33765</v>
@@ -75366,7 +75366,7 @@
         <v>1</v>
       </c>
       <c r="K653" s="3">
-        <v>8914.2800000000007</v>
+        <v>4343.22</v>
       </c>
       <c r="L653" s="3">
         <v>40533</v>
@@ -75475,7 +75475,7 @@
         <v>1</v>
       </c>
       <c r="K654" s="3">
-        <v>14831.11</v>
+        <v>7292.2</v>
       </c>
       <c r="L654" s="3">
         <v>50951</v>
@@ -75584,7 +75584,7 @@
         <v>1</v>
       </c>
       <c r="K655" s="3">
-        <v>17601.8</v>
+        <v>8712.11</v>
       </c>
       <c r="L655" s="3">
         <v>70204</v>
@@ -75693,7 +75693,7 @@
         <v>1</v>
       </c>
       <c r="K656" s="3">
-        <v>19319.669999999998</v>
+        <v>9560.69</v>
       </c>
       <c r="L656" s="3">
         <v>76588</v>
@@ -75802,7 +75802,7 @@
         <v>1</v>
       </c>
       <c r="K657" s="3">
-        <v>20059.669999999998</v>
+        <v>9926.86</v>
       </c>
       <c r="L657" s="3">
         <v>80182</v>
@@ -75911,7 +75911,7 @@
         <v>1</v>
       </c>
       <c r="K658" s="3">
-        <v>21996.95</v>
+        <v>10885.05</v>
       </c>
       <c r="L658" s="3">
         <v>88534</v>
@@ -76020,7 +76020,7 @@
         <v>1</v>
       </c>
       <c r="K659" s="3">
-        <v>22792.69</v>
+        <v>11278.61</v>
       </c>
       <c r="L659" s="3">
         <v>92369</v>
@@ -76129,7 +76129,7 @@
         <v>1</v>
       </c>
       <c r="K660" s="3">
-        <v>39812.81</v>
+        <v>19444.849999999999</v>
       </c>
       <c r="L660" s="3">
         <v>104242</v>
@@ -76238,7 +76238,7 @@
         <v>1</v>
       </c>
       <c r="K661" s="3">
-        <v>46178.1</v>
+        <v>22779.81</v>
       </c>
       <c r="L661" s="3">
         <v>114878</v>
@@ -76347,7 +76347,7 @@
         <v>1</v>
       </c>
       <c r="K662" s="3">
-        <v>53919.5</v>
+        <v>26549.64</v>
       </c>
       <c r="L662" s="3">
         <v>123958</v>
@@ -76456,7 +76456,7 @@
         <v>1</v>
       </c>
       <c r="K663" s="3">
-        <v>59042.83</v>
+        <v>29125.32</v>
       </c>
       <c r="L663" s="3">
         <v>133124</v>
@@ -76565,7 +76565,7 @@
         <v>1</v>
       </c>
       <c r="K664" s="3">
-        <v>65380.82</v>
+        <v>32249.75</v>
       </c>
       <c r="L664" s="3">
         <v>139030</v>
@@ -76674,7 +76674,7 @@
         <v>1</v>
       </c>
       <c r="K665" s="3">
-        <v>77143.5</v>
+        <v>38050</v>
       </c>
       <c r="L665" s="3">
         <v>157965</v>
@@ -76783,7 +76783,7 @@
         <v>1</v>
       </c>
       <c r="K666" s="3">
-        <v>83591.759999999995</v>
+        <v>41229.629999999997</v>
       </c>
       <c r="L666" s="3">
         <v>188418</v>
@@ -76892,7 +76892,7 @@
         <v>1</v>
       </c>
       <c r="K667" s="3">
-        <v>82998.89</v>
+        <v>40488.93</v>
       </c>
       <c r="L667" s="3">
         <v>217296</v>
@@ -77001,7 +77001,7 @@
         <v>1</v>
       </c>
       <c r="K668" s="3">
-        <v>98744.9</v>
+        <v>48700.28</v>
       </c>
       <c r="L668" s="3">
         <v>242248</v>
@@ -77110,7 +77110,7 @@
         <v>1</v>
       </c>
       <c r="K669" s="3">
-        <v>109836.5</v>
+        <v>54170.96</v>
       </c>
       <c r="L669" s="3">
         <v>247220</v>
@@ -77219,7 +77219,7 @@
         <v>1</v>
       </c>
       <c r="K670" s="3">
-        <v>113149.8</v>
+        <v>55804.69</v>
       </c>
       <c r="L670" s="3">
         <v>254002</v>
@@ -77328,7 +77328,7 @@
         <v>1</v>
       </c>
       <c r="K671" s="3">
-        <v>130163.25</v>
+        <v>64193.74</v>
       </c>
       <c r="L671" s="3">
         <v>269386</v>
@@ -77437,7 +77437,7 @@
         <v>1</v>
       </c>
       <c r="K672" s="3">
-        <v>184024.51</v>
+        <v>89115.86</v>
       </c>
       <c r="L672" s="3">
         <v>393258</v>
@@ -77546,7 +77546,7 @@
         <v>1</v>
       </c>
       <c r="K673" s="3">
-        <v>225340.34</v>
+        <v>110781.05</v>
       </c>
       <c r="L673" s="3">
         <v>420850</v>
@@ -77655,7 +77655,7 @@
         <v>1</v>
       </c>
       <c r="K674" s="3">
-        <v>253578.68</v>
+        <v>124698.77</v>
       </c>
       <c r="L674" s="3">
         <v>436056</v>
@@ -77764,7 +77764,7 @@
         <v>1</v>
       </c>
       <c r="K675" s="3">
-        <v>257928</v>
+        <v>126454.2</v>
       </c>
       <c r="L675" s="3">
         <v>468226</v>
@@ -77873,7 +77873,7 @@
         <v>1</v>
       </c>
       <c r="K676" s="3">
-        <v>302383.19</v>
+        <v>148033.76</v>
       </c>
       <c r="L676" s="3">
         <v>576324</v>
@@ -77982,7 +77982,7 @@
         <v>1</v>
       </c>
       <c r="K677" s="3">
-        <v>381537.31</v>
+        <v>189328.17</v>
       </c>
       <c r="L677" s="3">
         <v>678428</v>
@@ -78091,7 +78091,7 @@
         <v>1</v>
       </c>
       <c r="K678" s="3">
-        <v>445769.61</v>
+        <v>221094.01</v>
       </c>
       <c r="L678" s="3">
         <v>717396</v>
@@ -78200,7 +78200,7 @@
         <v>1</v>
       </c>
       <c r="K679" s="3">
-        <v>595069.15</v>
+        <v>274009.40000000002</v>
       </c>
       <c r="L679" s="3">
         <v>868462</v>
@@ -78309,7 +78309,7 @@
         <v>1</v>
       </c>
       <c r="K680" s="3">
-        <v>679904.09</v>
+        <v>319344.06</v>
       </c>
       <c r="L680" s="3">
         <v>933610</v>
@@ -78418,7 +78418,7 @@
         <v>1</v>
       </c>
       <c r="K681" s="3">
-        <v>766629.24</v>
+        <v>359028.78</v>
       </c>
       <c r="L681" s="3">
         <v>1016846</v>
@@ -78527,7 +78527,7 @@
         <v>1</v>
       </c>
       <c r="K682" s="3">
-        <v>854181.39</v>
+        <v>402577.68</v>
       </c>
       <c r="L682" s="3">
         <v>1074596</v>
@@ -78633,10 +78633,10 @@
         <v>207</v>
       </c>
       <c r="J683" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K683" s="3">
-        <v>1039.1500000000001</v>
+        <v>478216.97</v>
       </c>
       <c r="L683" s="3">
         <v>1258266</v>
@@ -78742,10 +78742,10 @@
         <v>207</v>
       </c>
       <c r="J684" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K684" s="3">
-        <v>1478.45</v>
+        <v>694398.61</v>
       </c>
       <c r="L684" s="3">
         <v>1603750</v>
@@ -78851,10 +78851,10 @@
         <v>207</v>
       </c>
       <c r="J685" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K685" s="3">
-        <v>1928.93</v>
+        <v>909056.25</v>
       </c>
       <c r="L685" s="3">
         <v>2127270</v>
@@ -78960,10 +78960,10 @@
         <v>207</v>
       </c>
       <c r="J686" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K686" s="3">
-        <v>2058.3200000000002</v>
+        <v>970023.63</v>
       </c>
       <c r="L686" s="3">
         <v>2227284</v>
@@ -79072,7 +79072,7 @@
         <v>2</v>
       </c>
       <c r="K687" s="3">
-        <v>3239.92</v>
+        <v>1515.21</v>
       </c>
       <c r="L687" s="3">
         <v>2814804</v>
@@ -79181,7 +79181,7 @@
         <v>2</v>
       </c>
       <c r="K688" s="3">
-        <v>3970.86</v>
+        <v>1900.95</v>
       </c>
       <c r="L688" s="3">
         <v>2926472</v>
@@ -79290,7 +79290,7 @@
         <v>2</v>
       </c>
       <c r="K689" s="3">
-        <v>4401.92</v>
+        <v>2112.73</v>
       </c>
       <c r="L689" s="3">
         <v>2967770</v>
@@ -79399,7 +79399,7 @@
         <v>2</v>
       </c>
       <c r="K690" s="3">
-        <v>4467.42</v>
+        <v>2144.16</v>
       </c>
       <c r="L690" s="3">
         <v>3012020</v>
@@ -79508,7 +79508,7 @@
         <v>2</v>
       </c>
       <c r="K691" s="3">
-        <v>4825.25</v>
+        <v>2315.89</v>
       </c>
       <c r="L691" s="3">
         <v>3130814</v>
@@ -79617,7 +79617,7 @@
         <v>2</v>
       </c>
       <c r="K692" s="3">
-        <v>4919.42</v>
+        <v>2361.08</v>
       </c>
       <c r="L692" s="3">
         <v>3362800</v>
@@ -79726,7 +79726,7 @@
         <v>2</v>
       </c>
       <c r="K693" s="3">
-        <v>5096.55</v>
+        <v>2429.8200000000002</v>
       </c>
       <c r="L693" s="3">
         <v>3690088</v>
@@ -79835,7 +79835,7 @@
         <v>2</v>
       </c>
       <c r="K694" s="3">
-        <v>5685.42</v>
+        <v>2728.72</v>
       </c>
       <c r="L694" s="3">
         <v>3830502</v>
@@ -79944,7 +79944,7 @@
         <v>2</v>
       </c>
       <c r="K695" s="3">
-        <v>6588.35</v>
+        <v>3045.36</v>
       </c>
       <c r="L695" s="3">
         <v>4493070</v>
@@ -80053,7 +80053,7 @@
         <v>2</v>
       </c>
       <c r="K696" s="3">
-        <v>7488.86</v>
+        <v>3533.16</v>
       </c>
       <c r="L696" s="3">
         <v>4548874</v>
@@ -80162,7 +80162,7 @@
         <v>2</v>
       </c>
       <c r="K697" s="3">
-        <v>9323.31</v>
+        <v>4417.47</v>
       </c>
       <c r="L697" s="3">
         <v>5131868</v>
@@ -80271,7 +80271,7 @@
         <v>2</v>
       </c>
       <c r="K698" s="3">
-        <v>9383.56</v>
+        <v>4446.0200000000004</v>
       </c>
       <c r="L698" s="3">
         <v>5165074</v>
@@ -80380,7 +80380,7 @@
         <v>2</v>
       </c>
       <c r="K699" s="3">
-        <v>9750.09</v>
+        <v>4619.67</v>
       </c>
       <c r="L699" s="3">
         <v>5198278</v>
@@ -80489,7 +80489,7 @@
         <v>2</v>
       </c>
       <c r="K700" s="3">
-        <v>10042.42</v>
+        <v>4758.17</v>
       </c>
       <c r="L700" s="3">
         <v>5604240</v>
@@ -80598,7 +80598,7 @@
         <v>2</v>
       </c>
       <c r="K701" s="3">
-        <v>10500.68</v>
+        <v>4975.28</v>
       </c>
       <c r="L701" s="3">
         <v>5781320</v>
@@ -80707,7 +80707,7 @@
         <v>2</v>
       </c>
       <c r="K702" s="3">
-        <v>10347.790000000001</v>
+        <v>4866.79</v>
       </c>
       <c r="L702" s="3">
         <v>6107460</v>
@@ -80816,7 +80816,7 @@
         <v>2</v>
       </c>
       <c r="K703" s="3">
-        <v>11168.87</v>
+        <v>5291.88</v>
       </c>
       <c r="L703" s="3">
         <v>6149580</v>
@@ -80925,7 +80925,7 @@
         <v>2</v>
       </c>
       <c r="K704" s="3">
-        <v>11229.3</v>
+        <v>5320.51</v>
       </c>
       <c r="L704" s="3">
         <v>6191700</v>
@@ -81034,7 +81034,7 @@
         <v>2</v>
       </c>
       <c r="K705" s="3">
-        <v>11297.67</v>
+        <v>5352.9</v>
       </c>
       <c r="L705" s="3">
         <v>6229432</v>
@@ -81143,7 +81143,7 @@
         <v>2</v>
       </c>
       <c r="K706" s="3">
-        <v>11366.04</v>
+        <v>5385.29</v>
       </c>
       <c r="L706" s="3">
         <v>6267166</v>
@@ -81252,7 +81252,7 @@
         <v>2</v>
       </c>
       <c r="K707" s="3">
-        <v>11523.28</v>
+        <v>5422.25</v>
       </c>
       <c r="L707" s="3">
         <v>6780556</v>
@@ -81361,7 +81361,7 @@
         <v>2</v>
       </c>
       <c r="K708" s="3">
-        <v>12371.53</v>
+        <v>5861.7</v>
       </c>
       <c r="L708" s="3">
         <v>6820634</v>
@@ -81470,7 +81470,7 @@
         <v>2</v>
       </c>
       <c r="K709" s="3">
-        <v>12444.17</v>
+        <v>5896.12</v>
       </c>
       <c r="L709" s="3">
         <v>6860712</v>
@@ -81579,7 +81579,7 @@
         <v>2</v>
       </c>
       <c r="K710" s="3">
-        <v>12788.89</v>
+        <v>6059.45</v>
       </c>
       <c r="L710" s="3">
         <v>7050808</v>
@@ -81688,7 +81688,7 @@
         <v>2</v>
       </c>
       <c r="K711" s="3">
-        <v>12863.11</v>
+        <v>6094.61</v>
       </c>
       <c r="L711" s="3">
         <v>7091756</v>
@@ -81797,7 +81797,7 @@
         <v>2</v>
       </c>
       <c r="K712" s="3">
-        <v>12630.12</v>
+        <v>5935.44</v>
       </c>
       <c r="L712" s="3">
         <v>7518644</v>
@@ -81906,7 +81906,7 @@
         <v>2</v>
       </c>
       <c r="K713" s="3">
-        <v>14006.29</v>
+        <v>6636.27</v>
       </c>
       <c r="L713" s="3">
         <v>7721840</v>
@@ -82015,7 +82015,7 @@
         <v>2</v>
       </c>
       <c r="K714" s="3">
-        <v>14084.64</v>
+        <v>6673.38</v>
       </c>
       <c r="L714" s="3">
         <v>7765064</v>
@@ -82124,7 +82124,7 @@
         <v>2</v>
       </c>
       <c r="K715" s="3">
-        <v>14171.46</v>
+        <v>6714.52</v>
       </c>
       <c r="L715" s="3">
         <v>7812968</v>
@@ -82233,7 +82233,7 @@
         <v>2</v>
       </c>
       <c r="K716" s="3">
-        <v>14266.76</v>
+        <v>6759.67</v>
       </c>
       <c r="L716" s="3">
         <v>7865554</v>
@@ -82342,7 +82342,7 @@
         <v>2</v>
       </c>
       <c r="K717" s="3">
-        <v>14465.53</v>
+        <v>6853.84</v>
       </c>
       <c r="L717" s="3">
         <v>7976170</v>

--- a/Excel/monster.怪物.xlsx
+++ b/Excel/monster.怪物.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E823362-4299-4815-8129-4D8226CE13D3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB7AC42-AFD9-4176-A324-BAF128579800}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4192,10 +4192,10 @@
   <dimension ref="A1:AO717"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="H595" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="H586" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J599" sqref="J599:K717"/>
+      <selection pane="bottomRight" activeCell="J480" sqref="J480:K598"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -56509,7 +56509,7 @@
         <v>0</v>
       </c>
       <c r="K480" s="3">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="L480" s="3">
         <v>20</v>
@@ -56618,7 +56618,7 @@
         <v>0</v>
       </c>
       <c r="K481" s="3">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="L481" s="3">
         <v>20</v>
@@ -56727,7 +56727,7 @@
         <v>0</v>
       </c>
       <c r="K482" s="3">
-        <v>510</v>
+        <v>452</v>
       </c>
       <c r="L482" s="3">
         <v>48</v>
@@ -56836,7 +56836,7 @@
         <v>0</v>
       </c>
       <c r="K483" s="3">
-        <v>510</v>
+        <v>452</v>
       </c>
       <c r="L483" s="3">
         <v>48</v>
@@ -56945,7 +56945,7 @@
         <v>0</v>
       </c>
       <c r="K484" s="3">
-        <v>510</v>
+        <v>452</v>
       </c>
       <c r="L484" s="3">
         <v>48</v>
@@ -57054,7 +57054,7 @@
         <v>0</v>
       </c>
       <c r="K485" s="3">
-        <v>517</v>
+        <v>258</v>
       </c>
       <c r="L485" s="3">
         <v>48</v>
@@ -57163,7 +57163,7 @@
         <v>0</v>
       </c>
       <c r="K486" s="3">
-        <v>1035</v>
+        <v>517</v>
       </c>
       <c r="L486" s="3">
         <v>76</v>
@@ -57272,7 +57272,7 @@
         <v>0</v>
       </c>
       <c r="K487" s="3">
-        <v>1035</v>
+        <v>517</v>
       </c>
       <c r="L487" s="3">
         <v>76</v>
@@ -57381,7 +57381,7 @@
         <v>0</v>
       </c>
       <c r="K488" s="3">
-        <v>2587</v>
+        <v>1293</v>
       </c>
       <c r="L488" s="3">
         <v>119</v>
@@ -57490,7 +57490,7 @@
         <v>0</v>
       </c>
       <c r="K489" s="3">
-        <v>2587</v>
+        <v>1293</v>
       </c>
       <c r="L489" s="3">
         <v>119</v>
@@ -57599,7 +57599,7 @@
         <v>0</v>
       </c>
       <c r="K490" s="3">
-        <v>4416</v>
+        <v>2208</v>
       </c>
       <c r="L490" s="3">
         <v>128</v>
@@ -57708,7 +57708,7 @@
         <v>0</v>
       </c>
       <c r="K491" s="3">
-        <v>5520</v>
+        <v>2760</v>
       </c>
       <c r="L491" s="3">
         <v>265</v>
@@ -57817,7 +57817,7 @@
         <v>0</v>
       </c>
       <c r="K492" s="3">
-        <v>5520</v>
+        <v>2760</v>
       </c>
       <c r="L492" s="3">
         <v>280</v>
@@ -57926,7 +57926,7 @@
         <v>0</v>
       </c>
       <c r="K493" s="3">
-        <v>5520</v>
+        <v>2760</v>
       </c>
       <c r="L493" s="3">
         <v>306</v>
@@ -58035,7 +58035,7 @@
         <v>0</v>
       </c>
       <c r="K494" s="3">
-        <v>5520</v>
+        <v>2760</v>
       </c>
       <c r="L494" s="3">
         <v>341</v>
@@ -58144,7 +58144,7 @@
         <v>0</v>
       </c>
       <c r="K495" s="3">
-        <v>7335</v>
+        <v>4575</v>
       </c>
       <c r="L495" s="3">
         <v>372</v>
@@ -58253,7 +58253,7 @@
         <v>0</v>
       </c>
       <c r="K496" s="3">
-        <v>7335</v>
+        <v>4575</v>
       </c>
       <c r="L496" s="3">
         <v>377</v>
@@ -58362,7 +58362,7 @@
         <v>0</v>
       </c>
       <c r="K497" s="3">
-        <v>7335</v>
+        <v>4575</v>
       </c>
       <c r="L497" s="3">
         <v>387</v>
@@ -58471,7 +58471,7 @@
         <v>0</v>
       </c>
       <c r="K498" s="3">
-        <v>7335</v>
+        <v>4575</v>
       </c>
       <c r="L498" s="3">
         <v>400</v>
@@ -58580,7 +58580,7 @@
         <v>0</v>
       </c>
       <c r="K499" s="3">
-        <v>26655</v>
+        <v>14235</v>
       </c>
       <c r="L499" s="3">
         <v>400</v>
@@ -58689,7 +58689,7 @@
         <v>0</v>
       </c>
       <c r="K500" s="3">
-        <v>28155</v>
+        <v>15045</v>
       </c>
       <c r="L500" s="3">
         <v>441</v>
@@ -58798,7 +58798,7 @@
         <v>0</v>
       </c>
       <c r="K501" s="3">
-        <v>38059</v>
+        <v>20084</v>
       </c>
       <c r="L501" s="3">
         <v>711</v>
@@ -58907,7 +58907,7 @@
         <v>0</v>
       </c>
       <c r="K502" s="3">
-        <v>44577</v>
+        <v>23601</v>
       </c>
       <c r="L502" s="3">
         <v>726</v>
@@ -59016,7 +59016,7 @@
         <v>0</v>
       </c>
       <c r="K503" s="3">
-        <v>44577</v>
+        <v>23601</v>
       </c>
       <c r="L503" s="3">
         <v>726</v>
@@ -59125,7 +59125,7 @@
         <v>0</v>
       </c>
       <c r="K504" s="3">
-        <v>50166</v>
+        <v>26407</v>
       </c>
       <c r="L504" s="3">
         <v>726</v>
@@ -59234,7 +59234,7 @@
         <v>0</v>
       </c>
       <c r="K505" s="3">
-        <v>83463</v>
+        <v>32541</v>
       </c>
       <c r="L505" s="3">
         <v>750</v>
@@ -59343,7 +59343,7 @@
         <v>0</v>
       </c>
       <c r="K506" s="3">
-        <v>97534</v>
+        <v>38263</v>
       </c>
       <c r="L506" s="3">
         <v>1207</v>
@@ -59452,7 +59452,7 @@
         <v>0</v>
       </c>
       <c r="K507" s="3">
-        <v>106849</v>
+        <v>41368</v>
       </c>
       <c r="L507" s="3">
         <v>1246</v>
@@ -59561,7 +59561,7 @@
         <v>0</v>
       </c>
       <c r="K508" s="3">
-        <v>106849</v>
+        <v>41368</v>
       </c>
       <c r="L508" s="3">
         <v>1246</v>
@@ -59670,7 +59670,7 @@
         <v>0</v>
       </c>
       <c r="K509" s="3">
-        <v>106849</v>
+        <v>41368</v>
       </c>
       <c r="L509" s="3">
         <v>1246</v>
@@ -59779,7 +59779,7 @@
         <v>0</v>
       </c>
       <c r="K510" s="3">
-        <v>106849</v>
+        <v>41368</v>
       </c>
       <c r="L510" s="3">
         <v>1325</v>
@@ -59888,7 +59888,7 @@
         <v>0</v>
       </c>
       <c r="K511" s="3">
-        <v>106849</v>
+        <v>41368</v>
       </c>
       <c r="L511" s="3">
         <v>2024</v>
@@ -59997,7 +59997,7 @@
         <v>0</v>
       </c>
       <c r="K512" s="3">
-        <v>114673</v>
+        <v>45190</v>
       </c>
       <c r="L512" s="3">
         <v>2490</v>
@@ -60106,7 +60106,7 @@
         <v>0</v>
       </c>
       <c r="K513" s="3">
-        <v>147344</v>
+        <v>58472</v>
       </c>
       <c r="L513" s="3">
         <v>3174</v>
@@ -60215,7 +60215,7 @@
         <v>0</v>
       </c>
       <c r="K514" s="3">
-        <v>147344</v>
+        <v>58472</v>
       </c>
       <c r="L514" s="3">
         <v>3174</v>
@@ -60324,7 +60324,7 @@
         <v>0</v>
       </c>
       <c r="K515" s="3">
-        <v>179133</v>
+        <v>93331</v>
       </c>
       <c r="L515" s="3">
         <v>3224</v>
@@ -60433,7 +60433,7 @@
         <v>0</v>
       </c>
       <c r="K516" s="3">
-        <v>212045</v>
+        <v>110115</v>
       </c>
       <c r="L516" s="3">
         <v>3480</v>
@@ -60542,7 +60542,7 @@
         <v>0</v>
       </c>
       <c r="K517" s="3">
-        <v>229227</v>
+        <v>119068</v>
       </c>
       <c r="L517" s="3">
         <v>4098</v>
@@ -60651,7 +60651,7 @@
         <v>0</v>
       </c>
       <c r="K518" s="3">
-        <v>255247</v>
+        <v>132078</v>
       </c>
       <c r="L518" s="3">
         <v>4138</v>
@@ -60760,7 +60760,7 @@
         <v>0</v>
       </c>
       <c r="K519" s="3">
-        <v>327056</v>
+        <v>171070</v>
       </c>
       <c r="L519" s="3">
         <v>5174</v>
@@ -60869,7 +60869,7 @@
         <v>0</v>
       </c>
       <c r="K520" s="3">
-        <v>416759</v>
+        <v>217290</v>
       </c>
       <c r="L520" s="3">
         <v>5230</v>
@@ -60978,7 +60978,7 @@
         <v>0</v>
       </c>
       <c r="K521" s="3">
-        <v>324014</v>
+        <v>169741</v>
       </c>
       <c r="L521" s="3">
         <v>5443</v>
@@ -61087,7 +61087,7 @@
         <v>0</v>
       </c>
       <c r="K522" s="3">
-        <v>348601</v>
+        <v>182648</v>
       </c>
       <c r="L522" s="3">
         <v>5853</v>
@@ -61196,7 +61196,7 @@
         <v>0</v>
       </c>
       <c r="K523" s="3">
-        <v>365325</v>
+        <v>191412</v>
       </c>
       <c r="L523" s="3">
         <v>6086</v>
@@ -61305,7 +61305,7 @@
         <v>0</v>
       </c>
       <c r="K524" s="3">
-        <v>383334</v>
+        <v>200613</v>
       </c>
       <c r="L524" s="3">
         <v>6160</v>
@@ -61414,7 +61414,7 @@
         <v>0</v>
       </c>
       <c r="K525" s="3">
-        <v>531196</v>
+        <v>293498</v>
       </c>
       <c r="L525" s="3">
         <v>7950</v>
@@ -61523,7 +61523,7 @@
         <v>0</v>
       </c>
       <c r="K526" s="3">
-        <v>899573</v>
+        <v>477930</v>
       </c>
       <c r="L526" s="3">
         <v>9274</v>
@@ -61629,10 +61629,10 @@
         <v>200</v>
       </c>
       <c r="J527" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K527" s="3">
-        <v>1472.88</v>
+        <v>739916</v>
       </c>
       <c r="L527" s="3">
         <v>11354</v>
@@ -61738,10 +61738,10 @@
         <v>200</v>
       </c>
       <c r="J528" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K528" s="3">
-        <v>1633.25</v>
+        <v>820626</v>
       </c>
       <c r="L528" s="3">
         <v>12624</v>
@@ -61850,7 +61850,7 @@
         <v>1</v>
       </c>
       <c r="K529" s="3">
-        <v>2346.23</v>
+        <v>1195.8499999999999</v>
       </c>
       <c r="L529" s="3">
         <v>14296</v>
@@ -61959,7 +61959,7 @@
         <v>1</v>
       </c>
       <c r="K530" s="3">
-        <v>2462.81</v>
+        <v>1255.3599999999999</v>
       </c>
       <c r="L530" s="3">
         <v>15084</v>
@@ -62068,7 +62068,7 @@
         <v>1</v>
       </c>
       <c r="K531" s="3">
-        <v>4721.76</v>
+        <v>2422.35</v>
       </c>
       <c r="L531" s="3">
         <v>25469</v>
@@ -62177,7 +62177,7 @@
         <v>1</v>
       </c>
       <c r="K532" s="3">
-        <v>6099.18</v>
+        <v>3136.49</v>
       </c>
       <c r="L532" s="3">
         <v>30035</v>
@@ -62286,7 +62286,7 @@
         <v>1</v>
       </c>
       <c r="K533" s="3">
-        <v>6831.05</v>
+        <v>3524.84</v>
       </c>
       <c r="L533" s="3">
         <v>33765</v>
@@ -62395,7 +62395,7 @@
         <v>1</v>
       </c>
       <c r="K534" s="3">
-        <v>8362.23</v>
+        <v>4343.22</v>
       </c>
       <c r="L534" s="3">
         <v>40533</v>
@@ -62504,7 +62504,7 @@
         <v>1</v>
       </c>
       <c r="K535" s="3">
-        <v>13948.29</v>
+        <v>7292.2</v>
       </c>
       <c r="L535" s="3">
         <v>50951</v>
@@ -62613,7 +62613,7 @@
         <v>1</v>
       </c>
       <c r="K536" s="3">
-        <v>16613.27</v>
+        <v>8712.11</v>
       </c>
       <c r="L536" s="3">
         <v>70204</v>
@@ -62722,7 +62722,7 @@
         <v>1</v>
       </c>
       <c r="K537" s="3">
-        <v>18291.509999999998</v>
+        <v>9560.69</v>
       </c>
       <c r="L537" s="3">
         <v>76588</v>
@@ -62831,7 +62831,7 @@
         <v>1</v>
       </c>
       <c r="K538" s="3">
-        <v>18991.87</v>
+        <v>9926.86</v>
       </c>
       <c r="L538" s="3">
         <v>80182</v>
@@ -62940,7 +62940,7 @@
         <v>1</v>
       </c>
       <c r="K539" s="3">
-        <v>20824.7</v>
+        <v>10885.05</v>
       </c>
       <c r="L539" s="3">
         <v>88534</v>
@@ -63049,7 +63049,7 @@
         <v>1</v>
       </c>
       <c r="K540" s="3">
-        <v>21577.439999999999</v>
+        <v>11278.61</v>
       </c>
       <c r="L540" s="3">
         <v>92369</v>
@@ -63158,7 +63158,7 @@
         <v>1</v>
       </c>
       <c r="K541" s="3">
-        <v>37208.449999999997</v>
+        <v>19444.849999999999</v>
       </c>
       <c r="L541" s="3">
         <v>104242</v>
@@ -63267,7 +63267,7 @@
         <v>1</v>
       </c>
       <c r="K542" s="3">
-        <v>43400.29</v>
+        <v>22779.81</v>
       </c>
       <c r="L542" s="3">
         <v>114878</v>
@@ -63376,7 +63376,7 @@
         <v>1</v>
       </c>
       <c r="K543" s="3">
-        <v>50813.81</v>
+        <v>26549.64</v>
       </c>
       <c r="L543" s="3">
         <v>123958</v>
@@ -63485,7 +63485,7 @@
         <v>1</v>
       </c>
       <c r="K544" s="3">
-        <v>55746.86</v>
+        <v>29125.32</v>
       </c>
       <c r="L544" s="3">
         <v>133124</v>
@@ -63594,7 +63594,7 @@
         <v>1</v>
       </c>
       <c r="K545" s="3">
-        <v>61725.79</v>
+        <v>32249.75</v>
       </c>
       <c r="L545" s="3">
         <v>139030</v>
@@ -63703,7 +63703,7 @@
         <v>1</v>
       </c>
       <c r="K546" s="3">
-        <v>72825.63</v>
+        <v>38050</v>
       </c>
       <c r="L546" s="3">
         <v>157965</v>
@@ -63812,7 +63812,7 @@
         <v>1</v>
       </c>
       <c r="K547" s="3">
-        <v>78910.559999999998</v>
+        <v>41229.629999999997</v>
       </c>
       <c r="L547" s="3">
         <v>188418</v>
@@ -63921,7 +63921,7 @@
         <v>1</v>
       </c>
       <c r="K548" s="3">
-        <v>77465.83</v>
+        <v>40488.93</v>
       </c>
       <c r="L548" s="3">
         <v>217296</v>
@@ -64030,7 +64030,7 @@
         <v>1</v>
       </c>
       <c r="K549" s="3">
-        <v>92750.09</v>
+        <v>48700.28</v>
       </c>
       <c r="L549" s="3">
         <v>242248</v>
@@ -64139,7 +64139,7 @@
         <v>1</v>
       </c>
       <c r="K550" s="3">
-        <v>103675.79</v>
+        <v>54170.96</v>
       </c>
       <c r="L550" s="3">
         <v>247220</v>
@@ -64248,7 +64248,7 @@
         <v>1</v>
       </c>
       <c r="K551" s="3">
-        <v>106802.14</v>
+        <v>55804.69</v>
       </c>
       <c r="L551" s="3">
         <v>254002</v>
@@ -64357,7 +64357,7 @@
         <v>1</v>
       </c>
       <c r="K552" s="3">
-        <v>122855.91</v>
+        <v>64193.74</v>
       </c>
       <c r="L552" s="3">
         <v>269386</v>
@@ -64466,7 +64466,7 @@
         <v>1</v>
       </c>
       <c r="K553" s="3">
-        <v>170978.48</v>
+        <v>89115.86</v>
       </c>
       <c r="L553" s="3">
         <v>393258</v>
@@ -64575,7 +64575,7 @@
         <v>1</v>
       </c>
       <c r="K554" s="3">
-        <v>211425.2</v>
+        <v>110781.05</v>
       </c>
       <c r="L554" s="3">
         <v>420850</v>
@@ -64684,7 +64684,7 @@
         <v>1</v>
       </c>
       <c r="K555" s="3">
-        <v>239205.05</v>
+        <v>124698.77</v>
       </c>
       <c r="L555" s="3">
         <v>436056</v>
@@ -64793,7 +64793,7 @@
         <v>1</v>
       </c>
       <c r="K556" s="3">
-        <v>242579.84</v>
+        <v>126454.2</v>
       </c>
       <c r="L556" s="3">
         <v>468226</v>
@@ -64902,7 +64902,7 @@
         <v>1</v>
       </c>
       <c r="K557" s="3">
-        <v>282869.64</v>
+        <v>148033.76</v>
       </c>
       <c r="L557" s="3">
         <v>576324</v>
@@ -65011,7 +65011,7 @@
         <v>1</v>
       </c>
       <c r="K558" s="3">
-        <v>359686.55</v>
+        <v>189328.17</v>
       </c>
       <c r="L558" s="3">
         <v>678428</v>
@@ -65120,7 +65120,7 @@
         <v>1</v>
       </c>
       <c r="K559" s="3">
-        <v>422317.72</v>
+        <v>221094.01</v>
       </c>
       <c r="L559" s="3">
         <v>717396</v>
@@ -65229,7 +65229,7 @@
         <v>1</v>
       </c>
       <c r="K560" s="3">
-        <v>522325.69</v>
+        <v>274009.40000000002</v>
       </c>
       <c r="L560" s="3">
         <v>868462</v>
@@ -65338,7 +65338,7 @@
         <v>1</v>
       </c>
       <c r="K561" s="3">
-        <v>605417.72</v>
+        <v>319344.06</v>
       </c>
       <c r="L561" s="3">
         <v>933610</v>
@@ -65447,7 +65447,7 @@
         <v>1</v>
       </c>
       <c r="K562" s="3">
-        <v>684125.01</v>
+        <v>359028.78</v>
       </c>
       <c r="L562" s="3">
         <v>1016846</v>
@@ -65556,7 +65556,7 @@
         <v>1</v>
       </c>
       <c r="K563" s="3">
-        <v>766999.44</v>
+        <v>402577.68</v>
       </c>
       <c r="L563" s="3">
         <v>1074596</v>
@@ -65665,7 +65665,7 @@
         <v>1</v>
       </c>
       <c r="K564" s="3">
-        <v>911594.23</v>
+        <v>478216.97</v>
       </c>
       <c r="L564" s="3">
         <v>1258266</v>
@@ -65771,10 +65771,10 @@
         <v>207</v>
       </c>
       <c r="J565" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K565" s="3">
-        <v>1316.54</v>
+        <v>694398.61</v>
       </c>
       <c r="L565" s="3">
         <v>1603750</v>
@@ -65880,10 +65880,10 @@
         <v>207</v>
       </c>
       <c r="J566" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K566" s="3">
-        <v>1731.94</v>
+        <v>909056.25</v>
       </c>
       <c r="L566" s="3">
         <v>2127270</v>
@@ -65989,10 +65989,10 @@
         <v>207</v>
       </c>
       <c r="J567" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K567" s="3">
-        <v>1848.09</v>
+        <v>970023.63</v>
       </c>
       <c r="L567" s="3">
         <v>2227284</v>
@@ -66101,7 +66101,7 @@
         <v>2</v>
       </c>
       <c r="K568" s="3">
-        <v>2906.02</v>
+        <v>1515.21</v>
       </c>
       <c r="L568" s="3">
         <v>2814804</v>
@@ -66210,7 +66210,7 @@
         <v>2</v>
       </c>
       <c r="K569" s="3">
-        <v>3623.72</v>
+        <v>1900.95</v>
       </c>
       <c r="L569" s="3">
         <v>2926472</v>
@@ -66319,7 +66319,7 @@
         <v>2</v>
       </c>
       <c r="K570" s="3">
-        <v>4049.53</v>
+        <v>2112.73</v>
       </c>
       <c r="L570" s="3">
         <v>2967770</v>
@@ -66428,7 +66428,7 @@
         <v>2</v>
       </c>
       <c r="K571" s="3">
-        <v>4109.78</v>
+        <v>2144.16</v>
       </c>
       <c r="L571" s="3">
         <v>3012020</v>
@@ -66537,7 +66537,7 @@
         <v>2</v>
       </c>
       <c r="K572" s="3">
-        <v>4438.92</v>
+        <v>2315.89</v>
       </c>
       <c r="L572" s="3">
         <v>3130814</v>
@@ -66646,7 +66646,7 @@
         <v>2</v>
       </c>
       <c r="K573" s="3">
-        <v>4525.54</v>
+        <v>2361.08</v>
       </c>
       <c r="L573" s="3">
         <v>3362800</v>
@@ -66755,7 +66755,7 @@
         <v>2</v>
       </c>
       <c r="K574" s="3">
-        <v>4658.01</v>
+        <v>2429.8200000000002</v>
       </c>
       <c r="L574" s="3">
         <v>3690088</v>
@@ -66864,7 +66864,7 @@
         <v>2</v>
       </c>
       <c r="K575" s="3">
-        <v>5230.2</v>
+        <v>2728.72</v>
       </c>
       <c r="L575" s="3">
         <v>3830502</v>
@@ -66973,7 +66973,7 @@
         <v>2</v>
       </c>
       <c r="K576" s="3">
-        <v>5843.84</v>
+        <v>3045.36</v>
       </c>
       <c r="L576" s="3">
         <v>4493070</v>
@@ -67082,7 +67082,7 @@
         <v>2</v>
       </c>
       <c r="K577" s="3">
-        <v>6735.1</v>
+        <v>3533.16</v>
       </c>
       <c r="L577" s="3">
         <v>4548874</v>
@@ -67191,7 +67191,7 @@
         <v>2</v>
       </c>
       <c r="K578" s="3">
-        <v>8472.9599999999991</v>
+        <v>4417.47</v>
       </c>
       <c r="L578" s="3">
         <v>5131868</v>
@@ -67300,7 +67300,7 @@
         <v>2</v>
       </c>
       <c r="K579" s="3">
-        <v>8527.7000000000007</v>
+        <v>4446.0200000000004</v>
       </c>
       <c r="L579" s="3">
         <v>5165074</v>
@@ -67409,7 +67409,7 @@
         <v>2</v>
       </c>
       <c r="K580" s="3">
-        <v>8860.76</v>
+        <v>4619.67</v>
       </c>
       <c r="L580" s="3">
         <v>5198278</v>
@@ -67518,7 +67518,7 @@
         <v>2</v>
       </c>
       <c r="K581" s="3">
-        <v>9126.42</v>
+        <v>4758.17</v>
       </c>
       <c r="L581" s="3">
         <v>5604240</v>
@@ -67627,7 +67627,7 @@
         <v>2</v>
       </c>
       <c r="K582" s="3">
-        <v>9542.84</v>
+        <v>4975.28</v>
       </c>
       <c r="L582" s="3">
         <v>5781320</v>
@@ -67736,7 +67736,7 @@
         <v>2</v>
       </c>
       <c r="K583" s="3">
-        <v>9335.99</v>
+        <v>4866.79</v>
       </c>
       <c r="L583" s="3">
         <v>6107460</v>
@@ -67845,7 +67845,7 @@
         <v>2</v>
       </c>
       <c r="K584" s="3">
-        <v>10150.1</v>
+        <v>5291.88</v>
       </c>
       <c r="L584" s="3">
         <v>6149580</v>
@@ -67954,7 +67954,7 @@
         <v>2</v>
       </c>
       <c r="K585" s="3">
-        <v>10205.01</v>
+        <v>5320.51</v>
       </c>
       <c r="L585" s="3">
         <v>6191700</v>
@@ -68063,7 +68063,7 @@
         <v>2</v>
       </c>
       <c r="K586" s="3">
-        <v>10267.14</v>
+        <v>5352.9</v>
       </c>
       <c r="L586" s="3">
         <v>6229432</v>
@@ -68172,7 +68172,7 @@
         <v>2</v>
       </c>
       <c r="K587" s="3">
-        <v>10329.27</v>
+        <v>5385.29</v>
       </c>
       <c r="L587" s="3">
         <v>6267166</v>
@@ -68281,7 +68281,7 @@
         <v>2</v>
       </c>
       <c r="K588" s="3">
-        <v>10401.44</v>
+        <v>5422.25</v>
       </c>
       <c r="L588" s="3">
         <v>6780556</v>
@@ -68390,7 +68390,7 @@
         <v>2</v>
       </c>
       <c r="K589" s="3">
-        <v>11243.05</v>
+        <v>5861.7</v>
       </c>
       <c r="L589" s="3">
         <v>6820634</v>
@@ -68499,7 +68499,7 @@
         <v>2</v>
       </c>
       <c r="K590" s="3">
-        <v>11309.06</v>
+        <v>5896.12</v>
       </c>
       <c r="L590" s="3">
         <v>6860712</v>
@@ -68608,7 +68608,7 @@
         <v>2</v>
       </c>
       <c r="K591" s="3">
-        <v>11622.33</v>
+        <v>6059.45</v>
       </c>
       <c r="L591" s="3">
         <v>7050808</v>
@@ -68717,7 +68717,7 @@
         <v>2</v>
       </c>
       <c r="K592" s="3">
-        <v>11689.77</v>
+        <v>6094.61</v>
       </c>
       <c r="L592" s="3">
         <v>7091756</v>
@@ -68826,7 +68826,7 @@
         <v>2</v>
       </c>
       <c r="K593" s="3">
-        <v>11386.16</v>
+        <v>5935.44</v>
       </c>
       <c r="L593" s="3">
         <v>7518644</v>
@@ -68935,7 +68935,7 @@
         <v>2</v>
       </c>
       <c r="K594" s="3">
-        <v>12728.71</v>
+        <v>6636.27</v>
       </c>
       <c r="L594" s="3">
         <v>7721840</v>
@@ -69044,7 +69044,7 @@
         <v>2</v>
       </c>
       <c r="K595" s="3">
-        <v>12799.9</v>
+        <v>6673.38</v>
       </c>
       <c r="L595" s="3">
         <v>7765064</v>
@@ -69153,7 +69153,7 @@
         <v>2</v>
       </c>
       <c r="K596" s="3">
-        <v>12878.79</v>
+        <v>6714.52</v>
       </c>
       <c r="L596" s="3">
         <v>7812968</v>
@@ -69262,7 +69262,7 @@
         <v>2</v>
       </c>
       <c r="K597" s="3">
-        <v>12965.39</v>
+        <v>6759.67</v>
       </c>
       <c r="L597" s="3">
         <v>7865554</v>
@@ -69371,7 +69371,7 @@
         <v>2</v>
       </c>
       <c r="K598" s="3">
-        <v>13146.01</v>
+        <v>6853.84</v>
       </c>
       <c r="L598" s="3">
         <v>7976170</v>

--- a/Excel/monster.怪物.xlsx
+++ b/Excel/monster.怪物.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB7AC42-AFD9-4176-A324-BAF128579800}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3BD05A-BC4A-42CF-98F0-263B60211AC4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4192,10 +4192,10 @@
   <dimension ref="A1:AO717"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="H586" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="N474" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J480" sqref="J480:K598"/>
+      <selection pane="bottomRight" activeCell="R481" sqref="R481"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="R4" s="3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="S4" s="3">
         <v>1</v>
@@ -4755,7 +4755,7 @@
         <v>0</v>
       </c>
       <c r="R5" s="3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="S5" s="3">
         <v>1</v>
@@ -4864,7 +4864,7 @@
         <v>0</v>
       </c>
       <c r="R6" s="3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="S6" s="3">
         <v>1</v>
@@ -4973,7 +4973,7 @@
         <v>0</v>
       </c>
       <c r="R7" s="3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="S7" s="3">
         <v>1</v>
@@ -5082,7 +5082,7 @@
         <v>0</v>
       </c>
       <c r="R8" s="3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="S8" s="3">
         <v>1</v>
@@ -5191,7 +5191,7 @@
         <v>0</v>
       </c>
       <c r="R9" s="3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="S9" s="3">
         <v>1</v>
@@ -5300,7 +5300,7 @@
         <v>0</v>
       </c>
       <c r="R10" s="3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="S10" s="3">
         <v>1</v>
@@ -5409,7 +5409,7 @@
         <v>0</v>
       </c>
       <c r="R11" s="3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="S11" s="3">
         <v>1</v>
@@ -5518,7 +5518,7 @@
         <v>0</v>
       </c>
       <c r="R12" s="3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="S12" s="3">
         <v>1</v>
@@ -17617,7 +17617,7 @@
         <v>0</v>
       </c>
       <c r="R123" s="3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="S123" s="3">
         <v>1</v>
@@ -17726,7 +17726,7 @@
         <v>0</v>
       </c>
       <c r="R124" s="3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="S124" s="3">
         <v>1</v>
@@ -17835,7 +17835,7 @@
         <v>0</v>
       </c>
       <c r="R125" s="3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="S125" s="3">
         <v>1</v>
@@ -17944,7 +17944,7 @@
         <v>0</v>
       </c>
       <c r="R126" s="3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="S126" s="3">
         <v>1</v>
@@ -18053,7 +18053,7 @@
         <v>0</v>
       </c>
       <c r="R127" s="3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="S127" s="3">
         <v>1</v>
@@ -18162,7 +18162,7 @@
         <v>0</v>
       </c>
       <c r="R128" s="3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="S128" s="3">
         <v>1</v>
@@ -18271,7 +18271,7 @@
         <v>0</v>
       </c>
       <c r="R129" s="3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="S129" s="3">
         <v>1</v>
@@ -18380,7 +18380,7 @@
         <v>0</v>
       </c>
       <c r="R130" s="3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="S130" s="3">
         <v>1</v>
@@ -18489,7 +18489,7 @@
         <v>0</v>
       </c>
       <c r="R131" s="3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="S131" s="3">
         <v>1</v>
@@ -30588,7 +30588,7 @@
         <v>0</v>
       </c>
       <c r="R242" s="3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="S242" s="3">
         <v>1</v>
@@ -30697,7 +30697,7 @@
         <v>0</v>
       </c>
       <c r="R243" s="3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="S243" s="3">
         <v>1</v>
@@ -30806,7 +30806,7 @@
         <v>0</v>
       </c>
       <c r="R244" s="3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="S244" s="3">
         <v>1</v>
@@ -30915,7 +30915,7 @@
         <v>0</v>
       </c>
       <c r="R245" s="3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="S245" s="3">
         <v>1</v>
@@ -31024,7 +31024,7 @@
         <v>0</v>
       </c>
       <c r="R246" s="3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="S246" s="3">
         <v>1</v>
@@ -31133,7 +31133,7 @@
         <v>0</v>
       </c>
       <c r="R247" s="3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="S247" s="3">
         <v>1</v>
@@ -31242,7 +31242,7 @@
         <v>0</v>
       </c>
       <c r="R248" s="3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="S248" s="3">
         <v>1</v>
@@ -31351,7 +31351,7 @@
         <v>0</v>
       </c>
       <c r="R249" s="3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="S249" s="3">
         <v>1</v>
@@ -31460,7 +31460,7 @@
         <v>0</v>
       </c>
       <c r="R250" s="3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="S250" s="3">
         <v>1</v>
@@ -69501,7 +69501,7 @@
         <v>0</v>
       </c>
       <c r="R599" s="3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="S599" s="3">
         <v>1</v>
@@ -69610,7 +69610,7 @@
         <v>0</v>
       </c>
       <c r="R600" s="3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="S600" s="3">
         <v>1</v>
@@ -69719,7 +69719,7 @@
         <v>0</v>
       </c>
       <c r="R601" s="3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="S601" s="3">
         <v>1</v>
@@ -69828,7 +69828,7 @@
         <v>0</v>
       </c>
       <c r="R602" s="3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="S602" s="3">
         <v>1</v>
@@ -69937,7 +69937,7 @@
         <v>0</v>
       </c>
       <c r="R603" s="3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="S603" s="3">
         <v>1</v>
@@ -70046,7 +70046,7 @@
         <v>0</v>
       </c>
       <c r="R604" s="3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="S604" s="3">
         <v>1</v>
@@ -70155,7 +70155,7 @@
         <v>0</v>
       </c>
       <c r="R605" s="3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="S605" s="3">
         <v>1</v>
@@ -70264,7 +70264,7 @@
         <v>0</v>
       </c>
       <c r="R606" s="3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="S606" s="3">
         <v>1</v>
@@ -70373,7 +70373,7 @@
         <v>0</v>
       </c>
       <c r="R607" s="3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="S607" s="3">
         <v>1</v>

--- a/Excel/monster.怪物.xlsx
+++ b/Excel/monster.怪物.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3BD05A-BC4A-42CF-98F0-263B60211AC4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DBFD80A-EBF5-42FE-B115-F54936321605}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4195,7 +4195,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="N474" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R481" sqref="R481"/>
+      <selection pane="bottomRight" activeCell="N480" sqref="N480"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/monster.怪物.xlsx
+++ b/Excel/monster.怪物.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EEC4053-B18B-45FC-8BE2-BFDC9F3416D4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E4C836-46A0-4786-8297-9C2239ACDE9B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -2496,8 +2496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5530,11 +5530,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AO717"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="H620" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H248" sqref="H248"/>
+      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11417,7 +11417,7 @@
         <v>49060</v>
       </c>
       <c r="L54" s="3">
-        <v>15084</v>
+        <v>16780</v>
       </c>
       <c r="M54" s="3">
         <v>8924</v>
@@ -11526,7 +11526,7 @@
         <v>82562</v>
       </c>
       <c r="L55" s="3">
-        <v>22216</v>
+        <v>22703</v>
       </c>
       <c r="M55" s="3">
         <v>12128</v>
@@ -11538,10 +11538,10 @@
         <v>677</v>
       </c>
       <c r="P55" s="3">
-        <v>825</v>
+        <v>918</v>
       </c>
       <c r="Q55" s="3">
-        <v>770</v>
+        <v>857</v>
       </c>
       <c r="R55" s="3">
         <v>1.02</v>
@@ -11632,25 +11632,25 @@
         <v>0</v>
       </c>
       <c r="K56" s="3">
-        <v>106706</v>
+        <v>105683</v>
       </c>
       <c r="L56" s="3">
-        <v>25744</v>
+        <v>29226</v>
       </c>
       <c r="M56" s="3">
-        <v>14462</v>
+        <v>14742</v>
       </c>
       <c r="N56" s="3">
-        <v>1272</v>
+        <v>1632</v>
       </c>
       <c r="O56" s="3">
-        <v>677</v>
+        <v>937</v>
       </c>
       <c r="P56" s="3">
-        <v>1200</v>
+        <v>1387</v>
       </c>
       <c r="Q56" s="3">
-        <v>770</v>
+        <v>945</v>
       </c>
       <c r="R56" s="3">
         <v>1.02</v>
@@ -11741,10 +11741,10 @@
         <v>0</v>
       </c>
       <c r="K57" s="3">
-        <v>132379</v>
+        <v>135586</v>
       </c>
       <c r="L57" s="3">
-        <v>33765</v>
+        <v>34029</v>
       </c>
       <c r="M57" s="3">
         <v>17532</v>
@@ -24388,7 +24388,7 @@
         <v>73590</v>
       </c>
       <c r="L173" s="3">
-        <v>15084</v>
+        <v>16780</v>
       </c>
       <c r="M173" s="3">
         <v>8924</v>
@@ -24497,7 +24497,7 @@
         <v>123843</v>
       </c>
       <c r="L174" s="3">
-        <v>22216</v>
+        <v>22703</v>
       </c>
       <c r="M174" s="3">
         <v>12128</v>
@@ -24509,10 +24509,10 @@
         <v>677</v>
       </c>
       <c r="P174" s="3">
-        <v>825</v>
+        <v>918</v>
       </c>
       <c r="Q174" s="3">
-        <v>770</v>
+        <v>857</v>
       </c>
       <c r="R174" s="3">
         <v>1.02</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="K175" s="3">
-        <v>160059</v>
+        <v>158525</v>
       </c>
       <c r="L175" s="3">
-        <v>25744</v>
+        <v>29226</v>
       </c>
       <c r="M175" s="3">
-        <v>14462</v>
+        <v>14742</v>
       </c>
       <c r="N175" s="3">
-        <v>1272</v>
+        <v>1632</v>
       </c>
       <c r="O175" s="3">
-        <v>677</v>
+        <v>937</v>
       </c>
       <c r="P175" s="3">
-        <v>1200</v>
+        <v>1387</v>
       </c>
       <c r="Q175" s="3">
-        <v>770</v>
+        <v>945</v>
       </c>
       <c r="R175" s="3">
         <v>1.02</v>
@@ -24712,10 +24712,10 @@
         <v>0</v>
       </c>
       <c r="K176" s="3">
-        <v>198569</v>
+        <v>203379</v>
       </c>
       <c r="L176" s="3">
-        <v>33765</v>
+        <v>34029</v>
       </c>
       <c r="M176" s="3">
         <v>17532</v>
@@ -37359,7 +37359,7 @@
         <v>95680</v>
       </c>
       <c r="L292" s="3">
-        <v>15084</v>
+        <v>16780</v>
       </c>
       <c r="M292" s="3">
         <v>8924</v>
@@ -37468,7 +37468,7 @@
         <v>161168</v>
       </c>
       <c r="L293" s="3">
-        <v>22216</v>
+        <v>22703</v>
       </c>
       <c r="M293" s="3">
         <v>12128</v>
@@ -37480,10 +37480,10 @@
         <v>677</v>
       </c>
       <c r="P293" s="3">
-        <v>825</v>
+        <v>918</v>
       </c>
       <c r="Q293" s="3">
-        <v>770</v>
+        <v>857</v>
       </c>
       <c r="R293" s="3">
         <v>1.02</v>
@@ -37574,25 +37574,25 @@
         <v>0</v>
       </c>
       <c r="K294" s="3">
-        <v>215107</v>
+        <v>214399</v>
       </c>
       <c r="L294" s="3">
-        <v>25744</v>
+        <v>29226</v>
       </c>
       <c r="M294" s="3">
-        <v>14462</v>
+        <v>14742</v>
       </c>
       <c r="N294" s="3">
-        <v>1272</v>
+        <v>1632</v>
       </c>
       <c r="O294" s="3">
-        <v>677</v>
+        <v>937</v>
       </c>
       <c r="P294" s="3">
-        <v>1200</v>
+        <v>1387</v>
       </c>
       <c r="Q294" s="3">
-        <v>770</v>
+        <v>945</v>
       </c>
       <c r="R294" s="3">
         <v>1.02</v>
@@ -37683,10 +37683,10 @@
         <v>0</v>
       </c>
       <c r="K295" s="3">
-        <v>253494</v>
+        <v>258157</v>
       </c>
       <c r="L295" s="3">
-        <v>33765</v>
+        <v>34029</v>
       </c>
       <c r="M295" s="3">
         <v>17532</v>
@@ -50330,7 +50330,7 @@
         <v>127573</v>
       </c>
       <c r="L411" s="3">
-        <v>15084</v>
+        <v>16780</v>
       </c>
       <c r="M411" s="3">
         <v>8924</v>
@@ -50439,7 +50439,7 @@
         <v>214891</v>
       </c>
       <c r="L412" s="3">
-        <v>22216</v>
+        <v>22703</v>
       </c>
       <c r="M412" s="3">
         <v>12128</v>
@@ -50451,10 +50451,10 @@
         <v>677</v>
       </c>
       <c r="P412" s="3">
-        <v>825</v>
+        <v>918</v>
       </c>
       <c r="Q412" s="3">
-        <v>770</v>
+        <v>857</v>
       </c>
       <c r="R412" s="3">
         <v>1.02</v>
@@ -50545,25 +50545,25 @@
         <v>0</v>
       </c>
       <c r="K413" s="3">
-        <v>286809</v>
+        <v>285865</v>
       </c>
       <c r="L413" s="3">
-        <v>25744</v>
+        <v>29226</v>
       </c>
       <c r="M413" s="3">
-        <v>14462</v>
+        <v>14742</v>
       </c>
       <c r="N413" s="3">
-        <v>1272</v>
+        <v>1632</v>
       </c>
       <c r="O413" s="3">
-        <v>677</v>
+        <v>937</v>
       </c>
       <c r="P413" s="3">
-        <v>1200</v>
+        <v>1387</v>
       </c>
       <c r="Q413" s="3">
-        <v>770</v>
+        <v>945</v>
       </c>
       <c r="R413" s="3">
         <v>1.02</v>
@@ -50654,10 +50654,10 @@
         <v>0</v>
       </c>
       <c r="K414" s="3">
-        <v>337992</v>
+        <v>344209</v>
       </c>
       <c r="L414" s="3">
-        <v>33765</v>
+        <v>34029</v>
       </c>
       <c r="M414" s="3">
         <v>17532</v>
@@ -63301,7 +63301,7 @@
         <v>1223.51</v>
       </c>
       <c r="L530" s="3">
-        <v>15084</v>
+        <v>16780</v>
       </c>
       <c r="M530" s="3">
         <v>8924</v>
@@ -63410,7 +63410,7 @@
         <v>2087.9</v>
       </c>
       <c r="L531" s="3">
-        <v>22216</v>
+        <v>22703</v>
       </c>
       <c r="M531" s="3">
         <v>12128</v>
@@ -63422,10 +63422,10 @@
         <v>677</v>
       </c>
       <c r="P531" s="3">
-        <v>825</v>
+        <v>918</v>
       </c>
       <c r="Q531" s="3">
-        <v>770</v>
+        <v>857</v>
       </c>
       <c r="R531" s="3">
         <v>1.02</v>
@@ -63516,25 +63516,25 @@
         <v>1</v>
       </c>
       <c r="K532" s="3">
-        <v>2702.07</v>
+        <v>2678.22</v>
       </c>
       <c r="L532" s="3">
-        <v>25744</v>
+        <v>29226</v>
       </c>
       <c r="M532" s="3">
-        <v>14462</v>
+        <v>14742</v>
       </c>
       <c r="N532" s="3">
-        <v>1272</v>
+        <v>1632</v>
       </c>
       <c r="O532" s="3">
-        <v>677</v>
+        <v>937</v>
       </c>
       <c r="P532" s="3">
-        <v>1200</v>
+        <v>1387</v>
       </c>
       <c r="Q532" s="3">
-        <v>770</v>
+        <v>945</v>
       </c>
       <c r="R532" s="3">
         <v>1.02</v>
@@ -63625,10 +63625,10 @@
         <v>1</v>
       </c>
       <c r="K533" s="3">
-        <v>3386.05</v>
+        <v>3466.37</v>
       </c>
       <c r="L533" s="3">
-        <v>33765</v>
+        <v>34029</v>
       </c>
       <c r="M533" s="3">
         <v>17532</v>
@@ -76272,7 +76272,7 @@
         <v>2399.14</v>
       </c>
       <c r="L649" s="3">
-        <v>15084</v>
+        <v>16780</v>
       </c>
       <c r="M649" s="3">
         <v>8924</v>
@@ -76381,7 +76381,7 @@
         <v>4066.16</v>
       </c>
       <c r="L650" s="3">
-        <v>22216</v>
+        <v>22703</v>
       </c>
       <c r="M650" s="3">
         <v>12128</v>
@@ -76393,10 +76393,10 @@
         <v>677</v>
       </c>
       <c r="P650" s="3">
-        <v>825</v>
+        <v>918</v>
       </c>
       <c r="Q650" s="3">
-        <v>770</v>
+        <v>857</v>
       </c>
       <c r="R650" s="3">
         <v>1.02</v>
@@ -76487,25 +76487,25 @@
         <v>1</v>
       </c>
       <c r="K651" s="3">
-        <v>5248.86</v>
+        <v>5200.66</v>
       </c>
       <c r="L651" s="3">
-        <v>25744</v>
+        <v>29226</v>
       </c>
       <c r="M651" s="3">
-        <v>14462</v>
+        <v>14742</v>
       </c>
       <c r="N651" s="3">
-        <v>1272</v>
+        <v>1632</v>
       </c>
       <c r="O651" s="3">
-        <v>677</v>
+        <v>937</v>
       </c>
       <c r="P651" s="3">
-        <v>1200</v>
+        <v>1387</v>
       </c>
       <c r="Q651" s="3">
-        <v>770</v>
+        <v>945</v>
       </c>
       <c r="R651" s="3">
         <v>1.02</v>
@@ -76596,10 +76596,10 @@
         <v>1</v>
       </c>
       <c r="K652" s="3">
-        <v>6556.81</v>
+        <v>6714</v>
       </c>
       <c r="L652" s="3">
-        <v>33765</v>
+        <v>34029</v>
       </c>
       <c r="M652" s="3">
         <v>17532</v>

--- a/Excel/monster.怪物.xlsx
+++ b/Excel/monster.怪物.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E4C836-46A0-4786-8297-9C2239ACDE9B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31A14B8-8D6E-445E-9049-E310897D98F4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -290,8 +290,47 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>LIPENG</author>
+  </authors>
+  <commentList>
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{850BA406-0A6E-48A9-AB09-1E1D52BC234B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>LIPENG:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1. 小怪
+2. 精英
+3. 小BOSS
+4. 大BOSS</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="318">
   <si>
     <t>sheet名</t>
   </si>
@@ -1794,12 +1833,20 @@
     <t>精英怪4</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物类型</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1890,6 +1937,21 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="8">
@@ -4713,25 +4775,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="9.875" customWidth="1"/>
-    <col min="4" max="4" width="10.625" customWidth="1"/>
-    <col min="5" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="10.625" customWidth="1"/>
-    <col min="8" max="8" width="10.875" customWidth="1"/>
-    <col min="9" max="9" width="11.5" customWidth="1"/>
-    <col min="10" max="10" width="15.625" customWidth="1"/>
+    <col min="4" max="5" width="10.625" customWidth="1"/>
+    <col min="6" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="10.625" customWidth="1"/>
+    <col min="9" max="9" width="10.875" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="11" max="11" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -4745,25 +4807,28 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -4777,13 +4842,13 @@
         <v>50</v>
       </c>
       <c r="E2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F2" t="s">
         <v>50</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>244</v>
-      </c>
-      <c r="G2" t="s">
-        <v>122</v>
       </c>
       <c r="H2" t="s">
         <v>122</v>
@@ -4792,10 +4857,13 @@
         <v>122</v>
       </c>
       <c r="J2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>54</v>
       </c>
@@ -4809,25 +4877,28 @@
         <v>124</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -4840,21 +4911,24 @@
       <c r="D4" s="3">
         <v>1001</v>
       </c>
-      <c r="E4" s="4" t="str">
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="str">
         <f>"mon"&amp;D4</f>
         <v>mon1001</v>
       </c>
-      <c r="F4" s="4">
+      <c r="G4" s="4">
         <v>100001</v>
       </c>
-      <c r="G4" s="3">
+      <c r="H4" s="3">
         <v>10001</v>
       </c>
-      <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -4867,21 +4941,24 @@
       <c r="D5" s="3">
         <v>2001</v>
       </c>
-      <c r="E5" s="4" t="str">
-        <f t="shared" ref="E5:E11" si="0">"mon"&amp;D5</f>
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4" t="str">
+        <f t="shared" ref="F5:F11" si="0">"mon"&amp;D5</f>
         <v>mon2001</v>
       </c>
-      <c r="F5" s="4">
+      <c r="G5" s="4">
         <v>110001</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H5" s="3">
         <v>11001</v>
       </c>
-      <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -4894,21 +4971,24 @@
       <c r="D6" s="3">
         <v>1002</v>
       </c>
-      <c r="E6" s="4" t="str">
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>mon1002</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="4">
         <v>100001</v>
       </c>
-      <c r="G6" s="3">
+      <c r="H6" s="3">
         <v>10001</v>
       </c>
-      <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -4921,21 +5001,24 @@
       <c r="D7" s="3">
         <v>2002</v>
       </c>
-      <c r="E7" s="4" t="str">
+      <c r="E7" s="3">
+        <v>2</v>
+      </c>
+      <c r="F7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>mon2002</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="4">
         <v>110001</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H7" s="3">
         <v>11001</v>
       </c>
-      <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -4948,21 +5031,24 @@
       <c r="D8" s="3">
         <v>1003</v>
       </c>
-      <c r="E8" s="4" t="str">
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>mon1003</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="4">
         <v>100002</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10002</v>
       </c>
-      <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -4975,21 +5061,24 @@
       <c r="D9" s="3">
         <v>2003</v>
       </c>
-      <c r="E9" s="4" t="str">
+      <c r="E9" s="3">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>mon2003</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="4">
         <v>110002</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>11002</v>
       </c>
-      <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -5002,21 +5091,24 @@
       <c r="D10" s="3">
         <v>1004</v>
       </c>
-      <c r="E10" s="4" t="str">
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>mon1004</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="4">
         <v>100002</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>10002</v>
       </c>
-      <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -5029,21 +5121,24 @@
       <c r="D11" s="3">
         <v>2004</v>
       </c>
-      <c r="E11" s="4" t="str">
+      <c r="E11" s="3">
+        <v>2</v>
+      </c>
+      <c r="F11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>mon2004</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="4">
         <v>110002</v>
       </c>
-      <c r="G11" s="3">
+      <c r="H11" s="3">
         <v>11002</v>
       </c>
-      <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -5056,21 +5151,24 @@
       <c r="D12" s="3">
         <v>3001</v>
       </c>
-      <c r="E12" s="4" t="str">
+      <c r="E12" s="3">
+        <v>3</v>
+      </c>
+      <c r="F12" s="4" t="str">
         <f>"boss"&amp;D12</f>
         <v>boss3001</v>
       </c>
-      <c r="F12" s="4">
+      <c r="G12" s="4">
         <v>130001</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>12001</v>
       </c>
-      <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -5083,21 +5181,24 @@
       <c r="D13" s="3">
         <v>4001</v>
       </c>
-      <c r="E13" s="4" t="str">
-        <f t="shared" ref="E13:E21" si="1">"boss"&amp;D13</f>
+      <c r="E13" s="3">
+        <v>4</v>
+      </c>
+      <c r="F13" s="4" t="str">
+        <f t="shared" ref="F13:F21" si="1">"boss"&amp;D13</f>
         <v>boss4001</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="4">
         <v>140001</v>
       </c>
-      <c r="G13" s="3">
+      <c r="H13" s="3">
         <v>13001</v>
       </c>
-      <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -5110,21 +5211,24 @@
       <c r="D14" s="3">
         <v>3002</v>
       </c>
-      <c r="E14" s="4" t="str">
+      <c r="E14" s="3">
+        <v>3</v>
+      </c>
+      <c r="F14" s="4" t="str">
         <f t="shared" si="1"/>
         <v>boss3002</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="4">
         <v>130001</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>12001</v>
       </c>
-      <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -5137,21 +5241,24 @@
       <c r="D15" s="3">
         <v>4002</v>
       </c>
-      <c r="E15" s="4" t="str">
+      <c r="E15" s="3">
+        <v>4</v>
+      </c>
+      <c r="F15" s="4" t="str">
         <f t="shared" si="1"/>
         <v>boss4002</v>
       </c>
-      <c r="F15" s="4">
+      <c r="G15" s="4">
         <v>140001</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>13001</v>
       </c>
-      <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -5164,21 +5271,24 @@
       <c r="D16" s="3">
         <v>3003</v>
       </c>
-      <c r="E16" s="4" t="str">
+      <c r="E16" s="3">
+        <v>3</v>
+      </c>
+      <c r="F16" s="4" t="str">
         <f t="shared" si="1"/>
         <v>boss3003</v>
       </c>
-      <c r="F16" s="4">
+      <c r="G16" s="4">
         <v>130001</v>
       </c>
-      <c r="G16" s="3">
+      <c r="H16" s="3">
         <v>12001</v>
       </c>
-      <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -5191,21 +5301,24 @@
       <c r="D17" s="3">
         <v>4003</v>
       </c>
-      <c r="E17" s="4" t="str">
+      <c r="E17" s="3">
+        <v>4</v>
+      </c>
+      <c r="F17" s="4" t="str">
         <f t="shared" si="1"/>
         <v>boss4003</v>
       </c>
-      <c r="F17" s="4">
+      <c r="G17" s="4">
         <v>140001</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>13001</v>
       </c>
-      <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -5218,21 +5331,24 @@
       <c r="D18" s="3">
         <v>3004</v>
       </c>
-      <c r="E18" s="4" t="str">
+      <c r="E18" s="3">
+        <v>3</v>
+      </c>
+      <c r="F18" s="4" t="str">
         <f t="shared" si="1"/>
         <v>boss3004</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
         <v>130001</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>12001</v>
       </c>
-      <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -5245,21 +5361,24 @@
       <c r="D19" s="3">
         <v>4004</v>
       </c>
-      <c r="E19" s="4" t="str">
+      <c r="E19" s="3">
+        <v>4</v>
+      </c>
+      <c r="F19" s="4" t="str">
         <f t="shared" si="1"/>
         <v>boss4004</v>
       </c>
-      <c r="F19" s="4">
+      <c r="G19" s="4">
         <v>140001</v>
       </c>
-      <c r="G19" s="3">
+      <c r="H19" s="3">
         <v>13001</v>
       </c>
-      <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -5272,21 +5391,24 @@
       <c r="D20" s="3">
         <v>3005</v>
       </c>
-      <c r="E20" s="4" t="str">
+      <c r="E20" s="3">
+        <v>3</v>
+      </c>
+      <c r="F20" s="4" t="str">
         <f t="shared" si="1"/>
         <v>boss3005</v>
       </c>
-      <c r="F20" s="4">
+      <c r="G20" s="4">
         <v>130001</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>12001</v>
       </c>
-      <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -5299,24 +5421,28 @@
       <c r="D21" s="3">
         <v>4005</v>
       </c>
-      <c r="E21" s="4" t="str">
+      <c r="E21" s="3">
+        <v>4</v>
+      </c>
+      <c r="F21" s="4" t="str">
         <f t="shared" si="1"/>
         <v>boss4005</v>
       </c>
-      <c r="F21" s="4">
+      <c r="G21" s="4">
         <v>140001</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>13001</v>
       </c>
-      <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5530,7 +5656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AO717"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>

--- a/Excel/monster.怪物.xlsx
+++ b/Excel/monster.怪物.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31A14B8-8D6E-445E-9049-E310897D98F4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391B4698-711B-4E24-B3CF-6C08D236DF48}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -4778,7 +4778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
@@ -5656,11 +5656,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AO717"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="H593" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
+      <selection pane="bottomRight" activeCell="J599" sqref="J599:K717"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/monster.怪物.xlsx
+++ b/Excel/monster.怪物.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391B4698-711B-4E24-B3CF-6C08D236DF48}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4DAF77-B7FE-4460-9A44-F7B6729C3C90}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5657,10 +5657,10 @@
   <dimension ref="A1:AO717"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="H593" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="H587" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J599" sqref="J599:K717"/>
+      <selection pane="bottomRight" activeCell="K603" sqref="K603"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -60045,7 +60045,7 @@
         <v>0</v>
       </c>
       <c r="K499" s="3">
-        <v>13995</v>
+        <v>12385</v>
       </c>
       <c r="L499" s="3">
         <v>400</v>
@@ -60154,7 +60154,7 @@
         <v>0</v>
       </c>
       <c r="K500" s="3">
-        <v>14787</v>
+        <v>13096</v>
       </c>
       <c r="L500" s="3">
         <v>441</v>
@@ -60263,7 +60263,7 @@
         <v>0</v>
       </c>
       <c r="K501" s="3">
-        <v>19796</v>
+        <v>17352</v>
       </c>
       <c r="L501" s="3">
         <v>711</v>
@@ -60372,7 +60372,7 @@
         <v>0</v>
       </c>
       <c r="K502" s="3">
-        <v>23235</v>
+        <v>20440</v>
       </c>
       <c r="L502" s="3">
         <v>726</v>
@@ -60481,7 +60481,7 @@
         <v>0</v>
       </c>
       <c r="K503" s="3">
-        <v>23235</v>
+        <v>20440</v>
       </c>
       <c r="L503" s="3">
         <v>726</v>
@@ -60590,7 +60590,7 @@
         <v>0</v>
       </c>
       <c r="K504" s="3">
-        <v>25797</v>
+        <v>28591</v>
       </c>
       <c r="L504" s="3">
         <v>726</v>
@@ -60699,7 +60699,7 @@
         <v>0</v>
       </c>
       <c r="K505" s="3">
-        <v>31741</v>
+        <v>35064</v>
       </c>
       <c r="L505" s="3">
         <v>750</v>
@@ -60808,7 +60808,7 @@
         <v>0</v>
       </c>
       <c r="K506" s="3">
-        <v>37283</v>
+        <v>41095</v>
       </c>
       <c r="L506" s="3">
         <v>1207</v>
@@ -60917,7 +60917,7 @@
         <v>0</v>
       </c>
       <c r="K507" s="3">
-        <v>40388</v>
+        <v>44718</v>
       </c>
       <c r="L507" s="3">
         <v>1246</v>
@@ -61026,7 +61026,7 @@
         <v>0</v>
       </c>
       <c r="K508" s="3">
-        <v>40388</v>
+        <v>44718</v>
       </c>
       <c r="L508" s="3">
         <v>1246</v>
@@ -61135,7 +61135,7 @@
         <v>0</v>
       </c>
       <c r="K509" s="3">
-        <v>40388</v>
+        <v>49048</v>
       </c>
       <c r="L509" s="3">
         <v>1246</v>
@@ -61244,7 +61244,7 @@
         <v>0</v>
       </c>
       <c r="K510" s="3">
-        <v>40388</v>
+        <v>49048</v>
       </c>
       <c r="L510" s="3">
         <v>1325</v>
@@ -61353,7 +61353,7 @@
         <v>0</v>
       </c>
       <c r="K511" s="3">
-        <v>40388</v>
+        <v>49048</v>
       </c>
       <c r="L511" s="3">
         <v>2024</v>
@@ -61462,7 +61462,7 @@
         <v>0</v>
       </c>
       <c r="K512" s="3">
-        <v>44000</v>
+        <v>52844</v>
       </c>
       <c r="L512" s="3">
         <v>2490</v>
@@ -61571,7 +61571,7 @@
         <v>0</v>
       </c>
       <c r="K513" s="3">
-        <v>56862</v>
+        <v>67971</v>
       </c>
       <c r="L513" s="3">
         <v>3174</v>
@@ -61680,7 +61680,7 @@
         <v>0</v>
       </c>
       <c r="K514" s="3">
-        <v>56862</v>
+        <v>67971</v>
       </c>
       <c r="L514" s="3">
         <v>3174</v>
@@ -73016,7 +73016,7 @@
         <v>0</v>
       </c>
       <c r="K618" s="3">
-        <v>26175</v>
+        <v>22955</v>
       </c>
       <c r="L618" s="3">
         <v>400</v>
@@ -73125,7 +73125,7 @@
         <v>0</v>
       </c>
       <c r="K619" s="3">
-        <v>27639</v>
+        <v>24258</v>
       </c>
       <c r="L619" s="3">
         <v>441</v>
@@ -73234,7 +73234,7 @@
         <v>0</v>
       </c>
       <c r="K620" s="3">
-        <v>37483</v>
+        <v>32595</v>
       </c>
       <c r="L620" s="3">
         <v>711</v>
@@ -73343,7 +73343,7 @@
         <v>0</v>
       </c>
       <c r="K621" s="3">
-        <v>43845</v>
+        <v>38256</v>
       </c>
       <c r="L621" s="3">
         <v>726</v>
@@ -73452,7 +73452,7 @@
         <v>0</v>
       </c>
       <c r="K622" s="3">
-        <v>43845</v>
+        <v>38256</v>
       </c>
       <c r="L622" s="3">
         <v>726</v>
@@ -73561,7 +73561,7 @@
         <v>0</v>
       </c>
       <c r="K623" s="3">
-        <v>49434</v>
+        <v>43845</v>
       </c>
       <c r="L623" s="3">
         <v>726</v>
@@ -73670,7 +73670,7 @@
         <v>0</v>
       </c>
       <c r="K624" s="3">
-        <v>81703</v>
+        <v>75056</v>
       </c>
       <c r="L624" s="3">
         <v>750</v>
@@ -73779,7 +73779,7 @@
         <v>0</v>
       </c>
       <c r="K625" s="3">
-        <v>95378</v>
+        <v>87754</v>
       </c>
       <c r="L625" s="3">
         <v>1207</v>
@@ -73888,7 +73888,7 @@
         <v>0</v>
       </c>
       <c r="K626" s="3">
-        <v>104693</v>
+        <v>96034</v>
       </c>
       <c r="L626" s="3">
         <v>1246</v>
@@ -73997,7 +73997,7 @@
         <v>0</v>
       </c>
       <c r="K627" s="3">
-        <v>104693</v>
+        <v>96034</v>
       </c>
       <c r="L627" s="3">
         <v>1246</v>
@@ -74106,7 +74106,7 @@
         <v>0</v>
       </c>
       <c r="K628" s="3">
-        <v>104693</v>
+        <v>96034</v>
       </c>
       <c r="L628" s="3">
         <v>1246</v>
@@ -74215,7 +74215,7 @@
         <v>0</v>
       </c>
       <c r="K629" s="3">
-        <v>104693</v>
+        <v>96034</v>
       </c>
       <c r="L629" s="3">
         <v>1325</v>
@@ -74324,7 +74324,7 @@
         <v>0</v>
       </c>
       <c r="K630" s="3">
-        <v>104693</v>
+        <v>96034</v>
       </c>
       <c r="L630" s="3">
         <v>2024</v>
@@ -74433,7 +74433,7 @@
         <v>0</v>
       </c>
       <c r="K631" s="3">
-        <v>112055</v>
+        <v>103212</v>
       </c>
       <c r="L631" s="3">
         <v>2490</v>
@@ -74542,7 +74542,7 @@
         <v>0</v>
       </c>
       <c r="K632" s="3">
-        <v>143802</v>
+        <v>132693</v>
       </c>
       <c r="L632" s="3">
         <v>3174</v>
@@ -74651,7 +74651,7 @@
         <v>0</v>
       </c>
       <c r="K633" s="3">
-        <v>143802</v>
+        <v>132693</v>
       </c>
       <c r="L633" s="3">
         <v>3174</v>
@@ -74760,7 +74760,7 @@
         <v>0</v>
       </c>
       <c r="K634" s="3">
-        <v>173643</v>
+        <v>161591</v>
       </c>
       <c r="L634" s="3">
         <v>3224</v>
@@ -74869,7 +74869,7 @@
         <v>0</v>
       </c>
       <c r="K635" s="3">
-        <v>206045</v>
+        <v>191061</v>
       </c>
       <c r="L635" s="3">
         <v>3480</v>
@@ -74978,7 +74978,7 @@
         <v>0</v>
       </c>
       <c r="K636" s="3">
-        <v>222687</v>
+        <v>206564</v>
       </c>
       <c r="L636" s="3">
         <v>4098</v>
@@ -75087,7 +75087,7 @@
         <v>0</v>
       </c>
       <c r="K637" s="3">
-        <v>235569</v>
+        <v>218257</v>
       </c>
       <c r="L637" s="3">
         <v>4138</v>

--- a/Excel/monster.怪物.xlsx
+++ b/Excel/monster.怪物.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4DAF77-B7FE-4460-9A44-F7B6729C3C90}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A083C04F-3A26-4D65-AA8E-E2B7072807E5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5657,10 +5657,10 @@
   <dimension ref="A1:AO717"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="H587" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="H494" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K603" sqref="K603"/>
+      <selection pane="bottomRight" activeCell="J480" sqref="J480:K598"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -60045,7 +60045,7 @@
         <v>0</v>
       </c>
       <c r="K499" s="3">
-        <v>12385</v>
+        <v>13995</v>
       </c>
       <c r="L499" s="3">
         <v>400</v>
@@ -60154,7 +60154,7 @@
         <v>0</v>
       </c>
       <c r="K500" s="3">
-        <v>13096</v>
+        <v>14787</v>
       </c>
       <c r="L500" s="3">
         <v>441</v>
@@ -60263,7 +60263,7 @@
         <v>0</v>
       </c>
       <c r="K501" s="3">
-        <v>17352</v>
+        <v>19796</v>
       </c>
       <c r="L501" s="3">
         <v>711</v>
@@ -60372,7 +60372,7 @@
         <v>0</v>
       </c>
       <c r="K502" s="3">
-        <v>20440</v>
+        <v>23235</v>
       </c>
       <c r="L502" s="3">
         <v>726</v>
@@ -60481,7 +60481,7 @@
         <v>0</v>
       </c>
       <c r="K503" s="3">
-        <v>20440</v>
+        <v>23235</v>
       </c>
       <c r="L503" s="3">
         <v>726</v>
@@ -61135,7 +61135,7 @@
         <v>0</v>
       </c>
       <c r="K509" s="3">
-        <v>49048</v>
+        <v>44718</v>
       </c>
       <c r="L509" s="3">
         <v>1246</v>
@@ -61244,7 +61244,7 @@
         <v>0</v>
       </c>
       <c r="K510" s="3">
-        <v>49048</v>
+        <v>44718</v>
       </c>
       <c r="L510" s="3">
         <v>1325</v>
@@ -61353,7 +61353,7 @@
         <v>0</v>
       </c>
       <c r="K511" s="3">
-        <v>49048</v>
+        <v>44718</v>
       </c>
       <c r="L511" s="3">
         <v>2024</v>
@@ -61462,7 +61462,7 @@
         <v>0</v>
       </c>
       <c r="K512" s="3">
-        <v>52844</v>
+        <v>48422</v>
       </c>
       <c r="L512" s="3">
         <v>2490</v>
@@ -61571,7 +61571,7 @@
         <v>0</v>
       </c>
       <c r="K513" s="3">
-        <v>67971</v>
+        <v>62416</v>
       </c>
       <c r="L513" s="3">
         <v>3174</v>
@@ -61680,7 +61680,7 @@
         <v>0</v>
       </c>
       <c r="K514" s="3">
-        <v>67971</v>
+        <v>62416</v>
       </c>
       <c r="L514" s="3">
         <v>3174</v>

--- a/Excel/monster.怪物.xlsx
+++ b/Excel/monster.怪物.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A083C04F-3A26-4D65-AA8E-E2B7072807E5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD9D17B-C348-4164-A5E0-15E316A3A9F2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5657,10 +5657,10 @@
   <dimension ref="A1:AO717"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="H494" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J480" sqref="J480:K598"/>
+      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/monster.怪物.xlsx
+++ b/Excel/monster.怪物.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD9D17B-C348-4164-A5E0-15E316A3A9F2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343F698B-CF52-4714-AAD8-3AF4EF1202F1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5657,10 +5657,10 @@
   <dimension ref="A1:AO717"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D112" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomRight" activeCell="K127" sqref="K127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7092,7 +7092,7 @@
         <v>0</v>
       </c>
       <c r="R13" s="3">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="S13" s="3">
         <v>1</v>
@@ -7201,7 +7201,7 @@
         <v>0</v>
       </c>
       <c r="R14" s="3">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="S14" s="3">
         <v>1</v>
@@ -7310,7 +7310,7 @@
         <v>0</v>
       </c>
       <c r="R15" s="3">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="S15" s="3">
         <v>1</v>
@@ -7419,7 +7419,7 @@
         <v>0</v>
       </c>
       <c r="R16" s="3">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="S16" s="3">
         <v>1</v>
@@ -7528,7 +7528,7 @@
         <v>0</v>
       </c>
       <c r="R17" s="3">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="S17" s="3">
         <v>1</v>
@@ -11431,13 +11431,13 @@
         <v>0</v>
       </c>
       <c r="K53" s="3">
-        <v>46742</v>
+        <v>37492</v>
       </c>
       <c r="L53" s="3">
         <v>14296</v>
       </c>
       <c r="M53" s="3">
-        <v>8482</v>
+        <v>6846</v>
       </c>
       <c r="N53" s="3">
         <v>624</v>
@@ -11446,7 +11446,7 @@
         <v>208</v>
       </c>
       <c r="P53" s="3">
-        <v>487</v>
+        <v>393</v>
       </c>
       <c r="Q53" s="3">
         <v>245</v>
@@ -11540,13 +11540,13 @@
         <v>0</v>
       </c>
       <c r="K54" s="3">
-        <v>49060</v>
+        <v>39448</v>
       </c>
       <c r="L54" s="3">
-        <v>16780</v>
+        <v>15084</v>
       </c>
       <c r="M54" s="3">
-        <v>8924</v>
+        <v>8076</v>
       </c>
       <c r="N54" s="3">
         <v>624</v>
@@ -11555,7 +11555,7 @@
         <v>208</v>
       </c>
       <c r="P54" s="3">
-        <v>487</v>
+        <v>393</v>
       </c>
       <c r="Q54" s="3">
         <v>245</v>
@@ -11649,13 +11649,13 @@
         <v>0</v>
       </c>
       <c r="K55" s="3">
-        <v>82562</v>
+        <v>67472</v>
       </c>
       <c r="L55" s="3">
-        <v>22703</v>
+        <v>19530</v>
       </c>
       <c r="M55" s="3">
-        <v>12128</v>
+        <v>10734</v>
       </c>
       <c r="N55" s="3">
         <v>1272</v>
@@ -11664,10 +11664,10 @@
         <v>677</v>
       </c>
       <c r="P55" s="3">
-        <v>918</v>
+        <v>731</v>
       </c>
       <c r="Q55" s="3">
-        <v>857</v>
+        <v>770</v>
       </c>
       <c r="R55" s="3">
         <v>1.02</v>
@@ -11758,25 +11758,25 @@
         <v>0</v>
       </c>
       <c r="K56" s="3">
-        <v>105683</v>
+        <v>90760</v>
       </c>
       <c r="L56" s="3">
-        <v>29226</v>
+        <v>24554</v>
       </c>
       <c r="M56" s="3">
         <v>14742</v>
       </c>
       <c r="N56" s="3">
-        <v>1632</v>
+        <v>1272</v>
       </c>
       <c r="O56" s="3">
-        <v>937</v>
+        <v>677</v>
       </c>
       <c r="P56" s="3">
-        <v>1387</v>
+        <v>1200</v>
       </c>
       <c r="Q56" s="3">
-        <v>945</v>
+        <v>770</v>
       </c>
       <c r="R56" s="3">
         <v>1.02</v>
@@ -11867,25 +11867,25 @@
         <v>0</v>
       </c>
       <c r="K57" s="3">
-        <v>135586</v>
+        <v>121858</v>
       </c>
       <c r="L57" s="3">
-        <v>34029</v>
+        <v>29064</v>
       </c>
       <c r="M57" s="3">
-        <v>17532</v>
+        <v>16585</v>
       </c>
       <c r="N57" s="3">
-        <v>2496</v>
+        <v>1920</v>
       </c>
       <c r="O57" s="3">
-        <v>1562</v>
+        <v>1145</v>
       </c>
       <c r="P57" s="3">
-        <v>1837</v>
+        <v>1537</v>
       </c>
       <c r="Q57" s="3">
-        <v>1575</v>
+        <v>1295</v>
       </c>
       <c r="R57" s="3">
         <v>1.04</v>
@@ -11976,25 +11976,25 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
-        <v>160491</v>
+        <v>143195</v>
       </c>
       <c r="L58" s="3">
-        <v>40533</v>
+        <v>36694</v>
       </c>
       <c r="M58" s="3">
         <v>20887</v>
       </c>
       <c r="N58" s="3">
-        <v>3072</v>
+        <v>2352</v>
       </c>
       <c r="O58" s="3">
-        <v>1979</v>
+        <v>1458</v>
       </c>
       <c r="P58" s="3">
-        <v>2287</v>
+        <v>1912</v>
       </c>
       <c r="Q58" s="3">
-        <v>1995</v>
+        <v>1645</v>
       </c>
       <c r="R58" s="3">
         <v>1.05</v>
@@ -12088,10 +12088,10 @@
         <v>239778</v>
       </c>
       <c r="L59" s="3">
-        <v>49439</v>
+        <v>49180</v>
       </c>
       <c r="M59" s="3">
-        <v>30526</v>
+        <v>28336</v>
       </c>
       <c r="N59" s="3">
         <v>3360</v>
@@ -12197,7 +12197,7 @@
         <v>286607</v>
       </c>
       <c r="L60" s="3">
-        <v>64133</v>
+        <v>59217</v>
       </c>
       <c r="M60" s="3">
         <v>34091</v>
@@ -12306,10 +12306,10 @@
         <v>347878</v>
       </c>
       <c r="L61" s="3">
-        <v>71804</v>
+        <v>70378</v>
       </c>
       <c r="M61" s="3">
-        <v>38986</v>
+        <v>36962</v>
       </c>
       <c r="N61" s="3">
         <v>4032</v>
@@ -12321,7 +12321,7 @@
         <v>3424</v>
       </c>
       <c r="Q61" s="3">
-        <v>2695</v>
+        <v>2804</v>
       </c>
       <c r="R61" s="3">
         <v>1.1118000000000001</v>
@@ -12415,22 +12415,22 @@
         <v>360339</v>
       </c>
       <c r="L62" s="3">
-        <v>80182</v>
+        <v>76239</v>
       </c>
       <c r="M62" s="3">
         <v>40505</v>
       </c>
       <c r="N62" s="3">
-        <v>4803</v>
+        <v>4320</v>
       </c>
       <c r="O62" s="3">
-        <v>3231</v>
+        <v>2881</v>
       </c>
       <c r="P62" s="3">
-        <v>3994</v>
+        <v>3742</v>
       </c>
       <c r="Q62" s="3">
-        <v>3257</v>
+        <v>3022</v>
       </c>
       <c r="R62" s="3">
         <v>1.1220000000000001</v>
@@ -20063,7 +20063,7 @@
         <v>0</v>
       </c>
       <c r="R132" s="3">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="S132" s="3">
         <v>1</v>
@@ -20172,7 +20172,7 @@
         <v>0</v>
       </c>
       <c r="R133" s="3">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="S133" s="3">
         <v>1</v>
@@ -20281,7 +20281,7 @@
         <v>0</v>
       </c>
       <c r="R134" s="3">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="S134" s="3">
         <v>1</v>
@@ -20390,7 +20390,7 @@
         <v>0</v>
       </c>
       <c r="R135" s="3">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="S135" s="3">
         <v>1</v>
@@ -20499,7 +20499,7 @@
         <v>0</v>
       </c>
       <c r="R136" s="3">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="S136" s="3">
         <v>1</v>
@@ -24402,13 +24402,13 @@
         <v>0</v>
       </c>
       <c r="K172" s="3">
-        <v>70113</v>
+        <v>56238</v>
       </c>
       <c r="L172" s="3">
         <v>14296</v>
       </c>
       <c r="M172" s="3">
-        <v>8482</v>
+        <v>6846</v>
       </c>
       <c r="N172" s="3">
         <v>624</v>
@@ -24417,7 +24417,7 @@
         <v>208</v>
       </c>
       <c r="P172" s="3">
-        <v>487</v>
+        <v>393</v>
       </c>
       <c r="Q172" s="3">
         <v>245</v>
@@ -24511,13 +24511,13 @@
         <v>0</v>
       </c>
       <c r="K173" s="3">
-        <v>73590</v>
+        <v>59172</v>
       </c>
       <c r="L173" s="3">
-        <v>16780</v>
+        <v>15084</v>
       </c>
       <c r="M173" s="3">
-        <v>8924</v>
+        <v>8076</v>
       </c>
       <c r="N173" s="3">
         <v>624</v>
@@ -24526,7 +24526,7 @@
         <v>208</v>
       </c>
       <c r="P173" s="3">
-        <v>487</v>
+        <v>393</v>
       </c>
       <c r="Q173" s="3">
         <v>245</v>
@@ -24620,13 +24620,13 @@
         <v>0</v>
       </c>
       <c r="K174" s="3">
-        <v>123843</v>
+        <v>101208</v>
       </c>
       <c r="L174" s="3">
-        <v>22703</v>
+        <v>19530</v>
       </c>
       <c r="M174" s="3">
-        <v>12128</v>
+        <v>10734</v>
       </c>
       <c r="N174" s="3">
         <v>1272</v>
@@ -24635,10 +24635,10 @@
         <v>677</v>
       </c>
       <c r="P174" s="3">
-        <v>918</v>
+        <v>731</v>
       </c>
       <c r="Q174" s="3">
-        <v>857</v>
+        <v>770</v>
       </c>
       <c r="R174" s="3">
         <v>1.02</v>
@@ -24729,25 +24729,25 @@
         <v>0</v>
       </c>
       <c r="K175" s="3">
-        <v>158525</v>
+        <v>136140</v>
       </c>
       <c r="L175" s="3">
-        <v>29226</v>
+        <v>24554</v>
       </c>
       <c r="M175" s="3">
         <v>14742</v>
       </c>
       <c r="N175" s="3">
-        <v>1632</v>
+        <v>1272</v>
       </c>
       <c r="O175" s="3">
-        <v>937</v>
+        <v>677</v>
       </c>
       <c r="P175" s="3">
-        <v>1387</v>
+        <v>1200</v>
       </c>
       <c r="Q175" s="3">
-        <v>945</v>
+        <v>770</v>
       </c>
       <c r="R175" s="3">
         <v>1.02</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="K176" s="3">
-        <v>203379</v>
+        <v>182787</v>
       </c>
       <c r="L176" s="3">
-        <v>34029</v>
+        <v>29064</v>
       </c>
       <c r="M176" s="3">
-        <v>17532</v>
+        <v>16585</v>
       </c>
       <c r="N176" s="3">
-        <v>2496</v>
+        <v>1920</v>
       </c>
       <c r="O176" s="3">
-        <v>1562</v>
+        <v>1145</v>
       </c>
       <c r="P176" s="3">
-        <v>1837</v>
+        <v>1537</v>
       </c>
       <c r="Q176" s="3">
-        <v>1575</v>
+        <v>1295</v>
       </c>
       <c r="R176" s="3">
         <v>1.04</v>
@@ -24947,25 +24947,25 @@
         <v>0</v>
       </c>
       <c r="K177" s="3">
-        <v>240737</v>
+        <v>214793</v>
       </c>
       <c r="L177" s="3">
-        <v>40533</v>
+        <v>36694</v>
       </c>
       <c r="M177" s="3">
         <v>20887</v>
       </c>
       <c r="N177" s="3">
-        <v>3072</v>
+        <v>2352</v>
       </c>
       <c r="O177" s="3">
-        <v>1979</v>
+        <v>1458</v>
       </c>
       <c r="P177" s="3">
-        <v>2287</v>
+        <v>1912</v>
       </c>
       <c r="Q177" s="3">
-        <v>1995</v>
+        <v>1645</v>
       </c>
       <c r="R177" s="3">
         <v>1.05</v>
@@ -25059,10 +25059,10 @@
         <v>359667</v>
       </c>
       <c r="L178" s="3">
-        <v>49439</v>
+        <v>49180</v>
       </c>
       <c r="M178" s="3">
-        <v>30526</v>
+        <v>28336</v>
       </c>
       <c r="N178" s="3">
         <v>3360</v>
@@ -25168,7 +25168,7 @@
         <v>429911</v>
       </c>
       <c r="L179" s="3">
-        <v>64133</v>
+        <v>59217</v>
       </c>
       <c r="M179" s="3">
         <v>34091</v>
@@ -25277,10 +25277,10 @@
         <v>521817</v>
       </c>
       <c r="L180" s="3">
-        <v>71804</v>
+        <v>70378</v>
       </c>
       <c r="M180" s="3">
-        <v>38986</v>
+        <v>36962</v>
       </c>
       <c r="N180" s="3">
         <v>4032</v>
@@ -25292,7 +25292,7 @@
         <v>3424</v>
       </c>
       <c r="Q180" s="3">
-        <v>2695</v>
+        <v>2804</v>
       </c>
       <c r="R180" s="3">
         <v>1.1118000000000001</v>
@@ -25386,22 +25386,22 @@
         <v>540509</v>
       </c>
       <c r="L181" s="3">
-        <v>80182</v>
+        <v>76239</v>
       </c>
       <c r="M181" s="3">
         <v>40505</v>
       </c>
       <c r="N181" s="3">
-        <v>4803</v>
+        <v>4320</v>
       </c>
       <c r="O181" s="3">
-        <v>3231</v>
+        <v>2881</v>
       </c>
       <c r="P181" s="3">
-        <v>3994</v>
+        <v>3742</v>
       </c>
       <c r="Q181" s="3">
-        <v>3257</v>
+        <v>3022</v>
       </c>
       <c r="R181" s="3">
         <v>1.1220000000000001</v>
@@ -33034,7 +33034,7 @@
         <v>0</v>
       </c>
       <c r="R251" s="3">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="S251" s="3">
         <v>1</v>
@@ -33143,7 +33143,7 @@
         <v>0</v>
       </c>
       <c r="R252" s="3">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="S252" s="3">
         <v>1</v>
@@ -33252,7 +33252,7 @@
         <v>0</v>
       </c>
       <c r="R253" s="3">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="S253" s="3">
         <v>1</v>
@@ -33361,7 +33361,7 @@
         <v>0</v>
       </c>
       <c r="R254" s="3">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="S254" s="3">
         <v>1</v>
@@ -33470,7 +33470,7 @@
         <v>0</v>
       </c>
       <c r="R255" s="3">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="S255" s="3">
         <v>1</v>
@@ -37373,13 +37373,13 @@
         <v>0</v>
       </c>
       <c r="K291" s="3">
-        <v>91046</v>
+        <v>72643</v>
       </c>
       <c r="L291" s="3">
         <v>14296</v>
       </c>
       <c r="M291" s="3">
-        <v>8482</v>
+        <v>6846</v>
       </c>
       <c r="N291" s="3">
         <v>624</v>
@@ -37388,7 +37388,7 @@
         <v>208</v>
       </c>
       <c r="P291" s="3">
-        <v>487</v>
+        <v>393</v>
       </c>
       <c r="Q291" s="3">
         <v>245</v>
@@ -37482,13 +37482,13 @@
         <v>0</v>
       </c>
       <c r="K292" s="3">
-        <v>95680</v>
+        <v>76544</v>
       </c>
       <c r="L292" s="3">
-        <v>16780</v>
+        <v>15084</v>
       </c>
       <c r="M292" s="3">
-        <v>8924</v>
+        <v>8076</v>
       </c>
       <c r="N292" s="3">
         <v>624</v>
@@ -37497,7 +37497,7 @@
         <v>208</v>
       </c>
       <c r="P292" s="3">
-        <v>487</v>
+        <v>393</v>
       </c>
       <c r="Q292" s="3">
         <v>245</v>
@@ -37591,13 +37591,13 @@
         <v>0</v>
       </c>
       <c r="K293" s="3">
-        <v>161168</v>
+        <v>132043</v>
       </c>
       <c r="L293" s="3">
-        <v>22703</v>
+        <v>19530</v>
       </c>
       <c r="M293" s="3">
-        <v>12128</v>
+        <v>10734</v>
       </c>
       <c r="N293" s="3">
         <v>1272</v>
@@ -37606,10 +37606,10 @@
         <v>677</v>
       </c>
       <c r="P293" s="3">
-        <v>918</v>
+        <v>731</v>
       </c>
       <c r="Q293" s="3">
-        <v>857</v>
+        <v>770</v>
       </c>
       <c r="R293" s="3">
         <v>1.02</v>
@@ -37700,25 +37700,25 @@
         <v>0</v>
       </c>
       <c r="K294" s="3">
-        <v>214399</v>
+        <v>185535</v>
       </c>
       <c r="L294" s="3">
-        <v>29226</v>
+        <v>24554</v>
       </c>
       <c r="M294" s="3">
         <v>14742</v>
       </c>
       <c r="N294" s="3">
-        <v>1632</v>
+        <v>1272</v>
       </c>
       <c r="O294" s="3">
-        <v>937</v>
+        <v>677</v>
       </c>
       <c r="P294" s="3">
-        <v>1387</v>
+        <v>1200</v>
       </c>
       <c r="Q294" s="3">
-        <v>945</v>
+        <v>770</v>
       </c>
       <c r="R294" s="3">
         <v>1.02</v>
@@ -37809,25 +37809,25 @@
         <v>0</v>
       </c>
       <c r="K295" s="3">
-        <v>258157</v>
+        <v>231459</v>
       </c>
       <c r="L295" s="3">
-        <v>34029</v>
+        <v>29064</v>
       </c>
       <c r="M295" s="3">
-        <v>17532</v>
+        <v>16585</v>
       </c>
       <c r="N295" s="3">
-        <v>2496</v>
+        <v>1920</v>
       </c>
       <c r="O295" s="3">
-        <v>1562</v>
+        <v>1145</v>
       </c>
       <c r="P295" s="3">
-        <v>1837</v>
+        <v>1537</v>
       </c>
       <c r="Q295" s="3">
-        <v>1575</v>
+        <v>1295</v>
       </c>
       <c r="R295" s="3">
         <v>1.04</v>
@@ -37918,25 +37918,25 @@
         <v>0</v>
       </c>
       <c r="K296" s="3">
-        <v>306155</v>
+        <v>272776</v>
       </c>
       <c r="L296" s="3">
-        <v>40533</v>
+        <v>36694</v>
       </c>
       <c r="M296" s="3">
         <v>20887</v>
       </c>
       <c r="N296" s="3">
-        <v>3072</v>
+        <v>2352</v>
       </c>
       <c r="O296" s="3">
-        <v>1979</v>
+        <v>1458</v>
       </c>
       <c r="P296" s="3">
-        <v>2287</v>
+        <v>1912</v>
       </c>
       <c r="Q296" s="3">
-        <v>1995</v>
+        <v>1645</v>
       </c>
       <c r="R296" s="3">
         <v>1.05</v>
@@ -38030,10 +38030,10 @@
         <v>455599</v>
       </c>
       <c r="L297" s="3">
-        <v>49439</v>
+        <v>49180</v>
       </c>
       <c r="M297" s="3">
-        <v>30526</v>
+        <v>28336</v>
       </c>
       <c r="N297" s="3">
         <v>3360</v>
@@ -38139,7 +38139,7 @@
         <v>565318</v>
       </c>
       <c r="L298" s="3">
-        <v>64133</v>
+        <v>59217</v>
       </c>
       <c r="M298" s="3">
         <v>34091</v>
@@ -38248,10 +38248,10 @@
         <v>644735</v>
       </c>
       <c r="L299" s="3">
-        <v>71804</v>
+        <v>70378</v>
       </c>
       <c r="M299" s="3">
-        <v>38986</v>
+        <v>36962</v>
       </c>
       <c r="N299" s="3">
         <v>4032</v>
@@ -38263,7 +38263,7 @@
         <v>3424</v>
       </c>
       <c r="Q299" s="3">
-        <v>2695</v>
+        <v>2804</v>
       </c>
       <c r="R299" s="3">
         <v>1.1118000000000001</v>
@@ -38357,22 +38357,22 @@
         <v>668322</v>
       </c>
       <c r="L300" s="3">
-        <v>80182</v>
+        <v>76239</v>
       </c>
       <c r="M300" s="3">
         <v>40505</v>
       </c>
       <c r="N300" s="3">
-        <v>4803</v>
+        <v>4320</v>
       </c>
       <c r="O300" s="3">
-        <v>3231</v>
+        <v>2881</v>
       </c>
       <c r="P300" s="3">
-        <v>3994</v>
+        <v>3742</v>
       </c>
       <c r="Q300" s="3">
-        <v>3257</v>
+        <v>3022</v>
       </c>
       <c r="R300" s="3">
         <v>1.1220000000000001</v>
@@ -45024,7 +45024,7 @@
         <v>0</v>
       </c>
       <c r="R361" s="3">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="S361" s="3">
         <v>1</v>
@@ -45133,7 +45133,7 @@
         <v>0</v>
       </c>
       <c r="R362" s="3">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="S362" s="3">
         <v>1</v>
@@ -45242,7 +45242,7 @@
         <v>0</v>
       </c>
       <c r="R363" s="3">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="S363" s="3">
         <v>1</v>
@@ -45351,7 +45351,7 @@
         <v>0</v>
       </c>
       <c r="R364" s="3">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="S364" s="3">
         <v>1</v>
@@ -45460,7 +45460,7 @@
         <v>0</v>
       </c>
       <c r="R365" s="3">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="S365" s="3">
         <v>1</v>
@@ -45569,7 +45569,7 @@
         <v>0</v>
       </c>
       <c r="R366" s="3">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="S366" s="3">
         <v>1</v>
@@ -45678,7 +45678,7 @@
         <v>0</v>
       </c>
       <c r="R367" s="3">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="S367" s="3">
         <v>1</v>
@@ -45787,7 +45787,7 @@
         <v>0</v>
       </c>
       <c r="R368" s="3">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="S368" s="3">
         <v>1</v>
@@ -45896,7 +45896,7 @@
         <v>0</v>
       </c>
       <c r="R369" s="3">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="S369" s="3">
         <v>1</v>
@@ -46005,7 +46005,7 @@
         <v>0</v>
       </c>
       <c r="R370" s="3">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="S370" s="3">
         <v>1</v>
@@ -50344,13 +50344,13 @@
         <v>0</v>
       </c>
       <c r="K410" s="3">
-        <v>121395</v>
+        <v>96857</v>
       </c>
       <c r="L410" s="3">
         <v>14296</v>
       </c>
       <c r="M410" s="3">
-        <v>8482</v>
+        <v>6846</v>
       </c>
       <c r="N410" s="3">
         <v>624</v>
@@ -50359,7 +50359,7 @@
         <v>208</v>
       </c>
       <c r="P410" s="3">
-        <v>487</v>
+        <v>393</v>
       </c>
       <c r="Q410" s="3">
         <v>245</v>
@@ -50453,13 +50453,13 @@
         <v>0</v>
       </c>
       <c r="K411" s="3">
-        <v>127573</v>
+        <v>102059</v>
       </c>
       <c r="L411" s="3">
-        <v>16780</v>
+        <v>15084</v>
       </c>
       <c r="M411" s="3">
-        <v>8924</v>
+        <v>8076</v>
       </c>
       <c r="N411" s="3">
         <v>624</v>
@@ -50468,7 +50468,7 @@
         <v>208</v>
       </c>
       <c r="P411" s="3">
-        <v>487</v>
+        <v>393</v>
       </c>
       <c r="Q411" s="3">
         <v>245</v>
@@ -50562,13 +50562,13 @@
         <v>0</v>
       </c>
       <c r="K412" s="3">
-        <v>214891</v>
+        <v>176057</v>
       </c>
       <c r="L412" s="3">
-        <v>22703</v>
+        <v>19530</v>
       </c>
       <c r="M412" s="3">
-        <v>12128</v>
+        <v>10734</v>
       </c>
       <c r="N412" s="3">
         <v>1272</v>
@@ -50577,10 +50577,10 @@
         <v>677</v>
       </c>
       <c r="P412" s="3">
-        <v>918</v>
+        <v>731</v>
       </c>
       <c r="Q412" s="3">
-        <v>857</v>
+        <v>770</v>
       </c>
       <c r="R412" s="3">
         <v>1.02</v>
@@ -50671,25 +50671,25 @@
         <v>0</v>
       </c>
       <c r="K413" s="3">
-        <v>285865</v>
+        <v>247380</v>
       </c>
       <c r="L413" s="3">
-        <v>29226</v>
+        <v>24554</v>
       </c>
       <c r="M413" s="3">
         <v>14742</v>
       </c>
       <c r="N413" s="3">
-        <v>1632</v>
+        <v>1272</v>
       </c>
       <c r="O413" s="3">
-        <v>937</v>
+        <v>677</v>
       </c>
       <c r="P413" s="3">
-        <v>1387</v>
+        <v>1200</v>
       </c>
       <c r="Q413" s="3">
-        <v>945</v>
+        <v>770</v>
       </c>
       <c r="R413" s="3">
         <v>1.02</v>
@@ -50780,25 +50780,25 @@
         <v>0</v>
       </c>
       <c r="K414" s="3">
-        <v>344209</v>
+        <v>308612</v>
       </c>
       <c r="L414" s="3">
-        <v>34029</v>
+        <v>29064</v>
       </c>
       <c r="M414" s="3">
-        <v>17532</v>
+        <v>16585</v>
       </c>
       <c r="N414" s="3">
-        <v>2496</v>
+        <v>1920</v>
       </c>
       <c r="O414" s="3">
-        <v>1562</v>
+        <v>1145</v>
       </c>
       <c r="P414" s="3">
-        <v>1837</v>
+        <v>1537</v>
       </c>
       <c r="Q414" s="3">
-        <v>1575</v>
+        <v>1295</v>
       </c>
       <c r="R414" s="3">
         <v>1.04</v>
@@ -50889,25 +50889,25 @@
         <v>0</v>
       </c>
       <c r="K415" s="3">
-        <v>408207</v>
+        <v>363701</v>
       </c>
       <c r="L415" s="3">
-        <v>40533</v>
+        <v>36694</v>
       </c>
       <c r="M415" s="3">
         <v>20887</v>
       </c>
       <c r="N415" s="3">
-        <v>3072</v>
+        <v>2352</v>
       </c>
       <c r="O415" s="3">
-        <v>1979</v>
+        <v>1458</v>
       </c>
       <c r="P415" s="3">
-        <v>2287</v>
+        <v>1912</v>
       </c>
       <c r="Q415" s="3">
-        <v>1995</v>
+        <v>1645</v>
       </c>
       <c r="R415" s="3">
         <v>1.05</v>
@@ -51001,10 +51001,10 @@
         <v>607465</v>
       </c>
       <c r="L416" s="3">
-        <v>49439</v>
+        <v>49180</v>
       </c>
       <c r="M416" s="3">
-        <v>30526</v>
+        <v>28336</v>
       </c>
       <c r="N416" s="3">
         <v>3360</v>
@@ -51110,7 +51110,7 @@
         <v>753757</v>
       </c>
       <c r="L417" s="3">
-        <v>64133</v>
+        <v>59217</v>
       </c>
       <c r="M417" s="3">
         <v>34091</v>
@@ -51219,10 +51219,10 @@
         <v>859647</v>
       </c>
       <c r="L418" s="3">
-        <v>71804</v>
+        <v>70378</v>
       </c>
       <c r="M418" s="3">
-        <v>38986</v>
+        <v>36962</v>
       </c>
       <c r="N418" s="3">
         <v>4032</v>
@@ -51234,7 +51234,7 @@
         <v>3424</v>
       </c>
       <c r="Q418" s="3">
-        <v>2695</v>
+        <v>2804</v>
       </c>
       <c r="R418" s="3">
         <v>1.1118000000000001</v>
@@ -51328,22 +51328,22 @@
         <v>891096</v>
       </c>
       <c r="L419" s="3">
-        <v>80182</v>
+        <v>76239</v>
       </c>
       <c r="M419" s="3">
         <v>40505</v>
       </c>
       <c r="N419" s="3">
-        <v>4803</v>
+        <v>4320</v>
       </c>
       <c r="O419" s="3">
-        <v>3231</v>
+        <v>2881</v>
       </c>
       <c r="P419" s="3">
-        <v>3994</v>
+        <v>3742</v>
       </c>
       <c r="Q419" s="3">
-        <v>3257</v>
+        <v>3022</v>
       </c>
       <c r="R419" s="3">
         <v>1.1220000000000001</v>
@@ -63312,16 +63312,16 @@
         <v>189</v>
       </c>
       <c r="J529" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K529" s="3">
-        <v>1165.57</v>
+        <v>935049</v>
       </c>
       <c r="L529" s="3">
         <v>14296</v>
       </c>
       <c r="M529" s="3">
-        <v>8482</v>
+        <v>6846</v>
       </c>
       <c r="N529" s="3">
         <v>624</v>
@@ -63330,7 +63330,7 @@
         <v>208</v>
       </c>
       <c r="P529" s="3">
-        <v>487</v>
+        <v>393</v>
       </c>
       <c r="Q529" s="3">
         <v>245</v>
@@ -63421,16 +63421,16 @@
         <v>189</v>
       </c>
       <c r="J530" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K530" s="3">
-        <v>1223.51</v>
+        <v>983981</v>
       </c>
       <c r="L530" s="3">
-        <v>16780</v>
+        <v>15084</v>
       </c>
       <c r="M530" s="3">
-        <v>8924</v>
+        <v>8076</v>
       </c>
       <c r="N530" s="3">
         <v>624</v>
@@ -63439,7 +63439,7 @@
         <v>208</v>
       </c>
       <c r="P530" s="3">
-        <v>487</v>
+        <v>393</v>
       </c>
       <c r="Q530" s="3">
         <v>245</v>
@@ -63533,13 +63533,13 @@
         <v>1</v>
       </c>
       <c r="K531" s="3">
-        <v>2087.9</v>
+        <v>1708.37</v>
       </c>
       <c r="L531" s="3">
-        <v>22703</v>
+        <v>19530</v>
       </c>
       <c r="M531" s="3">
-        <v>12128</v>
+        <v>10734</v>
       </c>
       <c r="N531" s="3">
         <v>1272</v>
@@ -63548,10 +63548,10 @@
         <v>677</v>
       </c>
       <c r="P531" s="3">
-        <v>918</v>
+        <v>731</v>
       </c>
       <c r="Q531" s="3">
-        <v>857</v>
+        <v>770</v>
       </c>
       <c r="R531" s="3">
         <v>1.02</v>
@@ -63642,25 +63642,25 @@
         <v>1</v>
       </c>
       <c r="K532" s="3">
-        <v>2678.22</v>
+        <v>2301.5500000000002</v>
       </c>
       <c r="L532" s="3">
-        <v>29226</v>
+        <v>24554</v>
       </c>
       <c r="M532" s="3">
         <v>14742</v>
       </c>
       <c r="N532" s="3">
-        <v>1632</v>
+        <v>1272</v>
       </c>
       <c r="O532" s="3">
-        <v>937</v>
+        <v>677</v>
       </c>
       <c r="P532" s="3">
-        <v>1387</v>
+        <v>1200</v>
       </c>
       <c r="Q532" s="3">
-        <v>945</v>
+        <v>770</v>
       </c>
       <c r="R532" s="3">
         <v>1.02</v>
@@ -63751,25 +63751,25 @@
         <v>1</v>
       </c>
       <c r="K533" s="3">
-        <v>3466.37</v>
+        <v>3114.8</v>
       </c>
       <c r="L533" s="3">
-        <v>34029</v>
+        <v>29064</v>
       </c>
       <c r="M533" s="3">
-        <v>17532</v>
+        <v>16585</v>
       </c>
       <c r="N533" s="3">
-        <v>2496</v>
+        <v>1920</v>
       </c>
       <c r="O533" s="3">
-        <v>1562</v>
+        <v>1145</v>
       </c>
       <c r="P533" s="3">
-        <v>1837</v>
+        <v>1537</v>
       </c>
       <c r="Q533" s="3">
-        <v>1575</v>
+        <v>1295</v>
       </c>
       <c r="R533" s="3">
         <v>1.04</v>
@@ -63860,25 +63860,25 @@
         <v>1</v>
       </c>
       <c r="K534" s="3">
-        <v>4161.49</v>
+        <v>3712.66</v>
       </c>
       <c r="L534" s="3">
-        <v>40533</v>
+        <v>36694</v>
       </c>
       <c r="M534" s="3">
         <v>20887</v>
       </c>
       <c r="N534" s="3">
-        <v>3072</v>
+        <v>2352</v>
       </c>
       <c r="O534" s="3">
-        <v>1979</v>
+        <v>1458</v>
       </c>
       <c r="P534" s="3">
-        <v>2287</v>
+        <v>1912</v>
       </c>
       <c r="Q534" s="3">
-        <v>1995</v>
+        <v>1645</v>
       </c>
       <c r="R534" s="3">
         <v>1.05</v>
@@ -63972,10 +63972,10 @@
         <v>6302.85</v>
       </c>
       <c r="L535" s="3">
-        <v>49439</v>
+        <v>49180</v>
       </c>
       <c r="M535" s="3">
-        <v>30526</v>
+        <v>28336</v>
       </c>
       <c r="N535" s="3">
         <v>3360</v>
@@ -64081,7 +64081,7 @@
         <v>7556.68</v>
       </c>
       <c r="L536" s="3">
-        <v>64133</v>
+        <v>59217</v>
       </c>
       <c r="M536" s="3">
         <v>34091</v>
@@ -64190,10 +64190,10 @@
         <v>9136.31</v>
       </c>
       <c r="L537" s="3">
-        <v>71804</v>
+        <v>70378</v>
       </c>
       <c r="M537" s="3">
-        <v>38986</v>
+        <v>36962</v>
       </c>
       <c r="N537" s="3">
         <v>4032</v>
@@ -64205,7 +64205,7 @@
         <v>3424</v>
       </c>
       <c r="Q537" s="3">
-        <v>2695</v>
+        <v>2804</v>
       </c>
       <c r="R537" s="3">
         <v>1.1118000000000001</v>
@@ -64299,22 +64299,22 @@
         <v>9463.83</v>
       </c>
       <c r="L538" s="3">
-        <v>80182</v>
+        <v>76239</v>
       </c>
       <c r="M538" s="3">
         <v>40505</v>
       </c>
       <c r="N538" s="3">
-        <v>4803</v>
+        <v>4320</v>
       </c>
       <c r="O538" s="3">
-        <v>3231</v>
+        <v>2881</v>
       </c>
       <c r="P538" s="3">
-        <v>3994</v>
+        <v>3742</v>
       </c>
       <c r="Q538" s="3">
-        <v>3257</v>
+        <v>3022</v>
       </c>
       <c r="R538" s="3">
         <v>1.1220000000000001</v>
@@ -73016,7 +73016,7 @@
         <v>0</v>
       </c>
       <c r="K618" s="3">
-        <v>22955</v>
+        <v>26175</v>
       </c>
       <c r="L618" s="3">
         <v>400</v>
@@ -73125,7 +73125,7 @@
         <v>0</v>
       </c>
       <c r="K619" s="3">
-        <v>24258</v>
+        <v>27639</v>
       </c>
       <c r="L619" s="3">
         <v>441</v>
@@ -73234,7 +73234,7 @@
         <v>0</v>
       </c>
       <c r="K620" s="3">
-        <v>32595</v>
+        <v>37483</v>
       </c>
       <c r="L620" s="3">
         <v>711</v>
@@ -73343,7 +73343,7 @@
         <v>0</v>
       </c>
       <c r="K621" s="3">
-        <v>38256</v>
+        <v>43845</v>
       </c>
       <c r="L621" s="3">
         <v>726</v>
@@ -73452,7 +73452,7 @@
         <v>0</v>
       </c>
       <c r="K622" s="3">
-        <v>38256</v>
+        <v>43845</v>
       </c>
       <c r="L622" s="3">
         <v>726</v>
@@ -73561,7 +73561,7 @@
         <v>0</v>
       </c>
       <c r="K623" s="3">
-        <v>43845</v>
+        <v>49434</v>
       </c>
       <c r="L623" s="3">
         <v>726</v>
@@ -73670,7 +73670,7 @@
         <v>0</v>
       </c>
       <c r="K624" s="3">
-        <v>75056</v>
+        <v>81703</v>
       </c>
       <c r="L624" s="3">
         <v>750</v>
@@ -73779,7 +73779,7 @@
         <v>0</v>
       </c>
       <c r="K625" s="3">
-        <v>87754</v>
+        <v>95378</v>
       </c>
       <c r="L625" s="3">
         <v>1207</v>
@@ -73888,7 +73888,7 @@
         <v>0</v>
       </c>
       <c r="K626" s="3">
-        <v>96034</v>
+        <v>104693</v>
       </c>
       <c r="L626" s="3">
         <v>1246</v>
@@ -73997,7 +73997,7 @@
         <v>0</v>
       </c>
       <c r="K627" s="3">
-        <v>96034</v>
+        <v>104693</v>
       </c>
       <c r="L627" s="3">
         <v>1246</v>
@@ -74106,7 +74106,7 @@
         <v>0</v>
       </c>
       <c r="K628" s="3">
-        <v>96034</v>
+        <v>104693</v>
       </c>
       <c r="L628" s="3">
         <v>1246</v>
@@ -74215,7 +74215,7 @@
         <v>0</v>
       </c>
       <c r="K629" s="3">
-        <v>96034</v>
+        <v>104693</v>
       </c>
       <c r="L629" s="3">
         <v>1325</v>
@@ -74324,7 +74324,7 @@
         <v>0</v>
       </c>
       <c r="K630" s="3">
-        <v>96034</v>
+        <v>104693</v>
       </c>
       <c r="L630" s="3">
         <v>2024</v>
@@ -74433,7 +74433,7 @@
         <v>0</v>
       </c>
       <c r="K631" s="3">
-        <v>103212</v>
+        <v>112055</v>
       </c>
       <c r="L631" s="3">
         <v>2490</v>
@@ -74542,7 +74542,7 @@
         <v>0</v>
       </c>
       <c r="K632" s="3">
-        <v>132693</v>
+        <v>143802</v>
       </c>
       <c r="L632" s="3">
         <v>3174</v>
@@ -74651,7 +74651,7 @@
         <v>0</v>
       </c>
       <c r="K633" s="3">
-        <v>132693</v>
+        <v>143802</v>
       </c>
       <c r="L633" s="3">
         <v>3174</v>
@@ -74760,7 +74760,7 @@
         <v>0</v>
       </c>
       <c r="K634" s="3">
-        <v>161591</v>
+        <v>173643</v>
       </c>
       <c r="L634" s="3">
         <v>3224</v>
@@ -74869,7 +74869,7 @@
         <v>0</v>
       </c>
       <c r="K635" s="3">
-        <v>191061</v>
+        <v>206045</v>
       </c>
       <c r="L635" s="3">
         <v>3480</v>
@@ -74978,7 +74978,7 @@
         <v>0</v>
       </c>
       <c r="K636" s="3">
-        <v>206564</v>
+        <v>222687</v>
       </c>
       <c r="L636" s="3">
         <v>4098</v>
@@ -75087,7 +75087,7 @@
         <v>0</v>
       </c>
       <c r="K637" s="3">
-        <v>218257</v>
+        <v>235569</v>
       </c>
       <c r="L637" s="3">
         <v>4138</v>
@@ -76286,13 +76286,13 @@
         <v>1</v>
       </c>
       <c r="K648" s="3">
-        <v>2285.6999999999998</v>
+        <v>1833.67</v>
       </c>
       <c r="L648" s="3">
         <v>14296</v>
       </c>
       <c r="M648" s="3">
-        <v>8482</v>
+        <v>6846</v>
       </c>
       <c r="N648" s="3">
         <v>624</v>
@@ -76301,7 +76301,7 @@
         <v>208</v>
       </c>
       <c r="P648" s="3">
-        <v>487</v>
+        <v>393</v>
       </c>
       <c r="Q648" s="3">
         <v>245</v>
@@ -76395,13 +76395,13 @@
         <v>1</v>
       </c>
       <c r="K649" s="3">
-        <v>2399.14</v>
+        <v>1929.44</v>
       </c>
       <c r="L649" s="3">
-        <v>16780</v>
+        <v>15084</v>
       </c>
       <c r="M649" s="3">
-        <v>8924</v>
+        <v>8076</v>
       </c>
       <c r="N649" s="3">
         <v>624</v>
@@ -76410,7 +76410,7 @@
         <v>208</v>
       </c>
       <c r="P649" s="3">
-        <v>487</v>
+        <v>393</v>
       </c>
       <c r="Q649" s="3">
         <v>245</v>
@@ -76504,13 +76504,13 @@
         <v>1</v>
       </c>
       <c r="K650" s="3">
-        <v>4066.16</v>
+        <v>3325.35</v>
       </c>
       <c r="L650" s="3">
-        <v>22703</v>
+        <v>19530</v>
       </c>
       <c r="M650" s="3">
-        <v>12128</v>
+        <v>10734</v>
       </c>
       <c r="N650" s="3">
         <v>1272</v>
@@ -76519,10 +76519,10 @@
         <v>677</v>
       </c>
       <c r="P650" s="3">
-        <v>918</v>
+        <v>731</v>
       </c>
       <c r="Q650" s="3">
-        <v>857</v>
+        <v>770</v>
       </c>
       <c r="R650" s="3">
         <v>1.02</v>
@@ -76613,25 +76613,25 @@
         <v>1</v>
       </c>
       <c r="K651" s="3">
-        <v>5200.66</v>
+        <v>4466.6899999999996</v>
       </c>
       <c r="L651" s="3">
-        <v>29226</v>
+        <v>24554</v>
       </c>
       <c r="M651" s="3">
         <v>14742</v>
       </c>
       <c r="N651" s="3">
-        <v>1632</v>
+        <v>1272</v>
       </c>
       <c r="O651" s="3">
-        <v>937</v>
+        <v>677</v>
       </c>
       <c r="P651" s="3">
-        <v>1387</v>
+        <v>1200</v>
       </c>
       <c r="Q651" s="3">
-        <v>945</v>
+        <v>770</v>
       </c>
       <c r="R651" s="3">
         <v>1.02</v>
@@ -76722,25 +76722,25 @@
         <v>1</v>
       </c>
       <c r="K652" s="3">
-        <v>6714</v>
+        <v>6033.77</v>
       </c>
       <c r="L652" s="3">
-        <v>34029</v>
+        <v>29064</v>
       </c>
       <c r="M652" s="3">
-        <v>17532</v>
+        <v>16585</v>
       </c>
       <c r="N652" s="3">
-        <v>2496</v>
+        <v>1920</v>
       </c>
       <c r="O652" s="3">
-        <v>1562</v>
+        <v>1145</v>
       </c>
       <c r="P652" s="3">
-        <v>1837</v>
+        <v>1537</v>
       </c>
       <c r="Q652" s="3">
-        <v>1575</v>
+        <v>1295</v>
       </c>
       <c r="R652" s="3">
         <v>1.04</v>
@@ -76831,25 +76831,25 @@
         <v>1</v>
       </c>
       <c r="K653" s="3">
-        <v>8005.47</v>
+        <v>7142.58</v>
       </c>
       <c r="L653" s="3">
-        <v>40533</v>
+        <v>36694</v>
       </c>
       <c r="M653" s="3">
         <v>20887</v>
       </c>
       <c r="N653" s="3">
-        <v>3072</v>
+        <v>2352</v>
       </c>
       <c r="O653" s="3">
-        <v>1979</v>
+        <v>1458</v>
       </c>
       <c r="P653" s="3">
-        <v>2287</v>
+        <v>1912</v>
       </c>
       <c r="Q653" s="3">
-        <v>1995</v>
+        <v>1645</v>
       </c>
       <c r="R653" s="3">
         <v>1.05</v>
@@ -76943,10 +76943,10 @@
         <v>12045.31</v>
       </c>
       <c r="L654" s="3">
-        <v>49439</v>
+        <v>49180</v>
       </c>
       <c r="M654" s="3">
-        <v>30526</v>
+        <v>28336</v>
       </c>
       <c r="N654" s="3">
         <v>3360</v>
@@ -77052,7 +77052,7 @@
         <v>14393.32</v>
       </c>
       <c r="L655" s="3">
-        <v>64133</v>
+        <v>59217</v>
       </c>
       <c r="M655" s="3">
         <v>34091</v>
@@ -77161,10 +77161,10 @@
         <v>17465.87</v>
       </c>
       <c r="L656" s="3">
-        <v>71804</v>
+        <v>70378</v>
       </c>
       <c r="M656" s="3">
-        <v>38986</v>
+        <v>36962</v>
       </c>
       <c r="N656" s="3">
         <v>4032</v>
@@ -77176,7 +77176,7 @@
         <v>3424</v>
       </c>
       <c r="Q656" s="3">
-        <v>2695</v>
+        <v>2804</v>
       </c>
       <c r="R656" s="3">
         <v>1.1118000000000001</v>
@@ -77270,22 +77270,22 @@
         <v>18091.68</v>
       </c>
       <c r="L657" s="3">
-        <v>80182</v>
+        <v>76239</v>
       </c>
       <c r="M657" s="3">
         <v>40505</v>
       </c>
       <c r="N657" s="3">
-        <v>4803</v>
+        <v>4320</v>
       </c>
       <c r="O657" s="3">
-        <v>3231</v>
+        <v>2881</v>
       </c>
       <c r="P657" s="3">
-        <v>3994</v>
+        <v>3742</v>
       </c>
       <c r="Q657" s="3">
-        <v>3257</v>
+        <v>3022</v>
       </c>
       <c r="R657" s="3">
         <v>1.1220000000000001</v>

--- a/Excel/monster.怪物.xlsx
+++ b/Excel/monster.怪物.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343F698B-CF52-4714-AAD8-3AF4EF1202F1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A154357-A322-4C7A-9591-69A0ECFBD6F4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5657,10 +5657,10 @@
   <dimension ref="A1:AO717"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D112" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D688" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K127" sqref="K127"/>
+      <selection pane="bottomRight" activeCell="M699" sqref="M699"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -57974,7 +57974,7 @@
         <v>0</v>
       </c>
       <c r="K480" s="3">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="L480" s="3">
         <v>20</v>
@@ -58083,7 +58083,7 @@
         <v>0</v>
       </c>
       <c r="K481" s="3">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="L481" s="3">
         <v>20</v>
@@ -58192,7 +58192,7 @@
         <v>0</v>
       </c>
       <c r="K482" s="3">
-        <v>447</v>
+        <v>525</v>
       </c>
       <c r="L482" s="3">
         <v>48</v>
@@ -58301,7 +58301,7 @@
         <v>0</v>
       </c>
       <c r="K483" s="3">
-        <v>447</v>
+        <v>525</v>
       </c>
       <c r="L483" s="3">
         <v>48</v>
@@ -58410,7 +58410,7 @@
         <v>0</v>
       </c>
       <c r="K484" s="3">
-        <v>447</v>
+        <v>525</v>
       </c>
       <c r="L484" s="3">
         <v>48</v>
@@ -59609,7 +59609,7 @@
         <v>0</v>
       </c>
       <c r="K495" s="3">
-        <v>4335</v>
+        <v>4981</v>
       </c>
       <c r="L495" s="3">
         <v>372</v>
@@ -59718,7 +59718,7 @@
         <v>0</v>
       </c>
       <c r="K496" s="3">
-        <v>4335</v>
+        <v>4981</v>
       </c>
       <c r="L496" s="3">
         <v>377</v>
@@ -59827,7 +59827,7 @@
         <v>0</v>
       </c>
       <c r="K497" s="3">
-        <v>4335</v>
+        <v>4981</v>
       </c>
       <c r="L497" s="3">
         <v>387</v>
@@ -59936,7 +59936,7 @@
         <v>0</v>
       </c>
       <c r="K498" s="3">
-        <v>4335</v>
+        <v>4981</v>
       </c>
       <c r="L498" s="3">
         <v>400</v>
@@ -60045,7 +60045,7 @@
         <v>0</v>
       </c>
       <c r="K499" s="3">
-        <v>13995</v>
+        <v>14641</v>
       </c>
       <c r="L499" s="3">
         <v>400</v>
@@ -60154,7 +60154,7 @@
         <v>0</v>
       </c>
       <c r="K500" s="3">
-        <v>14787</v>
+        <v>15481</v>
       </c>
       <c r="L500" s="3">
         <v>441</v>
@@ -60263,7 +60263,7 @@
         <v>0</v>
       </c>
       <c r="K501" s="3">
-        <v>19796</v>
+        <v>20560</v>
       </c>
       <c r="L501" s="3">
         <v>711</v>
@@ -60372,7 +60372,7 @@
         <v>0</v>
       </c>
       <c r="K502" s="3">
-        <v>23235</v>
+        <v>24205</v>
       </c>
       <c r="L502" s="3">
         <v>726</v>
@@ -60481,7 +60481,7 @@
         <v>0</v>
       </c>
       <c r="K503" s="3">
-        <v>23235</v>
+        <v>24205</v>
       </c>
       <c r="L503" s="3">
         <v>726</v>
@@ -60590,7 +60590,7 @@
         <v>0</v>
       </c>
       <c r="K504" s="3">
-        <v>28591</v>
+        <v>29561</v>
       </c>
       <c r="L504" s="3">
         <v>726</v>
@@ -60699,7 +60699,7 @@
         <v>0</v>
       </c>
       <c r="K505" s="3">
-        <v>35064</v>
+        <v>36344</v>
       </c>
       <c r="L505" s="3">
         <v>750</v>
@@ -60808,7 +60808,7 @@
         <v>0</v>
       </c>
       <c r="K506" s="3">
-        <v>41095</v>
+        <v>42663</v>
       </c>
       <c r="L506" s="3">
         <v>1207</v>
@@ -60917,7 +60917,7 @@
         <v>0</v>
       </c>
       <c r="K507" s="3">
-        <v>44718</v>
+        <v>46286</v>
       </c>
       <c r="L507" s="3">
         <v>1246</v>
@@ -61026,7 +61026,7 @@
         <v>0</v>
       </c>
       <c r="K508" s="3">
-        <v>44718</v>
+        <v>46286</v>
       </c>
       <c r="L508" s="3">
         <v>1246</v>
@@ -61135,7 +61135,7 @@
         <v>0</v>
       </c>
       <c r="K509" s="3">
-        <v>44718</v>
+        <v>46286</v>
       </c>
       <c r="L509" s="3">
         <v>1246</v>
@@ -61244,7 +61244,7 @@
         <v>0</v>
       </c>
       <c r="K510" s="3">
-        <v>44718</v>
+        <v>46286</v>
       </c>
       <c r="L510" s="3">
         <v>1325</v>
@@ -61353,7 +61353,7 @@
         <v>0</v>
       </c>
       <c r="K511" s="3">
-        <v>44718</v>
+        <v>46286</v>
       </c>
       <c r="L511" s="3">
         <v>2024</v>
@@ -61462,7 +61462,7 @@
         <v>0</v>
       </c>
       <c r="K512" s="3">
-        <v>48422</v>
+        <v>50332</v>
       </c>
       <c r="L512" s="3">
         <v>2490</v>
@@ -61571,7 +61571,7 @@
         <v>0</v>
       </c>
       <c r="K513" s="3">
-        <v>62416</v>
+        <v>64988</v>
       </c>
       <c r="L513" s="3">
         <v>3174</v>
@@ -61680,7 +61680,7 @@
         <v>0</v>
       </c>
       <c r="K514" s="3">
-        <v>62416</v>
+        <v>64988</v>
       </c>
       <c r="L514" s="3">
         <v>3174</v>
@@ -61789,7 +61789,7 @@
         <v>0</v>
       </c>
       <c r="K515" s="3">
-        <v>90586</v>
+        <v>93518</v>
       </c>
       <c r="L515" s="3">
         <v>3224</v>
@@ -61898,7 +61898,7 @@
         <v>0</v>
       </c>
       <c r="K516" s="3">
-        <v>107115</v>
+        <v>110309</v>
       </c>
       <c r="L516" s="3">
         <v>3480</v>
@@ -62007,7 +62007,7 @@
         <v>0</v>
       </c>
       <c r="K517" s="3">
-        <v>115798</v>
+        <v>119282</v>
       </c>
       <c r="L517" s="3">
         <v>4098</v>
@@ -62116,7 +62116,7 @@
         <v>0</v>
       </c>
       <c r="K518" s="3">
-        <v>122239</v>
+        <v>134993</v>
       </c>
       <c r="L518" s="3">
         <v>4138</v>
@@ -62225,7 +62225,7 @@
         <v>0</v>
       </c>
       <c r="K519" s="3">
-        <v>159284</v>
+        <v>173752</v>
       </c>
       <c r="L519" s="3">
         <v>5174</v>
@@ -62334,7 +62334,7 @@
         <v>0</v>
       </c>
       <c r="K520" s="3">
-        <v>194069</v>
+        <v>220700</v>
       </c>
       <c r="L520" s="3">
         <v>5230</v>
@@ -62443,7 +62443,7 @@
         <v>0</v>
       </c>
       <c r="K521" s="3">
-        <v>151016</v>
+        <v>176601</v>
       </c>
       <c r="L521" s="3">
         <v>5443</v>
@@ -62552,7 +62552,7 @@
         <v>0</v>
       </c>
       <c r="K522" s="3">
-        <v>162462</v>
+        <v>188241</v>
       </c>
       <c r="L522" s="3">
         <v>5853</v>
@@ -62661,7 +62661,7 @@
         <v>0</v>
       </c>
       <c r="K523" s="3">
-        <v>170250</v>
+        <v>196143</v>
       </c>
       <c r="L523" s="3">
         <v>6086</v>
@@ -62770,7 +62770,7 @@
         <v>0</v>
       </c>
       <c r="K524" s="3">
-        <v>178605</v>
+        <v>204745</v>
       </c>
       <c r="L524" s="3">
         <v>6160</v>
@@ -62879,7 +62879,7 @@
         <v>0</v>
       </c>
       <c r="K525" s="3">
-        <v>260356</v>
+        <v>290286</v>
       </c>
       <c r="L525" s="3">
         <v>7950</v>
@@ -62988,7 +62988,7 @@
         <v>0</v>
       </c>
       <c r="K526" s="3">
-        <v>449066</v>
+        <v>560690</v>
       </c>
       <c r="L526" s="3">
         <v>9274</v>
@@ -63097,7 +63097,7 @@
         <v>0</v>
       </c>
       <c r="K527" s="3">
-        <v>708097</v>
+        <v>856207</v>
       </c>
       <c r="L527" s="3">
         <v>11354</v>
@@ -63206,7 +63206,7 @@
         <v>0</v>
       </c>
       <c r="K528" s="3">
-        <v>785271</v>
+        <v>933996</v>
       </c>
       <c r="L528" s="3">
         <v>12624</v>
@@ -63312,10 +63312,10 @@
         <v>189</v>
       </c>
       <c r="J529" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K529" s="3">
-        <v>935049</v>
+        <v>1088.51</v>
       </c>
       <c r="L529" s="3">
         <v>14296</v>
@@ -63421,10 +63421,10 @@
         <v>189</v>
       </c>
       <c r="J530" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K530" s="3">
-        <v>983981</v>
+        <v>1137.68</v>
       </c>
       <c r="L530" s="3">
         <v>15084</v>
@@ -63533,7 +63533,7 @@
         <v>1</v>
       </c>
       <c r="K531" s="3">
-        <v>1708.37</v>
+        <v>1903.43</v>
       </c>
       <c r="L531" s="3">
         <v>19530</v>
@@ -63642,7 +63642,7 @@
         <v>1</v>
       </c>
       <c r="K532" s="3">
-        <v>2301.5500000000002</v>
+        <v>2632.2</v>
       </c>
       <c r="L532" s="3">
         <v>24554</v>
@@ -63751,7 +63751,7 @@
         <v>1</v>
       </c>
       <c r="K533" s="3">
-        <v>3114.8</v>
+        <v>3519.12</v>
       </c>
       <c r="L533" s="3">
         <v>29064</v>
@@ -63860,7 +63860,7 @@
         <v>1</v>
       </c>
       <c r="K534" s="3">
-        <v>3712.66</v>
+        <v>4227.6400000000003</v>
       </c>
       <c r="L534" s="3">
         <v>36694</v>
@@ -63969,7 +63969,7 @@
         <v>1</v>
       </c>
       <c r="K535" s="3">
-        <v>6302.85</v>
+        <v>6989.39</v>
       </c>
       <c r="L535" s="3">
         <v>49180</v>
@@ -64078,7 +64078,7 @@
         <v>1</v>
       </c>
       <c r="K536" s="3">
-        <v>7556.68</v>
+        <v>8335.4</v>
       </c>
       <c r="L536" s="3">
         <v>59217</v>
@@ -64187,7 +64187,7 @@
         <v>1</v>
       </c>
       <c r="K537" s="3">
-        <v>9136.31</v>
+        <v>10108.85</v>
       </c>
       <c r="L537" s="3">
         <v>70378</v>
@@ -64296,7 +64296,7 @@
         <v>1</v>
       </c>
       <c r="K538" s="3">
-        <v>9463.83</v>
+        <v>10516.85</v>
       </c>
       <c r="L538" s="3">
         <v>76239</v>
@@ -64405,7 +64405,7 @@
         <v>1</v>
       </c>
       <c r="K539" s="3">
-        <v>10368.530000000001</v>
+        <v>11513.72</v>
       </c>
       <c r="L539" s="3">
         <v>88534</v>
@@ -64514,7 +64514,7 @@
         <v>1</v>
       </c>
       <c r="K540" s="3">
-        <v>10735.12</v>
+        <v>11968.4</v>
       </c>
       <c r="L540" s="3">
         <v>92369</v>
@@ -64623,7 +64623,7 @@
         <v>1</v>
       </c>
       <c r="K541" s="3">
-        <v>18500.900000000001</v>
+        <v>20729.57</v>
       </c>
       <c r="L541" s="3">
         <v>104242</v>
@@ -64732,7 +64732,7 @@
         <v>1</v>
       </c>
       <c r="K542" s="3">
-        <v>21665.9</v>
+        <v>24095.05</v>
       </c>
       <c r="L542" s="3">
         <v>114878</v>
@@ -64841,7 +64841,7 @@
         <v>1</v>
       </c>
       <c r="K543" s="3">
-        <v>25223.07</v>
+        <v>27830.93</v>
       </c>
       <c r="L543" s="3">
         <v>123958</v>
@@ -64950,7 +64950,7 @@
         <v>1</v>
       </c>
       <c r="K544" s="3">
-        <v>27642.22</v>
+        <v>30259.25</v>
       </c>
       <c r="L544" s="3">
         <v>133124</v>
@@ -65059,7 +65059,7 @@
         <v>1</v>
       </c>
       <c r="K545" s="3">
-        <v>29469.98</v>
+        <v>32071.74</v>
       </c>
       <c r="L545" s="3">
         <v>139030</v>
@@ -65168,7 +65168,7 @@
         <v>1</v>
       </c>
       <c r="K546" s="3">
-        <v>33048.75</v>
+        <v>36190.980000000003</v>
       </c>
       <c r="L546" s="3">
         <v>154230</v>
@@ -65277,7 +65277,7 @@
         <v>1</v>
       </c>
       <c r="K547" s="3">
-        <v>37030.199999999997</v>
+        <v>40792.959999999999</v>
       </c>
       <c r="L547" s="3">
         <v>172182</v>
@@ -65386,7 +65386,7 @@
         <v>1</v>
       </c>
       <c r="K548" s="3">
-        <v>38240.31</v>
+        <v>42452.95</v>
       </c>
       <c r="L548" s="3">
         <v>205567</v>
@@ -65495,7 +65495,7 @@
         <v>1</v>
       </c>
       <c r="K549" s="3">
-        <v>45914.05</v>
+        <v>50732.07</v>
       </c>
       <c r="L549" s="3">
         <v>242248</v>
@@ -65604,7 +65604,7 @@
         <v>1</v>
       </c>
       <c r="K550" s="3">
-        <v>51074.81</v>
+        <v>56117.72</v>
       </c>
       <c r="L550" s="3">
         <v>247220</v>
@@ -65713,7 +65713,7 @@
         <v>1</v>
       </c>
       <c r="K551" s="3">
-        <v>52596.47</v>
+        <v>58069.84</v>
       </c>
       <c r="L551" s="3">
         <v>254002</v>
@@ -65822,7 +65822,7 @@
         <v>1</v>
       </c>
       <c r="K552" s="3">
-        <v>58310.94</v>
+        <v>63878.92</v>
       </c>
       <c r="L552" s="3">
         <v>269386</v>
@@ -65931,7 +65931,7 @@
         <v>1</v>
       </c>
       <c r="K553" s="3">
-        <v>73016.600000000006</v>
+        <v>79844.12</v>
       </c>
       <c r="L553" s="3">
         <v>362134</v>
@@ -66040,7 +66040,7 @@
         <v>1</v>
       </c>
       <c r="K554" s="3">
-        <v>95132.21</v>
+        <v>103727.88</v>
       </c>
       <c r="L554" s="3">
         <v>386726</v>
@@ -66149,7 +66149,7 @@
         <v>1</v>
       </c>
       <c r="K555" s="3">
-        <v>113449.71</v>
+        <v>122304.47</v>
       </c>
       <c r="L555" s="3">
         <v>436056</v>
@@ -66258,7 +66258,7 @@
         <v>1</v>
       </c>
       <c r="K556" s="3">
-        <v>114992.67</v>
+        <v>123883.39</v>
       </c>
       <c r="L556" s="3">
         <v>468226</v>
@@ -66367,7 +66367,7 @@
         <v>1</v>
       </c>
       <c r="K557" s="3">
-        <v>131437.28</v>
+        <v>140949.17000000001</v>
       </c>
       <c r="L557" s="3">
         <v>576324</v>
@@ -66476,7 +66476,7 @@
         <v>1</v>
       </c>
       <c r="K558" s="3">
-        <v>168505.34</v>
+        <v>178507.06</v>
       </c>
       <c r="L558" s="3">
         <v>658686</v>
@@ -66585,7 +66585,7 @@
         <v>1</v>
       </c>
       <c r="K559" s="3">
-        <v>195559.7</v>
+        <v>206722.96</v>
       </c>
       <c r="L559" s="3">
         <v>686046</v>
@@ -66694,7 +66694,7 @@
         <v>1</v>
       </c>
       <c r="K560" s="3">
-        <v>235485.15</v>
+        <v>248912.24</v>
       </c>
       <c r="L560" s="3">
         <v>856926</v>
@@ -66803,7 +66803,7 @@
         <v>1</v>
       </c>
       <c r="K561" s="3">
-        <v>282473.03000000003</v>
+        <v>296507.59000000003</v>
       </c>
       <c r="L561" s="3">
         <v>906122</v>
@@ -66912,7 +66912,7 @@
         <v>1</v>
       </c>
       <c r="K562" s="3">
-        <v>315539.06</v>
+        <v>330849.17</v>
       </c>
       <c r="L562" s="3">
         <v>975786</v>
@@ -67021,7 +67021,7 @@
         <v>1</v>
       </c>
       <c r="K563" s="3">
-        <v>354050.92</v>
+        <v>369538.74</v>
       </c>
       <c r="L563" s="3">
         <v>1061142</v>
@@ -67130,7 +67130,7 @@
         <v>1</v>
       </c>
       <c r="K564" s="3">
-        <v>430963.02</v>
+        <v>446915.49</v>
       </c>
       <c r="L564" s="3">
         <v>1258266</v>
@@ -67239,7 +67239,7 @@
         <v>1</v>
       </c>
       <c r="K565" s="3">
-        <v>612441.35</v>
+        <v>629610.87</v>
       </c>
       <c r="L565" s="3">
         <v>1603750</v>
@@ -67348,7 +67348,7 @@
         <v>1</v>
       </c>
       <c r="K566" s="3">
-        <v>803590.09</v>
+        <v>821958.62</v>
       </c>
       <c r="L566" s="3">
         <v>2056752</v>
@@ -67457,7 +67457,7 @@
         <v>1</v>
       </c>
       <c r="K567" s="3">
-        <v>848498.52</v>
+        <v>869391.67</v>
       </c>
       <c r="L567" s="3">
         <v>2123094</v>
@@ -67566,7 +67566,7 @@
         <v>2</v>
       </c>
       <c r="K568" s="3">
-        <v>1308.01</v>
+        <v>1338.33</v>
       </c>
       <c r="L568" s="3">
         <v>2780244</v>
@@ -67675,7 +67675,7 @@
         <v>2</v>
       </c>
       <c r="K569" s="3">
-        <v>1694.19</v>
+        <v>1726.5</v>
       </c>
       <c r="L569" s="3">
         <v>2926472</v>
@@ -67784,7 +67784,7 @@
         <v>2</v>
       </c>
       <c r="K570" s="3">
-        <v>1884.41</v>
+        <v>1917.79</v>
       </c>
       <c r="L570" s="3">
         <v>2967770</v>
@@ -67893,7 +67893,7 @@
         <v>2</v>
       </c>
       <c r="K571" s="3">
-        <v>1912.28</v>
+        <v>1946.1</v>
       </c>
       <c r="L571" s="3">
         <v>3012020</v>
@@ -68002,7 +68002,7 @@
         <v>2</v>
       </c>
       <c r="K572" s="3">
-        <v>2024.57</v>
+        <v>2059.1799999999998</v>
       </c>
       <c r="L572" s="3">
         <v>3130814</v>
@@ -68111,7 +68111,7 @@
         <v>2</v>
       </c>
       <c r="K573" s="3">
-        <v>2063.5100000000002</v>
+        <v>2098.61</v>
       </c>
       <c r="L573" s="3">
         <v>3261118</v>
@@ -68220,7 +68220,7 @@
         <v>2</v>
       </c>
       <c r="K574" s="3">
-        <v>2107.09</v>
+        <v>2146.4699999999998</v>
       </c>
       <c r="L574" s="3">
         <v>3531480</v>
@@ -68329,7 +68329,7 @@
         <v>2</v>
       </c>
       <c r="K575" s="3">
-        <v>2369.17</v>
+        <v>2409.5</v>
       </c>
       <c r="L575" s="3">
         <v>3773226</v>
@@ -68438,7 +68438,7 @@
         <v>2</v>
       </c>
       <c r="K576" s="3">
-        <v>2713.08</v>
+        <v>2761.88</v>
       </c>
       <c r="L576" s="3">
         <v>4493070</v>
@@ -68547,7 +68547,7 @@
         <v>2</v>
       </c>
       <c r="K577" s="3">
-        <v>3145.27</v>
+        <v>3195.83</v>
       </c>
       <c r="L577" s="3">
         <v>4548874</v>
@@ -68656,7 +68656,7 @@
         <v>2</v>
       </c>
       <c r="K578" s="3">
-        <v>3935.65</v>
+        <v>3989.93</v>
       </c>
       <c r="L578" s="3">
         <v>5131868</v>
@@ -68765,7 +68765,7 @@
         <v>2</v>
       </c>
       <c r="K579" s="3">
-        <v>3960.83</v>
+        <v>4016.16</v>
       </c>
       <c r="L579" s="3">
         <v>5165074</v>
@@ -68874,7 +68874,7 @@
         <v>2</v>
       </c>
       <c r="K580" s="3">
-        <v>4048.01</v>
+        <v>4104.1400000000003</v>
       </c>
       <c r="L580" s="3">
         <v>5198278</v>
@@ -68983,7 +68983,7 @@
         <v>2</v>
       </c>
       <c r="K581" s="3">
-        <v>4168.5200000000004</v>
+        <v>4225.5200000000004</v>
       </c>
       <c r="L581" s="3">
         <v>5451732</v>
@@ -69092,7 +69092,7 @@
         <v>2</v>
       </c>
       <c r="K582" s="3">
-        <v>4328.8900000000003</v>
+        <v>4391.84</v>
       </c>
       <c r="L582" s="3">
         <v>5552820</v>
@@ -69201,7 +69201,7 @@
         <v>2</v>
       </c>
       <c r="K583" s="3">
-        <v>4228.17</v>
+        <v>4291.75</v>
       </c>
       <c r="L583" s="3">
         <v>6032872</v>
@@ -69310,7 +69310,7 @@
         <v>2</v>
       </c>
       <c r="K584" s="3">
-        <v>4709.8100000000004</v>
+        <v>4774.66</v>
       </c>
       <c r="L584" s="3">
         <v>6149580</v>
@@ -69419,7 +69419,7 @@
         <v>2</v>
       </c>
       <c r="K585" s="3">
-        <v>4734.8100000000004</v>
+        <v>4799.75</v>
       </c>
       <c r="L585" s="3">
         <v>6191700</v>
@@ -69528,7 +69528,7 @@
         <v>2</v>
       </c>
       <c r="K586" s="3">
-        <v>4763.43</v>
+        <v>4828.9799999999996</v>
       </c>
       <c r="L586" s="3">
         <v>6229432</v>
@@ -69637,7 +69637,7 @@
         <v>2</v>
       </c>
       <c r="K587" s="3">
-        <v>4792.04</v>
+        <v>4858.21</v>
       </c>
       <c r="L587" s="3">
         <v>6267166</v>
@@ -69746,7 +69746,7 @@
         <v>2</v>
       </c>
       <c r="K588" s="3">
-        <v>4824.57</v>
+        <v>4891.9799999999996</v>
       </c>
       <c r="L588" s="3">
         <v>6780556</v>
@@ -69855,7 +69855,7 @@
         <v>2</v>
       </c>
       <c r="K589" s="3">
-        <v>5215.53</v>
+        <v>5284.37</v>
       </c>
       <c r="L589" s="3">
         <v>6820634</v>
@@ -69964,7 +69964,7 @@
         <v>2</v>
       </c>
       <c r="K590" s="3">
-        <v>5245.94</v>
+        <v>5315.4</v>
       </c>
       <c r="L590" s="3">
         <v>6860712</v>
@@ -70073,7 +70073,7 @@
         <v>2</v>
       </c>
       <c r="K591" s="3">
-        <v>5391.04</v>
+        <v>5461.57</v>
       </c>
       <c r="L591" s="3">
         <v>7050808</v>
@@ -70182,7 +70182,7 @@
         <v>2</v>
       </c>
       <c r="K592" s="3">
-        <v>5422.11</v>
+        <v>5493.27</v>
       </c>
       <c r="L592" s="3">
         <v>7091756</v>
@@ -70291,7 +70291,7 @@
         <v>2</v>
       </c>
       <c r="K593" s="3">
-        <v>5280.12</v>
+        <v>5352.06</v>
       </c>
       <c r="L593" s="3">
         <v>7518644</v>
@@ -70400,7 +70400,7 @@
         <v>2</v>
       </c>
       <c r="K594" s="3">
-        <v>5903.56</v>
+        <v>5977.61</v>
       </c>
       <c r="L594" s="3">
         <v>7721840</v>
@@ -70509,7 +70509,7 @@
         <v>2</v>
       </c>
       <c r="K595" s="3">
-        <v>5936.36</v>
+        <v>6011.04</v>
       </c>
       <c r="L595" s="3">
         <v>7765064</v>
@@ -70618,7 +70618,7 @@
         <v>2</v>
       </c>
       <c r="K596" s="3">
-        <v>5972.52</v>
+        <v>6048.35</v>
       </c>
       <c r="L596" s="3">
         <v>7812968</v>
@@ -70727,7 +70727,7 @@
         <v>2</v>
       </c>
       <c r="K597" s="3">
-        <v>6012.06</v>
+        <v>6089.55</v>
       </c>
       <c r="L597" s="3">
         <v>7865554</v>
@@ -70836,7 +70836,7 @@
         <v>2</v>
       </c>
       <c r="K598" s="3">
-        <v>6094.84</v>
+        <v>6175.17</v>
       </c>
       <c r="L598" s="3">
         <v>7976170</v>
@@ -70945,7 +70945,7 @@
         <v>0</v>
       </c>
       <c r="K599" s="3">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="L599" s="3">
         <v>20</v>
@@ -71054,7 +71054,7 @@
         <v>0</v>
       </c>
       <c r="K600" s="3">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="L600" s="3">
         <v>20</v>
@@ -71163,7 +71163,7 @@
         <v>0</v>
       </c>
       <c r="K601" s="3">
-        <v>500</v>
+        <v>578</v>
       </c>
       <c r="L601" s="3">
         <v>48</v>
@@ -71272,7 +71272,7 @@
         <v>0</v>
       </c>
       <c r="K602" s="3">
-        <v>500</v>
+        <v>578</v>
       </c>
       <c r="L602" s="3">
         <v>48</v>
@@ -71381,7 +71381,7 @@
         <v>0</v>
       </c>
       <c r="K603" s="3">
-        <v>500</v>
+        <v>578</v>
       </c>
       <c r="L603" s="3">
         <v>48</v>
@@ -72580,7 +72580,7 @@
         <v>0</v>
       </c>
       <c r="K614" s="3">
-        <v>6855</v>
+        <v>7501</v>
       </c>
       <c r="L614" s="3">
         <v>372</v>
@@ -72689,7 +72689,7 @@
         <v>0</v>
       </c>
       <c r="K615" s="3">
-        <v>6855</v>
+        <v>7501</v>
       </c>
       <c r="L615" s="3">
         <v>377</v>
@@ -72798,7 +72798,7 @@
         <v>0</v>
       </c>
       <c r="K616" s="3">
-        <v>6855</v>
+        <v>7501</v>
       </c>
       <c r="L616" s="3">
         <v>387</v>
@@ -72907,7 +72907,7 @@
         <v>0</v>
       </c>
       <c r="K617" s="3">
-        <v>6855</v>
+        <v>7501</v>
       </c>
       <c r="L617" s="3">
         <v>400</v>
@@ -73016,7 +73016,7 @@
         <v>0</v>
       </c>
       <c r="K618" s="3">
-        <v>26175</v>
+        <v>26821</v>
       </c>
       <c r="L618" s="3">
         <v>400</v>
@@ -73125,7 +73125,7 @@
         <v>0</v>
       </c>
       <c r="K619" s="3">
-        <v>27639</v>
+        <v>28333</v>
       </c>
       <c r="L619" s="3">
         <v>441</v>
@@ -73234,7 +73234,7 @@
         <v>0</v>
       </c>
       <c r="K620" s="3">
-        <v>37483</v>
+        <v>38247</v>
       </c>
       <c r="L620" s="3">
         <v>711</v>
@@ -73343,7 +73343,7 @@
         <v>0</v>
       </c>
       <c r="K621" s="3">
-        <v>43845</v>
+        <v>44815</v>
       </c>
       <c r="L621" s="3">
         <v>726</v>
@@ -73452,7 +73452,7 @@
         <v>0</v>
       </c>
       <c r="K622" s="3">
-        <v>43845</v>
+        <v>44815</v>
       </c>
       <c r="L622" s="3">
         <v>726</v>
@@ -73561,7 +73561,7 @@
         <v>0</v>
       </c>
       <c r="K623" s="3">
-        <v>49434</v>
+        <v>50404</v>
       </c>
       <c r="L623" s="3">
         <v>726</v>
@@ -73670,7 +73670,7 @@
         <v>0</v>
       </c>
       <c r="K624" s="3">
-        <v>81703</v>
+        <v>82983</v>
       </c>
       <c r="L624" s="3">
         <v>750</v>
@@ -73779,7 +73779,7 @@
         <v>0</v>
       </c>
       <c r="K625" s="3">
-        <v>95378</v>
+        <v>96946</v>
       </c>
       <c r="L625" s="3">
         <v>1207</v>
@@ -73888,7 +73888,7 @@
         <v>0</v>
       </c>
       <c r="K626" s="3">
-        <v>104693</v>
+        <v>106261</v>
       </c>
       <c r="L626" s="3">
         <v>1246</v>
@@ -73997,7 +73997,7 @@
         <v>0</v>
       </c>
       <c r="K627" s="3">
-        <v>104693</v>
+        <v>106261</v>
       </c>
       <c r="L627" s="3">
         <v>1246</v>
@@ -74106,7 +74106,7 @@
         <v>0</v>
       </c>
       <c r="K628" s="3">
-        <v>104693</v>
+        <v>106261</v>
       </c>
       <c r="L628" s="3">
         <v>1246</v>
@@ -74215,7 +74215,7 @@
         <v>0</v>
       </c>
       <c r="K629" s="3">
-        <v>104693</v>
+        <v>106261</v>
       </c>
       <c r="L629" s="3">
         <v>1325</v>
@@ -74324,7 +74324,7 @@
         <v>0</v>
       </c>
       <c r="K630" s="3">
-        <v>104693</v>
+        <v>106261</v>
       </c>
       <c r="L630" s="3">
         <v>2024</v>
@@ -74433,7 +74433,7 @@
         <v>0</v>
       </c>
       <c r="K631" s="3">
-        <v>112055</v>
+        <v>113965</v>
       </c>
       <c r="L631" s="3">
         <v>2490</v>
@@ -74542,7 +74542,7 @@
         <v>0</v>
       </c>
       <c r="K632" s="3">
-        <v>143802</v>
+        <v>146374</v>
       </c>
       <c r="L632" s="3">
         <v>3174</v>
@@ -74651,7 +74651,7 @@
         <v>0</v>
       </c>
       <c r="K633" s="3">
-        <v>143802</v>
+        <v>146374</v>
       </c>
       <c r="L633" s="3">
         <v>3174</v>
@@ -74760,7 +74760,7 @@
         <v>0</v>
       </c>
       <c r="K634" s="3">
-        <v>173643</v>
+        <v>176575</v>
       </c>
       <c r="L634" s="3">
         <v>3224</v>
@@ -74869,7 +74869,7 @@
         <v>0</v>
       </c>
       <c r="K635" s="3">
-        <v>206045</v>
+        <v>209239</v>
       </c>
       <c r="L635" s="3">
         <v>3480</v>
@@ -74978,7 +74978,7 @@
         <v>0</v>
       </c>
       <c r="K636" s="3">
-        <v>222687</v>
+        <v>226171</v>
       </c>
       <c r="L636" s="3">
         <v>4098</v>
@@ -75087,7 +75087,7 @@
         <v>0</v>
       </c>
       <c r="K637" s="3">
-        <v>235569</v>
+        <v>257593</v>
       </c>
       <c r="L637" s="3">
         <v>4138</v>
@@ -75196,7 +75196,7 @@
         <v>0</v>
       </c>
       <c r="K638" s="3">
-        <v>303712</v>
+        <v>328260</v>
       </c>
       <c r="L638" s="3">
         <v>5174</v>
@@ -75305,7 +75305,7 @@
         <v>0</v>
       </c>
       <c r="K639" s="3">
-        <v>370876</v>
+        <v>418928</v>
       </c>
       <c r="L639" s="3">
         <v>5230</v>
@@ -75414,7 +75414,7 @@
         <v>0</v>
       </c>
       <c r="K640" s="3">
-        <v>286948</v>
+        <v>333124</v>
       </c>
       <c r="L640" s="3">
         <v>5443</v>
@@ -75523,7 +75523,7 @@
         <v>0</v>
       </c>
       <c r="K641" s="3">
-        <v>308640</v>
+        <v>354827</v>
       </c>
       <c r="L641" s="3">
         <v>5853</v>
@@ -75632,7 +75632,7 @@
         <v>0</v>
       </c>
       <c r="K642" s="3">
-        <v>323431</v>
+        <v>369614</v>
       </c>
       <c r="L642" s="3">
         <v>6086</v>
@@ -75741,7 +75741,7 @@
         <v>0</v>
       </c>
       <c r="K643" s="3">
-        <v>339784</v>
+        <v>386452</v>
       </c>
       <c r="L643" s="3">
         <v>6160</v>
@@ -75850,7 +75850,7 @@
         <v>0</v>
       </c>
       <c r="K644" s="3">
-        <v>470163</v>
+        <v>519919</v>
       </c>
       <c r="L644" s="3">
         <v>7950</v>
@@ -75956,10 +75956,10 @@
         <v>189</v>
       </c>
       <c r="J645" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K645" s="3">
-        <v>844260</v>
+        <v>1051.44</v>
       </c>
       <c r="L645" s="3">
         <v>9274</v>
@@ -76068,7 +76068,7 @@
         <v>1</v>
       </c>
       <c r="K646" s="3">
-        <v>1408.76</v>
+        <v>1697.97</v>
       </c>
       <c r="L646" s="3">
         <v>11354</v>
@@ -76177,7 +76177,7 @@
         <v>1</v>
       </c>
       <c r="K647" s="3">
-        <v>1562.02</v>
+        <v>1851.24</v>
       </c>
       <c r="L647" s="3">
         <v>12624</v>
@@ -76286,7 +76286,7 @@
         <v>1</v>
       </c>
       <c r="K648" s="3">
-        <v>1833.67</v>
+        <v>2126.4499999999998</v>
       </c>
       <c r="L648" s="3">
         <v>14296</v>
@@ -76395,7 +76395,7 @@
         <v>1</v>
       </c>
       <c r="K649" s="3">
-        <v>1929.44</v>
+        <v>2221.9699999999998</v>
       </c>
       <c r="L649" s="3">
         <v>15084</v>
@@ -76504,7 +76504,7 @@
         <v>1</v>
       </c>
       <c r="K650" s="3">
-        <v>3325.35</v>
+        <v>3686.82</v>
       </c>
       <c r="L650" s="3">
         <v>19530</v>
@@ -76613,7 +76613,7 @@
         <v>1</v>
       </c>
       <c r="K651" s="3">
-        <v>4466.6899999999996</v>
+        <v>5090.38</v>
       </c>
       <c r="L651" s="3">
         <v>24554</v>
@@ -76722,7 +76722,7 @@
         <v>1</v>
       </c>
       <c r="K652" s="3">
-        <v>6033.77</v>
+        <v>6791.67</v>
       </c>
       <c r="L652" s="3">
         <v>29064</v>
@@ -76831,7 +76831,7 @@
         <v>1</v>
       </c>
       <c r="K653" s="3">
-        <v>7142.58</v>
+        <v>8104.75</v>
       </c>
       <c r="L653" s="3">
         <v>36694</v>
@@ -76940,7 +76940,7 @@
         <v>1</v>
       </c>
       <c r="K654" s="3">
-        <v>12045.31</v>
+        <v>13304.71</v>
       </c>
       <c r="L654" s="3">
         <v>49180</v>
@@ -77049,7 +77049,7 @@
         <v>1</v>
       </c>
       <c r="K655" s="3">
-        <v>14393.32</v>
+        <v>15821.75</v>
       </c>
       <c r="L655" s="3">
         <v>59217</v>
@@ -77158,7 +77158,7 @@
         <v>1</v>
       </c>
       <c r="K656" s="3">
-        <v>17465.87</v>
+        <v>19259.2</v>
       </c>
       <c r="L656" s="3">
         <v>70378</v>
@@ -77267,7 +77267,7 @@
         <v>1</v>
       </c>
       <c r="K657" s="3">
-        <v>18091.68</v>
+        <v>20037.37</v>
       </c>
       <c r="L657" s="3">
         <v>76239</v>
@@ -77376,7 +77376,7 @@
         <v>1</v>
       </c>
       <c r="K658" s="3">
-        <v>19820.75</v>
+        <v>21935.86</v>
       </c>
       <c r="L658" s="3">
         <v>88534</v>
@@ -77485,7 +77485,7 @@
         <v>1</v>
       </c>
       <c r="K659" s="3">
-        <v>20521.29</v>
+        <v>22803.19</v>
       </c>
       <c r="L659" s="3">
         <v>92369</v>
@@ -77594,7 +77594,7 @@
         <v>1</v>
       </c>
       <c r="K660" s="3">
-        <v>35376.29</v>
+        <v>39516.400000000001</v>
       </c>
       <c r="L660" s="3">
         <v>104242</v>
@@ -77703,7 +77703,7 @@
         <v>1</v>
       </c>
       <c r="K661" s="3">
-        <v>41249.86</v>
+        <v>45761.15</v>
       </c>
       <c r="L661" s="3">
         <v>114878</v>
@@ -77812,7 +77812,7 @@
         <v>1</v>
       </c>
       <c r="K662" s="3">
-        <v>48243.87</v>
+        <v>53083.56</v>
       </c>
       <c r="L662" s="3">
         <v>123958</v>
@@ -77921,7 +77921,7 @@
         <v>1</v>
       </c>
       <c r="K663" s="3">
-        <v>52875.17</v>
+        <v>57720.19</v>
       </c>
       <c r="L663" s="3">
         <v>133124</v>
@@ -78030,7 +78030,7 @@
         <v>1</v>
       </c>
       <c r="K664" s="3">
-        <v>56370.400000000001</v>
+        <v>61171.57</v>
       </c>
       <c r="L664" s="3">
         <v>139030</v>
@@ -78139,7 +78139,7 @@
         <v>1</v>
       </c>
       <c r="K665" s="3">
-        <v>63214.51</v>
+        <v>69031.78</v>
       </c>
       <c r="L665" s="3">
         <v>154230</v>
@@ -78248,7 +78248,7 @@
         <v>1</v>
       </c>
       <c r="K666" s="3">
-        <v>70828.98</v>
+        <v>77814.259999999995</v>
       </c>
       <c r="L666" s="3">
         <v>172182</v>
@@ -78357,7 +78357,7 @@
         <v>1</v>
       </c>
       <c r="K667" s="3">
-        <v>73107.53</v>
+        <v>80894.850000000006</v>
       </c>
       <c r="L667" s="3">
         <v>205567</v>
@@ -78466,7 +78466,7 @@
         <v>1</v>
       </c>
       <c r="K668" s="3">
-        <v>87382.26</v>
+        <v>96299.02</v>
       </c>
       <c r="L668" s="3">
         <v>242248</v>
@@ -78575,7 +78575,7 @@
         <v>1</v>
       </c>
       <c r="K669" s="3">
-        <v>97687.43</v>
+        <v>107036.14</v>
       </c>
       <c r="L669" s="3">
         <v>247220</v>
@@ -78684,7 +78684,7 @@
         <v>1</v>
       </c>
       <c r="K670" s="3">
-        <v>100597.34</v>
+        <v>110765.71</v>
       </c>
       <c r="L670" s="3">
         <v>254002</v>
@@ -78793,7 +78793,7 @@
         <v>1</v>
       </c>
       <c r="K671" s="3">
-        <v>111525.77</v>
+        <v>121832.48</v>
       </c>
       <c r="L671" s="3">
         <v>269386</v>
@@ -78902,7 +78902,7 @@
         <v>1</v>
       </c>
       <c r="K672" s="3">
-        <v>139952.57</v>
+        <v>152577.35999999999</v>
       </c>
       <c r="L672" s="3">
         <v>362134</v>
@@ -79011,7 +79011,7 @@
         <v>1</v>
       </c>
       <c r="K673" s="3">
-        <v>181347.20000000001</v>
+        <v>197308.52</v>
       </c>
       <c r="L673" s="3">
         <v>386726</v>
@@ -79120,7 +79120,7 @@
         <v>1</v>
       </c>
       <c r="K674" s="3">
-        <v>217456.81</v>
+        <v>233878.66</v>
       </c>
       <c r="L674" s="3">
         <v>436056</v>
@@ -79229,7 +79229,7 @@
         <v>1</v>
       </c>
       <c r="K675" s="3">
-        <v>220411.93</v>
+        <v>236858.37</v>
       </c>
       <c r="L675" s="3">
         <v>468226</v>
@@ -79338,7 +79338,7 @@
         <v>1</v>
       </c>
       <c r="K676" s="3">
-        <v>250932.67</v>
+        <v>268324.5</v>
       </c>
       <c r="L676" s="3">
         <v>576324</v>
@@ -79447,7 +79447,7 @@
         <v>1</v>
       </c>
       <c r="K677" s="3">
-        <v>319837.93</v>
+        <v>338036.06</v>
       </c>
       <c r="L677" s="3">
         <v>658686</v>
@@ -79556,7 +79556,7 @@
         <v>1</v>
       </c>
       <c r="K678" s="3">
-        <v>373275.17</v>
+        <v>393661.26</v>
       </c>
       <c r="L678" s="3">
         <v>686046</v>
@@ -79665,7 +79665,7 @@
         <v>1</v>
       </c>
       <c r="K679" s="3">
-        <v>448724.75</v>
+        <v>472727.48</v>
       </c>
       <c r="L679" s="3">
         <v>856926</v>
@@ -79774,7 +79774,7 @@
         <v>1</v>
       </c>
       <c r="K680" s="3">
-        <v>535325.56999999995</v>
+        <v>560372.64</v>
       </c>
       <c r="L680" s="3">
         <v>906122</v>
@@ -79883,7 +79883,7 @@
         <v>1</v>
       </c>
       <c r="K681" s="3">
-        <v>601122.52</v>
+        <v>628461.28</v>
       </c>
       <c r="L681" s="3">
         <v>975786</v>
@@ -79992,7 +79992,7 @@
         <v>1</v>
       </c>
       <c r="K682" s="3">
-        <v>674437.11</v>
+        <v>701997.17</v>
       </c>
       <c r="L682" s="3">
         <v>1061142</v>
@@ -80101,7 +80101,7 @@
         <v>1</v>
       </c>
       <c r="K683" s="3">
-        <v>821204.22</v>
+        <v>848580.38</v>
       </c>
       <c r="L683" s="3">
         <v>1258266</v>
@@ -80210,7 +80210,7 @@
         <v>2</v>
       </c>
       <c r="K684" s="3">
-        <v>1160.75</v>
+        <v>1189.6099999999999</v>
       </c>
       <c r="L684" s="3">
         <v>1603750</v>
@@ -80319,7 +80319,7 @@
         <v>2</v>
       </c>
       <c r="K685" s="3">
-        <v>1530.76</v>
+        <v>1561.08</v>
       </c>
       <c r="L685" s="3">
         <v>2056752</v>
@@ -80428,7 +80428,7 @@
         <v>2</v>
       </c>
       <c r="K686" s="3">
-        <v>1616.3</v>
+        <v>1651.19</v>
       </c>
       <c r="L686" s="3">
         <v>2123094</v>
@@ -80537,7 +80537,7 @@
         <v>2</v>
       </c>
       <c r="K687" s="3">
-        <v>2507.36</v>
+        <v>2559.08</v>
       </c>
       <c r="L687" s="3">
         <v>2780244</v>
@@ -80646,7 +80646,7 @@
         <v>2</v>
       </c>
       <c r="K688" s="3">
-        <v>3228.34</v>
+        <v>3283.36</v>
       </c>
       <c r="L688" s="3">
         <v>2926472</v>
@@ -80755,7 +80755,7 @@
         <v>2</v>
       </c>
       <c r="K689" s="3">
-        <v>3610.8</v>
+        <v>3667.84</v>
       </c>
       <c r="L689" s="3">
         <v>2967770</v>
@@ -80864,7 +80864,7 @@
         <v>2</v>
       </c>
       <c r="K690" s="3">
-        <v>3664.21</v>
+        <v>3722</v>
       </c>
       <c r="L690" s="3">
         <v>3012020</v>
@@ -80973,7 +80973,7 @@
         <v>2</v>
       </c>
       <c r="K691" s="3">
-        <v>3879.36</v>
+        <v>3938.25</v>
       </c>
       <c r="L691" s="3">
         <v>3130814</v>
@@ -81082,7 +81082,7 @@
         <v>2</v>
       </c>
       <c r="K692" s="3">
-        <v>3953.97</v>
+        <v>4013.65</v>
       </c>
       <c r="L692" s="3">
         <v>3261118</v>
@@ -81191,7 +81191,7 @@
         <v>2</v>
       </c>
       <c r="K693" s="3">
-        <v>4037.89</v>
+        <v>4104.96</v>
       </c>
       <c r="L693" s="3">
         <v>3531480</v>
@@ -81300,7 +81300,7 @@
         <v>2</v>
       </c>
       <c r="K694" s="3">
-        <v>4539.68</v>
+        <v>4608.2299999999996</v>
       </c>
       <c r="L694" s="3">
         <v>3773226</v>
@@ -81409,7 +81409,7 @@
         <v>2</v>
       </c>
       <c r="K695" s="3">
-        <v>5203.92</v>
+        <v>5285.33</v>
       </c>
       <c r="L695" s="3">
         <v>4493070</v>
@@ -81518,7 +81518,7 @@
         <v>2</v>
       </c>
       <c r="K696" s="3">
-        <v>5993.56</v>
+        <v>6078.08</v>
       </c>
       <c r="L696" s="3">
         <v>4548874</v>
@@ -81627,7 +81627,7 @@
         <v>2</v>
       </c>
       <c r="K697" s="3">
-        <v>7546.77</v>
+        <v>7636.92</v>
       </c>
       <c r="L697" s="3">
         <v>5131868</v>
@@ -81736,7 +81736,7 @@
         <v>2</v>
       </c>
       <c r="K698" s="3">
-        <v>7595.05</v>
+        <v>7687.14</v>
       </c>
       <c r="L698" s="3">
         <v>5165074</v>
@@ -81845,7 +81845,7 @@
         <v>2</v>
       </c>
       <c r="K699" s="3">
-        <v>7762.23</v>
+        <v>7855.52</v>
       </c>
       <c r="L699" s="3">
         <v>5198278</v>
@@ -81954,7 +81954,7 @@
         <v>2</v>
       </c>
       <c r="K700" s="3">
-        <v>7993.32</v>
+        <v>8087.85</v>
       </c>
       <c r="L700" s="3">
         <v>5451732</v>
@@ -82063,7 +82063,7 @@
         <v>2</v>
       </c>
       <c r="K701" s="3">
-        <v>8300.83</v>
+        <v>8406.24</v>
       </c>
       <c r="L701" s="3">
         <v>5552820</v>
@@ -82172,7 +82172,7 @@
         <v>2</v>
       </c>
       <c r="K702" s="3">
-        <v>8108.39</v>
+        <v>8214.1200000000008</v>
       </c>
       <c r="L702" s="3">
         <v>6032872</v>
@@ -82281,7 +82281,7 @@
         <v>2</v>
       </c>
       <c r="K703" s="3">
-        <v>9031.2800000000007</v>
+        <v>9138.9500000000007</v>
       </c>
       <c r="L703" s="3">
         <v>6149580</v>
@@ -82390,7 +82390,7 @@
         <v>2</v>
       </c>
       <c r="K704" s="3">
-        <v>9079.23</v>
+        <v>9186.9699999999993</v>
       </c>
       <c r="L704" s="3">
         <v>6191700</v>
@@ -82499,7 +82499,7 @@
         <v>2</v>
       </c>
       <c r="K705" s="3">
-        <v>9134.1</v>
+        <v>9242.92</v>
       </c>
       <c r="L705" s="3">
         <v>6229432</v>
@@ -82608,7 +82608,7 @@
         <v>2</v>
       </c>
       <c r="K706" s="3">
-        <v>9188.98</v>
+        <v>9298.8700000000008</v>
       </c>
       <c r="L706" s="3">
         <v>6267166</v>
@@ -82717,7 +82717,7 @@
         <v>2</v>
       </c>
       <c r="K707" s="3">
-        <v>9252.06</v>
+        <v>9362.91</v>
       </c>
       <c r="L707" s="3">
         <v>6780556</v>
@@ -82826,7 +82826,7 @@
         <v>2</v>
       </c>
       <c r="K708" s="3">
-        <v>10001.049999999999</v>
+        <v>10114.530000000001</v>
       </c>
       <c r="L708" s="3">
         <v>6820634</v>
@@ -82935,7 +82935,7 @@
         <v>2</v>
       </c>
       <c r="K709" s="3">
-        <v>10059.35</v>
+        <v>10173.92</v>
       </c>
       <c r="L709" s="3">
         <v>6860712</v>
@@ -83044,7 +83044,7 @@
         <v>2</v>
       </c>
       <c r="K710" s="3">
-        <v>10337.59</v>
+        <v>10453.700000000001</v>
       </c>
       <c r="L710" s="3">
         <v>7050808</v>
@@ -83153,7 +83153,7 @@
         <v>2</v>
       </c>
       <c r="K711" s="3">
-        <v>10397.17</v>
+        <v>10514.36</v>
       </c>
       <c r="L711" s="3">
         <v>7091756</v>
@@ -83262,7 +83262,7 @@
         <v>2</v>
       </c>
       <c r="K712" s="3">
-        <v>10125.83</v>
+        <v>10243.34</v>
       </c>
       <c r="L712" s="3">
         <v>7518644</v>
@@ -83371,7 +83371,7 @@
         <v>2</v>
       </c>
       <c r="K713" s="3">
-        <v>11320.38</v>
+        <v>11441.39</v>
       </c>
       <c r="L713" s="3">
         <v>7721840</v>
@@ -83480,7 +83480,7 @@
         <v>2</v>
       </c>
       <c r="K714" s="3">
-        <v>11383.27</v>
+        <v>11505.37</v>
       </c>
       <c r="L714" s="3">
         <v>7765064</v>
@@ -83589,7 +83589,7 @@
         <v>2</v>
       </c>
       <c r="K715" s="3">
-        <v>11452.62</v>
+        <v>11576.79</v>
       </c>
       <c r="L715" s="3">
         <v>7812968</v>
@@ -83698,7 +83698,7 @@
         <v>2</v>
       </c>
       <c r="K716" s="3">
-        <v>11528.45</v>
+        <v>11655.67</v>
       </c>
       <c r="L716" s="3">
         <v>7865554</v>
@@ -83807,7 +83807,7 @@
         <v>2</v>
       </c>
       <c r="K717" s="3">
-        <v>11687.19</v>
+        <v>11819.57</v>
       </c>
       <c r="L717" s="3">
         <v>7976170</v>
